--- a/Studiumplan.xlsx
+++ b/Studiumplan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bosch-my.sharepoint.com/personal/uai5fe_bosch_com/Documents/DHBW/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bosch-my.sharepoint.com/personal/uai5fe_bosch_com/Documents/00_DHBW/git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{06E2D6A5-26F5-4217-B8C5-20B754C107B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7F89585-B350-4388-96EB-87A91961D895}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{06E2D6A5-26F5-4217-B8C5-20B754C107B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FA8AB08-E81E-4133-A89F-BF72802281FD}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" tabRatio="579" xr2:uid="{8D6EA8FC-9557-4CD3-9C64-AEC02D041DCB}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" tabRatio="579" xr2:uid="{8D6EA8FC-9557-4CD3-9C64-AEC02D041DCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Modulliste" sheetId="3" r:id="rId1"/>
@@ -53,7 +53,7 @@
     wird selten angeboten</t>
       </text>
     </comment>
-    <comment ref="A16" authorId="1" shapeId="0" xr:uid="{7AC76FD3-20F0-409E-BCFB-1F3017857D85}">
+    <comment ref="A18" authorId="1" shapeId="0" xr:uid="{7AC76FD3-20F0-409E-BCFB-1F3017857D85}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -1259,7 +1259,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4F3B1065-317B-4BEC-B040-1C2152005517}" name="Modulliste" displayName="Modulliste" ref="A1:L20" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
   <autoFilter ref="A1:L20" xr:uid="{4F3B1065-317B-4BEC-B040-1C2152005517}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L20">
-    <sortCondition ref="G1:G20"/>
+    <sortCondition ref="C1:C20"/>
   </sortState>
   <tableColumns count="12">
     <tableColumn id="12" xr3:uid="{2C8AA6B6-31D0-4DF0-9DA9-0D8B08088E24}" name="Modulname" dataDxfId="44"/>
@@ -1579,7 +1579,7 @@
   <threadedComment ref="A10" dT="2023-04-18T07:11:20.76" personId="{00CAF5A1-3185-49EF-893A-254A033DD426}" id="{D625988B-FD12-438F-B6F9-40477B429413}">
     <text>wird selten angeboten</text>
   </threadedComment>
-  <threadedComment ref="A16" dT="2023-04-18T07:11:30.60" personId="{00CAF5A1-3185-49EF-893A-254A033DD426}" id="{7AC76FD3-20F0-409E-BCFB-1F3017857D85}">
+  <threadedComment ref="A18" dT="2023-04-18T07:11:30.60" personId="{00CAF5A1-3185-49EF-893A-254A033DD426}" id="{7AC76FD3-20F0-409E-BCFB-1F3017857D85}">
     <text>neues Modul</text>
   </threadedComment>
 </ThreadedComments>
@@ -1591,7 +1591,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D21" sqref="D21"/>
+      <selection pane="topRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2199,135 +2199,135 @@
       <c r="L15" s="50"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27">
+        <v>5</v>
+      </c>
+      <c r="G16" s="28"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="49"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27">
+        <v>10</v>
+      </c>
+      <c r="G17" s="28"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="49"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B18" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C18" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D18" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E18" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F18" s="31">
         <v>5</v>
       </c>
-      <c r="G16" s="32">
+      <c r="G18" s="32">
         <v>45782</v>
       </c>
-      <c r="H16" s="31" t="s">
+      <c r="H18" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="32">
+      <c r="I18" s="32">
         <v>45813</v>
       </c>
-      <c r="J16" s="31" t="s">
+      <c r="J18" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="K16" s="31" t="s">
+      <c r="K18" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="L16" s="51"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="L18" s="51"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B19" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C19" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D19" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E19" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="33">
+      <c r="F19" s="33">
         <v>5</v>
       </c>
-      <c r="G17" s="34">
+      <c r="G19" s="34">
         <v>45831</v>
       </c>
-      <c r="H17" s="33" t="s">
+      <c r="H19" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="I17" s="34">
+      <c r="I19" s="34">
         <v>45862</v>
       </c>
-      <c r="J17" s="33" t="s">
+      <c r="J19" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="K17" s="33" t="s">
+      <c r="K19" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="L17" s="52"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27">
-        <v>5</v>
-      </c>
-      <c r="G18" s="28"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="49"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27">
-        <v>25</v>
-      </c>
-      <c r="G19" s="28"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="49"/>
+      <c r="L19" s="52"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
       <c r="F20" s="27">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G20" s="28"/>
       <c r="H20" s="27"/>
@@ -12117,18 +12117,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
   </mergeCells>
   <conditionalFormatting sqref="A32:B34 E32:X33 E34:F34 I34:J34 M34:P34 S34:T34 W34:X34 A4:X12 A14:X31 A13:B13 E13:X13">
     <cfRule type="expression" dxfId="11" priority="11">

--- a/Studiumplan.xlsx
+++ b/Studiumplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bosch-my.sharepoint.com/personal/uai5fe_bosch_com/Documents/00_DHBW/git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="312" documentId="13_ncr:1_{06E2D6A5-26F5-4217-B8C5-20B754C107B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAC73921-96FC-4D7F-88A4-29A05A39B393}"/>
+  <xr:revisionPtr revIDLastSave="359" documentId="13_ncr:1_{06E2D6A5-26F5-4217-B8C5-20B754C107B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F20C9EE-8678-44AF-BE1C-B4C729873F53}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="579" xr2:uid="{8D6EA8FC-9557-4CD3-9C64-AEC02D041DCB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="579" activeTab="1" xr2:uid="{8D6EA8FC-9557-4CD3-9C64-AEC02D041DCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Modulliste" sheetId="3" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="105">
   <si>
     <t>Modulname</t>
   </si>
@@ -275,9 +275,6 @@
     <t>Dezember</t>
   </si>
   <si>
-    <t>Jahr ändern um Kalendar zu wechseln</t>
-  </si>
-  <si>
     <t>Resturlaub</t>
   </si>
   <si>
@@ -323,15 +320,6 @@
     <t>Mannheim</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>FF</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>0 SS23</t>
   </si>
   <si>
@@ -386,9 +374,6 @@
     <t>Note</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Mikroelektronik und Sensorik</t>
   </si>
   <si>
@@ -411,6 +396,12 @@
   </si>
   <si>
     <t>u</t>
+  </si>
+  <si>
+    <t>Abschlussnote</t>
+  </si>
+  <si>
+    <t>Heute</t>
   </si>
 </sst>
 </file>
@@ -502,7 +493,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -566,6 +557,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,7 +692,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -782,9 +785,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
@@ -818,41 +818,50 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="41">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -880,7 +889,63 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -904,10 +969,256 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -937,6 +1248,31 @@
         <scheme val="major"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1125,6 +1461,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1143,25 +1484,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4F3B1065-317B-4BEC-B040-1C2152005517}" name="Modulliste" displayName="Modulliste" ref="A1:M20" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4F3B1065-317B-4BEC-B040-1C2152005517}" name="Modulliste" displayName="Modulliste" ref="A1:M21" totalsRowCount="1" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="A1:M20" xr:uid="{4F3B1065-317B-4BEC-B040-1C2152005517}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M20">
     <sortCondition ref="C1:C20"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="12" xr3:uid="{2C8AA6B6-31D0-4DF0-9DA9-0D8B08088E24}" name="Modulname" dataDxfId="18"/>
-    <tableColumn id="1" xr3:uid="{FF50EF13-B9B2-42C9-A37F-07237C42C851}" name="Bereich" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{DE1BE470-5B26-4F88-8799-243B2BE03172}" name="Semester" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{E64020FC-6A5D-4A49-BCE1-C2569FF59159}" name="Schlüssel" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{8470E22C-4CE1-4553-8671-9BF5989AAE65}" name="Prüfungsart" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{CF2D34DC-4E44-45F0-B25E-0FFB229BA18E}" name="LP" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{80506F77-5504-411A-B364-0B22CC53A582}" name="Termin 1" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{C9413F7D-7FA1-417F-B220-3B19C8279173}" name="Ort 1" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{A89D3283-E2AE-4360-9A93-F5F27682296D}" name="Termin 2" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{DDE1A5EF-F94C-417A-95CA-A29D4C689B48}" name="Ort 2" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{A92B3274-FA6A-4C49-87BB-1CF1BAC29EAB}" name="Prüfungstermin" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{F6C0E347-9701-496F-8B92-1BFEDFF8D817}" name="MODULVERANTWORTUNG" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{A9A48352-3929-4E88-AACC-E1A6F11D63E3}" name="Note" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{2C8AA6B6-31D0-4DF0-9DA9-0D8B08088E24}" name="Modulname" totalsRowLabel="Abschlussnote" dataDxfId="38" totalsRowDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{FF50EF13-B9B2-42C9-A37F-07237C42C851}" name="Bereich" dataDxfId="37" totalsRowDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{DE1BE470-5B26-4F88-8799-243B2BE03172}" name="Semester" dataDxfId="36" totalsRowDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{E64020FC-6A5D-4A49-BCE1-C2569FF59159}" name="Schlüssel" dataDxfId="35" totalsRowDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{8470E22C-4CE1-4553-8671-9BF5989AAE65}" name="Prüfungsart" dataDxfId="34" totalsRowDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{CF2D34DC-4E44-45F0-B25E-0FFB229BA18E}" name="LP" dataDxfId="33" totalsRowDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{80506F77-5504-411A-B364-0B22CC53A582}" name="Termin 1" dataDxfId="32" totalsRowDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{C9413F7D-7FA1-417F-B220-3B19C8279173}" name="Ort 1" dataDxfId="31" totalsRowDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{A89D3283-E2AE-4360-9A93-F5F27682296D}" name="Termin 2" dataDxfId="30" totalsRowDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{DDE1A5EF-F94C-417A-95CA-A29D4C689B48}" name="Ort 2" dataDxfId="29" totalsRowDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{A92B3274-FA6A-4C49-87BB-1CF1BAC29EAB}" name="Prüfungstermin" dataDxfId="28" totalsRowDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{F6C0E347-9701-496F-8B92-1BFEDFF8D817}" name="MODULVERANTWORTUNG" dataDxfId="27" totalsRowDxfId="15"/>
+    <tableColumn id="14" xr3:uid="{A9A48352-3929-4E88-AACC-E1A6F11D63E3}" name="Note" totalsRowFunction="custom" dataDxfId="26" totalsRowDxfId="14">
+      <totalsRowFormula array="1">SUMPRODUCT(IF(Modulliste[Note]&lt;&gt;"", Modulliste[Note]), Modulliste[LP]) / SUM(IF(Modulliste[Note]&lt;&gt;"", Modulliste[LP]))</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1475,11 +1818,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F70D999F-AAA9-4A38-8F55-9E1C84DAB455}">
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H26" sqref="H26"/>
+    <sheetView zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1500,7 +1843,7 @@
     <col min="14" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1532,31 +1875,16 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L1" s="24" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="M1" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="O1" s="2">
-        <v>1</v>
-      </c>
-      <c r="P1" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>3</v>
-      </c>
-      <c r="R1" s="2">
-        <v>4</v>
-      </c>
-      <c r="S1" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -1564,7 +1892,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>12</v>
@@ -1589,13 +1917,13 @@
       </c>
       <c r="K2" s="7"/>
       <c r="L2" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M2" s="26">
         <v>1.7</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
@@ -1603,7 +1931,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>16</v>
@@ -1628,13 +1956,13 @@
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M3" s="26">
         <v>2.4</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
@@ -1642,7 +1970,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>20</v>
@@ -1667,13 +1995,11 @@
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M4" s="26" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="M4" s="26"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
@@ -1681,7 +2007,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>23</v>
@@ -1708,11 +2034,11 @@
         <v>45230</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M5" s="26"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>24</v>
       </c>
@@ -1720,7 +2046,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>25</v>
@@ -1745,26 +2071,11 @@
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="M6" s="26"/>
-      <c r="O6" s="2">
-        <v>3</v>
-      </c>
-      <c r="P6" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2">
-        <v>2</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>32</v>
       </c>
@@ -1772,7 +2083,7 @@
         <v>33</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>49</v>
@@ -1797,17 +2108,11 @@
       </c>
       <c r="K7" s="17"/>
       <c r="L7" s="17" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M7" s="27"/>
-      <c r="O7" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>28</v>
       </c>
@@ -1815,7 +2120,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>29</v>
@@ -1840,25 +2145,22 @@
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M8" s="26"/>
-      <c r="Q8" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>27</v>
@@ -1880,11 +2182,11 @@
       </c>
       <c r="K9" s="14"/>
       <c r="L9" s="14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M9" s="28"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>39</v>
       </c>
@@ -1892,7 +2194,7 @@
         <v>37</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>45</v>
@@ -1917,11 +2219,11 @@
       </c>
       <c r="K10" s="19"/>
       <c r="L10" s="19" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="M10" s="29"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>36</v>
       </c>
@@ -1929,7 +2231,7 @@
         <v>33</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>44</v>
@@ -1954,11 +2256,11 @@
       </c>
       <c r="K11" s="17"/>
       <c r="L11" s="17" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="M11" s="27"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>34</v>
       </c>
@@ -1966,7 +2268,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>35</v>
@@ -1991,11 +2293,11 @@
       </c>
       <c r="K12" s="17"/>
       <c r="L12" s="17" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M12" s="27"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>40</v>
       </c>
@@ -2003,13 +2305,13 @@
         <v>31</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F13" s="14">
         <v>5</v>
@@ -2028,25 +2330,25 @@
       </c>
       <c r="K13" s="14"/>
       <c r="L13" s="14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M13" s="28"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F14" s="19">
         <v>5</v>
@@ -2065,22 +2367,22 @@
       </c>
       <c r="K14" s="19"/>
       <c r="L14" s="19" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M14" s="29"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>27</v>
@@ -2102,11 +2404,11 @@
       </c>
       <c r="K15" s="14"/>
       <c r="L15" s="14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="M15" s="28"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>41</v>
       </c>
@@ -2114,7 +2416,7 @@
         <v>33</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
@@ -2137,7 +2439,7 @@
         <v>33</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
@@ -2160,13 +2462,13 @@
         <v>37</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F18" s="19">
         <v>5</v>
@@ -2185,25 +2487,25 @@
       </c>
       <c r="K18" s="19"/>
       <c r="L18" s="19" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M18" s="29"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F19" s="21">
         <v>5</v>
@@ -2212,17 +2514,17 @@
         <v>45831</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I19" s="22">
         <v>45862</v>
       </c>
       <c r="J19" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K19" s="21"/>
       <c r="L19" s="21" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="M19" s="30"/>
     </row>
@@ -2234,7 +2536,7 @@
         <v>33</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
@@ -2250,42 +2552,62 @@
       <c r="M20" s="27"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="A21" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56" cm="1">
+        <f t="array" ref="M21">SUMPRODUCT(IF(Modulliste[Note]&lt;&gt;"", Modulliste[Note]), Modulliste[LP]) / SUM(IF(Modulliste[Note]&lt;&gt;"", Modulliste[LP]))</f>
+        <v>2.0499999999999998</v>
+      </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24"/>
-      <c r="E24"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="E25"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="E26"/>
       <c r="G26" s="12"/>
+      <c r="H26" s="5"/>
       <c r="I26" s="12"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="E27"/>
-      <c r="H27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
+      <c r="G27" s="12"/>
+      <c r="I27" s="12"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28"/>
+      <c r="E28"/>
+      <c r="H28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2302,3138 +2624,3115 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF09B409-1D66-4794-8114-926C35B6088F}">
   <dimension ref="A1:AC37"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD16" sqref="AD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6" customWidth="1"/>
-    <col min="18" max="18" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="24" width="7.7109375" customWidth="1"/>
+    <col min="26" max="26" width="22.140625" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" customWidth="1"/>
     <col min="29" max="29" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="32">
+      <c r="A1" s="50">
         <v>2023</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="H1" t="s">
-        <v>62</v>
-      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
       <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="47"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="47"/>
+      <c r="D3" s="49"/>
       <c r="E3" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="47"/>
+      <c r="F3" s="49"/>
       <c r="G3" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="47"/>
+      <c r="H3" s="49"/>
       <c r="I3" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="47"/>
+      <c r="J3" s="49"/>
       <c r="K3" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="L3" s="47"/>
+      <c r="L3" s="49"/>
       <c r="M3" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="N3" s="47"/>
-      <c r="O3" s="36" t="s">
+      <c r="N3" s="49"/>
+      <c r="O3" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="36" t="s">
+      <c r="P3" s="45"/>
+      <c r="Q3" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="R3" s="49"/>
-      <c r="S3" s="36" t="s">
+      <c r="R3" s="45"/>
+      <c r="S3" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="T3" s="49"/>
-      <c r="U3" s="36" t="s">
+      <c r="T3" s="45"/>
+      <c r="U3" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="V3" s="49"/>
-      <c r="W3" s="36" t="s">
+      <c r="V3" s="45"/>
+      <c r="W3" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="X3" s="49"/>
-      <c r="AC3" s="50" t="s">
-        <v>103</v>
+      <c r="X3" s="45"/>
+      <c r="AC3" s="46" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37">
+      <c r="A4" s="36">
         <f>DATE($A$1,1,1)</f>
         <v>44927</v>
       </c>
-      <c r="B4" s="38" t="str" cm="1">
+      <c r="B4" s="37" t="str" cm="1">
         <f t="array" ref="B4">IF(SUM(COUNTIF(A4,Feiertage!$A$2:$A$13)),"F",A4)</f>
         <v>F</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="36">
         <f>DATE($A$1,2,1)</f>
         <v>44958</v>
       </c>
-      <c r="D4" s="38" cm="1">
+      <c r="D4" s="37" cm="1">
         <f t="array" ref="D4">IF(SUM(COUNTIF(C4,Feiertage!$A$2:$A$13)),"F",C4)</f>
         <v>44958</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="36">
         <f>DATE($A$1,3,1)</f>
         <v>44986</v>
       </c>
-      <c r="F4" s="38" cm="1">
+      <c r="F4" s="37" cm="1">
         <f t="array" ref="F4">IF(SUM(COUNTIF(E4,Feiertage!$A$2:$A$13)),"F",E4)</f>
         <v>44986</v>
       </c>
-      <c r="G4" s="37">
+      <c r="G4" s="36">
         <f>DATE($A$1,4,1)</f>
         <v>45017</v>
       </c>
-      <c r="H4" s="38" cm="1">
+      <c r="H4" s="37" cm="1">
         <f t="array" ref="H4">IF(SUM(COUNTIF(G4,Feiertage!$A$2:$A$13)),"F",G4)</f>
         <v>45017</v>
       </c>
-      <c r="I4" s="37">
+      <c r="I4" s="36">
         <f>DATE($A$1,5,1)</f>
         <v>45047</v>
       </c>
-      <c r="J4" s="38" t="str" cm="1">
+      <c r="J4" s="37" t="str" cm="1">
         <f t="array" ref="J4">IF(SUM(COUNTIF(I4,Feiertage!$A$2:$A$13)),"F",I4)</f>
         <v>F</v>
       </c>
-      <c r="K4" s="37">
+      <c r="K4" s="36">
         <f>DATE($A$1,6,1)</f>
         <v>45078</v>
       </c>
-      <c r="L4" s="38" cm="1">
+      <c r="L4" s="37" cm="1">
         <f t="array" ref="L4">IF(SUM(COUNTIF(K4,Feiertage!$A$2:$A$13)),"F",K4)</f>
         <v>45078</v>
       </c>
-      <c r="M4" s="37">
+      <c r="M4" s="36">
         <f>DATE($A$1,7,1)</f>
         <v>45108</v>
       </c>
-      <c r="N4" s="38" cm="1">
+      <c r="N4" s="37" cm="1">
         <f t="array" ref="N4">IF(SUM(COUNTIF(M4,Feiertage!$A$2:$A$13)),"F",M4)</f>
         <v>45108</v>
       </c>
-      <c r="O4" s="37">
+      <c r="O4" s="36">
         <f>DATE($A$1,8,1)</f>
         <v>45139</v>
       </c>
-      <c r="P4" s="38" cm="1">
+      <c r="P4" s="37" cm="1">
         <f t="array" ref="P4">IF(SUM(COUNTIF(O4,Feiertage!$A$2:$A$13)),"F",O4)</f>
         <v>45139</v>
       </c>
-      <c r="Q4" s="37">
+      <c r="Q4" s="36">
         <f>DATE($A$1,9,1)</f>
         <v>45170</v>
       </c>
-      <c r="R4" s="38" cm="1">
+      <c r="R4" s="37" cm="1">
         <f t="array" ref="R4">IF(SUM(COUNTIF(Q4,Feiertage!$A$2:$A$13)),"F",Q4)</f>
         <v>45170</v>
       </c>
-      <c r="S4" s="37">
+      <c r="S4" s="36">
         <f>DATE($A$1,10,1)</f>
         <v>45200</v>
       </c>
-      <c r="T4" s="38" cm="1">
+      <c r="T4" s="37" cm="1">
         <f t="array" ref="T4">IF(SUM(COUNTIF(S4,Feiertage!$A$2:$A$13)),"F",S4)</f>
         <v>45200</v>
       </c>
-      <c r="U4" s="37">
+      <c r="U4" s="36">
         <f>DATE($A$1,11,1)</f>
         <v>45231</v>
       </c>
-      <c r="V4" s="38" t="str" cm="1">
+      <c r="V4" s="37" t="str" cm="1">
         <f t="array" ref="V4">IF(SUM(COUNTIF(U4,Feiertage!$A$2:$A$13)),"F",U4)</f>
         <v>F</v>
       </c>
-      <c r="W4" s="39">
+      <c r="W4" s="38">
         <f>DATE($A$1,12,1)</f>
         <v>45261</v>
       </c>
-      <c r="X4" s="38" cm="1">
+      <c r="X4" s="37" cm="1">
         <f t="array" ref="X4">IF(SUM(COUNTIF(W4,Feiertage!$A$2:$A$13)),"F",W4)</f>
         <v>45261</v>
       </c>
-      <c r="AC4" s="35" t="s">
-        <v>104</v>
+      <c r="AC4" s="34" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="40">
+      <c r="A5" s="39">
         <f>IFERROR(IF(MONTH(A4+1)=MONTH(A$4),A4+1,""),"")</f>
         <v>44928</v>
       </c>
-      <c r="B5" s="41" cm="1">
+      <c r="B5" s="40" cm="1">
         <f t="array" ref="B5">IF(SUM(COUNTIF(A5,Feiertage!$A$2:$A$13)),"F",A5)</f>
         <v>44928</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="39">
         <f t="shared" ref="C5:W20" si="0">IFERROR(IF(MONTH(C4+1)=MONTH(C$4),C4+1,""),"")</f>
         <v>44959</v>
       </c>
-      <c r="D5" s="41" cm="1">
+      <c r="D5" s="40" cm="1">
         <f t="array" ref="D5">IF(SUM(COUNTIF(C5,Feiertage!$A$2:$A$13)),"F",C5)</f>
         <v>44959</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="39">
         <f t="shared" si="0"/>
         <v>44987</v>
       </c>
-      <c r="F5" s="41" cm="1">
+      <c r="F5" s="40" cm="1">
         <f t="array" ref="F5">IF(SUM(COUNTIF(E5,Feiertage!$A$2:$A$13)),"F",E5)</f>
         <v>44987</v>
       </c>
-      <c r="G5" s="40">
+      <c r="G5" s="39">
         <f t="shared" si="0"/>
         <v>45018</v>
       </c>
-      <c r="H5" s="41" cm="1">
+      <c r="H5" s="40" cm="1">
         <f t="array" ref="H5">IF(SUM(COUNTIF(G5,Feiertage!$A$2:$A$13)),"F",G5)</f>
         <v>45018</v>
       </c>
-      <c r="I5" s="40">
+      <c r="I5" s="39">
         <f t="shared" si="0"/>
         <v>45048</v>
       </c>
-      <c r="J5" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="K5" s="40">
+      <c r="J5" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="K5" s="39">
         <f t="shared" si="0"/>
         <v>45079</v>
       </c>
-      <c r="L5" s="41" cm="1">
+      <c r="L5" s="40" cm="1">
         <f t="array" ref="L5">IF(SUM(COUNTIF(K5,Feiertage!$A$2:$A$13)),"F",K5)</f>
         <v>45079</v>
       </c>
-      <c r="M5" s="40">
+      <c r="M5" s="39">
         <f t="shared" si="0"/>
         <v>45109</v>
       </c>
-      <c r="N5" s="41" cm="1">
+      <c r="N5" s="40" cm="1">
         <f t="array" ref="N5">IF(SUM(COUNTIF(M5,Feiertage!$A$2:$A$13)),"F",M5)</f>
         <v>45109</v>
       </c>
-      <c r="O5" s="40">
+      <c r="O5" s="39">
         <f t="shared" si="0"/>
         <v>45140</v>
       </c>
-      <c r="P5" s="41" cm="1">
+      <c r="P5" s="40" cm="1">
         <f t="array" ref="P5">IF(SUM(COUNTIF(O5,Feiertage!$A$2:$A$13)),"F",O5)</f>
         <v>45140</v>
       </c>
-      <c r="Q5" s="40">
+      <c r="Q5" s="39">
         <f t="shared" si="0"/>
         <v>45171</v>
       </c>
-      <c r="R5" s="41" cm="1">
+      <c r="R5" s="40" cm="1">
         <f t="array" ref="R5">IF(SUM(COUNTIF(Q5,Feiertage!$A$2:$A$13)),"F",Q5)</f>
         <v>45171</v>
       </c>
-      <c r="S5" s="40">
+      <c r="S5" s="39">
         <f t="shared" si="0"/>
         <v>45201</v>
       </c>
-      <c r="T5" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="U5" s="40">
+      <c r="T5" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="U5" s="39">
         <f t="shared" si="0"/>
         <v>45232</v>
       </c>
-      <c r="V5" s="41" cm="1">
+      <c r="V5" s="40" cm="1">
         <f t="array" ref="V5">IF(SUM(COUNTIF(U5,Feiertage!$A$2:$A$13)),"F",U5)</f>
         <v>45232</v>
       </c>
-      <c r="W5" s="42">
+      <c r="W5" s="41">
         <f t="shared" si="0"/>
         <v>45262</v>
       </c>
-      <c r="X5" s="41" cm="1">
+      <c r="X5" s="40" cm="1">
         <f t="array" ref="X5">IF(SUM(COUNTIF(W5,Feiertage!$A$2:$A$13)),"F",W5)</f>
         <v>45262</v>
       </c>
       <c r="Z5" s="52" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="AA5" s="53">
         <f>COUNTIF(A4:X34,"U")</f>
         <v>30</v>
       </c>
-      <c r="AC5" s="33" t="s">
-        <v>105</v>
+      <c r="AC5" s="32" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="40">
+      <c r="A6" s="39">
         <f>IFERROR(IF(MONTH(A5+1)=MONTH(A$4),A5+1,""),"")</f>
         <v>44929</v>
       </c>
-      <c r="B6" s="41" cm="1">
+      <c r="B6" s="40" cm="1">
         <f t="array" ref="B6">IF(SUM(COUNTIF(A6,Feiertage!$A$2:$A$13)),"F",A6)</f>
         <v>44929</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="39">
         <f t="shared" si="0"/>
         <v>44960</v>
       </c>
-      <c r="D6" s="41" cm="1">
+      <c r="D6" s="40" cm="1">
         <f t="array" ref="D6">IF(SUM(COUNTIF(C6,Feiertage!$A$2:$A$13)),"F",C6)</f>
         <v>44960</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="39">
         <f t="shared" si="0"/>
         <v>44988</v>
       </c>
-      <c r="F6" s="41" cm="1">
+      <c r="F6" s="40" cm="1">
         <f t="array" ref="F6">IF(SUM(COUNTIF(E6,Feiertage!$A$2:$A$13)),"F",E6)</f>
         <v>44988</v>
       </c>
-      <c r="G6" s="40">
+      <c r="G6" s="39">
         <f t="shared" si="0"/>
         <v>45019</v>
       </c>
-      <c r="H6" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="I6" s="40">
+      <c r="H6" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="I6" s="39">
         <f t="shared" si="0"/>
         <v>45049</v>
       </c>
-      <c r="J6" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="K6" s="40">
+      <c r="J6" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="K6" s="39">
         <f t="shared" si="0"/>
         <v>45080</v>
       </c>
-      <c r="L6" s="41" cm="1">
+      <c r="L6" s="40" cm="1">
         <f t="array" ref="L6">IF(SUM(COUNTIF(K6,Feiertage!$A$2:$A$13)),"F",K6)</f>
         <v>45080</v>
       </c>
-      <c r="M6" s="40">
+      <c r="M6" s="39">
         <f t="shared" si="0"/>
         <v>45110</v>
       </c>
-      <c r="N6" s="41" cm="1">
+      <c r="N6" s="40" cm="1">
         <f t="array" ref="N6">IF(SUM(COUNTIF(M6,Feiertage!$A$2:$A$13)),"F",M6)</f>
         <v>45110</v>
       </c>
-      <c r="O6" s="40">
+      <c r="O6" s="39">
         <f t="shared" si="0"/>
         <v>45141</v>
       </c>
-      <c r="P6" s="41" cm="1">
+      <c r="P6" s="40" cm="1">
         <f t="array" ref="P6">IF(SUM(COUNTIF(O6,Feiertage!$A$2:$A$13)),"F",O6)</f>
         <v>45141</v>
       </c>
-      <c r="Q6" s="40">
+      <c r="Q6" s="39">
         <f t="shared" si="0"/>
         <v>45172</v>
       </c>
-      <c r="R6" s="41" cm="1">
+      <c r="R6" s="40" cm="1">
         <f t="array" ref="R6">IF(SUM(COUNTIF(Q6,Feiertage!$A$2:$A$13)),"F",Q6)</f>
         <v>45172</v>
       </c>
-      <c r="S6" s="40">
+      <c r="S6" s="39">
         <f t="shared" si="0"/>
         <v>45202</v>
       </c>
-      <c r="T6" s="41" t="str" cm="1">
+      <c r="T6" s="40" t="str" cm="1">
         <f t="array" ref="T6">IF(SUM(COUNTIF(S6,Feiertage!$A$2:$A$13)),"F",S6)</f>
         <v>F</v>
       </c>
-      <c r="U6" s="40">
+      <c r="U6" s="39">
         <f t="shared" si="0"/>
         <v>45233</v>
       </c>
-      <c r="V6" s="41" cm="1">
+      <c r="V6" s="40" cm="1">
         <f t="array" ref="V6">IF(SUM(COUNTIF(U6,Feiertage!$A$2:$A$13)),"F",U6)</f>
         <v>45233</v>
       </c>
-      <c r="W6" s="42">
+      <c r="W6" s="41">
         <f t="shared" si="0"/>
         <v>45263</v>
       </c>
-      <c r="X6" s="41" cm="1">
+      <c r="X6" s="40" cm="1">
         <f t="array" ref="X6">IF(SUM(COUNTIF(W6,Feiertage!$A$2:$A$13)),"F",W6)</f>
         <v>45263</v>
       </c>
       <c r="Z6" s="54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AA6" s="55">
         <f>30-AA5</f>
         <v>0</v>
       </c>
-      <c r="AC6" s="34" t="s">
+      <c r="AC6" s="33" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="40">
+      <c r="A7" s="39">
         <f t="shared" ref="A7:A31" si="1">IFERROR(IF(MONTH(A6+1)=MONTH(A$4),A6+1,""),"")</f>
         <v>44930</v>
       </c>
-      <c r="B7" s="41" cm="1">
+      <c r="B7" s="40" cm="1">
         <f t="array" ref="B7">IF(SUM(COUNTIF(A7,Feiertage!$A$2:$A$13)),"F",A7)</f>
         <v>44930</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="39">
         <f t="shared" si="0"/>
         <v>44961</v>
       </c>
-      <c r="D7" s="41" cm="1">
+      <c r="D7" s="40" cm="1">
         <f t="array" ref="D7">IF(SUM(COUNTIF(C7,Feiertage!$A$2:$A$13)),"F",C7)</f>
         <v>44961</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="39">
         <f t="shared" si="0"/>
         <v>44989</v>
       </c>
-      <c r="F7" s="41" cm="1">
+      <c r="F7" s="40" cm="1">
         <f t="array" ref="F7">IF(SUM(COUNTIF(E7,Feiertage!$A$2:$A$13)),"F",E7)</f>
         <v>44989</v>
       </c>
-      <c r="G7" s="40">
+      <c r="G7" s="39">
         <f t="shared" si="0"/>
         <v>45020</v>
       </c>
-      <c r="H7" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="I7" s="40">
+      <c r="H7" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="I7" s="39">
         <f t="shared" si="0"/>
         <v>45050</v>
       </c>
-      <c r="J7" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="K7" s="40">
+      <c r="J7" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="K7" s="39">
         <f t="shared" si="0"/>
         <v>45081</v>
       </c>
-      <c r="L7" s="41" cm="1">
+      <c r="L7" s="40" cm="1">
         <f t="array" ref="L7">IF(SUM(COUNTIF(K7,Feiertage!$A$2:$A$13)),"F",K7)</f>
         <v>45081</v>
       </c>
-      <c r="M7" s="40">
+      <c r="M7" s="39">
         <f t="shared" si="0"/>
         <v>45111</v>
       </c>
-      <c r="N7" s="41" cm="1">
+      <c r="N7" s="40" cm="1">
         <f t="array" ref="N7">IF(SUM(COUNTIF(M7,Feiertage!$A$2:$A$13)),"F",M7)</f>
         <v>45111</v>
       </c>
-      <c r="O7" s="40">
+      <c r="O7" s="39">
         <f t="shared" si="0"/>
         <v>45142</v>
       </c>
-      <c r="P7" s="41" cm="1">
+      <c r="P7" s="40" cm="1">
         <f t="array" ref="P7">IF(SUM(COUNTIF(O7,Feiertage!$A$2:$A$13)),"F",O7)</f>
         <v>45142</v>
       </c>
-      <c r="Q7" s="40">
+      <c r="Q7" s="39">
         <f t="shared" si="0"/>
         <v>45173</v>
       </c>
-      <c r="R7" s="41" cm="1">
+      <c r="R7" s="40" cm="1">
         <f t="array" ref="R7">IF(SUM(COUNTIF(Q7,Feiertage!$A$2:$A$13)),"F",Q7)</f>
         <v>45173</v>
       </c>
-      <c r="S7" s="40">
+      <c r="S7" s="39">
         <f t="shared" si="0"/>
         <v>45203</v>
       </c>
-      <c r="T7" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="U7" s="40">
+      <c r="T7" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="U7" s="39">
         <f t="shared" si="0"/>
         <v>45234</v>
       </c>
-      <c r="V7" s="41" cm="1">
+      <c r="V7" s="40" cm="1">
         <f t="array" ref="V7">IF(SUM(COUNTIF(U7,Feiertage!$A$2:$A$13)),"F",U7)</f>
         <v>45234</v>
       </c>
-      <c r="W7" s="42">
+      <c r="W7" s="41">
         <f t="shared" si="0"/>
         <v>45264</v>
       </c>
-      <c r="X7" s="41" cm="1">
+      <c r="X7" s="40" cm="1">
         <f t="array" ref="X7">IF(SUM(COUNTIF(W7,Feiertage!$A$2:$A$13)),"F",W7)</f>
         <v>45264</v>
       </c>
-      <c r="AC7" s="51" t="s">
-        <v>106</v>
+      <c r="AC7" s="47" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="40">
+      <c r="A8" s="39">
         <f t="shared" si="1"/>
         <v>44931</v>
       </c>
-      <c r="B8" s="41" cm="1">
+      <c r="B8" s="40" cm="1">
         <f t="array" ref="B8">IF(SUM(COUNTIF(A8,Feiertage!$A$2:$A$13)),"F",A8)</f>
         <v>44931</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="39">
         <f t="shared" si="0"/>
         <v>44962</v>
       </c>
-      <c r="D8" s="41" cm="1">
+      <c r="D8" s="40" cm="1">
         <f t="array" ref="D8">IF(SUM(COUNTIF(C8,Feiertage!$A$2:$A$13)),"F",C8)</f>
         <v>44962</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="39">
         <f t="shared" si="0"/>
         <v>44990</v>
       </c>
-      <c r="F8" s="41" cm="1">
+      <c r="F8" s="40" cm="1">
         <f t="array" ref="F8">IF(SUM(COUNTIF(E8,Feiertage!$A$2:$A$13)),"F",E8)</f>
         <v>44990</v>
       </c>
-      <c r="G8" s="40">
+      <c r="G8" s="39">
         <f t="shared" si="0"/>
         <v>45021</v>
       </c>
-      <c r="H8" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="I8" s="40">
+      <c r="H8" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="I8" s="39">
         <f t="shared" si="0"/>
         <v>45051</v>
       </c>
-      <c r="J8" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="K8" s="40">
+      <c r="J8" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" s="39">
         <f t="shared" si="0"/>
         <v>45082</v>
       </c>
-      <c r="L8" s="41" cm="1">
+      <c r="L8" s="40" cm="1">
         <f t="array" ref="L8">IF(SUM(COUNTIF(K8,Feiertage!$A$2:$A$13)),"F",K8)</f>
         <v>45082</v>
       </c>
-      <c r="M8" s="40">
+      <c r="M8" s="39">
         <f t="shared" si="0"/>
         <v>45112</v>
       </c>
-      <c r="N8" s="41" cm="1">
+      <c r="N8" s="40" cm="1">
         <f t="array" ref="N8">IF(SUM(COUNTIF(M8,Feiertage!$A$2:$A$13)),"F",M8)</f>
         <v>45112</v>
       </c>
-      <c r="O8" s="40">
+      <c r="O8" s="39">
         <f t="shared" si="0"/>
         <v>45143</v>
       </c>
-      <c r="P8" s="41" cm="1">
+      <c r="P8" s="40" cm="1">
         <f t="array" ref="P8">IF(SUM(COUNTIF(O8,Feiertage!$A$2:$A$13)),"F",O8)</f>
         <v>45143</v>
       </c>
-      <c r="Q8" s="40">
+      <c r="Q8" s="39">
         <f t="shared" si="0"/>
         <v>45174</v>
       </c>
-      <c r="R8" s="41" cm="1">
+      <c r="R8" s="40" cm="1">
         <f t="array" ref="R8">IF(SUM(COUNTIF(Q8,Feiertage!$A$2:$A$13)),"F",Q8)</f>
         <v>45174</v>
       </c>
-      <c r="S8" s="40">
+      <c r="S8" s="39">
         <f t="shared" si="0"/>
         <v>45204</v>
       </c>
-      <c r="T8" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="U8" s="40">
+      <c r="T8" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="U8" s="39">
         <f t="shared" si="0"/>
         <v>45235</v>
       </c>
-      <c r="V8" s="41" cm="1">
+      <c r="V8" s="40" cm="1">
         <f t="array" ref="V8">IF(SUM(COUNTIF(U8,Feiertage!$A$2:$A$13)),"F",U8)</f>
         <v>45235</v>
       </c>
-      <c r="W8" s="42">
+      <c r="W8" s="41">
         <f t="shared" si="0"/>
         <v>45265</v>
       </c>
-      <c r="X8" s="41" cm="1">
+      <c r="X8" s="40" cm="1">
         <f t="array" ref="X8">IF(SUM(COUNTIF(W8,Feiertage!$A$2:$A$13)),"F",W8)</f>
         <v>45265</v>
       </c>
+      <c r="AC8" s="60" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="9" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="40">
+      <c r="A9" s="39">
         <f t="shared" si="1"/>
         <v>44932</v>
       </c>
-      <c r="B9" s="41" t="str" cm="1">
+      <c r="B9" s="40" t="str" cm="1">
         <f t="array" ref="B9">IF(SUM(COUNTIF(A9,Feiertage!$A$2:$A$13)),"F",A9)</f>
         <v>F</v>
       </c>
-      <c r="C9" s="40">
+      <c r="C9" s="39">
         <f t="shared" si="0"/>
         <v>44963</v>
       </c>
-      <c r="D9" s="41" cm="1">
+      <c r="D9" s="40" cm="1">
         <f t="array" ref="D9">IF(SUM(COUNTIF(C9,Feiertage!$A$2:$A$13)),"F",C9)</f>
         <v>44963</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E9" s="39">
         <f t="shared" si="0"/>
         <v>44991</v>
       </c>
-      <c r="F9" s="41" cm="1">
+      <c r="F9" s="40" cm="1">
         <f t="array" ref="F9">IF(SUM(COUNTIF(E9,Feiertage!$A$2:$A$13)),"F",E9)</f>
         <v>44991</v>
       </c>
-      <c r="G9" s="40">
+      <c r="G9" s="39">
         <f t="shared" si="0"/>
         <v>45022</v>
       </c>
-      <c r="H9" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="I9" s="40">
+      <c r="H9" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="I9" s="39">
         <f t="shared" si="0"/>
         <v>45052</v>
       </c>
-      <c r="J9" s="41" cm="1">
+      <c r="J9" s="40" cm="1">
         <f t="array" ref="J9">IF(SUM(COUNTIF(I9,Feiertage!$A$2:$A$13)),"F",I9)</f>
         <v>45052</v>
       </c>
-      <c r="K9" s="40">
+      <c r="K9" s="39">
         <f t="shared" si="0"/>
         <v>45083</v>
       </c>
-      <c r="L9" s="41" cm="1">
+      <c r="L9" s="40" cm="1">
         <f t="array" ref="L9">IF(SUM(COUNTIF(K9,Feiertage!$A$2:$A$13)),"F",K9)</f>
         <v>45083</v>
       </c>
-      <c r="M9" s="40">
+      <c r="M9" s="39">
         <f t="shared" si="0"/>
         <v>45113</v>
       </c>
-      <c r="N9" s="41" cm="1">
+      <c r="N9" s="40" cm="1">
         <f t="array" ref="N9">IF(SUM(COUNTIF(M9,Feiertage!$A$2:$A$13)),"F",M9)</f>
         <v>45113</v>
       </c>
-      <c r="O9" s="40">
+      <c r="O9" s="39">
         <f t="shared" si="0"/>
         <v>45144</v>
       </c>
-      <c r="P9" s="41" cm="1">
+      <c r="P9" s="40" cm="1">
         <f t="array" ref="P9">IF(SUM(COUNTIF(O9,Feiertage!$A$2:$A$13)),"F",O9)</f>
         <v>45144</v>
       </c>
-      <c r="Q9" s="40">
+      <c r="Q9" s="39">
         <f t="shared" si="0"/>
         <v>45175</v>
       </c>
-      <c r="R9" s="41" cm="1">
+      <c r="R9" s="40" cm="1">
         <f t="array" ref="R9">IF(SUM(COUNTIF(Q9,Feiertage!$A$2:$A$13)),"F",Q9)</f>
         <v>45175</v>
       </c>
-      <c r="S9" s="40">
+      <c r="S9" s="39">
         <f t="shared" si="0"/>
         <v>45205</v>
       </c>
-      <c r="T9" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="U9" s="40">
+      <c r="T9" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="U9" s="39">
         <f t="shared" si="0"/>
         <v>45236</v>
       </c>
-      <c r="V9" s="41" cm="1">
+      <c r="V9" s="40" cm="1">
         <f t="array" ref="V9">IF(SUM(COUNTIF(U9,Feiertage!$A$2:$A$13)),"F",U9)</f>
         <v>45236</v>
       </c>
-      <c r="W9" s="42">
+      <c r="W9" s="41">
         <f t="shared" si="0"/>
         <v>45266</v>
       </c>
-      <c r="X9" s="41" cm="1">
+      <c r="X9" s="40" cm="1">
         <f t="array" ref="X9">IF(SUM(COUNTIF(W9,Feiertage!$A$2:$A$13)),"F",W9)</f>
         <v>45266</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="40">
+      <c r="A10" s="39">
         <f t="shared" si="1"/>
         <v>44933</v>
       </c>
-      <c r="B10" s="41" cm="1">
+      <c r="B10" s="40" cm="1">
         <f t="array" ref="B10">IF(SUM(COUNTIF(A10,Feiertage!$A$2:$A$13)),"F",A10)</f>
         <v>44933</v>
       </c>
-      <c r="C10" s="40">
+      <c r="C10" s="39">
         <f t="shared" si="0"/>
         <v>44964</v>
       </c>
-      <c r="D10" s="41" cm="1">
+      <c r="D10" s="40" cm="1">
         <f t="array" ref="D10">IF(SUM(COUNTIF(C10,Feiertage!$A$2:$A$13)),"F",C10)</f>
         <v>44964</v>
       </c>
-      <c r="E10" s="40">
+      <c r="E10" s="39">
         <f t="shared" si="0"/>
         <v>44992</v>
       </c>
-      <c r="F10" s="41" cm="1">
+      <c r="F10" s="40" cm="1">
         <f t="array" ref="F10">IF(SUM(COUNTIF(E10,Feiertage!$A$2:$A$13)),"F",E10)</f>
         <v>44992</v>
       </c>
-      <c r="G10" s="40">
+      <c r="G10" s="39">
         <f t="shared" si="0"/>
         <v>45023</v>
       </c>
-      <c r="H10" s="41" t="str" cm="1">
+      <c r="H10" s="40" t="str" cm="1">
         <f t="array" ref="H10">IF(SUM(COUNTIF(G10,Feiertage!$A$2:$A$13)),"F",G10)</f>
         <v>F</v>
       </c>
-      <c r="I10" s="40">
+      <c r="I10" s="39">
         <f t="shared" si="0"/>
         <v>45053</v>
       </c>
-      <c r="J10" s="41" cm="1">
+      <c r="J10" s="40" cm="1">
         <f t="array" ref="J10">IF(SUM(COUNTIF(I10,Feiertage!$A$2:$A$13)),"F",I10)</f>
         <v>45053</v>
       </c>
-      <c r="K10" s="40">
+      <c r="K10" s="39">
         <f t="shared" si="0"/>
         <v>45084</v>
       </c>
-      <c r="L10" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="M10" s="40">
+      <c r="L10" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="M10" s="39">
         <f t="shared" si="0"/>
         <v>45114</v>
       </c>
-      <c r="N10" s="41" cm="1">
+      <c r="N10" s="40" cm="1">
         <f t="array" ref="N10">IF(SUM(COUNTIF(M10,Feiertage!$A$2:$A$13)),"F",M10)</f>
         <v>45114</v>
       </c>
-      <c r="O10" s="40">
+      <c r="O10" s="39">
         <f t="shared" si="0"/>
         <v>45145</v>
       </c>
-      <c r="P10" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q10" s="40">
+      <c r="P10" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q10" s="39">
         <f t="shared" si="0"/>
         <v>45176</v>
       </c>
-      <c r="R10" s="41" cm="1">
+      <c r="R10" s="40" cm="1">
         <f t="array" ref="R10">IF(SUM(COUNTIF(Q10,Feiertage!$A$2:$A$13)),"F",Q10)</f>
         <v>45176</v>
       </c>
-      <c r="S10" s="40">
+      <c r="S10" s="39">
         <f t="shared" si="0"/>
         <v>45206</v>
       </c>
-      <c r="T10" s="41" cm="1">
+      <c r="T10" s="40" cm="1">
         <f t="array" ref="T10">IF(SUM(COUNTIF(S10,Feiertage!$A$2:$A$13)),"F",S10)</f>
         <v>45206</v>
       </c>
-      <c r="U10" s="40">
+      <c r="U10" s="39">
         <f t="shared" si="0"/>
         <v>45237</v>
       </c>
-      <c r="V10" s="41" cm="1">
+      <c r="V10" s="40" cm="1">
         <f t="array" ref="V10">IF(SUM(COUNTIF(U10,Feiertage!$A$2:$A$13)),"F",U10)</f>
         <v>45237</v>
       </c>
-      <c r="W10" s="42">
+      <c r="W10" s="41">
         <f t="shared" si="0"/>
         <v>45267</v>
       </c>
-      <c r="X10" s="41" cm="1">
+      <c r="X10" s="40" cm="1">
         <f t="array" ref="X10">IF(SUM(COUNTIF(W10,Feiertage!$A$2:$A$13)),"F",W10)</f>
         <v>45267</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="40">
+      <c r="A11" s="39">
         <f>IFERROR(IF(MONTH(A10+1)=MONTH(A$4),A10+1,""),"")</f>
         <v>44934</v>
       </c>
-      <c r="B11" s="41" cm="1">
+      <c r="B11" s="40" cm="1">
         <f t="array" ref="B11">IF(SUM(COUNTIF(A11,Feiertage!$A$2:$A$13)),"F",A11)</f>
         <v>44934</v>
       </c>
-      <c r="C11" s="40">
+      <c r="C11" s="39">
         <f t="shared" si="0"/>
         <v>44965</v>
       </c>
-      <c r="D11" s="41" cm="1">
+      <c r="D11" s="40" cm="1">
         <f t="array" ref="D11">IF(SUM(COUNTIF(C11,Feiertage!$A$2:$A$13)),"F",C11)</f>
         <v>44965</v>
       </c>
-      <c r="E11" s="40">
+      <c r="E11" s="39">
         <f t="shared" si="0"/>
         <v>44993</v>
       </c>
-      <c r="F11" s="41" cm="1">
+      <c r="F11" s="40" cm="1">
         <f t="array" ref="F11">IF(SUM(COUNTIF(E11,Feiertage!$A$2:$A$13)),"F",E11)</f>
         <v>44993</v>
       </c>
-      <c r="G11" s="40">
+      <c r="G11" s="39">
         <f t="shared" si="0"/>
         <v>45024</v>
       </c>
-      <c r="H11" s="41" cm="1">
+      <c r="H11" s="40" cm="1">
         <f t="array" ref="H11">IF(SUM(COUNTIF(G11,Feiertage!$A$2:$A$13)),"F",G11)</f>
         <v>45024</v>
       </c>
-      <c r="I11" s="40">
+      <c r="I11" s="39">
         <f t="shared" si="0"/>
         <v>45054</v>
       </c>
-      <c r="J11" s="41" cm="1">
+      <c r="J11" s="40" cm="1">
         <f t="array" ref="J11">IF(SUM(COUNTIF(I11,Feiertage!$A$2:$A$13)),"F",I11)</f>
         <v>45054</v>
       </c>
-      <c r="K11" s="40">
+      <c r="K11" s="39">
         <f t="shared" si="0"/>
         <v>45085</v>
       </c>
-      <c r="L11" s="41" t="str" cm="1">
+      <c r="L11" s="40" t="str" cm="1">
         <f t="array" ref="L11">IF(SUM(COUNTIF(K11,Feiertage!$A$2:$A$13)),"F",K11)</f>
         <v>F</v>
       </c>
-      <c r="M11" s="40">
+      <c r="M11" s="39">
         <f t="shared" si="0"/>
         <v>45115</v>
       </c>
-      <c r="N11" s="41" cm="1">
+      <c r="N11" s="40" cm="1">
         <f t="array" ref="N11">IF(SUM(COUNTIF(M11,Feiertage!$A$2:$A$13)),"F",M11)</f>
         <v>45115</v>
       </c>
-      <c r="O11" s="40">
+      <c r="O11" s="39">
         <f t="shared" si="0"/>
         <v>45146</v>
       </c>
-      <c r="P11" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q11" s="40">
+      <c r="P11" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q11" s="39">
         <f t="shared" si="0"/>
         <v>45177</v>
       </c>
-      <c r="R11" s="41" cm="1">
+      <c r="R11" s="40" cm="1">
         <f t="array" ref="R11">IF(SUM(COUNTIF(Q11,Feiertage!$A$2:$A$13)),"F",Q11)</f>
         <v>45177</v>
       </c>
-      <c r="S11" s="40">
+      <c r="S11" s="39">
         <f t="shared" si="0"/>
         <v>45207</v>
       </c>
-      <c r="T11" s="41" cm="1">
+      <c r="T11" s="40" cm="1">
         <f t="array" ref="T11">IF(SUM(COUNTIF(S11,Feiertage!$A$2:$A$13)),"F",S11)</f>
         <v>45207</v>
       </c>
-      <c r="U11" s="40">
+      <c r="U11" s="39">
         <f t="shared" si="0"/>
         <v>45238</v>
       </c>
-      <c r="V11" s="41" cm="1">
+      <c r="V11" s="40" cm="1">
         <f t="array" ref="V11">IF(SUM(COUNTIF(U11,Feiertage!$A$2:$A$13)),"F",U11)</f>
         <v>45238</v>
       </c>
-      <c r="W11" s="42">
+      <c r="W11" s="41">
         <f t="shared" si="0"/>
         <v>45268</v>
       </c>
-      <c r="X11" s="41" cm="1">
+      <c r="X11" s="40" cm="1">
         <f t="array" ref="X11">IF(SUM(COUNTIF(W11,Feiertage!$A$2:$A$13)),"F",W11)</f>
         <v>45268</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="40">
+      <c r="A12" s="39">
         <f t="shared" si="1"/>
         <v>44935</v>
       </c>
-      <c r="B12" s="41" cm="1">
+      <c r="B12" s="40" cm="1">
         <f t="array" ref="B12">IF(SUM(COUNTIF(A12,Feiertage!$A$2:$A$13)),"F",A12)</f>
         <v>44935</v>
       </c>
-      <c r="C12" s="40">
+      <c r="C12" s="39">
         <f t="shared" si="0"/>
         <v>44966</v>
       </c>
-      <c r="D12" s="41" cm="1">
+      <c r="D12" s="40" cm="1">
         <f t="array" ref="D12">IF(SUM(COUNTIF(C12,Feiertage!$A$2:$A$13)),"F",C12)</f>
         <v>44966</v>
       </c>
-      <c r="E12" s="40">
+      <c r="E12" s="39">
         <f t="shared" si="0"/>
         <v>44994</v>
       </c>
-      <c r="F12" s="41" cm="1">
+      <c r="F12" s="40" cm="1">
         <f t="array" ref="F12">IF(SUM(COUNTIF(E12,Feiertage!$A$2:$A$13)),"F",E12)</f>
         <v>44994</v>
       </c>
-      <c r="G12" s="40">
+      <c r="G12" s="39">
         <f t="shared" si="0"/>
         <v>45025</v>
       </c>
-      <c r="H12" s="41" cm="1">
+      <c r="H12" s="40" cm="1">
         <f t="array" ref="H12">IF(SUM(COUNTIF(G12,Feiertage!$A$2:$A$13)),"F",G12)</f>
         <v>45025</v>
       </c>
-      <c r="I12" s="40">
+      <c r="I12" s="39">
         <f t="shared" si="0"/>
         <v>45055</v>
       </c>
-      <c r="J12" s="41" cm="1">
+      <c r="J12" s="40" cm="1">
         <f t="array" ref="J12">IF(SUM(COUNTIF(I12,Feiertage!$A$2:$A$13)),"F",I12)</f>
         <v>45055</v>
       </c>
-      <c r="K12" s="40">
+      <c r="K12" s="39">
         <f t="shared" si="0"/>
         <v>45086</v>
       </c>
-      <c r="L12" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="M12" s="40">
+      <c r="L12" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="M12" s="39">
         <f t="shared" si="0"/>
         <v>45116</v>
       </c>
-      <c r="N12" s="41" cm="1">
+      <c r="N12" s="40" cm="1">
         <f t="array" ref="N12">IF(SUM(COUNTIF(M12,Feiertage!$A$2:$A$13)),"F",M12)</f>
         <v>45116</v>
       </c>
-      <c r="O12" s="40">
+      <c r="O12" s="39">
         <f t="shared" si="0"/>
         <v>45147</v>
       </c>
-      <c r="P12" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q12" s="40">
+      <c r="P12" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q12" s="39">
         <f t="shared" si="0"/>
         <v>45178</v>
       </c>
-      <c r="R12" s="41" cm="1">
+      <c r="R12" s="40" cm="1">
         <f t="array" ref="R12">IF(SUM(COUNTIF(Q12,Feiertage!$A$2:$A$13)),"F",Q12)</f>
         <v>45178</v>
       </c>
-      <c r="S12" s="40">
+      <c r="S12" s="39">
         <f t="shared" si="0"/>
         <v>45208</v>
       </c>
-      <c r="T12" s="41" cm="1">
+      <c r="T12" s="40" cm="1">
         <f t="array" ref="T12">IF(SUM(COUNTIF(S12,Feiertage!$A$2:$A$13)),"F",S12)</f>
         <v>45208</v>
       </c>
-      <c r="U12" s="40">
+      <c r="U12" s="39">
         <f t="shared" si="0"/>
         <v>45239</v>
       </c>
-      <c r="V12" s="41" cm="1">
+      <c r="V12" s="40" cm="1">
         <f t="array" ref="V12">IF(SUM(COUNTIF(U12,Feiertage!$A$2:$A$13)),"F",U12)</f>
         <v>45239</v>
       </c>
-      <c r="W12" s="42">
+      <c r="W12" s="41">
         <f t="shared" si="0"/>
         <v>45269</v>
       </c>
-      <c r="X12" s="41" cm="1">
+      <c r="X12" s="40" cm="1">
         <f t="array" ref="X12">IF(SUM(COUNTIF(W12,Feiertage!$A$2:$A$13)),"F",W12)</f>
         <v>45269</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="40">
+      <c r="A13" s="39">
         <f t="shared" si="1"/>
         <v>44936</v>
       </c>
-      <c r="B13" s="41" cm="1">
+      <c r="B13" s="40" cm="1">
         <f t="array" ref="B13">IF(SUM(COUNTIF(A13,Feiertage!$A$2:$A$13)),"F",A13)</f>
         <v>44936</v>
       </c>
-      <c r="C13" s="40">
+      <c r="C13" s="39">
         <f t="shared" si="0"/>
         <v>44967</v>
       </c>
-      <c r="D13" s="41" cm="1">
+      <c r="D13" s="40" cm="1">
         <f t="array" ref="D13">IF(SUM(COUNTIF(C13,Feiertage!$A$2:$A$13)),"F",C13)</f>
         <v>44967</v>
       </c>
-      <c r="E13" s="40">
+      <c r="E13" s="39">
         <f t="shared" si="0"/>
         <v>44995</v>
       </c>
-      <c r="F13" s="41" cm="1">
+      <c r="F13" s="40" cm="1">
         <f t="array" ref="F13">IF(SUM(COUNTIF(E13,Feiertage!$A$2:$A$13)),"F",E13)</f>
         <v>44995</v>
       </c>
-      <c r="G13" s="40">
+      <c r="G13" s="39">
         <f t="shared" si="0"/>
         <v>45026</v>
       </c>
-      <c r="H13" s="41" t="str" cm="1">
+      <c r="H13" s="40" t="str" cm="1">
         <f t="array" ref="H13">IF(SUM(COUNTIF(G13,Feiertage!$A$2:$A$13)),"F",G13)</f>
         <v>F</v>
       </c>
-      <c r="I13" s="40">
+      <c r="I13" s="39">
         <f t="shared" si="0"/>
         <v>45056</v>
       </c>
-      <c r="J13" s="41" cm="1">
+      <c r="J13" s="40" cm="1">
         <f t="array" ref="J13">IF(SUM(COUNTIF(I13,Feiertage!$A$2:$A$13)),"F",I13)</f>
         <v>45056</v>
       </c>
-      <c r="K13" s="40">
+      <c r="K13" s="39">
         <f t="shared" si="0"/>
         <v>45087</v>
       </c>
-      <c r="L13" s="41" cm="1">
+      <c r="L13" s="40" cm="1">
         <f t="array" ref="L13">IF(SUM(COUNTIF(K13,Feiertage!$A$2:$A$13)),"F",K13)</f>
         <v>45087</v>
       </c>
-      <c r="M13" s="40">
+      <c r="M13" s="39">
         <f t="shared" si="0"/>
         <v>45117</v>
       </c>
-      <c r="N13" s="41" cm="1">
+      <c r="N13" s="40" cm="1">
         <f t="array" ref="N13">IF(SUM(COUNTIF(M13,Feiertage!$A$2:$A$13)),"F",M13)</f>
         <v>45117</v>
       </c>
-      <c r="O13" s="40">
+      <c r="O13" s="39">
         <f t="shared" si="0"/>
         <v>45148</v>
       </c>
-      <c r="P13" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q13" s="40">
+      <c r="P13" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q13" s="39">
         <f t="shared" si="0"/>
         <v>45179</v>
       </c>
-      <c r="R13" s="41" cm="1">
+      <c r="R13" s="40" cm="1">
         <f t="array" ref="R13">IF(SUM(COUNTIF(Q13,Feiertage!$A$2:$A$13)),"F",Q13)</f>
         <v>45179</v>
       </c>
-      <c r="S13" s="40">
+      <c r="S13" s="39">
         <f t="shared" si="0"/>
         <v>45209</v>
       </c>
-      <c r="T13" s="41" cm="1">
+      <c r="T13" s="40" cm="1">
         <f t="array" ref="T13">IF(SUM(COUNTIF(S13,Feiertage!$A$2:$A$13)),"F",S13)</f>
         <v>45209</v>
       </c>
-      <c r="U13" s="40">
+      <c r="U13" s="39">
         <f t="shared" si="0"/>
         <v>45240</v>
       </c>
-      <c r="V13" s="41" cm="1">
+      <c r="V13" s="40" cm="1">
         <f t="array" ref="V13">IF(SUM(COUNTIF(U13,Feiertage!$A$2:$A$13)),"F",U13)</f>
         <v>45240</v>
       </c>
-      <c r="W13" s="42">
+      <c r="W13" s="41">
         <f t="shared" si="0"/>
         <v>45270</v>
       </c>
-      <c r="X13" s="41" cm="1">
+      <c r="X13" s="40" cm="1">
         <f t="array" ref="X13">IF(SUM(COUNTIF(W13,Feiertage!$A$2:$A$13)),"F",W13)</f>
         <v>45270</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="40">
+      <c r="A14" s="39">
         <f t="shared" si="1"/>
         <v>44937</v>
       </c>
-      <c r="B14" s="41" cm="1">
+      <c r="B14" s="40" cm="1">
         <f t="array" ref="B14">IF(SUM(COUNTIF(A14,Feiertage!$A$2:$A$13)),"F",A14)</f>
         <v>44937</v>
       </c>
-      <c r="C14" s="40">
+      <c r="C14" s="39">
         <f t="shared" si="0"/>
         <v>44968</v>
       </c>
-      <c r="D14" s="41" cm="1">
+      <c r="D14" s="40" cm="1">
         <f t="array" ref="D14">IF(SUM(COUNTIF(C14,Feiertage!$A$2:$A$13)),"F",C14)</f>
         <v>44968</v>
       </c>
-      <c r="E14" s="40">
+      <c r="E14" s="39">
         <f t="shared" si="0"/>
         <v>44996</v>
       </c>
-      <c r="F14" s="41" cm="1">
+      <c r="F14" s="40" cm="1">
         <f t="array" ref="F14">IF(SUM(COUNTIF(E14,Feiertage!$A$2:$A$13)),"F",E14)</f>
         <v>44996</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="39">
         <f t="shared" si="0"/>
         <v>45027</v>
       </c>
-      <c r="H14" s="41" cm="1">
+      <c r="H14" s="40" cm="1">
         <f t="array" ref="H14">IF(SUM(COUNTIF(G14,Feiertage!$A$2:$A$13)),"F",G14)</f>
         <v>45027</v>
       </c>
-      <c r="I14" s="40">
+      <c r="I14" s="39">
         <f t="shared" si="0"/>
         <v>45057</v>
       </c>
-      <c r="J14" s="41" cm="1">
+      <c r="J14" s="40" cm="1">
         <f t="array" ref="J14">IF(SUM(COUNTIF(I14,Feiertage!$A$2:$A$13)),"F",I14)</f>
         <v>45057</v>
       </c>
-      <c r="K14" s="40">
+      <c r="K14" s="39">
         <f t="shared" si="0"/>
         <v>45088</v>
       </c>
-      <c r="L14" s="41" cm="1">
+      <c r="L14" s="40" cm="1">
         <f t="array" ref="L14">IF(SUM(COUNTIF(K14,Feiertage!$A$2:$A$13)),"F",K14)</f>
         <v>45088</v>
       </c>
-      <c r="M14" s="40">
+      <c r="M14" s="39">
         <f t="shared" si="0"/>
         <v>45118</v>
       </c>
-      <c r="N14" s="41" cm="1">
+      <c r="N14" s="40" cm="1">
         <f t="array" ref="N14">IF(SUM(COUNTIF(M14,Feiertage!$A$2:$A$13)),"F",M14)</f>
         <v>45118</v>
       </c>
-      <c r="O14" s="40">
+      <c r="O14" s="39">
         <f t="shared" si="0"/>
         <v>45149</v>
       </c>
-      <c r="P14" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q14" s="40">
+      <c r="P14" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q14" s="39">
         <f t="shared" si="0"/>
         <v>45180</v>
       </c>
-      <c r="R14" s="41" cm="1">
+      <c r="R14" s="40" cm="1">
         <f t="array" ref="R14">IF(SUM(COUNTIF(Q14,Feiertage!$A$2:$A$13)),"F",Q14)</f>
         <v>45180</v>
       </c>
-      <c r="S14" s="40">
+      <c r="S14" s="39">
         <f t="shared" si="0"/>
         <v>45210</v>
       </c>
-      <c r="T14" s="41" cm="1">
+      <c r="T14" s="40" cm="1">
         <f t="array" ref="T14">IF(SUM(COUNTIF(S14,Feiertage!$A$2:$A$13)),"F",S14)</f>
         <v>45210</v>
       </c>
-      <c r="U14" s="40">
+      <c r="U14" s="39">
         <f t="shared" si="0"/>
         <v>45241</v>
       </c>
-      <c r="V14" s="41" cm="1">
+      <c r="V14" s="40" cm="1">
         <f t="array" ref="V14">IF(SUM(COUNTIF(U14,Feiertage!$A$2:$A$13)),"F",U14)</f>
         <v>45241</v>
       </c>
-      <c r="W14" s="42">
+      <c r="W14" s="41">
         <f t="shared" si="0"/>
         <v>45271</v>
       </c>
-      <c r="X14" s="41" cm="1">
+      <c r="X14" s="40" cm="1">
         <f t="array" ref="X14">IF(SUM(COUNTIF(W14,Feiertage!$A$2:$A$13)),"F",W14)</f>
         <v>45271</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="40">
+      <c r="A15" s="39">
         <f t="shared" si="1"/>
         <v>44938</v>
       </c>
-      <c r="B15" s="41" cm="1">
+      <c r="B15" s="40" cm="1">
         <f t="array" ref="B15">IF(SUM(COUNTIF(A15,Feiertage!$A$2:$A$13)),"F",A15)</f>
         <v>44938</v>
       </c>
-      <c r="C15" s="40">
+      <c r="C15" s="39">
         <f t="shared" si="0"/>
         <v>44969</v>
       </c>
-      <c r="D15" s="41" cm="1">
+      <c r="D15" s="40" cm="1">
         <f t="array" ref="D15">IF(SUM(COUNTIF(C15,Feiertage!$A$2:$A$13)),"F",C15)</f>
         <v>44969</v>
       </c>
-      <c r="E15" s="40">
+      <c r="E15" s="39">
         <f t="shared" si="0"/>
         <v>44997</v>
       </c>
-      <c r="F15" s="41" cm="1">
+      <c r="F15" s="40" cm="1">
         <f t="array" ref="F15">IF(SUM(COUNTIF(E15,Feiertage!$A$2:$A$13)),"F",E15)</f>
         <v>44997</v>
       </c>
-      <c r="G15" s="40">
+      <c r="G15" s="39">
         <f t="shared" si="0"/>
         <v>45028</v>
       </c>
-      <c r="H15" s="41" cm="1">
+      <c r="H15" s="40" cm="1">
         <f t="array" ref="H15">IF(SUM(COUNTIF(G15,Feiertage!$A$2:$A$13)),"F",G15)</f>
         <v>45028</v>
       </c>
-      <c r="I15" s="40">
+      <c r="I15" s="39">
         <f t="shared" si="0"/>
         <v>45058</v>
       </c>
-      <c r="J15" s="41" cm="1">
+      <c r="J15" s="40" cm="1">
         <f t="array" ref="J15">IF(SUM(COUNTIF(I15,Feiertage!$A$2:$A$13)),"F",I15)</f>
         <v>45058</v>
       </c>
-      <c r="K15" s="40">
+      <c r="K15" s="39">
         <f t="shared" si="0"/>
         <v>45089</v>
       </c>
-      <c r="L15" s="41" cm="1">
+      <c r="L15" s="40" cm="1">
         <f t="array" ref="L15">IF(SUM(COUNTIF(K15,Feiertage!$A$2:$A$13)),"F",K15)</f>
         <v>45089</v>
       </c>
-      <c r="M15" s="40">
+      <c r="M15" s="39">
         <f t="shared" si="0"/>
         <v>45119</v>
       </c>
-      <c r="N15" s="41" cm="1">
+      <c r="N15" s="40" cm="1">
         <f t="array" ref="N15">IF(SUM(COUNTIF(M15,Feiertage!$A$2:$A$13)),"F",M15)</f>
         <v>45119</v>
       </c>
-      <c r="O15" s="40">
+      <c r="O15" s="39">
         <f t="shared" si="0"/>
         <v>45150</v>
       </c>
-      <c r="P15" s="41" cm="1">
+      <c r="P15" s="40" cm="1">
         <f t="array" ref="P15">IF(SUM(COUNTIF(O15,Feiertage!$A$2:$A$13)),"F",O15)</f>
         <v>45150</v>
       </c>
-      <c r="Q15" s="40">
+      <c r="Q15" s="39">
         <f t="shared" si="0"/>
         <v>45181</v>
       </c>
-      <c r="R15" s="41" cm="1">
+      <c r="R15" s="40" cm="1">
         <f t="array" ref="R15">IF(SUM(COUNTIF(Q15,Feiertage!$A$2:$A$13)),"F",Q15)</f>
         <v>45181</v>
       </c>
-      <c r="S15" s="40">
+      <c r="S15" s="39">
         <f t="shared" si="0"/>
         <v>45211</v>
       </c>
-      <c r="T15" s="41" cm="1">
+      <c r="T15" s="40" cm="1">
         <f t="array" ref="T15">IF(SUM(COUNTIF(S15,Feiertage!$A$2:$A$13)),"F",S15)</f>
         <v>45211</v>
       </c>
-      <c r="U15" s="40">
+      <c r="U15" s="39">
         <f t="shared" si="0"/>
         <v>45242</v>
       </c>
-      <c r="V15" s="41" cm="1">
+      <c r="V15" s="40" cm="1">
         <f t="array" ref="V15">IF(SUM(COUNTIF(U15,Feiertage!$A$2:$A$13)),"F",U15)</f>
         <v>45242</v>
       </c>
-      <c r="W15" s="42">
+      <c r="W15" s="41">
         <f t="shared" si="0"/>
         <v>45272</v>
       </c>
-      <c r="X15" s="41" cm="1">
+      <c r="X15" s="40" cm="1">
         <f t="array" ref="X15">IF(SUM(COUNTIF(W15,Feiertage!$A$2:$A$13)),"F",W15)</f>
         <v>45272</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="40">
+      <c r="A16" s="39">
         <f t="shared" si="1"/>
         <v>44939</v>
       </c>
-      <c r="B16" s="41" cm="1">
+      <c r="B16" s="40" cm="1">
         <f t="array" ref="B16">IF(SUM(COUNTIF(A16,Feiertage!$A$2:$A$13)),"F",A16)</f>
         <v>44939</v>
       </c>
-      <c r="C16" s="40">
+      <c r="C16" s="39">
         <f t="shared" si="0"/>
         <v>44970</v>
       </c>
-      <c r="D16" s="41" cm="1">
+      <c r="D16" s="40" cm="1">
         <f t="array" ref="D16">IF(SUM(COUNTIF(C16,Feiertage!$A$2:$A$13)),"F",C16)</f>
         <v>44970</v>
       </c>
-      <c r="E16" s="40">
+      <c r="E16" s="39">
         <f t="shared" si="0"/>
         <v>44998</v>
       </c>
-      <c r="F16" s="41" cm="1">
+      <c r="F16" s="40" cm="1">
         <f t="array" ref="F16">IF(SUM(COUNTIF(E16,Feiertage!$A$2:$A$13)),"F",E16)</f>
         <v>44998</v>
       </c>
-      <c r="G16" s="40">
+      <c r="G16" s="39">
         <f t="shared" si="0"/>
         <v>45029</v>
       </c>
-      <c r="H16" s="41" cm="1">
+      <c r="H16" s="40" cm="1">
         <f t="array" ref="H16">IF(SUM(COUNTIF(G16,Feiertage!$A$2:$A$13)),"F",G16)</f>
         <v>45029</v>
       </c>
-      <c r="I16" s="40">
+      <c r="I16" s="39">
         <f t="shared" si="0"/>
         <v>45059</v>
       </c>
-      <c r="J16" s="41" cm="1">
+      <c r="J16" s="40" cm="1">
         <f t="array" ref="J16">IF(SUM(COUNTIF(I16,Feiertage!$A$2:$A$13)),"F",I16)</f>
         <v>45059</v>
       </c>
-      <c r="K16" s="40">
+      <c r="K16" s="39">
         <f t="shared" si="0"/>
         <v>45090</v>
       </c>
-      <c r="L16" s="41" cm="1">
+      <c r="L16" s="40" cm="1">
         <f t="array" ref="L16">IF(SUM(COUNTIF(K16,Feiertage!$A$2:$A$13)),"F",K16)</f>
         <v>45090</v>
       </c>
-      <c r="M16" s="40">
+      <c r="M16" s="39">
         <f t="shared" si="0"/>
         <v>45120</v>
       </c>
-      <c r="N16" s="41" cm="1">
+      <c r="N16" s="40" cm="1">
         <f t="array" ref="N16">IF(SUM(COUNTIF(M16,Feiertage!$A$2:$A$13)),"F",M16)</f>
         <v>45120</v>
       </c>
-      <c r="O16" s="40">
+      <c r="O16" s="39">
         <f t="shared" si="0"/>
         <v>45151</v>
       </c>
-      <c r="P16" s="41" cm="1">
+      <c r="P16" s="40" cm="1">
         <f t="array" ref="P16">IF(SUM(COUNTIF(O16,Feiertage!$A$2:$A$13)),"F",O16)</f>
         <v>45151</v>
       </c>
-      <c r="Q16" s="40">
+      <c r="Q16" s="39">
         <f t="shared" si="0"/>
         <v>45182</v>
       </c>
-      <c r="R16" s="41" cm="1">
+      <c r="R16" s="40" cm="1">
         <f t="array" ref="R16">IF(SUM(COUNTIF(Q16,Feiertage!$A$2:$A$13)),"F",Q16)</f>
         <v>45182</v>
       </c>
-      <c r="S16" s="40">
+      <c r="S16" s="39">
         <f t="shared" si="0"/>
         <v>45212</v>
       </c>
-      <c r="T16" s="41" cm="1">
+      <c r="T16" s="40" cm="1">
         <f t="array" ref="T16">IF(SUM(COUNTIF(S16,Feiertage!$A$2:$A$13)),"F",S16)</f>
         <v>45212</v>
       </c>
-      <c r="U16" s="40">
+      <c r="U16" s="39">
         <f t="shared" si="0"/>
         <v>45243</v>
       </c>
-      <c r="V16" s="41" cm="1">
+      <c r="V16" s="40" cm="1">
         <f t="array" ref="V16">IF(SUM(COUNTIF(U16,Feiertage!$A$2:$A$13)),"F",U16)</f>
         <v>45243</v>
       </c>
-      <c r="W16" s="42">
+      <c r="W16" s="41">
         <f t="shared" si="0"/>
         <v>45273</v>
       </c>
-      <c r="X16" s="41" cm="1">
+      <c r="X16" s="40" cm="1">
         <f t="array" ref="X16">IF(SUM(COUNTIF(W16,Feiertage!$A$2:$A$13)),"F",W16)</f>
         <v>45273</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="40">
+      <c r="A17" s="39">
         <f>IFERROR(IF(MONTH(A16+1)=MONTH(A$4),A16+1,""),"")</f>
         <v>44940</v>
       </c>
-      <c r="B17" s="41" cm="1">
+      <c r="B17" s="40" cm="1">
         <f t="array" ref="B17">IF(SUM(COUNTIF(A17,Feiertage!$A$2:$A$13)),"F",A17)</f>
         <v>44940</v>
       </c>
-      <c r="C17" s="40">
+      <c r="C17" s="39">
         <f t="shared" si="0"/>
         <v>44971</v>
       </c>
-      <c r="D17" s="41" cm="1">
+      <c r="D17" s="40" cm="1">
         <f t="array" ref="D17">IF(SUM(COUNTIF(C17,Feiertage!$A$2:$A$13)),"F",C17)</f>
         <v>44971</v>
       </c>
-      <c r="E17" s="40">
+      <c r="E17" s="39">
         <f t="shared" si="0"/>
         <v>44999</v>
       </c>
-      <c r="F17" s="41" cm="1">
+      <c r="F17" s="40" cm="1">
         <f t="array" ref="F17">IF(SUM(COUNTIF(E17,Feiertage!$A$2:$A$13)),"F",E17)</f>
         <v>44999</v>
       </c>
-      <c r="G17" s="40">
+      <c r="G17" s="39">
         <f t="shared" si="0"/>
         <v>45030</v>
       </c>
-      <c r="H17" s="41" cm="1">
+      <c r="H17" s="40" cm="1">
         <f t="array" ref="H17">IF(SUM(COUNTIF(G17,Feiertage!$A$2:$A$13)),"F",G17)</f>
         <v>45030</v>
       </c>
-      <c r="I17" s="40">
+      <c r="I17" s="39">
         <f t="shared" si="0"/>
         <v>45060</v>
       </c>
-      <c r="J17" s="41" cm="1">
+      <c r="J17" s="40" cm="1">
         <f t="array" ref="J17">IF(SUM(COUNTIF(I17,Feiertage!$A$2:$A$13)),"F",I17)</f>
         <v>45060</v>
       </c>
-      <c r="K17" s="40">
+      <c r="K17" s="39">
         <f t="shared" si="0"/>
         <v>45091</v>
       </c>
-      <c r="L17" s="41" cm="1">
+      <c r="L17" s="40" cm="1">
         <f t="array" ref="L17">IF(SUM(COUNTIF(K17,Feiertage!$A$2:$A$13)),"F",K17)</f>
         <v>45091</v>
       </c>
-      <c r="M17" s="40">
+      <c r="M17" s="39">
         <f t="shared" si="0"/>
         <v>45121</v>
       </c>
-      <c r="N17" s="41" cm="1">
+      <c r="N17" s="40" cm="1">
         <f t="array" ref="N17">IF(SUM(COUNTIF(M17,Feiertage!$A$2:$A$13)),"F",M17)</f>
         <v>45121</v>
       </c>
-      <c r="O17" s="40">
+      <c r="O17" s="39">
         <f t="shared" si="0"/>
         <v>45152</v>
       </c>
-      <c r="P17" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q17" s="40">
+      <c r="P17" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q17" s="39">
         <f t="shared" si="0"/>
         <v>45183</v>
       </c>
-      <c r="R17" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="S17" s="40">
+      <c r="R17" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="S17" s="39">
         <f t="shared" si="0"/>
         <v>45213</v>
       </c>
-      <c r="T17" s="41" cm="1">
+      <c r="T17" s="40" cm="1">
         <f t="array" ref="T17">IF(SUM(COUNTIF(S17,Feiertage!$A$2:$A$13)),"F",S17)</f>
         <v>45213</v>
       </c>
-      <c r="U17" s="40">
+      <c r="U17" s="39">
         <f t="shared" si="0"/>
         <v>45244</v>
       </c>
-      <c r="V17" s="41" cm="1">
+      <c r="V17" s="40" cm="1">
         <f t="array" ref="V17">IF(SUM(COUNTIF(U17,Feiertage!$A$2:$A$13)),"F",U17)</f>
         <v>45244</v>
       </c>
-      <c r="W17" s="42">
+      <c r="W17" s="41">
         <f t="shared" si="0"/>
         <v>45274</v>
       </c>
-      <c r="X17" s="41" cm="1">
+      <c r="X17" s="40" cm="1">
         <f t="array" ref="X17">IF(SUM(COUNTIF(W17,Feiertage!$A$2:$A$13)),"F",W17)</f>
         <v>45274</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="40">
+      <c r="A18" s="39">
         <f t="shared" si="1"/>
         <v>44941</v>
       </c>
-      <c r="B18" s="41" cm="1">
+      <c r="B18" s="40" cm="1">
         <f t="array" ref="B18">IF(SUM(COUNTIF(A18,Feiertage!$A$2:$A$13)),"F",A18)</f>
         <v>44941</v>
       </c>
-      <c r="C18" s="40">
+      <c r="C18" s="39">
         <f t="shared" si="0"/>
         <v>44972</v>
       </c>
-      <c r="D18" s="41" cm="1">
+      <c r="D18" s="40" cm="1">
         <f t="array" ref="D18">IF(SUM(COUNTIF(C18,Feiertage!$A$2:$A$13)),"F",C18)</f>
         <v>44972</v>
       </c>
-      <c r="E18" s="40">
+      <c r="E18" s="39">
         <f t="shared" si="0"/>
         <v>45000</v>
       </c>
-      <c r="F18" s="41" cm="1">
+      <c r="F18" s="40" cm="1">
         <f t="array" ref="F18">IF(SUM(COUNTIF(E18,Feiertage!$A$2:$A$13)),"F",E18)</f>
         <v>45000</v>
       </c>
-      <c r="G18" s="40">
+      <c r="G18" s="39">
         <f t="shared" si="0"/>
         <v>45031</v>
       </c>
-      <c r="H18" s="41" cm="1">
+      <c r="H18" s="40" cm="1">
         <f t="array" ref="H18">IF(SUM(COUNTIF(G18,Feiertage!$A$2:$A$13)),"F",G18)</f>
         <v>45031</v>
       </c>
-      <c r="I18" s="40">
+      <c r="I18" s="39">
         <f t="shared" si="0"/>
         <v>45061</v>
       </c>
-      <c r="J18" s="41" cm="1">
+      <c r="J18" s="40" cm="1">
         <f t="array" ref="J18">IF(SUM(COUNTIF(I18,Feiertage!$A$2:$A$13)),"F",I18)</f>
         <v>45061</v>
       </c>
-      <c r="K18" s="40">
+      <c r="K18" s="39">
         <f t="shared" si="0"/>
         <v>45092</v>
       </c>
-      <c r="L18" s="41" cm="1">
+      <c r="L18" s="40" cm="1">
         <f t="array" ref="L18">IF(SUM(COUNTIF(K18,Feiertage!$A$2:$A$13)),"F",K18)</f>
         <v>45092</v>
       </c>
-      <c r="M18" s="40">
+      <c r="M18" s="39">
         <f t="shared" si="0"/>
         <v>45122</v>
       </c>
-      <c r="N18" s="41" cm="1">
+      <c r="N18" s="40" cm="1">
         <f t="array" ref="N18">IF(SUM(COUNTIF(M18,Feiertage!$A$2:$A$13)),"F",M18)</f>
         <v>45122</v>
       </c>
-      <c r="O18" s="40">
+      <c r="O18" s="39">
         <f t="shared" si="0"/>
         <v>45153</v>
       </c>
-      <c r="P18" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q18" s="40">
+      <c r="P18" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q18" s="39">
         <f t="shared" si="0"/>
         <v>45184</v>
       </c>
-      <c r="R18" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="S18" s="40">
+      <c r="R18" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="S18" s="39">
         <f t="shared" si="0"/>
         <v>45214</v>
       </c>
-      <c r="T18" s="41" cm="1">
+      <c r="T18" s="40" cm="1">
         <f t="array" ref="T18">IF(SUM(COUNTIF(S18,Feiertage!$A$2:$A$13)),"F",S18)</f>
         <v>45214</v>
       </c>
-      <c r="U18" s="40">
+      <c r="U18" s="39">
         <f t="shared" si="0"/>
         <v>45245</v>
       </c>
-      <c r="V18" s="41" cm="1">
+      <c r="V18" s="40" cm="1">
         <f t="array" ref="V18">IF(SUM(COUNTIF(U18,Feiertage!$A$2:$A$13)),"F",U18)</f>
         <v>45245</v>
       </c>
-      <c r="W18" s="42">
+      <c r="W18" s="41">
         <f t="shared" si="0"/>
         <v>45275</v>
       </c>
-      <c r="X18" s="41" cm="1">
+      <c r="X18" s="40" cm="1">
         <f t="array" ref="X18">IF(SUM(COUNTIF(W18,Feiertage!$A$2:$A$13)),"F",W18)</f>
         <v>45275</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="40">
+      <c r="A19" s="39">
         <f t="shared" si="1"/>
         <v>44942</v>
       </c>
-      <c r="B19" s="41" cm="1">
+      <c r="B19" s="40" cm="1">
         <f t="array" ref="B19">IF(SUM(COUNTIF(A19,Feiertage!$A$2:$A$13)),"F",A19)</f>
         <v>44942</v>
       </c>
-      <c r="C19" s="40">
+      <c r="C19" s="39">
         <f t="shared" si="0"/>
         <v>44973</v>
       </c>
-      <c r="D19" s="41" cm="1">
+      <c r="D19" s="40" cm="1">
         <f t="array" ref="D19">IF(SUM(COUNTIF(C19,Feiertage!$A$2:$A$13)),"F",C19)</f>
         <v>44973</v>
       </c>
-      <c r="E19" s="40">
+      <c r="E19" s="39">
         <f t="shared" si="0"/>
         <v>45001</v>
       </c>
-      <c r="F19" s="41" cm="1">
+      <c r="F19" s="40" cm="1">
         <f t="array" ref="F19">IF(SUM(COUNTIF(E19,Feiertage!$A$2:$A$13)),"F",E19)</f>
         <v>45001</v>
       </c>
-      <c r="G19" s="40">
+      <c r="G19" s="39">
         <f t="shared" si="0"/>
         <v>45032</v>
       </c>
-      <c r="H19" s="41" cm="1">
+      <c r="H19" s="40" cm="1">
         <f t="array" ref="H19">IF(SUM(COUNTIF(G19,Feiertage!$A$2:$A$13)),"F",G19)</f>
         <v>45032</v>
       </c>
-      <c r="I19" s="40">
+      <c r="I19" s="39">
         <f t="shared" si="0"/>
         <v>45062</v>
       </c>
-      <c r="J19" s="41" cm="1">
+      <c r="J19" s="40" cm="1">
         <f t="array" ref="J19">IF(SUM(COUNTIF(I19,Feiertage!$A$2:$A$13)),"F",I19)</f>
         <v>45062</v>
       </c>
-      <c r="K19" s="40">
+      <c r="K19" s="39">
         <f t="shared" si="0"/>
         <v>45093</v>
       </c>
-      <c r="L19" s="41" cm="1">
+      <c r="L19" s="40" cm="1">
         <f t="array" ref="L19">IF(SUM(COUNTIF(K19,Feiertage!$A$2:$A$13)),"F",K19)</f>
         <v>45093</v>
       </c>
-      <c r="M19" s="40">
+      <c r="M19" s="39">
         <f t="shared" si="0"/>
         <v>45123</v>
       </c>
-      <c r="N19" s="41" cm="1">
+      <c r="N19" s="40" cm="1">
         <f t="array" ref="N19">IF(SUM(COUNTIF(M19,Feiertage!$A$2:$A$13)),"F",M19)</f>
         <v>45123</v>
       </c>
-      <c r="O19" s="40">
+      <c r="O19" s="39">
         <f t="shared" si="0"/>
         <v>45154</v>
       </c>
-      <c r="P19" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q19" s="40">
+      <c r="P19" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q19" s="39">
         <f t="shared" si="0"/>
         <v>45185</v>
       </c>
-      <c r="R19" s="41" cm="1">
+      <c r="R19" s="40" cm="1">
         <f t="array" ref="R19">IF(SUM(COUNTIF(Q19,Feiertage!$A$2:$A$13)),"F",Q19)</f>
         <v>45185</v>
       </c>
-      <c r="S19" s="40">
+      <c r="S19" s="39">
         <f t="shared" si="0"/>
         <v>45215</v>
       </c>
-      <c r="T19" s="41" cm="1">
+      <c r="T19" s="40" cm="1">
         <f t="array" ref="T19">IF(SUM(COUNTIF(S19,Feiertage!$A$2:$A$13)),"F",S19)</f>
         <v>45215</v>
       </c>
-      <c r="U19" s="40">
+      <c r="U19" s="39">
         <f t="shared" si="0"/>
         <v>45246</v>
       </c>
-      <c r="V19" s="41" cm="1">
+      <c r="V19" s="40" cm="1">
         <f t="array" ref="V19">IF(SUM(COUNTIF(U19,Feiertage!$A$2:$A$13)),"F",U19)</f>
         <v>45246</v>
       </c>
-      <c r="W19" s="42">
+      <c r="W19" s="41">
         <f t="shared" si="0"/>
         <v>45276</v>
       </c>
-      <c r="X19" s="41" cm="1">
+      <c r="X19" s="40" cm="1">
         <f t="array" ref="X19">IF(SUM(COUNTIF(W19,Feiertage!$A$2:$A$13)),"F",W19)</f>
         <v>45276</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="40">
+      <c r="A20" s="39">
         <f t="shared" si="1"/>
         <v>44943</v>
       </c>
-      <c r="B20" s="41" cm="1">
+      <c r="B20" s="40" cm="1">
         <f t="array" ref="B20">IF(SUM(COUNTIF(A20,Feiertage!$A$2:$A$13)),"F",A20)</f>
         <v>44943</v>
       </c>
-      <c r="C20" s="40">
+      <c r="C20" s="39">
         <f t="shared" si="0"/>
         <v>44974</v>
       </c>
-      <c r="D20" s="41" cm="1">
+      <c r="D20" s="40" cm="1">
         <f t="array" ref="D20">IF(SUM(COUNTIF(C20,Feiertage!$A$2:$A$13)),"F",C20)</f>
         <v>44974</v>
       </c>
-      <c r="E20" s="40">
+      <c r="E20" s="39">
         <f t="shared" si="0"/>
         <v>45002</v>
       </c>
-      <c r="F20" s="41" cm="1">
+      <c r="F20" s="40" cm="1">
         <f t="array" ref="F20">IF(SUM(COUNTIF(E20,Feiertage!$A$2:$A$13)),"F",E20)</f>
         <v>45002</v>
       </c>
-      <c r="G20" s="40">
+      <c r="G20" s="39">
         <f t="shared" si="0"/>
         <v>45033</v>
       </c>
-      <c r="H20" s="41" cm="1">
+      <c r="H20" s="40" cm="1">
         <f t="array" ref="H20">IF(SUM(COUNTIF(G20,Feiertage!$A$2:$A$13)),"F",G20)</f>
         <v>45033</v>
       </c>
-      <c r="I20" s="40">
+      <c r="I20" s="39">
         <f t="shared" si="0"/>
         <v>45063</v>
       </c>
-      <c r="J20" s="41" cm="1">
+      <c r="J20" s="40" cm="1">
         <f t="array" ref="J20">IF(SUM(COUNTIF(I20,Feiertage!$A$2:$A$13)),"F",I20)</f>
         <v>45063</v>
       </c>
-      <c r="K20" s="40">
+      <c r="K20" s="39">
         <f t="shared" si="0"/>
         <v>45094</v>
       </c>
-      <c r="L20" s="41" cm="1">
+      <c r="L20" s="40" cm="1">
         <f t="array" ref="L20">IF(SUM(COUNTIF(K20,Feiertage!$A$2:$A$13)),"F",K20)</f>
         <v>45094</v>
       </c>
-      <c r="M20" s="40">
+      <c r="M20" s="39">
         <f t="shared" si="0"/>
         <v>45124</v>
       </c>
-      <c r="N20" s="41" cm="1">
+      <c r="N20" s="40" cm="1">
         <f t="array" ref="N20">IF(SUM(COUNTIF(M20,Feiertage!$A$2:$A$13)),"F",M20)</f>
         <v>45124</v>
       </c>
-      <c r="O20" s="40">
+      <c r="O20" s="39">
         <f t="shared" si="0"/>
         <v>45155</v>
       </c>
-      <c r="P20" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q20" s="40">
+      <c r="P20" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q20" s="39">
         <f t="shared" si="0"/>
         <v>45186</v>
       </c>
-      <c r="R20" s="41" cm="1">
+      <c r="R20" s="40" cm="1">
         <f t="array" ref="R20">IF(SUM(COUNTIF(Q20,Feiertage!$A$2:$A$13)),"F",Q20)</f>
         <v>45186</v>
       </c>
-      <c r="S20" s="40">
+      <c r="S20" s="39">
         <f t="shared" si="0"/>
         <v>45216</v>
       </c>
-      <c r="T20" s="41" cm="1">
+      <c r="T20" s="40" cm="1">
         <f t="array" ref="T20">IF(SUM(COUNTIF(S20,Feiertage!$A$2:$A$13)),"F",S20)</f>
         <v>45216</v>
       </c>
-      <c r="U20" s="40">
+      <c r="U20" s="39">
         <f t="shared" si="0"/>
         <v>45247</v>
       </c>
-      <c r="V20" s="41" cm="1">
+      <c r="V20" s="40" cm="1">
         <f t="array" ref="V20">IF(SUM(COUNTIF(U20,Feiertage!$A$2:$A$13)),"F",U20)</f>
         <v>45247</v>
       </c>
-      <c r="W20" s="42">
+      <c r="W20" s="41">
         <f t="shared" si="0"/>
         <v>45277</v>
       </c>
-      <c r="X20" s="41" cm="1">
+      <c r="X20" s="40" cm="1">
         <f t="array" ref="X20">IF(SUM(COUNTIF(W20,Feiertage!$A$2:$A$13)),"F",W20)</f>
         <v>45277</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="40">
+      <c r="A21" s="39">
         <f t="shared" si="1"/>
         <v>44944</v>
       </c>
-      <c r="B21" s="41" cm="1">
+      <c r="B21" s="40" cm="1">
         <f t="array" ref="B21">IF(SUM(COUNTIF(A21,Feiertage!$A$2:$A$13)),"F",A21)</f>
         <v>44944</v>
       </c>
-      <c r="C21" s="40">
+      <c r="C21" s="39">
         <f t="shared" ref="C21:C34" si="2">IFERROR(IF(MONTH(C20+1)=MONTH(C$4),C20+1,""),"")</f>
         <v>44975</v>
       </c>
-      <c r="D21" s="41" cm="1">
+      <c r="D21" s="40" cm="1">
         <f t="array" ref="D21">IF(SUM(COUNTIF(C21,Feiertage!$A$2:$A$13)),"F",C21)</f>
         <v>44975</v>
       </c>
-      <c r="E21" s="40">
+      <c r="E21" s="39">
         <f t="shared" ref="E21:E34" si="3">IFERROR(IF(MONTH(E20+1)=MONTH(E$4),E20+1,""),"")</f>
         <v>45003</v>
       </c>
-      <c r="F21" s="41" cm="1">
+      <c r="F21" s="40" cm="1">
         <f t="array" ref="F21">IF(SUM(COUNTIF(E21,Feiertage!$A$2:$A$13)),"F",E21)</f>
         <v>45003</v>
       </c>
-      <c r="G21" s="40">
+      <c r="G21" s="39">
         <f t="shared" ref="G21:G34" si="4">IFERROR(IF(MONTH(G20+1)=MONTH(G$4),G20+1,""),"")</f>
         <v>45034</v>
       </c>
-      <c r="H21" s="41" cm="1">
+      <c r="H21" s="40" cm="1">
         <f t="array" ref="H21">IF(SUM(COUNTIF(G21,Feiertage!$A$2:$A$13)),"F",G21)</f>
         <v>45034</v>
       </c>
-      <c r="I21" s="40">
+      <c r="I21" s="39">
         <f t="shared" ref="I21:I34" si="5">IFERROR(IF(MONTH(I20+1)=MONTH(I$4),I20+1,""),"")</f>
         <v>45064</v>
       </c>
-      <c r="J21" s="41" t="str" cm="1">
+      <c r="J21" s="40" t="str" cm="1">
         <f t="array" ref="J21">IF(SUM(COUNTIF(I21,Feiertage!$A$2:$A$13)),"F",I21)</f>
         <v>F</v>
       </c>
-      <c r="K21" s="40">
+      <c r="K21" s="39">
         <f t="shared" ref="K21:K34" si="6">IFERROR(IF(MONTH(K20+1)=MONTH(K$4),K20+1,""),"")</f>
         <v>45095</v>
       </c>
-      <c r="L21" s="41" cm="1">
+      <c r="L21" s="40" cm="1">
         <f t="array" ref="L21">IF(SUM(COUNTIF(K21,Feiertage!$A$2:$A$13)),"F",K21)</f>
         <v>45095</v>
       </c>
-      <c r="M21" s="40">
+      <c r="M21" s="39">
         <f t="shared" ref="M21:M34" si="7">IFERROR(IF(MONTH(M20+1)=MONTH(M$4),M20+1,""),"")</f>
         <v>45125</v>
       </c>
-      <c r="N21" s="41" cm="1">
+      <c r="N21" s="40" cm="1">
         <f t="array" ref="N21">IF(SUM(COUNTIF(M21,Feiertage!$A$2:$A$13)),"F",M21)</f>
         <v>45125</v>
       </c>
-      <c r="O21" s="40">
-        <f t="shared" ref="O21:Q34" si="8">IFERROR(IF(MONTH(O20+1)=MONTH(O$4),O20+1,""),"")</f>
+      <c r="O21" s="39">
+        <f t="shared" ref="O21:O34" si="8">IFERROR(IF(MONTH(O20+1)=MONTH(O$4),O20+1,""),"")</f>
         <v>45156</v>
       </c>
-      <c r="P21" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q21" s="40">
+      <c r="P21" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q21" s="39">
         <f t="shared" ref="Q21:Q34" si="9">IFERROR(IF(MONTH(Q20+1)=MONTH(Q$4),Q20+1,""),"")</f>
         <v>45187</v>
       </c>
-      <c r="R21" s="41" cm="1">
+      <c r="R21" s="40" cm="1">
         <f t="array" ref="R21">IF(SUM(COUNTIF(Q21,Feiertage!$A$2:$A$13)),"F",Q21)</f>
         <v>45187</v>
       </c>
-      <c r="S21" s="40">
+      <c r="S21" s="39">
         <f t="shared" ref="S21:S34" si="10">IFERROR(IF(MONTH(S20+1)=MONTH(S$4),S20+1,""),"")</f>
         <v>45217</v>
       </c>
-      <c r="T21" s="41" cm="1">
+      <c r="T21" s="40" cm="1">
         <f t="array" ref="T21">IF(SUM(COUNTIF(S21,Feiertage!$A$2:$A$13)),"F",S21)</f>
         <v>45217</v>
       </c>
-      <c r="U21" s="40">
+      <c r="U21" s="39">
         <f t="shared" ref="U21:U34" si="11">IFERROR(IF(MONTH(U20+1)=MONTH(U$4),U20+1,""),"")</f>
         <v>45248</v>
       </c>
-      <c r="V21" s="41" cm="1">
+      <c r="V21" s="40" cm="1">
         <f t="array" ref="V21">IF(SUM(COUNTIF(U21,Feiertage!$A$2:$A$13)),"F",U21)</f>
         <v>45248</v>
       </c>
-      <c r="W21" s="42">
+      <c r="W21" s="41">
         <f t="shared" ref="W21:W34" si="12">IFERROR(IF(MONTH(W20+1)=MONTH(W$4),W20+1,""),"")</f>
         <v>45278</v>
       </c>
-      <c r="X21" s="41" cm="1">
+      <c r="X21" s="40" cm="1">
         <f t="array" ref="X21">IF(SUM(COUNTIF(W21,Feiertage!$A$2:$A$13)),"F",W21)</f>
         <v>45278</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="40">
+      <c r="A22" s="39">
         <f t="shared" si="1"/>
         <v>44945</v>
       </c>
-      <c r="B22" s="41" cm="1">
+      <c r="B22" s="40" cm="1">
         <f t="array" ref="B22">IF(SUM(COUNTIF(A22,Feiertage!$A$2:$A$13)),"F",A22)</f>
         <v>44945</v>
       </c>
-      <c r="C22" s="40">
+      <c r="C22" s="39">
         <f t="shared" si="2"/>
         <v>44976</v>
       </c>
-      <c r="D22" s="41" cm="1">
+      <c r="D22" s="40" cm="1">
         <f t="array" ref="D22">IF(SUM(COUNTIF(C22,Feiertage!$A$2:$A$13)),"F",C22)</f>
         <v>44976</v>
       </c>
-      <c r="E22" s="40">
+      <c r="E22" s="39">
         <f t="shared" si="3"/>
         <v>45004</v>
       </c>
-      <c r="F22" s="41" cm="1">
+      <c r="F22" s="40" cm="1">
         <f t="array" ref="F22">IF(SUM(COUNTIF(E22,Feiertage!$A$2:$A$13)),"F",E22)</f>
         <v>45004</v>
       </c>
-      <c r="G22" s="40">
+      <c r="G22" s="39">
         <f t="shared" si="4"/>
         <v>45035</v>
       </c>
-      <c r="H22" s="41" cm="1">
+      <c r="H22" s="40" cm="1">
         <f t="array" ref="H22">IF(SUM(COUNTIF(G22,Feiertage!$A$2:$A$13)),"F",G22)</f>
         <v>45035</v>
       </c>
-      <c r="I22" s="40">
+      <c r="I22" s="39">
         <f t="shared" si="5"/>
         <v>45065</v>
       </c>
-      <c r="J22" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="K22" s="40">
+      <c r="J22" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="K22" s="39">
         <f t="shared" si="6"/>
         <v>45096</v>
       </c>
-      <c r="L22" s="41" cm="1">
+      <c r="L22" s="40" cm="1">
         <f t="array" ref="L22">IF(SUM(COUNTIF(K22,Feiertage!$A$2:$A$13)),"F",K22)</f>
         <v>45096</v>
       </c>
-      <c r="M22" s="40">
+      <c r="M22" s="39">
         <f t="shared" si="7"/>
         <v>45126</v>
       </c>
-      <c r="N22" s="41" cm="1">
+      <c r="N22" s="40" cm="1">
         <f t="array" ref="N22">IF(SUM(COUNTIF(M22,Feiertage!$A$2:$A$13)),"F",M22)</f>
         <v>45126</v>
       </c>
-      <c r="O22" s="40">
+      <c r="O22" s="39">
         <f t="shared" si="8"/>
         <v>45157</v>
       </c>
-      <c r="P22" s="41" cm="1">
+      <c r="P22" s="40" cm="1">
         <f t="array" ref="P22">IF(SUM(COUNTIF(O22,Feiertage!$A$2:$A$13)),"F",O22)</f>
         <v>45157</v>
       </c>
-      <c r="Q22" s="40">
+      <c r="Q22" s="39">
         <f t="shared" si="9"/>
         <v>45188</v>
       </c>
-      <c r="R22" s="41" cm="1">
+      <c r="R22" s="40" cm="1">
         <f t="array" ref="R22">IF(SUM(COUNTIF(Q22,Feiertage!$A$2:$A$13)),"F",Q22)</f>
         <v>45188</v>
       </c>
-      <c r="S22" s="40">
+      <c r="S22" s="39">
         <f t="shared" si="10"/>
         <v>45218</v>
       </c>
-      <c r="T22" s="41" cm="1">
+      <c r="T22" s="40" cm="1">
         <f t="array" ref="T22">IF(SUM(COUNTIF(S22,Feiertage!$A$2:$A$13)),"F",S22)</f>
         <v>45218</v>
       </c>
-      <c r="U22" s="40">
+      <c r="U22" s="39">
         <f t="shared" si="11"/>
         <v>45249</v>
       </c>
-      <c r="V22" s="41" cm="1">
+      <c r="V22" s="40" cm="1">
         <f t="array" ref="V22">IF(SUM(COUNTIF(U22,Feiertage!$A$2:$A$13)),"F",U22)</f>
         <v>45249</v>
       </c>
-      <c r="W22" s="42">
+      <c r="W22" s="41">
         <f t="shared" si="12"/>
         <v>45279</v>
       </c>
-      <c r="X22" s="41" cm="1">
+      <c r="X22" s="40" cm="1">
         <f t="array" ref="X22">IF(SUM(COUNTIF(W22,Feiertage!$A$2:$A$13)),"F",W22)</f>
         <v>45279</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="40">
+      <c r="A23" s="39">
         <f>IFERROR(IF(MONTH(A22+1)=MONTH(A$4),A22+1,""),"")</f>
         <v>44946</v>
       </c>
-      <c r="B23" s="41" cm="1">
+      <c r="B23" s="40" cm="1">
         <f t="array" ref="B23">IF(SUM(COUNTIF(A23,Feiertage!$A$2:$A$13)),"F",A23)</f>
         <v>44946</v>
       </c>
-      <c r="C23" s="40">
+      <c r="C23" s="39">
         <f t="shared" si="2"/>
         <v>44977</v>
       </c>
-      <c r="D23" s="41" cm="1">
+      <c r="D23" s="40" cm="1">
         <f t="array" ref="D23">IF(SUM(COUNTIF(C23,Feiertage!$A$2:$A$13)),"F",C23)</f>
         <v>44977</v>
       </c>
-      <c r="E23" s="40">
+      <c r="E23" s="39">
         <f t="shared" si="3"/>
         <v>45005</v>
       </c>
-      <c r="F23" s="41" cm="1">
+      <c r="F23" s="40" cm="1">
         <f t="array" ref="F23">IF(SUM(COUNTIF(E23,Feiertage!$A$2:$A$13)),"F",E23)</f>
         <v>45005</v>
       </c>
-      <c r="G23" s="40">
+      <c r="G23" s="39">
         <f t="shared" si="4"/>
         <v>45036</v>
       </c>
-      <c r="H23" s="41" cm="1">
+      <c r="H23" s="40" cm="1">
         <f t="array" ref="H23">IF(SUM(COUNTIF(G23,Feiertage!$A$2:$A$13)),"F",G23)</f>
         <v>45036</v>
       </c>
-      <c r="I23" s="40">
+      <c r="I23" s="39">
         <f t="shared" si="5"/>
         <v>45066</v>
       </c>
-      <c r="J23" s="41" cm="1">
+      <c r="J23" s="40" cm="1">
         <f t="array" ref="J23">IF(SUM(COUNTIF(I23,Feiertage!$A$2:$A$13)),"F",I23)</f>
         <v>45066</v>
       </c>
-      <c r="K23" s="40">
+      <c r="K23" s="39">
         <f t="shared" si="6"/>
         <v>45097</v>
       </c>
-      <c r="L23" s="41" cm="1">
+      <c r="L23" s="40" cm="1">
         <f t="array" ref="L23">IF(SUM(COUNTIF(K23,Feiertage!$A$2:$A$13)),"F",K23)</f>
         <v>45097</v>
       </c>
-      <c r="M23" s="40">
+      <c r="M23" s="39">
         <f t="shared" si="7"/>
         <v>45127</v>
       </c>
-      <c r="N23" s="41" cm="1">
+      <c r="N23" s="40" cm="1">
         <f t="array" ref="N23">IF(SUM(COUNTIF(M23,Feiertage!$A$2:$A$13)),"F",M23)</f>
         <v>45127</v>
       </c>
-      <c r="O23" s="40">
+      <c r="O23" s="39">
         <f t="shared" si="8"/>
         <v>45158</v>
       </c>
-      <c r="P23" s="41" cm="1">
+      <c r="P23" s="40" cm="1">
         <f t="array" ref="P23">IF(SUM(COUNTIF(O23,Feiertage!$A$2:$A$13)),"F",O23)</f>
         <v>45158</v>
       </c>
-      <c r="Q23" s="40">
+      <c r="Q23" s="39">
         <f t="shared" si="9"/>
         <v>45189</v>
       </c>
-      <c r="R23" s="41" cm="1">
+      <c r="R23" s="40" cm="1">
         <f t="array" ref="R23">IF(SUM(COUNTIF(Q23,Feiertage!$A$2:$A$13)),"F",Q23)</f>
         <v>45189</v>
       </c>
-      <c r="S23" s="40">
+      <c r="S23" s="39">
         <f t="shared" si="10"/>
         <v>45219</v>
       </c>
-      <c r="T23" s="41" cm="1">
+      <c r="T23" s="40" cm="1">
         <f t="array" ref="T23">IF(SUM(COUNTIF(S23,Feiertage!$A$2:$A$13)),"F",S23)</f>
         <v>45219</v>
       </c>
-      <c r="U23" s="40">
+      <c r="U23" s="39">
         <f t="shared" si="11"/>
         <v>45250</v>
       </c>
-      <c r="V23" s="41" cm="1">
+      <c r="V23" s="40" cm="1">
         <f t="array" ref="V23">IF(SUM(COUNTIF(U23,Feiertage!$A$2:$A$13)),"F",U23)</f>
         <v>45250</v>
       </c>
-      <c r="W23" s="42">
+      <c r="W23" s="41">
         <f t="shared" si="12"/>
         <v>45280</v>
       </c>
-      <c r="X23" s="41" cm="1">
+      <c r="X23" s="40" cm="1">
         <f t="array" ref="X23">IF(SUM(COUNTIF(W23,Feiertage!$A$2:$A$13)),"F",W23)</f>
         <v>45280</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="40">
+      <c r="A24" s="39">
         <f t="shared" si="1"/>
         <v>44947</v>
       </c>
-      <c r="B24" s="41" cm="1">
+      <c r="B24" s="40" cm="1">
         <f t="array" ref="B24">IF(SUM(COUNTIF(A24,Feiertage!$A$2:$A$13)),"F",A24)</f>
         <v>44947</v>
       </c>
-      <c r="C24" s="40">
+      <c r="C24" s="39">
         <f t="shared" si="2"/>
         <v>44978</v>
       </c>
-      <c r="D24" s="41" cm="1">
+      <c r="D24" s="40" cm="1">
         <f t="array" ref="D24">IF(SUM(COUNTIF(C24,Feiertage!$A$2:$A$13)),"F",C24)</f>
         <v>44978</v>
       </c>
-      <c r="E24" s="40">
+      <c r="E24" s="39">
         <f t="shared" si="3"/>
         <v>45006</v>
       </c>
-      <c r="F24" s="41" cm="1">
+      <c r="F24" s="40" cm="1">
         <f t="array" ref="F24">IF(SUM(COUNTIF(E24,Feiertage!$A$2:$A$13)),"F",E24)</f>
         <v>45006</v>
       </c>
-      <c r="G24" s="40">
+      <c r="G24" s="39">
         <f t="shared" si="4"/>
         <v>45037</v>
       </c>
-      <c r="H24" s="41" cm="1">
+      <c r="H24" s="40" cm="1">
         <f t="array" ref="H24">IF(SUM(COUNTIF(G24,Feiertage!$A$2:$A$13)),"F",G24)</f>
         <v>45037</v>
       </c>
-      <c r="I24" s="40">
+      <c r="I24" s="39">
         <f t="shared" si="5"/>
         <v>45067</v>
       </c>
-      <c r="J24" s="41" cm="1">
+      <c r="J24" s="40" cm="1">
         <f t="array" ref="J24">IF(SUM(COUNTIF(I24,Feiertage!$A$2:$A$13)),"F",I24)</f>
         <v>45067</v>
       </c>
-      <c r="K24" s="40">
+      <c r="K24" s="39">
         <f t="shared" si="6"/>
         <v>45098</v>
       </c>
-      <c r="L24" s="41" cm="1">
+      <c r="L24" s="40" cm="1">
         <f t="array" ref="L24">IF(SUM(COUNTIF(K24,Feiertage!$A$2:$A$13)),"F",K24)</f>
         <v>45098</v>
       </c>
-      <c r="M24" s="40">
+      <c r="M24" s="39">
         <f t="shared" si="7"/>
         <v>45128</v>
       </c>
-      <c r="N24" s="41" cm="1">
+      <c r="N24" s="40" cm="1">
         <f t="array" ref="N24">IF(SUM(COUNTIF(M24,Feiertage!$A$2:$A$13)),"F",M24)</f>
         <v>45128</v>
       </c>
-      <c r="O24" s="40">
+      <c r="O24" s="39">
         <f t="shared" si="8"/>
         <v>45159</v>
       </c>
-      <c r="P24" s="41" cm="1">
+      <c r="P24" s="40" cm="1">
         <f t="array" ref="P24">IF(SUM(COUNTIF(O24,Feiertage!$A$2:$A$13)),"F",O24)</f>
         <v>45159</v>
       </c>
-      <c r="Q24" s="40">
+      <c r="Q24" s="39">
         <f t="shared" si="9"/>
         <v>45190</v>
       </c>
-      <c r="R24" s="41" cm="1">
+      <c r="R24" s="40" cm="1">
         <f t="array" ref="R24">IF(SUM(COUNTIF(Q24,Feiertage!$A$2:$A$13)),"F",Q24)</f>
         <v>45190</v>
       </c>
-      <c r="S24" s="40">
+      <c r="S24" s="39">
         <f t="shared" si="10"/>
         <v>45220</v>
       </c>
-      <c r="T24" s="41" cm="1">
+      <c r="T24" s="40" cm="1">
         <f t="array" ref="T24">IF(SUM(COUNTIF(S24,Feiertage!$A$2:$A$13)),"F",S24)</f>
         <v>45220</v>
       </c>
-      <c r="U24" s="40">
+      <c r="U24" s="39">
         <f t="shared" si="11"/>
         <v>45251</v>
       </c>
-      <c r="V24" s="41" cm="1">
+      <c r="V24" s="40" cm="1">
         <f t="array" ref="V24">IF(SUM(COUNTIF(U24,Feiertage!$A$2:$A$13)),"F",U24)</f>
         <v>45251</v>
       </c>
-      <c r="W24" s="42">
+      <c r="W24" s="41">
         <f t="shared" si="12"/>
         <v>45281</v>
       </c>
-      <c r="X24" s="41" cm="1">
+      <c r="X24" s="40" cm="1">
         <f t="array" ref="X24">IF(SUM(COUNTIF(W24,Feiertage!$A$2:$A$13)),"F",W24)</f>
         <v>45281</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="40">
+      <c r="A25" s="39">
         <f t="shared" si="1"/>
         <v>44948</v>
       </c>
-      <c r="B25" s="41" cm="1">
+      <c r="B25" s="40" cm="1">
         <f t="array" ref="B25">IF(SUM(COUNTIF(A25,Feiertage!$A$2:$A$13)),"F",A25)</f>
         <v>44948</v>
       </c>
-      <c r="C25" s="40">
+      <c r="C25" s="39">
         <f t="shared" si="2"/>
         <v>44979</v>
       </c>
-      <c r="D25" s="41" cm="1">
+      <c r="D25" s="40" cm="1">
         <f t="array" ref="D25">IF(SUM(COUNTIF(C25,Feiertage!$A$2:$A$13)),"F",C25)</f>
         <v>44979</v>
       </c>
-      <c r="E25" s="40">
+      <c r="E25" s="39">
         <f t="shared" si="3"/>
         <v>45007</v>
       </c>
-      <c r="F25" s="41" cm="1">
+      <c r="F25" s="40" cm="1">
         <f t="array" ref="F25">IF(SUM(COUNTIF(E25,Feiertage!$A$2:$A$13)),"F",E25)</f>
         <v>45007</v>
       </c>
-      <c r="G25" s="40">
+      <c r="G25" s="39">
         <f t="shared" si="4"/>
         <v>45038</v>
       </c>
-      <c r="H25" s="41" cm="1">
+      <c r="H25" s="40" cm="1">
         <f t="array" ref="H25">IF(SUM(COUNTIF(G25,Feiertage!$A$2:$A$13)),"F",G25)</f>
         <v>45038</v>
       </c>
-      <c r="I25" s="40">
+      <c r="I25" s="39">
         <f t="shared" si="5"/>
         <v>45068</v>
       </c>
-      <c r="J25" s="41" cm="1">
+      <c r="J25" s="40" cm="1">
         <f t="array" ref="J25">IF(SUM(COUNTIF(I25,Feiertage!$A$2:$A$13)),"F",I25)</f>
         <v>45068</v>
       </c>
-      <c r="K25" s="40">
+      <c r="K25" s="39">
         <f t="shared" si="6"/>
         <v>45099</v>
       </c>
-      <c r="L25" s="41" cm="1">
+      <c r="L25" s="40" cm="1">
         <f t="array" ref="L25">IF(SUM(COUNTIF(K25,Feiertage!$A$2:$A$13)),"F",K25)</f>
         <v>45099</v>
       </c>
-      <c r="M25" s="40">
+      <c r="M25" s="39">
         <f t="shared" si="7"/>
         <v>45129</v>
       </c>
-      <c r="N25" s="41" cm="1">
+      <c r="N25" s="40" cm="1">
         <f t="array" ref="N25">IF(SUM(COUNTIF(M25,Feiertage!$A$2:$A$13)),"F",M25)</f>
         <v>45129</v>
       </c>
-      <c r="O25" s="40">
+      <c r="O25" s="39">
         <f t="shared" si="8"/>
         <v>45160</v>
       </c>
-      <c r="P25" s="41" cm="1">
+      <c r="P25" s="40" cm="1">
         <f t="array" ref="P25">IF(SUM(COUNTIF(O25,Feiertage!$A$2:$A$13)),"F",O25)</f>
         <v>45160</v>
       </c>
-      <c r="Q25" s="40">
+      <c r="Q25" s="39">
         <f t="shared" si="9"/>
         <v>45191</v>
       </c>
-      <c r="R25" s="41" cm="1">
+      <c r="R25" s="40" cm="1">
         <f t="array" ref="R25">IF(SUM(COUNTIF(Q25,Feiertage!$A$2:$A$13)),"F",Q25)</f>
         <v>45191</v>
       </c>
-      <c r="S25" s="40">
+      <c r="S25" s="39">
         <f t="shared" si="10"/>
         <v>45221</v>
       </c>
-      <c r="T25" s="41" cm="1">
+      <c r="T25" s="40" cm="1">
         <f t="array" ref="T25">IF(SUM(COUNTIF(S25,Feiertage!$A$2:$A$13)),"F",S25)</f>
         <v>45221</v>
       </c>
-      <c r="U25" s="40">
+      <c r="U25" s="39">
         <f t="shared" si="11"/>
         <v>45252</v>
       </c>
-      <c r="V25" s="41" cm="1">
+      <c r="V25" s="40" cm="1">
         <f t="array" ref="V25">IF(SUM(COUNTIF(U25,Feiertage!$A$2:$A$13)),"F",U25)</f>
         <v>45252</v>
       </c>
-      <c r="W25" s="42">
+      <c r="W25" s="41">
         <f t="shared" si="12"/>
         <v>45282</v>
       </c>
-      <c r="X25" s="41" cm="1">
+      <c r="X25" s="40" cm="1">
         <f t="array" ref="X25">IF(SUM(COUNTIF(W25,Feiertage!$A$2:$A$13)),"F",W25)</f>
         <v>45282</v>
       </c>
     </row>
     <row r="26" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="40">
+      <c r="A26" s="39">
         <f>IFERROR(IF(MONTH(A25+1)=MONTH(A$4),A25+1,""),"")</f>
         <v>44949</v>
       </c>
-      <c r="B26" s="41" cm="1">
+      <c r="B26" s="40" cm="1">
         <f t="array" ref="B26">IF(SUM(COUNTIF(A26,Feiertage!$A$2:$A$13)),"F",A26)</f>
         <v>44949</v>
       </c>
-      <c r="C26" s="40">
+      <c r="C26" s="39">
         <f t="shared" si="2"/>
         <v>44980</v>
       </c>
-      <c r="D26" s="41" cm="1">
+      <c r="D26" s="40" cm="1">
         <f t="array" ref="D26">IF(SUM(COUNTIF(C26,Feiertage!$A$2:$A$13)),"F",C26)</f>
         <v>44980</v>
       </c>
-      <c r="E26" s="40">
+      <c r="E26" s="39">
         <f t="shared" si="3"/>
         <v>45008</v>
       </c>
-      <c r="F26" s="41" cm="1">
+      <c r="F26" s="40" cm="1">
         <f t="array" ref="F26">IF(SUM(COUNTIF(E26,Feiertage!$A$2:$A$13)),"F",E26)</f>
         <v>45008</v>
       </c>
-      <c r="G26" s="40">
+      <c r="G26" s="39">
         <f t="shared" si="4"/>
         <v>45039</v>
       </c>
-      <c r="H26" s="41" cm="1">
+      <c r="H26" s="40" cm="1">
         <f t="array" ref="H26">IF(SUM(COUNTIF(G26,Feiertage!$A$2:$A$13)),"F",G26)</f>
         <v>45039</v>
       </c>
-      <c r="I26" s="40">
+      <c r="I26" s="39">
         <f t="shared" si="5"/>
         <v>45069</v>
       </c>
-      <c r="J26" s="41" cm="1">
+      <c r="J26" s="40" cm="1">
         <f t="array" ref="J26">IF(SUM(COUNTIF(I26,Feiertage!$A$2:$A$13)),"F",I26)</f>
         <v>45069</v>
       </c>
-      <c r="K26" s="40">
+      <c r="K26" s="39">
         <f t="shared" si="6"/>
         <v>45100</v>
       </c>
-      <c r="L26" s="41" cm="1">
+      <c r="L26" s="40" cm="1">
         <f t="array" ref="L26">IF(SUM(COUNTIF(K26,Feiertage!$A$2:$A$13)),"F",K26)</f>
         <v>45100</v>
       </c>
-      <c r="M26" s="40">
+      <c r="M26" s="39">
         <f t="shared" si="7"/>
         <v>45130</v>
       </c>
-      <c r="N26" s="41" cm="1">
+      <c r="N26" s="40" cm="1">
         <f t="array" ref="N26">IF(SUM(COUNTIF(M26,Feiertage!$A$2:$A$13)),"F",M26)</f>
         <v>45130</v>
       </c>
-      <c r="O26" s="40">
+      <c r="O26" s="39">
         <f t="shared" si="8"/>
         <v>45161</v>
       </c>
-      <c r="P26" s="41" cm="1">
+      <c r="P26" s="40" cm="1">
         <f t="array" ref="P26">IF(SUM(COUNTIF(O26,Feiertage!$A$2:$A$13)),"F",O26)</f>
         <v>45161</v>
       </c>
-      <c r="Q26" s="40">
+      <c r="Q26" s="39">
         <f t="shared" si="9"/>
         <v>45192</v>
       </c>
-      <c r="R26" s="41" cm="1">
+      <c r="R26" s="40" cm="1">
         <f t="array" ref="R26">IF(SUM(COUNTIF(Q26,Feiertage!$A$2:$A$13)),"F",Q26)</f>
         <v>45192</v>
       </c>
-      <c r="S26" s="40">
+      <c r="S26" s="39">
         <f t="shared" si="10"/>
         <v>45222</v>
       </c>
-      <c r="T26" s="41" cm="1">
+      <c r="T26" s="40" cm="1">
         <f t="array" ref="T26">IF(SUM(COUNTIF(S26,Feiertage!$A$2:$A$13)),"F",S26)</f>
         <v>45222</v>
       </c>
-      <c r="U26" s="40">
+      <c r="U26" s="39">
         <f t="shared" si="11"/>
         <v>45253</v>
       </c>
-      <c r="V26" s="41" cm="1">
+      <c r="V26" s="40" cm="1">
         <f t="array" ref="V26">IF(SUM(COUNTIF(U26,Feiertage!$A$2:$A$13)),"F",U26)</f>
         <v>45253</v>
       </c>
-      <c r="W26" s="42">
+      <c r="W26" s="41">
         <f t="shared" si="12"/>
         <v>45283</v>
       </c>
-      <c r="X26" s="41" cm="1">
+      <c r="X26" s="40" cm="1">
         <f t="array" ref="X26">IF(SUM(COUNTIF(W26,Feiertage!$A$2:$A$13)),"F",W26)</f>
         <v>45283</v>
       </c>
     </row>
     <row r="27" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="40">
+      <c r="A27" s="39">
         <f t="shared" si="1"/>
         <v>44950</v>
       </c>
-      <c r="B27" s="41" cm="1">
+      <c r="B27" s="40" cm="1">
         <f t="array" ref="B27">IF(SUM(COUNTIF(A27,Feiertage!$A$2:$A$13)),"F",A27)</f>
         <v>44950</v>
       </c>
-      <c r="C27" s="40">
+      <c r="C27" s="39">
         <f t="shared" si="2"/>
         <v>44981</v>
       </c>
-      <c r="D27" s="41" cm="1">
+      <c r="D27" s="40" cm="1">
         <f t="array" ref="D27">IF(SUM(COUNTIF(C27,Feiertage!$A$2:$A$13)),"F",C27)</f>
         <v>44981</v>
       </c>
-      <c r="E27" s="40">
+      <c r="E27" s="39">
         <f t="shared" si="3"/>
         <v>45009</v>
       </c>
-      <c r="F27" s="41" cm="1">
+      <c r="F27" s="40" cm="1">
         <f t="array" ref="F27">IF(SUM(COUNTIF(E27,Feiertage!$A$2:$A$13)),"F",E27)</f>
         <v>45009</v>
       </c>
-      <c r="G27" s="40">
+      <c r="G27" s="39">
         <f t="shared" si="4"/>
         <v>45040</v>
       </c>
-      <c r="H27" s="41" cm="1">
+      <c r="H27" s="40" cm="1">
         <f t="array" ref="H27">IF(SUM(COUNTIF(G27,Feiertage!$A$2:$A$13)),"F",G27)</f>
         <v>45040</v>
       </c>
-      <c r="I27" s="40">
+      <c r="I27" s="39">
         <f t="shared" si="5"/>
         <v>45070</v>
       </c>
-      <c r="J27" s="41" cm="1">
+      <c r="J27" s="40" cm="1">
         <f t="array" ref="J27">IF(SUM(COUNTIF(I27,Feiertage!$A$2:$A$13)),"F",I27)</f>
         <v>45070</v>
       </c>
-      <c r="K27" s="40">
+      <c r="K27" s="39">
         <f t="shared" si="6"/>
         <v>45101</v>
       </c>
-      <c r="L27" s="41" cm="1">
+      <c r="L27" s="40" cm="1">
         <f t="array" ref="L27">IF(SUM(COUNTIF(K27,Feiertage!$A$2:$A$13)),"F",K27)</f>
         <v>45101</v>
       </c>
-      <c r="M27" s="40">
+      <c r="M27" s="39">
         <f t="shared" si="7"/>
         <v>45131</v>
       </c>
-      <c r="N27" s="41" cm="1">
+      <c r="N27" s="40" cm="1">
         <f t="array" ref="N27">IF(SUM(COUNTIF(M27,Feiertage!$A$2:$A$13)),"F",M27)</f>
         <v>45131</v>
       </c>
-      <c r="O27" s="40">
+      <c r="O27" s="39">
         <f t="shared" si="8"/>
         <v>45162</v>
       </c>
-      <c r="P27" s="41" cm="1">
+      <c r="P27" s="40" cm="1">
         <f t="array" ref="P27">IF(SUM(COUNTIF(O27,Feiertage!$A$2:$A$13)),"F",O27)</f>
         <v>45162</v>
       </c>
-      <c r="Q27" s="40">
+      <c r="Q27" s="39">
         <f t="shared" si="9"/>
         <v>45193</v>
       </c>
-      <c r="R27" s="41" cm="1">
+      <c r="R27" s="40" cm="1">
         <f t="array" ref="R27">IF(SUM(COUNTIF(Q27,Feiertage!$A$2:$A$13)),"F",Q27)</f>
         <v>45193</v>
       </c>
-      <c r="S27" s="40">
+      <c r="S27" s="39">
         <f t="shared" si="10"/>
         <v>45223</v>
       </c>
-      <c r="T27" s="41" cm="1">
+      <c r="T27" s="40" cm="1">
         <f t="array" ref="T27">IF(SUM(COUNTIF(S27,Feiertage!$A$2:$A$13)),"F",S27)</f>
         <v>45223</v>
       </c>
-      <c r="U27" s="40">
+      <c r="U27" s="39">
         <f t="shared" si="11"/>
         <v>45254</v>
       </c>
-      <c r="V27" s="41" cm="1">
+      <c r="V27" s="40" cm="1">
         <f t="array" ref="V27">IF(SUM(COUNTIF(U27,Feiertage!$A$2:$A$13)),"F",U27)</f>
         <v>45254</v>
       </c>
-      <c r="W27" s="42">
+      <c r="W27" s="41">
         <f t="shared" si="12"/>
         <v>45284</v>
       </c>
-      <c r="X27" s="41" cm="1">
+      <c r="X27" s="40" cm="1">
         <f t="array" ref="X27">IF(SUM(COUNTIF(W27,Feiertage!$A$2:$A$13)),"F",W27)</f>
         <v>45284</v>
       </c>
     </row>
     <row r="28" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="40">
+      <c r="A28" s="39">
         <f t="shared" si="1"/>
         <v>44951</v>
       </c>
-      <c r="B28" s="41" cm="1">
+      <c r="B28" s="40" cm="1">
         <f t="array" ref="B28">IF(SUM(COUNTIF(A28,Feiertage!$A$2:$A$13)),"F",A28)</f>
         <v>44951</v>
       </c>
-      <c r="C28" s="40">
+      <c r="C28" s="39">
         <f t="shared" si="2"/>
         <v>44982</v>
       </c>
-      <c r="D28" s="41" cm="1">
+      <c r="D28" s="40" cm="1">
         <f t="array" ref="D28">IF(SUM(COUNTIF(C28,Feiertage!$A$2:$A$13)),"F",C28)</f>
         <v>44982</v>
       </c>
-      <c r="E28" s="40">
+      <c r="E28" s="39">
         <f t="shared" si="3"/>
         <v>45010</v>
       </c>
-      <c r="F28" s="41" cm="1">
+      <c r="F28" s="40" cm="1">
         <f t="array" ref="F28">IF(SUM(COUNTIF(E28,Feiertage!$A$2:$A$13)),"F",E28)</f>
         <v>45010</v>
       </c>
-      <c r="G28" s="40">
+      <c r="G28" s="39">
         <f t="shared" si="4"/>
         <v>45041</v>
       </c>
-      <c r="H28" s="41" cm="1">
+      <c r="H28" s="40" cm="1">
         <f t="array" ref="H28">IF(SUM(COUNTIF(G28,Feiertage!$A$2:$A$13)),"F",G28)</f>
         <v>45041</v>
       </c>
-      <c r="I28" s="40">
+      <c r="I28" s="39">
         <f t="shared" si="5"/>
         <v>45071</v>
       </c>
-      <c r="J28" s="41" cm="1">
+      <c r="J28" s="40" cm="1">
         <f t="array" ref="J28">IF(SUM(COUNTIF(I28,Feiertage!$A$2:$A$13)),"F",I28)</f>
         <v>45071</v>
       </c>
-      <c r="K28" s="40">
+      <c r="K28" s="39">
         <f t="shared" si="6"/>
         <v>45102</v>
       </c>
-      <c r="L28" s="41" cm="1">
+      <c r="L28" s="40" cm="1">
         <f t="array" ref="L28">IF(SUM(COUNTIF(K28,Feiertage!$A$2:$A$13)),"F",K28)</f>
         <v>45102</v>
       </c>
-      <c r="M28" s="40">
+      <c r="M28" s="39">
         <f t="shared" si="7"/>
         <v>45132</v>
       </c>
-      <c r="N28" s="41" cm="1">
+      <c r="N28" s="40" cm="1">
         <f t="array" ref="N28">IF(SUM(COUNTIF(M28,Feiertage!$A$2:$A$13)),"F",M28)</f>
         <v>45132</v>
       </c>
-      <c r="O28" s="40">
+      <c r="O28" s="39">
         <f t="shared" si="8"/>
         <v>45163</v>
       </c>
-      <c r="P28" s="41" cm="1">
+      <c r="P28" s="40" cm="1">
         <f t="array" ref="P28">IF(SUM(COUNTIF(O28,Feiertage!$A$2:$A$13)),"F",O28)</f>
         <v>45163</v>
       </c>
-      <c r="Q28" s="40">
+      <c r="Q28" s="39">
         <f t="shared" si="9"/>
         <v>45194</v>
       </c>
-      <c r="R28" s="41" cm="1">
+      <c r="R28" s="40" cm="1">
         <f t="array" ref="R28">IF(SUM(COUNTIF(Q28,Feiertage!$A$2:$A$13)),"F",Q28)</f>
         <v>45194</v>
       </c>
-      <c r="S28" s="40">
+      <c r="S28" s="39">
         <f t="shared" si="10"/>
         <v>45224</v>
       </c>
-      <c r="T28" s="41" cm="1">
+      <c r="T28" s="40" cm="1">
         <f t="array" ref="T28">IF(SUM(COUNTIF(S28,Feiertage!$A$2:$A$13)),"F",S28)</f>
         <v>45224</v>
       </c>
-      <c r="U28" s="40">
+      <c r="U28" s="39">
         <f t="shared" si="11"/>
         <v>45255</v>
       </c>
-      <c r="V28" s="41" cm="1">
+      <c r="V28" s="40" cm="1">
         <f t="array" ref="V28">IF(SUM(COUNTIF(U28,Feiertage!$A$2:$A$13)),"F",U28)</f>
         <v>45255</v>
       </c>
-      <c r="W28" s="42">
+      <c r="W28" s="41">
         <f t="shared" si="12"/>
         <v>45285</v>
       </c>
-      <c r="X28" s="41" t="str" cm="1">
+      <c r="X28" s="40" t="str" cm="1">
         <f t="array" ref="X28">IF(SUM(COUNTIF(W28,Feiertage!$A$2:$A$13)),"F",W28)</f>
         <v>F</v>
       </c>
     </row>
     <row r="29" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="40">
+      <c r="A29" s="39">
         <f t="shared" si="1"/>
         <v>44952</v>
       </c>
-      <c r="B29" s="41" cm="1">
+      <c r="B29" s="40" cm="1">
         <f t="array" ref="B29">IF(SUM(COUNTIF(A29,Feiertage!$A$2:$A$13)),"F",A29)</f>
         <v>44952</v>
       </c>
-      <c r="C29" s="40">
+      <c r="C29" s="39">
         <f t="shared" si="2"/>
         <v>44983</v>
       </c>
-      <c r="D29" s="41" cm="1">
+      <c r="D29" s="40" cm="1">
         <f t="array" ref="D29">IF(SUM(COUNTIF(C29,Feiertage!$A$2:$A$13)),"F",C29)</f>
         <v>44983</v>
       </c>
-      <c r="E29" s="40">
+      <c r="E29" s="39">
         <f t="shared" si="3"/>
         <v>45011</v>
       </c>
-      <c r="F29" s="41" cm="1">
+      <c r="F29" s="40" cm="1">
         <f t="array" ref="F29">IF(SUM(COUNTIF(E29,Feiertage!$A$2:$A$13)),"F",E29)</f>
         <v>45011</v>
       </c>
-      <c r="G29" s="40">
+      <c r="G29" s="39">
         <f t="shared" si="4"/>
         <v>45042</v>
       </c>
-      <c r="H29" s="41" cm="1">
+      <c r="H29" s="40" cm="1">
         <f t="array" ref="H29">IF(SUM(COUNTIF(G29,Feiertage!$A$2:$A$13)),"F",G29)</f>
         <v>45042</v>
       </c>
-      <c r="I29" s="40">
+      <c r="I29" s="39">
         <f t="shared" si="5"/>
         <v>45072</v>
       </c>
-      <c r="J29" s="41" cm="1">
+      <c r="J29" s="40" cm="1">
         <f t="array" ref="J29">IF(SUM(COUNTIF(I29,Feiertage!$A$2:$A$13)),"F",I29)</f>
         <v>45072</v>
       </c>
-      <c r="K29" s="40">
+      <c r="K29" s="39">
         <f t="shared" si="6"/>
         <v>45103</v>
       </c>
-      <c r="L29" s="41" cm="1">
+      <c r="L29" s="40" cm="1">
         <f t="array" ref="L29">IF(SUM(COUNTIF(K29,Feiertage!$A$2:$A$13)),"F",K29)</f>
         <v>45103</v>
       </c>
-      <c r="M29" s="40">
+      <c r="M29" s="39">
         <f t="shared" si="7"/>
         <v>45133</v>
       </c>
-      <c r="N29" s="41" cm="1">
+      <c r="N29" s="40" cm="1">
         <f t="array" ref="N29">IF(SUM(COUNTIF(M29,Feiertage!$A$2:$A$13)),"F",M29)</f>
         <v>45133</v>
       </c>
-      <c r="O29" s="40">
+      <c r="O29" s="39">
         <f t="shared" si="8"/>
         <v>45164</v>
       </c>
-      <c r="P29" s="41" cm="1">
+      <c r="P29" s="40" cm="1">
         <f t="array" ref="P29">IF(SUM(COUNTIF(O29,Feiertage!$A$2:$A$13)),"F",O29)</f>
         <v>45164</v>
       </c>
-      <c r="Q29" s="40">
+      <c r="Q29" s="39">
         <f t="shared" si="9"/>
         <v>45195</v>
       </c>
-      <c r="R29" s="41" cm="1">
+      <c r="R29" s="40" cm="1">
         <f t="array" ref="R29">IF(SUM(COUNTIF(Q29,Feiertage!$A$2:$A$13)),"F",Q29)</f>
         <v>45195</v>
       </c>
-      <c r="S29" s="40">
+      <c r="S29" s="39">
         <f t="shared" si="10"/>
         <v>45225</v>
       </c>
-      <c r="T29" s="41" cm="1">
+      <c r="T29" s="40" cm="1">
         <f t="array" ref="T29">IF(SUM(COUNTIF(S29,Feiertage!$A$2:$A$13)),"F",S29)</f>
         <v>45225</v>
       </c>
-      <c r="U29" s="40">
+      <c r="U29" s="39">
         <f t="shared" si="11"/>
         <v>45256</v>
       </c>
-      <c r="V29" s="41" cm="1">
+      <c r="V29" s="40" cm="1">
         <f t="array" ref="V29">IF(SUM(COUNTIF(U29,Feiertage!$A$2:$A$13)),"F",U29)</f>
         <v>45256</v>
       </c>
-      <c r="W29" s="42">
+      <c r="W29" s="41">
         <f t="shared" si="12"/>
         <v>45286</v>
       </c>
-      <c r="X29" s="41" t="str" cm="1">
+      <c r="X29" s="40" t="str" cm="1">
         <f t="array" ref="X29">IF(SUM(COUNTIF(W29,Feiertage!$A$2:$A$13)),"F",W29)</f>
         <v>F</v>
       </c>
     </row>
     <row r="30" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="40">
+      <c r="A30" s="39">
         <f t="shared" si="1"/>
         <v>44953</v>
       </c>
-      <c r="B30" s="41" cm="1">
+      <c r="B30" s="40" cm="1">
         <f t="array" ref="B30">IF(SUM(COUNTIF(A30,Feiertage!$A$2:$A$13)),"F",A30)</f>
         <v>44953</v>
       </c>
-      <c r="C30" s="40">
+      <c r="C30" s="39">
         <f t="shared" si="2"/>
         <v>44984</v>
       </c>
-      <c r="D30" s="41" cm="1">
+      <c r="D30" s="40" cm="1">
         <f t="array" ref="D30">IF(SUM(COUNTIF(C30,Feiertage!$A$2:$A$13)),"F",C30)</f>
         <v>44984</v>
       </c>
-      <c r="E30" s="40">
+      <c r="E30" s="39">
         <f t="shared" si="3"/>
         <v>45012</v>
       </c>
-      <c r="F30" s="41" cm="1">
+      <c r="F30" s="40" cm="1">
         <f t="array" ref="F30">IF(SUM(COUNTIF(E30,Feiertage!$A$2:$A$13)),"F",E30)</f>
         <v>45012</v>
       </c>
-      <c r="G30" s="40">
+      <c r="G30" s="39">
         <f t="shared" si="4"/>
         <v>45043</v>
       </c>
-      <c r="H30" s="41" cm="1">
+      <c r="H30" s="40" cm="1">
         <f t="array" ref="H30">IF(SUM(COUNTIF(G30,Feiertage!$A$2:$A$13)),"F",G30)</f>
         <v>45043</v>
       </c>
-      <c r="I30" s="40">
+      <c r="I30" s="39">
         <f t="shared" si="5"/>
         <v>45073</v>
       </c>
-      <c r="J30" s="41" cm="1">
+      <c r="J30" s="40" cm="1">
         <f t="array" ref="J30">IF(SUM(COUNTIF(I30,Feiertage!$A$2:$A$13)),"F",I30)</f>
         <v>45073</v>
       </c>
-      <c r="K30" s="40">
+      <c r="K30" s="39">
         <f t="shared" si="6"/>
         <v>45104</v>
       </c>
-      <c r="L30" s="41" cm="1">
+      <c r="L30" s="40" cm="1">
         <f t="array" ref="L30">IF(SUM(COUNTIF(K30,Feiertage!$A$2:$A$13)),"F",K30)</f>
         <v>45104</v>
       </c>
-      <c r="M30" s="40">
+      <c r="M30" s="39">
         <f t="shared" si="7"/>
         <v>45134</v>
       </c>
-      <c r="N30" s="41" cm="1">
+      <c r="N30" s="40" cm="1">
         <f t="array" ref="N30">IF(SUM(COUNTIF(M30,Feiertage!$A$2:$A$13)),"F",M30)</f>
         <v>45134</v>
       </c>
-      <c r="O30" s="40">
+      <c r="O30" s="39">
         <f t="shared" si="8"/>
         <v>45165</v>
       </c>
-      <c r="P30" s="41" cm="1">
+      <c r="P30" s="40" cm="1">
         <f t="array" ref="P30">IF(SUM(COUNTIF(O30,Feiertage!$A$2:$A$13)),"F",O30)</f>
         <v>45165</v>
       </c>
-      <c r="Q30" s="40">
+      <c r="Q30" s="39">
         <f t="shared" si="9"/>
         <v>45196</v>
       </c>
-      <c r="R30" s="41" cm="1">
+      <c r="R30" s="40" cm="1">
         <f t="array" ref="R30">IF(SUM(COUNTIF(Q30,Feiertage!$A$2:$A$13)),"F",Q30)</f>
         <v>45196</v>
       </c>
-      <c r="S30" s="40">
+      <c r="S30" s="39">
         <f t="shared" si="10"/>
         <v>45226</v>
       </c>
-      <c r="T30" s="41" cm="1">
+      <c r="T30" s="40" cm="1">
         <f t="array" ref="T30">IF(SUM(COUNTIF(S30,Feiertage!$A$2:$A$13)),"F",S30)</f>
         <v>45226</v>
       </c>
-      <c r="U30" s="40">
+      <c r="U30" s="39">
         <f t="shared" si="11"/>
         <v>45257</v>
       </c>
-      <c r="V30" s="41" cm="1">
+      <c r="V30" s="40" cm="1">
         <f t="array" ref="V30">IF(SUM(COUNTIF(U30,Feiertage!$A$2:$A$13)),"F",U30)</f>
         <v>45257</v>
       </c>
-      <c r="W30" s="42">
+      <c r="W30" s="41">
         <f t="shared" si="12"/>
         <v>45287</v>
       </c>
-      <c r="X30" s="41" t="s">
-        <v>107</v>
+      <c r="X30" s="40" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="40">
+      <c r="A31" s="39">
         <f t="shared" si="1"/>
         <v>44954</v>
       </c>
-      <c r="B31" s="41" cm="1">
+      <c r="B31" s="40" cm="1">
         <f t="array" ref="B31">IF(SUM(COUNTIF(A31,Feiertage!$A$2:$A$13)),"F",A31)</f>
         <v>44954</v>
       </c>
-      <c r="C31" s="40">
+      <c r="C31" s="39">
         <f t="shared" si="2"/>
         <v>44985</v>
       </c>
-      <c r="D31" s="41" cm="1">
+      <c r="D31" s="40" cm="1">
         <f t="array" ref="D31">IF(SUM(COUNTIF(C31,Feiertage!$A$2:$A$13)),"F",C31)</f>
         <v>44985</v>
       </c>
-      <c r="E31" s="40">
+      <c r="E31" s="39">
         <f t="shared" si="3"/>
         <v>45013</v>
       </c>
-      <c r="F31" s="41" cm="1">
+      <c r="F31" s="40" cm="1">
         <f t="array" ref="F31">IF(SUM(COUNTIF(E31,Feiertage!$A$2:$A$13)),"F",E31)</f>
         <v>45013</v>
       </c>
-      <c r="G31" s="40">
+      <c r="G31" s="39">
         <f t="shared" si="4"/>
         <v>45044</v>
       </c>
-      <c r="H31" s="41" cm="1">
+      <c r="H31" s="40" cm="1">
         <f t="array" ref="H31">IF(SUM(COUNTIF(G31,Feiertage!$A$2:$A$13)),"F",G31)</f>
         <v>45044</v>
       </c>
-      <c r="I31" s="40">
+      <c r="I31" s="39">
         <f t="shared" si="5"/>
         <v>45074</v>
       </c>
-      <c r="J31" s="41" cm="1">
+      <c r="J31" s="40" cm="1">
         <f t="array" ref="J31">IF(SUM(COUNTIF(I31,Feiertage!$A$2:$A$13)),"F",I31)</f>
         <v>45074</v>
       </c>
-      <c r="K31" s="40">
+      <c r="K31" s="39">
         <f t="shared" si="6"/>
         <v>45105</v>
       </c>
-      <c r="L31" s="41" cm="1">
+      <c r="L31" s="40" cm="1">
         <f t="array" ref="L31">IF(SUM(COUNTIF(K31,Feiertage!$A$2:$A$13)),"F",K31)</f>
         <v>45105</v>
       </c>
-      <c r="M31" s="40">
+      <c r="M31" s="39">
         <f t="shared" si="7"/>
         <v>45135</v>
       </c>
-      <c r="N31" s="41" cm="1">
+      <c r="N31" s="40" cm="1">
         <f t="array" ref="N31">IF(SUM(COUNTIF(M31,Feiertage!$A$2:$A$13)),"F",M31)</f>
         <v>45135</v>
       </c>
-      <c r="O31" s="40">
+      <c r="O31" s="39">
         <f t="shared" si="8"/>
         <v>45166</v>
       </c>
-      <c r="P31" s="41" cm="1">
+      <c r="P31" s="40" cm="1">
         <f t="array" ref="P31">IF(SUM(COUNTIF(O31,Feiertage!$A$2:$A$13)),"F",O31)</f>
         <v>45166</v>
       </c>
-      <c r="Q31" s="40">
+      <c r="Q31" s="39">
         <f t="shared" si="9"/>
         <v>45197</v>
       </c>
-      <c r="R31" s="41" cm="1">
+      <c r="R31" s="40" cm="1">
         <f t="array" ref="R31">IF(SUM(COUNTIF(Q31,Feiertage!$A$2:$A$13)),"F",Q31)</f>
         <v>45197</v>
       </c>
-      <c r="S31" s="40">
+      <c r="S31" s="39">
         <f t="shared" si="10"/>
         <v>45227</v>
       </c>
-      <c r="T31" s="41" cm="1">
+      <c r="T31" s="40" cm="1">
         <f t="array" ref="T31">IF(SUM(COUNTIF(S31,Feiertage!$A$2:$A$13)),"F",S31)</f>
         <v>45227</v>
       </c>
-      <c r="U31" s="40">
+      <c r="U31" s="39">
         <f t="shared" si="11"/>
         <v>45258</v>
       </c>
-      <c r="V31" s="41" cm="1">
+      <c r="V31" s="40" cm="1">
         <f t="array" ref="V31">IF(SUM(COUNTIF(U31,Feiertage!$A$2:$A$13)),"F",U31)</f>
         <v>45258</v>
       </c>
-      <c r="W31" s="42">
+      <c r="W31" s="41">
         <f t="shared" si="12"/>
         <v>45288</v>
       </c>
-      <c r="X31" s="41" t="s">
-        <v>107</v>
+      <c r="X31" s="40" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="40">
+      <c r="A32" s="39">
         <f>IFERROR(IF(MONTH(A31+1)=MONTH(A$4),A31+1,""),"")</f>
         <v>44955</v>
       </c>
-      <c r="B32" s="41" cm="1">
+      <c r="B32" s="40" cm="1">
         <f t="array" ref="B32">IF(SUM(COUNTIF(A32,Feiertage!$A$2:$A$13)),"F",A32)</f>
         <v>44955</v>
       </c>
-      <c r="C32" s="40" t="str">
+      <c r="C32" s="39" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D32" s="41" t="str" cm="1">
+      <c r="D32" s="40" t="str" cm="1">
         <f t="array" ref="D32">IF(SUM(COUNTIF(C32,Feiertage!$A$2:$A$13)),"F",C32)</f>
         <v/>
       </c>
-      <c r="E32" s="40">
+      <c r="E32" s="39">
         <f t="shared" si="3"/>
         <v>45014</v>
       </c>
-      <c r="F32" s="41" cm="1">
+      <c r="F32" s="40" cm="1">
         <f t="array" ref="F32">IF(SUM(COUNTIF(E32,Feiertage!$A$2:$A$13)),"F",E32)</f>
         <v>45014</v>
       </c>
-      <c r="G32" s="40">
+      <c r="G32" s="39">
         <f t="shared" si="4"/>
         <v>45045</v>
       </c>
-      <c r="H32" s="41" cm="1">
+      <c r="H32" s="40" cm="1">
         <f t="array" ref="H32">IF(SUM(COUNTIF(G32,Feiertage!$A$2:$A$13)),"F",G32)</f>
         <v>45045</v>
       </c>
-      <c r="I32" s="40">
+      <c r="I32" s="39">
         <f t="shared" si="5"/>
         <v>45075</v>
       </c>
-      <c r="J32" s="41" t="str" cm="1">
+      <c r="J32" s="40" t="str" cm="1">
         <f t="array" ref="J32">IF(SUM(COUNTIF(I32,Feiertage!$A$2:$A$13)),"F",I32)</f>
         <v>F</v>
       </c>
-      <c r="K32" s="40">
+      <c r="K32" s="39">
         <f t="shared" si="6"/>
         <v>45106</v>
       </c>
-      <c r="L32" s="41" cm="1">
+      <c r="L32" s="40" cm="1">
         <f t="array" ref="L32">IF(SUM(COUNTIF(K32,Feiertage!$A$2:$A$13)),"F",K32)</f>
         <v>45106</v>
       </c>
-      <c r="M32" s="40">
+      <c r="M32" s="39">
         <f t="shared" si="7"/>
         <v>45136</v>
       </c>
-      <c r="N32" s="41" cm="1">
+      <c r="N32" s="40" cm="1">
         <f t="array" ref="N32">IF(SUM(COUNTIF(M32,Feiertage!$A$2:$A$13)),"F",M32)</f>
         <v>45136</v>
       </c>
-      <c r="O32" s="40">
+      <c r="O32" s="39">
         <f t="shared" si="8"/>
         <v>45167</v>
       </c>
-      <c r="P32" s="41" cm="1">
+      <c r="P32" s="40" cm="1">
         <f t="array" ref="P32">IF(SUM(COUNTIF(O32,Feiertage!$A$2:$A$13)),"F",O32)</f>
         <v>45167</v>
       </c>
-      <c r="Q32" s="40">
+      <c r="Q32" s="39">
         <f t="shared" si="9"/>
         <v>45198</v>
       </c>
-      <c r="R32" s="41" cm="1">
+      <c r="R32" s="40" cm="1">
         <f t="array" ref="R32">IF(SUM(COUNTIF(Q32,Feiertage!$A$2:$A$13)),"F",Q32)</f>
         <v>45198</v>
       </c>
-      <c r="S32" s="40">
+      <c r="S32" s="39">
         <f t="shared" si="10"/>
         <v>45228</v>
       </c>
-      <c r="T32" s="41" cm="1">
+      <c r="T32" s="40" cm="1">
         <f t="array" ref="T32">IF(SUM(COUNTIF(S32,Feiertage!$A$2:$A$13)),"F",S32)</f>
         <v>45228</v>
       </c>
-      <c r="U32" s="40">
+      <c r="U32" s="39">
         <f t="shared" si="11"/>
         <v>45259</v>
       </c>
-      <c r="V32" s="41" cm="1">
+      <c r="V32" s="40" cm="1">
         <f t="array" ref="V32">IF(SUM(COUNTIF(U32,Feiertage!$A$2:$A$13)),"F",U32)</f>
         <v>45259</v>
       </c>
-      <c r="W32" s="42">
+      <c r="W32" s="41">
         <f t="shared" si="12"/>
         <v>45289</v>
       </c>
-      <c r="X32" s="41" t="s">
-        <v>107</v>
+      <c r="X32" s="40" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="40">
+      <c r="A33" s="39">
         <f>IFERROR(IF(MONTH(A32+1)=MONTH(A$4),A32+1,""),"")</f>
         <v>44956</v>
       </c>
-      <c r="B33" s="41" cm="1">
+      <c r="B33" s="40" cm="1">
         <f t="array" ref="B33">IF(SUM(COUNTIF(A33,Feiertage!$A$2:$A$13)),"F",A33)</f>
         <v>44956</v>
       </c>
-      <c r="C33" s="40" t="str">
+      <c r="C33" s="39" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D33" s="41" t="str" cm="1">
+      <c r="D33" s="40" t="str" cm="1">
         <f t="array" ref="D33">IF(SUM(COUNTIF(C33,Feiertage!$A$2:$A$13)),"F",C33)</f>
         <v/>
       </c>
-      <c r="E33" s="40">
+      <c r="E33" s="39">
         <f t="shared" si="3"/>
         <v>45015</v>
       </c>
-      <c r="F33" s="41" cm="1">
+      <c r="F33" s="40" cm="1">
         <f t="array" ref="F33">IF(SUM(COUNTIF(E33,Feiertage!$A$2:$A$13)),"F",E33)</f>
         <v>45015</v>
       </c>
-      <c r="G33" s="40">
+      <c r="G33" s="39">
         <f t="shared" si="4"/>
         <v>45046</v>
       </c>
-      <c r="H33" s="41" cm="1">
+      <c r="H33" s="40" cm="1">
         <f t="array" ref="H33">IF(SUM(COUNTIF(G33,Feiertage!$A$2:$A$13)),"F",G33)</f>
         <v>45046</v>
       </c>
-      <c r="I33" s="40">
+      <c r="I33" s="39">
         <f t="shared" si="5"/>
         <v>45076</v>
       </c>
-      <c r="J33" s="41" cm="1">
+      <c r="J33" s="40" cm="1">
         <f t="array" ref="J33">IF(SUM(COUNTIF(I33,Feiertage!$A$2:$A$13)),"F",I33)</f>
         <v>45076</v>
       </c>
-      <c r="K33" s="40">
+      <c r="K33" s="39">
         <f t="shared" si="6"/>
         <v>45107</v>
       </c>
-      <c r="L33" s="41" cm="1">
+      <c r="L33" s="40" cm="1">
         <f t="array" ref="L33">IF(SUM(COUNTIF(K33,Feiertage!$A$2:$A$13)),"F",K33)</f>
         <v>45107</v>
       </c>
-      <c r="M33" s="40">
+      <c r="M33" s="39">
         <f t="shared" si="7"/>
         <v>45137</v>
       </c>
-      <c r="N33" s="41" cm="1">
+      <c r="N33" s="40" cm="1">
         <f t="array" ref="N33">IF(SUM(COUNTIF(M33,Feiertage!$A$2:$A$13)),"F",M33)</f>
         <v>45137</v>
       </c>
-      <c r="O33" s="40">
+      <c r="O33" s="39">
         <f t="shared" si="8"/>
         <v>45168</v>
       </c>
-      <c r="P33" s="41" cm="1">
+      <c r="P33" s="40" cm="1">
         <f t="array" ref="P33">IF(SUM(COUNTIF(O33,Feiertage!$A$2:$A$13)),"F",O33)</f>
         <v>45168</v>
       </c>
-      <c r="Q33" s="40">
+      <c r="Q33" s="39">
         <f t="shared" si="9"/>
         <v>45199</v>
       </c>
-      <c r="R33" s="41" cm="1">
+      <c r="R33" s="40" cm="1">
         <f t="array" ref="R33">IF(SUM(COUNTIF(Q33,Feiertage!$A$2:$A$13)),"F",Q33)</f>
         <v>45199</v>
       </c>
-      <c r="S33" s="40">
+      <c r="S33" s="39">
         <f t="shared" si="10"/>
         <v>45229</v>
       </c>
-      <c r="T33" s="41" cm="1">
+      <c r="T33" s="40" cm="1">
         <f t="array" ref="T33">IF(SUM(COUNTIF(S33,Feiertage!$A$2:$A$13)),"F",S33)</f>
         <v>45229</v>
       </c>
-      <c r="U33" s="40">
+      <c r="U33" s="39">
         <f t="shared" si="11"/>
         <v>45260</v>
       </c>
-      <c r="V33" s="41" cm="1">
+      <c r="V33" s="40" cm="1">
         <f t="array" ref="V33">IF(SUM(COUNTIF(U33,Feiertage!$A$2:$A$13)),"F",U33)</f>
         <v>45260</v>
       </c>
-      <c r="W33" s="42">
+      <c r="W33" s="41">
         <f t="shared" si="12"/>
         <v>45290</v>
       </c>
-      <c r="X33" s="41" cm="1">
+      <c r="X33" s="40" cm="1">
         <f t="array" ref="X33">IF(SUM(COUNTIF(W33,Feiertage!$A$2:$A$13)),"F",W33)</f>
         <v>45290</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="43">
+      <c r="A34" s="42">
         <f t="shared" ref="A34" si="13">IFERROR(IF(MONTH(A33+1)=MONTH(A$4),A33+1,""),"")</f>
         <v>44957</v>
       </c>
-      <c r="B34" s="44" cm="1">
+      <c r="B34" s="43" cm="1">
         <f t="array" ref="B34">IF(SUM(COUNTIF(A34,Feiertage!$A$2:$A$13)),"F",A34)</f>
         <v>44957</v>
       </c>
-      <c r="C34" s="43" t="str">
+      <c r="C34" s="42" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D34" s="44" t="str" cm="1">
+      <c r="D34" s="43" t="str" cm="1">
         <f t="array" ref="D34">IF(SUM(COUNTIF(C34,Feiertage!$A$2:$A$13)),"F",C34)</f>
         <v/>
       </c>
-      <c r="E34" s="43">
+      <c r="E34" s="42">
         <f t="shared" si="3"/>
         <v>45016</v>
       </c>
-      <c r="F34" s="44" cm="1">
+      <c r="F34" s="43" cm="1">
         <f t="array" ref="F34">IF(SUM(COUNTIF(E34,Feiertage!$A$2:$A$13)),"F",E34)</f>
         <v>45016</v>
       </c>
-      <c r="G34" s="43" t="str">
+      <c r="G34" s="42" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H34" s="44" t="str" cm="1">
+      <c r="H34" s="43" t="str" cm="1">
         <f t="array" ref="H34">IF(SUM(COUNTIF(G34,Feiertage!$A$2:$A$13)),"F",G34)</f>
         <v/>
       </c>
-      <c r="I34" s="43">
+      <c r="I34" s="42">
         <f t="shared" si="5"/>
         <v>45077</v>
       </c>
-      <c r="J34" s="44" cm="1">
+      <c r="J34" s="43" cm="1">
         <f t="array" ref="J34">IF(SUM(COUNTIF(I34,Feiertage!$A$2:$A$13)),"F",I34)</f>
         <v>45077</v>
       </c>
-      <c r="K34" s="43" t="str">
+      <c r="K34" s="42" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L34" s="44" t="str" cm="1">
+      <c r="L34" s="43" t="str" cm="1">
         <f t="array" ref="L34">IF(SUM(COUNTIF(K34,Feiertage!$A$2:$A$13)),"F",K34)</f>
         <v/>
       </c>
-      <c r="M34" s="43">
+      <c r="M34" s="42">
         <f t="shared" si="7"/>
         <v>45138</v>
       </c>
-      <c r="N34" s="44" cm="1">
+      <c r="N34" s="43" cm="1">
         <f t="array" ref="N34">IF(SUM(COUNTIF(M34,Feiertage!$A$2:$A$13)),"F",M34)</f>
         <v>45138</v>
       </c>
-      <c r="O34" s="43">
+      <c r="O34" s="42">
         <f t="shared" si="8"/>
         <v>45169</v>
       </c>
-      <c r="P34" s="44" cm="1">
+      <c r="P34" s="43" cm="1">
         <f t="array" ref="P34">IF(SUM(COUNTIF(O34,Feiertage!$A$2:$A$13)),"F",O34)</f>
         <v>45169</v>
       </c>
-      <c r="Q34" s="43" t="str">
+      <c r="Q34" s="42" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="R34" s="44" t="str" cm="1">
+      <c r="R34" s="43" t="str" cm="1">
         <f t="array" ref="R34">IF(SUM(COUNTIF(Q34,Feiertage!$A$2:$A$13)),"F",Q34)</f>
         <v/>
       </c>
-      <c r="S34" s="43">
+      <c r="S34" s="42">
         <f t="shared" si="10"/>
         <v>45230</v>
       </c>
-      <c r="T34" s="44" cm="1">
+      <c r="T34" s="43" cm="1">
         <f t="array" ref="T34">IF(SUM(COUNTIF(S34,Feiertage!$A$2:$A$13)),"F",S34)</f>
         <v>45230</v>
       </c>
-      <c r="U34" s="43" t="str">
+      <c r="U34" s="42" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="V34" s="44" t="str" cm="1">
+      <c r="V34" s="43" t="str" cm="1">
         <f t="array" ref="V34">IF(SUM(COUNTIF(U34,Feiertage!$A$2:$A$13)),"F",U34)</f>
         <v/>
       </c>
-      <c r="W34" s="45">
+      <c r="W34" s="44">
         <f t="shared" si="12"/>
         <v>45291</v>
       </c>
-      <c r="X34" s="44" cm="1">
+      <c r="X34" s="43" cm="1">
         <f t="array" ref="X34">IF(SUM(COUNTIF(W34,Feiertage!$A$2:$A$13)),"F",W34)</f>
         <v>45291</v>
       </c>
@@ -5463,14 +5762,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A4:X34">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>OR(A4="F",B4="F")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>OR(A4="U",B4="U")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="9">
+    <cfRule type="expression" dxfId="4" priority="10">
       <formula>WEEKDAY(A4,2)&gt;5</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>OR(A4="F",B4="F")</formula>
+      <formula>TODAY()=A4</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5482,7 +5784,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="3" id="{2384E0C4-B432-4A69-9F1C-5FF116CB2572}">
+          <x14:cfRule type="expression" priority="4" id="{2384E0C4-B432-4A69-9F1C-5FF116CB2572}">
             <xm:f>AND(NOT(A4=""),OR(COUNTIF(Modulliste!$K$2:$K$19,A4)&gt;0))</xm:f>
             <x14:dxf>
               <fill>
@@ -5492,7 +5794,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="4" id="{01E0AAD0-3179-4A4C-A3F5-F297F1811797}">
+          <x14:cfRule type="expression" priority="5" id="{01E0AAD0-3179-4A4C-A3F5-F297F1811797}">
             <xm:f>AND(NOT(A4=""),OR(COUNTIF(Modulliste!$I$2:$I$19,A4)&gt;0,COUNTIF(Modulliste!$I$2:$I$19,A4-1)&gt;0,COUNTIF(Modulliste!$I$2:$I$19,A4-2)&gt;0))</xm:f>
             <x14:dxf>
               <fill>
@@ -5502,7 +5804,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="5" id="{732B42F6-81A6-4A60-8F1F-AD58B9AE4C14}">
+          <x14:cfRule type="expression" priority="6" id="{732B42F6-81A6-4A60-8F1F-AD58B9AE4C14}">
             <xm:f>AND(NOT(A4=""),OR(COUNTIF(Modulliste!$G$2:$G$19,A4)&gt;0,COUNTIF(Modulliste!$G$2:$G$19,A4-1)&gt;0,COUNTIF(Modulliste!$G$2:$G$19,A4-2)&gt;0))</xm:f>
             <x14:dxf>
               <fill>

--- a/Studiumplan.xlsx
+++ b/Studiumplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bosch-my.sharepoint.com/personal/uai5fe_bosch_com/Documents/00_DHBW/git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="359" documentId="13_ncr:1_{06E2D6A5-26F5-4217-B8C5-20B754C107B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F20C9EE-8678-44AF-BE1C-B4C729873F53}"/>
+  <xr:revisionPtr revIDLastSave="362" documentId="13_ncr:1_{06E2D6A5-26F5-4217-B8C5-20B754C107B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FA6EF3F-923E-49D9-BAD2-C5F43BBFA8FA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="579" activeTab="1" xr2:uid="{8D6EA8FC-9557-4CD3-9C64-AEC02D041DCB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="579" xr2:uid="{8D6EA8FC-9557-4CD3-9C64-AEC02D041DCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Modulliste" sheetId="3" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="106">
   <si>
     <t>Modulname</t>
   </si>
@@ -402,6 +402,9 @@
   </si>
   <si>
     <t>Heute</t>
+  </si>
+  <si>
+    <t>Projektentwurf 50% und Seminararbeit 50%</t>
   </si>
 </sst>
 </file>
@@ -823,18 +826,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -852,128 +843,24 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="35">
     <dxf>
       <font>
         <b val="0"/>
@@ -1219,6 +1106,80 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1484,25 +1445,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4F3B1065-317B-4BEC-B040-1C2152005517}" name="Modulliste" displayName="Modulliste" ref="A1:M21" totalsRowCount="1" headerRowDxfId="40" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4F3B1065-317B-4BEC-B040-1C2152005517}" name="Modulliste" displayName="Modulliste" ref="A1:M21" totalsRowCount="1" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="A1:M20" xr:uid="{4F3B1065-317B-4BEC-B040-1C2152005517}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M20">
     <sortCondition ref="C1:C20"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="12" xr3:uid="{2C8AA6B6-31D0-4DF0-9DA9-0D8B08088E24}" name="Modulname" totalsRowLabel="Abschlussnote" dataDxfId="38" totalsRowDxfId="13"/>
-    <tableColumn id="1" xr3:uid="{FF50EF13-B9B2-42C9-A37F-07237C42C851}" name="Bereich" dataDxfId="37" totalsRowDxfId="25"/>
-    <tableColumn id="10" xr3:uid="{DE1BE470-5B26-4F88-8799-243B2BE03172}" name="Semester" dataDxfId="36" totalsRowDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{E64020FC-6A5D-4A49-BCE1-C2569FF59159}" name="Schlüssel" dataDxfId="35" totalsRowDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{8470E22C-4CE1-4553-8671-9BF5989AAE65}" name="Prüfungsart" dataDxfId="34" totalsRowDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{CF2D34DC-4E44-45F0-B25E-0FFB229BA18E}" name="LP" dataDxfId="33" totalsRowDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{80506F77-5504-411A-B364-0B22CC53A582}" name="Termin 1" dataDxfId="32" totalsRowDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{C9413F7D-7FA1-417F-B220-3B19C8279173}" name="Ort 1" dataDxfId="31" totalsRowDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{A89D3283-E2AE-4360-9A93-F5F27682296D}" name="Termin 2" dataDxfId="30" totalsRowDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{DDE1A5EF-F94C-417A-95CA-A29D4C689B48}" name="Ort 2" dataDxfId="29" totalsRowDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{A92B3274-FA6A-4C49-87BB-1CF1BAC29EAB}" name="Prüfungstermin" dataDxfId="28" totalsRowDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{F6C0E347-9701-496F-8B92-1BFEDFF8D817}" name="MODULVERANTWORTUNG" dataDxfId="27" totalsRowDxfId="15"/>
-    <tableColumn id="14" xr3:uid="{A9A48352-3929-4E88-AACC-E1A6F11D63E3}" name="Note" totalsRowFunction="custom" dataDxfId="26" totalsRowDxfId="14">
+    <tableColumn id="12" xr3:uid="{2C8AA6B6-31D0-4DF0-9DA9-0D8B08088E24}" name="Modulname" totalsRowLabel="Abschlussnote" dataDxfId="32" totalsRowDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{FF50EF13-B9B2-42C9-A37F-07237C42C851}" name="Bereich" dataDxfId="31" totalsRowDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{DE1BE470-5B26-4F88-8799-243B2BE03172}" name="Semester" dataDxfId="30" totalsRowDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{E64020FC-6A5D-4A49-BCE1-C2569FF59159}" name="Schlüssel" dataDxfId="29" totalsRowDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{8470E22C-4CE1-4553-8671-9BF5989AAE65}" name="Prüfungsart" dataDxfId="28" totalsRowDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{CF2D34DC-4E44-45F0-B25E-0FFB229BA18E}" name="LP" dataDxfId="27" totalsRowDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{80506F77-5504-411A-B364-0B22CC53A582}" name="Termin 1" dataDxfId="26" totalsRowDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{C9413F7D-7FA1-417F-B220-3B19C8279173}" name="Ort 1" dataDxfId="25" totalsRowDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{A89D3283-E2AE-4360-9A93-F5F27682296D}" name="Termin 2" dataDxfId="24" totalsRowDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{DDE1A5EF-F94C-417A-95CA-A29D4C689B48}" name="Ort 2" dataDxfId="23" totalsRowDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{A92B3274-FA6A-4C49-87BB-1CF1BAC29EAB}" name="Prüfungstermin" dataDxfId="22" totalsRowDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{F6C0E347-9701-496F-8B92-1BFEDFF8D817}" name="MODULVERANTWORTUNG" dataDxfId="21" totalsRowDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{A9A48352-3929-4E88-AACC-E1A6F11D63E3}" name="Note" totalsRowFunction="custom" dataDxfId="20" totalsRowDxfId="0">
       <totalsRowFormula array="1">SUMPRODUCT(IF(Modulliste[Note]&lt;&gt;"", Modulliste[Note]), Modulliste[LP]) / SUM(IF(Modulliste[Note]&lt;&gt;"", Modulliste[LP]))</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1820,9 +1781,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F70D999F-AAA9-4A38-8F55-9E1C84DAB455}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E15" sqref="E15"/>
+      <selection pane="topRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1997,7 +1958,9 @@
       <c r="L4" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M4" s="26"/>
+      <c r="M4" s="26">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -2013,7 +1976,7 @@
         <v>23</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="F5" s="7">
         <v>5</v>
@@ -2552,23 +2515,23 @@
       <c r="M20" s="27"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56" cm="1">
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52" cm="1">
         <f t="array" ref="M21">SUMPRODUCT(IF(Modulliste[Note]&lt;&gt;"", Modulliste[Note]), Modulliste[LP]) / SUM(IF(Modulliste[Note]&lt;&gt;"", Modulliste[LP]))</f>
-        <v>2.0499999999999998</v>
+        <v>2.4666666666666668</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -2624,8 +2587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF09B409-1D66-4794-8114-926C35B6088F}">
   <dimension ref="A1:AC37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD16" sqref="AD16"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2637,45 +2600,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="50">
+      <c r="A1" s="59">
         <v>2023</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
       <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="48" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="48" t="s">
+      <c r="D3" s="58"/>
+      <c r="E3" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="48" t="s">
+      <c r="F3" s="58"/>
+      <c r="G3" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="49"/>
-      <c r="I3" s="48" t="s">
+      <c r="H3" s="58"/>
+      <c r="I3" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="49"/>
-      <c r="K3" s="48" t="s">
+      <c r="J3" s="58"/>
+      <c r="K3" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="L3" s="49"/>
-      <c r="M3" s="48" t="s">
+      <c r="L3" s="58"/>
+      <c r="M3" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="N3" s="49"/>
+      <c r="N3" s="58"/>
       <c r="O3" s="35" t="s">
         <v>57</v>
       </c>
@@ -2896,10 +2859,10 @@
         <f t="array" ref="X5">IF(SUM(COUNTIF(W5,Feiertage!$A$2:$A$13)),"F",W5)</f>
         <v>45262</v>
       </c>
-      <c r="Z5" s="52" t="s">
+      <c r="Z5" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="AA5" s="53">
+      <c r="AA5" s="49">
         <f>COUNTIF(A4:X34,"U")</f>
         <v>30</v>
       </c>
@@ -3002,10 +2965,10 @@
         <f t="array" ref="X6">IF(SUM(COUNTIF(W6,Feiertage!$A$2:$A$13)),"F",W6)</f>
         <v>45263</v>
       </c>
-      <c r="Z6" s="54" t="s">
+      <c r="Z6" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="AA6" s="55">
+      <c r="AA6" s="51">
         <f>30-AA5</f>
         <v>0</v>
       </c>
@@ -3205,7 +3168,7 @@
         <f t="array" ref="X8">IF(SUM(COUNTIF(W8,Feiertage!$A$2:$A$13)),"F",W8)</f>
         <v>45265</v>
       </c>
-      <c r="AC8" s="60" t="s">
+      <c r="AC8" s="56" t="s">
         <v>104</v>
       </c>
     </row>
@@ -5762,16 +5725,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A4:X34">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>OR(A4="F",B4="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="18" priority="3">
       <formula>OR(A4="U",B4="U")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="10">
+    <cfRule type="expression" dxfId="17" priority="10">
       <formula>WEEKDAY(A4,2)&gt;5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="16" priority="1">
       <formula>TODAY()=A4</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Studiumplan.xlsx
+++ b/Studiumplan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bosch-my.sharepoint.com/personal/uai5fe_bosch_com/Documents/00_DHBW/git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="362" documentId="13_ncr:1_{06E2D6A5-26F5-4217-B8C5-20B754C107B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FA6EF3F-923E-49D9-BAD2-C5F43BBFA8FA}"/>
+  <xr:revisionPtr revIDLastSave="370" documentId="13_ncr:1_{06E2D6A5-26F5-4217-B8C5-20B754C107B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1ECB59DF-C0C7-4995-9B8E-6130C5942DCD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="579" xr2:uid="{8D6EA8FC-9557-4CD3-9C64-AEC02D041DCB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="579" activeTab="1" xr2:uid="{8D6EA8FC-9557-4CD3-9C64-AEC02D041DCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Modulliste" sheetId="3" r:id="rId1"/>
@@ -404,7 +404,7 @@
     <t>Heute</t>
   </si>
   <si>
-    <t>Projektentwurf 50% und Seminararbeit 50%</t>
+    <t>Programmentwurf 50% und Seminararbeit 50%</t>
   </si>
 </sst>
 </file>
@@ -571,7 +571,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1156,7 +1156,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1781,9 +1781,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F70D999F-AAA9-4A38-8F55-9E1C84DAB455}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
+    <sheetView zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E6" sqref="E6"/>
+      <selection pane="topRight" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1994,7 +1994,7 @@
         <v>18</v>
       </c>
       <c r="K5" s="23">
-        <v>45230</v>
+        <v>45229</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>85</v>
@@ -2587,8 +2587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF09B409-1D66-4794-8114-926C35B6088F}">
   <dimension ref="A1:AC37"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AJ13" sqref="AJ13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Studiumplan.xlsx
+++ b/Studiumplan.xlsx
@@ -2,20 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bosch-my.sharepoint.com/personal/uai5fe_bosch_com/Documents/00_DHBW/git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="370" documentId="13_ncr:1_{06E2D6A5-26F5-4217-B8C5-20B754C107B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1ECB59DF-C0C7-4995-9B8E-6130C5942DCD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C76F146-DD35-4FE1-810F-103525F3CA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="579" activeTab="1" xr2:uid="{8D6EA8FC-9557-4CD3-9C64-AEC02D041DCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Modulliste" sheetId="3" r:id="rId1"/>
-    <sheet name="Kalendar" sheetId="4" r:id="rId2"/>
-    <sheet name="Feiertage" sheetId="7" r:id="rId3"/>
+    <sheet name="2023" sheetId="4" r:id="rId2"/>
+    <sheet name="2024" sheetId="9" r:id="rId3"/>
+    <sheet name="Feiertage" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -87,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="106">
   <si>
     <t>Modulname</t>
   </si>
@@ -695,7 +696,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -849,6 +850,12 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -860,277 +867,55 @@
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="42">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1183,6 +968,25 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1195,6 +999,25 @@
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1228,6 +1051,31 @@
         <scheme val="major"/>
       </font>
       <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="5" tint="0.59999389629810485"/>
@@ -1237,70 +1085,17 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <color theme="1"/>
         <name val="Calibri Light"/>
         <family val="2"/>
         <scheme val="major"/>
@@ -1323,6 +1118,59 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1334,6 +1182,164 @@
         <scheme val="major"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1357,6 +1363,31 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1371,6 +1402,31 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1445,25 +1501,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4F3B1065-317B-4BEC-B040-1C2152005517}" name="Modulliste" displayName="Modulliste" ref="A1:M21" totalsRowCount="1" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4F3B1065-317B-4BEC-B040-1C2152005517}" name="Modulliste" displayName="Modulliste" ref="A1:M21" totalsRowCount="1" headerRowDxfId="41" dataDxfId="40">
   <autoFilter ref="A1:M20" xr:uid="{4F3B1065-317B-4BEC-B040-1C2152005517}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M20">
     <sortCondition ref="C1:C20"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="12" xr3:uid="{2C8AA6B6-31D0-4DF0-9DA9-0D8B08088E24}" name="Modulname" totalsRowLabel="Abschlussnote" dataDxfId="32" totalsRowDxfId="12"/>
-    <tableColumn id="1" xr3:uid="{FF50EF13-B9B2-42C9-A37F-07237C42C851}" name="Bereich" dataDxfId="31" totalsRowDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{DE1BE470-5B26-4F88-8799-243B2BE03172}" name="Semester" dataDxfId="30" totalsRowDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{E64020FC-6A5D-4A49-BCE1-C2569FF59159}" name="Schlüssel" dataDxfId="29" totalsRowDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{8470E22C-4CE1-4553-8671-9BF5989AAE65}" name="Prüfungsart" dataDxfId="28" totalsRowDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{CF2D34DC-4E44-45F0-B25E-0FFB229BA18E}" name="LP" dataDxfId="27" totalsRowDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{80506F77-5504-411A-B364-0B22CC53A582}" name="Termin 1" dataDxfId="26" totalsRowDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{C9413F7D-7FA1-417F-B220-3B19C8279173}" name="Ort 1" dataDxfId="25" totalsRowDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{A89D3283-E2AE-4360-9A93-F5F27682296D}" name="Termin 2" dataDxfId="24" totalsRowDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{DDE1A5EF-F94C-417A-95CA-A29D4C689B48}" name="Ort 2" dataDxfId="23" totalsRowDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{A92B3274-FA6A-4C49-87BB-1CF1BAC29EAB}" name="Prüfungstermin" dataDxfId="22" totalsRowDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{F6C0E347-9701-496F-8B92-1BFEDFF8D817}" name="MODULVERANTWORTUNG" dataDxfId="21" totalsRowDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{A9A48352-3929-4E88-AACC-E1A6F11D63E3}" name="Note" totalsRowFunction="custom" dataDxfId="20" totalsRowDxfId="0">
+    <tableColumn id="12" xr3:uid="{2C8AA6B6-31D0-4DF0-9DA9-0D8B08088E24}" name="Modulname" totalsRowLabel="Abschlussnote" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{FF50EF13-B9B2-42C9-A37F-07237C42C851}" name="Bereich" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="10" xr3:uid="{DE1BE470-5B26-4F88-8799-243B2BE03172}" name="Semester" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{E64020FC-6A5D-4A49-BCE1-C2569FF59159}" name="Schlüssel" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{8470E22C-4CE1-4553-8671-9BF5989AAE65}" name="Prüfungsart" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{CF2D34DC-4E44-45F0-B25E-0FFB229BA18E}" name="LP" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{80506F77-5504-411A-B364-0B22CC53A582}" name="Termin 1" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{C9413F7D-7FA1-417F-B220-3B19C8279173}" name="Ort 1" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{A89D3283-E2AE-4360-9A93-F5F27682296D}" name="Termin 2" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{DDE1A5EF-F94C-417A-95CA-A29D4C689B48}" name="Ort 2" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{A92B3274-FA6A-4C49-87BB-1CF1BAC29EAB}" name="Prüfungstermin" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="11" xr3:uid="{F6C0E347-9701-496F-8B92-1BFEDFF8D817}" name="MODULVERANTWORTUNG" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="14" xr3:uid="{A9A48352-3929-4E88-AACC-E1A6F11D63E3}" name="Note" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="14">
       <totalsRowFormula array="1">SUMPRODUCT(IF(Modulliste[Note]&lt;&gt;"", Modulliste[Note]), Modulliste[LP]) / SUM(IF(Modulliste[Note]&lt;&gt;"", Modulliste[LP]))</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1779,6 +1835,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F70D999F-AAA9-4A38-8F55-9E1C84DAB455}">
+  <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
@@ -2585,10 +2642,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF09B409-1D66-4794-8114-926C35B6088F}">
+  <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:AC37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AJ13" sqref="AJ13"/>
+      <selection activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2600,45 +2658,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="59">
+      <c r="A1" s="61">
         <v>2023</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
       <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="57" t="s">
+      <c r="B3" s="60"/>
+      <c r="C3" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="57" t="s">
+      <c r="D3" s="60"/>
+      <c r="E3" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="57" t="s">
+      <c r="F3" s="60"/>
+      <c r="G3" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="58"/>
-      <c r="I3" s="57" t="s">
+      <c r="H3" s="60"/>
+      <c r="I3" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="58"/>
-      <c r="K3" s="57" t="s">
+      <c r="J3" s="60"/>
+      <c r="K3" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="L3" s="58"/>
-      <c r="M3" s="57" t="s">
+      <c r="L3" s="60"/>
+      <c r="M3" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="N3" s="58"/>
+      <c r="N3" s="60"/>
       <c r="O3" s="35" t="s">
         <v>57</v>
       </c>
@@ -5725,16 +5783,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A4:X34">
-    <cfRule type="expression" dxfId="19" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>OR(A4="F",B4="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="3">
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>OR(A4="U",B4="U")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="10">
+    <cfRule type="expression" dxfId="11" priority="10">
       <formula>WEEKDAY(A4,2)&gt;5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>TODAY()=A4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5786,11 +5844,3241 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4ECB935-E13C-45B7-ABCC-50BC564AA7A5}">
+  <sheetPr codeName="Tabelle3"/>
+  <dimension ref="A1:AC37"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z10" sqref="Z10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="24" width="7.7109375" customWidth="1"/>
+    <col min="26" max="26" width="22.140625" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A1" s="61">
+        <v>2024</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="AA1" s="1"/>
+    </row>
+    <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="60"/>
+      <c r="C3" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="60"/>
+      <c r="E3" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="60"/>
+      <c r="G3" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="60"/>
+      <c r="I3" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="60"/>
+      <c r="K3" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="60"/>
+      <c r="M3" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" s="60"/>
+      <c r="O3" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="R3" s="58"/>
+      <c r="S3" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="T3" s="58"/>
+      <c r="U3" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="V3" s="58"/>
+      <c r="W3" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" s="58"/>
+      <c r="AC3" s="46" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="36">
+        <f>DATE($A$1,1,1)</f>
+        <v>45292</v>
+      </c>
+      <c r="B4" s="37" t="str" cm="1">
+        <f t="array" ref="B4">IF(SUM(COUNTIF(A4,Feiertage!$B$2:$B$13)),"F",A4)</f>
+        <v>F</v>
+      </c>
+      <c r="C4" s="36">
+        <f>DATE($A$1,2,1)</f>
+        <v>45323</v>
+      </c>
+      <c r="D4" s="37" cm="1">
+        <f t="array" ref="D4">IF(SUM(COUNTIF(C4,Feiertage!$B$2:$B$13)),"F",C4)</f>
+        <v>45323</v>
+      </c>
+      <c r="E4" s="36">
+        <f>DATE($A$1,3,1)</f>
+        <v>45352</v>
+      </c>
+      <c r="F4" s="37" cm="1">
+        <f t="array" ref="F4">IF(SUM(COUNTIF(E4,Feiertage!$B$2:$B$13)),"F",E4)</f>
+        <v>45352</v>
+      </c>
+      <c r="G4" s="36">
+        <f>DATE($A$1,4,1)</f>
+        <v>45383</v>
+      </c>
+      <c r="H4" s="37" t="str" cm="1">
+        <f t="array" ref="H4">IF(SUM(COUNTIF(G4,Feiertage!$B$2:$B$13)),"F",G4)</f>
+        <v>F</v>
+      </c>
+      <c r="I4" s="36">
+        <f>DATE($A$1,5,1)</f>
+        <v>45413</v>
+      </c>
+      <c r="J4" s="37" t="str" cm="1">
+        <f t="array" ref="J4">IF(SUM(COUNTIF(I4,Feiertage!$B$2:$B$13)),"F",I4)</f>
+        <v>F</v>
+      </c>
+      <c r="K4" s="36">
+        <f>DATE($A$1,6,1)</f>
+        <v>45444</v>
+      </c>
+      <c r="L4" s="37" cm="1">
+        <f t="array" ref="L4">IF(SUM(COUNTIF(K4,Feiertage!$B$2:$B$13)),"F",K4)</f>
+        <v>45444</v>
+      </c>
+      <c r="M4" s="36">
+        <f>DATE($A$1,7,1)</f>
+        <v>45474</v>
+      </c>
+      <c r="N4" s="37" cm="1">
+        <f t="array" ref="N4">IF(SUM(COUNTIF(M4,Feiertage!$B$2:$B$13)),"F",M4)</f>
+        <v>45474</v>
+      </c>
+      <c r="O4" s="36">
+        <f>DATE($A$1,8,1)</f>
+        <v>45505</v>
+      </c>
+      <c r="P4" s="37" cm="1">
+        <f t="array" ref="P4">IF(SUM(COUNTIF(O4,Feiertage!$B$2:$B$13)),"F",O4)</f>
+        <v>45505</v>
+      </c>
+      <c r="Q4" s="36">
+        <f>DATE($A$1,9,1)</f>
+        <v>45536</v>
+      </c>
+      <c r="R4" s="37" cm="1">
+        <f t="array" ref="R4">IF(SUM(COUNTIF(Q4,Feiertage!$B$2:$B$13)),"F",Q4)</f>
+        <v>45536</v>
+      </c>
+      <c r="S4" s="36">
+        <f>DATE($A$1,10,1)</f>
+        <v>45566</v>
+      </c>
+      <c r="T4" s="37" cm="1">
+        <f t="array" ref="T4">IF(SUM(COUNTIF(S4,Feiertage!$B$2:$B$13)),"F",S4)</f>
+        <v>45566</v>
+      </c>
+      <c r="U4" s="36">
+        <f>DATE($A$1,11,1)</f>
+        <v>45597</v>
+      </c>
+      <c r="V4" s="37" t="str" cm="1">
+        <f t="array" ref="V4">IF(SUM(COUNTIF(U4,Feiertage!$B$2:$B$13)),"F",U4)</f>
+        <v>F</v>
+      </c>
+      <c r="W4" s="38">
+        <f>DATE($A$1,12,1)</f>
+        <v>45627</v>
+      </c>
+      <c r="X4" s="37" cm="1">
+        <f t="array" ref="X4">IF(SUM(COUNTIF(W4,Feiertage!$B$2:$B$13)),"F",W4)</f>
+        <v>45627</v>
+      </c>
+      <c r="AC4" s="34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="39">
+        <f>IFERROR(IF(MONTH(A4+1)=MONTH(A$4),A4+1,""),"")</f>
+        <v>45293</v>
+      </c>
+      <c r="B5" s="40" cm="1">
+        <f t="array" ref="B5">IF(SUM(COUNTIF(A5,Feiertage!$B$2:$B$13)),"F",A5)</f>
+        <v>45293</v>
+      </c>
+      <c r="C5" s="39">
+        <f t="shared" ref="C5:C20" si="0">IFERROR(IF(MONTH(C4+1)=MONTH(C$4),C4+1,""),"")</f>
+        <v>45324</v>
+      </c>
+      <c r="D5" s="40" cm="1">
+        <f t="array" ref="D5">IF(SUM(COUNTIF(C5,Feiertage!$B$2:$B$13)),"F",C5)</f>
+        <v>45324</v>
+      </c>
+      <c r="E5" s="39">
+        <f t="shared" ref="E5:E20" si="1">IFERROR(IF(MONTH(E4+1)=MONTH(E$4),E4+1,""),"")</f>
+        <v>45353</v>
+      </c>
+      <c r="F5" s="40" cm="1">
+        <f t="array" ref="F5">IF(SUM(COUNTIF(E5,Feiertage!$B$2:$B$13)),"F",E5)</f>
+        <v>45353</v>
+      </c>
+      <c r="G5" s="39">
+        <f t="shared" ref="G5:M20" si="2">IFERROR(IF(MONTH(G4+1)=MONTH(G$4),G4+1,""),"")</f>
+        <v>45384</v>
+      </c>
+      <c r="H5" s="40" cm="1">
+        <f t="array" ref="H5">IF(SUM(COUNTIF(G5,Feiertage!$B$2:$B$13)),"F",G5)</f>
+        <v>45384</v>
+      </c>
+      <c r="I5" s="39">
+        <f t="shared" ref="I5:K5" si="3">IFERROR(IF(MONTH(I4+1)=MONTH(I$4),I4+1,""),"")</f>
+        <v>45414</v>
+      </c>
+      <c r="J5" s="40" cm="1">
+        <f t="array" ref="J5">IF(SUM(COUNTIF(I5,Feiertage!$B$2:$B$13)),"F",I5)</f>
+        <v>45414</v>
+      </c>
+      <c r="K5" s="39">
+        <f t="shared" si="3"/>
+        <v>45445</v>
+      </c>
+      <c r="L5" s="40" cm="1">
+        <f t="array" ref="L5">IF(SUM(COUNTIF(K5,Feiertage!$B$2:$B$13)),"F",K5)</f>
+        <v>45445</v>
+      </c>
+      <c r="M5" s="39">
+        <f t="shared" ref="M5:M9" si="4">IFERROR(IF(MONTH(M4+1)=MONTH(M$4),M4+1,""),"")</f>
+        <v>45475</v>
+      </c>
+      <c r="N5" s="40" cm="1">
+        <f t="array" ref="N5">IF(SUM(COUNTIF(M5,Feiertage!$B$2:$B$13)),"F",M5)</f>
+        <v>45475</v>
+      </c>
+      <c r="O5" s="39">
+        <f t="shared" ref="O5:S20" si="5">IFERROR(IF(MONTH(O4+1)=MONTH(O$4),O4+1,""),"")</f>
+        <v>45506</v>
+      </c>
+      <c r="P5" s="40" cm="1">
+        <f t="array" ref="P5">IF(SUM(COUNTIF(O5,Feiertage!$B$2:$B$13)),"F",O5)</f>
+        <v>45506</v>
+      </c>
+      <c r="Q5" s="39">
+        <f t="shared" ref="Q5:Q9" si="6">IFERROR(IF(MONTH(Q4+1)=MONTH(Q$4),Q4+1,""),"")</f>
+        <v>45537</v>
+      </c>
+      <c r="R5" s="40" cm="1">
+        <f t="array" ref="R5">IF(SUM(COUNTIF(Q5,Feiertage!$B$2:$B$13)),"F",Q5)</f>
+        <v>45537</v>
+      </c>
+      <c r="S5" s="39">
+        <f t="shared" ref="S5:U20" si="7">IFERROR(IF(MONTH(S4+1)=MONTH(S$4),S4+1,""),"")</f>
+        <v>45567</v>
+      </c>
+      <c r="T5" s="40" cm="1">
+        <f t="array" ref="T5">IF(SUM(COUNTIF(S5,Feiertage!$B$2:$B$13)),"F",S5)</f>
+        <v>45567</v>
+      </c>
+      <c r="U5" s="39">
+        <f t="shared" si="7"/>
+        <v>45598</v>
+      </c>
+      <c r="V5" s="40" cm="1">
+        <f t="array" ref="V5">IF(SUM(COUNTIF(U5,Feiertage!$B$2:$B$13)),"F",U5)</f>
+        <v>45598</v>
+      </c>
+      <c r="W5" s="41">
+        <f t="shared" ref="W5:W20" si="8">IFERROR(IF(MONTH(W4+1)=MONTH(W$4),W4+1,""),"")</f>
+        <v>45628</v>
+      </c>
+      <c r="X5" s="40" cm="1">
+        <f t="array" ref="X5">IF(SUM(COUNTIF(W5,Feiertage!$B$2:$B$13)),"F",W5)</f>
+        <v>45628</v>
+      </c>
+      <c r="Z5" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA5" s="49">
+        <f>COUNTIF(A4:X34,"U")</f>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="39">
+        <f>IFERROR(IF(MONTH(A5+1)=MONTH(A$4),A5+1,""),"")</f>
+        <v>45294</v>
+      </c>
+      <c r="B6" s="40" cm="1">
+        <f t="array" ref="B6">IF(SUM(COUNTIF(A6,Feiertage!$B$2:$B$13)),"F",A6)</f>
+        <v>45294</v>
+      </c>
+      <c r="C6" s="39">
+        <f t="shared" si="0"/>
+        <v>45325</v>
+      </c>
+      <c r="D6" s="40" cm="1">
+        <f t="array" ref="D6">IF(SUM(COUNTIF(C6,Feiertage!$B$2:$B$13)),"F",C6)</f>
+        <v>45325</v>
+      </c>
+      <c r="E6" s="39">
+        <f t="shared" si="1"/>
+        <v>45354</v>
+      </c>
+      <c r="F6" s="40" cm="1">
+        <f t="array" ref="F6">IF(SUM(COUNTIF(E6,Feiertage!$B$2:$B$13)),"F",E6)</f>
+        <v>45354</v>
+      </c>
+      <c r="G6" s="39">
+        <f t="shared" si="2"/>
+        <v>45385</v>
+      </c>
+      <c r="H6" s="40" cm="1">
+        <f t="array" ref="H6">IF(SUM(COUNTIF(G6,Feiertage!$B$2:$B$13)),"F",G6)</f>
+        <v>45385</v>
+      </c>
+      <c r="I6" s="39">
+        <f t="shared" si="2"/>
+        <v>45415</v>
+      </c>
+      <c r="J6" s="40" cm="1">
+        <f t="array" ref="J6">IF(SUM(COUNTIF(I6,Feiertage!$B$2:$B$13)),"F",I6)</f>
+        <v>45415</v>
+      </c>
+      <c r="K6" s="39">
+        <f t="shared" si="2"/>
+        <v>45446</v>
+      </c>
+      <c r="L6" s="40" cm="1">
+        <f t="array" ref="L6">IF(SUM(COUNTIF(K6,Feiertage!$B$2:$B$13)),"F",K6)</f>
+        <v>45446</v>
+      </c>
+      <c r="M6" s="39">
+        <f t="shared" si="4"/>
+        <v>45476</v>
+      </c>
+      <c r="N6" s="40" cm="1">
+        <f t="array" ref="N6">IF(SUM(COUNTIF(M6,Feiertage!$B$2:$B$13)),"F",M6)</f>
+        <v>45476</v>
+      </c>
+      <c r="O6" s="39">
+        <f t="shared" si="5"/>
+        <v>45507</v>
+      </c>
+      <c r="P6" s="40" cm="1">
+        <f t="array" ref="P6">IF(SUM(COUNTIF(O6,Feiertage!$B$2:$B$13)),"F",O6)</f>
+        <v>45507</v>
+      </c>
+      <c r="Q6" s="39">
+        <f t="shared" si="6"/>
+        <v>45538</v>
+      </c>
+      <c r="R6" s="40" cm="1">
+        <f t="array" ref="R6">IF(SUM(COUNTIF(Q6,Feiertage!$B$2:$B$13)),"F",Q6)</f>
+        <v>45538</v>
+      </c>
+      <c r="S6" s="39">
+        <f t="shared" si="7"/>
+        <v>45568</v>
+      </c>
+      <c r="T6" s="40" t="str" cm="1">
+        <f t="array" ref="T6">IF(SUM(COUNTIF(S6,Feiertage!$B$2:$B$13)),"F",S6)</f>
+        <v>F</v>
+      </c>
+      <c r="U6" s="39">
+        <f t="shared" si="7"/>
+        <v>45599</v>
+      </c>
+      <c r="V6" s="40" cm="1">
+        <f t="array" ref="V6">IF(SUM(COUNTIF(U6,Feiertage!$B$2:$B$13)),"F",U6)</f>
+        <v>45599</v>
+      </c>
+      <c r="W6" s="41">
+        <f t="shared" si="8"/>
+        <v>45629</v>
+      </c>
+      <c r="X6" s="40" cm="1">
+        <f t="array" ref="X6">IF(SUM(COUNTIF(W6,Feiertage!$B$2:$B$13)),"F",W6)</f>
+        <v>45629</v>
+      </c>
+      <c r="Z6" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA6" s="51">
+        <f>30-AA5</f>
+        <v>30</v>
+      </c>
+      <c r="AC6" s="33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="39">
+        <f t="shared" ref="A7:A10" si="9">IFERROR(IF(MONTH(A6+1)=MONTH(A$4),A6+1,""),"")</f>
+        <v>45295</v>
+      </c>
+      <c r="B7" s="40" cm="1">
+        <f t="array" ref="B7">IF(SUM(COUNTIF(A7,Feiertage!$B$2:$B$13)),"F",A7)</f>
+        <v>45295</v>
+      </c>
+      <c r="C7" s="39">
+        <f t="shared" si="0"/>
+        <v>45326</v>
+      </c>
+      <c r="D7" s="40" cm="1">
+        <f t="array" ref="D7">IF(SUM(COUNTIF(C7,Feiertage!$B$2:$B$13)),"F",C7)</f>
+        <v>45326</v>
+      </c>
+      <c r="E7" s="39">
+        <f t="shared" si="1"/>
+        <v>45355</v>
+      </c>
+      <c r="F7" s="40" cm="1">
+        <f t="array" ref="F7">IF(SUM(COUNTIF(E7,Feiertage!$B$2:$B$13)),"F",E7)</f>
+        <v>45355</v>
+      </c>
+      <c r="G7" s="39">
+        <f t="shared" si="2"/>
+        <v>45386</v>
+      </c>
+      <c r="H7" s="40" cm="1">
+        <f t="array" ref="H7">IF(SUM(COUNTIF(G7,Feiertage!$B$2:$B$13)),"F",G7)</f>
+        <v>45386</v>
+      </c>
+      <c r="I7" s="39">
+        <f t="shared" si="2"/>
+        <v>45416</v>
+      </c>
+      <c r="J7" s="40" cm="1">
+        <f t="array" ref="J7">IF(SUM(COUNTIF(I7,Feiertage!$B$2:$B$13)),"F",I7)</f>
+        <v>45416</v>
+      </c>
+      <c r="K7" s="39">
+        <f t="shared" si="2"/>
+        <v>45447</v>
+      </c>
+      <c r="L7" s="40" cm="1">
+        <f t="array" ref="L7">IF(SUM(COUNTIF(K7,Feiertage!$B$2:$B$13)),"F",K7)</f>
+        <v>45447</v>
+      </c>
+      <c r="M7" s="39">
+        <f t="shared" si="4"/>
+        <v>45477</v>
+      </c>
+      <c r="N7" s="40" cm="1">
+        <f t="array" ref="N7">IF(SUM(COUNTIF(M7,Feiertage!$B$2:$B$13)),"F",M7)</f>
+        <v>45477</v>
+      </c>
+      <c r="O7" s="39">
+        <f t="shared" si="5"/>
+        <v>45508</v>
+      </c>
+      <c r="P7" s="40" cm="1">
+        <f t="array" ref="P7">IF(SUM(COUNTIF(O7,Feiertage!$B$2:$B$13)),"F",O7)</f>
+        <v>45508</v>
+      </c>
+      <c r="Q7" s="39">
+        <f t="shared" si="6"/>
+        <v>45539</v>
+      </c>
+      <c r="R7" s="40" cm="1">
+        <f t="array" ref="R7">IF(SUM(COUNTIF(Q7,Feiertage!$B$2:$B$13)),"F",Q7)</f>
+        <v>45539</v>
+      </c>
+      <c r="S7" s="39">
+        <f t="shared" si="7"/>
+        <v>45569</v>
+      </c>
+      <c r="T7" s="40" cm="1">
+        <f t="array" ref="T7">IF(SUM(COUNTIF(S7,Feiertage!$B$2:$B$13)),"F",S7)</f>
+        <v>45569</v>
+      </c>
+      <c r="U7" s="39">
+        <f t="shared" si="7"/>
+        <v>45600</v>
+      </c>
+      <c r="V7" s="40" cm="1">
+        <f t="array" ref="V7">IF(SUM(COUNTIF(U7,Feiertage!$B$2:$B$13)),"F",U7)</f>
+        <v>45600</v>
+      </c>
+      <c r="W7" s="41">
+        <f t="shared" si="8"/>
+        <v>45630</v>
+      </c>
+      <c r="X7" s="40" cm="1">
+        <f t="array" ref="X7">IF(SUM(COUNTIF(W7,Feiertage!$B$2:$B$13)),"F",W7)</f>
+        <v>45630</v>
+      </c>
+      <c r="AC7" s="47" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="39">
+        <f t="shared" si="9"/>
+        <v>45296</v>
+      </c>
+      <c r="B8" s="40" cm="1">
+        <f t="array" ref="B8">IF(SUM(COUNTIF(A8,Feiertage!$B$2:$B$13)),"F",A8)</f>
+        <v>45296</v>
+      </c>
+      <c r="C8" s="39">
+        <f t="shared" si="0"/>
+        <v>45327</v>
+      </c>
+      <c r="D8" s="40" cm="1">
+        <f t="array" ref="D8">IF(SUM(COUNTIF(C8,Feiertage!$B$2:$B$13)),"F",C8)</f>
+        <v>45327</v>
+      </c>
+      <c r="E8" s="39">
+        <f t="shared" si="1"/>
+        <v>45356</v>
+      </c>
+      <c r="F8" s="40" cm="1">
+        <f t="array" ref="F8">IF(SUM(COUNTIF(E8,Feiertage!$B$2:$B$13)),"F",E8)</f>
+        <v>45356</v>
+      </c>
+      <c r="G8" s="39">
+        <f t="shared" si="2"/>
+        <v>45387</v>
+      </c>
+      <c r="H8" s="40" cm="1">
+        <f t="array" ref="H8">IF(SUM(COUNTIF(G8,Feiertage!$B$2:$B$13)),"F",G8)</f>
+        <v>45387</v>
+      </c>
+      <c r="I8" s="39">
+        <f t="shared" si="2"/>
+        <v>45417</v>
+      </c>
+      <c r="J8" s="40" cm="1">
+        <f t="array" ref="J8">IF(SUM(COUNTIF(I8,Feiertage!$B$2:$B$13)),"F",I8)</f>
+        <v>45417</v>
+      </c>
+      <c r="K8" s="39">
+        <f t="shared" si="2"/>
+        <v>45448</v>
+      </c>
+      <c r="L8" s="40" cm="1">
+        <f t="array" ref="L8">IF(SUM(COUNTIF(K8,Feiertage!$B$2:$B$13)),"F",K8)</f>
+        <v>45448</v>
+      </c>
+      <c r="M8" s="39">
+        <f t="shared" si="4"/>
+        <v>45478</v>
+      </c>
+      <c r="N8" s="40" cm="1">
+        <f t="array" ref="N8">IF(SUM(COUNTIF(M8,Feiertage!$B$2:$B$13)),"F",M8)</f>
+        <v>45478</v>
+      </c>
+      <c r="O8" s="39">
+        <f t="shared" si="5"/>
+        <v>45509</v>
+      </c>
+      <c r="P8" s="40" cm="1">
+        <f t="array" ref="P8">IF(SUM(COUNTIF(O8,Feiertage!$B$2:$B$13)),"F",O8)</f>
+        <v>45509</v>
+      </c>
+      <c r="Q8" s="39">
+        <f t="shared" si="6"/>
+        <v>45540</v>
+      </c>
+      <c r="R8" s="40" cm="1">
+        <f t="array" ref="R8">IF(SUM(COUNTIF(Q8,Feiertage!$B$2:$B$13)),"F",Q8)</f>
+        <v>45540</v>
+      </c>
+      <c r="S8" s="39">
+        <f t="shared" si="7"/>
+        <v>45570</v>
+      </c>
+      <c r="T8" s="40" cm="1">
+        <f t="array" ref="T8">IF(SUM(COUNTIF(S8,Feiertage!$B$2:$B$13)),"F",S8)</f>
+        <v>45570</v>
+      </c>
+      <c r="U8" s="39">
+        <f t="shared" si="7"/>
+        <v>45601</v>
+      </c>
+      <c r="V8" s="40" cm="1">
+        <f t="array" ref="V8">IF(SUM(COUNTIF(U8,Feiertage!$B$2:$B$13)),"F",U8)</f>
+        <v>45601</v>
+      </c>
+      <c r="W8" s="41">
+        <f t="shared" si="8"/>
+        <v>45631</v>
+      </c>
+      <c r="X8" s="40" cm="1">
+        <f t="array" ref="X8">IF(SUM(COUNTIF(W8,Feiertage!$B$2:$B$13)),"F",W8)</f>
+        <v>45631</v>
+      </c>
+      <c r="AC8" s="56" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="39">
+        <f t="shared" si="9"/>
+        <v>45297</v>
+      </c>
+      <c r="B9" s="40" t="str" cm="1">
+        <f t="array" ref="B9">IF(SUM(COUNTIF(A9,Feiertage!$B$2:$B$13)),"F",A9)</f>
+        <v>F</v>
+      </c>
+      <c r="C9" s="39">
+        <f t="shared" si="0"/>
+        <v>45328</v>
+      </c>
+      <c r="D9" s="40" cm="1">
+        <f t="array" ref="D9">IF(SUM(COUNTIF(C9,Feiertage!$B$2:$B$13)),"F",C9)</f>
+        <v>45328</v>
+      </c>
+      <c r="E9" s="39">
+        <f t="shared" si="1"/>
+        <v>45357</v>
+      </c>
+      <c r="F9" s="40" cm="1">
+        <f t="array" ref="F9">IF(SUM(COUNTIF(E9,Feiertage!$B$2:$B$13)),"F",E9)</f>
+        <v>45357</v>
+      </c>
+      <c r="G9" s="39">
+        <f t="shared" si="2"/>
+        <v>45388</v>
+      </c>
+      <c r="H9" s="40" cm="1">
+        <f t="array" ref="H9">IF(SUM(COUNTIF(G9,Feiertage!$B$2:$B$13)),"F",G9)</f>
+        <v>45388</v>
+      </c>
+      <c r="I9" s="39">
+        <f t="shared" si="2"/>
+        <v>45418</v>
+      </c>
+      <c r="J9" s="40" cm="1">
+        <f t="array" ref="J9">IF(SUM(COUNTIF(I9,Feiertage!$B$2:$B$13)),"F",I9)</f>
+        <v>45418</v>
+      </c>
+      <c r="K9" s="39">
+        <f t="shared" si="2"/>
+        <v>45449</v>
+      </c>
+      <c r="L9" s="40" cm="1">
+        <f t="array" ref="L9">IF(SUM(COUNTIF(K9,Feiertage!$B$2:$B$13)),"F",K9)</f>
+        <v>45449</v>
+      </c>
+      <c r="M9" s="39">
+        <f t="shared" si="4"/>
+        <v>45479</v>
+      </c>
+      <c r="N9" s="40" cm="1">
+        <f t="array" ref="N9">IF(SUM(COUNTIF(M9,Feiertage!$B$2:$B$13)),"F",M9)</f>
+        <v>45479</v>
+      </c>
+      <c r="O9" s="39">
+        <f t="shared" si="5"/>
+        <v>45510</v>
+      </c>
+      <c r="P9" s="40" cm="1">
+        <f t="array" ref="P9">IF(SUM(COUNTIF(O9,Feiertage!$B$2:$B$13)),"F",O9)</f>
+        <v>45510</v>
+      </c>
+      <c r="Q9" s="39">
+        <f t="shared" si="6"/>
+        <v>45541</v>
+      </c>
+      <c r="R9" s="40" cm="1">
+        <f t="array" ref="R9">IF(SUM(COUNTIF(Q9,Feiertage!$B$2:$B$13)),"F",Q9)</f>
+        <v>45541</v>
+      </c>
+      <c r="S9" s="39">
+        <f t="shared" si="7"/>
+        <v>45571</v>
+      </c>
+      <c r="T9" s="40" cm="1">
+        <f t="array" ref="T9">IF(SUM(COUNTIF(S9,Feiertage!$B$2:$B$13)),"F",S9)</f>
+        <v>45571</v>
+      </c>
+      <c r="U9" s="39">
+        <f t="shared" si="7"/>
+        <v>45602</v>
+      </c>
+      <c r="V9" s="40" cm="1">
+        <f t="array" ref="V9">IF(SUM(COUNTIF(U9,Feiertage!$B$2:$B$13)),"F",U9)</f>
+        <v>45602</v>
+      </c>
+      <c r="W9" s="41">
+        <f t="shared" si="8"/>
+        <v>45632</v>
+      </c>
+      <c r="X9" s="40" cm="1">
+        <f t="array" ref="X9">IF(SUM(COUNTIF(W9,Feiertage!$B$2:$B$13)),"F",W9)</f>
+        <v>45632</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="39">
+        <f t="shared" si="9"/>
+        <v>45298</v>
+      </c>
+      <c r="B10" s="40" cm="1">
+        <f t="array" ref="B10">IF(SUM(COUNTIF(A10,Feiertage!$B$2:$B$13)),"F",A10)</f>
+        <v>45298</v>
+      </c>
+      <c r="C10" s="39">
+        <f t="shared" si="0"/>
+        <v>45329</v>
+      </c>
+      <c r="D10" s="40" cm="1">
+        <f t="array" ref="D10">IF(SUM(COUNTIF(C10,Feiertage!$B$2:$B$13)),"F",C10)</f>
+        <v>45329</v>
+      </c>
+      <c r="E10" s="39">
+        <f t="shared" si="1"/>
+        <v>45358</v>
+      </c>
+      <c r="F10" s="40" cm="1">
+        <f t="array" ref="F10">IF(SUM(COUNTIF(E10,Feiertage!$B$2:$B$13)),"F",E10)</f>
+        <v>45358</v>
+      </c>
+      <c r="G10" s="39">
+        <f t="shared" si="2"/>
+        <v>45389</v>
+      </c>
+      <c r="H10" s="40" cm="1">
+        <f t="array" ref="H10">IF(SUM(COUNTIF(G10,Feiertage!$B$2:$B$13)),"F",G10)</f>
+        <v>45389</v>
+      </c>
+      <c r="I10" s="39">
+        <f t="shared" si="2"/>
+        <v>45419</v>
+      </c>
+      <c r="J10" s="40" cm="1">
+        <f t="array" ref="J10">IF(SUM(COUNTIF(I10,Feiertage!$B$2:$B$13)),"F",I10)</f>
+        <v>45419</v>
+      </c>
+      <c r="K10" s="39">
+        <f t="shared" si="2"/>
+        <v>45450</v>
+      </c>
+      <c r="L10" s="40" cm="1">
+        <f t="array" ref="L10">IF(SUM(COUNTIF(K10,Feiertage!$B$2:$B$13)),"F",K10)</f>
+        <v>45450</v>
+      </c>
+      <c r="M10" s="39">
+        <f t="shared" si="2"/>
+        <v>45480</v>
+      </c>
+      <c r="N10" s="40" cm="1">
+        <f t="array" ref="N10">IF(SUM(COUNTIF(M10,Feiertage!$B$2:$B$13)),"F",M10)</f>
+        <v>45480</v>
+      </c>
+      <c r="O10" s="39">
+        <f t="shared" si="5"/>
+        <v>45511</v>
+      </c>
+      <c r="P10" s="40" cm="1">
+        <f t="array" ref="P10">IF(SUM(COUNTIF(O10,Feiertage!$B$2:$B$13)),"F",O10)</f>
+        <v>45511</v>
+      </c>
+      <c r="Q10" s="39">
+        <f t="shared" si="5"/>
+        <v>45542</v>
+      </c>
+      <c r="R10" s="40" cm="1">
+        <f t="array" ref="R10">IF(SUM(COUNTIF(Q10,Feiertage!$B$2:$B$13)),"F",Q10)</f>
+        <v>45542</v>
+      </c>
+      <c r="S10" s="39">
+        <f t="shared" si="7"/>
+        <v>45572</v>
+      </c>
+      <c r="T10" s="40" cm="1">
+        <f t="array" ref="T10">IF(SUM(COUNTIF(S10,Feiertage!$B$2:$B$13)),"F",S10)</f>
+        <v>45572</v>
+      </c>
+      <c r="U10" s="39">
+        <f t="shared" si="7"/>
+        <v>45603</v>
+      </c>
+      <c r="V10" s="40" cm="1">
+        <f t="array" ref="V10">IF(SUM(COUNTIF(U10,Feiertage!$B$2:$B$13)),"F",U10)</f>
+        <v>45603</v>
+      </c>
+      <c r="W10" s="41">
+        <f t="shared" si="8"/>
+        <v>45633</v>
+      </c>
+      <c r="X10" s="40" cm="1">
+        <f t="array" ref="X10">IF(SUM(COUNTIF(W10,Feiertage!$B$2:$B$13)),"F",W10)</f>
+        <v>45633</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="39">
+        <f>IFERROR(IF(MONTH(A10+1)=MONTH(A$4),A10+1,""),"")</f>
+        <v>45299</v>
+      </c>
+      <c r="B11" s="40" cm="1">
+        <f t="array" ref="B11">IF(SUM(COUNTIF(A11,Feiertage!$B$2:$B$13)),"F",A11)</f>
+        <v>45299</v>
+      </c>
+      <c r="C11" s="39">
+        <f t="shared" si="0"/>
+        <v>45330</v>
+      </c>
+      <c r="D11" s="40" cm="1">
+        <f t="array" ref="D11">IF(SUM(COUNTIF(C11,Feiertage!$B$2:$B$13)),"F",C11)</f>
+        <v>45330</v>
+      </c>
+      <c r="E11" s="39">
+        <f t="shared" si="1"/>
+        <v>45359</v>
+      </c>
+      <c r="F11" s="40" cm="1">
+        <f t="array" ref="F11">IF(SUM(COUNTIF(E11,Feiertage!$B$2:$B$13)),"F",E11)</f>
+        <v>45359</v>
+      </c>
+      <c r="G11" s="39">
+        <f t="shared" si="2"/>
+        <v>45390</v>
+      </c>
+      <c r="H11" s="40" cm="1">
+        <f t="array" ref="H11">IF(SUM(COUNTIF(G11,Feiertage!$B$2:$B$13)),"F",G11)</f>
+        <v>45390</v>
+      </c>
+      <c r="I11" s="39">
+        <f t="shared" si="2"/>
+        <v>45420</v>
+      </c>
+      <c r="J11" s="40" cm="1">
+        <f t="array" ref="J11">IF(SUM(COUNTIF(I11,Feiertage!$B$2:$B$13)),"F",I11)</f>
+        <v>45420</v>
+      </c>
+      <c r="K11" s="39">
+        <f t="shared" si="2"/>
+        <v>45451</v>
+      </c>
+      <c r="L11" s="40" cm="1">
+        <f t="array" ref="L11">IF(SUM(COUNTIF(K11,Feiertage!$B$2:$B$13)),"F",K11)</f>
+        <v>45451</v>
+      </c>
+      <c r="M11" s="39">
+        <f t="shared" si="2"/>
+        <v>45481</v>
+      </c>
+      <c r="N11" s="40" cm="1">
+        <f t="array" ref="N11">IF(SUM(COUNTIF(M11,Feiertage!$B$2:$B$13)),"F",M11)</f>
+        <v>45481</v>
+      </c>
+      <c r="O11" s="39">
+        <f t="shared" si="5"/>
+        <v>45512</v>
+      </c>
+      <c r="P11" s="40" cm="1">
+        <f t="array" ref="P11">IF(SUM(COUNTIF(O11,Feiertage!$B$2:$B$13)),"F",O11)</f>
+        <v>45512</v>
+      </c>
+      <c r="Q11" s="39">
+        <f t="shared" si="5"/>
+        <v>45543</v>
+      </c>
+      <c r="R11" s="40" cm="1">
+        <f t="array" ref="R11">IF(SUM(COUNTIF(Q11,Feiertage!$B$2:$B$13)),"F",Q11)</f>
+        <v>45543</v>
+      </c>
+      <c r="S11" s="39">
+        <f t="shared" si="7"/>
+        <v>45573</v>
+      </c>
+      <c r="T11" s="40" cm="1">
+        <f t="array" ref="T11">IF(SUM(COUNTIF(S11,Feiertage!$B$2:$B$13)),"F",S11)</f>
+        <v>45573</v>
+      </c>
+      <c r="U11" s="39">
+        <f t="shared" si="7"/>
+        <v>45604</v>
+      </c>
+      <c r="V11" s="40" cm="1">
+        <f t="array" ref="V11">IF(SUM(COUNTIF(U11,Feiertage!$B$2:$B$13)),"F",U11)</f>
+        <v>45604</v>
+      </c>
+      <c r="W11" s="41">
+        <f t="shared" si="8"/>
+        <v>45634</v>
+      </c>
+      <c r="X11" s="40" cm="1">
+        <f t="array" ref="X11">IF(SUM(COUNTIF(W11,Feiertage!$B$2:$B$13)),"F",W11)</f>
+        <v>45634</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="39">
+        <f t="shared" ref="A12:A16" si="10">IFERROR(IF(MONTH(A11+1)=MONTH(A$4),A11+1,""),"")</f>
+        <v>45300</v>
+      </c>
+      <c r="B12" s="40" cm="1">
+        <f t="array" ref="B12">IF(SUM(COUNTIF(A12,Feiertage!$B$2:$B$13)),"F",A12)</f>
+        <v>45300</v>
+      </c>
+      <c r="C12" s="39">
+        <f t="shared" si="0"/>
+        <v>45331</v>
+      </c>
+      <c r="D12" s="40" cm="1">
+        <f t="array" ref="D12">IF(SUM(COUNTIF(C12,Feiertage!$B$2:$B$13)),"F",C12)</f>
+        <v>45331</v>
+      </c>
+      <c r="E12" s="39">
+        <f t="shared" si="1"/>
+        <v>45360</v>
+      </c>
+      <c r="F12" s="40" cm="1">
+        <f t="array" ref="F12">IF(SUM(COUNTIF(E12,Feiertage!$B$2:$B$13)),"F",E12)</f>
+        <v>45360</v>
+      </c>
+      <c r="G12" s="39">
+        <f t="shared" si="2"/>
+        <v>45391</v>
+      </c>
+      <c r="H12" s="40" cm="1">
+        <f t="array" ref="H12">IF(SUM(COUNTIF(G12,Feiertage!$B$2:$B$13)),"F",G12)</f>
+        <v>45391</v>
+      </c>
+      <c r="I12" s="39">
+        <f t="shared" si="2"/>
+        <v>45421</v>
+      </c>
+      <c r="J12" s="40" t="str" cm="1">
+        <f t="array" ref="J12">IF(SUM(COUNTIF(I12,Feiertage!$B$2:$B$13)),"F",I12)</f>
+        <v>F</v>
+      </c>
+      <c r="K12" s="39">
+        <f t="shared" si="2"/>
+        <v>45452</v>
+      </c>
+      <c r="L12" s="40" cm="1">
+        <f t="array" ref="L12">IF(SUM(COUNTIF(K12,Feiertage!$B$2:$B$13)),"F",K12)</f>
+        <v>45452</v>
+      </c>
+      <c r="M12" s="39">
+        <f t="shared" si="2"/>
+        <v>45482</v>
+      </c>
+      <c r="N12" s="40" cm="1">
+        <f t="array" ref="N12">IF(SUM(COUNTIF(M12,Feiertage!$B$2:$B$13)),"F",M12)</f>
+        <v>45482</v>
+      </c>
+      <c r="O12" s="39">
+        <f t="shared" si="5"/>
+        <v>45513</v>
+      </c>
+      <c r="P12" s="40" cm="1">
+        <f t="array" ref="P12">IF(SUM(COUNTIF(O12,Feiertage!$B$2:$B$13)),"F",O12)</f>
+        <v>45513</v>
+      </c>
+      <c r="Q12" s="39">
+        <f t="shared" si="5"/>
+        <v>45544</v>
+      </c>
+      <c r="R12" s="40" cm="1">
+        <f t="array" ref="R12">IF(SUM(COUNTIF(Q12,Feiertage!$B$2:$B$13)),"F",Q12)</f>
+        <v>45544</v>
+      </c>
+      <c r="S12" s="39">
+        <f t="shared" si="7"/>
+        <v>45574</v>
+      </c>
+      <c r="T12" s="40" cm="1">
+        <f t="array" ref="T12">IF(SUM(COUNTIF(S12,Feiertage!$B$2:$B$13)),"F",S12)</f>
+        <v>45574</v>
+      </c>
+      <c r="U12" s="39">
+        <f t="shared" si="7"/>
+        <v>45605</v>
+      </c>
+      <c r="V12" s="40" cm="1">
+        <f t="array" ref="V12">IF(SUM(COUNTIF(U12,Feiertage!$B$2:$B$13)),"F",U12)</f>
+        <v>45605</v>
+      </c>
+      <c r="W12" s="41">
+        <f t="shared" si="8"/>
+        <v>45635</v>
+      </c>
+      <c r="X12" s="40" cm="1">
+        <f t="array" ref="X12">IF(SUM(COUNTIF(W12,Feiertage!$B$2:$B$13)),"F",W12)</f>
+        <v>45635</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="39">
+        <f t="shared" si="10"/>
+        <v>45301</v>
+      </c>
+      <c r="B13" s="40" cm="1">
+        <f t="array" ref="B13">IF(SUM(COUNTIF(A13,Feiertage!$B$2:$B$13)),"F",A13)</f>
+        <v>45301</v>
+      </c>
+      <c r="C13" s="39">
+        <f t="shared" si="0"/>
+        <v>45332</v>
+      </c>
+      <c r="D13" s="40" cm="1">
+        <f t="array" ref="D13">IF(SUM(COUNTIF(C13,Feiertage!$B$2:$B$13)),"F",C13)</f>
+        <v>45332</v>
+      </c>
+      <c r="E13" s="39">
+        <f t="shared" si="1"/>
+        <v>45361</v>
+      </c>
+      <c r="F13" s="40" cm="1">
+        <f t="array" ref="F13">IF(SUM(COUNTIF(E13,Feiertage!$B$2:$B$13)),"F",E13)</f>
+        <v>45361</v>
+      </c>
+      <c r="G13" s="39">
+        <f t="shared" si="2"/>
+        <v>45392</v>
+      </c>
+      <c r="H13" s="40" cm="1">
+        <f t="array" ref="H13">IF(SUM(COUNTIF(G13,Feiertage!$B$2:$B$13)),"F",G13)</f>
+        <v>45392</v>
+      </c>
+      <c r="I13" s="39">
+        <f t="shared" si="2"/>
+        <v>45422</v>
+      </c>
+      <c r="J13" s="40" cm="1">
+        <f t="array" ref="J13">IF(SUM(COUNTIF(I13,Feiertage!$B$2:$B$13)),"F",I13)</f>
+        <v>45422</v>
+      </c>
+      <c r="K13" s="39">
+        <f t="shared" si="2"/>
+        <v>45453</v>
+      </c>
+      <c r="L13" s="40" cm="1">
+        <f t="array" ref="L13">IF(SUM(COUNTIF(K13,Feiertage!$B$2:$B$13)),"F",K13)</f>
+        <v>45453</v>
+      </c>
+      <c r="M13" s="39">
+        <f t="shared" si="2"/>
+        <v>45483</v>
+      </c>
+      <c r="N13" s="40" cm="1">
+        <f t="array" ref="N13">IF(SUM(COUNTIF(M13,Feiertage!$B$2:$B$13)),"F",M13)</f>
+        <v>45483</v>
+      </c>
+      <c r="O13" s="39">
+        <f t="shared" si="5"/>
+        <v>45514</v>
+      </c>
+      <c r="P13" s="40" cm="1">
+        <f t="array" ref="P13">IF(SUM(COUNTIF(O13,Feiertage!$B$2:$B$13)),"F",O13)</f>
+        <v>45514</v>
+      </c>
+      <c r="Q13" s="39">
+        <f t="shared" si="5"/>
+        <v>45545</v>
+      </c>
+      <c r="R13" s="40" cm="1">
+        <f t="array" ref="R13">IF(SUM(COUNTIF(Q13,Feiertage!$B$2:$B$13)),"F",Q13)</f>
+        <v>45545</v>
+      </c>
+      <c r="S13" s="39">
+        <f t="shared" si="7"/>
+        <v>45575</v>
+      </c>
+      <c r="T13" s="40" cm="1">
+        <f t="array" ref="T13">IF(SUM(COUNTIF(S13,Feiertage!$B$2:$B$13)),"F",S13)</f>
+        <v>45575</v>
+      </c>
+      <c r="U13" s="39">
+        <f t="shared" si="7"/>
+        <v>45606</v>
+      </c>
+      <c r="V13" s="40" cm="1">
+        <f t="array" ref="V13">IF(SUM(COUNTIF(U13,Feiertage!$B$2:$B$13)),"F",U13)</f>
+        <v>45606</v>
+      </c>
+      <c r="W13" s="41">
+        <f t="shared" si="8"/>
+        <v>45636</v>
+      </c>
+      <c r="X13" s="40" cm="1">
+        <f t="array" ref="X13">IF(SUM(COUNTIF(W13,Feiertage!$B$2:$B$13)),"F",W13)</f>
+        <v>45636</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="39">
+        <f t="shared" si="10"/>
+        <v>45302</v>
+      </c>
+      <c r="B14" s="40" cm="1">
+        <f t="array" ref="B14">IF(SUM(COUNTIF(A14,Feiertage!$B$2:$B$13)),"F",A14)</f>
+        <v>45302</v>
+      </c>
+      <c r="C14" s="39">
+        <f t="shared" si="0"/>
+        <v>45333</v>
+      </c>
+      <c r="D14" s="40" cm="1">
+        <f t="array" ref="D14">IF(SUM(COUNTIF(C14,Feiertage!$B$2:$B$13)),"F",C14)</f>
+        <v>45333</v>
+      </c>
+      <c r="E14" s="39">
+        <f t="shared" si="1"/>
+        <v>45362</v>
+      </c>
+      <c r="F14" s="40" cm="1">
+        <f t="array" ref="F14">IF(SUM(COUNTIF(E14,Feiertage!$B$2:$B$13)),"F",E14)</f>
+        <v>45362</v>
+      </c>
+      <c r="G14" s="39">
+        <f t="shared" si="2"/>
+        <v>45393</v>
+      </c>
+      <c r="H14" s="40" cm="1">
+        <f t="array" ref="H14">IF(SUM(COUNTIF(G14,Feiertage!$B$2:$B$13)),"F",G14)</f>
+        <v>45393</v>
+      </c>
+      <c r="I14" s="39">
+        <f t="shared" si="2"/>
+        <v>45423</v>
+      </c>
+      <c r="J14" s="40" cm="1">
+        <f t="array" ref="J14">IF(SUM(COUNTIF(I14,Feiertage!$B$2:$B$13)),"F",I14)</f>
+        <v>45423</v>
+      </c>
+      <c r="K14" s="39">
+        <f t="shared" si="2"/>
+        <v>45454</v>
+      </c>
+      <c r="L14" s="40" cm="1">
+        <f t="array" ref="L14">IF(SUM(COUNTIF(K14,Feiertage!$B$2:$B$13)),"F",K14)</f>
+        <v>45454</v>
+      </c>
+      <c r="M14" s="39">
+        <f t="shared" si="2"/>
+        <v>45484</v>
+      </c>
+      <c r="N14" s="40" cm="1">
+        <f t="array" ref="N14">IF(SUM(COUNTIF(M14,Feiertage!$B$2:$B$13)),"F",M14)</f>
+        <v>45484</v>
+      </c>
+      <c r="O14" s="39">
+        <f t="shared" si="5"/>
+        <v>45515</v>
+      </c>
+      <c r="P14" s="40" cm="1">
+        <f t="array" ref="P14">IF(SUM(COUNTIF(O14,Feiertage!$B$2:$B$13)),"F",O14)</f>
+        <v>45515</v>
+      </c>
+      <c r="Q14" s="39">
+        <f t="shared" si="5"/>
+        <v>45546</v>
+      </c>
+      <c r="R14" s="40" cm="1">
+        <f t="array" ref="R14">IF(SUM(COUNTIF(Q14,Feiertage!$B$2:$B$13)),"F",Q14)</f>
+        <v>45546</v>
+      </c>
+      <c r="S14" s="39">
+        <f t="shared" si="7"/>
+        <v>45576</v>
+      </c>
+      <c r="T14" s="40" cm="1">
+        <f t="array" ref="T14">IF(SUM(COUNTIF(S14,Feiertage!$B$2:$B$13)),"F",S14)</f>
+        <v>45576</v>
+      </c>
+      <c r="U14" s="39">
+        <f t="shared" si="7"/>
+        <v>45607</v>
+      </c>
+      <c r="V14" s="40" cm="1">
+        <f t="array" ref="V14">IF(SUM(COUNTIF(U14,Feiertage!$B$2:$B$13)),"F",U14)</f>
+        <v>45607</v>
+      </c>
+      <c r="W14" s="41">
+        <f t="shared" si="8"/>
+        <v>45637</v>
+      </c>
+      <c r="X14" s="40" cm="1">
+        <f t="array" ref="X14">IF(SUM(COUNTIF(W14,Feiertage!$B$2:$B$13)),"F",W14)</f>
+        <v>45637</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="39">
+        <f t="shared" si="10"/>
+        <v>45303</v>
+      </c>
+      <c r="B15" s="40" cm="1">
+        <f t="array" ref="B15">IF(SUM(COUNTIF(A15,Feiertage!$B$2:$B$13)),"F",A15)</f>
+        <v>45303</v>
+      </c>
+      <c r="C15" s="39">
+        <f t="shared" si="0"/>
+        <v>45334</v>
+      </c>
+      <c r="D15" s="40" cm="1">
+        <f t="array" ref="D15">IF(SUM(COUNTIF(C15,Feiertage!$B$2:$B$13)),"F",C15)</f>
+        <v>45334</v>
+      </c>
+      <c r="E15" s="39">
+        <f t="shared" si="1"/>
+        <v>45363</v>
+      </c>
+      <c r="F15" s="40" cm="1">
+        <f t="array" ref="F15">IF(SUM(COUNTIF(E15,Feiertage!$B$2:$B$13)),"F",E15)</f>
+        <v>45363</v>
+      </c>
+      <c r="G15" s="39">
+        <f t="shared" si="2"/>
+        <v>45394</v>
+      </c>
+      <c r="H15" s="40" cm="1">
+        <f t="array" ref="H15">IF(SUM(COUNTIF(G15,Feiertage!$B$2:$B$13)),"F",G15)</f>
+        <v>45394</v>
+      </c>
+      <c r="I15" s="39">
+        <f t="shared" si="2"/>
+        <v>45424</v>
+      </c>
+      <c r="J15" s="40" cm="1">
+        <f t="array" ref="J15">IF(SUM(COUNTIF(I15,Feiertage!$B$2:$B$13)),"F",I15)</f>
+        <v>45424</v>
+      </c>
+      <c r="K15" s="39">
+        <f t="shared" si="2"/>
+        <v>45455</v>
+      </c>
+      <c r="L15" s="40" cm="1">
+        <f t="array" ref="L15">IF(SUM(COUNTIF(K15,Feiertage!$B$2:$B$13)),"F",K15)</f>
+        <v>45455</v>
+      </c>
+      <c r="M15" s="39">
+        <f t="shared" si="2"/>
+        <v>45485</v>
+      </c>
+      <c r="N15" s="40" cm="1">
+        <f t="array" ref="N15">IF(SUM(COUNTIF(M15,Feiertage!$B$2:$B$13)),"F",M15)</f>
+        <v>45485</v>
+      </c>
+      <c r="O15" s="39">
+        <f t="shared" si="5"/>
+        <v>45516</v>
+      </c>
+      <c r="P15" s="40" cm="1">
+        <f t="array" ref="P15">IF(SUM(COUNTIF(O15,Feiertage!$B$2:$B$13)),"F",O15)</f>
+        <v>45516</v>
+      </c>
+      <c r="Q15" s="39">
+        <f t="shared" si="5"/>
+        <v>45547</v>
+      </c>
+      <c r="R15" s="40" cm="1">
+        <f t="array" ref="R15">IF(SUM(COUNTIF(Q15,Feiertage!$B$2:$B$13)),"F",Q15)</f>
+        <v>45547</v>
+      </c>
+      <c r="S15" s="39">
+        <f t="shared" si="7"/>
+        <v>45577</v>
+      </c>
+      <c r="T15" s="40" cm="1">
+        <f t="array" ref="T15">IF(SUM(COUNTIF(S15,Feiertage!$B$2:$B$13)),"F",S15)</f>
+        <v>45577</v>
+      </c>
+      <c r="U15" s="39">
+        <f t="shared" si="7"/>
+        <v>45608</v>
+      </c>
+      <c r="V15" s="40" cm="1">
+        <f t="array" ref="V15">IF(SUM(COUNTIF(U15,Feiertage!$B$2:$B$13)),"F",U15)</f>
+        <v>45608</v>
+      </c>
+      <c r="W15" s="41">
+        <f t="shared" si="8"/>
+        <v>45638</v>
+      </c>
+      <c r="X15" s="40" cm="1">
+        <f t="array" ref="X15">IF(SUM(COUNTIF(W15,Feiertage!$B$2:$B$13)),"F",W15)</f>
+        <v>45638</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="39">
+        <f t="shared" si="10"/>
+        <v>45304</v>
+      </c>
+      <c r="B16" s="40" cm="1">
+        <f t="array" ref="B16">IF(SUM(COUNTIF(A16,Feiertage!$B$2:$B$13)),"F",A16)</f>
+        <v>45304</v>
+      </c>
+      <c r="C16" s="39">
+        <f t="shared" si="0"/>
+        <v>45335</v>
+      </c>
+      <c r="D16" s="40" cm="1">
+        <f t="array" ref="D16">IF(SUM(COUNTIF(C16,Feiertage!$B$2:$B$13)),"F",C16)</f>
+        <v>45335</v>
+      </c>
+      <c r="E16" s="39">
+        <f t="shared" si="1"/>
+        <v>45364</v>
+      </c>
+      <c r="F16" s="40" cm="1">
+        <f t="array" ref="F16">IF(SUM(COUNTIF(E16,Feiertage!$B$2:$B$13)),"F",E16)</f>
+        <v>45364</v>
+      </c>
+      <c r="G16" s="39">
+        <f t="shared" si="2"/>
+        <v>45395</v>
+      </c>
+      <c r="H16" s="40" cm="1">
+        <f t="array" ref="H16">IF(SUM(COUNTIF(G16,Feiertage!$B$2:$B$13)),"F",G16)</f>
+        <v>45395</v>
+      </c>
+      <c r="I16" s="39">
+        <f t="shared" si="2"/>
+        <v>45425</v>
+      </c>
+      <c r="J16" s="40" cm="1">
+        <f t="array" ref="J16">IF(SUM(COUNTIF(I16,Feiertage!$B$2:$B$13)),"F",I16)</f>
+        <v>45425</v>
+      </c>
+      <c r="K16" s="39">
+        <f t="shared" si="2"/>
+        <v>45456</v>
+      </c>
+      <c r="L16" s="40" cm="1">
+        <f t="array" ref="L16">IF(SUM(COUNTIF(K16,Feiertage!$B$2:$B$13)),"F",K16)</f>
+        <v>45456</v>
+      </c>
+      <c r="M16" s="39">
+        <f t="shared" si="2"/>
+        <v>45486</v>
+      </c>
+      <c r="N16" s="40" cm="1">
+        <f t="array" ref="N16">IF(SUM(COUNTIF(M16,Feiertage!$B$2:$B$13)),"F",M16)</f>
+        <v>45486</v>
+      </c>
+      <c r="O16" s="39">
+        <f t="shared" si="5"/>
+        <v>45517</v>
+      </c>
+      <c r="P16" s="40" cm="1">
+        <f t="array" ref="P16">IF(SUM(COUNTIF(O16,Feiertage!$B$2:$B$13)),"F",O16)</f>
+        <v>45517</v>
+      </c>
+      <c r="Q16" s="39">
+        <f t="shared" si="5"/>
+        <v>45548</v>
+      </c>
+      <c r="R16" s="40" cm="1">
+        <f t="array" ref="R16">IF(SUM(COUNTIF(Q16,Feiertage!$B$2:$B$13)),"F",Q16)</f>
+        <v>45548</v>
+      </c>
+      <c r="S16" s="39">
+        <f t="shared" si="7"/>
+        <v>45578</v>
+      </c>
+      <c r="T16" s="40" cm="1">
+        <f t="array" ref="T16">IF(SUM(COUNTIF(S16,Feiertage!$B$2:$B$13)),"F",S16)</f>
+        <v>45578</v>
+      </c>
+      <c r="U16" s="39">
+        <f t="shared" si="7"/>
+        <v>45609</v>
+      </c>
+      <c r="V16" s="40" cm="1">
+        <f t="array" ref="V16">IF(SUM(COUNTIF(U16,Feiertage!$B$2:$B$13)),"F",U16)</f>
+        <v>45609</v>
+      </c>
+      <c r="W16" s="41">
+        <f t="shared" si="8"/>
+        <v>45639</v>
+      </c>
+      <c r="X16" s="40" cm="1">
+        <f t="array" ref="X16">IF(SUM(COUNTIF(W16,Feiertage!$B$2:$B$13)),"F",W16)</f>
+        <v>45639</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="39">
+        <f>IFERROR(IF(MONTH(A16+1)=MONTH(A$4),A16+1,""),"")</f>
+        <v>45305</v>
+      </c>
+      <c r="B17" s="40" cm="1">
+        <f t="array" ref="B17">IF(SUM(COUNTIF(A17,Feiertage!$B$2:$B$13)),"F",A17)</f>
+        <v>45305</v>
+      </c>
+      <c r="C17" s="39">
+        <f t="shared" si="0"/>
+        <v>45336</v>
+      </c>
+      <c r="D17" s="40" cm="1">
+        <f t="array" ref="D17">IF(SUM(COUNTIF(C17,Feiertage!$B$2:$B$13)),"F",C17)</f>
+        <v>45336</v>
+      </c>
+      <c r="E17" s="39">
+        <f t="shared" si="1"/>
+        <v>45365</v>
+      </c>
+      <c r="F17" s="40" cm="1">
+        <f t="array" ref="F17">IF(SUM(COUNTIF(E17,Feiertage!$B$2:$B$13)),"F",E17)</f>
+        <v>45365</v>
+      </c>
+      <c r="G17" s="39">
+        <f t="shared" si="2"/>
+        <v>45396</v>
+      </c>
+      <c r="H17" s="40" cm="1">
+        <f t="array" ref="H17">IF(SUM(COUNTIF(G17,Feiertage!$B$2:$B$13)),"F",G17)</f>
+        <v>45396</v>
+      </c>
+      <c r="I17" s="39">
+        <f t="shared" si="2"/>
+        <v>45426</v>
+      </c>
+      <c r="J17" s="40" cm="1">
+        <f t="array" ref="J17">IF(SUM(COUNTIF(I17,Feiertage!$B$2:$B$13)),"F",I17)</f>
+        <v>45426</v>
+      </c>
+      <c r="K17" s="39">
+        <f t="shared" si="2"/>
+        <v>45457</v>
+      </c>
+      <c r="L17" s="40" cm="1">
+        <f t="array" ref="L17">IF(SUM(COUNTIF(K17,Feiertage!$B$2:$B$13)),"F",K17)</f>
+        <v>45457</v>
+      </c>
+      <c r="M17" s="39">
+        <f t="shared" si="2"/>
+        <v>45487</v>
+      </c>
+      <c r="N17" s="40" cm="1">
+        <f t="array" ref="N17">IF(SUM(COUNTIF(M17,Feiertage!$B$2:$B$13)),"F",M17)</f>
+        <v>45487</v>
+      </c>
+      <c r="O17" s="39">
+        <f t="shared" si="5"/>
+        <v>45518</v>
+      </c>
+      <c r="P17" s="40" cm="1">
+        <f t="array" ref="P17">IF(SUM(COUNTIF(O17,Feiertage!$B$2:$B$13)),"F",O17)</f>
+        <v>45518</v>
+      </c>
+      <c r="Q17" s="39">
+        <f t="shared" si="5"/>
+        <v>45549</v>
+      </c>
+      <c r="R17" s="40" cm="1">
+        <f t="array" ref="R17">IF(SUM(COUNTIF(Q17,Feiertage!$B$2:$B$13)),"F",Q17)</f>
+        <v>45549</v>
+      </c>
+      <c r="S17" s="39">
+        <f t="shared" si="5"/>
+        <v>45579</v>
+      </c>
+      <c r="T17" s="40" cm="1">
+        <f t="array" ref="T17">IF(SUM(COUNTIF(S17,Feiertage!$B$2:$B$13)),"F",S17)</f>
+        <v>45579</v>
+      </c>
+      <c r="U17" s="39">
+        <f t="shared" si="7"/>
+        <v>45610</v>
+      </c>
+      <c r="V17" s="40" cm="1">
+        <f t="array" ref="V17">IF(SUM(COUNTIF(U17,Feiertage!$B$2:$B$13)),"F",U17)</f>
+        <v>45610</v>
+      </c>
+      <c r="W17" s="41">
+        <f t="shared" si="8"/>
+        <v>45640</v>
+      </c>
+      <c r="X17" s="40" cm="1">
+        <f t="array" ref="X17">IF(SUM(COUNTIF(W17,Feiertage!$B$2:$B$13)),"F",W17)</f>
+        <v>45640</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="39">
+        <f t="shared" ref="A18:A22" si="11">IFERROR(IF(MONTH(A17+1)=MONTH(A$4),A17+1,""),"")</f>
+        <v>45306</v>
+      </c>
+      <c r="B18" s="40" cm="1">
+        <f t="array" ref="B18">IF(SUM(COUNTIF(A18,Feiertage!$B$2:$B$13)),"F",A18)</f>
+        <v>45306</v>
+      </c>
+      <c r="C18" s="39">
+        <f t="shared" si="0"/>
+        <v>45337</v>
+      </c>
+      <c r="D18" s="40" cm="1">
+        <f t="array" ref="D18">IF(SUM(COUNTIF(C18,Feiertage!$B$2:$B$13)),"F",C18)</f>
+        <v>45337</v>
+      </c>
+      <c r="E18" s="39">
+        <f t="shared" si="1"/>
+        <v>45366</v>
+      </c>
+      <c r="F18" s="40" cm="1">
+        <f t="array" ref="F18">IF(SUM(COUNTIF(E18,Feiertage!$B$2:$B$13)),"F",E18)</f>
+        <v>45366</v>
+      </c>
+      <c r="G18" s="39">
+        <f t="shared" si="2"/>
+        <v>45397</v>
+      </c>
+      <c r="H18" s="40" cm="1">
+        <f t="array" ref="H18">IF(SUM(COUNTIF(G18,Feiertage!$B$2:$B$13)),"F",G18)</f>
+        <v>45397</v>
+      </c>
+      <c r="I18" s="39">
+        <f t="shared" si="2"/>
+        <v>45427</v>
+      </c>
+      <c r="J18" s="40" cm="1">
+        <f t="array" ref="J18">IF(SUM(COUNTIF(I18,Feiertage!$B$2:$B$13)),"F",I18)</f>
+        <v>45427</v>
+      </c>
+      <c r="K18" s="39">
+        <f t="shared" si="2"/>
+        <v>45458</v>
+      </c>
+      <c r="L18" s="40" cm="1">
+        <f t="array" ref="L18">IF(SUM(COUNTIF(K18,Feiertage!$B$2:$B$13)),"F",K18)</f>
+        <v>45458</v>
+      </c>
+      <c r="M18" s="39">
+        <f t="shared" si="2"/>
+        <v>45488</v>
+      </c>
+      <c r="N18" s="40" cm="1">
+        <f t="array" ref="N18">IF(SUM(COUNTIF(M18,Feiertage!$B$2:$B$13)),"F",M18)</f>
+        <v>45488</v>
+      </c>
+      <c r="O18" s="39">
+        <f t="shared" si="5"/>
+        <v>45519</v>
+      </c>
+      <c r="P18" s="40" cm="1">
+        <f t="array" ref="P18">IF(SUM(COUNTIF(O18,Feiertage!$B$2:$B$13)),"F",O18)</f>
+        <v>45519</v>
+      </c>
+      <c r="Q18" s="39">
+        <f t="shared" si="5"/>
+        <v>45550</v>
+      </c>
+      <c r="R18" s="40" cm="1">
+        <f t="array" ref="R18">IF(SUM(COUNTIF(Q18,Feiertage!$B$2:$B$13)),"F",Q18)</f>
+        <v>45550</v>
+      </c>
+      <c r="S18" s="39">
+        <f t="shared" si="5"/>
+        <v>45580</v>
+      </c>
+      <c r="T18" s="40" cm="1">
+        <f t="array" ref="T18">IF(SUM(COUNTIF(S18,Feiertage!$B$2:$B$13)),"F",S18)</f>
+        <v>45580</v>
+      </c>
+      <c r="U18" s="39">
+        <f t="shared" si="7"/>
+        <v>45611</v>
+      </c>
+      <c r="V18" s="40" cm="1">
+        <f t="array" ref="V18">IF(SUM(COUNTIF(U18,Feiertage!$B$2:$B$13)),"F",U18)</f>
+        <v>45611</v>
+      </c>
+      <c r="W18" s="41">
+        <f t="shared" si="8"/>
+        <v>45641</v>
+      </c>
+      <c r="X18" s="40" cm="1">
+        <f t="array" ref="X18">IF(SUM(COUNTIF(W18,Feiertage!$B$2:$B$13)),"F",W18)</f>
+        <v>45641</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="39">
+        <f t="shared" si="11"/>
+        <v>45307</v>
+      </c>
+      <c r="B19" s="40" cm="1">
+        <f t="array" ref="B19">IF(SUM(COUNTIF(A19,Feiertage!$B$2:$B$13)),"F",A19)</f>
+        <v>45307</v>
+      </c>
+      <c r="C19" s="39">
+        <f t="shared" si="0"/>
+        <v>45338</v>
+      </c>
+      <c r="D19" s="40" cm="1">
+        <f t="array" ref="D19">IF(SUM(COUNTIF(C19,Feiertage!$B$2:$B$13)),"F",C19)</f>
+        <v>45338</v>
+      </c>
+      <c r="E19" s="39">
+        <f t="shared" si="1"/>
+        <v>45367</v>
+      </c>
+      <c r="F19" s="40" cm="1">
+        <f t="array" ref="F19">IF(SUM(COUNTIF(E19,Feiertage!$B$2:$B$13)),"F",E19)</f>
+        <v>45367</v>
+      </c>
+      <c r="G19" s="39">
+        <f t="shared" si="2"/>
+        <v>45398</v>
+      </c>
+      <c r="H19" s="40" cm="1">
+        <f t="array" ref="H19">IF(SUM(COUNTIF(G19,Feiertage!$B$2:$B$13)),"F",G19)</f>
+        <v>45398</v>
+      </c>
+      <c r="I19" s="39">
+        <f t="shared" si="2"/>
+        <v>45428</v>
+      </c>
+      <c r="J19" s="40" cm="1">
+        <f t="array" ref="J19">IF(SUM(COUNTIF(I19,Feiertage!$B$2:$B$13)),"F",I19)</f>
+        <v>45428</v>
+      </c>
+      <c r="K19" s="39">
+        <f t="shared" si="2"/>
+        <v>45459</v>
+      </c>
+      <c r="L19" s="40" cm="1">
+        <f t="array" ref="L19">IF(SUM(COUNTIF(K19,Feiertage!$B$2:$B$13)),"F",K19)</f>
+        <v>45459</v>
+      </c>
+      <c r="M19" s="39">
+        <f t="shared" si="2"/>
+        <v>45489</v>
+      </c>
+      <c r="N19" s="40" cm="1">
+        <f t="array" ref="N19">IF(SUM(COUNTIF(M19,Feiertage!$B$2:$B$13)),"F",M19)</f>
+        <v>45489</v>
+      </c>
+      <c r="O19" s="39">
+        <f t="shared" si="5"/>
+        <v>45520</v>
+      </c>
+      <c r="P19" s="40" cm="1">
+        <f t="array" ref="P19">IF(SUM(COUNTIF(O19,Feiertage!$B$2:$B$13)),"F",O19)</f>
+        <v>45520</v>
+      </c>
+      <c r="Q19" s="39">
+        <f t="shared" si="5"/>
+        <v>45551</v>
+      </c>
+      <c r="R19" s="40" cm="1">
+        <f t="array" ref="R19">IF(SUM(COUNTIF(Q19,Feiertage!$B$2:$B$13)),"F",Q19)</f>
+        <v>45551</v>
+      </c>
+      <c r="S19" s="39">
+        <f t="shared" si="5"/>
+        <v>45581</v>
+      </c>
+      <c r="T19" s="40" cm="1">
+        <f t="array" ref="T19">IF(SUM(COUNTIF(S19,Feiertage!$B$2:$B$13)),"F",S19)</f>
+        <v>45581</v>
+      </c>
+      <c r="U19" s="39">
+        <f t="shared" si="7"/>
+        <v>45612</v>
+      </c>
+      <c r="V19" s="40" cm="1">
+        <f t="array" ref="V19">IF(SUM(COUNTIF(U19,Feiertage!$B$2:$B$13)),"F",U19)</f>
+        <v>45612</v>
+      </c>
+      <c r="W19" s="41">
+        <f t="shared" si="8"/>
+        <v>45642</v>
+      </c>
+      <c r="X19" s="40" cm="1">
+        <f t="array" ref="X19">IF(SUM(COUNTIF(W19,Feiertage!$B$2:$B$13)),"F",W19)</f>
+        <v>45642</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="39">
+        <f t="shared" si="11"/>
+        <v>45308</v>
+      </c>
+      <c r="B20" s="40" cm="1">
+        <f t="array" ref="B20">IF(SUM(COUNTIF(A20,Feiertage!$B$2:$B$13)),"F",A20)</f>
+        <v>45308</v>
+      </c>
+      <c r="C20" s="39">
+        <f t="shared" si="0"/>
+        <v>45339</v>
+      </c>
+      <c r="D20" s="40" cm="1">
+        <f t="array" ref="D20">IF(SUM(COUNTIF(C20,Feiertage!$B$2:$B$13)),"F",C20)</f>
+        <v>45339</v>
+      </c>
+      <c r="E20" s="39">
+        <f t="shared" si="1"/>
+        <v>45368</v>
+      </c>
+      <c r="F20" s="40" cm="1">
+        <f t="array" ref="F20">IF(SUM(COUNTIF(E20,Feiertage!$B$2:$B$13)),"F",E20)</f>
+        <v>45368</v>
+      </c>
+      <c r="G20" s="39">
+        <f t="shared" si="2"/>
+        <v>45399</v>
+      </c>
+      <c r="H20" s="40" cm="1">
+        <f t="array" ref="H20">IF(SUM(COUNTIF(G20,Feiertage!$B$2:$B$13)),"F",G20)</f>
+        <v>45399</v>
+      </c>
+      <c r="I20" s="39">
+        <f t="shared" si="2"/>
+        <v>45429</v>
+      </c>
+      <c r="J20" s="40" cm="1">
+        <f t="array" ref="J20">IF(SUM(COUNTIF(I20,Feiertage!$B$2:$B$13)),"F",I20)</f>
+        <v>45429</v>
+      </c>
+      <c r="K20" s="39">
+        <f t="shared" si="2"/>
+        <v>45460</v>
+      </c>
+      <c r="L20" s="40" cm="1">
+        <f t="array" ref="L20">IF(SUM(COUNTIF(K20,Feiertage!$B$2:$B$13)),"F",K20)</f>
+        <v>45460</v>
+      </c>
+      <c r="M20" s="39">
+        <f t="shared" si="2"/>
+        <v>45490</v>
+      </c>
+      <c r="N20" s="40" cm="1">
+        <f t="array" ref="N20">IF(SUM(COUNTIF(M20,Feiertage!$B$2:$B$13)),"F",M20)</f>
+        <v>45490</v>
+      </c>
+      <c r="O20" s="39">
+        <f t="shared" si="5"/>
+        <v>45521</v>
+      </c>
+      <c r="P20" s="40" cm="1">
+        <f t="array" ref="P20">IF(SUM(COUNTIF(O20,Feiertage!$B$2:$B$13)),"F",O20)</f>
+        <v>45521</v>
+      </c>
+      <c r="Q20" s="39">
+        <f t="shared" si="5"/>
+        <v>45552</v>
+      </c>
+      <c r="R20" s="40" cm="1">
+        <f t="array" ref="R20">IF(SUM(COUNTIF(Q20,Feiertage!$B$2:$B$13)),"F",Q20)</f>
+        <v>45552</v>
+      </c>
+      <c r="S20" s="39">
+        <f t="shared" si="5"/>
+        <v>45582</v>
+      </c>
+      <c r="T20" s="40" cm="1">
+        <f t="array" ref="T20">IF(SUM(COUNTIF(S20,Feiertage!$B$2:$B$13)),"F",S20)</f>
+        <v>45582</v>
+      </c>
+      <c r="U20" s="39">
+        <f t="shared" si="7"/>
+        <v>45613</v>
+      </c>
+      <c r="V20" s="40" cm="1">
+        <f t="array" ref="V20">IF(SUM(COUNTIF(U20,Feiertage!$B$2:$B$13)),"F",U20)</f>
+        <v>45613</v>
+      </c>
+      <c r="W20" s="41">
+        <f t="shared" si="8"/>
+        <v>45643</v>
+      </c>
+      <c r="X20" s="40" cm="1">
+        <f t="array" ref="X20">IF(SUM(COUNTIF(W20,Feiertage!$B$2:$B$13)),"F",W20)</f>
+        <v>45643</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="39">
+        <f t="shared" si="11"/>
+        <v>45309</v>
+      </c>
+      <c r="B21" s="40" cm="1">
+        <f t="array" ref="B21">IF(SUM(COUNTIF(A21,Feiertage!$B$2:$B$13)),"F",A21)</f>
+        <v>45309</v>
+      </c>
+      <c r="C21" s="39">
+        <f t="shared" ref="C21:C34" si="12">IFERROR(IF(MONTH(C20+1)=MONTH(C$4),C20+1,""),"")</f>
+        <v>45340</v>
+      </c>
+      <c r="D21" s="40" cm="1">
+        <f t="array" ref="D21">IF(SUM(COUNTIF(C21,Feiertage!$B$2:$B$13)),"F",C21)</f>
+        <v>45340</v>
+      </c>
+      <c r="E21" s="39">
+        <f t="shared" ref="E21:E34" si="13">IFERROR(IF(MONTH(E20+1)=MONTH(E$4),E20+1,""),"")</f>
+        <v>45369</v>
+      </c>
+      <c r="F21" s="40" cm="1">
+        <f t="array" ref="F21">IF(SUM(COUNTIF(E21,Feiertage!$B$2:$B$13)),"F",E21)</f>
+        <v>45369</v>
+      </c>
+      <c r="G21" s="39">
+        <f t="shared" ref="G21:G34" si="14">IFERROR(IF(MONTH(G20+1)=MONTH(G$4),G20+1,""),"")</f>
+        <v>45400</v>
+      </c>
+      <c r="H21" s="40" cm="1">
+        <f t="array" ref="H21">IF(SUM(COUNTIF(G21,Feiertage!$B$2:$B$13)),"F",G21)</f>
+        <v>45400</v>
+      </c>
+      <c r="I21" s="39">
+        <f t="shared" ref="I21:I34" si="15">IFERROR(IF(MONTH(I20+1)=MONTH(I$4),I20+1,""),"")</f>
+        <v>45430</v>
+      </c>
+      <c r="J21" s="40" cm="1">
+        <f t="array" ref="J21">IF(SUM(COUNTIF(I21,Feiertage!$B$2:$B$13)),"F",I21)</f>
+        <v>45430</v>
+      </c>
+      <c r="K21" s="39">
+        <f t="shared" ref="K21:K34" si="16">IFERROR(IF(MONTH(K20+1)=MONTH(K$4),K20+1,""),"")</f>
+        <v>45461</v>
+      </c>
+      <c r="L21" s="40" cm="1">
+        <f t="array" ref="L21">IF(SUM(COUNTIF(K21,Feiertage!$B$2:$B$13)),"F",K21)</f>
+        <v>45461</v>
+      </c>
+      <c r="M21" s="39">
+        <f t="shared" ref="M21:M34" si="17">IFERROR(IF(MONTH(M20+1)=MONTH(M$4),M20+1,""),"")</f>
+        <v>45491</v>
+      </c>
+      <c r="N21" s="40" cm="1">
+        <f t="array" ref="N21">IF(SUM(COUNTIF(M21,Feiertage!$B$2:$B$13)),"F",M21)</f>
+        <v>45491</v>
+      </c>
+      <c r="O21" s="39">
+        <f t="shared" ref="O21:O34" si="18">IFERROR(IF(MONTH(O20+1)=MONTH(O$4),O20+1,""),"")</f>
+        <v>45522</v>
+      </c>
+      <c r="P21" s="40" cm="1">
+        <f t="array" ref="P21">IF(SUM(COUNTIF(O21,Feiertage!$B$2:$B$13)),"F",O21)</f>
+        <v>45522</v>
+      </c>
+      <c r="Q21" s="39">
+        <f t="shared" ref="Q21:Q34" si="19">IFERROR(IF(MONTH(Q20+1)=MONTH(Q$4),Q20+1,""),"")</f>
+        <v>45553</v>
+      </c>
+      <c r="R21" s="40" cm="1">
+        <f t="array" ref="R21">IF(SUM(COUNTIF(Q21,Feiertage!$B$2:$B$13)),"F",Q21)</f>
+        <v>45553</v>
+      </c>
+      <c r="S21" s="39">
+        <f t="shared" ref="S21:S34" si="20">IFERROR(IF(MONTH(S20+1)=MONTH(S$4),S20+1,""),"")</f>
+        <v>45583</v>
+      </c>
+      <c r="T21" s="40" cm="1">
+        <f t="array" ref="T21">IF(SUM(COUNTIF(S21,Feiertage!$B$2:$B$13)),"F",S21)</f>
+        <v>45583</v>
+      </c>
+      <c r="U21" s="39">
+        <f t="shared" ref="U21:U34" si="21">IFERROR(IF(MONTH(U20+1)=MONTH(U$4),U20+1,""),"")</f>
+        <v>45614</v>
+      </c>
+      <c r="V21" s="40" cm="1">
+        <f t="array" ref="V21">IF(SUM(COUNTIF(U21,Feiertage!$B$2:$B$13)),"F",U21)</f>
+        <v>45614</v>
+      </c>
+      <c r="W21" s="41">
+        <f t="shared" ref="W21:W34" si="22">IFERROR(IF(MONTH(W20+1)=MONTH(W$4),W20+1,""),"")</f>
+        <v>45644</v>
+      </c>
+      <c r="X21" s="40" cm="1">
+        <f t="array" ref="X21">IF(SUM(COUNTIF(W21,Feiertage!$B$2:$B$13)),"F",W21)</f>
+        <v>45644</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="39">
+        <f t="shared" si="11"/>
+        <v>45310</v>
+      </c>
+      <c r="B22" s="40" cm="1">
+        <f t="array" ref="B22">IF(SUM(COUNTIF(A22,Feiertage!$B$2:$B$13)),"F",A22)</f>
+        <v>45310</v>
+      </c>
+      <c r="C22" s="39">
+        <f t="shared" si="12"/>
+        <v>45341</v>
+      </c>
+      <c r="D22" s="40" cm="1">
+        <f t="array" ref="D22">IF(SUM(COUNTIF(C22,Feiertage!$B$2:$B$13)),"F",C22)</f>
+        <v>45341</v>
+      </c>
+      <c r="E22" s="39">
+        <f t="shared" si="13"/>
+        <v>45370</v>
+      </c>
+      <c r="F22" s="40" cm="1">
+        <f t="array" ref="F22">IF(SUM(COUNTIF(E22,Feiertage!$B$2:$B$13)),"F",E22)</f>
+        <v>45370</v>
+      </c>
+      <c r="G22" s="39">
+        <f t="shared" si="14"/>
+        <v>45401</v>
+      </c>
+      <c r="H22" s="40" cm="1">
+        <f t="array" ref="H22">IF(SUM(COUNTIF(G22,Feiertage!$B$2:$B$13)),"F",G22)</f>
+        <v>45401</v>
+      </c>
+      <c r="I22" s="39">
+        <f t="shared" si="15"/>
+        <v>45431</v>
+      </c>
+      <c r="J22" s="40" cm="1">
+        <f t="array" ref="J22">IF(SUM(COUNTIF(I22,Feiertage!$B$2:$B$13)),"F",I22)</f>
+        <v>45431</v>
+      </c>
+      <c r="K22" s="39">
+        <f t="shared" si="16"/>
+        <v>45462</v>
+      </c>
+      <c r="L22" s="40" cm="1">
+        <f t="array" ref="L22">IF(SUM(COUNTIF(K22,Feiertage!$B$2:$B$13)),"F",K22)</f>
+        <v>45462</v>
+      </c>
+      <c r="M22" s="39">
+        <f t="shared" si="17"/>
+        <v>45492</v>
+      </c>
+      <c r="N22" s="40" cm="1">
+        <f t="array" ref="N22">IF(SUM(COUNTIF(M22,Feiertage!$B$2:$B$13)),"F",M22)</f>
+        <v>45492</v>
+      </c>
+      <c r="O22" s="39">
+        <f t="shared" si="18"/>
+        <v>45523</v>
+      </c>
+      <c r="P22" s="40" cm="1">
+        <f t="array" ref="P22">IF(SUM(COUNTIF(O22,Feiertage!$B$2:$B$13)),"F",O22)</f>
+        <v>45523</v>
+      </c>
+      <c r="Q22" s="39">
+        <f t="shared" si="19"/>
+        <v>45554</v>
+      </c>
+      <c r="R22" s="40" cm="1">
+        <f t="array" ref="R22">IF(SUM(COUNTIF(Q22,Feiertage!$B$2:$B$13)),"F",Q22)</f>
+        <v>45554</v>
+      </c>
+      <c r="S22" s="39">
+        <f t="shared" si="20"/>
+        <v>45584</v>
+      </c>
+      <c r="T22" s="40" cm="1">
+        <f t="array" ref="T22">IF(SUM(COUNTIF(S22,Feiertage!$B$2:$B$13)),"F",S22)</f>
+        <v>45584</v>
+      </c>
+      <c r="U22" s="39">
+        <f t="shared" si="21"/>
+        <v>45615</v>
+      </c>
+      <c r="V22" s="40" cm="1">
+        <f t="array" ref="V22">IF(SUM(COUNTIF(U22,Feiertage!$B$2:$B$13)),"F",U22)</f>
+        <v>45615</v>
+      </c>
+      <c r="W22" s="41">
+        <f t="shared" si="22"/>
+        <v>45645</v>
+      </c>
+      <c r="X22" s="40" cm="1">
+        <f t="array" ref="X22">IF(SUM(COUNTIF(W22,Feiertage!$B$2:$B$13)),"F",W22)</f>
+        <v>45645</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="39">
+        <f>IFERROR(IF(MONTH(A22+1)=MONTH(A$4),A22+1,""),"")</f>
+        <v>45311</v>
+      </c>
+      <c r="B23" s="40" cm="1">
+        <f t="array" ref="B23">IF(SUM(COUNTIF(A23,Feiertage!$B$2:$B$13)),"F",A23)</f>
+        <v>45311</v>
+      </c>
+      <c r="C23" s="39">
+        <f t="shared" si="12"/>
+        <v>45342</v>
+      </c>
+      <c r="D23" s="40" cm="1">
+        <f t="array" ref="D23">IF(SUM(COUNTIF(C23,Feiertage!$B$2:$B$13)),"F",C23)</f>
+        <v>45342</v>
+      </c>
+      <c r="E23" s="39">
+        <f t="shared" si="13"/>
+        <v>45371</v>
+      </c>
+      <c r="F23" s="40" cm="1">
+        <f t="array" ref="F23">IF(SUM(COUNTIF(E23,Feiertage!$B$2:$B$13)),"F",E23)</f>
+        <v>45371</v>
+      </c>
+      <c r="G23" s="39">
+        <f t="shared" si="14"/>
+        <v>45402</v>
+      </c>
+      <c r="H23" s="40" cm="1">
+        <f t="array" ref="H23">IF(SUM(COUNTIF(G23,Feiertage!$B$2:$B$13)),"F",G23)</f>
+        <v>45402</v>
+      </c>
+      <c r="I23" s="39">
+        <f t="shared" si="15"/>
+        <v>45432</v>
+      </c>
+      <c r="J23" s="40" t="str" cm="1">
+        <f t="array" ref="J23">IF(SUM(COUNTIF(I23,Feiertage!$B$2:$B$13)),"F",I23)</f>
+        <v>F</v>
+      </c>
+      <c r="K23" s="39">
+        <f t="shared" si="16"/>
+        <v>45463</v>
+      </c>
+      <c r="L23" s="40" cm="1">
+        <f t="array" ref="L23">IF(SUM(COUNTIF(K23,Feiertage!$B$2:$B$13)),"F",K23)</f>
+        <v>45463</v>
+      </c>
+      <c r="M23" s="39">
+        <f t="shared" si="17"/>
+        <v>45493</v>
+      </c>
+      <c r="N23" s="40" cm="1">
+        <f t="array" ref="N23">IF(SUM(COUNTIF(M23,Feiertage!$B$2:$B$13)),"F",M23)</f>
+        <v>45493</v>
+      </c>
+      <c r="O23" s="39">
+        <f t="shared" si="18"/>
+        <v>45524</v>
+      </c>
+      <c r="P23" s="40" cm="1">
+        <f t="array" ref="P23">IF(SUM(COUNTIF(O23,Feiertage!$B$2:$B$13)),"F",O23)</f>
+        <v>45524</v>
+      </c>
+      <c r="Q23" s="39">
+        <f t="shared" si="19"/>
+        <v>45555</v>
+      </c>
+      <c r="R23" s="40" cm="1">
+        <f t="array" ref="R23">IF(SUM(COUNTIF(Q23,Feiertage!$B$2:$B$13)),"F",Q23)</f>
+        <v>45555</v>
+      </c>
+      <c r="S23" s="39">
+        <f t="shared" si="20"/>
+        <v>45585</v>
+      </c>
+      <c r="T23" s="40" cm="1">
+        <f t="array" ref="T23">IF(SUM(COUNTIF(S23,Feiertage!$B$2:$B$13)),"F",S23)</f>
+        <v>45585</v>
+      </c>
+      <c r="U23" s="39">
+        <f t="shared" si="21"/>
+        <v>45616</v>
+      </c>
+      <c r="V23" s="40" cm="1">
+        <f t="array" ref="V23">IF(SUM(COUNTIF(U23,Feiertage!$B$2:$B$13)),"F",U23)</f>
+        <v>45616</v>
+      </c>
+      <c r="W23" s="41">
+        <f t="shared" si="22"/>
+        <v>45646</v>
+      </c>
+      <c r="X23" s="40" cm="1">
+        <f t="array" ref="X23">IF(SUM(COUNTIF(W23,Feiertage!$B$2:$B$13)),"F",W23)</f>
+        <v>45646</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="39">
+        <f t="shared" ref="A24:A25" si="23">IFERROR(IF(MONTH(A23+1)=MONTH(A$4),A23+1,""),"")</f>
+        <v>45312</v>
+      </c>
+      <c r="B24" s="40" cm="1">
+        <f t="array" ref="B24">IF(SUM(COUNTIF(A24,Feiertage!$B$2:$B$13)),"F",A24)</f>
+        <v>45312</v>
+      </c>
+      <c r="C24" s="39">
+        <f t="shared" si="12"/>
+        <v>45343</v>
+      </c>
+      <c r="D24" s="40" cm="1">
+        <f t="array" ref="D24">IF(SUM(COUNTIF(C24,Feiertage!$B$2:$B$13)),"F",C24)</f>
+        <v>45343</v>
+      </c>
+      <c r="E24" s="39">
+        <f t="shared" si="13"/>
+        <v>45372</v>
+      </c>
+      <c r="F24" s="40" cm="1">
+        <f t="array" ref="F24">IF(SUM(COUNTIF(E24,Feiertage!$B$2:$B$13)),"F",E24)</f>
+        <v>45372</v>
+      </c>
+      <c r="G24" s="39">
+        <f t="shared" si="14"/>
+        <v>45403</v>
+      </c>
+      <c r="H24" s="40" cm="1">
+        <f t="array" ref="H24">IF(SUM(COUNTIF(G24,Feiertage!$B$2:$B$13)),"F",G24)</f>
+        <v>45403</v>
+      </c>
+      <c r="I24" s="39">
+        <f t="shared" si="15"/>
+        <v>45433</v>
+      </c>
+      <c r="J24" s="40" cm="1">
+        <f t="array" ref="J24">IF(SUM(COUNTIF(I24,Feiertage!$B$2:$B$13)),"F",I24)</f>
+        <v>45433</v>
+      </c>
+      <c r="K24" s="39">
+        <f t="shared" si="16"/>
+        <v>45464</v>
+      </c>
+      <c r="L24" s="40" cm="1">
+        <f t="array" ref="L24">IF(SUM(COUNTIF(K24,Feiertage!$B$2:$B$13)),"F",K24)</f>
+        <v>45464</v>
+      </c>
+      <c r="M24" s="39">
+        <f t="shared" si="17"/>
+        <v>45494</v>
+      </c>
+      <c r="N24" s="40" cm="1">
+        <f t="array" ref="N24">IF(SUM(COUNTIF(M24,Feiertage!$B$2:$B$13)),"F",M24)</f>
+        <v>45494</v>
+      </c>
+      <c r="O24" s="39">
+        <f t="shared" si="18"/>
+        <v>45525</v>
+      </c>
+      <c r="P24" s="40" cm="1">
+        <f t="array" ref="P24">IF(SUM(COUNTIF(O24,Feiertage!$B$2:$B$13)),"F",O24)</f>
+        <v>45525</v>
+      </c>
+      <c r="Q24" s="39">
+        <f t="shared" si="19"/>
+        <v>45556</v>
+      </c>
+      <c r="R24" s="40" cm="1">
+        <f t="array" ref="R24">IF(SUM(COUNTIF(Q24,Feiertage!$B$2:$B$13)),"F",Q24)</f>
+        <v>45556</v>
+      </c>
+      <c r="S24" s="39">
+        <f t="shared" si="20"/>
+        <v>45586</v>
+      </c>
+      <c r="T24" s="40" cm="1">
+        <f t="array" ref="T24">IF(SUM(COUNTIF(S24,Feiertage!$B$2:$B$13)),"F",S24)</f>
+        <v>45586</v>
+      </c>
+      <c r="U24" s="39">
+        <f t="shared" si="21"/>
+        <v>45617</v>
+      </c>
+      <c r="V24" s="40" cm="1">
+        <f t="array" ref="V24">IF(SUM(COUNTIF(U24,Feiertage!$B$2:$B$13)),"F",U24)</f>
+        <v>45617</v>
+      </c>
+      <c r="W24" s="41">
+        <f t="shared" si="22"/>
+        <v>45647</v>
+      </c>
+      <c r="X24" s="40" cm="1">
+        <f t="array" ref="X24">IF(SUM(COUNTIF(W24,Feiertage!$B$2:$B$13)),"F",W24)</f>
+        <v>45647</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="39">
+        <f t="shared" si="23"/>
+        <v>45313</v>
+      </c>
+      <c r="B25" s="40" cm="1">
+        <f t="array" ref="B25">IF(SUM(COUNTIF(A25,Feiertage!$B$2:$B$13)),"F",A25)</f>
+        <v>45313</v>
+      </c>
+      <c r="C25" s="39">
+        <f t="shared" si="12"/>
+        <v>45344</v>
+      </c>
+      <c r="D25" s="40" cm="1">
+        <f t="array" ref="D25">IF(SUM(COUNTIF(C25,Feiertage!$B$2:$B$13)),"F",C25)</f>
+        <v>45344</v>
+      </c>
+      <c r="E25" s="39">
+        <f t="shared" si="13"/>
+        <v>45373</v>
+      </c>
+      <c r="F25" s="40" cm="1">
+        <f t="array" ref="F25">IF(SUM(COUNTIF(E25,Feiertage!$B$2:$B$13)),"F",E25)</f>
+        <v>45373</v>
+      </c>
+      <c r="G25" s="39">
+        <f t="shared" si="14"/>
+        <v>45404</v>
+      </c>
+      <c r="H25" s="40" cm="1">
+        <f t="array" ref="H25">IF(SUM(COUNTIF(G25,Feiertage!$B$2:$B$13)),"F",G25)</f>
+        <v>45404</v>
+      </c>
+      <c r="I25" s="39">
+        <f t="shared" si="15"/>
+        <v>45434</v>
+      </c>
+      <c r="J25" s="40" cm="1">
+        <f t="array" ref="J25">IF(SUM(COUNTIF(I25,Feiertage!$B$2:$B$13)),"F",I25)</f>
+        <v>45434</v>
+      </c>
+      <c r="K25" s="39">
+        <f t="shared" si="16"/>
+        <v>45465</v>
+      </c>
+      <c r="L25" s="40" cm="1">
+        <f t="array" ref="L25">IF(SUM(COUNTIF(K25,Feiertage!$B$2:$B$13)),"F",K25)</f>
+        <v>45465</v>
+      </c>
+      <c r="M25" s="39">
+        <f t="shared" si="17"/>
+        <v>45495</v>
+      </c>
+      <c r="N25" s="40" cm="1">
+        <f t="array" ref="N25">IF(SUM(COUNTIF(M25,Feiertage!$B$2:$B$13)),"F",M25)</f>
+        <v>45495</v>
+      </c>
+      <c r="O25" s="39">
+        <f t="shared" si="18"/>
+        <v>45526</v>
+      </c>
+      <c r="P25" s="40" cm="1">
+        <f t="array" ref="P25">IF(SUM(COUNTIF(O25,Feiertage!$B$2:$B$13)),"F",O25)</f>
+        <v>45526</v>
+      </c>
+      <c r="Q25" s="39">
+        <f t="shared" si="19"/>
+        <v>45557</v>
+      </c>
+      <c r="R25" s="40" cm="1">
+        <f t="array" ref="R25">IF(SUM(COUNTIF(Q25,Feiertage!$B$2:$B$13)),"F",Q25)</f>
+        <v>45557</v>
+      </c>
+      <c r="S25" s="39">
+        <f t="shared" si="20"/>
+        <v>45587</v>
+      </c>
+      <c r="T25" s="40" cm="1">
+        <f t="array" ref="T25">IF(SUM(COUNTIF(S25,Feiertage!$B$2:$B$13)),"F",S25)</f>
+        <v>45587</v>
+      </c>
+      <c r="U25" s="39">
+        <f t="shared" si="21"/>
+        <v>45618</v>
+      </c>
+      <c r="V25" s="40" cm="1">
+        <f t="array" ref="V25">IF(SUM(COUNTIF(U25,Feiertage!$B$2:$B$13)),"F",U25)</f>
+        <v>45618</v>
+      </c>
+      <c r="W25" s="41">
+        <f t="shared" si="22"/>
+        <v>45648</v>
+      </c>
+      <c r="X25" s="40" cm="1">
+        <f t="array" ref="X25">IF(SUM(COUNTIF(W25,Feiertage!$B$2:$B$13)),"F",W25)</f>
+        <v>45648</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="39">
+        <f>IFERROR(IF(MONTH(A25+1)=MONTH(A$4),A25+1,""),"")</f>
+        <v>45314</v>
+      </c>
+      <c r="B26" s="40" cm="1">
+        <f t="array" ref="B26">IF(SUM(COUNTIF(A26,Feiertage!$B$2:$B$13)),"F",A26)</f>
+        <v>45314</v>
+      </c>
+      <c r="C26" s="39">
+        <f t="shared" si="12"/>
+        <v>45345</v>
+      </c>
+      <c r="D26" s="40" cm="1">
+        <f t="array" ref="D26">IF(SUM(COUNTIF(C26,Feiertage!$B$2:$B$13)),"F",C26)</f>
+        <v>45345</v>
+      </c>
+      <c r="E26" s="39">
+        <f t="shared" si="13"/>
+        <v>45374</v>
+      </c>
+      <c r="F26" s="40" cm="1">
+        <f t="array" ref="F26">IF(SUM(COUNTIF(E26,Feiertage!$B$2:$B$13)),"F",E26)</f>
+        <v>45374</v>
+      </c>
+      <c r="G26" s="39">
+        <f t="shared" si="14"/>
+        <v>45405</v>
+      </c>
+      <c r="H26" s="40" cm="1">
+        <f t="array" ref="H26">IF(SUM(COUNTIF(G26,Feiertage!$B$2:$B$13)),"F",G26)</f>
+        <v>45405</v>
+      </c>
+      <c r="I26" s="39">
+        <f t="shared" si="15"/>
+        <v>45435</v>
+      </c>
+      <c r="J26" s="40" cm="1">
+        <f t="array" ref="J26">IF(SUM(COUNTIF(I26,Feiertage!$B$2:$B$13)),"F",I26)</f>
+        <v>45435</v>
+      </c>
+      <c r="K26" s="39">
+        <f t="shared" si="16"/>
+        <v>45466</v>
+      </c>
+      <c r="L26" s="40" cm="1">
+        <f t="array" ref="L26">IF(SUM(COUNTIF(K26,Feiertage!$B$2:$B$13)),"F",K26)</f>
+        <v>45466</v>
+      </c>
+      <c r="M26" s="39">
+        <f t="shared" si="17"/>
+        <v>45496</v>
+      </c>
+      <c r="N26" s="40" cm="1">
+        <f t="array" ref="N26">IF(SUM(COUNTIF(M26,Feiertage!$B$2:$B$13)),"F",M26)</f>
+        <v>45496</v>
+      </c>
+      <c r="O26" s="39">
+        <f t="shared" si="18"/>
+        <v>45527</v>
+      </c>
+      <c r="P26" s="40" cm="1">
+        <f t="array" ref="P26">IF(SUM(COUNTIF(O26,Feiertage!$B$2:$B$13)),"F",O26)</f>
+        <v>45527</v>
+      </c>
+      <c r="Q26" s="39">
+        <f t="shared" si="19"/>
+        <v>45558</v>
+      </c>
+      <c r="R26" s="40" cm="1">
+        <f t="array" ref="R26">IF(SUM(COUNTIF(Q26,Feiertage!$B$2:$B$13)),"F",Q26)</f>
+        <v>45558</v>
+      </c>
+      <c r="S26" s="39">
+        <f t="shared" si="20"/>
+        <v>45588</v>
+      </c>
+      <c r="T26" s="40" cm="1">
+        <f t="array" ref="T26">IF(SUM(COUNTIF(S26,Feiertage!$B$2:$B$13)),"F",S26)</f>
+        <v>45588</v>
+      </c>
+      <c r="U26" s="39">
+        <f t="shared" si="21"/>
+        <v>45619</v>
+      </c>
+      <c r="V26" s="40" cm="1">
+        <f t="array" ref="V26">IF(SUM(COUNTIF(U26,Feiertage!$B$2:$B$13)),"F",U26)</f>
+        <v>45619</v>
+      </c>
+      <c r="W26" s="41">
+        <f t="shared" si="22"/>
+        <v>45649</v>
+      </c>
+      <c r="X26" s="40" cm="1">
+        <f t="array" ref="X26">IF(SUM(COUNTIF(W26,Feiertage!$B$2:$B$13)),"F",W26)</f>
+        <v>45649</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="39">
+        <f t="shared" ref="A27:A31" si="24">IFERROR(IF(MONTH(A26+1)=MONTH(A$4),A26+1,""),"")</f>
+        <v>45315</v>
+      </c>
+      <c r="B27" s="40" cm="1">
+        <f t="array" ref="B27">IF(SUM(COUNTIF(A27,Feiertage!$B$2:$B$13)),"F",A27)</f>
+        <v>45315</v>
+      </c>
+      <c r="C27" s="39">
+        <f t="shared" si="12"/>
+        <v>45346</v>
+      </c>
+      <c r="D27" s="40" cm="1">
+        <f t="array" ref="D27">IF(SUM(COUNTIF(C27,Feiertage!$B$2:$B$13)),"F",C27)</f>
+        <v>45346</v>
+      </c>
+      <c r="E27" s="39">
+        <f t="shared" si="13"/>
+        <v>45375</v>
+      </c>
+      <c r="F27" s="40" cm="1">
+        <f t="array" ref="F27">IF(SUM(COUNTIF(E27,Feiertage!$B$2:$B$13)),"F",E27)</f>
+        <v>45375</v>
+      </c>
+      <c r="G27" s="39">
+        <f t="shared" si="14"/>
+        <v>45406</v>
+      </c>
+      <c r="H27" s="40" cm="1">
+        <f t="array" ref="H27">IF(SUM(COUNTIF(G27,Feiertage!$B$2:$B$13)),"F",G27)</f>
+        <v>45406</v>
+      </c>
+      <c r="I27" s="39">
+        <f t="shared" si="15"/>
+        <v>45436</v>
+      </c>
+      <c r="J27" s="40" cm="1">
+        <f t="array" ref="J27">IF(SUM(COUNTIF(I27,Feiertage!$B$2:$B$13)),"F",I27)</f>
+        <v>45436</v>
+      </c>
+      <c r="K27" s="39">
+        <f t="shared" si="16"/>
+        <v>45467</v>
+      </c>
+      <c r="L27" s="40" cm="1">
+        <f t="array" ref="L27">IF(SUM(COUNTIF(K27,Feiertage!$B$2:$B$13)),"F",K27)</f>
+        <v>45467</v>
+      </c>
+      <c r="M27" s="39">
+        <f t="shared" si="17"/>
+        <v>45497</v>
+      </c>
+      <c r="N27" s="40" cm="1">
+        <f t="array" ref="N27">IF(SUM(COUNTIF(M27,Feiertage!$B$2:$B$13)),"F",M27)</f>
+        <v>45497</v>
+      </c>
+      <c r="O27" s="39">
+        <f t="shared" si="18"/>
+        <v>45528</v>
+      </c>
+      <c r="P27" s="40" cm="1">
+        <f t="array" ref="P27">IF(SUM(COUNTIF(O27,Feiertage!$B$2:$B$13)),"F",O27)</f>
+        <v>45528</v>
+      </c>
+      <c r="Q27" s="39">
+        <f t="shared" si="19"/>
+        <v>45559</v>
+      </c>
+      <c r="R27" s="40" cm="1">
+        <f t="array" ref="R27">IF(SUM(COUNTIF(Q27,Feiertage!$B$2:$B$13)),"F",Q27)</f>
+        <v>45559</v>
+      </c>
+      <c r="S27" s="39">
+        <f t="shared" si="20"/>
+        <v>45589</v>
+      </c>
+      <c r="T27" s="40" cm="1">
+        <f t="array" ref="T27">IF(SUM(COUNTIF(S27,Feiertage!$B$2:$B$13)),"F",S27)</f>
+        <v>45589</v>
+      </c>
+      <c r="U27" s="39">
+        <f t="shared" si="21"/>
+        <v>45620</v>
+      </c>
+      <c r="V27" s="40" cm="1">
+        <f t="array" ref="V27">IF(SUM(COUNTIF(U27,Feiertage!$B$2:$B$13)),"F",U27)</f>
+        <v>45620</v>
+      </c>
+      <c r="W27" s="41">
+        <f t="shared" si="22"/>
+        <v>45650</v>
+      </c>
+      <c r="X27" s="40" cm="1">
+        <f t="array" ref="X27">IF(SUM(COUNTIF(W27,Feiertage!$B$2:$B$13)),"F",W27)</f>
+        <v>45650</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="39">
+        <f t="shared" si="24"/>
+        <v>45316</v>
+      </c>
+      <c r="B28" s="40" cm="1">
+        <f t="array" ref="B28">IF(SUM(COUNTIF(A28,Feiertage!$B$2:$B$13)),"F",A28)</f>
+        <v>45316</v>
+      </c>
+      <c r="C28" s="39">
+        <f t="shared" si="12"/>
+        <v>45347</v>
+      </c>
+      <c r="D28" s="40" cm="1">
+        <f t="array" ref="D28">IF(SUM(COUNTIF(C28,Feiertage!$B$2:$B$13)),"F",C28)</f>
+        <v>45347</v>
+      </c>
+      <c r="E28" s="39">
+        <f t="shared" si="13"/>
+        <v>45376</v>
+      </c>
+      <c r="F28" s="40" cm="1">
+        <f t="array" ref="F28">IF(SUM(COUNTIF(E28,Feiertage!$B$2:$B$13)),"F",E28)</f>
+        <v>45376</v>
+      </c>
+      <c r="G28" s="39">
+        <f t="shared" si="14"/>
+        <v>45407</v>
+      </c>
+      <c r="H28" s="40" cm="1">
+        <f t="array" ref="H28">IF(SUM(COUNTIF(G28,Feiertage!$B$2:$B$13)),"F",G28)</f>
+        <v>45407</v>
+      </c>
+      <c r="I28" s="39">
+        <f t="shared" si="15"/>
+        <v>45437</v>
+      </c>
+      <c r="J28" s="40" cm="1">
+        <f t="array" ref="J28">IF(SUM(COUNTIF(I28,Feiertage!$B$2:$B$13)),"F",I28)</f>
+        <v>45437</v>
+      </c>
+      <c r="K28" s="39">
+        <f t="shared" si="16"/>
+        <v>45468</v>
+      </c>
+      <c r="L28" s="40" cm="1">
+        <f t="array" ref="L28">IF(SUM(COUNTIF(K28,Feiertage!$B$2:$B$13)),"F",K28)</f>
+        <v>45468</v>
+      </c>
+      <c r="M28" s="39">
+        <f t="shared" si="17"/>
+        <v>45498</v>
+      </c>
+      <c r="N28" s="40" cm="1">
+        <f t="array" ref="N28">IF(SUM(COUNTIF(M28,Feiertage!$B$2:$B$13)),"F",M28)</f>
+        <v>45498</v>
+      </c>
+      <c r="O28" s="39">
+        <f t="shared" si="18"/>
+        <v>45529</v>
+      </c>
+      <c r="P28" s="40" cm="1">
+        <f t="array" ref="P28">IF(SUM(COUNTIF(O28,Feiertage!$B$2:$B$13)),"F",O28)</f>
+        <v>45529</v>
+      </c>
+      <c r="Q28" s="39">
+        <f t="shared" si="19"/>
+        <v>45560</v>
+      </c>
+      <c r="R28" s="40" cm="1">
+        <f t="array" ref="R28">IF(SUM(COUNTIF(Q28,Feiertage!$B$2:$B$13)),"F",Q28)</f>
+        <v>45560</v>
+      </c>
+      <c r="S28" s="39">
+        <f t="shared" si="20"/>
+        <v>45590</v>
+      </c>
+      <c r="T28" s="40" cm="1">
+        <f t="array" ref="T28">IF(SUM(COUNTIF(S28,Feiertage!$B$2:$B$13)),"F",S28)</f>
+        <v>45590</v>
+      </c>
+      <c r="U28" s="39">
+        <f t="shared" si="21"/>
+        <v>45621</v>
+      </c>
+      <c r="V28" s="40" cm="1">
+        <f t="array" ref="V28">IF(SUM(COUNTIF(U28,Feiertage!$B$2:$B$13)),"F",U28)</f>
+        <v>45621</v>
+      </c>
+      <c r="W28" s="41">
+        <f t="shared" si="22"/>
+        <v>45651</v>
+      </c>
+      <c r="X28" s="40" t="str" cm="1">
+        <f t="array" ref="X28">IF(SUM(COUNTIF(W28,Feiertage!$B$2:$B$13)),"F",W28)</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="39">
+        <f t="shared" si="24"/>
+        <v>45317</v>
+      </c>
+      <c r="B29" s="40" cm="1">
+        <f t="array" ref="B29">IF(SUM(COUNTIF(A29,Feiertage!$B$2:$B$13)),"F",A29)</f>
+        <v>45317</v>
+      </c>
+      <c r="C29" s="39">
+        <f t="shared" si="12"/>
+        <v>45348</v>
+      </c>
+      <c r="D29" s="40" cm="1">
+        <f t="array" ref="D29">IF(SUM(COUNTIF(C29,Feiertage!$B$2:$B$13)),"F",C29)</f>
+        <v>45348</v>
+      </c>
+      <c r="E29" s="39">
+        <f t="shared" si="13"/>
+        <v>45377</v>
+      </c>
+      <c r="F29" s="40" cm="1">
+        <f t="array" ref="F29">IF(SUM(COUNTIF(E29,Feiertage!$B$2:$B$13)),"F",E29)</f>
+        <v>45377</v>
+      </c>
+      <c r="G29" s="39">
+        <f t="shared" si="14"/>
+        <v>45408</v>
+      </c>
+      <c r="H29" s="40" cm="1">
+        <f t="array" ref="H29">IF(SUM(COUNTIF(G29,Feiertage!$B$2:$B$13)),"F",G29)</f>
+        <v>45408</v>
+      </c>
+      <c r="I29" s="39">
+        <f t="shared" si="15"/>
+        <v>45438</v>
+      </c>
+      <c r="J29" s="40" cm="1">
+        <f t="array" ref="J29">IF(SUM(COUNTIF(I29,Feiertage!$B$2:$B$13)),"F",I29)</f>
+        <v>45438</v>
+      </c>
+      <c r="K29" s="39">
+        <f t="shared" si="16"/>
+        <v>45469</v>
+      </c>
+      <c r="L29" s="40" cm="1">
+        <f t="array" ref="L29">IF(SUM(COUNTIF(K29,Feiertage!$B$2:$B$13)),"F",K29)</f>
+        <v>45469</v>
+      </c>
+      <c r="M29" s="39">
+        <f t="shared" si="17"/>
+        <v>45499</v>
+      </c>
+      <c r="N29" s="40" cm="1">
+        <f t="array" ref="N29">IF(SUM(COUNTIF(M29,Feiertage!$B$2:$B$13)),"F",M29)</f>
+        <v>45499</v>
+      </c>
+      <c r="O29" s="39">
+        <f t="shared" si="18"/>
+        <v>45530</v>
+      </c>
+      <c r="P29" s="40" cm="1">
+        <f t="array" ref="P29">IF(SUM(COUNTIF(O29,Feiertage!$B$2:$B$13)),"F",O29)</f>
+        <v>45530</v>
+      </c>
+      <c r="Q29" s="39">
+        <f t="shared" si="19"/>
+        <v>45561</v>
+      </c>
+      <c r="R29" s="40" cm="1">
+        <f t="array" ref="R29">IF(SUM(COUNTIF(Q29,Feiertage!$B$2:$B$13)),"F",Q29)</f>
+        <v>45561</v>
+      </c>
+      <c r="S29" s="39">
+        <f t="shared" si="20"/>
+        <v>45591</v>
+      </c>
+      <c r="T29" s="40" cm="1">
+        <f t="array" ref="T29">IF(SUM(COUNTIF(S29,Feiertage!$B$2:$B$13)),"F",S29)</f>
+        <v>45591</v>
+      </c>
+      <c r="U29" s="39">
+        <f t="shared" si="21"/>
+        <v>45622</v>
+      </c>
+      <c r="V29" s="40" cm="1">
+        <f t="array" ref="V29">IF(SUM(COUNTIF(U29,Feiertage!$B$2:$B$13)),"F",U29)</f>
+        <v>45622</v>
+      </c>
+      <c r="W29" s="41">
+        <f t="shared" si="22"/>
+        <v>45652</v>
+      </c>
+      <c r="X29" s="40" t="str" cm="1">
+        <f t="array" ref="X29">IF(SUM(COUNTIF(W29,Feiertage!$B$2:$B$13)),"F",W29)</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="39">
+        <f t="shared" si="24"/>
+        <v>45318</v>
+      </c>
+      <c r="B30" s="40" cm="1">
+        <f t="array" ref="B30">IF(SUM(COUNTIF(A30,Feiertage!$B$2:$B$13)),"F",A30)</f>
+        <v>45318</v>
+      </c>
+      <c r="C30" s="39">
+        <f t="shared" si="12"/>
+        <v>45349</v>
+      </c>
+      <c r="D30" s="40" cm="1">
+        <f t="array" ref="D30">IF(SUM(COUNTIF(C30,Feiertage!$B$2:$B$13)),"F",C30)</f>
+        <v>45349</v>
+      </c>
+      <c r="E30" s="39">
+        <f t="shared" si="13"/>
+        <v>45378</v>
+      </c>
+      <c r="F30" s="40" cm="1">
+        <f t="array" ref="F30">IF(SUM(COUNTIF(E30,Feiertage!$B$2:$B$13)),"F",E30)</f>
+        <v>45378</v>
+      </c>
+      <c r="G30" s="39">
+        <f t="shared" si="14"/>
+        <v>45409</v>
+      </c>
+      <c r="H30" s="40" cm="1">
+        <f t="array" ref="H30">IF(SUM(COUNTIF(G30,Feiertage!$B$2:$B$13)),"F",G30)</f>
+        <v>45409</v>
+      </c>
+      <c r="I30" s="39">
+        <f t="shared" si="15"/>
+        <v>45439</v>
+      </c>
+      <c r="J30" s="40" cm="1">
+        <f t="array" ref="J30">IF(SUM(COUNTIF(I30,Feiertage!$B$2:$B$13)),"F",I30)</f>
+        <v>45439</v>
+      </c>
+      <c r="K30" s="39">
+        <f t="shared" si="16"/>
+        <v>45470</v>
+      </c>
+      <c r="L30" s="40" cm="1">
+        <f t="array" ref="L30">IF(SUM(COUNTIF(K30,Feiertage!$B$2:$B$13)),"F",K30)</f>
+        <v>45470</v>
+      </c>
+      <c r="M30" s="39">
+        <f t="shared" si="17"/>
+        <v>45500</v>
+      </c>
+      <c r="N30" s="40" cm="1">
+        <f t="array" ref="N30">IF(SUM(COUNTIF(M30,Feiertage!$B$2:$B$13)),"F",M30)</f>
+        <v>45500</v>
+      </c>
+      <c r="O30" s="39">
+        <f t="shared" si="18"/>
+        <v>45531</v>
+      </c>
+      <c r="P30" s="40" cm="1">
+        <f t="array" ref="P30">IF(SUM(COUNTIF(O30,Feiertage!$B$2:$B$13)),"F",O30)</f>
+        <v>45531</v>
+      </c>
+      <c r="Q30" s="39">
+        <f t="shared" si="19"/>
+        <v>45562</v>
+      </c>
+      <c r="R30" s="40" cm="1">
+        <f t="array" ref="R30">IF(SUM(COUNTIF(Q30,Feiertage!$B$2:$B$13)),"F",Q30)</f>
+        <v>45562</v>
+      </c>
+      <c r="S30" s="39">
+        <f t="shared" si="20"/>
+        <v>45592</v>
+      </c>
+      <c r="T30" s="40" cm="1">
+        <f t="array" ref="T30">IF(SUM(COUNTIF(S30,Feiertage!$B$2:$B$13)),"F",S30)</f>
+        <v>45592</v>
+      </c>
+      <c r="U30" s="39">
+        <f t="shared" si="21"/>
+        <v>45623</v>
+      </c>
+      <c r="V30" s="40" cm="1">
+        <f t="array" ref="V30">IF(SUM(COUNTIF(U30,Feiertage!$B$2:$B$13)),"F",U30)</f>
+        <v>45623</v>
+      </c>
+      <c r="W30" s="41">
+        <f t="shared" si="22"/>
+        <v>45653</v>
+      </c>
+      <c r="X30" s="40" cm="1">
+        <f t="array" ref="X30">IF(SUM(COUNTIF(W30,Feiertage!$B$2:$B$13)),"F",W30)</f>
+        <v>45653</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="39">
+        <f t="shared" si="24"/>
+        <v>45319</v>
+      </c>
+      <c r="B31" s="40" cm="1">
+        <f t="array" ref="B31">IF(SUM(COUNTIF(A31,Feiertage!$B$2:$B$13)),"F",A31)</f>
+        <v>45319</v>
+      </c>
+      <c r="C31" s="39">
+        <f t="shared" si="12"/>
+        <v>45350</v>
+      </c>
+      <c r="D31" s="40" cm="1">
+        <f t="array" ref="D31">IF(SUM(COUNTIF(C31,Feiertage!$B$2:$B$13)),"F",C31)</f>
+        <v>45350</v>
+      </c>
+      <c r="E31" s="39">
+        <f t="shared" si="13"/>
+        <v>45379</v>
+      </c>
+      <c r="F31" s="40" cm="1">
+        <f t="array" ref="F31">IF(SUM(COUNTIF(E31,Feiertage!$B$2:$B$13)),"F",E31)</f>
+        <v>45379</v>
+      </c>
+      <c r="G31" s="39">
+        <f t="shared" si="14"/>
+        <v>45410</v>
+      </c>
+      <c r="H31" s="40" cm="1">
+        <f t="array" ref="H31">IF(SUM(COUNTIF(G31,Feiertage!$B$2:$B$13)),"F",G31)</f>
+        <v>45410</v>
+      </c>
+      <c r="I31" s="39">
+        <f t="shared" si="15"/>
+        <v>45440</v>
+      </c>
+      <c r="J31" s="40" cm="1">
+        <f t="array" ref="J31">IF(SUM(COUNTIF(I31,Feiertage!$B$2:$B$13)),"F",I31)</f>
+        <v>45440</v>
+      </c>
+      <c r="K31" s="39">
+        <f t="shared" si="16"/>
+        <v>45471</v>
+      </c>
+      <c r="L31" s="40" cm="1">
+        <f t="array" ref="L31">IF(SUM(COUNTIF(K31,Feiertage!$B$2:$B$13)),"F",K31)</f>
+        <v>45471</v>
+      </c>
+      <c r="M31" s="39">
+        <f t="shared" si="17"/>
+        <v>45501</v>
+      </c>
+      <c r="N31" s="40" cm="1">
+        <f t="array" ref="N31">IF(SUM(COUNTIF(M31,Feiertage!$B$2:$B$13)),"F",M31)</f>
+        <v>45501</v>
+      </c>
+      <c r="O31" s="39">
+        <f t="shared" si="18"/>
+        <v>45532</v>
+      </c>
+      <c r="P31" s="40" cm="1">
+        <f t="array" ref="P31">IF(SUM(COUNTIF(O31,Feiertage!$B$2:$B$13)),"F",O31)</f>
+        <v>45532</v>
+      </c>
+      <c r="Q31" s="39">
+        <f t="shared" si="19"/>
+        <v>45563</v>
+      </c>
+      <c r="R31" s="40" cm="1">
+        <f t="array" ref="R31">IF(SUM(COUNTIF(Q31,Feiertage!$B$2:$B$13)),"F",Q31)</f>
+        <v>45563</v>
+      </c>
+      <c r="S31" s="39">
+        <f t="shared" si="20"/>
+        <v>45593</v>
+      </c>
+      <c r="T31" s="40" cm="1">
+        <f t="array" ref="T31">IF(SUM(COUNTIF(S31,Feiertage!$B$2:$B$13)),"F",S31)</f>
+        <v>45593</v>
+      </c>
+      <c r="U31" s="39">
+        <f t="shared" si="21"/>
+        <v>45624</v>
+      </c>
+      <c r="V31" s="40" cm="1">
+        <f t="array" ref="V31">IF(SUM(COUNTIF(U31,Feiertage!$B$2:$B$13)),"F",U31)</f>
+        <v>45624</v>
+      </c>
+      <c r="W31" s="41">
+        <f t="shared" si="22"/>
+        <v>45654</v>
+      </c>
+      <c r="X31" s="40" cm="1">
+        <f t="array" ref="X31">IF(SUM(COUNTIF(W31,Feiertage!$B$2:$B$13)),"F",W31)</f>
+        <v>45654</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="39">
+        <f>IFERROR(IF(MONTH(A31+1)=MONTH(A$4),A31+1,""),"")</f>
+        <v>45320</v>
+      </c>
+      <c r="B32" s="40" cm="1">
+        <f t="array" ref="B32">IF(SUM(COUNTIF(A32,Feiertage!$B$2:$B$13)),"F",A32)</f>
+        <v>45320</v>
+      </c>
+      <c r="C32" s="39">
+        <f t="shared" si="12"/>
+        <v>45351</v>
+      </c>
+      <c r="D32" s="40" cm="1">
+        <f t="array" ref="D32">IF(SUM(COUNTIF(C32,Feiertage!$B$2:$B$13)),"F",C32)</f>
+        <v>45351</v>
+      </c>
+      <c r="E32" s="39">
+        <f t="shared" si="13"/>
+        <v>45380</v>
+      </c>
+      <c r="F32" s="40" t="str" cm="1">
+        <f t="array" ref="F32">IF(SUM(COUNTIF(E32,Feiertage!$B$2:$B$13)),"F",E32)</f>
+        <v>F</v>
+      </c>
+      <c r="G32" s="39">
+        <f t="shared" si="14"/>
+        <v>45411</v>
+      </c>
+      <c r="H32" s="40" cm="1">
+        <f t="array" ref="H32">IF(SUM(COUNTIF(G32,Feiertage!$B$2:$B$13)),"F",G32)</f>
+        <v>45411</v>
+      </c>
+      <c r="I32" s="39">
+        <f t="shared" si="15"/>
+        <v>45441</v>
+      </c>
+      <c r="J32" s="40" cm="1">
+        <f t="array" ref="J32">IF(SUM(COUNTIF(I32,Feiertage!$B$2:$B$13)),"F",I32)</f>
+        <v>45441</v>
+      </c>
+      <c r="K32" s="39">
+        <f t="shared" si="16"/>
+        <v>45472</v>
+      </c>
+      <c r="L32" s="40" cm="1">
+        <f t="array" ref="L32">IF(SUM(COUNTIF(K32,Feiertage!$B$2:$B$13)),"F",K32)</f>
+        <v>45472</v>
+      </c>
+      <c r="M32" s="39">
+        <f t="shared" si="17"/>
+        <v>45502</v>
+      </c>
+      <c r="N32" s="40" cm="1">
+        <f t="array" ref="N32">IF(SUM(COUNTIF(M32,Feiertage!$B$2:$B$13)),"F",M32)</f>
+        <v>45502</v>
+      </c>
+      <c r="O32" s="39">
+        <f t="shared" si="18"/>
+        <v>45533</v>
+      </c>
+      <c r="P32" s="40" cm="1">
+        <f t="array" ref="P32">IF(SUM(COUNTIF(O32,Feiertage!$B$2:$B$13)),"F",O32)</f>
+        <v>45533</v>
+      </c>
+      <c r="Q32" s="39">
+        <f t="shared" si="19"/>
+        <v>45564</v>
+      </c>
+      <c r="R32" s="40" cm="1">
+        <f t="array" ref="R32">IF(SUM(COUNTIF(Q32,Feiertage!$B$2:$B$13)),"F",Q32)</f>
+        <v>45564</v>
+      </c>
+      <c r="S32" s="39">
+        <f t="shared" si="20"/>
+        <v>45594</v>
+      </c>
+      <c r="T32" s="40" cm="1">
+        <f t="array" ref="T32">IF(SUM(COUNTIF(S32,Feiertage!$B$2:$B$13)),"F",S32)</f>
+        <v>45594</v>
+      </c>
+      <c r="U32" s="39">
+        <f t="shared" si="21"/>
+        <v>45625</v>
+      </c>
+      <c r="V32" s="40" cm="1">
+        <f t="array" ref="V32">IF(SUM(COUNTIF(U32,Feiertage!$B$2:$B$13)),"F",U32)</f>
+        <v>45625</v>
+      </c>
+      <c r="W32" s="41">
+        <f t="shared" si="22"/>
+        <v>45655</v>
+      </c>
+      <c r="X32" s="40" cm="1">
+        <f t="array" ref="X32">IF(SUM(COUNTIF(W32,Feiertage!$B$2:$B$13)),"F",W32)</f>
+        <v>45655</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="39">
+        <f>IFERROR(IF(MONTH(A32+1)=MONTH(A$4),A32+1,""),"")</f>
+        <v>45321</v>
+      </c>
+      <c r="B33" s="40" cm="1">
+        <f t="array" ref="B33">IF(SUM(COUNTIF(A33,Feiertage!$B$2:$B$13)),"F",A33)</f>
+        <v>45321</v>
+      </c>
+      <c r="C33" s="39" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="D33" s="40" t="str" cm="1">
+        <f t="array" ref="D33">IF(SUM(COUNTIF(C33,Feiertage!$B$2:$B$13)),"F",C33)</f>
+        <v/>
+      </c>
+      <c r="E33" s="39">
+        <f t="shared" si="13"/>
+        <v>45381</v>
+      </c>
+      <c r="F33" s="40" cm="1">
+        <f t="array" ref="F33">IF(SUM(COUNTIF(E33,Feiertage!$B$2:$B$13)),"F",E33)</f>
+        <v>45381</v>
+      </c>
+      <c r="G33" s="39">
+        <f t="shared" si="14"/>
+        <v>45412</v>
+      </c>
+      <c r="H33" s="40" cm="1">
+        <f t="array" ref="H33">IF(SUM(COUNTIF(G33,Feiertage!$B$2:$B$13)),"F",G33)</f>
+        <v>45412</v>
+      </c>
+      <c r="I33" s="39">
+        <f t="shared" si="15"/>
+        <v>45442</v>
+      </c>
+      <c r="J33" s="40" t="str" cm="1">
+        <f t="array" ref="J33">IF(SUM(COUNTIF(I33,Feiertage!$B$2:$B$13)),"F",I33)</f>
+        <v>F</v>
+      </c>
+      <c r="K33" s="39">
+        <f t="shared" si="16"/>
+        <v>45473</v>
+      </c>
+      <c r="L33" s="40" cm="1">
+        <f t="array" ref="L33">IF(SUM(COUNTIF(K33,Feiertage!$B$2:$B$13)),"F",K33)</f>
+        <v>45473</v>
+      </c>
+      <c r="M33" s="39">
+        <f t="shared" si="17"/>
+        <v>45503</v>
+      </c>
+      <c r="N33" s="40" cm="1">
+        <f t="array" ref="N33">IF(SUM(COUNTIF(M33,Feiertage!$B$2:$B$13)),"F",M33)</f>
+        <v>45503</v>
+      </c>
+      <c r="O33" s="39">
+        <f t="shared" si="18"/>
+        <v>45534</v>
+      </c>
+      <c r="P33" s="40" cm="1">
+        <f t="array" ref="P33">IF(SUM(COUNTIF(O33,Feiertage!$B$2:$B$13)),"F",O33)</f>
+        <v>45534</v>
+      </c>
+      <c r="Q33" s="39">
+        <f t="shared" si="19"/>
+        <v>45565</v>
+      </c>
+      <c r="R33" s="40" cm="1">
+        <f t="array" ref="R33">IF(SUM(COUNTIF(Q33,Feiertage!$B$2:$B$13)),"F",Q33)</f>
+        <v>45565</v>
+      </c>
+      <c r="S33" s="39">
+        <f t="shared" si="20"/>
+        <v>45595</v>
+      </c>
+      <c r="T33" s="40" cm="1">
+        <f t="array" ref="T33">IF(SUM(COUNTIF(S33,Feiertage!$B$2:$B$13)),"F",S33)</f>
+        <v>45595</v>
+      </c>
+      <c r="U33" s="39">
+        <f t="shared" si="21"/>
+        <v>45626</v>
+      </c>
+      <c r="V33" s="40" cm="1">
+        <f t="array" ref="V33">IF(SUM(COUNTIF(U33,Feiertage!$B$2:$B$13)),"F",U33)</f>
+        <v>45626</v>
+      </c>
+      <c r="W33" s="41">
+        <f t="shared" si="22"/>
+        <v>45656</v>
+      </c>
+      <c r="X33" s="40" cm="1">
+        <f t="array" ref="X33">IF(SUM(COUNTIF(W33,Feiertage!$B$2:$B$13)),"F",W33)</f>
+        <v>45656</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="42">
+        <f t="shared" ref="A34" si="25">IFERROR(IF(MONTH(A33+1)=MONTH(A$4),A33+1,""),"")</f>
+        <v>45322</v>
+      </c>
+      <c r="B34" s="43" cm="1">
+        <f t="array" ref="B34">IF(SUM(COUNTIF(A34,Feiertage!$B$2:$B$13)),"F",A34)</f>
+        <v>45322</v>
+      </c>
+      <c r="C34" s="42" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="D34" s="43" t="str" cm="1">
+        <f t="array" ref="D34">IF(SUM(COUNTIF(C34,Feiertage!$A$2:$A$13)),"F",C34)</f>
+        <v/>
+      </c>
+      <c r="E34" s="42">
+        <f t="shared" si="13"/>
+        <v>45382</v>
+      </c>
+      <c r="F34" s="43" cm="1">
+        <f t="array" ref="F34">IF(SUM(COUNTIF(E34,Feiertage!$B$2:$B$13)),"F",E34)</f>
+        <v>45382</v>
+      </c>
+      <c r="G34" s="42" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H34" s="43" t="str" cm="1">
+        <f t="array" ref="H34">IF(SUM(COUNTIF(G34,Feiertage!$B$2:$B$13)),"F",G34)</f>
+        <v/>
+      </c>
+      <c r="I34" s="42">
+        <f t="shared" si="15"/>
+        <v>45443</v>
+      </c>
+      <c r="J34" s="43" cm="1">
+        <f t="array" ref="J34">IF(SUM(COUNTIF(I34,Feiertage!$B$2:$B$13)),"F",I34)</f>
+        <v>45443</v>
+      </c>
+      <c r="K34" s="42" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="L34" s="43" t="str" cm="1">
+        <f t="array" ref="L34">IF(SUM(COUNTIF(K34,Feiertage!$B$2:$B$13)),"F",K34)</f>
+        <v/>
+      </c>
+      <c r="M34" s="42">
+        <f t="shared" si="17"/>
+        <v>45504</v>
+      </c>
+      <c r="N34" s="43" cm="1">
+        <f t="array" ref="N34">IF(SUM(COUNTIF(M34,Feiertage!$B$2:$B$13)),"F",M34)</f>
+        <v>45504</v>
+      </c>
+      <c r="O34" s="42">
+        <f t="shared" si="18"/>
+        <v>45535</v>
+      </c>
+      <c r="P34" s="43" cm="1">
+        <f t="array" ref="P34">IF(SUM(COUNTIF(O34,Feiertage!$B$2:$B$13)),"F",O34)</f>
+        <v>45535</v>
+      </c>
+      <c r="Q34" s="42" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="R34" s="43" t="str" cm="1">
+        <f t="array" ref="R34">IF(SUM(COUNTIF(Q34,Feiertage!$B$2:$B$13)),"F",Q34)</f>
+        <v/>
+      </c>
+      <c r="S34" s="42">
+        <f t="shared" si="20"/>
+        <v>45596</v>
+      </c>
+      <c r="T34" s="43" cm="1">
+        <f t="array" ref="T34">IF(SUM(COUNTIF(S34,Feiertage!$B$2:$B$13)),"F",S34)</f>
+        <v>45596</v>
+      </c>
+      <c r="U34" s="42" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="V34" s="43" t="str" cm="1">
+        <f t="array" ref="V34">IF(SUM(COUNTIF(U34,Feiertage!$B$2:$B$13)),"F",U34)</f>
+        <v/>
+      </c>
+      <c r="W34" s="44">
+        <f t="shared" si="22"/>
+        <v>45657</v>
+      </c>
+      <c r="X34" s="43" cm="1">
+        <f t="array" ref="X34">IF(SUM(COUNTIF(W34,Feiertage!$B$2:$B$13)),"F",W34)</f>
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A4:X34">
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>TODAY()=A4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>OR(A4="F",B4="F")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="3">
+      <formula>OR(A4="U",B4="U")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="7">
+      <formula>WEEKDAY(A4,2)&gt;5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="4" id="{73078553-1D85-4963-A890-B3A458106B65}">
+            <xm:f>AND(NOT(A4=""),OR(COUNTIF(Modulliste!$K$2:$K$19,A4)&gt;0))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="5" id="{E702FC86-B431-4ADF-BD9A-51202BB2BBFC}">
+            <xm:f>AND(NOT(A4=""),OR(COUNTIF(Modulliste!$I$2:$I$19,A4)&gt;0,COUNTIF(Modulliste!$I$2:$I$19,A4-1)&gt;0,COUNTIF(Modulliste!$I$2:$I$19,A4-2)&gt;0))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="6" id="{4B6781FC-2909-4FB0-B0A0-88C81246C83A}">
+            <xm:f>AND(NOT(A4=""),OR(COUNTIF(Modulliste!$G$2:$G$19,A4)&gt;0,COUNTIF(Modulliste!$G$2:$G$19,A4-1)&gt;0,COUNTIF(Modulliste!$G$2:$G$19,A4-2)&gt;0))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A4:X34</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B68FDFFE-8976-4E81-A21C-ABA53AB9029E}">
+  <sheetPr codeName="Tabelle4"/>
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5802,65 +9090,104 @@
       <c r="A1">
         <v>2023</v>
       </c>
+      <c r="B1">
+        <v>2024</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44927</v>
       </c>
+      <c r="B2" s="1">
+        <v>45292</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44932</v>
       </c>
+      <c r="B3" s="1">
+        <v>45297</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45023</v>
       </c>
+      <c r="B4" s="1">
+        <v>45380</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45026</v>
       </c>
+      <c r="B5" s="1">
+        <v>45383</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45047</v>
       </c>
+      <c r="B6" s="1">
+        <v>45413</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45064</v>
       </c>
+      <c r="B7" s="1">
+        <v>45421</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45075</v>
       </c>
+      <c r="B8" s="1">
+        <v>45432</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45085</v>
       </c>
+      <c r="B9" s="1">
+        <v>45442</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45202</v>
       </c>
+      <c r="B10" s="1">
+        <v>45568</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45231</v>
       </c>
+      <c r="B11" s="1">
+        <v>45597</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45285</v>
       </c>
+      <c r="B12" s="1">
+        <v>45651</v>
+      </c>
     </row>
     <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45286</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45652</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">

--- a/Studiumplan.xlsx
+++ b/Studiumplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bosch-my.sharepoint.com/personal/uai5fe_bosch_com/Documents/00_DHBW/git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C76F146-DD35-4FE1-810F-103525F3CA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{8C76F146-DD35-4FE1-810F-103525F3CA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73F2BF2F-6E01-456B-9C5D-61F71800B361}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="579" activeTab="1" xr2:uid="{8D6EA8FC-9557-4CD3-9C64-AEC02D041DCB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="579" activeTab="2" xr2:uid="{8D6EA8FC-9557-4CD3-9C64-AEC02D041DCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Modulliste" sheetId="3" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="106">
   <si>
     <t>Modulname</t>
   </si>
@@ -2645,7 +2645,7 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:AC37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
@@ -5848,8 +5848,8 @@
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1:AC37"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z10" sqref="Z10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6001,9 +6001,8 @@
         <f>DATE($A$1,10,1)</f>
         <v>45566</v>
       </c>
-      <c r="T4" s="37" cm="1">
-        <f t="array" ref="T4">IF(SUM(COUNTIF(S4,Feiertage!$B$2:$B$13)),"F",S4)</f>
-        <v>45566</v>
+      <c r="T4" s="37" t="s">
+        <v>102</v>
       </c>
       <c r="U4" s="36">
         <f>DATE($A$1,11,1)</f>
@@ -6030,9 +6029,8 @@
         <f>IFERROR(IF(MONTH(A4+1)=MONTH(A$4),A4+1,""),"")</f>
         <v>45293</v>
       </c>
-      <c r="B5" s="40" cm="1">
-        <f t="array" ref="B5">IF(SUM(COUNTIF(A5,Feiertage!$B$2:$B$13)),"F",A5)</f>
-        <v>45293</v>
+      <c r="B5" s="40" t="s">
+        <v>102</v>
       </c>
       <c r="C5" s="39">
         <f t="shared" ref="C5:C20" si="0">IFERROR(IF(MONTH(C4+1)=MONTH(C$4),C4+1,""),"")</f>
@@ -6062,9 +6060,8 @@
         <f t="shared" ref="I5:K5" si="3">IFERROR(IF(MONTH(I4+1)=MONTH(I$4),I4+1,""),"")</f>
         <v>45414</v>
       </c>
-      <c r="J5" s="40" cm="1">
-        <f t="array" ref="J5">IF(SUM(COUNTIF(I5,Feiertage!$B$2:$B$13)),"F",I5)</f>
-        <v>45414</v>
+      <c r="J5" s="40" t="s">
+        <v>102</v>
       </c>
       <c r="K5" s="39">
         <f t="shared" si="3"/>
@@ -6102,9 +6099,8 @@
         <f t="shared" ref="S5:U20" si="7">IFERROR(IF(MONTH(S4+1)=MONTH(S$4),S4+1,""),"")</f>
         <v>45567</v>
       </c>
-      <c r="T5" s="40" cm="1">
-        <f t="array" ref="T5">IF(SUM(COUNTIF(S5,Feiertage!$B$2:$B$13)),"F",S5)</f>
-        <v>45567</v>
+      <c r="T5" s="40" t="s">
+        <v>102</v>
       </c>
       <c r="U5" s="39">
         <f t="shared" si="7"/>
@@ -6127,7 +6123,7 @@
       </c>
       <c r="AA5" s="49">
         <f>COUNTIF(A4:X34,"U")</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC5" s="32" t="s">
         <v>100</v>
@@ -6138,9 +6134,8 @@
         <f>IFERROR(IF(MONTH(A5+1)=MONTH(A$4),A5+1,""),"")</f>
         <v>45294</v>
       </c>
-      <c r="B6" s="40" cm="1">
-        <f t="array" ref="B6">IF(SUM(COUNTIF(A6,Feiertage!$B$2:$B$13)),"F",A6)</f>
-        <v>45294</v>
+      <c r="B6" s="40" t="s">
+        <v>102</v>
       </c>
       <c r="C6" s="39">
         <f t="shared" si="0"/>
@@ -6170,9 +6165,8 @@
         <f t="shared" si="2"/>
         <v>45415</v>
       </c>
-      <c r="J6" s="40" cm="1">
-        <f t="array" ref="J6">IF(SUM(COUNTIF(I6,Feiertage!$B$2:$B$13)),"F",I6)</f>
-        <v>45415</v>
+      <c r="J6" s="40" t="s">
+        <v>102</v>
       </c>
       <c r="K6" s="39">
         <f t="shared" si="2"/>
@@ -6235,7 +6229,7 @@
       </c>
       <c r="AA6" s="51">
         <f>30-AA5</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="AC6" s="33" t="s">
         <v>21</v>
@@ -6246,9 +6240,8 @@
         <f t="shared" ref="A7:A10" si="9">IFERROR(IF(MONTH(A6+1)=MONTH(A$4),A6+1,""),"")</f>
         <v>45295</v>
       </c>
-      <c r="B7" s="40" cm="1">
-        <f t="array" ref="B7">IF(SUM(COUNTIF(A7,Feiertage!$B$2:$B$13)),"F",A7)</f>
-        <v>45295</v>
+      <c r="B7" s="40" t="s">
+        <v>102</v>
       </c>
       <c r="C7" s="39">
         <f t="shared" si="0"/>
@@ -6318,9 +6311,8 @@
         <f t="shared" si="7"/>
         <v>45569</v>
       </c>
-      <c r="T7" s="40" cm="1">
-        <f t="array" ref="T7">IF(SUM(COUNTIF(S7,Feiertage!$B$2:$B$13)),"F",S7)</f>
-        <v>45569</v>
+      <c r="T7" s="40" t="s">
+        <v>102</v>
       </c>
       <c r="U7" s="39">
         <f t="shared" si="7"/>
@@ -6347,9 +6339,8 @@
         <f t="shared" si="9"/>
         <v>45296</v>
       </c>
-      <c r="B8" s="40" cm="1">
-        <f t="array" ref="B8">IF(SUM(COUNTIF(A8,Feiertage!$B$2:$B$13)),"F",A8)</f>
-        <v>45296</v>
+      <c r="B8" s="40" t="s">
+        <v>102</v>
       </c>
       <c r="C8" s="39">
         <f t="shared" si="0"/>
@@ -6480,9 +6471,8 @@
         <f t="shared" si="2"/>
         <v>45418</v>
       </c>
-      <c r="J9" s="40" cm="1">
-        <f t="array" ref="J9">IF(SUM(COUNTIF(I9,Feiertage!$B$2:$B$13)),"F",I9)</f>
-        <v>45418</v>
+      <c r="J9" s="40" t="s">
+        <v>102</v>
       </c>
       <c r="K9" s="39">
         <f t="shared" si="2"/>
@@ -6578,9 +6568,8 @@
         <f t="shared" si="2"/>
         <v>45419</v>
       </c>
-      <c r="J10" s="40" cm="1">
-        <f t="array" ref="J10">IF(SUM(COUNTIF(I10,Feiertage!$B$2:$B$13)),"F",I10)</f>
-        <v>45419</v>
+      <c r="J10" s="40" t="s">
+        <v>102</v>
       </c>
       <c r="K10" s="39">
         <f t="shared" si="2"/>
@@ -6676,9 +6665,8 @@
         <f t="shared" si="2"/>
         <v>45420</v>
       </c>
-      <c r="J11" s="40" cm="1">
-        <f t="array" ref="J11">IF(SUM(COUNTIF(I11,Feiertage!$B$2:$B$13)),"F",I11)</f>
-        <v>45420</v>
+      <c r="J11" s="40" t="s">
+        <v>102</v>
       </c>
       <c r="K11" s="39">
         <f t="shared" si="2"/>
@@ -6872,9 +6860,8 @@
         <f t="shared" si="2"/>
         <v>45422</v>
       </c>
-      <c r="J13" s="40" cm="1">
-        <f t="array" ref="J13">IF(SUM(COUNTIF(I13,Feiertage!$B$2:$B$13)),"F",I13)</f>
-        <v>45422</v>
+      <c r="J13" s="40" t="s">
+        <v>102</v>
       </c>
       <c r="K13" s="39">
         <f t="shared" si="2"/>
@@ -8202,9 +8189,8 @@
         <f t="shared" si="22"/>
         <v>45649</v>
       </c>
-      <c r="X26" s="40" cm="1">
-        <f t="array" ref="X26">IF(SUM(COUNTIF(W26,Feiertage!$B$2:$B$13)),"F",W26)</f>
-        <v>45649</v>
+      <c r="X26" s="40" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
@@ -8300,9 +8286,8 @@
         <f t="shared" si="22"/>
         <v>45650</v>
       </c>
-      <c r="X27" s="40" cm="1">
-        <f t="array" ref="X27">IF(SUM(COUNTIF(W27,Feiertage!$B$2:$B$13)),"F",W27)</f>
-        <v>45650</v>
+      <c r="X27" s="40" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
@@ -8594,9 +8579,8 @@
         <f t="shared" si="22"/>
         <v>45653</v>
       </c>
-      <c r="X30" s="40" cm="1">
-        <f t="array" ref="X30">IF(SUM(COUNTIF(W30,Feiertage!$B$2:$B$13)),"F",W30)</f>
-        <v>45653</v>
+      <c r="X30" s="40" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
@@ -8726,9 +8710,8 @@
         <f t="shared" si="14"/>
         <v>45411</v>
       </c>
-      <c r="H32" s="40" cm="1">
-        <f t="array" ref="H32">IF(SUM(COUNTIF(G32,Feiertage!$B$2:$B$13)),"F",G32)</f>
-        <v>45411</v>
+      <c r="H32" s="40" t="s">
+        <v>102</v>
       </c>
       <c r="I32" s="39">
         <f t="shared" si="15"/>
@@ -8824,9 +8807,8 @@
         <f t="shared" si="14"/>
         <v>45412</v>
       </c>
-      <c r="H33" s="40" cm="1">
-        <f t="array" ref="H33">IF(SUM(COUNTIF(G33,Feiertage!$B$2:$B$13)),"F",G33)</f>
-        <v>45412</v>
+      <c r="H33" s="40" t="s">
+        <v>102</v>
       </c>
       <c r="I33" s="39">
         <f t="shared" si="15"/>
@@ -8888,9 +8870,8 @@
         <f t="shared" si="22"/>
         <v>45656</v>
       </c>
-      <c r="X33" s="40" cm="1">
-        <f t="array" ref="X33">IF(SUM(COUNTIF(W33,Feiertage!$B$2:$B$13)),"F",W33)</f>
-        <v>45656</v>
+      <c r="X33" s="40" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8986,9 +8967,8 @@
         <f t="shared" si="22"/>
         <v>45657</v>
       </c>
-      <c r="X34" s="43" cm="1">
-        <f t="array" ref="X34">IF(SUM(COUNTIF(W34,Feiertage!$B$2:$B$13)),"F",W34)</f>
-        <v>45657</v>
+      <c r="X34" s="43" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">

--- a/Studiumplan.xlsx
+++ b/Studiumplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bosch-my.sharepoint.com/personal/uai5fe_bosch_com/Documents/00_DHBW/git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{8C76F146-DD35-4FE1-810F-103525F3CA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73F2BF2F-6E01-456B-9C5D-61F71800B361}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{8C76F146-DD35-4FE1-810F-103525F3CA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E037E1E-972F-4BE6-8791-5B9406298B44}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="579" activeTab="2" xr2:uid="{8D6EA8FC-9557-4CD3-9C64-AEC02D041DCB}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="106">
   <si>
     <t>Modulname</t>
   </si>
@@ -5849,7 +5849,7 @@
   <dimension ref="A1:AC37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6052,9 +6052,8 @@
         <f t="shared" ref="G5:M20" si="2">IFERROR(IF(MONTH(G4+1)=MONTH(G$4),G4+1,""),"")</f>
         <v>45384</v>
       </c>
-      <c r="H5" s="40" cm="1">
-        <f t="array" ref="H5">IF(SUM(COUNTIF(G5,Feiertage!$B$2:$B$13)),"F",G5)</f>
-        <v>45384</v>
+      <c r="H5" s="40" t="s">
+        <v>102</v>
       </c>
       <c r="I5" s="39">
         <f t="shared" ref="I5:K5" si="3">IFERROR(IF(MONTH(I4+1)=MONTH(I$4),I4+1,""),"")</f>
@@ -6123,7 +6122,7 @@
       </c>
       <c r="AA5" s="49">
         <f>COUNTIF(A4:X34,"U")</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AC5" s="32" t="s">
         <v>100</v>
@@ -6157,9 +6156,8 @@
         <f t="shared" si="2"/>
         <v>45385</v>
       </c>
-      <c r="H6" s="40" cm="1">
-        <f t="array" ref="H6">IF(SUM(COUNTIF(G6,Feiertage!$B$2:$B$13)),"F",G6)</f>
-        <v>45385</v>
+      <c r="H6" s="40" t="s">
+        <v>102</v>
       </c>
       <c r="I6" s="39">
         <f t="shared" si="2"/>
@@ -6229,7 +6227,7 @@
       </c>
       <c r="AA6" s="51">
         <f>30-AA5</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AC6" s="33" t="s">
         <v>21</v>
@@ -6263,9 +6261,8 @@
         <f t="shared" si="2"/>
         <v>45386</v>
       </c>
-      <c r="H7" s="40" cm="1">
-        <f t="array" ref="H7">IF(SUM(COUNTIF(G7,Feiertage!$B$2:$B$13)),"F",G7)</f>
-        <v>45386</v>
+      <c r="H7" s="40" t="s">
+        <v>102</v>
       </c>
       <c r="I7" s="39">
         <f t="shared" si="2"/>
@@ -6362,9 +6359,8 @@
         <f t="shared" si="2"/>
         <v>45387</v>
       </c>
-      <c r="H8" s="40" cm="1">
-        <f t="array" ref="H8">IF(SUM(COUNTIF(G8,Feiertage!$B$2:$B$13)),"F",G8)</f>
-        <v>45387</v>
+      <c r="H8" s="40" t="s">
+        <v>102</v>
       </c>
       <c r="I8" s="39">
         <f t="shared" si="2"/>

--- a/Studiumplan.xlsx
+++ b/Studiumplan.xlsx
@@ -5,18 +5,19 @@
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bosch-my.sharepoint.com/personal/uai5fe_bosch_com/Documents/00_DHBW/git/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00_Programme_RB\DHBW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="8_{8C76F146-DD35-4FE1-810F-103525F3CA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D9A64C5-6B03-44A2-81F2-9369D4A8E790}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DECBE52-6858-4625-9E9A-F7BF6E4F4D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1710" yWindow="945" windowWidth="24030" windowHeight="14430" tabRatio="579" xr2:uid="{8D6EA8FC-9557-4CD3-9C64-AEC02D041DCB}"/>
+    <workbookView xWindow="-28920" yWindow="-2055" windowWidth="29040" windowHeight="17790" tabRatio="579" xr2:uid="{8D6EA8FC-9557-4CD3-9C64-AEC02D041DCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Modulliste" sheetId="3" r:id="rId1"/>
     <sheet name="2023" sheetId="4" r:id="rId2"/>
     <sheet name="2024" sheetId="9" r:id="rId3"/>
-    <sheet name="Feiertage" sheetId="7" r:id="rId4"/>
+    <sheet name="2025" sheetId="11" r:id="rId4"/>
+    <sheet name="Feiertage" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -45,7 +46,7 @@
     <author>tc={7AC76FD3-20F0-409E-BCFB-1F3017857D85}</author>
   </authors>
   <commentList>
-    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{D625988B-FD12-438F-B6F9-40477B429413}">
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{D625988B-FD12-438F-B6F9-40477B429413}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -53,7 +54,7 @@
     wird selten angeboten</t>
       </text>
     </comment>
-    <comment ref="A11" authorId="1" shapeId="0" xr:uid="{7AC76FD3-20F0-409E-BCFB-1F3017857D85}">
+    <comment ref="A15" authorId="1" shapeId="0" xr:uid="{7AC76FD3-20F0-409E-BCFB-1F3017857D85}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -88,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="101">
   <si>
     <t>Modulname</t>
   </si>
@@ -324,9 +325,6 @@
     <t>Klausur 50% und Laborarbeit 50%</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>Masterarbeit</t>
   </si>
   <si>
@@ -393,13 +391,7 @@
     <t>Heute</t>
   </si>
   <si>
-    <t>Advanced Algorithms</t>
-  </si>
-  <si>
-    <t>T3M40502</t>
-  </si>
-  <si>
-    <t>Programmentwurf 50% und mündliche Prüfung 50%</t>
+    <t>??????????????????????</t>
   </si>
 </sst>
 </file>
@@ -690,7 +682,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -835,6 +827,12 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -846,7 +844,7 @@
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="56">
     <dxf>
       <font>
         <b val="0"/>
@@ -1101,6 +1099,202 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1315,104 +1509,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1462,25 +1558,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4F3B1065-317B-4BEC-B040-1C2152005517}" name="Modulliste" displayName="Modulliste" ref="A1:M21" totalsRowCount="1" headerRowDxfId="41" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4F3B1065-317B-4BEC-B040-1C2152005517}" name="Modulliste" displayName="Modulliste" ref="A1:M21" totalsRowCount="1" headerRowDxfId="55" dataDxfId="54">
   <autoFilter ref="A1:M20" xr:uid="{4F3B1065-317B-4BEC-B040-1C2152005517}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M20">
-    <sortCondition ref="B1:B20"/>
+    <sortCondition ref="G1:G20"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="12" xr3:uid="{2C8AA6B6-31D0-4DF0-9DA9-0D8B08088E24}" name="Modulname" totalsRowLabel="Abschlussnote" dataDxfId="25" totalsRowDxfId="12"/>
-    <tableColumn id="1" xr3:uid="{FF50EF13-B9B2-42C9-A37F-07237C42C851}" name="Bereich" dataDxfId="24" totalsRowDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{DE1BE470-5B26-4F88-8799-243B2BE03172}" name="Semester" dataDxfId="23" totalsRowDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{E64020FC-6A5D-4A49-BCE1-C2569FF59159}" name="Schlüssel" dataDxfId="22" totalsRowDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{8470E22C-4CE1-4553-8671-9BF5989AAE65}" name="Prüfungsart" dataDxfId="21" totalsRowDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{CF2D34DC-4E44-45F0-B25E-0FFB229BA18E}" name="LP" dataDxfId="20" totalsRowDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{80506F77-5504-411A-B364-0B22CC53A582}" name="Termin 1" dataDxfId="19" totalsRowDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{C9413F7D-7FA1-417F-B220-3B19C8279173}" name="Ort 1" dataDxfId="18" totalsRowDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{A89D3283-E2AE-4360-9A93-F5F27682296D}" name="Termin 2" dataDxfId="17" totalsRowDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{DDE1A5EF-F94C-417A-95CA-A29D4C689B48}" name="Ort 2" dataDxfId="16" totalsRowDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{A92B3274-FA6A-4C49-87BB-1CF1BAC29EAB}" name="Prüfungstermin" dataDxfId="15" totalsRowDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{F6C0E347-9701-496F-8B92-1BFEDFF8D817}" name="MODULVERANTWORTUNG" dataDxfId="14" totalsRowDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{A9A48352-3929-4E88-AACC-E1A6F11D63E3}" name="Note" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="0">
+    <tableColumn id="12" xr3:uid="{2C8AA6B6-31D0-4DF0-9DA9-0D8B08088E24}" name="Modulname" totalsRowLabel="Abschlussnote" dataDxfId="53" totalsRowDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{FF50EF13-B9B2-42C9-A37F-07237C42C851}" name="Bereich" dataDxfId="52" totalsRowDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{DE1BE470-5B26-4F88-8799-243B2BE03172}" name="Semester" dataDxfId="51" totalsRowDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{E64020FC-6A5D-4A49-BCE1-C2569FF59159}" name="Schlüssel" dataDxfId="50" totalsRowDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{8470E22C-4CE1-4553-8671-9BF5989AAE65}" name="Prüfungsart" dataDxfId="49" totalsRowDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{CF2D34DC-4E44-45F0-B25E-0FFB229BA18E}" name="LP" dataDxfId="48" totalsRowDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{80506F77-5504-411A-B364-0B22CC53A582}" name="Termin 1" dataDxfId="47" totalsRowDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{C9413F7D-7FA1-417F-B220-3B19C8279173}" name="Ort 1" dataDxfId="46" totalsRowDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{A89D3283-E2AE-4360-9A93-F5F27682296D}" name="Termin 2" dataDxfId="45" totalsRowDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{DDE1A5EF-F94C-417A-95CA-A29D4C689B48}" name="Ort 2" dataDxfId="44" totalsRowDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{A92B3274-FA6A-4C49-87BB-1CF1BAC29EAB}" name="Prüfungstermin" dataDxfId="43" totalsRowDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{F6C0E347-9701-496F-8B92-1BFEDFF8D817}" name="MODULVERANTWORTUNG" dataDxfId="42" totalsRowDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{A9A48352-3929-4E88-AACC-E1A6F11D63E3}" name="Note" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="0">
       <totalsRowFormula array="1">SUMPRODUCT(IF(Modulliste[Note]&lt;&gt;"", Modulliste[Note]), Modulliste[LP]) / SUM(IF(Modulliste[Note]&lt;&gt;"", Modulliste[LP]))</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1785,10 +1881,10 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A9" dT="2023-04-18T07:11:20.76" personId="{00CAF5A1-3185-49EF-893A-254A033DD426}" id="{D625988B-FD12-438F-B6F9-40477B429413}">
+  <threadedComment ref="A10" dT="2023-04-18T07:11:20.76" personId="{00CAF5A1-3185-49EF-893A-254A033DD426}" id="{D625988B-FD12-438F-B6F9-40477B429413}">
     <text>wird selten angeboten</text>
   </threadedComment>
-  <threadedComment ref="A11" dT="2023-04-18T07:11:30.60" personId="{00CAF5A1-3185-49EF-893A-254A033DD426}" id="{7AC76FD3-20F0-409E-BCFB-1F3017857D85}">
+  <threadedComment ref="A15" dT="2023-04-18T07:11:30.60" personId="{00CAF5A1-3185-49EF-893A-254A033DD426}" id="{7AC76FD3-20F0-409E-BCFB-1F3017857D85}">
     <text>neues Modul</text>
   </threadedComment>
 </ThreadedComments>
@@ -1800,8 +1896,8 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L12" sqref="L12"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1864,248 +1960,306 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="29"/>
+      <c r="A2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="7">
+        <v>5</v>
+      </c>
+      <c r="G2" s="23">
+        <v>45029</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="23">
+        <v>45061</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="25"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="17" t="s">
+      <c r="A3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="7">
+        <v>5</v>
+      </c>
+      <c r="G3" s="23">
+        <v>45036</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="23">
+        <v>45068</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="25"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="7">
+        <v>5</v>
+      </c>
+      <c r="G4" s="23">
+        <v>45043</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="23">
+        <v>45082</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="25"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="7">
+        <v>5</v>
+      </c>
+      <c r="G5" s="23">
+        <v>45120</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="23">
+        <v>45180</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="23">
+        <v>45229</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="25"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="16" t="s">
+      <c r="D6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F6" s="7">
         <v>5</v>
       </c>
-      <c r="G3" s="18">
-        <v>45299</v>
-      </c>
-      <c r="H3" s="17" t="s">
+      <c r="G6" s="23">
+        <v>45218</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="18">
-        <v>45330</v>
-      </c>
-      <c r="J3" s="17" t="s">
+      <c r="I6" s="23">
+        <v>45250</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" s="26"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="17">
-        <v>5</v>
-      </c>
-      <c r="G4" s="18">
-        <v>45400</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="18">
-        <v>45439</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="M4" s="26"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="17">
-        <v>5</v>
-      </c>
-      <c r="G5" s="18">
-        <v>45400</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="18">
-        <v>45439</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="M5" s="26"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17">
-        <v>5</v>
-      </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="26"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="25"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
+        <v>34</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>27</v>
+      </c>
       <c r="F7" s="17">
-        <v>10</v>
-      </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="17"/>
+        <v>5</v>
+      </c>
+      <c r="G7" s="18">
+        <v>45299</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="18">
+        <v>45330</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
+      <c r="L7" s="17" t="s">
+        <v>40</v>
+      </c>
       <c r="M7" s="26"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17">
-        <v>25</v>
-      </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="26"/>
+      <c r="A8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="7">
+        <v>5</v>
+      </c>
+      <c r="G8" s="23">
+        <v>45320</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="23">
+        <v>45358</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="25"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="19">
+      <c r="A9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="14">
         <v>5</v>
       </c>
-      <c r="G9" s="20">
-        <v>45393</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="20">
-        <v>45425</v>
-      </c>
-      <c r="J9" s="19" t="s">
+      <c r="G9" s="15">
+        <v>45323</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="15">
+        <v>45355</v>
+      </c>
+      <c r="J9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="M9" s="28"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="27"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>50</v>
@@ -2114,142 +2268,142 @@
         <v>51</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="F10" s="19">
         <v>5</v>
       </c>
       <c r="G10" s="20">
-        <v>45488</v>
+        <v>45393</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="I10" s="20">
-        <v>45547</v>
+        <v>45425</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="K10" s="19"/>
       <c r="L10" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" s="28"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="17">
+        <v>5</v>
+      </c>
+      <c r="G11" s="18">
+        <v>45400</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="18">
+        <v>45439</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="M11" s="26"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="17">
+        <v>5</v>
+      </c>
+      <c r="G12" s="18">
+        <v>45481</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="18">
+        <v>45540</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="M12" s="26"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="19">
+        <v>5</v>
+      </c>
+      <c r="G13" s="20">
+        <v>45488</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="20">
+        <v>45547</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="M10" s="28"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="19">
-        <v>5</v>
-      </c>
-      <c r="G11" s="20">
-        <v>45782</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="20">
-        <v>45813</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="M11" s="28"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="14">
-        <v>5</v>
-      </c>
-      <c r="G12" s="15">
-        <v>45323</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="15">
-        <v>45355</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="M12" s="27"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="14">
-        <v>5</v>
-      </c>
-      <c r="G13" s="15">
-        <v>45481</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="15">
-        <v>45540</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="M13" s="27"/>
+      <c r="M13" s="28"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
@@ -2289,232 +2443,172 @@
       <c r="M14" s="27"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="7">
+      <c r="A15" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="19">
         <v>5</v>
       </c>
-      <c r="G15" s="23">
-        <v>45029</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="23">
-        <v>45061</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M15" s="25"/>
+      <c r="G15" s="20">
+        <v>45782</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="20">
+        <v>45813</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="M15" s="28"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="7">
+      <c r="A16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="14">
         <v>5</v>
       </c>
-      <c r="G16" s="23">
-        <v>45036</v>
-      </c>
-      <c r="H16" s="7" t="s">
+      <c r="G16" s="15">
+        <v>45848</v>
+      </c>
+      <c r="H16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="I16" s="23">
-        <v>45068</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M16" s="25"/>
+      <c r="I16" s="15">
+        <v>45901</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" s="27"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="29"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17">
+        <v>5</v>
+      </c>
+      <c r="G18" s="18"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="26"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17">
+        <v>10</v>
+      </c>
+      <c r="G19" s="18">
+        <v>45444</v>
+      </c>
+      <c r="H19" s="17"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="26"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17">
         <v>25</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="7">
-        <v>5</v>
-      </c>
-      <c r="G17" s="23">
-        <v>45043</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" s="23">
-        <v>45082</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M17" s="25"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="7">
-        <v>5</v>
-      </c>
-      <c r="G18" s="23">
-        <v>45120</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="23">
-        <v>45180</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" s="23">
-        <v>45229</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M18" s="25"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="7">
-        <v>5</v>
-      </c>
-      <c r="G19" s="23">
-        <v>45218</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19" s="23">
-        <v>45250</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M19" s="25"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="7">
-        <v>5</v>
-      </c>
-      <c r="G20" s="23">
-        <v>45320</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I20" s="23">
-        <v>45358</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="M20" s="25"/>
+      <c r="G20" s="18">
+        <v>45658</v>
+      </c>
+      <c r="H20" s="17"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="26"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="52" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
@@ -2599,67 +2693,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="56">
+      <c r="A1" s="58">
         <v>2023</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
       <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="57"/>
+      <c r="C3" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="54" t="s">
+      <c r="D3" s="57"/>
+      <c r="E3" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="54" t="s">
+      <c r="F3" s="57"/>
+      <c r="G3" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="54" t="s">
+      <c r="H3" s="57"/>
+      <c r="I3" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="H3" s="55"/>
-      <c r="I3" s="54" t="s">
+      <c r="J3" s="57"/>
+      <c r="K3" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="J3" s="55"/>
-      <c r="K3" s="54" t="s">
+      <c r="L3" s="57"/>
+      <c r="M3" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="L3" s="55"/>
-      <c r="M3" s="54" t="s">
+      <c r="N3" s="57"/>
+      <c r="O3" s="33" t="s">
         <v>87</v>
-      </c>
-      <c r="N3" s="55"/>
-      <c r="O3" s="33" t="s">
-        <v>88</v>
       </c>
       <c r="P3" s="43"/>
       <c r="Q3" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R3" s="43"/>
       <c r="S3" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T3" s="43"/>
       <c r="U3" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V3" s="43"/>
       <c r="W3" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X3" s="43"/>
       <c r="AC3" s="44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2760,7 +2854,7 @@
         <v>45261</v>
       </c>
       <c r="AC4" s="32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
@@ -2801,7 +2895,7 @@
         <v>45048</v>
       </c>
       <c r="J5" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K5" s="37">
         <f t="shared" si="0"/>
@@ -2840,7 +2934,7 @@
         <v>45201</v>
       </c>
       <c r="T5" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U5" s="37">
         <f t="shared" si="0"/>
@@ -2859,14 +2953,14 @@
         <v>45262</v>
       </c>
       <c r="Z5" s="46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AA5" s="47">
         <f>COUNTIF(A4:X34,"U")</f>
         <v>30</v>
       </c>
       <c r="AC5" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2899,14 +2993,14 @@
         <v>45019</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I6" s="37">
         <f t="shared" si="0"/>
         <v>45049</v>
       </c>
       <c r="J6" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K6" s="37">
         <f t="shared" si="0"/>
@@ -2965,7 +3059,7 @@
         <v>45263</v>
       </c>
       <c r="Z6" s="48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA6" s="49">
         <f>30-AA5</f>
@@ -3005,14 +3099,14 @@
         <v>45020</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I7" s="37">
         <f t="shared" si="0"/>
         <v>45050</v>
       </c>
       <c r="J7" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K7" s="37">
         <f t="shared" si="0"/>
@@ -3051,7 +3145,7 @@
         <v>45203</v>
       </c>
       <c r="T7" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U7" s="37">
         <f t="shared" si="0"/>
@@ -3070,7 +3164,7 @@
         <v>45264</v>
       </c>
       <c r="AC7" s="45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
@@ -3103,14 +3197,14 @@
         <v>45021</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I8" s="37">
         <f t="shared" si="0"/>
         <v>45051</v>
       </c>
       <c r="J8" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K8" s="37">
         <f t="shared" si="0"/>
@@ -3149,7 +3243,7 @@
         <v>45204</v>
       </c>
       <c r="T8" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U8" s="37">
         <f t="shared" si="0"/>
@@ -3168,7 +3262,7 @@
         <v>45265</v>
       </c>
       <c r="AC8" s="53" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
@@ -3201,7 +3295,7 @@
         <v>45022</v>
       </c>
       <c r="H9" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I9" s="37">
         <f t="shared" si="0"/>
@@ -3248,7 +3342,7 @@
         <v>45205</v>
       </c>
       <c r="T9" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U9" s="37">
         <f t="shared" si="0"/>
@@ -3313,7 +3407,7 @@
         <v>45084</v>
       </c>
       <c r="L10" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M10" s="37">
         <f t="shared" si="0"/>
@@ -3328,7 +3422,7 @@
         <v>45145</v>
       </c>
       <c r="P10" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q10" s="37">
         <f t="shared" si="0"/>
@@ -3425,7 +3519,7 @@
         <v>45146</v>
       </c>
       <c r="P11" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q11" s="37">
         <f t="shared" si="0"/>
@@ -3506,7 +3600,7 @@
         <v>45086</v>
       </c>
       <c r="L12" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M12" s="37">
         <f t="shared" si="0"/>
@@ -3521,7 +3615,7 @@
         <v>45147</v>
       </c>
       <c r="P12" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q12" s="37">
         <f t="shared" si="0"/>
@@ -3618,7 +3712,7 @@
         <v>45148</v>
       </c>
       <c r="P13" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q13" s="37">
         <f t="shared" si="0"/>
@@ -3715,7 +3809,7 @@
         <v>45149</v>
       </c>
       <c r="P14" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="37">
         <f t="shared" si="0"/>
@@ -4008,14 +4102,14 @@
         <v>45152</v>
       </c>
       <c r="P17" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q17" s="37">
         <f t="shared" si="0"/>
         <v>45183</v>
       </c>
       <c r="R17" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S17" s="37">
         <f t="shared" si="0"/>
@@ -4104,14 +4198,14 @@
         <v>45153</v>
       </c>
       <c r="P18" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q18" s="37">
         <f t="shared" si="0"/>
         <v>45184</v>
       </c>
       <c r="R18" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S18" s="37">
         <f t="shared" si="0"/>
@@ -4200,7 +4294,7 @@
         <v>45154</v>
       </c>
       <c r="P19" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q19" s="37">
         <f t="shared" si="0"/>
@@ -4297,7 +4391,7 @@
         <v>45155</v>
       </c>
       <c r="P20" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q20" s="37">
         <f t="shared" si="0"/>
@@ -4394,7 +4488,7 @@
         <v>45156</v>
       </c>
       <c r="P21" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q21" s="37">
         <f t="shared" ref="Q21:Q34" si="9">IFERROR(IF(MONTH(Q20+1)=MONTH(Q$4),Q20+1,""),"")</f>
@@ -4467,7 +4561,7 @@
         <v>45065</v>
       </c>
       <c r="J22" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K22" s="37">
         <f t="shared" si="6"/>
@@ -5306,7 +5400,7 @@
         <v>45287</v>
       </c>
       <c r="X30" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
@@ -5403,7 +5497,7 @@
         <v>45288</v>
       </c>
       <c r="X31" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
@@ -5500,7 +5594,7 @@
         <v>45289</v>
       </c>
       <c r="X32" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
@@ -5724,16 +5818,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A4:X34">
-    <cfRule type="expression" dxfId="39" priority="2">
+    <cfRule type="expression" dxfId="40" priority="2">
       <formula>OR(A4="F",B4="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="3">
+    <cfRule type="expression" dxfId="39" priority="3">
       <formula>OR(A4="U",B4="U")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="10">
+    <cfRule type="expression" dxfId="38" priority="10">
       <formula>WEEKDAY(A4,2)&gt;5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="1">
+    <cfRule type="expression" dxfId="37" priority="1">
       <formula>TODAY()=A4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5790,7 +5884,7 @@
   <dimension ref="A1:AC37"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="Z23" sqref="Z23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5802,67 +5896,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="56">
+      <c r="A1" s="58">
         <v>2024</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
       <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="57"/>
+      <c r="C3" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="54" t="s">
+      <c r="D3" s="57"/>
+      <c r="E3" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="54" t="s">
+      <c r="F3" s="57"/>
+      <c r="G3" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="54" t="s">
+      <c r="H3" s="57"/>
+      <c r="I3" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="H3" s="55"/>
-      <c r="I3" s="54" t="s">
+      <c r="J3" s="57"/>
+      <c r="K3" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="J3" s="55"/>
-      <c r="K3" s="54" t="s">
+      <c r="L3" s="57"/>
+      <c r="M3" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="L3" s="55"/>
-      <c r="M3" s="54" t="s">
+      <c r="N3" s="57"/>
+      <c r="O3" s="33" t="s">
         <v>87</v>
-      </c>
-      <c r="N3" s="55"/>
-      <c r="O3" s="33" t="s">
-        <v>88</v>
       </c>
       <c r="P3" s="43"/>
       <c r="Q3" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R3" s="43"/>
       <c r="S3" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T3" s="43"/>
       <c r="U3" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V3" s="43"/>
       <c r="W3" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X3" s="43"/>
       <c r="AC3" s="44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5943,7 +6037,7 @@
         <v>45566</v>
       </c>
       <c r="T4" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U4" s="34">
         <f>DATE($A$1,11,1)</f>
@@ -5962,7 +6056,7 @@
         <v>45627</v>
       </c>
       <c r="AC4" s="32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
@@ -5971,7 +6065,7 @@
         <v>45293</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" s="37">
         <f t="shared" ref="C5:C20" si="0">IFERROR(IF(MONTH(C4+1)=MONTH(C$4),C4+1,""),"")</f>
@@ -5994,14 +6088,14 @@
         <v>45384</v>
       </c>
       <c r="H5" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I5" s="37">
         <f t="shared" ref="I5:K5" si="3">IFERROR(IF(MONTH(I4+1)=MONTH(I$4),I4+1,""),"")</f>
         <v>45414</v>
       </c>
       <c r="J5" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K5" s="37">
         <f t="shared" si="3"/>
@@ -6040,7 +6134,7 @@
         <v>45567</v>
       </c>
       <c r="T5" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U5" s="37">
         <f t="shared" si="7"/>
@@ -6059,14 +6153,14 @@
         <v>45628</v>
       </c>
       <c r="Z5" s="46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AA5" s="47">
         <f>COUNTIF(A4:X34,"U")</f>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AC5" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6075,7 +6169,7 @@
         <v>45294</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" s="37">
         <f t="shared" si="0"/>
@@ -6098,14 +6192,14 @@
         <v>45385</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I6" s="37">
         <f t="shared" si="2"/>
         <v>45415</v>
       </c>
       <c r="J6" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K6" s="37">
         <f t="shared" si="2"/>
@@ -6164,11 +6258,11 @@
         <v>45629</v>
       </c>
       <c r="Z6" s="48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA6" s="49">
         <f>30-AA5</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AC6" s="31" t="s">
         <v>27</v>
@@ -6180,7 +6274,7 @@
         <v>45295</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" s="37">
         <f t="shared" si="0"/>
@@ -6203,7 +6297,7 @@
         <v>45386</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I7" s="37">
         <f t="shared" si="2"/>
@@ -6250,7 +6344,7 @@
         <v>45569</v>
       </c>
       <c r="T7" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U7" s="37">
         <f t="shared" si="7"/>
@@ -6269,7 +6363,7 @@
         <v>45630</v>
       </c>
       <c r="AC7" s="45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
@@ -6278,7 +6372,7 @@
         <v>45296</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" s="37">
         <f t="shared" si="0"/>
@@ -6301,7 +6395,7 @@
         <v>45387</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I8" s="37">
         <f t="shared" si="2"/>
@@ -6331,9 +6425,8 @@
         <f t="shared" si="5"/>
         <v>45509</v>
       </c>
-      <c r="P8" s="38" cm="1">
-        <f t="array" ref="P8">IF(SUM(COUNTIF(O8,Feiertage!$B$2:$B$13)),"F",O8)</f>
-        <v>45509</v>
+      <c r="P8" s="38" t="s">
+        <v>94</v>
       </c>
       <c r="Q8" s="37">
         <f t="shared" si="6"/>
@@ -6368,7 +6461,7 @@
         <v>45631</v>
       </c>
       <c r="AC8" s="53" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
@@ -6409,7 +6502,7 @@
         <v>45418</v>
       </c>
       <c r="J9" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K9" s="37">
         <f t="shared" si="2"/>
@@ -6431,9 +6524,8 @@
         <f t="shared" si="5"/>
         <v>45510</v>
       </c>
-      <c r="P9" s="38" cm="1">
-        <f t="array" ref="P9">IF(SUM(COUNTIF(O9,Feiertage!$B$2:$B$13)),"F",O9)</f>
-        <v>45510</v>
+      <c r="P9" s="38" t="s">
+        <v>94</v>
       </c>
       <c r="Q9" s="37">
         <f t="shared" si="6"/>
@@ -6506,7 +6598,7 @@
         <v>45419</v>
       </c>
       <c r="J10" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K10" s="37">
         <f t="shared" si="2"/>
@@ -6528,9 +6620,8 @@
         <f t="shared" si="5"/>
         <v>45511</v>
       </c>
-      <c r="P10" s="38" cm="1">
-        <f t="array" ref="P10">IF(SUM(COUNTIF(O10,Feiertage!$B$2:$B$13)),"F",O10)</f>
-        <v>45511</v>
+      <c r="P10" s="38" t="s">
+        <v>94</v>
       </c>
       <c r="Q10" s="37">
         <f t="shared" si="5"/>
@@ -6603,7 +6694,7 @@
         <v>45420</v>
       </c>
       <c r="J11" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K11" s="37">
         <f t="shared" si="2"/>
@@ -6625,9 +6716,8 @@
         <f t="shared" si="5"/>
         <v>45512</v>
       </c>
-      <c r="P11" s="38" cm="1">
-        <f t="array" ref="P11">IF(SUM(COUNTIF(O11,Feiertage!$B$2:$B$13)),"F",O11)</f>
-        <v>45512</v>
+      <c r="P11" s="38" t="s">
+        <v>94</v>
       </c>
       <c r="Q11" s="37">
         <f t="shared" si="5"/>
@@ -6723,9 +6813,8 @@
         <f t="shared" si="5"/>
         <v>45513</v>
       </c>
-      <c r="P12" s="38" cm="1">
-        <f t="array" ref="P12">IF(SUM(COUNTIF(O12,Feiertage!$B$2:$B$13)),"F",O12)</f>
-        <v>45513</v>
+      <c r="P12" s="38" t="s">
+        <v>94</v>
       </c>
       <c r="Q12" s="37">
         <f t="shared" si="5"/>
@@ -6798,7 +6887,7 @@
         <v>45422</v>
       </c>
       <c r="J13" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K13" s="37">
         <f t="shared" si="2"/>
@@ -8127,7 +8216,7 @@
         <v>45649</v>
       </c>
       <c r="X26" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
@@ -8224,7 +8313,7 @@
         <v>45650</v>
       </c>
       <c r="X27" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
@@ -8517,7 +8606,7 @@
         <v>45653</v>
       </c>
       <c r="X30" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
@@ -8648,7 +8737,7 @@
         <v>45411</v>
       </c>
       <c r="H32" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I32" s="37">
         <f t="shared" si="15"/>
@@ -8745,7 +8834,7 @@
         <v>45412</v>
       </c>
       <c r="H33" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I33" s="37">
         <f t="shared" si="15"/>
@@ -8808,7 +8897,7 @@
         <v>45656</v>
       </c>
       <c r="X33" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8905,7 +8994,7 @@
         <v>45657</v>
       </c>
       <c r="X34" s="41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
@@ -8932,16 +9021,16 @@
     <mergeCell ref="I3:J3"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:X34">
-    <cfRule type="expression" dxfId="32" priority="1">
+    <cfRule type="expression" dxfId="33" priority="1">
       <formula>TODAY()=A4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="2">
+    <cfRule type="expression" dxfId="32" priority="2">
       <formula>OR(A4="F",B4="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="3">
+    <cfRule type="expression" dxfId="31" priority="3">
       <formula>OR(A4="U",B4="U")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="7">
+    <cfRule type="expression" dxfId="30" priority="7">
       <formula>WEEKDAY(A4,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8990,6 +9079,3234 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83829C3-FDA6-4397-84AA-B678000B47C9}">
+  <dimension ref="A1:AC37"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AE32" sqref="AE32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="24" width="7.7109375" customWidth="1"/>
+    <col min="26" max="26" width="22.140625" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A1" s="58">
+        <v>2025</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="AA1" s="1"/>
+    </row>
+    <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="57"/>
+      <c r="C3" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="57"/>
+      <c r="E3" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="57"/>
+      <c r="G3" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="57"/>
+      <c r="I3" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" s="57"/>
+      <c r="K3" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="L3" s="57"/>
+      <c r="M3" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="N3" s="57"/>
+      <c r="O3" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="R3" s="55"/>
+      <c r="S3" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="T3" s="55"/>
+      <c r="U3" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="V3" s="55"/>
+      <c r="W3" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="X3" s="55"/>
+      <c r="AC3" s="44" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="34">
+        <f>DATE($A$1,1,1)</f>
+        <v>45658</v>
+      </c>
+      <c r="B4" s="35" cm="1">
+        <f t="array" ref="B4">IF(SUM(COUNTIF(A4,Feiertage!$B$2:$B$13)),"F",A4)</f>
+        <v>45658</v>
+      </c>
+      <c r="C4" s="34">
+        <f>DATE($A$1,2,1)</f>
+        <v>45689</v>
+      </c>
+      <c r="D4" s="35" cm="1">
+        <f t="array" ref="D4">IF(SUM(COUNTIF(C4,Feiertage!$B$2:$B$13)),"F",C4)</f>
+        <v>45689</v>
+      </c>
+      <c r="E4" s="34">
+        <f>DATE($A$1,3,1)</f>
+        <v>45717</v>
+      </c>
+      <c r="F4" s="35" cm="1">
+        <f t="array" ref="F4">IF(SUM(COUNTIF(E4,Feiertage!$B$2:$B$13)),"F",E4)</f>
+        <v>45717</v>
+      </c>
+      <c r="G4" s="34">
+        <f>DATE($A$1,4,1)</f>
+        <v>45748</v>
+      </c>
+      <c r="H4" s="35" cm="1">
+        <f t="array" ref="H4">IF(SUM(COUNTIF(G4,Feiertage!$B$2:$B$13)),"F",G4)</f>
+        <v>45748</v>
+      </c>
+      <c r="I4" s="34">
+        <f>DATE($A$1,5,1)</f>
+        <v>45778</v>
+      </c>
+      <c r="J4" s="35" cm="1">
+        <f t="array" ref="J4">IF(SUM(COUNTIF(I4,Feiertage!$B$2:$B$13)),"F",I4)</f>
+        <v>45778</v>
+      </c>
+      <c r="K4" s="34">
+        <f>DATE($A$1,6,1)</f>
+        <v>45809</v>
+      </c>
+      <c r="L4" s="35" cm="1">
+        <f t="array" ref="L4">IF(SUM(COUNTIF(K4,Feiertage!$B$2:$B$13)),"F",K4)</f>
+        <v>45809</v>
+      </c>
+      <c r="M4" s="34">
+        <f>DATE($A$1,7,1)</f>
+        <v>45839</v>
+      </c>
+      <c r="N4" s="35" cm="1">
+        <f t="array" ref="N4">IF(SUM(COUNTIF(M4,Feiertage!$B$2:$B$13)),"F",M4)</f>
+        <v>45839</v>
+      </c>
+      <c r="O4" s="34">
+        <f>DATE($A$1,8,1)</f>
+        <v>45870</v>
+      </c>
+      <c r="P4" s="35" cm="1">
+        <f t="array" ref="P4">IF(SUM(COUNTIF(O4,Feiertage!$B$2:$B$13)),"F",O4)</f>
+        <v>45870</v>
+      </c>
+      <c r="Q4" s="34">
+        <f>DATE($A$1,9,1)</f>
+        <v>45901</v>
+      </c>
+      <c r="R4" s="35" cm="1">
+        <f t="array" ref="R4">IF(SUM(COUNTIF(Q4,Feiertage!$B$2:$B$13)),"F",Q4)</f>
+        <v>45901</v>
+      </c>
+      <c r="S4" s="34">
+        <f>DATE($A$1,10,1)</f>
+        <v>45931</v>
+      </c>
+      <c r="T4" s="35" cm="1">
+        <f t="array" ref="T4">IF(SUM(COUNTIF(S4,Feiertage!$B$2:$B$13)),"F",S4)</f>
+        <v>45931</v>
+      </c>
+      <c r="U4" s="34">
+        <f>DATE($A$1,11,1)</f>
+        <v>45962</v>
+      </c>
+      <c r="V4" s="35" cm="1">
+        <f t="array" ref="V4">IF(SUM(COUNTIF(U4,Feiertage!$B$2:$B$13)),"F",U4)</f>
+        <v>45962</v>
+      </c>
+      <c r="W4" s="36">
+        <f>DATE($A$1,12,1)</f>
+        <v>45992</v>
+      </c>
+      <c r="X4" s="35" cm="1">
+        <f t="array" ref="X4">IF(SUM(COUNTIF(W4,Feiertage!$B$2:$B$13)),"F",W4)</f>
+        <v>45992</v>
+      </c>
+      <c r="AC4" s="32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="37">
+        <f>IFERROR(IF(MONTH(A4+1)=MONTH(A$4),A4+1,""),"")</f>
+        <v>45659</v>
+      </c>
+      <c r="B5" s="38" cm="1">
+        <f t="array" ref="B5">IF(SUM(COUNTIF(A5,Feiertage!$B$2:$B$13)),"F",A5)</f>
+        <v>45659</v>
+      </c>
+      <c r="C5" s="37">
+        <f t="shared" ref="C5:C34" si="0">IFERROR(IF(MONTH(C4+1)=MONTH(C$4),C4+1,""),"")</f>
+        <v>45690</v>
+      </c>
+      <c r="D5" s="38" cm="1">
+        <f t="array" ref="D5">IF(SUM(COUNTIF(C5,Feiertage!$B$2:$B$13)),"F",C5)</f>
+        <v>45690</v>
+      </c>
+      <c r="E5" s="37">
+        <f t="shared" ref="E5:E34" si="1">IFERROR(IF(MONTH(E4+1)=MONTH(E$4),E4+1,""),"")</f>
+        <v>45718</v>
+      </c>
+      <c r="F5" s="38" cm="1">
+        <f t="array" ref="F5">IF(SUM(COUNTIF(E5,Feiertage!$B$2:$B$13)),"F",E5)</f>
+        <v>45718</v>
+      </c>
+      <c r="G5" s="37">
+        <f t="shared" ref="G5:M20" si="2">IFERROR(IF(MONTH(G4+1)=MONTH(G$4),G4+1,""),"")</f>
+        <v>45749</v>
+      </c>
+      <c r="H5" s="38" cm="1">
+        <f t="array" ref="H5">IF(SUM(COUNTIF(G5,Feiertage!$B$2:$B$13)),"F",G5)</f>
+        <v>45749</v>
+      </c>
+      <c r="I5" s="37">
+        <f t="shared" ref="I5:K5" si="3">IFERROR(IF(MONTH(I4+1)=MONTH(I$4),I4+1,""),"")</f>
+        <v>45779</v>
+      </c>
+      <c r="J5" s="38" cm="1">
+        <f t="array" ref="J5">IF(SUM(COUNTIF(I5,Feiertage!$B$2:$B$13)),"F",I5)</f>
+        <v>45779</v>
+      </c>
+      <c r="K5" s="37">
+        <f t="shared" si="3"/>
+        <v>45810</v>
+      </c>
+      <c r="L5" s="38" cm="1">
+        <f t="array" ref="L5">IF(SUM(COUNTIF(K5,Feiertage!$B$2:$B$13)),"F",K5)</f>
+        <v>45810</v>
+      </c>
+      <c r="M5" s="37">
+        <f t="shared" ref="M5:M34" si="4">IFERROR(IF(MONTH(M4+1)=MONTH(M$4),M4+1,""),"")</f>
+        <v>45840</v>
+      </c>
+      <c r="N5" s="38" cm="1">
+        <f t="array" ref="N5">IF(SUM(COUNTIF(M5,Feiertage!$B$2:$B$13)),"F",M5)</f>
+        <v>45840</v>
+      </c>
+      <c r="O5" s="37">
+        <f t="shared" ref="O5:S20" si="5">IFERROR(IF(MONTH(O4+1)=MONTH(O$4),O4+1,""),"")</f>
+        <v>45871</v>
+      </c>
+      <c r="P5" s="38" cm="1">
+        <f t="array" ref="P5">IF(SUM(COUNTIF(O5,Feiertage!$B$2:$B$13)),"F",O5)</f>
+        <v>45871</v>
+      </c>
+      <c r="Q5" s="37">
+        <f t="shared" ref="Q5:Q34" si="6">IFERROR(IF(MONTH(Q4+1)=MONTH(Q$4),Q4+1,""),"")</f>
+        <v>45902</v>
+      </c>
+      <c r="R5" s="38" cm="1">
+        <f t="array" ref="R5">IF(SUM(COUNTIF(Q5,Feiertage!$B$2:$B$13)),"F",Q5)</f>
+        <v>45902</v>
+      </c>
+      <c r="S5" s="37">
+        <f t="shared" ref="S5:U20" si="7">IFERROR(IF(MONTH(S4+1)=MONTH(S$4),S4+1,""),"")</f>
+        <v>45932</v>
+      </c>
+      <c r="T5" s="38" cm="1">
+        <f t="array" ref="T5">IF(SUM(COUNTIF(S5,Feiertage!$B$2:$B$13)),"F",S5)</f>
+        <v>45932</v>
+      </c>
+      <c r="U5" s="37">
+        <f t="shared" si="7"/>
+        <v>45963</v>
+      </c>
+      <c r="V5" s="38" cm="1">
+        <f t="array" ref="V5">IF(SUM(COUNTIF(U5,Feiertage!$B$2:$B$13)),"F",U5)</f>
+        <v>45963</v>
+      </c>
+      <c r="W5" s="39">
+        <f t="shared" ref="W5:W34" si="8">IFERROR(IF(MONTH(W4+1)=MONTH(W$4),W4+1,""),"")</f>
+        <v>45993</v>
+      </c>
+      <c r="X5" s="38" cm="1">
+        <f t="array" ref="X5">IF(SUM(COUNTIF(W5,Feiertage!$B$2:$B$13)),"F",W5)</f>
+        <v>45993</v>
+      </c>
+      <c r="Z5" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA5" s="47">
+        <f>COUNTIF(A4:X34,"U")</f>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="37">
+        <f>IFERROR(IF(MONTH(A5+1)=MONTH(A$4),A5+1,""),"")</f>
+        <v>45660</v>
+      </c>
+      <c r="B6" s="38" cm="1">
+        <f t="array" ref="B6">IF(SUM(COUNTIF(A6,Feiertage!$B$2:$B$13)),"F",A6)</f>
+        <v>45660</v>
+      </c>
+      <c r="C6" s="37">
+        <f t="shared" si="0"/>
+        <v>45691</v>
+      </c>
+      <c r="D6" s="38" cm="1">
+        <f t="array" ref="D6">IF(SUM(COUNTIF(C6,Feiertage!$B$2:$B$13)),"F",C6)</f>
+        <v>45691</v>
+      </c>
+      <c r="E6" s="37">
+        <f t="shared" si="1"/>
+        <v>45719</v>
+      </c>
+      <c r="F6" s="38" cm="1">
+        <f t="array" ref="F6">IF(SUM(COUNTIF(E6,Feiertage!$B$2:$B$13)),"F",E6)</f>
+        <v>45719</v>
+      </c>
+      <c r="G6" s="37">
+        <f t="shared" si="2"/>
+        <v>45750</v>
+      </c>
+      <c r="H6" s="38" cm="1">
+        <f t="array" ref="H6">IF(SUM(COUNTIF(G6,Feiertage!$B$2:$B$13)),"F",G6)</f>
+        <v>45750</v>
+      </c>
+      <c r="I6" s="37">
+        <f t="shared" si="2"/>
+        <v>45780</v>
+      </c>
+      <c r="J6" s="38" cm="1">
+        <f t="array" ref="J6">IF(SUM(COUNTIF(I6,Feiertage!$B$2:$B$13)),"F",I6)</f>
+        <v>45780</v>
+      </c>
+      <c r="K6" s="37">
+        <f t="shared" si="2"/>
+        <v>45811</v>
+      </c>
+      <c r="L6" s="38" cm="1">
+        <f t="array" ref="L6">IF(SUM(COUNTIF(K6,Feiertage!$B$2:$B$13)),"F",K6)</f>
+        <v>45811</v>
+      </c>
+      <c r="M6" s="37">
+        <f t="shared" si="4"/>
+        <v>45841</v>
+      </c>
+      <c r="N6" s="38" cm="1">
+        <f t="array" ref="N6">IF(SUM(COUNTIF(M6,Feiertage!$B$2:$B$13)),"F",M6)</f>
+        <v>45841</v>
+      </c>
+      <c r="O6" s="37">
+        <f t="shared" si="5"/>
+        <v>45872</v>
+      </c>
+      <c r="P6" s="38" cm="1">
+        <f t="array" ref="P6">IF(SUM(COUNTIF(O6,Feiertage!$B$2:$B$13)),"F",O6)</f>
+        <v>45872</v>
+      </c>
+      <c r="Q6" s="37">
+        <f t="shared" si="6"/>
+        <v>45903</v>
+      </c>
+      <c r="R6" s="38" cm="1">
+        <f t="array" ref="R6">IF(SUM(COUNTIF(Q6,Feiertage!$B$2:$B$13)),"F",Q6)</f>
+        <v>45903</v>
+      </c>
+      <c r="S6" s="37">
+        <f t="shared" si="7"/>
+        <v>45933</v>
+      </c>
+      <c r="T6" s="38" cm="1">
+        <f t="array" ref="T6">IF(SUM(COUNTIF(S6,Feiertage!$B$2:$B$13)),"F",S6)</f>
+        <v>45933</v>
+      </c>
+      <c r="U6" s="37">
+        <f t="shared" si="7"/>
+        <v>45964</v>
+      </c>
+      <c r="V6" s="38" cm="1">
+        <f t="array" ref="V6">IF(SUM(COUNTIF(U6,Feiertage!$B$2:$B$13)),"F",U6)</f>
+        <v>45964</v>
+      </c>
+      <c r="W6" s="39">
+        <f t="shared" si="8"/>
+        <v>45994</v>
+      </c>
+      <c r="X6" s="38" cm="1">
+        <f t="array" ref="X6">IF(SUM(COUNTIF(W6,Feiertage!$B$2:$B$13)),"F",W6)</f>
+        <v>45994</v>
+      </c>
+      <c r="Z6" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA6" s="49">
+        <f>30-AA5</f>
+        <v>30</v>
+      </c>
+      <c r="AC6" s="31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="37">
+        <f t="shared" ref="A7:A10" si="9">IFERROR(IF(MONTH(A6+1)=MONTH(A$4),A6+1,""),"")</f>
+        <v>45661</v>
+      </c>
+      <c r="B7" s="38" cm="1">
+        <f t="array" ref="B7">IF(SUM(COUNTIF(A7,Feiertage!$B$2:$B$13)),"F",A7)</f>
+        <v>45661</v>
+      </c>
+      <c r="C7" s="37">
+        <f t="shared" si="0"/>
+        <v>45692</v>
+      </c>
+      <c r="D7" s="38" cm="1">
+        <f t="array" ref="D7">IF(SUM(COUNTIF(C7,Feiertage!$B$2:$B$13)),"F",C7)</f>
+        <v>45692</v>
+      </c>
+      <c r="E7" s="37">
+        <f t="shared" si="1"/>
+        <v>45720</v>
+      </c>
+      <c r="F7" s="38" cm="1">
+        <f t="array" ref="F7">IF(SUM(COUNTIF(E7,Feiertage!$B$2:$B$13)),"F",E7)</f>
+        <v>45720</v>
+      </c>
+      <c r="G7" s="37">
+        <f t="shared" si="2"/>
+        <v>45751</v>
+      </c>
+      <c r="H7" s="38" cm="1">
+        <f t="array" ref="H7">IF(SUM(COUNTIF(G7,Feiertage!$B$2:$B$13)),"F",G7)</f>
+        <v>45751</v>
+      </c>
+      <c r="I7" s="37">
+        <f t="shared" si="2"/>
+        <v>45781</v>
+      </c>
+      <c r="J7" s="38" cm="1">
+        <f t="array" ref="J7">IF(SUM(COUNTIF(I7,Feiertage!$B$2:$B$13)),"F",I7)</f>
+        <v>45781</v>
+      </c>
+      <c r="K7" s="37">
+        <f t="shared" si="2"/>
+        <v>45812</v>
+      </c>
+      <c r="L7" s="38" cm="1">
+        <f t="array" ref="L7">IF(SUM(COUNTIF(K7,Feiertage!$B$2:$B$13)),"F",K7)</f>
+        <v>45812</v>
+      </c>
+      <c r="M7" s="37">
+        <f t="shared" si="4"/>
+        <v>45842</v>
+      </c>
+      <c r="N7" s="38" cm="1">
+        <f t="array" ref="N7">IF(SUM(COUNTIF(M7,Feiertage!$B$2:$B$13)),"F",M7)</f>
+        <v>45842</v>
+      </c>
+      <c r="O7" s="37">
+        <f t="shared" si="5"/>
+        <v>45873</v>
+      </c>
+      <c r="P7" s="38" cm="1">
+        <f t="array" ref="P7">IF(SUM(COUNTIF(O7,Feiertage!$B$2:$B$13)),"F",O7)</f>
+        <v>45873</v>
+      </c>
+      <c r="Q7" s="37">
+        <f t="shared" si="6"/>
+        <v>45904</v>
+      </c>
+      <c r="R7" s="38" cm="1">
+        <f t="array" ref="R7">IF(SUM(COUNTIF(Q7,Feiertage!$B$2:$B$13)),"F",Q7)</f>
+        <v>45904</v>
+      </c>
+      <c r="S7" s="37">
+        <f t="shared" si="7"/>
+        <v>45934</v>
+      </c>
+      <c r="T7" s="38" cm="1">
+        <f t="array" ref="T7">IF(SUM(COUNTIF(S7,Feiertage!$B$2:$B$13)),"F",S7)</f>
+        <v>45934</v>
+      </c>
+      <c r="U7" s="37">
+        <f t="shared" si="7"/>
+        <v>45965</v>
+      </c>
+      <c r="V7" s="38" cm="1">
+        <f t="array" ref="V7">IF(SUM(COUNTIF(U7,Feiertage!$B$2:$B$13)),"F",U7)</f>
+        <v>45965</v>
+      </c>
+      <c r="W7" s="39">
+        <f t="shared" si="8"/>
+        <v>45995</v>
+      </c>
+      <c r="X7" s="38" cm="1">
+        <f t="array" ref="X7">IF(SUM(COUNTIF(W7,Feiertage!$B$2:$B$13)),"F",W7)</f>
+        <v>45995</v>
+      </c>
+      <c r="AC7" s="45" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="37">
+        <f t="shared" si="9"/>
+        <v>45662</v>
+      </c>
+      <c r="B8" s="38" cm="1">
+        <f t="array" ref="B8">IF(SUM(COUNTIF(A8,Feiertage!$B$2:$B$13)),"F",A8)</f>
+        <v>45662</v>
+      </c>
+      <c r="C8" s="37">
+        <f t="shared" si="0"/>
+        <v>45693</v>
+      </c>
+      <c r="D8" s="38" cm="1">
+        <f t="array" ref="D8">IF(SUM(COUNTIF(C8,Feiertage!$B$2:$B$13)),"F",C8)</f>
+        <v>45693</v>
+      </c>
+      <c r="E8" s="37">
+        <f t="shared" si="1"/>
+        <v>45721</v>
+      </c>
+      <c r="F8" s="38" cm="1">
+        <f t="array" ref="F8">IF(SUM(COUNTIF(E8,Feiertage!$B$2:$B$13)),"F",E8)</f>
+        <v>45721</v>
+      </c>
+      <c r="G8" s="37">
+        <f t="shared" si="2"/>
+        <v>45752</v>
+      </c>
+      <c r="H8" s="38" cm="1">
+        <f t="array" ref="H8">IF(SUM(COUNTIF(G8,Feiertage!$B$2:$B$13)),"F",G8)</f>
+        <v>45752</v>
+      </c>
+      <c r="I8" s="37">
+        <f t="shared" si="2"/>
+        <v>45782</v>
+      </c>
+      <c r="J8" s="38" cm="1">
+        <f t="array" ref="J8">IF(SUM(COUNTIF(I8,Feiertage!$B$2:$B$13)),"F",I8)</f>
+        <v>45782</v>
+      </c>
+      <c r="K8" s="37">
+        <f t="shared" si="2"/>
+        <v>45813</v>
+      </c>
+      <c r="L8" s="38" cm="1">
+        <f t="array" ref="L8">IF(SUM(COUNTIF(K8,Feiertage!$B$2:$B$13)),"F",K8)</f>
+        <v>45813</v>
+      </c>
+      <c r="M8" s="37">
+        <f t="shared" si="4"/>
+        <v>45843</v>
+      </c>
+      <c r="N8" s="38" cm="1">
+        <f t="array" ref="N8">IF(SUM(COUNTIF(M8,Feiertage!$B$2:$B$13)),"F",M8)</f>
+        <v>45843</v>
+      </c>
+      <c r="O8" s="37">
+        <f t="shared" si="5"/>
+        <v>45874</v>
+      </c>
+      <c r="P8" s="38" cm="1">
+        <f t="array" ref="P8">IF(SUM(COUNTIF(O8,Feiertage!$B$2:$B$13)),"F",O8)</f>
+        <v>45874</v>
+      </c>
+      <c r="Q8" s="37">
+        <f t="shared" si="6"/>
+        <v>45905</v>
+      </c>
+      <c r="R8" s="38" cm="1">
+        <f t="array" ref="R8">IF(SUM(COUNTIF(Q8,Feiertage!$B$2:$B$13)),"F",Q8)</f>
+        <v>45905</v>
+      </c>
+      <c r="S8" s="37">
+        <f t="shared" si="7"/>
+        <v>45935</v>
+      </c>
+      <c r="T8" s="38" cm="1">
+        <f t="array" ref="T8">IF(SUM(COUNTIF(S8,Feiertage!$B$2:$B$13)),"F",S8)</f>
+        <v>45935</v>
+      </c>
+      <c r="U8" s="37">
+        <f t="shared" si="7"/>
+        <v>45966</v>
+      </c>
+      <c r="V8" s="38" cm="1">
+        <f t="array" ref="V8">IF(SUM(COUNTIF(U8,Feiertage!$B$2:$B$13)),"F",U8)</f>
+        <v>45966</v>
+      </c>
+      <c r="W8" s="39">
+        <f t="shared" si="8"/>
+        <v>45996</v>
+      </c>
+      <c r="X8" s="38" cm="1">
+        <f t="array" ref="X8">IF(SUM(COUNTIF(W8,Feiertage!$B$2:$B$13)),"F",W8)</f>
+        <v>45996</v>
+      </c>
+      <c r="AC8" s="53" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="37">
+        <f t="shared" si="9"/>
+        <v>45663</v>
+      </c>
+      <c r="B9" s="38" cm="1">
+        <f t="array" ref="B9">IF(SUM(COUNTIF(A9,Feiertage!$B$2:$B$13)),"F",A9)</f>
+        <v>45663</v>
+      </c>
+      <c r="C9" s="37">
+        <f t="shared" si="0"/>
+        <v>45694</v>
+      </c>
+      <c r="D9" s="38" cm="1">
+        <f t="array" ref="D9">IF(SUM(COUNTIF(C9,Feiertage!$B$2:$B$13)),"F",C9)</f>
+        <v>45694</v>
+      </c>
+      <c r="E9" s="37">
+        <f t="shared" si="1"/>
+        <v>45722</v>
+      </c>
+      <c r="F9" s="38" cm="1">
+        <f t="array" ref="F9">IF(SUM(COUNTIF(E9,Feiertage!$B$2:$B$13)),"F",E9)</f>
+        <v>45722</v>
+      </c>
+      <c r="G9" s="37">
+        <f t="shared" si="2"/>
+        <v>45753</v>
+      </c>
+      <c r="H9" s="38" cm="1">
+        <f t="array" ref="H9">IF(SUM(COUNTIF(G9,Feiertage!$B$2:$B$13)),"F",G9)</f>
+        <v>45753</v>
+      </c>
+      <c r="I9" s="37">
+        <f t="shared" si="2"/>
+        <v>45783</v>
+      </c>
+      <c r="J9" s="38" cm="1">
+        <f t="array" ref="J9">IF(SUM(COUNTIF(I9,Feiertage!$B$2:$B$13)),"F",I9)</f>
+        <v>45783</v>
+      </c>
+      <c r="K9" s="37">
+        <f t="shared" si="2"/>
+        <v>45814</v>
+      </c>
+      <c r="L9" s="38" cm="1">
+        <f t="array" ref="L9">IF(SUM(COUNTIF(K9,Feiertage!$B$2:$B$13)),"F",K9)</f>
+        <v>45814</v>
+      </c>
+      <c r="M9" s="37">
+        <f t="shared" si="4"/>
+        <v>45844</v>
+      </c>
+      <c r="N9" s="38" cm="1">
+        <f t="array" ref="N9">IF(SUM(COUNTIF(M9,Feiertage!$B$2:$B$13)),"F",M9)</f>
+        <v>45844</v>
+      </c>
+      <c r="O9" s="37">
+        <f t="shared" si="5"/>
+        <v>45875</v>
+      </c>
+      <c r="P9" s="38" cm="1">
+        <f t="array" ref="P9">IF(SUM(COUNTIF(O9,Feiertage!$B$2:$B$13)),"F",O9)</f>
+        <v>45875</v>
+      </c>
+      <c r="Q9" s="37">
+        <f t="shared" si="6"/>
+        <v>45906</v>
+      </c>
+      <c r="R9" s="38" cm="1">
+        <f t="array" ref="R9">IF(SUM(COUNTIF(Q9,Feiertage!$B$2:$B$13)),"F",Q9)</f>
+        <v>45906</v>
+      </c>
+      <c r="S9" s="37">
+        <f t="shared" si="7"/>
+        <v>45936</v>
+      </c>
+      <c r="T9" s="38" cm="1">
+        <f t="array" ref="T9">IF(SUM(COUNTIF(S9,Feiertage!$B$2:$B$13)),"F",S9)</f>
+        <v>45936</v>
+      </c>
+      <c r="U9" s="37">
+        <f t="shared" si="7"/>
+        <v>45967</v>
+      </c>
+      <c r="V9" s="38" cm="1">
+        <f t="array" ref="V9">IF(SUM(COUNTIF(U9,Feiertage!$B$2:$B$13)),"F",U9)</f>
+        <v>45967</v>
+      </c>
+      <c r="W9" s="39">
+        <f t="shared" si="8"/>
+        <v>45997</v>
+      </c>
+      <c r="X9" s="38" cm="1">
+        <f t="array" ref="X9">IF(SUM(COUNTIF(W9,Feiertage!$B$2:$B$13)),"F",W9)</f>
+        <v>45997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="37">
+        <f t="shared" si="9"/>
+        <v>45664</v>
+      </c>
+      <c r="B10" s="38" cm="1">
+        <f t="array" ref="B10">IF(SUM(COUNTIF(A10,Feiertage!$B$2:$B$13)),"F",A10)</f>
+        <v>45664</v>
+      </c>
+      <c r="C10" s="37">
+        <f t="shared" si="0"/>
+        <v>45695</v>
+      </c>
+      <c r="D10" s="38" cm="1">
+        <f t="array" ref="D10">IF(SUM(COUNTIF(C10,Feiertage!$B$2:$B$13)),"F",C10)</f>
+        <v>45695</v>
+      </c>
+      <c r="E10" s="37">
+        <f t="shared" si="1"/>
+        <v>45723</v>
+      </c>
+      <c r="F10" s="38" cm="1">
+        <f t="array" ref="F10">IF(SUM(COUNTIF(E10,Feiertage!$B$2:$B$13)),"F",E10)</f>
+        <v>45723</v>
+      </c>
+      <c r="G10" s="37">
+        <f t="shared" si="2"/>
+        <v>45754</v>
+      </c>
+      <c r="H10" s="38" cm="1">
+        <f t="array" ref="H10">IF(SUM(COUNTIF(G10,Feiertage!$B$2:$B$13)),"F",G10)</f>
+        <v>45754</v>
+      </c>
+      <c r="I10" s="37">
+        <f t="shared" si="2"/>
+        <v>45784</v>
+      </c>
+      <c r="J10" s="38" cm="1">
+        <f t="array" ref="J10">IF(SUM(COUNTIF(I10,Feiertage!$B$2:$B$13)),"F",I10)</f>
+        <v>45784</v>
+      </c>
+      <c r="K10" s="37">
+        <f t="shared" si="2"/>
+        <v>45815</v>
+      </c>
+      <c r="L10" s="38" cm="1">
+        <f t="array" ref="L10">IF(SUM(COUNTIF(K10,Feiertage!$B$2:$B$13)),"F",K10)</f>
+        <v>45815</v>
+      </c>
+      <c r="M10" s="37">
+        <f t="shared" si="4"/>
+        <v>45845</v>
+      </c>
+      <c r="N10" s="38" cm="1">
+        <f t="array" ref="N10">IF(SUM(COUNTIF(M10,Feiertage!$B$2:$B$13)),"F",M10)</f>
+        <v>45845</v>
+      </c>
+      <c r="O10" s="37">
+        <f t="shared" si="5"/>
+        <v>45876</v>
+      </c>
+      <c r="P10" s="38" cm="1">
+        <f t="array" ref="P10">IF(SUM(COUNTIF(O10,Feiertage!$B$2:$B$13)),"F",O10)</f>
+        <v>45876</v>
+      </c>
+      <c r="Q10" s="37">
+        <f t="shared" si="6"/>
+        <v>45907</v>
+      </c>
+      <c r="R10" s="38" cm="1">
+        <f t="array" ref="R10">IF(SUM(COUNTIF(Q10,Feiertage!$B$2:$B$13)),"F",Q10)</f>
+        <v>45907</v>
+      </c>
+      <c r="S10" s="37">
+        <f t="shared" si="7"/>
+        <v>45937</v>
+      </c>
+      <c r="T10" s="38" cm="1">
+        <f t="array" ref="T10">IF(SUM(COUNTIF(S10,Feiertage!$B$2:$B$13)),"F",S10)</f>
+        <v>45937</v>
+      </c>
+      <c r="U10" s="37">
+        <f t="shared" si="7"/>
+        <v>45968</v>
+      </c>
+      <c r="V10" s="38" cm="1">
+        <f t="array" ref="V10">IF(SUM(COUNTIF(U10,Feiertage!$B$2:$B$13)),"F",U10)</f>
+        <v>45968</v>
+      </c>
+      <c r="W10" s="39">
+        <f t="shared" si="8"/>
+        <v>45998</v>
+      </c>
+      <c r="X10" s="38" cm="1">
+        <f t="array" ref="X10">IF(SUM(COUNTIF(W10,Feiertage!$B$2:$B$13)),"F",W10)</f>
+        <v>45998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="37">
+        <f>IFERROR(IF(MONTH(A10+1)=MONTH(A$4),A10+1,""),"")</f>
+        <v>45665</v>
+      </c>
+      <c r="B11" s="38" cm="1">
+        <f t="array" ref="B11">IF(SUM(COUNTIF(A11,Feiertage!$B$2:$B$13)),"F",A11)</f>
+        <v>45665</v>
+      </c>
+      <c r="C11" s="37">
+        <f t="shared" si="0"/>
+        <v>45696</v>
+      </c>
+      <c r="D11" s="38" cm="1">
+        <f t="array" ref="D11">IF(SUM(COUNTIF(C11,Feiertage!$B$2:$B$13)),"F",C11)</f>
+        <v>45696</v>
+      </c>
+      <c r="E11" s="37">
+        <f t="shared" si="1"/>
+        <v>45724</v>
+      </c>
+      <c r="F11" s="38" cm="1">
+        <f t="array" ref="F11">IF(SUM(COUNTIF(E11,Feiertage!$B$2:$B$13)),"F",E11)</f>
+        <v>45724</v>
+      </c>
+      <c r="G11" s="37">
+        <f t="shared" si="2"/>
+        <v>45755</v>
+      </c>
+      <c r="H11" s="38" cm="1">
+        <f t="array" ref="H11">IF(SUM(COUNTIF(G11,Feiertage!$B$2:$B$13)),"F",G11)</f>
+        <v>45755</v>
+      </c>
+      <c r="I11" s="37">
+        <f t="shared" si="2"/>
+        <v>45785</v>
+      </c>
+      <c r="J11" s="38" cm="1">
+        <f t="array" ref="J11">IF(SUM(COUNTIF(I11,Feiertage!$B$2:$B$13)),"F",I11)</f>
+        <v>45785</v>
+      </c>
+      <c r="K11" s="37">
+        <f t="shared" si="2"/>
+        <v>45816</v>
+      </c>
+      <c r="L11" s="38" cm="1">
+        <f t="array" ref="L11">IF(SUM(COUNTIF(K11,Feiertage!$B$2:$B$13)),"F",K11)</f>
+        <v>45816</v>
+      </c>
+      <c r="M11" s="37">
+        <f t="shared" si="4"/>
+        <v>45846</v>
+      </c>
+      <c r="N11" s="38" cm="1">
+        <f t="array" ref="N11">IF(SUM(COUNTIF(M11,Feiertage!$B$2:$B$13)),"F",M11)</f>
+        <v>45846</v>
+      </c>
+      <c r="O11" s="37">
+        <f t="shared" si="5"/>
+        <v>45877</v>
+      </c>
+      <c r="P11" s="38" cm="1">
+        <f t="array" ref="P11">IF(SUM(COUNTIF(O11,Feiertage!$B$2:$B$13)),"F",O11)</f>
+        <v>45877</v>
+      </c>
+      <c r="Q11" s="37">
+        <f t="shared" si="6"/>
+        <v>45908</v>
+      </c>
+      <c r="R11" s="38" cm="1">
+        <f t="array" ref="R11">IF(SUM(COUNTIF(Q11,Feiertage!$B$2:$B$13)),"F",Q11)</f>
+        <v>45908</v>
+      </c>
+      <c r="S11" s="37">
+        <f t="shared" si="7"/>
+        <v>45938</v>
+      </c>
+      <c r="T11" s="38" cm="1">
+        <f t="array" ref="T11">IF(SUM(COUNTIF(S11,Feiertage!$B$2:$B$13)),"F",S11)</f>
+        <v>45938</v>
+      </c>
+      <c r="U11" s="37">
+        <f t="shared" si="7"/>
+        <v>45969</v>
+      </c>
+      <c r="V11" s="38" cm="1">
+        <f t="array" ref="V11">IF(SUM(COUNTIF(U11,Feiertage!$B$2:$B$13)),"F",U11)</f>
+        <v>45969</v>
+      </c>
+      <c r="W11" s="39">
+        <f t="shared" si="8"/>
+        <v>45999</v>
+      </c>
+      <c r="X11" s="38" cm="1">
+        <f t="array" ref="X11">IF(SUM(COUNTIF(W11,Feiertage!$B$2:$B$13)),"F",W11)</f>
+        <v>45999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="37">
+        <f t="shared" ref="A12:A16" si="10">IFERROR(IF(MONTH(A11+1)=MONTH(A$4),A11+1,""),"")</f>
+        <v>45666</v>
+      </c>
+      <c r="B12" s="38" cm="1">
+        <f t="array" ref="B12">IF(SUM(COUNTIF(A12,Feiertage!$B$2:$B$13)),"F",A12)</f>
+        <v>45666</v>
+      </c>
+      <c r="C12" s="37">
+        <f t="shared" si="0"/>
+        <v>45697</v>
+      </c>
+      <c r="D12" s="38" cm="1">
+        <f t="array" ref="D12">IF(SUM(COUNTIF(C12,Feiertage!$B$2:$B$13)),"F",C12)</f>
+        <v>45697</v>
+      </c>
+      <c r="E12" s="37">
+        <f t="shared" si="1"/>
+        <v>45725</v>
+      </c>
+      <c r="F12" s="38" cm="1">
+        <f t="array" ref="F12">IF(SUM(COUNTIF(E12,Feiertage!$B$2:$B$13)),"F",E12)</f>
+        <v>45725</v>
+      </c>
+      <c r="G12" s="37">
+        <f t="shared" si="2"/>
+        <v>45756</v>
+      </c>
+      <c r="H12" s="38" cm="1">
+        <f t="array" ref="H12">IF(SUM(COUNTIF(G12,Feiertage!$B$2:$B$13)),"F",G12)</f>
+        <v>45756</v>
+      </c>
+      <c r="I12" s="37">
+        <f t="shared" si="2"/>
+        <v>45786</v>
+      </c>
+      <c r="J12" s="38" cm="1">
+        <f t="array" ref="J12">IF(SUM(COUNTIF(I12,Feiertage!$B$2:$B$13)),"F",I12)</f>
+        <v>45786</v>
+      </c>
+      <c r="K12" s="37">
+        <f t="shared" si="2"/>
+        <v>45817</v>
+      </c>
+      <c r="L12" s="38" cm="1">
+        <f t="array" ref="L12">IF(SUM(COUNTIF(K12,Feiertage!$B$2:$B$13)),"F",K12)</f>
+        <v>45817</v>
+      </c>
+      <c r="M12" s="37">
+        <f t="shared" si="4"/>
+        <v>45847</v>
+      </c>
+      <c r="N12" s="38" cm="1">
+        <f t="array" ref="N12">IF(SUM(COUNTIF(M12,Feiertage!$B$2:$B$13)),"F",M12)</f>
+        <v>45847</v>
+      </c>
+      <c r="O12" s="37">
+        <f t="shared" si="5"/>
+        <v>45878</v>
+      </c>
+      <c r="P12" s="38" cm="1">
+        <f t="array" ref="P12">IF(SUM(COUNTIF(O12,Feiertage!$B$2:$B$13)),"F",O12)</f>
+        <v>45878</v>
+      </c>
+      <c r="Q12" s="37">
+        <f t="shared" si="6"/>
+        <v>45909</v>
+      </c>
+      <c r="R12" s="38" cm="1">
+        <f t="array" ref="R12">IF(SUM(COUNTIF(Q12,Feiertage!$B$2:$B$13)),"F",Q12)</f>
+        <v>45909</v>
+      </c>
+      <c r="S12" s="37">
+        <f t="shared" si="7"/>
+        <v>45939</v>
+      </c>
+      <c r="T12" s="38" cm="1">
+        <f t="array" ref="T12">IF(SUM(COUNTIF(S12,Feiertage!$B$2:$B$13)),"F",S12)</f>
+        <v>45939</v>
+      </c>
+      <c r="U12" s="37">
+        <f t="shared" si="7"/>
+        <v>45970</v>
+      </c>
+      <c r="V12" s="38" cm="1">
+        <f t="array" ref="V12">IF(SUM(COUNTIF(U12,Feiertage!$B$2:$B$13)),"F",U12)</f>
+        <v>45970</v>
+      </c>
+      <c r="W12" s="39">
+        <f t="shared" si="8"/>
+        <v>46000</v>
+      </c>
+      <c r="X12" s="38" cm="1">
+        <f t="array" ref="X12">IF(SUM(COUNTIF(W12,Feiertage!$B$2:$B$13)),"F",W12)</f>
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="37">
+        <f t="shared" si="10"/>
+        <v>45667</v>
+      </c>
+      <c r="B13" s="38" cm="1">
+        <f t="array" ref="B13">IF(SUM(COUNTIF(A13,Feiertage!$B$2:$B$13)),"F",A13)</f>
+        <v>45667</v>
+      </c>
+      <c r="C13" s="37">
+        <f t="shared" si="0"/>
+        <v>45698</v>
+      </c>
+      <c r="D13" s="38" cm="1">
+        <f t="array" ref="D13">IF(SUM(COUNTIF(C13,Feiertage!$B$2:$B$13)),"F",C13)</f>
+        <v>45698</v>
+      </c>
+      <c r="E13" s="37">
+        <f t="shared" si="1"/>
+        <v>45726</v>
+      </c>
+      <c r="F13" s="38" cm="1">
+        <f t="array" ref="F13">IF(SUM(COUNTIF(E13,Feiertage!$B$2:$B$13)),"F",E13)</f>
+        <v>45726</v>
+      </c>
+      <c r="G13" s="37">
+        <f t="shared" si="2"/>
+        <v>45757</v>
+      </c>
+      <c r="H13" s="38" cm="1">
+        <f t="array" ref="H13">IF(SUM(COUNTIF(G13,Feiertage!$B$2:$B$13)),"F",G13)</f>
+        <v>45757</v>
+      </c>
+      <c r="I13" s="37">
+        <f t="shared" si="2"/>
+        <v>45787</v>
+      </c>
+      <c r="J13" s="38" cm="1">
+        <f t="array" ref="J13">IF(SUM(COUNTIF(I13,Feiertage!$B$2:$B$13)),"F",I13)</f>
+        <v>45787</v>
+      </c>
+      <c r="K13" s="37">
+        <f t="shared" si="2"/>
+        <v>45818</v>
+      </c>
+      <c r="L13" s="38" cm="1">
+        <f t="array" ref="L13">IF(SUM(COUNTIF(K13,Feiertage!$B$2:$B$13)),"F",K13)</f>
+        <v>45818</v>
+      </c>
+      <c r="M13" s="37">
+        <f t="shared" si="4"/>
+        <v>45848</v>
+      </c>
+      <c r="N13" s="38" cm="1">
+        <f t="array" ref="N13">IF(SUM(COUNTIF(M13,Feiertage!$B$2:$B$13)),"F",M13)</f>
+        <v>45848</v>
+      </c>
+      <c r="O13" s="37">
+        <f t="shared" si="5"/>
+        <v>45879</v>
+      </c>
+      <c r="P13" s="38" cm="1">
+        <f t="array" ref="P13">IF(SUM(COUNTIF(O13,Feiertage!$B$2:$B$13)),"F",O13)</f>
+        <v>45879</v>
+      </c>
+      <c r="Q13" s="37">
+        <f t="shared" si="6"/>
+        <v>45910</v>
+      </c>
+      <c r="R13" s="38" cm="1">
+        <f t="array" ref="R13">IF(SUM(COUNTIF(Q13,Feiertage!$B$2:$B$13)),"F",Q13)</f>
+        <v>45910</v>
+      </c>
+      <c r="S13" s="37">
+        <f t="shared" si="7"/>
+        <v>45940</v>
+      </c>
+      <c r="T13" s="38" cm="1">
+        <f t="array" ref="T13">IF(SUM(COUNTIF(S13,Feiertage!$B$2:$B$13)),"F",S13)</f>
+        <v>45940</v>
+      </c>
+      <c r="U13" s="37">
+        <f t="shared" si="7"/>
+        <v>45971</v>
+      </c>
+      <c r="V13" s="38" cm="1">
+        <f t="array" ref="V13">IF(SUM(COUNTIF(U13,Feiertage!$B$2:$B$13)),"F",U13)</f>
+        <v>45971</v>
+      </c>
+      <c r="W13" s="39">
+        <f t="shared" si="8"/>
+        <v>46001</v>
+      </c>
+      <c r="X13" s="38" cm="1">
+        <f t="array" ref="X13">IF(SUM(COUNTIF(W13,Feiertage!$B$2:$B$13)),"F",W13)</f>
+        <v>46001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="37">
+        <f t="shared" si="10"/>
+        <v>45668</v>
+      </c>
+      <c r="B14" s="38" cm="1">
+        <f t="array" ref="B14">IF(SUM(COUNTIF(A14,Feiertage!$B$2:$B$13)),"F",A14)</f>
+        <v>45668</v>
+      </c>
+      <c r="C14" s="37">
+        <f t="shared" si="0"/>
+        <v>45699</v>
+      </c>
+      <c r="D14" s="38" cm="1">
+        <f t="array" ref="D14">IF(SUM(COUNTIF(C14,Feiertage!$B$2:$B$13)),"F",C14)</f>
+        <v>45699</v>
+      </c>
+      <c r="E14" s="37">
+        <f t="shared" si="1"/>
+        <v>45727</v>
+      </c>
+      <c r="F14" s="38" cm="1">
+        <f t="array" ref="F14">IF(SUM(COUNTIF(E14,Feiertage!$B$2:$B$13)),"F",E14)</f>
+        <v>45727</v>
+      </c>
+      <c r="G14" s="37">
+        <f t="shared" si="2"/>
+        <v>45758</v>
+      </c>
+      <c r="H14" s="38" cm="1">
+        <f t="array" ref="H14">IF(SUM(COUNTIF(G14,Feiertage!$B$2:$B$13)),"F",G14)</f>
+        <v>45758</v>
+      </c>
+      <c r="I14" s="37">
+        <f t="shared" si="2"/>
+        <v>45788</v>
+      </c>
+      <c r="J14" s="38" cm="1">
+        <f t="array" ref="J14">IF(SUM(COUNTIF(I14,Feiertage!$B$2:$B$13)),"F",I14)</f>
+        <v>45788</v>
+      </c>
+      <c r="K14" s="37">
+        <f t="shared" si="2"/>
+        <v>45819</v>
+      </c>
+      <c r="L14" s="38" cm="1">
+        <f t="array" ref="L14">IF(SUM(COUNTIF(K14,Feiertage!$B$2:$B$13)),"F",K14)</f>
+        <v>45819</v>
+      </c>
+      <c r="M14" s="37">
+        <f t="shared" si="4"/>
+        <v>45849</v>
+      </c>
+      <c r="N14" s="38" cm="1">
+        <f t="array" ref="N14">IF(SUM(COUNTIF(M14,Feiertage!$B$2:$B$13)),"F",M14)</f>
+        <v>45849</v>
+      </c>
+      <c r="O14" s="37">
+        <f t="shared" si="5"/>
+        <v>45880</v>
+      </c>
+      <c r="P14" s="38" cm="1">
+        <f t="array" ref="P14">IF(SUM(COUNTIF(O14,Feiertage!$B$2:$B$13)),"F",O14)</f>
+        <v>45880</v>
+      </c>
+      <c r="Q14" s="37">
+        <f t="shared" si="6"/>
+        <v>45911</v>
+      </c>
+      <c r="R14" s="38" cm="1">
+        <f t="array" ref="R14">IF(SUM(COUNTIF(Q14,Feiertage!$B$2:$B$13)),"F",Q14)</f>
+        <v>45911</v>
+      </c>
+      <c r="S14" s="37">
+        <f t="shared" si="7"/>
+        <v>45941</v>
+      </c>
+      <c r="T14" s="38" cm="1">
+        <f t="array" ref="T14">IF(SUM(COUNTIF(S14,Feiertage!$B$2:$B$13)),"F",S14)</f>
+        <v>45941</v>
+      </c>
+      <c r="U14" s="37">
+        <f t="shared" si="7"/>
+        <v>45972</v>
+      </c>
+      <c r="V14" s="38" cm="1">
+        <f t="array" ref="V14">IF(SUM(COUNTIF(U14,Feiertage!$B$2:$B$13)),"F",U14)</f>
+        <v>45972</v>
+      </c>
+      <c r="W14" s="39">
+        <f t="shared" si="8"/>
+        <v>46002</v>
+      </c>
+      <c r="X14" s="38" cm="1">
+        <f t="array" ref="X14">IF(SUM(COUNTIF(W14,Feiertage!$B$2:$B$13)),"F",W14)</f>
+        <v>46002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="37">
+        <f t="shared" si="10"/>
+        <v>45669</v>
+      </c>
+      <c r="B15" s="38" cm="1">
+        <f t="array" ref="B15">IF(SUM(COUNTIF(A15,Feiertage!$B$2:$B$13)),"F",A15)</f>
+        <v>45669</v>
+      </c>
+      <c r="C15" s="37">
+        <f t="shared" si="0"/>
+        <v>45700</v>
+      </c>
+      <c r="D15" s="38" cm="1">
+        <f t="array" ref="D15">IF(SUM(COUNTIF(C15,Feiertage!$B$2:$B$13)),"F",C15)</f>
+        <v>45700</v>
+      </c>
+      <c r="E15" s="37">
+        <f t="shared" si="1"/>
+        <v>45728</v>
+      </c>
+      <c r="F15" s="38" cm="1">
+        <f t="array" ref="F15">IF(SUM(COUNTIF(E15,Feiertage!$B$2:$B$13)),"F",E15)</f>
+        <v>45728</v>
+      </c>
+      <c r="G15" s="37">
+        <f t="shared" si="2"/>
+        <v>45759</v>
+      </c>
+      <c r="H15" s="38" cm="1">
+        <f t="array" ref="H15">IF(SUM(COUNTIF(G15,Feiertage!$B$2:$B$13)),"F",G15)</f>
+        <v>45759</v>
+      </c>
+      <c r="I15" s="37">
+        <f t="shared" si="2"/>
+        <v>45789</v>
+      </c>
+      <c r="J15" s="38" cm="1">
+        <f t="array" ref="J15">IF(SUM(COUNTIF(I15,Feiertage!$B$2:$B$13)),"F",I15)</f>
+        <v>45789</v>
+      </c>
+      <c r="K15" s="37">
+        <f t="shared" si="2"/>
+        <v>45820</v>
+      </c>
+      <c r="L15" s="38" cm="1">
+        <f t="array" ref="L15">IF(SUM(COUNTIF(K15,Feiertage!$B$2:$B$13)),"F",K15)</f>
+        <v>45820</v>
+      </c>
+      <c r="M15" s="37">
+        <f t="shared" si="4"/>
+        <v>45850</v>
+      </c>
+      <c r="N15" s="38" cm="1">
+        <f t="array" ref="N15">IF(SUM(COUNTIF(M15,Feiertage!$B$2:$B$13)),"F",M15)</f>
+        <v>45850</v>
+      </c>
+      <c r="O15" s="37">
+        <f t="shared" si="5"/>
+        <v>45881</v>
+      </c>
+      <c r="P15" s="38" cm="1">
+        <f t="array" ref="P15">IF(SUM(COUNTIF(O15,Feiertage!$B$2:$B$13)),"F",O15)</f>
+        <v>45881</v>
+      </c>
+      <c r="Q15" s="37">
+        <f t="shared" si="6"/>
+        <v>45912</v>
+      </c>
+      <c r="R15" s="38" cm="1">
+        <f t="array" ref="R15">IF(SUM(COUNTIF(Q15,Feiertage!$B$2:$B$13)),"F",Q15)</f>
+        <v>45912</v>
+      </c>
+      <c r="S15" s="37">
+        <f t="shared" si="7"/>
+        <v>45942</v>
+      </c>
+      <c r="T15" s="38" cm="1">
+        <f t="array" ref="T15">IF(SUM(COUNTIF(S15,Feiertage!$B$2:$B$13)),"F",S15)</f>
+        <v>45942</v>
+      </c>
+      <c r="U15" s="37">
+        <f t="shared" si="7"/>
+        <v>45973</v>
+      </c>
+      <c r="V15" s="38" cm="1">
+        <f t="array" ref="V15">IF(SUM(COUNTIF(U15,Feiertage!$B$2:$B$13)),"F",U15)</f>
+        <v>45973</v>
+      </c>
+      <c r="W15" s="39">
+        <f t="shared" si="8"/>
+        <v>46003</v>
+      </c>
+      <c r="X15" s="38" cm="1">
+        <f t="array" ref="X15">IF(SUM(COUNTIF(W15,Feiertage!$B$2:$B$13)),"F",W15)</f>
+        <v>46003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="37">
+        <f t="shared" si="10"/>
+        <v>45670</v>
+      </c>
+      <c r="B16" s="38" cm="1">
+        <f t="array" ref="B16">IF(SUM(COUNTIF(A16,Feiertage!$B$2:$B$13)),"F",A16)</f>
+        <v>45670</v>
+      </c>
+      <c r="C16" s="37">
+        <f t="shared" si="0"/>
+        <v>45701</v>
+      </c>
+      <c r="D16" s="38" cm="1">
+        <f t="array" ref="D16">IF(SUM(COUNTIF(C16,Feiertage!$B$2:$B$13)),"F",C16)</f>
+        <v>45701</v>
+      </c>
+      <c r="E16" s="37">
+        <f t="shared" si="1"/>
+        <v>45729</v>
+      </c>
+      <c r="F16" s="38" cm="1">
+        <f t="array" ref="F16">IF(SUM(COUNTIF(E16,Feiertage!$B$2:$B$13)),"F",E16)</f>
+        <v>45729</v>
+      </c>
+      <c r="G16" s="37">
+        <f t="shared" si="2"/>
+        <v>45760</v>
+      </c>
+      <c r="H16" s="38" cm="1">
+        <f t="array" ref="H16">IF(SUM(COUNTIF(G16,Feiertage!$B$2:$B$13)),"F",G16)</f>
+        <v>45760</v>
+      </c>
+      <c r="I16" s="37">
+        <f t="shared" si="2"/>
+        <v>45790</v>
+      </c>
+      <c r="J16" s="38" cm="1">
+        <f t="array" ref="J16">IF(SUM(COUNTIF(I16,Feiertage!$B$2:$B$13)),"F",I16)</f>
+        <v>45790</v>
+      </c>
+      <c r="K16" s="37">
+        <f t="shared" si="2"/>
+        <v>45821</v>
+      </c>
+      <c r="L16" s="38" cm="1">
+        <f t="array" ref="L16">IF(SUM(COUNTIF(K16,Feiertage!$B$2:$B$13)),"F",K16)</f>
+        <v>45821</v>
+      </c>
+      <c r="M16" s="37">
+        <f t="shared" si="4"/>
+        <v>45851</v>
+      </c>
+      <c r="N16" s="38" cm="1">
+        <f t="array" ref="N16">IF(SUM(COUNTIF(M16,Feiertage!$B$2:$B$13)),"F",M16)</f>
+        <v>45851</v>
+      </c>
+      <c r="O16" s="37">
+        <f t="shared" si="5"/>
+        <v>45882</v>
+      </c>
+      <c r="P16" s="38" cm="1">
+        <f t="array" ref="P16">IF(SUM(COUNTIF(O16,Feiertage!$B$2:$B$13)),"F",O16)</f>
+        <v>45882</v>
+      </c>
+      <c r="Q16" s="37">
+        <f t="shared" si="6"/>
+        <v>45913</v>
+      </c>
+      <c r="R16" s="38" cm="1">
+        <f t="array" ref="R16">IF(SUM(COUNTIF(Q16,Feiertage!$B$2:$B$13)),"F",Q16)</f>
+        <v>45913</v>
+      </c>
+      <c r="S16" s="37">
+        <f t="shared" si="7"/>
+        <v>45943</v>
+      </c>
+      <c r="T16" s="38" cm="1">
+        <f t="array" ref="T16">IF(SUM(COUNTIF(S16,Feiertage!$B$2:$B$13)),"F",S16)</f>
+        <v>45943</v>
+      </c>
+      <c r="U16" s="37">
+        <f t="shared" si="7"/>
+        <v>45974</v>
+      </c>
+      <c r="V16" s="38" cm="1">
+        <f t="array" ref="V16">IF(SUM(COUNTIF(U16,Feiertage!$B$2:$B$13)),"F",U16)</f>
+        <v>45974</v>
+      </c>
+      <c r="W16" s="39">
+        <f t="shared" si="8"/>
+        <v>46004</v>
+      </c>
+      <c r="X16" s="38" cm="1">
+        <f t="array" ref="X16">IF(SUM(COUNTIF(W16,Feiertage!$B$2:$B$13)),"F",W16)</f>
+        <v>46004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="37">
+        <f>IFERROR(IF(MONTH(A16+1)=MONTH(A$4),A16+1,""),"")</f>
+        <v>45671</v>
+      </c>
+      <c r="B17" s="38" cm="1">
+        <f t="array" ref="B17">IF(SUM(COUNTIF(A17,Feiertage!$B$2:$B$13)),"F",A17)</f>
+        <v>45671</v>
+      </c>
+      <c r="C17" s="37">
+        <f t="shared" si="0"/>
+        <v>45702</v>
+      </c>
+      <c r="D17" s="38" cm="1">
+        <f t="array" ref="D17">IF(SUM(COUNTIF(C17,Feiertage!$B$2:$B$13)),"F",C17)</f>
+        <v>45702</v>
+      </c>
+      <c r="E17" s="37">
+        <f t="shared" si="1"/>
+        <v>45730</v>
+      </c>
+      <c r="F17" s="38" cm="1">
+        <f t="array" ref="F17">IF(SUM(COUNTIF(E17,Feiertage!$B$2:$B$13)),"F",E17)</f>
+        <v>45730</v>
+      </c>
+      <c r="G17" s="37">
+        <f t="shared" si="2"/>
+        <v>45761</v>
+      </c>
+      <c r="H17" s="38" cm="1">
+        <f t="array" ref="H17">IF(SUM(COUNTIF(G17,Feiertage!$B$2:$B$13)),"F",G17)</f>
+        <v>45761</v>
+      </c>
+      <c r="I17" s="37">
+        <f t="shared" si="2"/>
+        <v>45791</v>
+      </c>
+      <c r="J17" s="38" cm="1">
+        <f t="array" ref="J17">IF(SUM(COUNTIF(I17,Feiertage!$B$2:$B$13)),"F",I17)</f>
+        <v>45791</v>
+      </c>
+      <c r="K17" s="37">
+        <f t="shared" si="2"/>
+        <v>45822</v>
+      </c>
+      <c r="L17" s="38" cm="1">
+        <f t="array" ref="L17">IF(SUM(COUNTIF(K17,Feiertage!$B$2:$B$13)),"F",K17)</f>
+        <v>45822</v>
+      </c>
+      <c r="M17" s="37">
+        <f t="shared" si="4"/>
+        <v>45852</v>
+      </c>
+      <c r="N17" s="38" cm="1">
+        <f t="array" ref="N17">IF(SUM(COUNTIF(M17,Feiertage!$B$2:$B$13)),"F",M17)</f>
+        <v>45852</v>
+      </c>
+      <c r="O17" s="37">
+        <f t="shared" si="5"/>
+        <v>45883</v>
+      </c>
+      <c r="P17" s="38" cm="1">
+        <f t="array" ref="P17">IF(SUM(COUNTIF(O17,Feiertage!$B$2:$B$13)),"F",O17)</f>
+        <v>45883</v>
+      </c>
+      <c r="Q17" s="37">
+        <f t="shared" si="6"/>
+        <v>45914</v>
+      </c>
+      <c r="R17" s="38" cm="1">
+        <f t="array" ref="R17">IF(SUM(COUNTIF(Q17,Feiertage!$B$2:$B$13)),"F",Q17)</f>
+        <v>45914</v>
+      </c>
+      <c r="S17" s="37">
+        <f t="shared" si="7"/>
+        <v>45944</v>
+      </c>
+      <c r="T17" s="38" cm="1">
+        <f t="array" ref="T17">IF(SUM(COUNTIF(S17,Feiertage!$B$2:$B$13)),"F",S17)</f>
+        <v>45944</v>
+      </c>
+      <c r="U17" s="37">
+        <f t="shared" si="7"/>
+        <v>45975</v>
+      </c>
+      <c r="V17" s="38" cm="1">
+        <f t="array" ref="V17">IF(SUM(COUNTIF(U17,Feiertage!$B$2:$B$13)),"F",U17)</f>
+        <v>45975</v>
+      </c>
+      <c r="W17" s="39">
+        <f t="shared" si="8"/>
+        <v>46005</v>
+      </c>
+      <c r="X17" s="38" cm="1">
+        <f t="array" ref="X17">IF(SUM(COUNTIF(W17,Feiertage!$B$2:$B$13)),"F",W17)</f>
+        <v>46005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="37">
+        <f t="shared" ref="A18:A22" si="11">IFERROR(IF(MONTH(A17+1)=MONTH(A$4),A17+1,""),"")</f>
+        <v>45672</v>
+      </c>
+      <c r="B18" s="38" cm="1">
+        <f t="array" ref="B18">IF(SUM(COUNTIF(A18,Feiertage!$B$2:$B$13)),"F",A18)</f>
+        <v>45672</v>
+      </c>
+      <c r="C18" s="37">
+        <f t="shared" si="0"/>
+        <v>45703</v>
+      </c>
+      <c r="D18" s="38" cm="1">
+        <f t="array" ref="D18">IF(SUM(COUNTIF(C18,Feiertage!$B$2:$B$13)),"F",C18)</f>
+        <v>45703</v>
+      </c>
+      <c r="E18" s="37">
+        <f t="shared" si="1"/>
+        <v>45731</v>
+      </c>
+      <c r="F18" s="38" cm="1">
+        <f t="array" ref="F18">IF(SUM(COUNTIF(E18,Feiertage!$B$2:$B$13)),"F",E18)</f>
+        <v>45731</v>
+      </c>
+      <c r="G18" s="37">
+        <f t="shared" si="2"/>
+        <v>45762</v>
+      </c>
+      <c r="H18" s="38" cm="1">
+        <f t="array" ref="H18">IF(SUM(COUNTIF(G18,Feiertage!$B$2:$B$13)),"F",G18)</f>
+        <v>45762</v>
+      </c>
+      <c r="I18" s="37">
+        <f t="shared" si="2"/>
+        <v>45792</v>
+      </c>
+      <c r="J18" s="38" cm="1">
+        <f t="array" ref="J18">IF(SUM(COUNTIF(I18,Feiertage!$B$2:$B$13)),"F",I18)</f>
+        <v>45792</v>
+      </c>
+      <c r="K18" s="37">
+        <f t="shared" si="2"/>
+        <v>45823</v>
+      </c>
+      <c r="L18" s="38" cm="1">
+        <f t="array" ref="L18">IF(SUM(COUNTIF(K18,Feiertage!$B$2:$B$13)),"F",K18)</f>
+        <v>45823</v>
+      </c>
+      <c r="M18" s="37">
+        <f t="shared" si="4"/>
+        <v>45853</v>
+      </c>
+      <c r="N18" s="38" cm="1">
+        <f t="array" ref="N18">IF(SUM(COUNTIF(M18,Feiertage!$B$2:$B$13)),"F",M18)</f>
+        <v>45853</v>
+      </c>
+      <c r="O18" s="37">
+        <f t="shared" si="5"/>
+        <v>45884</v>
+      </c>
+      <c r="P18" s="38" cm="1">
+        <f t="array" ref="P18">IF(SUM(COUNTIF(O18,Feiertage!$B$2:$B$13)),"F",O18)</f>
+        <v>45884</v>
+      </c>
+      <c r="Q18" s="37">
+        <f t="shared" si="6"/>
+        <v>45915</v>
+      </c>
+      <c r="R18" s="38" cm="1">
+        <f t="array" ref="R18">IF(SUM(COUNTIF(Q18,Feiertage!$B$2:$B$13)),"F",Q18)</f>
+        <v>45915</v>
+      </c>
+      <c r="S18" s="37">
+        <f t="shared" si="7"/>
+        <v>45945</v>
+      </c>
+      <c r="T18" s="38" cm="1">
+        <f t="array" ref="T18">IF(SUM(COUNTIF(S18,Feiertage!$B$2:$B$13)),"F",S18)</f>
+        <v>45945</v>
+      </c>
+      <c r="U18" s="37">
+        <f t="shared" si="7"/>
+        <v>45976</v>
+      </c>
+      <c r="V18" s="38" cm="1">
+        <f t="array" ref="V18">IF(SUM(COUNTIF(U18,Feiertage!$B$2:$B$13)),"F",U18)</f>
+        <v>45976</v>
+      </c>
+      <c r="W18" s="39">
+        <f t="shared" si="8"/>
+        <v>46006</v>
+      </c>
+      <c r="X18" s="38" cm="1">
+        <f t="array" ref="X18">IF(SUM(COUNTIF(W18,Feiertage!$B$2:$B$13)),"F",W18)</f>
+        <v>46006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="37">
+        <f t="shared" si="11"/>
+        <v>45673</v>
+      </c>
+      <c r="B19" s="38" cm="1">
+        <f t="array" ref="B19">IF(SUM(COUNTIF(A19,Feiertage!$B$2:$B$13)),"F",A19)</f>
+        <v>45673</v>
+      </c>
+      <c r="C19" s="37">
+        <f t="shared" si="0"/>
+        <v>45704</v>
+      </c>
+      <c r="D19" s="38" cm="1">
+        <f t="array" ref="D19">IF(SUM(COUNTIF(C19,Feiertage!$B$2:$B$13)),"F",C19)</f>
+        <v>45704</v>
+      </c>
+      <c r="E19" s="37">
+        <f t="shared" si="1"/>
+        <v>45732</v>
+      </c>
+      <c r="F19" s="38" cm="1">
+        <f t="array" ref="F19">IF(SUM(COUNTIF(E19,Feiertage!$B$2:$B$13)),"F",E19)</f>
+        <v>45732</v>
+      </c>
+      <c r="G19" s="37">
+        <f t="shared" si="2"/>
+        <v>45763</v>
+      </c>
+      <c r="H19" s="38" cm="1">
+        <f t="array" ref="H19">IF(SUM(COUNTIF(G19,Feiertage!$B$2:$B$13)),"F",G19)</f>
+        <v>45763</v>
+      </c>
+      <c r="I19" s="37">
+        <f t="shared" si="2"/>
+        <v>45793</v>
+      </c>
+      <c r="J19" s="38" cm="1">
+        <f t="array" ref="J19">IF(SUM(COUNTIF(I19,Feiertage!$B$2:$B$13)),"F",I19)</f>
+        <v>45793</v>
+      </c>
+      <c r="K19" s="37">
+        <f t="shared" si="2"/>
+        <v>45824</v>
+      </c>
+      <c r="L19" s="38" cm="1">
+        <f t="array" ref="L19">IF(SUM(COUNTIF(K19,Feiertage!$B$2:$B$13)),"F",K19)</f>
+        <v>45824</v>
+      </c>
+      <c r="M19" s="37">
+        <f t="shared" si="4"/>
+        <v>45854</v>
+      </c>
+      <c r="N19" s="38" cm="1">
+        <f t="array" ref="N19">IF(SUM(COUNTIF(M19,Feiertage!$B$2:$B$13)),"F",M19)</f>
+        <v>45854</v>
+      </c>
+      <c r="O19" s="37">
+        <f t="shared" si="5"/>
+        <v>45885</v>
+      </c>
+      <c r="P19" s="38" cm="1">
+        <f t="array" ref="P19">IF(SUM(COUNTIF(O19,Feiertage!$B$2:$B$13)),"F",O19)</f>
+        <v>45885</v>
+      </c>
+      <c r="Q19" s="37">
+        <f t="shared" si="6"/>
+        <v>45916</v>
+      </c>
+      <c r="R19" s="38" cm="1">
+        <f t="array" ref="R19">IF(SUM(COUNTIF(Q19,Feiertage!$B$2:$B$13)),"F",Q19)</f>
+        <v>45916</v>
+      </c>
+      <c r="S19" s="37">
+        <f t="shared" si="7"/>
+        <v>45946</v>
+      </c>
+      <c r="T19" s="38" cm="1">
+        <f t="array" ref="T19">IF(SUM(COUNTIF(S19,Feiertage!$B$2:$B$13)),"F",S19)</f>
+        <v>45946</v>
+      </c>
+      <c r="U19" s="37">
+        <f t="shared" si="7"/>
+        <v>45977</v>
+      </c>
+      <c r="V19" s="38" cm="1">
+        <f t="array" ref="V19">IF(SUM(COUNTIF(U19,Feiertage!$B$2:$B$13)),"F",U19)</f>
+        <v>45977</v>
+      </c>
+      <c r="W19" s="39">
+        <f t="shared" si="8"/>
+        <v>46007</v>
+      </c>
+      <c r="X19" s="38" cm="1">
+        <f t="array" ref="X19">IF(SUM(COUNTIF(W19,Feiertage!$B$2:$B$13)),"F",W19)</f>
+        <v>46007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="37">
+        <f t="shared" si="11"/>
+        <v>45674</v>
+      </c>
+      <c r="B20" s="38" cm="1">
+        <f t="array" ref="B20">IF(SUM(COUNTIF(A20,Feiertage!$B$2:$B$13)),"F",A20)</f>
+        <v>45674</v>
+      </c>
+      <c r="C20" s="37">
+        <f t="shared" si="0"/>
+        <v>45705</v>
+      </c>
+      <c r="D20" s="38" cm="1">
+        <f t="array" ref="D20">IF(SUM(COUNTIF(C20,Feiertage!$B$2:$B$13)),"F",C20)</f>
+        <v>45705</v>
+      </c>
+      <c r="E20" s="37">
+        <f t="shared" si="1"/>
+        <v>45733</v>
+      </c>
+      <c r="F20" s="38" cm="1">
+        <f t="array" ref="F20">IF(SUM(COUNTIF(E20,Feiertage!$B$2:$B$13)),"F",E20)</f>
+        <v>45733</v>
+      </c>
+      <c r="G20" s="37">
+        <f t="shared" si="2"/>
+        <v>45764</v>
+      </c>
+      <c r="H20" s="38" cm="1">
+        <f t="array" ref="H20">IF(SUM(COUNTIF(G20,Feiertage!$B$2:$B$13)),"F",G20)</f>
+        <v>45764</v>
+      </c>
+      <c r="I20" s="37">
+        <f t="shared" si="2"/>
+        <v>45794</v>
+      </c>
+      <c r="J20" s="38" cm="1">
+        <f t="array" ref="J20">IF(SUM(COUNTIF(I20,Feiertage!$B$2:$B$13)),"F",I20)</f>
+        <v>45794</v>
+      </c>
+      <c r="K20" s="37">
+        <f t="shared" si="2"/>
+        <v>45825</v>
+      </c>
+      <c r="L20" s="38" cm="1">
+        <f t="array" ref="L20">IF(SUM(COUNTIF(K20,Feiertage!$B$2:$B$13)),"F",K20)</f>
+        <v>45825</v>
+      </c>
+      <c r="M20" s="37">
+        <f t="shared" si="4"/>
+        <v>45855</v>
+      </c>
+      <c r="N20" s="38" cm="1">
+        <f t="array" ref="N20">IF(SUM(COUNTIF(M20,Feiertage!$B$2:$B$13)),"F",M20)</f>
+        <v>45855</v>
+      </c>
+      <c r="O20" s="37">
+        <f t="shared" si="5"/>
+        <v>45886</v>
+      </c>
+      <c r="P20" s="38" cm="1">
+        <f t="array" ref="P20">IF(SUM(COUNTIF(O20,Feiertage!$B$2:$B$13)),"F",O20)</f>
+        <v>45886</v>
+      </c>
+      <c r="Q20" s="37">
+        <f t="shared" si="6"/>
+        <v>45917</v>
+      </c>
+      <c r="R20" s="38" cm="1">
+        <f t="array" ref="R20">IF(SUM(COUNTIF(Q20,Feiertage!$B$2:$B$13)),"F",Q20)</f>
+        <v>45917</v>
+      </c>
+      <c r="S20" s="37">
+        <f t="shared" si="7"/>
+        <v>45947</v>
+      </c>
+      <c r="T20" s="38" cm="1">
+        <f t="array" ref="T20">IF(SUM(COUNTIF(S20,Feiertage!$B$2:$B$13)),"F",S20)</f>
+        <v>45947</v>
+      </c>
+      <c r="U20" s="37">
+        <f t="shared" si="7"/>
+        <v>45978</v>
+      </c>
+      <c r="V20" s="38" cm="1">
+        <f t="array" ref="V20">IF(SUM(COUNTIF(U20,Feiertage!$B$2:$B$13)),"F",U20)</f>
+        <v>45978</v>
+      </c>
+      <c r="W20" s="39">
+        <f t="shared" si="8"/>
+        <v>46008</v>
+      </c>
+      <c r="X20" s="38" cm="1">
+        <f t="array" ref="X20">IF(SUM(COUNTIF(W20,Feiertage!$B$2:$B$13)),"F",W20)</f>
+        <v>46008</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="37">
+        <f t="shared" si="11"/>
+        <v>45675</v>
+      </c>
+      <c r="B21" s="38" cm="1">
+        <f t="array" ref="B21">IF(SUM(COUNTIF(A21,Feiertage!$B$2:$B$13)),"F",A21)</f>
+        <v>45675</v>
+      </c>
+      <c r="C21" s="37">
+        <f t="shared" si="0"/>
+        <v>45706</v>
+      </c>
+      <c r="D21" s="38" cm="1">
+        <f t="array" ref="D21">IF(SUM(COUNTIF(C21,Feiertage!$B$2:$B$13)),"F",C21)</f>
+        <v>45706</v>
+      </c>
+      <c r="E21" s="37">
+        <f t="shared" si="1"/>
+        <v>45734</v>
+      </c>
+      <c r="F21" s="38" cm="1">
+        <f t="array" ref="F21">IF(SUM(COUNTIF(E21,Feiertage!$B$2:$B$13)),"F",E21)</f>
+        <v>45734</v>
+      </c>
+      <c r="G21" s="37">
+        <f t="shared" ref="G21:G34" si="12">IFERROR(IF(MONTH(G20+1)=MONTH(G$4),G20+1,""),"")</f>
+        <v>45765</v>
+      </c>
+      <c r="H21" s="38" cm="1">
+        <f t="array" ref="H21">IF(SUM(COUNTIF(G21,Feiertage!$B$2:$B$13)),"F",G21)</f>
+        <v>45765</v>
+      </c>
+      <c r="I21" s="37">
+        <f t="shared" ref="I21:I34" si="13">IFERROR(IF(MONTH(I20+1)=MONTH(I$4),I20+1,""),"")</f>
+        <v>45795</v>
+      </c>
+      <c r="J21" s="38" cm="1">
+        <f t="array" ref="J21">IF(SUM(COUNTIF(I21,Feiertage!$B$2:$B$13)),"F",I21)</f>
+        <v>45795</v>
+      </c>
+      <c r="K21" s="37">
+        <f t="shared" ref="K21:K34" si="14">IFERROR(IF(MONTH(K20+1)=MONTH(K$4),K20+1,""),"")</f>
+        <v>45826</v>
+      </c>
+      <c r="L21" s="38" cm="1">
+        <f t="array" ref="L21">IF(SUM(COUNTIF(K21,Feiertage!$B$2:$B$13)),"F",K21)</f>
+        <v>45826</v>
+      </c>
+      <c r="M21" s="37">
+        <f t="shared" si="4"/>
+        <v>45856</v>
+      </c>
+      <c r="N21" s="38" cm="1">
+        <f t="array" ref="N21">IF(SUM(COUNTIF(M21,Feiertage!$B$2:$B$13)),"F",M21)</f>
+        <v>45856</v>
+      </c>
+      <c r="O21" s="37">
+        <f t="shared" ref="O21:O34" si="15">IFERROR(IF(MONTH(O20+1)=MONTH(O$4),O20+1,""),"")</f>
+        <v>45887</v>
+      </c>
+      <c r="P21" s="38" cm="1">
+        <f t="array" ref="P21">IF(SUM(COUNTIF(O21,Feiertage!$B$2:$B$13)),"F",O21)</f>
+        <v>45887</v>
+      </c>
+      <c r="Q21" s="37">
+        <f t="shared" si="6"/>
+        <v>45918</v>
+      </c>
+      <c r="R21" s="38" cm="1">
+        <f t="array" ref="R21">IF(SUM(COUNTIF(Q21,Feiertage!$B$2:$B$13)),"F",Q21)</f>
+        <v>45918</v>
+      </c>
+      <c r="S21" s="37">
+        <f t="shared" ref="S21:S34" si="16">IFERROR(IF(MONTH(S20+1)=MONTH(S$4),S20+1,""),"")</f>
+        <v>45948</v>
+      </c>
+      <c r="T21" s="38" cm="1">
+        <f t="array" ref="T21">IF(SUM(COUNTIF(S21,Feiertage!$B$2:$B$13)),"F",S21)</f>
+        <v>45948</v>
+      </c>
+      <c r="U21" s="37">
+        <f t="shared" ref="U21:U34" si="17">IFERROR(IF(MONTH(U20+1)=MONTH(U$4),U20+1,""),"")</f>
+        <v>45979</v>
+      </c>
+      <c r="V21" s="38" cm="1">
+        <f t="array" ref="V21">IF(SUM(COUNTIF(U21,Feiertage!$B$2:$B$13)),"F",U21)</f>
+        <v>45979</v>
+      </c>
+      <c r="W21" s="39">
+        <f t="shared" si="8"/>
+        <v>46009</v>
+      </c>
+      <c r="X21" s="38" cm="1">
+        <f t="array" ref="X21">IF(SUM(COUNTIF(W21,Feiertage!$B$2:$B$13)),"F",W21)</f>
+        <v>46009</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="37">
+        <f t="shared" si="11"/>
+        <v>45676</v>
+      </c>
+      <c r="B22" s="38" cm="1">
+        <f t="array" ref="B22">IF(SUM(COUNTIF(A22,Feiertage!$B$2:$B$13)),"F",A22)</f>
+        <v>45676</v>
+      </c>
+      <c r="C22" s="37">
+        <f t="shared" si="0"/>
+        <v>45707</v>
+      </c>
+      <c r="D22" s="38" cm="1">
+        <f t="array" ref="D22">IF(SUM(COUNTIF(C22,Feiertage!$B$2:$B$13)),"F",C22)</f>
+        <v>45707</v>
+      </c>
+      <c r="E22" s="37">
+        <f t="shared" si="1"/>
+        <v>45735</v>
+      </c>
+      <c r="F22" s="38" cm="1">
+        <f t="array" ref="F22">IF(SUM(COUNTIF(E22,Feiertage!$B$2:$B$13)),"F",E22)</f>
+        <v>45735</v>
+      </c>
+      <c r="G22" s="37">
+        <f t="shared" si="12"/>
+        <v>45766</v>
+      </c>
+      <c r="H22" s="38" cm="1">
+        <f t="array" ref="H22">IF(SUM(COUNTIF(G22,Feiertage!$B$2:$B$13)),"F",G22)</f>
+        <v>45766</v>
+      </c>
+      <c r="I22" s="37">
+        <f t="shared" si="13"/>
+        <v>45796</v>
+      </c>
+      <c r="J22" s="38" cm="1">
+        <f t="array" ref="J22">IF(SUM(COUNTIF(I22,Feiertage!$B$2:$B$13)),"F",I22)</f>
+        <v>45796</v>
+      </c>
+      <c r="K22" s="37">
+        <f t="shared" si="14"/>
+        <v>45827</v>
+      </c>
+      <c r="L22" s="38" cm="1">
+        <f t="array" ref="L22">IF(SUM(COUNTIF(K22,Feiertage!$B$2:$B$13)),"F",K22)</f>
+        <v>45827</v>
+      </c>
+      <c r="M22" s="37">
+        <f t="shared" si="4"/>
+        <v>45857</v>
+      </c>
+      <c r="N22" s="38" cm="1">
+        <f t="array" ref="N22">IF(SUM(COUNTIF(M22,Feiertage!$B$2:$B$13)),"F",M22)</f>
+        <v>45857</v>
+      </c>
+      <c r="O22" s="37">
+        <f t="shared" si="15"/>
+        <v>45888</v>
+      </c>
+      <c r="P22" s="38" cm="1">
+        <f t="array" ref="P22">IF(SUM(COUNTIF(O22,Feiertage!$B$2:$B$13)),"F",O22)</f>
+        <v>45888</v>
+      </c>
+      <c r="Q22" s="37">
+        <f t="shared" si="6"/>
+        <v>45919</v>
+      </c>
+      <c r="R22" s="38" cm="1">
+        <f t="array" ref="R22">IF(SUM(COUNTIF(Q22,Feiertage!$B$2:$B$13)),"F",Q22)</f>
+        <v>45919</v>
+      </c>
+      <c r="S22" s="37">
+        <f t="shared" si="16"/>
+        <v>45949</v>
+      </c>
+      <c r="T22" s="38" cm="1">
+        <f t="array" ref="T22">IF(SUM(COUNTIF(S22,Feiertage!$B$2:$B$13)),"F",S22)</f>
+        <v>45949</v>
+      </c>
+      <c r="U22" s="37">
+        <f t="shared" si="17"/>
+        <v>45980</v>
+      </c>
+      <c r="V22" s="38" cm="1">
+        <f t="array" ref="V22">IF(SUM(COUNTIF(U22,Feiertage!$B$2:$B$13)),"F",U22)</f>
+        <v>45980</v>
+      </c>
+      <c r="W22" s="39">
+        <f t="shared" si="8"/>
+        <v>46010</v>
+      </c>
+      <c r="X22" s="38" cm="1">
+        <f t="array" ref="X22">IF(SUM(COUNTIF(W22,Feiertage!$B$2:$B$13)),"F",W22)</f>
+        <v>46010</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="37">
+        <f>IFERROR(IF(MONTH(A22+1)=MONTH(A$4),A22+1,""),"")</f>
+        <v>45677</v>
+      </c>
+      <c r="B23" s="38" cm="1">
+        <f t="array" ref="B23">IF(SUM(COUNTIF(A23,Feiertage!$B$2:$B$13)),"F",A23)</f>
+        <v>45677</v>
+      </c>
+      <c r="C23" s="37">
+        <f t="shared" si="0"/>
+        <v>45708</v>
+      </c>
+      <c r="D23" s="38" cm="1">
+        <f t="array" ref="D23">IF(SUM(COUNTIF(C23,Feiertage!$B$2:$B$13)),"F",C23)</f>
+        <v>45708</v>
+      </c>
+      <c r="E23" s="37">
+        <f t="shared" si="1"/>
+        <v>45736</v>
+      </c>
+      <c r="F23" s="38" cm="1">
+        <f t="array" ref="F23">IF(SUM(COUNTIF(E23,Feiertage!$B$2:$B$13)),"F",E23)</f>
+        <v>45736</v>
+      </c>
+      <c r="G23" s="37">
+        <f t="shared" si="12"/>
+        <v>45767</v>
+      </c>
+      <c r="H23" s="38" cm="1">
+        <f t="array" ref="H23">IF(SUM(COUNTIF(G23,Feiertage!$B$2:$B$13)),"F",G23)</f>
+        <v>45767</v>
+      </c>
+      <c r="I23" s="37">
+        <f t="shared" si="13"/>
+        <v>45797</v>
+      </c>
+      <c r="J23" s="38" cm="1">
+        <f t="array" ref="J23">IF(SUM(COUNTIF(I23,Feiertage!$B$2:$B$13)),"F",I23)</f>
+        <v>45797</v>
+      </c>
+      <c r="K23" s="37">
+        <f t="shared" si="14"/>
+        <v>45828</v>
+      </c>
+      <c r="L23" s="38" cm="1">
+        <f t="array" ref="L23">IF(SUM(COUNTIF(K23,Feiertage!$B$2:$B$13)),"F",K23)</f>
+        <v>45828</v>
+      </c>
+      <c r="M23" s="37">
+        <f t="shared" si="4"/>
+        <v>45858</v>
+      </c>
+      <c r="N23" s="38" cm="1">
+        <f t="array" ref="N23">IF(SUM(COUNTIF(M23,Feiertage!$B$2:$B$13)),"F",M23)</f>
+        <v>45858</v>
+      </c>
+      <c r="O23" s="37">
+        <f t="shared" si="15"/>
+        <v>45889</v>
+      </c>
+      <c r="P23" s="38" cm="1">
+        <f t="array" ref="P23">IF(SUM(COUNTIF(O23,Feiertage!$B$2:$B$13)),"F",O23)</f>
+        <v>45889</v>
+      </c>
+      <c r="Q23" s="37">
+        <f t="shared" si="6"/>
+        <v>45920</v>
+      </c>
+      <c r="R23" s="38" cm="1">
+        <f t="array" ref="R23">IF(SUM(COUNTIF(Q23,Feiertage!$B$2:$B$13)),"F",Q23)</f>
+        <v>45920</v>
+      </c>
+      <c r="S23" s="37">
+        <f t="shared" si="16"/>
+        <v>45950</v>
+      </c>
+      <c r="T23" s="38" cm="1">
+        <f t="array" ref="T23">IF(SUM(COUNTIF(S23,Feiertage!$B$2:$B$13)),"F",S23)</f>
+        <v>45950</v>
+      </c>
+      <c r="U23" s="37">
+        <f t="shared" si="17"/>
+        <v>45981</v>
+      </c>
+      <c r="V23" s="38" cm="1">
+        <f t="array" ref="V23">IF(SUM(COUNTIF(U23,Feiertage!$B$2:$B$13)),"F",U23)</f>
+        <v>45981</v>
+      </c>
+      <c r="W23" s="39">
+        <f t="shared" si="8"/>
+        <v>46011</v>
+      </c>
+      <c r="X23" s="38" cm="1">
+        <f t="array" ref="X23">IF(SUM(COUNTIF(W23,Feiertage!$B$2:$B$13)),"F",W23)</f>
+        <v>46011</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="37">
+        <f t="shared" ref="A24:A25" si="18">IFERROR(IF(MONTH(A23+1)=MONTH(A$4),A23+1,""),"")</f>
+        <v>45678</v>
+      </c>
+      <c r="B24" s="38" cm="1">
+        <f t="array" ref="B24">IF(SUM(COUNTIF(A24,Feiertage!$B$2:$B$13)),"F",A24)</f>
+        <v>45678</v>
+      </c>
+      <c r="C24" s="37">
+        <f t="shared" si="0"/>
+        <v>45709</v>
+      </c>
+      <c r="D24" s="38" cm="1">
+        <f t="array" ref="D24">IF(SUM(COUNTIF(C24,Feiertage!$B$2:$B$13)),"F",C24)</f>
+        <v>45709</v>
+      </c>
+      <c r="E24" s="37">
+        <f t="shared" si="1"/>
+        <v>45737</v>
+      </c>
+      <c r="F24" s="38" cm="1">
+        <f t="array" ref="F24">IF(SUM(COUNTIF(E24,Feiertage!$B$2:$B$13)),"F",E24)</f>
+        <v>45737</v>
+      </c>
+      <c r="G24" s="37">
+        <f t="shared" si="12"/>
+        <v>45768</v>
+      </c>
+      <c r="H24" s="38" cm="1">
+        <f t="array" ref="H24">IF(SUM(COUNTIF(G24,Feiertage!$B$2:$B$13)),"F",G24)</f>
+        <v>45768</v>
+      </c>
+      <c r="I24" s="37">
+        <f t="shared" si="13"/>
+        <v>45798</v>
+      </c>
+      <c r="J24" s="38" cm="1">
+        <f t="array" ref="J24">IF(SUM(COUNTIF(I24,Feiertage!$B$2:$B$13)),"F",I24)</f>
+        <v>45798</v>
+      </c>
+      <c r="K24" s="37">
+        <f t="shared" si="14"/>
+        <v>45829</v>
+      </c>
+      <c r="L24" s="38" cm="1">
+        <f t="array" ref="L24">IF(SUM(COUNTIF(K24,Feiertage!$B$2:$B$13)),"F",K24)</f>
+        <v>45829</v>
+      </c>
+      <c r="M24" s="37">
+        <f t="shared" si="4"/>
+        <v>45859</v>
+      </c>
+      <c r="N24" s="38" cm="1">
+        <f t="array" ref="N24">IF(SUM(COUNTIF(M24,Feiertage!$B$2:$B$13)),"F",M24)</f>
+        <v>45859</v>
+      </c>
+      <c r="O24" s="37">
+        <f t="shared" si="15"/>
+        <v>45890</v>
+      </c>
+      <c r="P24" s="38" cm="1">
+        <f t="array" ref="P24">IF(SUM(COUNTIF(O24,Feiertage!$B$2:$B$13)),"F",O24)</f>
+        <v>45890</v>
+      </c>
+      <c r="Q24" s="37">
+        <f t="shared" si="6"/>
+        <v>45921</v>
+      </c>
+      <c r="R24" s="38" cm="1">
+        <f t="array" ref="R24">IF(SUM(COUNTIF(Q24,Feiertage!$B$2:$B$13)),"F",Q24)</f>
+        <v>45921</v>
+      </c>
+      <c r="S24" s="37">
+        <f t="shared" si="16"/>
+        <v>45951</v>
+      </c>
+      <c r="T24" s="38" cm="1">
+        <f t="array" ref="T24">IF(SUM(COUNTIF(S24,Feiertage!$B$2:$B$13)),"F",S24)</f>
+        <v>45951</v>
+      </c>
+      <c r="U24" s="37">
+        <f t="shared" si="17"/>
+        <v>45982</v>
+      </c>
+      <c r="V24" s="38" cm="1">
+        <f t="array" ref="V24">IF(SUM(COUNTIF(U24,Feiertage!$B$2:$B$13)),"F",U24)</f>
+        <v>45982</v>
+      </c>
+      <c r="W24" s="39">
+        <f t="shared" si="8"/>
+        <v>46012</v>
+      </c>
+      <c r="X24" s="38" cm="1">
+        <f t="array" ref="X24">IF(SUM(COUNTIF(W24,Feiertage!$B$2:$B$13)),"F",W24)</f>
+        <v>46012</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="37">
+        <f t="shared" si="18"/>
+        <v>45679</v>
+      </c>
+      <c r="B25" s="38" cm="1">
+        <f t="array" ref="B25">IF(SUM(COUNTIF(A25,Feiertage!$B$2:$B$13)),"F",A25)</f>
+        <v>45679</v>
+      </c>
+      <c r="C25" s="37">
+        <f t="shared" si="0"/>
+        <v>45710</v>
+      </c>
+      <c r="D25" s="38" cm="1">
+        <f t="array" ref="D25">IF(SUM(COUNTIF(C25,Feiertage!$B$2:$B$13)),"F",C25)</f>
+        <v>45710</v>
+      </c>
+      <c r="E25" s="37">
+        <f t="shared" si="1"/>
+        <v>45738</v>
+      </c>
+      <c r="F25" s="38" cm="1">
+        <f t="array" ref="F25">IF(SUM(COUNTIF(E25,Feiertage!$B$2:$B$13)),"F",E25)</f>
+        <v>45738</v>
+      </c>
+      <c r="G25" s="37">
+        <f t="shared" si="12"/>
+        <v>45769</v>
+      </c>
+      <c r="H25" s="38" cm="1">
+        <f t="array" ref="H25">IF(SUM(COUNTIF(G25,Feiertage!$B$2:$B$13)),"F",G25)</f>
+        <v>45769</v>
+      </c>
+      <c r="I25" s="37">
+        <f t="shared" si="13"/>
+        <v>45799</v>
+      </c>
+      <c r="J25" s="38" cm="1">
+        <f t="array" ref="J25">IF(SUM(COUNTIF(I25,Feiertage!$B$2:$B$13)),"F",I25)</f>
+        <v>45799</v>
+      </c>
+      <c r="K25" s="37">
+        <f t="shared" si="14"/>
+        <v>45830</v>
+      </c>
+      <c r="L25" s="38" cm="1">
+        <f t="array" ref="L25">IF(SUM(COUNTIF(K25,Feiertage!$B$2:$B$13)),"F",K25)</f>
+        <v>45830</v>
+      </c>
+      <c r="M25" s="37">
+        <f t="shared" si="4"/>
+        <v>45860</v>
+      </c>
+      <c r="N25" s="38" cm="1">
+        <f t="array" ref="N25">IF(SUM(COUNTIF(M25,Feiertage!$B$2:$B$13)),"F",M25)</f>
+        <v>45860</v>
+      </c>
+      <c r="O25" s="37">
+        <f t="shared" si="15"/>
+        <v>45891</v>
+      </c>
+      <c r="P25" s="38" cm="1">
+        <f t="array" ref="P25">IF(SUM(COUNTIF(O25,Feiertage!$B$2:$B$13)),"F",O25)</f>
+        <v>45891</v>
+      </c>
+      <c r="Q25" s="37">
+        <f t="shared" si="6"/>
+        <v>45922</v>
+      </c>
+      <c r="R25" s="38" cm="1">
+        <f t="array" ref="R25">IF(SUM(COUNTIF(Q25,Feiertage!$B$2:$B$13)),"F",Q25)</f>
+        <v>45922</v>
+      </c>
+      <c r="S25" s="37">
+        <f t="shared" si="16"/>
+        <v>45952</v>
+      </c>
+      <c r="T25" s="38" cm="1">
+        <f t="array" ref="T25">IF(SUM(COUNTIF(S25,Feiertage!$B$2:$B$13)),"F",S25)</f>
+        <v>45952</v>
+      </c>
+      <c r="U25" s="37">
+        <f t="shared" si="17"/>
+        <v>45983</v>
+      </c>
+      <c r="V25" s="38" cm="1">
+        <f t="array" ref="V25">IF(SUM(COUNTIF(U25,Feiertage!$B$2:$B$13)),"F",U25)</f>
+        <v>45983</v>
+      </c>
+      <c r="W25" s="39">
+        <f t="shared" si="8"/>
+        <v>46013</v>
+      </c>
+      <c r="X25" s="38" cm="1">
+        <f t="array" ref="X25">IF(SUM(COUNTIF(W25,Feiertage!$B$2:$B$13)),"F",W25)</f>
+        <v>46013</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="37">
+        <f>IFERROR(IF(MONTH(A25+1)=MONTH(A$4),A25+1,""),"")</f>
+        <v>45680</v>
+      </c>
+      <c r="B26" s="38" cm="1">
+        <f t="array" ref="B26">IF(SUM(COUNTIF(A26,Feiertage!$B$2:$B$13)),"F",A26)</f>
+        <v>45680</v>
+      </c>
+      <c r="C26" s="37">
+        <f t="shared" si="0"/>
+        <v>45711</v>
+      </c>
+      <c r="D26" s="38" cm="1">
+        <f t="array" ref="D26">IF(SUM(COUNTIF(C26,Feiertage!$B$2:$B$13)),"F",C26)</f>
+        <v>45711</v>
+      </c>
+      <c r="E26" s="37">
+        <f t="shared" si="1"/>
+        <v>45739</v>
+      </c>
+      <c r="F26" s="38" cm="1">
+        <f t="array" ref="F26">IF(SUM(COUNTIF(E26,Feiertage!$B$2:$B$13)),"F",E26)</f>
+        <v>45739</v>
+      </c>
+      <c r="G26" s="37">
+        <f t="shared" si="12"/>
+        <v>45770</v>
+      </c>
+      <c r="H26" s="38" cm="1">
+        <f t="array" ref="H26">IF(SUM(COUNTIF(G26,Feiertage!$B$2:$B$13)),"F",G26)</f>
+        <v>45770</v>
+      </c>
+      <c r="I26" s="37">
+        <f t="shared" si="13"/>
+        <v>45800</v>
+      </c>
+      <c r="J26" s="38" cm="1">
+        <f t="array" ref="J26">IF(SUM(COUNTIF(I26,Feiertage!$B$2:$B$13)),"F",I26)</f>
+        <v>45800</v>
+      </c>
+      <c r="K26" s="37">
+        <f t="shared" si="14"/>
+        <v>45831</v>
+      </c>
+      <c r="L26" s="38" cm="1">
+        <f t="array" ref="L26">IF(SUM(COUNTIF(K26,Feiertage!$B$2:$B$13)),"F",K26)</f>
+        <v>45831</v>
+      </c>
+      <c r="M26" s="37">
+        <f t="shared" si="4"/>
+        <v>45861</v>
+      </c>
+      <c r="N26" s="38" cm="1">
+        <f t="array" ref="N26">IF(SUM(COUNTIF(M26,Feiertage!$B$2:$B$13)),"F",M26)</f>
+        <v>45861</v>
+      </c>
+      <c r="O26" s="37">
+        <f t="shared" si="15"/>
+        <v>45892</v>
+      </c>
+      <c r="P26" s="38" cm="1">
+        <f t="array" ref="P26">IF(SUM(COUNTIF(O26,Feiertage!$B$2:$B$13)),"F",O26)</f>
+        <v>45892</v>
+      </c>
+      <c r="Q26" s="37">
+        <f t="shared" si="6"/>
+        <v>45923</v>
+      </c>
+      <c r="R26" s="38" cm="1">
+        <f t="array" ref="R26">IF(SUM(COUNTIF(Q26,Feiertage!$B$2:$B$13)),"F",Q26)</f>
+        <v>45923</v>
+      </c>
+      <c r="S26" s="37">
+        <f t="shared" si="16"/>
+        <v>45953</v>
+      </c>
+      <c r="T26" s="38" cm="1">
+        <f t="array" ref="T26">IF(SUM(COUNTIF(S26,Feiertage!$B$2:$B$13)),"F",S26)</f>
+        <v>45953</v>
+      </c>
+      <c r="U26" s="37">
+        <f t="shared" si="17"/>
+        <v>45984</v>
+      </c>
+      <c r="V26" s="38" cm="1">
+        <f t="array" ref="V26">IF(SUM(COUNTIF(U26,Feiertage!$B$2:$B$13)),"F",U26)</f>
+        <v>45984</v>
+      </c>
+      <c r="W26" s="39">
+        <f t="shared" si="8"/>
+        <v>46014</v>
+      </c>
+      <c r="X26" s="38" cm="1">
+        <f t="array" ref="X26">IF(SUM(COUNTIF(W26,Feiertage!$B$2:$B$13)),"F",W26)</f>
+        <v>46014</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="37">
+        <f t="shared" ref="A27:A31" si="19">IFERROR(IF(MONTH(A26+1)=MONTH(A$4),A26+1,""),"")</f>
+        <v>45681</v>
+      </c>
+      <c r="B27" s="38" cm="1">
+        <f t="array" ref="B27">IF(SUM(COUNTIF(A27,Feiertage!$B$2:$B$13)),"F",A27)</f>
+        <v>45681</v>
+      </c>
+      <c r="C27" s="37">
+        <f t="shared" si="0"/>
+        <v>45712</v>
+      </c>
+      <c r="D27" s="38" cm="1">
+        <f t="array" ref="D27">IF(SUM(COUNTIF(C27,Feiertage!$B$2:$B$13)),"F",C27)</f>
+        <v>45712</v>
+      </c>
+      <c r="E27" s="37">
+        <f t="shared" si="1"/>
+        <v>45740</v>
+      </c>
+      <c r="F27" s="38" cm="1">
+        <f t="array" ref="F27">IF(SUM(COUNTIF(E27,Feiertage!$B$2:$B$13)),"F",E27)</f>
+        <v>45740</v>
+      </c>
+      <c r="G27" s="37">
+        <f t="shared" si="12"/>
+        <v>45771</v>
+      </c>
+      <c r="H27" s="38" cm="1">
+        <f t="array" ref="H27">IF(SUM(COUNTIF(G27,Feiertage!$B$2:$B$13)),"F",G27)</f>
+        <v>45771</v>
+      </c>
+      <c r="I27" s="37">
+        <f t="shared" si="13"/>
+        <v>45801</v>
+      </c>
+      <c r="J27" s="38" cm="1">
+        <f t="array" ref="J27">IF(SUM(COUNTIF(I27,Feiertage!$B$2:$B$13)),"F",I27)</f>
+        <v>45801</v>
+      </c>
+      <c r="K27" s="37">
+        <f t="shared" si="14"/>
+        <v>45832</v>
+      </c>
+      <c r="L27" s="38" cm="1">
+        <f t="array" ref="L27">IF(SUM(COUNTIF(K27,Feiertage!$B$2:$B$13)),"F",K27)</f>
+        <v>45832</v>
+      </c>
+      <c r="M27" s="37">
+        <f t="shared" si="4"/>
+        <v>45862</v>
+      </c>
+      <c r="N27" s="38" cm="1">
+        <f t="array" ref="N27">IF(SUM(COUNTIF(M27,Feiertage!$B$2:$B$13)),"F",M27)</f>
+        <v>45862</v>
+      </c>
+      <c r="O27" s="37">
+        <f t="shared" si="15"/>
+        <v>45893</v>
+      </c>
+      <c r="P27" s="38" cm="1">
+        <f t="array" ref="P27">IF(SUM(COUNTIF(O27,Feiertage!$B$2:$B$13)),"F",O27)</f>
+        <v>45893</v>
+      </c>
+      <c r="Q27" s="37">
+        <f t="shared" si="6"/>
+        <v>45924</v>
+      </c>
+      <c r="R27" s="38" cm="1">
+        <f t="array" ref="R27">IF(SUM(COUNTIF(Q27,Feiertage!$B$2:$B$13)),"F",Q27)</f>
+        <v>45924</v>
+      </c>
+      <c r="S27" s="37">
+        <f t="shared" si="16"/>
+        <v>45954</v>
+      </c>
+      <c r="T27" s="38" cm="1">
+        <f t="array" ref="T27">IF(SUM(COUNTIF(S27,Feiertage!$B$2:$B$13)),"F",S27)</f>
+        <v>45954</v>
+      </c>
+      <c r="U27" s="37">
+        <f t="shared" si="17"/>
+        <v>45985</v>
+      </c>
+      <c r="V27" s="38" cm="1">
+        <f t="array" ref="V27">IF(SUM(COUNTIF(U27,Feiertage!$B$2:$B$13)),"F",U27)</f>
+        <v>45985</v>
+      </c>
+      <c r="W27" s="39">
+        <f t="shared" si="8"/>
+        <v>46015</v>
+      </c>
+      <c r="X27" s="38" cm="1">
+        <f t="array" ref="X27">IF(SUM(COUNTIF(W27,Feiertage!$B$2:$B$13)),"F",W27)</f>
+        <v>46015</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="37">
+        <f t="shared" si="19"/>
+        <v>45682</v>
+      </c>
+      <c r="B28" s="38" cm="1">
+        <f t="array" ref="B28">IF(SUM(COUNTIF(A28,Feiertage!$B$2:$B$13)),"F",A28)</f>
+        <v>45682</v>
+      </c>
+      <c r="C28" s="37">
+        <f t="shared" si="0"/>
+        <v>45713</v>
+      </c>
+      <c r="D28" s="38" cm="1">
+        <f t="array" ref="D28">IF(SUM(COUNTIF(C28,Feiertage!$B$2:$B$13)),"F",C28)</f>
+        <v>45713</v>
+      </c>
+      <c r="E28" s="37">
+        <f t="shared" si="1"/>
+        <v>45741</v>
+      </c>
+      <c r="F28" s="38" cm="1">
+        <f t="array" ref="F28">IF(SUM(COUNTIF(E28,Feiertage!$B$2:$B$13)),"F",E28)</f>
+        <v>45741</v>
+      </c>
+      <c r="G28" s="37">
+        <f t="shared" si="12"/>
+        <v>45772</v>
+      </c>
+      <c r="H28" s="38" cm="1">
+        <f t="array" ref="H28">IF(SUM(COUNTIF(G28,Feiertage!$B$2:$B$13)),"F",G28)</f>
+        <v>45772</v>
+      </c>
+      <c r="I28" s="37">
+        <f t="shared" si="13"/>
+        <v>45802</v>
+      </c>
+      <c r="J28" s="38" cm="1">
+        <f t="array" ref="J28">IF(SUM(COUNTIF(I28,Feiertage!$B$2:$B$13)),"F",I28)</f>
+        <v>45802</v>
+      </c>
+      <c r="K28" s="37">
+        <f t="shared" si="14"/>
+        <v>45833</v>
+      </c>
+      <c r="L28" s="38" cm="1">
+        <f t="array" ref="L28">IF(SUM(COUNTIF(K28,Feiertage!$B$2:$B$13)),"F",K28)</f>
+        <v>45833</v>
+      </c>
+      <c r="M28" s="37">
+        <f t="shared" si="4"/>
+        <v>45863</v>
+      </c>
+      <c r="N28" s="38" cm="1">
+        <f t="array" ref="N28">IF(SUM(COUNTIF(M28,Feiertage!$B$2:$B$13)),"F",M28)</f>
+        <v>45863</v>
+      </c>
+      <c r="O28" s="37">
+        <f t="shared" si="15"/>
+        <v>45894</v>
+      </c>
+      <c r="P28" s="38" cm="1">
+        <f t="array" ref="P28">IF(SUM(COUNTIF(O28,Feiertage!$B$2:$B$13)),"F",O28)</f>
+        <v>45894</v>
+      </c>
+      <c r="Q28" s="37">
+        <f t="shared" si="6"/>
+        <v>45925</v>
+      </c>
+      <c r="R28" s="38" cm="1">
+        <f t="array" ref="R28">IF(SUM(COUNTIF(Q28,Feiertage!$B$2:$B$13)),"F",Q28)</f>
+        <v>45925</v>
+      </c>
+      <c r="S28" s="37">
+        <f t="shared" si="16"/>
+        <v>45955</v>
+      </c>
+      <c r="T28" s="38" cm="1">
+        <f t="array" ref="T28">IF(SUM(COUNTIF(S28,Feiertage!$B$2:$B$13)),"F",S28)</f>
+        <v>45955</v>
+      </c>
+      <c r="U28" s="37">
+        <f t="shared" si="17"/>
+        <v>45986</v>
+      </c>
+      <c r="V28" s="38" cm="1">
+        <f t="array" ref="V28">IF(SUM(COUNTIF(U28,Feiertage!$B$2:$B$13)),"F",U28)</f>
+        <v>45986</v>
+      </c>
+      <c r="W28" s="39">
+        <f t="shared" si="8"/>
+        <v>46016</v>
+      </c>
+      <c r="X28" s="38" cm="1">
+        <f t="array" ref="X28">IF(SUM(COUNTIF(W28,Feiertage!$B$2:$B$13)),"F",W28)</f>
+        <v>46016</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="37">
+        <f t="shared" si="19"/>
+        <v>45683</v>
+      </c>
+      <c r="B29" s="38" cm="1">
+        <f t="array" ref="B29">IF(SUM(COUNTIF(A29,Feiertage!$B$2:$B$13)),"F",A29)</f>
+        <v>45683</v>
+      </c>
+      <c r="C29" s="37">
+        <f t="shared" si="0"/>
+        <v>45714</v>
+      </c>
+      <c r="D29" s="38" cm="1">
+        <f t="array" ref="D29">IF(SUM(COUNTIF(C29,Feiertage!$B$2:$B$13)),"F",C29)</f>
+        <v>45714</v>
+      </c>
+      <c r="E29" s="37">
+        <f t="shared" si="1"/>
+        <v>45742</v>
+      </c>
+      <c r="F29" s="38" cm="1">
+        <f t="array" ref="F29">IF(SUM(COUNTIF(E29,Feiertage!$B$2:$B$13)),"F",E29)</f>
+        <v>45742</v>
+      </c>
+      <c r="G29" s="37">
+        <f t="shared" si="12"/>
+        <v>45773</v>
+      </c>
+      <c r="H29" s="38" cm="1">
+        <f t="array" ref="H29">IF(SUM(COUNTIF(G29,Feiertage!$B$2:$B$13)),"F",G29)</f>
+        <v>45773</v>
+      </c>
+      <c r="I29" s="37">
+        <f t="shared" si="13"/>
+        <v>45803</v>
+      </c>
+      <c r="J29" s="38" cm="1">
+        <f t="array" ref="J29">IF(SUM(COUNTIF(I29,Feiertage!$B$2:$B$13)),"F",I29)</f>
+        <v>45803</v>
+      </c>
+      <c r="K29" s="37">
+        <f t="shared" si="14"/>
+        <v>45834</v>
+      </c>
+      <c r="L29" s="38" cm="1">
+        <f t="array" ref="L29">IF(SUM(COUNTIF(K29,Feiertage!$B$2:$B$13)),"F",K29)</f>
+        <v>45834</v>
+      </c>
+      <c r="M29" s="37">
+        <f t="shared" si="4"/>
+        <v>45864</v>
+      </c>
+      <c r="N29" s="38" cm="1">
+        <f t="array" ref="N29">IF(SUM(COUNTIF(M29,Feiertage!$B$2:$B$13)),"F",M29)</f>
+        <v>45864</v>
+      </c>
+      <c r="O29" s="37">
+        <f t="shared" si="15"/>
+        <v>45895</v>
+      </c>
+      <c r="P29" s="38" cm="1">
+        <f t="array" ref="P29">IF(SUM(COUNTIF(O29,Feiertage!$B$2:$B$13)),"F",O29)</f>
+        <v>45895</v>
+      </c>
+      <c r="Q29" s="37">
+        <f t="shared" si="6"/>
+        <v>45926</v>
+      </c>
+      <c r="R29" s="38" cm="1">
+        <f t="array" ref="R29">IF(SUM(COUNTIF(Q29,Feiertage!$B$2:$B$13)),"F",Q29)</f>
+        <v>45926</v>
+      </c>
+      <c r="S29" s="37">
+        <f t="shared" si="16"/>
+        <v>45956</v>
+      </c>
+      <c r="T29" s="38" cm="1">
+        <f t="array" ref="T29">IF(SUM(COUNTIF(S29,Feiertage!$B$2:$B$13)),"F",S29)</f>
+        <v>45956</v>
+      </c>
+      <c r="U29" s="37">
+        <f t="shared" si="17"/>
+        <v>45987</v>
+      </c>
+      <c r="V29" s="38" cm="1">
+        <f t="array" ref="V29">IF(SUM(COUNTIF(U29,Feiertage!$B$2:$B$13)),"F",U29)</f>
+        <v>45987</v>
+      </c>
+      <c r="W29" s="39">
+        <f t="shared" si="8"/>
+        <v>46017</v>
+      </c>
+      <c r="X29" s="38" cm="1">
+        <f t="array" ref="X29">IF(SUM(COUNTIF(W29,Feiertage!$B$2:$B$13)),"F",W29)</f>
+        <v>46017</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="37">
+        <f t="shared" si="19"/>
+        <v>45684</v>
+      </c>
+      <c r="B30" s="38" cm="1">
+        <f t="array" ref="B30">IF(SUM(COUNTIF(A30,Feiertage!$B$2:$B$13)),"F",A30)</f>
+        <v>45684</v>
+      </c>
+      <c r="C30" s="37">
+        <f t="shared" si="0"/>
+        <v>45715</v>
+      </c>
+      <c r="D30" s="38" cm="1">
+        <f t="array" ref="D30">IF(SUM(COUNTIF(C30,Feiertage!$B$2:$B$13)),"F",C30)</f>
+        <v>45715</v>
+      </c>
+      <c r="E30" s="37">
+        <f t="shared" si="1"/>
+        <v>45743</v>
+      </c>
+      <c r="F30" s="38" cm="1">
+        <f t="array" ref="F30">IF(SUM(COUNTIF(E30,Feiertage!$B$2:$B$13)),"F",E30)</f>
+        <v>45743</v>
+      </c>
+      <c r="G30" s="37">
+        <f t="shared" si="12"/>
+        <v>45774</v>
+      </c>
+      <c r="H30" s="38" cm="1">
+        <f t="array" ref="H30">IF(SUM(COUNTIF(G30,Feiertage!$B$2:$B$13)),"F",G30)</f>
+        <v>45774</v>
+      </c>
+      <c r="I30" s="37">
+        <f t="shared" si="13"/>
+        <v>45804</v>
+      </c>
+      <c r="J30" s="38" cm="1">
+        <f t="array" ref="J30">IF(SUM(COUNTIF(I30,Feiertage!$B$2:$B$13)),"F",I30)</f>
+        <v>45804</v>
+      </c>
+      <c r="K30" s="37">
+        <f t="shared" si="14"/>
+        <v>45835</v>
+      </c>
+      <c r="L30" s="38" cm="1">
+        <f t="array" ref="L30">IF(SUM(COUNTIF(K30,Feiertage!$B$2:$B$13)),"F",K30)</f>
+        <v>45835</v>
+      </c>
+      <c r="M30" s="37">
+        <f t="shared" si="4"/>
+        <v>45865</v>
+      </c>
+      <c r="N30" s="38" cm="1">
+        <f t="array" ref="N30">IF(SUM(COUNTIF(M30,Feiertage!$B$2:$B$13)),"F",M30)</f>
+        <v>45865</v>
+      </c>
+      <c r="O30" s="37">
+        <f t="shared" si="15"/>
+        <v>45896</v>
+      </c>
+      <c r="P30" s="38" cm="1">
+        <f t="array" ref="P30">IF(SUM(COUNTIF(O30,Feiertage!$B$2:$B$13)),"F",O30)</f>
+        <v>45896</v>
+      </c>
+      <c r="Q30" s="37">
+        <f t="shared" si="6"/>
+        <v>45927</v>
+      </c>
+      <c r="R30" s="38" cm="1">
+        <f t="array" ref="R30">IF(SUM(COUNTIF(Q30,Feiertage!$B$2:$B$13)),"F",Q30)</f>
+        <v>45927</v>
+      </c>
+      <c r="S30" s="37">
+        <f t="shared" si="16"/>
+        <v>45957</v>
+      </c>
+      <c r="T30" s="38" cm="1">
+        <f t="array" ref="T30">IF(SUM(COUNTIF(S30,Feiertage!$B$2:$B$13)),"F",S30)</f>
+        <v>45957</v>
+      </c>
+      <c r="U30" s="37">
+        <f t="shared" si="17"/>
+        <v>45988</v>
+      </c>
+      <c r="V30" s="38" cm="1">
+        <f t="array" ref="V30">IF(SUM(COUNTIF(U30,Feiertage!$B$2:$B$13)),"F",U30)</f>
+        <v>45988</v>
+      </c>
+      <c r="W30" s="39">
+        <f t="shared" si="8"/>
+        <v>46018</v>
+      </c>
+      <c r="X30" s="38" cm="1">
+        <f t="array" ref="X30">IF(SUM(COUNTIF(W30,Feiertage!$B$2:$B$13)),"F",W30)</f>
+        <v>46018</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="37">
+        <f t="shared" si="19"/>
+        <v>45685</v>
+      </c>
+      <c r="B31" s="38" cm="1">
+        <f t="array" ref="B31">IF(SUM(COUNTIF(A31,Feiertage!$B$2:$B$13)),"F",A31)</f>
+        <v>45685</v>
+      </c>
+      <c r="C31" s="37">
+        <f t="shared" si="0"/>
+        <v>45716</v>
+      </c>
+      <c r="D31" s="38" cm="1">
+        <f t="array" ref="D31">IF(SUM(COUNTIF(C31,Feiertage!$B$2:$B$13)),"F",C31)</f>
+        <v>45716</v>
+      </c>
+      <c r="E31" s="37">
+        <f t="shared" si="1"/>
+        <v>45744</v>
+      </c>
+      <c r="F31" s="38" cm="1">
+        <f t="array" ref="F31">IF(SUM(COUNTIF(E31,Feiertage!$B$2:$B$13)),"F",E31)</f>
+        <v>45744</v>
+      </c>
+      <c r="G31" s="37">
+        <f t="shared" si="12"/>
+        <v>45775</v>
+      </c>
+      <c r="H31" s="38" cm="1">
+        <f t="array" ref="H31">IF(SUM(COUNTIF(G31,Feiertage!$B$2:$B$13)),"F",G31)</f>
+        <v>45775</v>
+      </c>
+      <c r="I31" s="37">
+        <f t="shared" si="13"/>
+        <v>45805</v>
+      </c>
+      <c r="J31" s="38" cm="1">
+        <f t="array" ref="J31">IF(SUM(COUNTIF(I31,Feiertage!$B$2:$B$13)),"F",I31)</f>
+        <v>45805</v>
+      </c>
+      <c r="K31" s="37">
+        <f t="shared" si="14"/>
+        <v>45836</v>
+      </c>
+      <c r="L31" s="38" cm="1">
+        <f t="array" ref="L31">IF(SUM(COUNTIF(K31,Feiertage!$B$2:$B$13)),"F",K31)</f>
+        <v>45836</v>
+      </c>
+      <c r="M31" s="37">
+        <f t="shared" si="4"/>
+        <v>45866</v>
+      </c>
+      <c r="N31" s="38" cm="1">
+        <f t="array" ref="N31">IF(SUM(COUNTIF(M31,Feiertage!$B$2:$B$13)),"F",M31)</f>
+        <v>45866</v>
+      </c>
+      <c r="O31" s="37">
+        <f t="shared" si="15"/>
+        <v>45897</v>
+      </c>
+      <c r="P31" s="38" cm="1">
+        <f t="array" ref="P31">IF(SUM(COUNTIF(O31,Feiertage!$B$2:$B$13)),"F",O31)</f>
+        <v>45897</v>
+      </c>
+      <c r="Q31" s="37">
+        <f t="shared" si="6"/>
+        <v>45928</v>
+      </c>
+      <c r="R31" s="38" cm="1">
+        <f t="array" ref="R31">IF(SUM(COUNTIF(Q31,Feiertage!$B$2:$B$13)),"F",Q31)</f>
+        <v>45928</v>
+      </c>
+      <c r="S31" s="37">
+        <f t="shared" si="16"/>
+        <v>45958</v>
+      </c>
+      <c r="T31" s="38" cm="1">
+        <f t="array" ref="T31">IF(SUM(COUNTIF(S31,Feiertage!$B$2:$B$13)),"F",S31)</f>
+        <v>45958</v>
+      </c>
+      <c r="U31" s="37">
+        <f t="shared" si="17"/>
+        <v>45989</v>
+      </c>
+      <c r="V31" s="38" cm="1">
+        <f t="array" ref="V31">IF(SUM(COUNTIF(U31,Feiertage!$B$2:$B$13)),"F",U31)</f>
+        <v>45989</v>
+      </c>
+      <c r="W31" s="39">
+        <f t="shared" si="8"/>
+        <v>46019</v>
+      </c>
+      <c r="X31" s="38" cm="1">
+        <f t="array" ref="X31">IF(SUM(COUNTIF(W31,Feiertage!$B$2:$B$13)),"F",W31)</f>
+        <v>46019</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="37">
+        <f>IFERROR(IF(MONTH(A31+1)=MONTH(A$4),A31+1,""),"")</f>
+        <v>45686</v>
+      </c>
+      <c r="B32" s="38" cm="1">
+        <f t="array" ref="B32">IF(SUM(COUNTIF(A32,Feiertage!$B$2:$B$13)),"F",A32)</f>
+        <v>45686</v>
+      </c>
+      <c r="C32" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D32" s="38" t="str" cm="1">
+        <f t="array" ref="D32">IF(SUM(COUNTIF(C32,Feiertage!$B$2:$B$13)),"F",C32)</f>
+        <v/>
+      </c>
+      <c r="E32" s="37">
+        <f t="shared" si="1"/>
+        <v>45745</v>
+      </c>
+      <c r="F32" s="38" cm="1">
+        <f t="array" ref="F32">IF(SUM(COUNTIF(E32,Feiertage!$B$2:$B$13)),"F",E32)</f>
+        <v>45745</v>
+      </c>
+      <c r="G32" s="37">
+        <f t="shared" si="12"/>
+        <v>45776</v>
+      </c>
+      <c r="H32" s="38" cm="1">
+        <f t="array" ref="H32">IF(SUM(COUNTIF(G32,Feiertage!$B$2:$B$13)),"F",G32)</f>
+        <v>45776</v>
+      </c>
+      <c r="I32" s="37">
+        <f t="shared" si="13"/>
+        <v>45806</v>
+      </c>
+      <c r="J32" s="38" cm="1">
+        <f t="array" ref="J32">IF(SUM(COUNTIF(I32,Feiertage!$B$2:$B$13)),"F",I32)</f>
+        <v>45806</v>
+      </c>
+      <c r="K32" s="37">
+        <f t="shared" si="14"/>
+        <v>45837</v>
+      </c>
+      <c r="L32" s="38" cm="1">
+        <f t="array" ref="L32">IF(SUM(COUNTIF(K32,Feiertage!$B$2:$B$13)),"F",K32)</f>
+        <v>45837</v>
+      </c>
+      <c r="M32" s="37">
+        <f t="shared" si="4"/>
+        <v>45867</v>
+      </c>
+      <c r="N32" s="38" cm="1">
+        <f t="array" ref="N32">IF(SUM(COUNTIF(M32,Feiertage!$B$2:$B$13)),"F",M32)</f>
+        <v>45867</v>
+      </c>
+      <c r="O32" s="37">
+        <f t="shared" si="15"/>
+        <v>45898</v>
+      </c>
+      <c r="P32" s="38" cm="1">
+        <f t="array" ref="P32">IF(SUM(COUNTIF(O32,Feiertage!$B$2:$B$13)),"F",O32)</f>
+        <v>45898</v>
+      </c>
+      <c r="Q32" s="37">
+        <f t="shared" si="6"/>
+        <v>45929</v>
+      </c>
+      <c r="R32" s="38" cm="1">
+        <f t="array" ref="R32">IF(SUM(COUNTIF(Q32,Feiertage!$B$2:$B$13)),"F",Q32)</f>
+        <v>45929</v>
+      </c>
+      <c r="S32" s="37">
+        <f t="shared" si="16"/>
+        <v>45959</v>
+      </c>
+      <c r="T32" s="38" cm="1">
+        <f t="array" ref="T32">IF(SUM(COUNTIF(S32,Feiertage!$B$2:$B$13)),"F",S32)</f>
+        <v>45959</v>
+      </c>
+      <c r="U32" s="37">
+        <f t="shared" si="17"/>
+        <v>45990</v>
+      </c>
+      <c r="V32" s="38" cm="1">
+        <f t="array" ref="V32">IF(SUM(COUNTIF(U32,Feiertage!$B$2:$B$13)),"F",U32)</f>
+        <v>45990</v>
+      </c>
+      <c r="W32" s="39">
+        <f t="shared" si="8"/>
+        <v>46020</v>
+      </c>
+      <c r="X32" s="38" cm="1">
+        <f t="array" ref="X32">IF(SUM(COUNTIF(W32,Feiertage!$B$2:$B$13)),"F",W32)</f>
+        <v>46020</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="37">
+        <f>IFERROR(IF(MONTH(A32+1)=MONTH(A$4),A32+1,""),"")</f>
+        <v>45687</v>
+      </c>
+      <c r="B33" s="38" cm="1">
+        <f t="array" ref="B33">IF(SUM(COUNTIF(A33,Feiertage!$B$2:$B$13)),"F",A33)</f>
+        <v>45687</v>
+      </c>
+      <c r="C33" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D33" s="38" t="str" cm="1">
+        <f t="array" ref="D33">IF(SUM(COUNTIF(C33,Feiertage!$B$2:$B$13)),"F",C33)</f>
+        <v/>
+      </c>
+      <c r="E33" s="37">
+        <f t="shared" si="1"/>
+        <v>45746</v>
+      </c>
+      <c r="F33" s="38" cm="1">
+        <f t="array" ref="F33">IF(SUM(COUNTIF(E33,Feiertage!$B$2:$B$13)),"F",E33)</f>
+        <v>45746</v>
+      </c>
+      <c r="G33" s="37">
+        <f t="shared" si="12"/>
+        <v>45777</v>
+      </c>
+      <c r="H33" s="38" cm="1">
+        <f t="array" ref="H33">IF(SUM(COUNTIF(G33,Feiertage!$B$2:$B$13)),"F",G33)</f>
+        <v>45777</v>
+      </c>
+      <c r="I33" s="37">
+        <f t="shared" si="13"/>
+        <v>45807</v>
+      </c>
+      <c r="J33" s="38" cm="1">
+        <f t="array" ref="J33">IF(SUM(COUNTIF(I33,Feiertage!$B$2:$B$13)),"F",I33)</f>
+        <v>45807</v>
+      </c>
+      <c r="K33" s="37">
+        <f t="shared" si="14"/>
+        <v>45838</v>
+      </c>
+      <c r="L33" s="38" cm="1">
+        <f t="array" ref="L33">IF(SUM(COUNTIF(K33,Feiertage!$B$2:$B$13)),"F",K33)</f>
+        <v>45838</v>
+      </c>
+      <c r="M33" s="37">
+        <f t="shared" si="4"/>
+        <v>45868</v>
+      </c>
+      <c r="N33" s="38" cm="1">
+        <f t="array" ref="N33">IF(SUM(COUNTIF(M33,Feiertage!$B$2:$B$13)),"F",M33)</f>
+        <v>45868</v>
+      </c>
+      <c r="O33" s="37">
+        <f t="shared" si="15"/>
+        <v>45899</v>
+      </c>
+      <c r="P33" s="38" cm="1">
+        <f t="array" ref="P33">IF(SUM(COUNTIF(O33,Feiertage!$B$2:$B$13)),"F",O33)</f>
+        <v>45899</v>
+      </c>
+      <c r="Q33" s="37">
+        <f t="shared" si="6"/>
+        <v>45930</v>
+      </c>
+      <c r="R33" s="38" cm="1">
+        <f t="array" ref="R33">IF(SUM(COUNTIF(Q33,Feiertage!$B$2:$B$13)),"F",Q33)</f>
+        <v>45930</v>
+      </c>
+      <c r="S33" s="37">
+        <f t="shared" si="16"/>
+        <v>45960</v>
+      </c>
+      <c r="T33" s="38" cm="1">
+        <f t="array" ref="T33">IF(SUM(COUNTIF(S33,Feiertage!$B$2:$B$13)),"F",S33)</f>
+        <v>45960</v>
+      </c>
+      <c r="U33" s="37">
+        <f t="shared" si="17"/>
+        <v>45991</v>
+      </c>
+      <c r="V33" s="38" cm="1">
+        <f t="array" ref="V33">IF(SUM(COUNTIF(U33,Feiertage!$B$2:$B$13)),"F",U33)</f>
+        <v>45991</v>
+      </c>
+      <c r="W33" s="39">
+        <f t="shared" si="8"/>
+        <v>46021</v>
+      </c>
+      <c r="X33" s="38" cm="1">
+        <f t="array" ref="X33">IF(SUM(COUNTIF(W33,Feiertage!$B$2:$B$13)),"F",W33)</f>
+        <v>46021</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="40">
+        <f t="shared" ref="A34" si="20">IFERROR(IF(MONTH(A33+1)=MONTH(A$4),A33+1,""),"")</f>
+        <v>45688</v>
+      </c>
+      <c r="B34" s="41" cm="1">
+        <f t="array" ref="B34">IF(SUM(COUNTIF(A34,Feiertage!$B$2:$B$13)),"F",A34)</f>
+        <v>45688</v>
+      </c>
+      <c r="C34" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D34" s="41" t="str" cm="1">
+        <f t="array" ref="D34">IF(SUM(COUNTIF(C34,Feiertage!$A$2:$A$13)),"F",C34)</f>
+        <v/>
+      </c>
+      <c r="E34" s="40">
+        <f t="shared" si="1"/>
+        <v>45747</v>
+      </c>
+      <c r="F34" s="41" cm="1">
+        <f t="array" ref="F34">IF(SUM(COUNTIF(E34,Feiertage!$B$2:$B$13)),"F",E34)</f>
+        <v>45747</v>
+      </c>
+      <c r="G34" s="40" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H34" s="41" t="str" cm="1">
+        <f t="array" ref="H34">IF(SUM(COUNTIF(G34,Feiertage!$B$2:$B$13)),"F",G34)</f>
+        <v/>
+      </c>
+      <c r="I34" s="40">
+        <f t="shared" si="13"/>
+        <v>45808</v>
+      </c>
+      <c r="J34" s="41" cm="1">
+        <f t="array" ref="J34">IF(SUM(COUNTIF(I34,Feiertage!$B$2:$B$13)),"F",I34)</f>
+        <v>45808</v>
+      </c>
+      <c r="K34" s="40" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="L34" s="41" t="str" cm="1">
+        <f t="array" ref="L34">IF(SUM(COUNTIF(K34,Feiertage!$B$2:$B$13)),"F",K34)</f>
+        <v/>
+      </c>
+      <c r="M34" s="40">
+        <f t="shared" si="4"/>
+        <v>45869</v>
+      </c>
+      <c r="N34" s="41" cm="1">
+        <f t="array" ref="N34">IF(SUM(COUNTIF(M34,Feiertage!$B$2:$B$13)),"F",M34)</f>
+        <v>45869</v>
+      </c>
+      <c r="O34" s="40">
+        <f t="shared" si="15"/>
+        <v>45900</v>
+      </c>
+      <c r="P34" s="41" cm="1">
+        <f t="array" ref="P34">IF(SUM(COUNTIF(O34,Feiertage!$B$2:$B$13)),"F",O34)</f>
+        <v>45900</v>
+      </c>
+      <c r="Q34" s="40" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="R34" s="41" t="str" cm="1">
+        <f t="array" ref="R34">IF(SUM(COUNTIF(Q34,Feiertage!$B$2:$B$13)),"F",Q34)</f>
+        <v/>
+      </c>
+      <c r="S34" s="40">
+        <f t="shared" si="16"/>
+        <v>45961</v>
+      </c>
+      <c r="T34" s="41" cm="1">
+        <f t="array" ref="T34">IF(SUM(COUNTIF(S34,Feiertage!$B$2:$B$13)),"F",S34)</f>
+        <v>45961</v>
+      </c>
+      <c r="U34" s="40" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="V34" s="41" t="str" cm="1">
+        <f t="array" ref="V34">IF(SUM(COUNTIF(U34,Feiertage!$B$2:$B$13)),"F",U34)</f>
+        <v/>
+      </c>
+      <c r="W34" s="42">
+        <f t="shared" si="8"/>
+        <v>46022</v>
+      </c>
+      <c r="X34" s="41" cm="1">
+        <f t="array" ref="X34">IF(SUM(COUNTIF(W34,Feiertage!$B$2:$B$13)),"F",W34)</f>
+        <v>46022</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A4:X34">
+    <cfRule type="expression" dxfId="26" priority="1">
+      <formula>TODAY()=A4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="2">
+      <formula>OR(A4="F",B4="F")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="3">
+      <formula>OR(A4="U",B4="U")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="7">
+      <formula>WEEKDAY(A4,2)&gt;5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="4" id="{D835A6D3-5669-4DDA-85F0-3476276045A2}">
+            <xm:f>AND(NOT(A4=""),OR(COUNTIF(Modulliste!$K$2:$K$20,A4)&gt;0))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="5" id="{1B902BD7-7D62-48F7-9850-BE4C0D74B7B2}">
+            <xm:f>AND(NOT(A4=""),OR(COUNTIF(Modulliste!$I$2:$I$20,A4)&gt;0,COUNTIF(Modulliste!$I$2:$I$20,A4-1)&gt;0,COUNTIF(Modulliste!$I$2:$I$20,A4-2)&gt;0))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="6" id="{2762ECD2-9773-449F-9D06-621A561034D1}">
+            <xm:f>AND(NOT(A4=""),OR(COUNTIF(Modulliste!$G$2:$G$20,A4)&gt;0,COUNTIF(Modulliste!$G$2:$G$20,A4-1)&gt;0,COUNTIF(Modulliste!$G$2:$G$20,A4-2)&gt;0))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A4:X34</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B68FDFFE-8976-4E81-A21C-ABA53AB9029E}">
   <sheetPr codeName="Tabelle4"/>
   <dimension ref="A1:B17"/>

--- a/Studiumplan.xlsx
+++ b/Studiumplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00_Programme_RB\DHBW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DECBE52-6858-4625-9E9A-F7BF6E4F4D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1540C6C4-FE0C-406B-804B-118DC84F16CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2055" windowWidth="29040" windowHeight="17790" tabRatio="579" xr2:uid="{8D6EA8FC-9557-4CD3-9C64-AEC02D041DCB}"/>
+    <workbookView xWindow="-28920" yWindow="-2055" windowWidth="29040" windowHeight="17790" tabRatio="579" activeTab="2" xr2:uid="{8D6EA8FC-9557-4CD3-9C64-AEC02D041DCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Modulliste" sheetId="3" r:id="rId1"/>
@@ -66,6 +66,24 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={E99CF38F-D9FC-46F1-99E7-39DC56DCAB19}</author>
+  </authors>
+  <commentList>
+    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{E99CF38F-D9FC-46F1-99E7-39DC56DCAB19}">
+      <text>
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    Studienarbeit beginn</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
@@ -89,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="101">
   <si>
     <t>Modulname</t>
   </si>
@@ -402,7 +420,7 @@
     <numFmt numFmtId="164" formatCode="d/m;@"/>
     <numFmt numFmtId="165" formatCode="ddd/"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -481,6 +499,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="14">
@@ -563,7 +587,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -677,12 +701,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -839,265 +925,36 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="56">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1296,6 +1153,25 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1308,6 +1184,25 @@
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1340,6 +1235,25 @@
         <family val="2"/>
         <scheme val="major"/>
       </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1350,70 +1264,17 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <color theme="1"/>
         <name val="Calibri Light"/>
         <family val="2"/>
         <scheme val="major"/>
@@ -1436,6 +1297,59 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1447,6 +1361,158 @@
         <scheme val="major"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1470,6 +1536,25 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1484,6 +1569,31 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1564,19 +1674,19 @@
     <sortCondition ref="G1:G20"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="12" xr3:uid="{2C8AA6B6-31D0-4DF0-9DA9-0D8B08088E24}" name="Modulname" totalsRowLabel="Abschlussnote" dataDxfId="53" totalsRowDxfId="12"/>
-    <tableColumn id="1" xr3:uid="{FF50EF13-B9B2-42C9-A37F-07237C42C851}" name="Bereich" dataDxfId="52" totalsRowDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{DE1BE470-5B26-4F88-8799-243B2BE03172}" name="Semester" dataDxfId="51" totalsRowDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{E64020FC-6A5D-4A49-BCE1-C2569FF59159}" name="Schlüssel" dataDxfId="50" totalsRowDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{8470E22C-4CE1-4553-8671-9BF5989AAE65}" name="Prüfungsart" dataDxfId="49" totalsRowDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{CF2D34DC-4E44-45F0-B25E-0FFB229BA18E}" name="LP" dataDxfId="48" totalsRowDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{80506F77-5504-411A-B364-0B22CC53A582}" name="Termin 1" dataDxfId="47" totalsRowDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{C9413F7D-7FA1-417F-B220-3B19C8279173}" name="Ort 1" dataDxfId="46" totalsRowDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{A89D3283-E2AE-4360-9A93-F5F27682296D}" name="Termin 2" dataDxfId="45" totalsRowDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{DDE1A5EF-F94C-417A-95CA-A29D4C689B48}" name="Ort 2" dataDxfId="44" totalsRowDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{A92B3274-FA6A-4C49-87BB-1CF1BAC29EAB}" name="Prüfungstermin" dataDxfId="43" totalsRowDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{F6C0E347-9701-496F-8B92-1BFEDFF8D817}" name="MODULVERANTWORTUNG" dataDxfId="42" totalsRowDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{A9A48352-3929-4E88-AACC-E1A6F11D63E3}" name="Note" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="0">
+    <tableColumn id="12" xr3:uid="{2C8AA6B6-31D0-4DF0-9DA9-0D8B08088E24}" name="Modulname" totalsRowLabel="Abschlussnote" dataDxfId="53" totalsRowDxfId="52"/>
+    <tableColumn id="1" xr3:uid="{FF50EF13-B9B2-42C9-A37F-07237C42C851}" name="Bereich" dataDxfId="51" totalsRowDxfId="50"/>
+    <tableColumn id="10" xr3:uid="{DE1BE470-5B26-4F88-8799-243B2BE03172}" name="Semester" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{E64020FC-6A5D-4A49-BCE1-C2569FF59159}" name="Schlüssel" dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="4" xr3:uid="{8470E22C-4CE1-4553-8671-9BF5989AAE65}" name="Prüfungsart" dataDxfId="45" totalsRowDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{CF2D34DC-4E44-45F0-B25E-0FFB229BA18E}" name="LP" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="6" xr3:uid="{80506F77-5504-411A-B364-0B22CC53A582}" name="Termin 1" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="7" xr3:uid="{C9413F7D-7FA1-417F-B220-3B19C8279173}" name="Ort 1" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="8" xr3:uid="{A89D3283-E2AE-4360-9A93-F5F27682296D}" name="Termin 2" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="9" xr3:uid="{DDE1A5EF-F94C-417A-95CA-A29D4C689B48}" name="Ort 2" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{A92B3274-FA6A-4C49-87BB-1CF1BAC29EAB}" name="Prüfungstermin" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="11" xr3:uid="{F6C0E347-9701-496F-8B92-1BFEDFF8D817}" name="MODULVERANTWORTUNG" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="14" xr3:uid="{A9A48352-3929-4E88-AACC-E1A6F11D63E3}" name="Note" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="28">
       <totalsRowFormula array="1">SUMPRODUCT(IF(Modulliste[Note]&lt;&gt;"", Modulliste[Note]), Modulliste[LP]) / SUM(IF(Modulliste[Note]&lt;&gt;"", Modulliste[LP]))</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1890,12 +2000,20 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="K4" dT="2024-01-16T08:30:29.42" personId="{00CAF5A1-3185-49EF-893A-254A033DD426}" id="{E99CF38F-D9FC-46F1-99E7-39DC56DCAB19}">
+    <text>Studienarbeit beginn</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F70D999F-AAA9-4A38-8F55-9E1C84DAB455}">
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
+    <sheetView zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A25" sqref="A25"/>
     </sheetView>
@@ -5818,16 +5936,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A4:X34">
-    <cfRule type="expression" dxfId="40" priority="2">
+    <cfRule type="expression" dxfId="27" priority="2">
       <formula>OR(A4="F",B4="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="3">
+    <cfRule type="expression" dxfId="26" priority="3">
       <formula>OR(A4="U",B4="U")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="10">
+    <cfRule type="expression" dxfId="25" priority="10">
       <formula>WEEKDAY(A4,2)&gt;5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="1">
+    <cfRule type="expression" dxfId="24" priority="1">
       <formula>TODAY()=A4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5879,12 +5997,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4ECB935-E13C-45B7-ABCC-50BC564AA7A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4ECB935-E13C-45B7-ABCC-50BC564AA7A5}">
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1:AC37"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z23" sqref="Z23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6087,8 +6205,9 @@
         <f t="shared" ref="G5:M20" si="2">IFERROR(IF(MONTH(G4+1)=MONTH(G$4),G4+1,""),"")</f>
         <v>45384</v>
       </c>
-      <c r="H5" s="38" t="s">
-        <v>94</v>
+      <c r="H5" s="38" cm="1">
+        <f t="array" ref="H5">IF(SUM(COUNTIF(G5,Feiertage!$B$2:$B$13)),"F",G5)</f>
+        <v>45384</v>
       </c>
       <c r="I5" s="37">
         <f t="shared" ref="I5:K5" si="3">IFERROR(IF(MONTH(I4+1)=MONTH(I$4),I4+1,""),"")</f>
@@ -6157,7 +6276,7 @@
       </c>
       <c r="AA5" s="47">
         <f>COUNTIF(A4:X34,"U")</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC5" s="30" t="s">
         <v>96</v>
@@ -6191,8 +6310,9 @@
         <f t="shared" si="2"/>
         <v>45385</v>
       </c>
-      <c r="H6" s="38" t="s">
-        <v>94</v>
+      <c r="H6" s="38" cm="1">
+        <f t="array" ref="H6">IF(SUM(COUNTIF(G6,Feiertage!$B$2:$B$13)),"F",G6)</f>
+        <v>45385</v>
       </c>
       <c r="I6" s="37">
         <f t="shared" si="2"/>
@@ -6262,7 +6382,7 @@
       </c>
       <c r="AA6" s="49">
         <f>30-AA5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="31" t="s">
         <v>27</v>
@@ -6296,8 +6416,9 @@
         <f t="shared" si="2"/>
         <v>45386</v>
       </c>
-      <c r="H7" s="38" t="s">
-        <v>94</v>
+      <c r="H7" s="38" cm="1">
+        <f t="array" ref="H7">IF(SUM(COUNTIF(G7,Feiertage!$B$2:$B$13)),"F",G7)</f>
+        <v>45386</v>
       </c>
       <c r="I7" s="37">
         <f t="shared" si="2"/>
@@ -6394,8 +6515,9 @@
         <f t="shared" si="2"/>
         <v>45387</v>
       </c>
-      <c r="H8" s="38" t="s">
-        <v>94</v>
+      <c r="H8" s="38" cm="1">
+        <f t="array" ref="H8">IF(SUM(COUNTIF(G8,Feiertage!$B$2:$B$13)),"F",G8)</f>
+        <v>45387</v>
       </c>
       <c r="I8" s="37">
         <f t="shared" si="2"/>
@@ -6501,8 +6623,9 @@
         <f t="shared" si="2"/>
         <v>45418</v>
       </c>
-      <c r="J9" s="38" t="s">
-        <v>94</v>
+      <c r="J9" s="38" cm="1">
+        <f t="array" ref="J9">IF(SUM(COUNTIF(I9,Feiertage!$B$2:$B$13)),"F",I9)</f>
+        <v>45418</v>
       </c>
       <c r="K9" s="37">
         <f t="shared" si="2"/>
@@ -6597,8 +6720,9 @@
         <f t="shared" si="2"/>
         <v>45419</v>
       </c>
-      <c r="J10" s="38" t="s">
-        <v>94</v>
+      <c r="J10" s="38" cm="1">
+        <f t="array" ref="J10">IF(SUM(COUNTIF(I10,Feiertage!$B$2:$B$13)),"F",I10)</f>
+        <v>45419</v>
       </c>
       <c r="K10" s="37">
         <f t="shared" si="2"/>
@@ -6693,8 +6817,9 @@
         <f t="shared" si="2"/>
         <v>45420</v>
       </c>
-      <c r="J11" s="38" t="s">
-        <v>94</v>
+      <c r="J11" s="38" cm="1">
+        <f t="array" ref="J11">IF(SUM(COUNTIF(I11,Feiertage!$B$2:$B$13)),"F",I11)</f>
+        <v>45420</v>
       </c>
       <c r="K11" s="37">
         <f t="shared" si="2"/>
@@ -6886,8 +7011,9 @@
         <f t="shared" si="2"/>
         <v>45422</v>
       </c>
-      <c r="J13" s="38" t="s">
-        <v>94</v>
+      <c r="J13" s="38" cm="1">
+        <f t="array" ref="J13">IF(SUM(COUNTIF(I13,Feiertage!$B$2:$B$13)),"F",I13)</f>
+        <v>45422</v>
       </c>
       <c r="K13" s="37">
         <f t="shared" si="2"/>
@@ -7105,9 +7231,8 @@
         <f t="shared" si="5"/>
         <v>45516</v>
       </c>
-      <c r="P15" s="38" cm="1">
-        <f t="array" ref="P15">IF(SUM(COUNTIF(O15,Feiertage!$B$2:$B$13)),"F",O15)</f>
-        <v>45516</v>
+      <c r="P15" s="38" t="s">
+        <v>94</v>
       </c>
       <c r="Q15" s="37">
         <f t="shared" si="5"/>
@@ -7203,9 +7328,8 @@
         <f t="shared" si="5"/>
         <v>45517</v>
       </c>
-      <c r="P16" s="38" cm="1">
-        <f t="array" ref="P16">IF(SUM(COUNTIF(O16,Feiertage!$B$2:$B$13)),"F",O16)</f>
-        <v>45517</v>
+      <c r="P16" s="38" t="s">
+        <v>94</v>
       </c>
       <c r="Q16" s="37">
         <f t="shared" si="5"/>
@@ -7301,9 +7425,8 @@
         <f t="shared" si="5"/>
         <v>45518</v>
       </c>
-      <c r="P17" s="38" cm="1">
-        <f t="array" ref="P17">IF(SUM(COUNTIF(O17,Feiertage!$B$2:$B$13)),"F",O17)</f>
-        <v>45518</v>
+      <c r="P17" s="38" t="s">
+        <v>94</v>
       </c>
       <c r="Q17" s="37">
         <f t="shared" si="5"/>
@@ -7399,9 +7522,8 @@
         <f t="shared" si="5"/>
         <v>45519</v>
       </c>
-      <c r="P18" s="38" cm="1">
-        <f t="array" ref="P18">IF(SUM(COUNTIF(O18,Feiertage!$B$2:$B$13)),"F",O18)</f>
-        <v>45519</v>
+      <c r="P18" s="38" t="s">
+        <v>94</v>
       </c>
       <c r="Q18" s="37">
         <f t="shared" si="5"/>
@@ -7497,9 +7619,8 @@
         <f t="shared" si="5"/>
         <v>45520</v>
       </c>
-      <c r="P19" s="38" cm="1">
-        <f t="array" ref="P19">IF(SUM(COUNTIF(O19,Feiertage!$B$2:$B$13)),"F",O19)</f>
-        <v>45520</v>
+      <c r="P19" s="38" t="s">
+        <v>94</v>
       </c>
       <c r="Q19" s="37">
         <f t="shared" si="5"/>
@@ -7534,7 +7655,7 @@
         <v>45642</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="37">
         <f t="shared" si="11"/>
         <v>45308</v>
@@ -7632,7 +7753,7 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37">
         <f t="shared" si="11"/>
         <v>45309</v>
@@ -7645,19 +7766,19 @@
         <f t="shared" ref="C21:C34" si="12">IFERROR(IF(MONTH(C20+1)=MONTH(C$4),C20+1,""),"")</f>
         <v>45340</v>
       </c>
-      <c r="D21" s="38" cm="1">
+      <c r="D21" s="61" cm="1">
         <f t="array" ref="D21">IF(SUM(COUNTIF(C21,Feiertage!$B$2:$B$13)),"F",C21)</f>
         <v>45340</v>
       </c>
-      <c r="E21" s="37">
+      <c r="E21" s="62">
         <f t="shared" ref="E21:E34" si="13">IFERROR(IF(MONTH(E20+1)=MONTH(E$4),E20+1,""),"")</f>
         <v>45369</v>
       </c>
-      <c r="F21" s="38" cm="1">
+      <c r="F21" s="63" cm="1">
         <f t="array" ref="F21">IF(SUM(COUNTIF(E21,Feiertage!$B$2:$B$13)),"F",E21)</f>
         <v>45369</v>
       </c>
-      <c r="G21" s="37">
+      <c r="G21" s="60">
         <f t="shared" ref="G21:G34" si="14">IFERROR(IF(MONTH(G20+1)=MONTH(G$4),G20+1,""),"")</f>
         <v>45400</v>
       </c>
@@ -7743,19 +7864,19 @@
         <f t="shared" si="12"/>
         <v>45341</v>
       </c>
-      <c r="D22" s="38" cm="1">
+      <c r="D22" s="61" cm="1">
         <f t="array" ref="D22">IF(SUM(COUNTIF(C22,Feiertage!$B$2:$B$13)),"F",C22)</f>
         <v>45341</v>
       </c>
-      <c r="E22" s="37">
+      <c r="E22" s="64">
         <f t="shared" si="13"/>
         <v>45370</v>
       </c>
-      <c r="F22" s="38" cm="1">
+      <c r="F22" s="65" cm="1">
         <f t="array" ref="F22">IF(SUM(COUNTIF(E22,Feiertage!$B$2:$B$13)),"F",E22)</f>
         <v>45370</v>
       </c>
-      <c r="G22" s="37">
+      <c r="G22" s="60">
         <f t="shared" si="14"/>
         <v>45401</v>
       </c>
@@ -7841,19 +7962,19 @@
         <f t="shared" si="12"/>
         <v>45342</v>
       </c>
-      <c r="D23" s="38" cm="1">
+      <c r="D23" s="61" cm="1">
         <f t="array" ref="D23">IF(SUM(COUNTIF(C23,Feiertage!$B$2:$B$13)),"F",C23)</f>
         <v>45342</v>
       </c>
-      <c r="E23" s="37">
+      <c r="E23" s="64">
         <f t="shared" si="13"/>
         <v>45371</v>
       </c>
-      <c r="F23" s="38" cm="1">
+      <c r="F23" s="65" cm="1">
         <f t="array" ref="F23">IF(SUM(COUNTIF(E23,Feiertage!$B$2:$B$13)),"F",E23)</f>
         <v>45371</v>
       </c>
-      <c r="G23" s="37">
+      <c r="G23" s="60">
         <f t="shared" si="14"/>
         <v>45402</v>
       </c>
@@ -7939,19 +8060,19 @@
         <f t="shared" si="12"/>
         <v>45343</v>
       </c>
-      <c r="D24" s="38" cm="1">
+      <c r="D24" s="61" cm="1">
         <f t="array" ref="D24">IF(SUM(COUNTIF(C24,Feiertage!$B$2:$B$13)),"F",C24)</f>
         <v>45343</v>
       </c>
-      <c r="E24" s="37">
+      <c r="E24" s="64">
         <f t="shared" si="13"/>
         <v>45372</v>
       </c>
-      <c r="F24" s="38" cm="1">
+      <c r="F24" s="65" cm="1">
         <f t="array" ref="F24">IF(SUM(COUNTIF(E24,Feiertage!$B$2:$B$13)),"F",E24)</f>
         <v>45372</v>
       </c>
-      <c r="G24" s="37">
+      <c r="G24" s="60">
         <f t="shared" si="14"/>
         <v>45403</v>
       </c>
@@ -8024,7 +8145,7 @@
         <v>45647</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="37">
         <f t="shared" si="23"/>
         <v>45313</v>
@@ -8037,19 +8158,19 @@
         <f t="shared" si="12"/>
         <v>45344</v>
       </c>
-      <c r="D25" s="38" cm="1">
+      <c r="D25" s="61" cm="1">
         <f t="array" ref="D25">IF(SUM(COUNTIF(C25,Feiertage!$B$2:$B$13)),"F",C25)</f>
         <v>45344</v>
       </c>
-      <c r="E25" s="37">
+      <c r="E25" s="66">
         <f t="shared" si="13"/>
         <v>45373</v>
       </c>
-      <c r="F25" s="38" cm="1">
+      <c r="F25" s="67" cm="1">
         <f t="array" ref="F25">IF(SUM(COUNTIF(E25,Feiertage!$B$2:$B$13)),"F",E25)</f>
         <v>45373</v>
       </c>
-      <c r="G25" s="37">
+      <c r="G25" s="60">
         <f t="shared" si="14"/>
         <v>45404</v>
       </c>
@@ -8122,7 +8243,7 @@
         <v>45648</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="37">
         <f>IFERROR(IF(MONTH(A25+1)=MONTH(A$4),A25+1,""),"")</f>
         <v>45314</v>
@@ -8183,19 +8304,19 @@
         <f t="shared" si="18"/>
         <v>45527</v>
       </c>
-      <c r="P26" s="38" cm="1">
+      <c r="P26" s="61" cm="1">
         <f t="array" ref="P26">IF(SUM(COUNTIF(O26,Feiertage!$B$2:$B$13)),"F",O26)</f>
         <v>45527</v>
       </c>
-      <c r="Q26" s="37">
+      <c r="Q26" s="62">
         <f t="shared" si="19"/>
         <v>45558</v>
       </c>
-      <c r="R26" s="38" cm="1">
+      <c r="R26" s="63" cm="1">
         <f t="array" ref="R26">IF(SUM(COUNTIF(Q26,Feiertage!$B$2:$B$13)),"F",Q26)</f>
         <v>45558</v>
       </c>
-      <c r="S26" s="37">
+      <c r="S26" s="60">
         <f t="shared" si="20"/>
         <v>45588</v>
       </c>
@@ -8219,7 +8340,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A27" s="37">
         <f t="shared" ref="A27:A31" si="24">IFERROR(IF(MONTH(A26+1)=MONTH(A$4),A26+1,""),"")</f>
         <v>45315</v>
@@ -8256,19 +8377,19 @@
         <f t="shared" si="15"/>
         <v>45436</v>
       </c>
-      <c r="J27" s="38" cm="1">
+      <c r="J27" s="61" cm="1">
         <f t="array" ref="J27">IF(SUM(COUNTIF(I27,Feiertage!$B$2:$B$13)),"F",I27)</f>
         <v>45436</v>
       </c>
-      <c r="K27" s="37">
+      <c r="K27" s="62">
         <f t="shared" si="16"/>
         <v>45467</v>
       </c>
-      <c r="L27" s="38" cm="1">
+      <c r="L27" s="63" cm="1">
         <f t="array" ref="L27">IF(SUM(COUNTIF(K27,Feiertage!$B$2:$B$13)),"F",K27)</f>
         <v>45467</v>
       </c>
-      <c r="M27" s="37">
+      <c r="M27" s="60">
         <f t="shared" si="17"/>
         <v>45497</v>
       </c>
@@ -8280,19 +8401,19 @@
         <f t="shared" si="18"/>
         <v>45528</v>
       </c>
-      <c r="P27" s="38" cm="1">
+      <c r="P27" s="61" cm="1">
         <f t="array" ref="P27">IF(SUM(COUNTIF(O27,Feiertage!$B$2:$B$13)),"F",O27)</f>
         <v>45528</v>
       </c>
-      <c r="Q27" s="37">
+      <c r="Q27" s="64">
         <f t="shared" si="19"/>
         <v>45559</v>
       </c>
-      <c r="R27" s="38" cm="1">
+      <c r="R27" s="65" cm="1">
         <f t="array" ref="R27">IF(SUM(COUNTIF(Q27,Feiertage!$B$2:$B$13)),"F",Q27)</f>
         <v>45559</v>
       </c>
-      <c r="S27" s="37">
+      <c r="S27" s="60">
         <f t="shared" si="20"/>
         <v>45589</v>
       </c>
@@ -8337,9 +8458,8 @@
         <f t="shared" si="13"/>
         <v>45376</v>
       </c>
-      <c r="F28" s="38" cm="1">
-        <f t="array" ref="F28">IF(SUM(COUNTIF(E28,Feiertage!$B$2:$B$13)),"F",E28)</f>
-        <v>45376</v>
+      <c r="F28" s="38" t="s">
+        <v>94</v>
       </c>
       <c r="G28" s="37">
         <f t="shared" si="14"/>
@@ -8353,19 +8473,19 @@
         <f t="shared" si="15"/>
         <v>45437</v>
       </c>
-      <c r="J28" s="38" cm="1">
+      <c r="J28" s="61" cm="1">
         <f t="array" ref="J28">IF(SUM(COUNTIF(I28,Feiertage!$B$2:$B$13)),"F",I28)</f>
         <v>45437</v>
       </c>
-      <c r="K28" s="37">
+      <c r="K28" s="64">
         <f t="shared" si="16"/>
         <v>45468</v>
       </c>
-      <c r="L28" s="38" cm="1">
+      <c r="L28" s="65" cm="1">
         <f t="array" ref="L28">IF(SUM(COUNTIF(K28,Feiertage!$B$2:$B$13)),"F",K28)</f>
         <v>45468</v>
       </c>
-      <c r="M28" s="37">
+      <c r="M28" s="60">
         <f t="shared" si="17"/>
         <v>45498</v>
       </c>
@@ -8377,19 +8497,19 @@
         <f t="shared" si="18"/>
         <v>45529</v>
       </c>
-      <c r="P28" s="38" cm="1">
+      <c r="P28" s="61" cm="1">
         <f t="array" ref="P28">IF(SUM(COUNTIF(O28,Feiertage!$B$2:$B$13)),"F",O28)</f>
         <v>45529</v>
       </c>
-      <c r="Q28" s="37">
+      <c r="Q28" s="64">
         <f t="shared" si="19"/>
         <v>45560</v>
       </c>
-      <c r="R28" s="38" cm="1">
+      <c r="R28" s="65" cm="1">
         <f t="array" ref="R28">IF(SUM(COUNTIF(Q28,Feiertage!$B$2:$B$13)),"F",Q28)</f>
         <v>45560</v>
       </c>
-      <c r="S28" s="37">
+      <c r="S28" s="60">
         <f t="shared" si="20"/>
         <v>45590</v>
       </c>
@@ -8435,9 +8555,8 @@
         <f t="shared" si="13"/>
         <v>45377</v>
       </c>
-      <c r="F29" s="38" cm="1">
-        <f t="array" ref="F29">IF(SUM(COUNTIF(E29,Feiertage!$B$2:$B$13)),"F",E29)</f>
-        <v>45377</v>
+      <c r="F29" s="38" t="s">
+        <v>94</v>
       </c>
       <c r="G29" s="37">
         <f t="shared" si="14"/>
@@ -8451,19 +8570,19 @@
         <f t="shared" si="15"/>
         <v>45438</v>
       </c>
-      <c r="J29" s="38" cm="1">
+      <c r="J29" s="61" cm="1">
         <f t="array" ref="J29">IF(SUM(COUNTIF(I29,Feiertage!$B$2:$B$13)),"F",I29)</f>
         <v>45438</v>
       </c>
-      <c r="K29" s="37">
+      <c r="K29" s="64">
         <f t="shared" si="16"/>
         <v>45469</v>
       </c>
-      <c r="L29" s="38" cm="1">
+      <c r="L29" s="65" cm="1">
         <f t="array" ref="L29">IF(SUM(COUNTIF(K29,Feiertage!$B$2:$B$13)),"F",K29)</f>
         <v>45469</v>
       </c>
-      <c r="M29" s="37">
+      <c r="M29" s="60">
         <f t="shared" si="17"/>
         <v>45499</v>
       </c>
@@ -8475,19 +8594,19 @@
         <f t="shared" si="18"/>
         <v>45530</v>
       </c>
-      <c r="P29" s="38" cm="1">
+      <c r="P29" s="61" cm="1">
         <f t="array" ref="P29">IF(SUM(COUNTIF(O29,Feiertage!$B$2:$B$13)),"F",O29)</f>
         <v>45530</v>
       </c>
-      <c r="Q29" s="37">
+      <c r="Q29" s="64">
         <f t="shared" si="19"/>
         <v>45561</v>
       </c>
-      <c r="R29" s="38" cm="1">
+      <c r="R29" s="65" cm="1">
         <f t="array" ref="R29">IF(SUM(COUNTIF(Q29,Feiertage!$B$2:$B$13)),"F",Q29)</f>
         <v>45561</v>
       </c>
-      <c r="S29" s="37">
+      <c r="S29" s="60">
         <f t="shared" si="20"/>
         <v>45591</v>
       </c>
@@ -8533,9 +8652,8 @@
         <f t="shared" si="13"/>
         <v>45378</v>
       </c>
-      <c r="F30" s="38" cm="1">
-        <f t="array" ref="F30">IF(SUM(COUNTIF(E30,Feiertage!$B$2:$B$13)),"F",E30)</f>
-        <v>45378</v>
+      <c r="F30" s="38" t="s">
+        <v>94</v>
       </c>
       <c r="G30" s="37">
         <f t="shared" si="14"/>
@@ -8549,19 +8667,19 @@
         <f t="shared" si="15"/>
         <v>45439</v>
       </c>
-      <c r="J30" s="38" cm="1">
+      <c r="J30" s="61" cm="1">
         <f t="array" ref="J30">IF(SUM(COUNTIF(I30,Feiertage!$B$2:$B$13)),"F",I30)</f>
         <v>45439</v>
       </c>
-      <c r="K30" s="37">
+      <c r="K30" s="64">
         <f t="shared" si="16"/>
         <v>45470</v>
       </c>
-      <c r="L30" s="38" cm="1">
+      <c r="L30" s="65" cm="1">
         <f t="array" ref="L30">IF(SUM(COUNTIF(K30,Feiertage!$B$2:$B$13)),"F",K30)</f>
         <v>45470</v>
       </c>
-      <c r="M30" s="37">
+      <c r="M30" s="60">
         <f t="shared" si="17"/>
         <v>45500</v>
       </c>
@@ -8573,19 +8691,19 @@
         <f t="shared" si="18"/>
         <v>45531</v>
       </c>
-      <c r="P30" s="38" cm="1">
+      <c r="P30" s="61" cm="1">
         <f t="array" ref="P30">IF(SUM(COUNTIF(O30,Feiertage!$B$2:$B$13)),"F",O30)</f>
         <v>45531</v>
       </c>
-      <c r="Q30" s="37">
+      <c r="Q30" s="64">
         <f t="shared" si="19"/>
         <v>45562</v>
       </c>
-      <c r="R30" s="38" cm="1">
+      <c r="R30" s="65" cm="1">
         <f t="array" ref="R30">IF(SUM(COUNTIF(Q30,Feiertage!$B$2:$B$13)),"F",Q30)</f>
         <v>45562</v>
       </c>
-      <c r="S30" s="37">
+      <c r="S30" s="60">
         <f t="shared" si="20"/>
         <v>45592</v>
       </c>
@@ -8609,7 +8727,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="37">
         <f t="shared" si="24"/>
         <v>45319</v>
@@ -8630,9 +8748,8 @@
         <f t="shared" si="13"/>
         <v>45379</v>
       </c>
-      <c r="F31" s="38" cm="1">
-        <f t="array" ref="F31">IF(SUM(COUNTIF(E31,Feiertage!$B$2:$B$13)),"F",E31)</f>
-        <v>45379</v>
+      <c r="F31" s="38" t="s">
+        <v>94</v>
       </c>
       <c r="G31" s="37">
         <f t="shared" si="14"/>
@@ -8646,19 +8763,19 @@
         <f t="shared" si="15"/>
         <v>45440</v>
       </c>
-      <c r="J31" s="38" cm="1">
+      <c r="J31" s="61" cm="1">
         <f t="array" ref="J31">IF(SUM(COUNTIF(I31,Feiertage!$B$2:$B$13)),"F",I31)</f>
         <v>45440</v>
       </c>
-      <c r="K31" s="37">
+      <c r="K31" s="64">
         <f t="shared" si="16"/>
         <v>45471</v>
       </c>
-      <c r="L31" s="38" cm="1">
+      <c r="L31" s="65" cm="1">
         <f t="array" ref="L31">IF(SUM(COUNTIF(K31,Feiertage!$B$2:$B$13)),"F",K31)</f>
         <v>45471</v>
       </c>
-      <c r="M31" s="37">
+      <c r="M31" s="60">
         <f t="shared" si="17"/>
         <v>45501</v>
       </c>
@@ -8670,19 +8787,19 @@
         <f t="shared" si="18"/>
         <v>45532</v>
       </c>
-      <c r="P31" s="38" cm="1">
+      <c r="P31" s="61" cm="1">
         <f t="array" ref="P31">IF(SUM(COUNTIF(O31,Feiertage!$B$2:$B$13)),"F",O31)</f>
         <v>45532</v>
       </c>
-      <c r="Q31" s="37">
+      <c r="Q31" s="66">
         <f t="shared" si="19"/>
         <v>45563</v>
       </c>
-      <c r="R31" s="38" cm="1">
+      <c r="R31" s="67" cm="1">
         <f t="array" ref="R31">IF(SUM(COUNTIF(Q31,Feiertage!$B$2:$B$13)),"F",Q31)</f>
         <v>45563</v>
       </c>
-      <c r="S31" s="37">
+      <c r="S31" s="60">
         <f t="shared" si="20"/>
         <v>45593</v>
       </c>
@@ -8707,7 +8824,7 @@
         <v>45654</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="37">
         <f>IFERROR(IF(MONTH(A31+1)=MONTH(A$4),A31+1,""),"")</f>
         <v>45320</v>
@@ -8743,19 +8860,19 @@
         <f t="shared" si="15"/>
         <v>45441</v>
       </c>
-      <c r="J32" s="38" cm="1">
+      <c r="J32" s="61" cm="1">
         <f t="array" ref="J32">IF(SUM(COUNTIF(I32,Feiertage!$B$2:$B$13)),"F",I32)</f>
         <v>45441</v>
       </c>
-      <c r="K32" s="37">
+      <c r="K32" s="66">
         <f t="shared" si="16"/>
         <v>45472</v>
       </c>
-      <c r="L32" s="38" cm="1">
+      <c r="L32" s="67" cm="1">
         <f t="array" ref="L32">IF(SUM(COUNTIF(K32,Feiertage!$B$2:$B$13)),"F",K32)</f>
         <v>45472</v>
       </c>
-      <c r="M32" s="37">
+      <c r="M32" s="60">
         <f t="shared" si="17"/>
         <v>45502</v>
       </c>
@@ -8804,7 +8921,7 @@
         <v>45655</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A33" s="37">
         <f>IFERROR(IF(MONTH(A32+1)=MONTH(A$4),A32+1,""),"")</f>
         <v>45321</v>
@@ -9021,21 +9138,22 @@
     <mergeCell ref="I3:J3"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:X34">
-    <cfRule type="expression" dxfId="33" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>TODAY()=A4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>OR(A4="F",B4="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>OR(A4="U",B4="U")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="7">
+    <cfRule type="expression" dxfId="3" priority="7">
       <formula>WEEKDAY(A4,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -9083,7 +9201,7 @@
   <dimension ref="A1:AC37"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AE32" sqref="AE32"/>
+      <selection activeCell="Z27" sqref="Z27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9163,16 +9281,16 @@
         <f>DATE($A$1,1,1)</f>
         <v>45658</v>
       </c>
-      <c r="B4" s="35" cm="1">
-        <f t="array" ref="B4">IF(SUM(COUNTIF(A4,Feiertage!$B$2:$B$13)),"F",A4)</f>
-        <v>45658</v>
+      <c r="B4" s="35" t="str" cm="1">
+        <f t="array" ref="B4">IF(SUM(COUNTIF(A4,Feiertage!$C$2:$C$13)),"F",A4)</f>
+        <v>F</v>
       </c>
       <c r="C4" s="34">
         <f>DATE($A$1,2,1)</f>
         <v>45689</v>
       </c>
       <c r="D4" s="35" cm="1">
-        <f t="array" ref="D4">IF(SUM(COUNTIF(C4,Feiertage!$B$2:$B$13)),"F",C4)</f>
+        <f t="array" ref="D4">IF(SUM(COUNTIF(C4,Feiertage!$C$2:$C$13)),"F",C4)</f>
         <v>45689</v>
       </c>
       <c r="E4" s="34">
@@ -9180,7 +9298,7 @@
         <v>45717</v>
       </c>
       <c r="F4" s="35" cm="1">
-        <f t="array" ref="F4">IF(SUM(COUNTIF(E4,Feiertage!$B$2:$B$13)),"F",E4)</f>
+        <f t="array" ref="F4">IF(SUM(COUNTIF(E4,Feiertage!$C$2:$C$13)),"F",E4)</f>
         <v>45717</v>
       </c>
       <c r="G4" s="34">
@@ -9188,23 +9306,23 @@
         <v>45748</v>
       </c>
       <c r="H4" s="35" cm="1">
-        <f t="array" ref="H4">IF(SUM(COUNTIF(G4,Feiertage!$B$2:$B$13)),"F",G4)</f>
+        <f t="array" ref="H4">IF(SUM(COUNTIF(G4,Feiertage!$C$2:$C$13)),"F",G4)</f>
         <v>45748</v>
       </c>
       <c r="I4" s="34">
         <f>DATE($A$1,5,1)</f>
         <v>45778</v>
       </c>
-      <c r="J4" s="35" cm="1">
-        <f t="array" ref="J4">IF(SUM(COUNTIF(I4,Feiertage!$B$2:$B$13)),"F",I4)</f>
-        <v>45778</v>
+      <c r="J4" s="35" t="str" cm="1">
+        <f t="array" ref="J4">IF(SUM(COUNTIF(I4,Feiertage!$C$2:$C$13)),"F",I4)</f>
+        <v>F</v>
       </c>
       <c r="K4" s="34">
         <f>DATE($A$1,6,1)</f>
         <v>45809</v>
       </c>
       <c r="L4" s="35" cm="1">
-        <f t="array" ref="L4">IF(SUM(COUNTIF(K4,Feiertage!$B$2:$B$13)),"F",K4)</f>
+        <f t="array" ref="L4">IF(SUM(COUNTIF(K4,Feiertage!$C$2:$C$13)),"F",K4)</f>
         <v>45809</v>
       </c>
       <c r="M4" s="34">
@@ -9212,7 +9330,7 @@
         <v>45839</v>
       </c>
       <c r="N4" s="35" cm="1">
-        <f t="array" ref="N4">IF(SUM(COUNTIF(M4,Feiertage!$B$2:$B$13)),"F",M4)</f>
+        <f t="array" ref="N4">IF(SUM(COUNTIF(M4,Feiertage!$C$2:$C$13)),"F",M4)</f>
         <v>45839</v>
       </c>
       <c r="O4" s="34">
@@ -9220,7 +9338,7 @@
         <v>45870</v>
       </c>
       <c r="P4" s="35" cm="1">
-        <f t="array" ref="P4">IF(SUM(COUNTIF(O4,Feiertage!$B$2:$B$13)),"F",O4)</f>
+        <f t="array" ref="P4">IF(SUM(COUNTIF(O4,Feiertage!$C$2:$C$13)),"F",O4)</f>
         <v>45870</v>
       </c>
       <c r="Q4" s="34">
@@ -9228,7 +9346,7 @@
         <v>45901</v>
       </c>
       <c r="R4" s="35" cm="1">
-        <f t="array" ref="R4">IF(SUM(COUNTIF(Q4,Feiertage!$B$2:$B$13)),"F",Q4)</f>
+        <f t="array" ref="R4">IF(SUM(COUNTIF(Q4,Feiertage!$C$2:$C$13)),"F",Q4)</f>
         <v>45901</v>
       </c>
       <c r="S4" s="34">
@@ -9236,23 +9354,23 @@
         <v>45931</v>
       </c>
       <c r="T4" s="35" cm="1">
-        <f t="array" ref="T4">IF(SUM(COUNTIF(S4,Feiertage!$B$2:$B$13)),"F",S4)</f>
+        <f t="array" ref="T4">IF(SUM(COUNTIF(S4,Feiertage!$C$2:$C$13)),"F",S4)</f>
         <v>45931</v>
       </c>
       <c r="U4" s="34">
         <f>DATE($A$1,11,1)</f>
         <v>45962</v>
       </c>
-      <c r="V4" s="35" cm="1">
-        <f t="array" ref="V4">IF(SUM(COUNTIF(U4,Feiertage!$B$2:$B$13)),"F",U4)</f>
-        <v>45962</v>
+      <c r="V4" s="35" t="str" cm="1">
+        <f t="array" ref="V4">IF(SUM(COUNTIF(U4,Feiertage!$C$2:$C$13)),"F",U4)</f>
+        <v>F</v>
       </c>
       <c r="W4" s="36">
         <f>DATE($A$1,12,1)</f>
         <v>45992</v>
       </c>
       <c r="X4" s="35" cm="1">
-        <f t="array" ref="X4">IF(SUM(COUNTIF(W4,Feiertage!$B$2:$B$13)),"F",W4)</f>
+        <f t="array" ref="X4">IF(SUM(COUNTIF(W4,Feiertage!$C$2:$C$13)),"F",W4)</f>
         <v>45992</v>
       </c>
       <c r="AC4" s="32" t="s">
@@ -9265,7 +9383,7 @@
         <v>45659</v>
       </c>
       <c r="B5" s="38" cm="1">
-        <f t="array" ref="B5">IF(SUM(COUNTIF(A5,Feiertage!$B$2:$B$13)),"F",A5)</f>
+        <f t="array" ref="B5">IF(SUM(COUNTIF(A5,Feiertage!$C$2:$C$13)),"F",A5)</f>
         <v>45659</v>
       </c>
       <c r="C5" s="37">
@@ -9273,7 +9391,7 @@
         <v>45690</v>
       </c>
       <c r="D5" s="38" cm="1">
-        <f t="array" ref="D5">IF(SUM(COUNTIF(C5,Feiertage!$B$2:$B$13)),"F",C5)</f>
+        <f t="array" ref="D5">IF(SUM(COUNTIF(C5,Feiertage!$C$2:$C$13)),"F",C5)</f>
         <v>45690</v>
       </c>
       <c r="E5" s="37">
@@ -9281,15 +9399,15 @@
         <v>45718</v>
       </c>
       <c r="F5" s="38" cm="1">
-        <f t="array" ref="F5">IF(SUM(COUNTIF(E5,Feiertage!$B$2:$B$13)),"F",E5)</f>
+        <f t="array" ref="F5">IF(SUM(COUNTIF(E5,Feiertage!$C$2:$C$13)),"F",E5)</f>
         <v>45718</v>
       </c>
       <c r="G5" s="37">
-        <f t="shared" ref="G5:M20" si="2">IFERROR(IF(MONTH(G4+1)=MONTH(G$4),G4+1,""),"")</f>
+        <f t="shared" ref="G5:K20" si="2">IFERROR(IF(MONTH(G4+1)=MONTH(G$4),G4+1,""),"")</f>
         <v>45749</v>
       </c>
       <c r="H5" s="38" cm="1">
-        <f t="array" ref="H5">IF(SUM(COUNTIF(G5,Feiertage!$B$2:$B$13)),"F",G5)</f>
+        <f t="array" ref="H5">IF(SUM(COUNTIF(G5,Feiertage!$C$2:$C$13)),"F",G5)</f>
         <v>45749</v>
       </c>
       <c r="I5" s="37">
@@ -9297,7 +9415,7 @@
         <v>45779</v>
       </c>
       <c r="J5" s="38" cm="1">
-        <f t="array" ref="J5">IF(SUM(COUNTIF(I5,Feiertage!$B$2:$B$13)),"F",I5)</f>
+        <f t="array" ref="J5">IF(SUM(COUNTIF(I5,Feiertage!$C$2:$C$13)),"F",I5)</f>
         <v>45779</v>
       </c>
       <c r="K5" s="37">
@@ -9305,7 +9423,7 @@
         <v>45810</v>
       </c>
       <c r="L5" s="38" cm="1">
-        <f t="array" ref="L5">IF(SUM(COUNTIF(K5,Feiertage!$B$2:$B$13)),"F",K5)</f>
+        <f t="array" ref="L5">IF(SUM(COUNTIF(K5,Feiertage!$C$2:$C$13)),"F",K5)</f>
         <v>45810</v>
       </c>
       <c r="M5" s="37">
@@ -9313,15 +9431,15 @@
         <v>45840</v>
       </c>
       <c r="N5" s="38" cm="1">
-        <f t="array" ref="N5">IF(SUM(COUNTIF(M5,Feiertage!$B$2:$B$13)),"F",M5)</f>
+        <f t="array" ref="N5">IF(SUM(COUNTIF(M5,Feiertage!$C$2:$C$13)),"F",M5)</f>
         <v>45840</v>
       </c>
       <c r="O5" s="37">
-        <f t="shared" ref="O5:S20" si="5">IFERROR(IF(MONTH(O4+1)=MONTH(O$4),O4+1,""),"")</f>
+        <f t="shared" ref="O5:O20" si="5">IFERROR(IF(MONTH(O4+1)=MONTH(O$4),O4+1,""),"")</f>
         <v>45871</v>
       </c>
       <c r="P5" s="38" cm="1">
-        <f t="array" ref="P5">IF(SUM(COUNTIF(O5,Feiertage!$B$2:$B$13)),"F",O5)</f>
+        <f t="array" ref="P5">IF(SUM(COUNTIF(O5,Feiertage!$C$2:$C$13)),"F",O5)</f>
         <v>45871</v>
       </c>
       <c r="Q5" s="37">
@@ -9329,7 +9447,7 @@
         <v>45902</v>
       </c>
       <c r="R5" s="38" cm="1">
-        <f t="array" ref="R5">IF(SUM(COUNTIF(Q5,Feiertage!$B$2:$B$13)),"F",Q5)</f>
+        <f t="array" ref="R5">IF(SUM(COUNTIF(Q5,Feiertage!$C$2:$C$13)),"F",Q5)</f>
         <v>45902</v>
       </c>
       <c r="S5" s="37">
@@ -9337,7 +9455,7 @@
         <v>45932</v>
       </c>
       <c r="T5" s="38" cm="1">
-        <f t="array" ref="T5">IF(SUM(COUNTIF(S5,Feiertage!$B$2:$B$13)),"F",S5)</f>
+        <f t="array" ref="T5">IF(SUM(COUNTIF(S5,Feiertage!$C$2:$C$13)),"F",S5)</f>
         <v>45932</v>
       </c>
       <c r="U5" s="37">
@@ -9345,7 +9463,7 @@
         <v>45963</v>
       </c>
       <c r="V5" s="38" cm="1">
-        <f t="array" ref="V5">IF(SUM(COUNTIF(U5,Feiertage!$B$2:$B$13)),"F",U5)</f>
+        <f t="array" ref="V5">IF(SUM(COUNTIF(U5,Feiertage!$C$2:$C$13)),"F",U5)</f>
         <v>45963</v>
       </c>
       <c r="W5" s="39">
@@ -9353,7 +9471,7 @@
         <v>45993</v>
       </c>
       <c r="X5" s="38" cm="1">
-        <f t="array" ref="X5">IF(SUM(COUNTIF(W5,Feiertage!$B$2:$B$13)),"F",W5)</f>
+        <f t="array" ref="X5">IF(SUM(COUNTIF(W5,Feiertage!$C$2:$C$13)),"F",W5)</f>
         <v>45993</v>
       </c>
       <c r="Z5" s="46" t="s">
@@ -9373,7 +9491,7 @@
         <v>45660</v>
       </c>
       <c r="B6" s="38" cm="1">
-        <f t="array" ref="B6">IF(SUM(COUNTIF(A6,Feiertage!$B$2:$B$13)),"F",A6)</f>
+        <f t="array" ref="B6">IF(SUM(COUNTIF(A6,Feiertage!$C$2:$C$13)),"F",A6)</f>
         <v>45660</v>
       </c>
       <c r="C6" s="37">
@@ -9381,7 +9499,7 @@
         <v>45691</v>
       </c>
       <c r="D6" s="38" cm="1">
-        <f t="array" ref="D6">IF(SUM(COUNTIF(C6,Feiertage!$B$2:$B$13)),"F",C6)</f>
+        <f t="array" ref="D6">IF(SUM(COUNTIF(C6,Feiertage!$C$2:$C$13)),"F",C6)</f>
         <v>45691</v>
       </c>
       <c r="E6" s="37">
@@ -9389,7 +9507,7 @@
         <v>45719</v>
       </c>
       <c r="F6" s="38" cm="1">
-        <f t="array" ref="F6">IF(SUM(COUNTIF(E6,Feiertage!$B$2:$B$13)),"F",E6)</f>
+        <f t="array" ref="F6">IF(SUM(COUNTIF(E6,Feiertage!$C$2:$C$13)),"F",E6)</f>
         <v>45719</v>
       </c>
       <c r="G6" s="37">
@@ -9397,7 +9515,7 @@
         <v>45750</v>
       </c>
       <c r="H6" s="38" cm="1">
-        <f t="array" ref="H6">IF(SUM(COUNTIF(G6,Feiertage!$B$2:$B$13)),"F",G6)</f>
+        <f t="array" ref="H6">IF(SUM(COUNTIF(G6,Feiertage!$C$2:$C$13)),"F",G6)</f>
         <v>45750</v>
       </c>
       <c r="I6" s="37">
@@ -9405,7 +9523,7 @@
         <v>45780</v>
       </c>
       <c r="J6" s="38" cm="1">
-        <f t="array" ref="J6">IF(SUM(COUNTIF(I6,Feiertage!$B$2:$B$13)),"F",I6)</f>
+        <f t="array" ref="J6">IF(SUM(COUNTIF(I6,Feiertage!$C$2:$C$13)),"F",I6)</f>
         <v>45780</v>
       </c>
       <c r="K6" s="37">
@@ -9413,7 +9531,7 @@
         <v>45811</v>
       </c>
       <c r="L6" s="38" cm="1">
-        <f t="array" ref="L6">IF(SUM(COUNTIF(K6,Feiertage!$B$2:$B$13)),"F",K6)</f>
+        <f t="array" ref="L6">IF(SUM(COUNTIF(K6,Feiertage!$C$2:$C$13)),"F",K6)</f>
         <v>45811</v>
       </c>
       <c r="M6" s="37">
@@ -9421,7 +9539,7 @@
         <v>45841</v>
       </c>
       <c r="N6" s="38" cm="1">
-        <f t="array" ref="N6">IF(SUM(COUNTIF(M6,Feiertage!$B$2:$B$13)),"F",M6)</f>
+        <f t="array" ref="N6">IF(SUM(COUNTIF(M6,Feiertage!$C$2:$C$13)),"F",M6)</f>
         <v>45841</v>
       </c>
       <c r="O6" s="37">
@@ -9429,7 +9547,7 @@
         <v>45872</v>
       </c>
       <c r="P6" s="38" cm="1">
-        <f t="array" ref="P6">IF(SUM(COUNTIF(O6,Feiertage!$B$2:$B$13)),"F",O6)</f>
+        <f t="array" ref="P6">IF(SUM(COUNTIF(O6,Feiertage!$C$2:$C$13)),"F",O6)</f>
         <v>45872</v>
       </c>
       <c r="Q6" s="37">
@@ -9437,23 +9555,23 @@
         <v>45903</v>
       </c>
       <c r="R6" s="38" cm="1">
-        <f t="array" ref="R6">IF(SUM(COUNTIF(Q6,Feiertage!$B$2:$B$13)),"F",Q6)</f>
+        <f t="array" ref="R6">IF(SUM(COUNTIF(Q6,Feiertage!$C$2:$C$13)),"F",Q6)</f>
         <v>45903</v>
       </c>
       <c r="S6" s="37">
         <f t="shared" si="7"/>
         <v>45933</v>
       </c>
-      <c r="T6" s="38" cm="1">
-        <f t="array" ref="T6">IF(SUM(COUNTIF(S6,Feiertage!$B$2:$B$13)),"F",S6)</f>
-        <v>45933</v>
+      <c r="T6" s="38" t="str" cm="1">
+        <f t="array" ref="T6">IF(SUM(COUNTIF(S6,Feiertage!$C$2:$C$13)),"F",S6)</f>
+        <v>F</v>
       </c>
       <c r="U6" s="37">
         <f t="shared" si="7"/>
         <v>45964</v>
       </c>
       <c r="V6" s="38" cm="1">
-        <f t="array" ref="V6">IF(SUM(COUNTIF(U6,Feiertage!$B$2:$B$13)),"F",U6)</f>
+        <f t="array" ref="V6">IF(SUM(COUNTIF(U6,Feiertage!$C$2:$C$13)),"F",U6)</f>
         <v>45964</v>
       </c>
       <c r="W6" s="39">
@@ -9461,7 +9579,7 @@
         <v>45994</v>
       </c>
       <c r="X6" s="38" cm="1">
-        <f t="array" ref="X6">IF(SUM(COUNTIF(W6,Feiertage!$B$2:$B$13)),"F",W6)</f>
+        <f t="array" ref="X6">IF(SUM(COUNTIF(W6,Feiertage!$C$2:$C$13)),"F",W6)</f>
         <v>45994</v>
       </c>
       <c r="Z6" s="48" t="s">
@@ -9481,7 +9599,7 @@
         <v>45661</v>
       </c>
       <c r="B7" s="38" cm="1">
-        <f t="array" ref="B7">IF(SUM(COUNTIF(A7,Feiertage!$B$2:$B$13)),"F",A7)</f>
+        <f t="array" ref="B7">IF(SUM(COUNTIF(A7,Feiertage!$C$2:$C$13)),"F",A7)</f>
         <v>45661</v>
       </c>
       <c r="C7" s="37">
@@ -9489,7 +9607,7 @@
         <v>45692</v>
       </c>
       <c r="D7" s="38" cm="1">
-        <f t="array" ref="D7">IF(SUM(COUNTIF(C7,Feiertage!$B$2:$B$13)),"F",C7)</f>
+        <f t="array" ref="D7">IF(SUM(COUNTIF(C7,Feiertage!$C$2:$C$13)),"F",C7)</f>
         <v>45692</v>
       </c>
       <c r="E7" s="37">
@@ -9497,7 +9615,7 @@
         <v>45720</v>
       </c>
       <c r="F7" s="38" cm="1">
-        <f t="array" ref="F7">IF(SUM(COUNTIF(E7,Feiertage!$B$2:$B$13)),"F",E7)</f>
+        <f t="array" ref="F7">IF(SUM(COUNTIF(E7,Feiertage!$C$2:$C$13)),"F",E7)</f>
         <v>45720</v>
       </c>
       <c r="G7" s="37">
@@ -9505,7 +9623,7 @@
         <v>45751</v>
       </c>
       <c r="H7" s="38" cm="1">
-        <f t="array" ref="H7">IF(SUM(COUNTIF(G7,Feiertage!$B$2:$B$13)),"F",G7)</f>
+        <f t="array" ref="H7">IF(SUM(COUNTIF(G7,Feiertage!$C$2:$C$13)),"F",G7)</f>
         <v>45751</v>
       </c>
       <c r="I7" s="37">
@@ -9513,7 +9631,7 @@
         <v>45781</v>
       </c>
       <c r="J7" s="38" cm="1">
-        <f t="array" ref="J7">IF(SUM(COUNTIF(I7,Feiertage!$B$2:$B$13)),"F",I7)</f>
+        <f t="array" ref="J7">IF(SUM(COUNTIF(I7,Feiertage!$C$2:$C$13)),"F",I7)</f>
         <v>45781</v>
       </c>
       <c r="K7" s="37">
@@ -9521,7 +9639,7 @@
         <v>45812</v>
       </c>
       <c r="L7" s="38" cm="1">
-        <f t="array" ref="L7">IF(SUM(COUNTIF(K7,Feiertage!$B$2:$B$13)),"F",K7)</f>
+        <f t="array" ref="L7">IF(SUM(COUNTIF(K7,Feiertage!$C$2:$C$13)),"F",K7)</f>
         <v>45812</v>
       </c>
       <c r="M7" s="37">
@@ -9529,7 +9647,7 @@
         <v>45842</v>
       </c>
       <c r="N7" s="38" cm="1">
-        <f t="array" ref="N7">IF(SUM(COUNTIF(M7,Feiertage!$B$2:$B$13)),"F",M7)</f>
+        <f t="array" ref="N7">IF(SUM(COUNTIF(M7,Feiertage!$C$2:$C$13)),"F",M7)</f>
         <v>45842</v>
       </c>
       <c r="O7" s="37">
@@ -9537,7 +9655,7 @@
         <v>45873</v>
       </c>
       <c r="P7" s="38" cm="1">
-        <f t="array" ref="P7">IF(SUM(COUNTIF(O7,Feiertage!$B$2:$B$13)),"F",O7)</f>
+        <f t="array" ref="P7">IF(SUM(COUNTIF(O7,Feiertage!$C$2:$C$13)),"F",O7)</f>
         <v>45873</v>
       </c>
       <c r="Q7" s="37">
@@ -9545,7 +9663,7 @@
         <v>45904</v>
       </c>
       <c r="R7" s="38" cm="1">
-        <f t="array" ref="R7">IF(SUM(COUNTIF(Q7,Feiertage!$B$2:$B$13)),"F",Q7)</f>
+        <f t="array" ref="R7">IF(SUM(COUNTIF(Q7,Feiertage!$C$2:$C$13)),"F",Q7)</f>
         <v>45904</v>
       </c>
       <c r="S7" s="37">
@@ -9553,7 +9671,7 @@
         <v>45934</v>
       </c>
       <c r="T7" s="38" cm="1">
-        <f t="array" ref="T7">IF(SUM(COUNTIF(S7,Feiertage!$B$2:$B$13)),"F",S7)</f>
+        <f t="array" ref="T7">IF(SUM(COUNTIF(S7,Feiertage!$C$2:$C$13)),"F",S7)</f>
         <v>45934</v>
       </c>
       <c r="U7" s="37">
@@ -9561,7 +9679,7 @@
         <v>45965</v>
       </c>
       <c r="V7" s="38" cm="1">
-        <f t="array" ref="V7">IF(SUM(COUNTIF(U7,Feiertage!$B$2:$B$13)),"F",U7)</f>
+        <f t="array" ref="V7">IF(SUM(COUNTIF(U7,Feiertage!$C$2:$C$13)),"F",U7)</f>
         <v>45965</v>
       </c>
       <c r="W7" s="39">
@@ -9569,7 +9687,7 @@
         <v>45995</v>
       </c>
       <c r="X7" s="38" cm="1">
-        <f t="array" ref="X7">IF(SUM(COUNTIF(W7,Feiertage!$B$2:$B$13)),"F",W7)</f>
+        <f t="array" ref="X7">IF(SUM(COUNTIF(W7,Feiertage!$C$2:$C$13)),"F",W7)</f>
         <v>45995</v>
       </c>
       <c r="AC7" s="45" t="s">
@@ -9582,7 +9700,7 @@
         <v>45662</v>
       </c>
       <c r="B8" s="38" cm="1">
-        <f t="array" ref="B8">IF(SUM(COUNTIF(A8,Feiertage!$B$2:$B$13)),"F",A8)</f>
+        <f t="array" ref="B8">IF(SUM(COUNTIF(A8,Feiertage!$C$2:$C$13)),"F",A8)</f>
         <v>45662</v>
       </c>
       <c r="C8" s="37">
@@ -9590,7 +9708,7 @@
         <v>45693</v>
       </c>
       <c r="D8" s="38" cm="1">
-        <f t="array" ref="D8">IF(SUM(COUNTIF(C8,Feiertage!$B$2:$B$13)),"F",C8)</f>
+        <f t="array" ref="D8">IF(SUM(COUNTIF(C8,Feiertage!$C$2:$C$13)),"F",C8)</f>
         <v>45693</v>
       </c>
       <c r="E8" s="37">
@@ -9598,7 +9716,7 @@
         <v>45721</v>
       </c>
       <c r="F8" s="38" cm="1">
-        <f t="array" ref="F8">IF(SUM(COUNTIF(E8,Feiertage!$B$2:$B$13)),"F",E8)</f>
+        <f t="array" ref="F8">IF(SUM(COUNTIF(E8,Feiertage!$C$2:$C$13)),"F",E8)</f>
         <v>45721</v>
       </c>
       <c r="G8" s="37">
@@ -9606,7 +9724,7 @@
         <v>45752</v>
       </c>
       <c r="H8" s="38" cm="1">
-        <f t="array" ref="H8">IF(SUM(COUNTIF(G8,Feiertage!$B$2:$B$13)),"F",G8)</f>
+        <f t="array" ref="H8">IF(SUM(COUNTIF(G8,Feiertage!$C$2:$C$13)),"F",G8)</f>
         <v>45752</v>
       </c>
       <c r="I8" s="37">
@@ -9614,7 +9732,7 @@
         <v>45782</v>
       </c>
       <c r="J8" s="38" cm="1">
-        <f t="array" ref="J8">IF(SUM(COUNTIF(I8,Feiertage!$B$2:$B$13)),"F",I8)</f>
+        <f t="array" ref="J8">IF(SUM(COUNTIF(I8,Feiertage!$C$2:$C$13)),"F",I8)</f>
         <v>45782</v>
       </c>
       <c r="K8" s="37">
@@ -9622,7 +9740,7 @@
         <v>45813</v>
       </c>
       <c r="L8" s="38" cm="1">
-        <f t="array" ref="L8">IF(SUM(COUNTIF(K8,Feiertage!$B$2:$B$13)),"F",K8)</f>
+        <f t="array" ref="L8">IF(SUM(COUNTIF(K8,Feiertage!$C$2:$C$13)),"F",K8)</f>
         <v>45813</v>
       </c>
       <c r="M8" s="37">
@@ -9630,7 +9748,7 @@
         <v>45843</v>
       </c>
       <c r="N8" s="38" cm="1">
-        <f t="array" ref="N8">IF(SUM(COUNTIF(M8,Feiertage!$B$2:$B$13)),"F",M8)</f>
+        <f t="array" ref="N8">IF(SUM(COUNTIF(M8,Feiertage!$C$2:$C$13)),"F",M8)</f>
         <v>45843</v>
       </c>
       <c r="O8" s="37">
@@ -9638,7 +9756,7 @@
         <v>45874</v>
       </c>
       <c r="P8" s="38" cm="1">
-        <f t="array" ref="P8">IF(SUM(COUNTIF(O8,Feiertage!$B$2:$B$13)),"F",O8)</f>
+        <f t="array" ref="P8">IF(SUM(COUNTIF(O8,Feiertage!$C$2:$C$13)),"F",O8)</f>
         <v>45874</v>
       </c>
       <c r="Q8" s="37">
@@ -9646,7 +9764,7 @@
         <v>45905</v>
       </c>
       <c r="R8" s="38" cm="1">
-        <f t="array" ref="R8">IF(SUM(COUNTIF(Q8,Feiertage!$B$2:$B$13)),"F",Q8)</f>
+        <f t="array" ref="R8">IF(SUM(COUNTIF(Q8,Feiertage!$C$2:$C$13)),"F",Q8)</f>
         <v>45905</v>
       </c>
       <c r="S8" s="37">
@@ -9654,7 +9772,7 @@
         <v>45935</v>
       </c>
       <c r="T8" s="38" cm="1">
-        <f t="array" ref="T8">IF(SUM(COUNTIF(S8,Feiertage!$B$2:$B$13)),"F",S8)</f>
+        <f t="array" ref="T8">IF(SUM(COUNTIF(S8,Feiertage!$C$2:$C$13)),"F",S8)</f>
         <v>45935</v>
       </c>
       <c r="U8" s="37">
@@ -9662,7 +9780,7 @@
         <v>45966</v>
       </c>
       <c r="V8" s="38" cm="1">
-        <f t="array" ref="V8">IF(SUM(COUNTIF(U8,Feiertage!$B$2:$B$13)),"F",U8)</f>
+        <f t="array" ref="V8">IF(SUM(COUNTIF(U8,Feiertage!$C$2:$C$13)),"F",U8)</f>
         <v>45966</v>
       </c>
       <c r="W8" s="39">
@@ -9670,7 +9788,7 @@
         <v>45996</v>
       </c>
       <c r="X8" s="38" cm="1">
-        <f t="array" ref="X8">IF(SUM(COUNTIF(W8,Feiertage!$B$2:$B$13)),"F",W8)</f>
+        <f t="array" ref="X8">IF(SUM(COUNTIF(W8,Feiertage!$C$2:$C$13)),"F",W8)</f>
         <v>45996</v>
       </c>
       <c r="AC8" s="53" t="s">
@@ -9682,16 +9800,16 @@
         <f t="shared" si="9"/>
         <v>45663</v>
       </c>
-      <c r="B9" s="38" cm="1">
-        <f t="array" ref="B9">IF(SUM(COUNTIF(A9,Feiertage!$B$2:$B$13)),"F",A9)</f>
-        <v>45663</v>
+      <c r="B9" s="38" t="str" cm="1">
+        <f t="array" ref="B9">IF(SUM(COUNTIF(A9,Feiertage!$C$2:$C$13)),"F",A9)</f>
+        <v>F</v>
       </c>
       <c r="C9" s="37">
         <f t="shared" si="0"/>
         <v>45694</v>
       </c>
       <c r="D9" s="38" cm="1">
-        <f t="array" ref="D9">IF(SUM(COUNTIF(C9,Feiertage!$B$2:$B$13)),"F",C9)</f>
+        <f t="array" ref="D9">IF(SUM(COUNTIF(C9,Feiertage!$C$2:$C$13)),"F",C9)</f>
         <v>45694</v>
       </c>
       <c r="E9" s="37">
@@ -9699,7 +9817,7 @@
         <v>45722</v>
       </c>
       <c r="F9" s="38" cm="1">
-        <f t="array" ref="F9">IF(SUM(COUNTIF(E9,Feiertage!$B$2:$B$13)),"F",E9)</f>
+        <f t="array" ref="F9">IF(SUM(COUNTIF(E9,Feiertage!$C$2:$C$13)),"F",E9)</f>
         <v>45722</v>
       </c>
       <c r="G9" s="37">
@@ -9707,7 +9825,7 @@
         <v>45753</v>
       </c>
       <c r="H9" s="38" cm="1">
-        <f t="array" ref="H9">IF(SUM(COUNTIF(G9,Feiertage!$B$2:$B$13)),"F",G9)</f>
+        <f t="array" ref="H9">IF(SUM(COUNTIF(G9,Feiertage!$C$2:$C$13)),"F",G9)</f>
         <v>45753</v>
       </c>
       <c r="I9" s="37">
@@ -9715,7 +9833,7 @@
         <v>45783</v>
       </c>
       <c r="J9" s="38" cm="1">
-        <f t="array" ref="J9">IF(SUM(COUNTIF(I9,Feiertage!$B$2:$B$13)),"F",I9)</f>
+        <f t="array" ref="J9">IF(SUM(COUNTIF(I9,Feiertage!$C$2:$C$13)),"F",I9)</f>
         <v>45783</v>
       </c>
       <c r="K9" s="37">
@@ -9723,7 +9841,7 @@
         <v>45814</v>
       </c>
       <c r="L9" s="38" cm="1">
-        <f t="array" ref="L9">IF(SUM(COUNTIF(K9,Feiertage!$B$2:$B$13)),"F",K9)</f>
+        <f t="array" ref="L9">IF(SUM(COUNTIF(K9,Feiertage!$C$2:$C$13)),"F",K9)</f>
         <v>45814</v>
       </c>
       <c r="M9" s="37">
@@ -9731,7 +9849,7 @@
         <v>45844</v>
       </c>
       <c r="N9" s="38" cm="1">
-        <f t="array" ref="N9">IF(SUM(COUNTIF(M9,Feiertage!$B$2:$B$13)),"F",M9)</f>
+        <f t="array" ref="N9">IF(SUM(COUNTIF(M9,Feiertage!$C$2:$C$13)),"F",M9)</f>
         <v>45844</v>
       </c>
       <c r="O9" s="37">
@@ -9739,7 +9857,7 @@
         <v>45875</v>
       </c>
       <c r="P9" s="38" cm="1">
-        <f t="array" ref="P9">IF(SUM(COUNTIF(O9,Feiertage!$B$2:$B$13)),"F",O9)</f>
+        <f t="array" ref="P9">IF(SUM(COUNTIF(O9,Feiertage!$C$2:$C$13)),"F",O9)</f>
         <v>45875</v>
       </c>
       <c r="Q9" s="37">
@@ -9747,7 +9865,7 @@
         <v>45906</v>
       </c>
       <c r="R9" s="38" cm="1">
-        <f t="array" ref="R9">IF(SUM(COUNTIF(Q9,Feiertage!$B$2:$B$13)),"F",Q9)</f>
+        <f t="array" ref="R9">IF(SUM(COUNTIF(Q9,Feiertage!$C$2:$C$13)),"F",Q9)</f>
         <v>45906</v>
       </c>
       <c r="S9" s="37">
@@ -9755,7 +9873,7 @@
         <v>45936</v>
       </c>
       <c r="T9" s="38" cm="1">
-        <f t="array" ref="T9">IF(SUM(COUNTIF(S9,Feiertage!$B$2:$B$13)),"F",S9)</f>
+        <f t="array" ref="T9">IF(SUM(COUNTIF(S9,Feiertage!$C$2:$C$13)),"F",S9)</f>
         <v>45936</v>
       </c>
       <c r="U9" s="37">
@@ -9763,7 +9881,7 @@
         <v>45967</v>
       </c>
       <c r="V9" s="38" cm="1">
-        <f t="array" ref="V9">IF(SUM(COUNTIF(U9,Feiertage!$B$2:$B$13)),"F",U9)</f>
+        <f t="array" ref="V9">IF(SUM(COUNTIF(U9,Feiertage!$C$2:$C$13)),"F",U9)</f>
         <v>45967</v>
       </c>
       <c r="W9" s="39">
@@ -9771,7 +9889,7 @@
         <v>45997</v>
       </c>
       <c r="X9" s="38" cm="1">
-        <f t="array" ref="X9">IF(SUM(COUNTIF(W9,Feiertage!$B$2:$B$13)),"F",W9)</f>
+        <f t="array" ref="X9">IF(SUM(COUNTIF(W9,Feiertage!$C$2:$C$13)),"F",W9)</f>
         <v>45997</v>
       </c>
     </row>
@@ -9781,7 +9899,7 @@
         <v>45664</v>
       </c>
       <c r="B10" s="38" cm="1">
-        <f t="array" ref="B10">IF(SUM(COUNTIF(A10,Feiertage!$B$2:$B$13)),"F",A10)</f>
+        <f t="array" ref="B10">IF(SUM(COUNTIF(A10,Feiertage!$C$2:$C$13)),"F",A10)</f>
         <v>45664</v>
       </c>
       <c r="C10" s="37">
@@ -9789,7 +9907,7 @@
         <v>45695</v>
       </c>
       <c r="D10" s="38" cm="1">
-        <f t="array" ref="D10">IF(SUM(COUNTIF(C10,Feiertage!$B$2:$B$13)),"F",C10)</f>
+        <f t="array" ref="D10">IF(SUM(COUNTIF(C10,Feiertage!$C$2:$C$13)),"F",C10)</f>
         <v>45695</v>
       </c>
       <c r="E10" s="37">
@@ -9797,7 +9915,7 @@
         <v>45723</v>
       </c>
       <c r="F10" s="38" cm="1">
-        <f t="array" ref="F10">IF(SUM(COUNTIF(E10,Feiertage!$B$2:$B$13)),"F",E10)</f>
+        <f t="array" ref="F10">IF(SUM(COUNTIF(E10,Feiertage!$C$2:$C$13)),"F",E10)</f>
         <v>45723</v>
       </c>
       <c r="G10" s="37">
@@ -9805,7 +9923,7 @@
         <v>45754</v>
       </c>
       <c r="H10" s="38" cm="1">
-        <f t="array" ref="H10">IF(SUM(COUNTIF(G10,Feiertage!$B$2:$B$13)),"F",G10)</f>
+        <f t="array" ref="H10">IF(SUM(COUNTIF(G10,Feiertage!$C$2:$C$13)),"F",G10)</f>
         <v>45754</v>
       </c>
       <c r="I10" s="37">
@@ -9813,7 +9931,7 @@
         <v>45784</v>
       </c>
       <c r="J10" s="38" cm="1">
-        <f t="array" ref="J10">IF(SUM(COUNTIF(I10,Feiertage!$B$2:$B$13)),"F",I10)</f>
+        <f t="array" ref="J10">IF(SUM(COUNTIF(I10,Feiertage!$C$2:$C$13)),"F",I10)</f>
         <v>45784</v>
       </c>
       <c r="K10" s="37">
@@ -9821,7 +9939,7 @@
         <v>45815</v>
       </c>
       <c r="L10" s="38" cm="1">
-        <f t="array" ref="L10">IF(SUM(COUNTIF(K10,Feiertage!$B$2:$B$13)),"F",K10)</f>
+        <f t="array" ref="L10">IF(SUM(COUNTIF(K10,Feiertage!$C$2:$C$13)),"F",K10)</f>
         <v>45815</v>
       </c>
       <c r="M10" s="37">
@@ -9829,7 +9947,7 @@
         <v>45845</v>
       </c>
       <c r="N10" s="38" cm="1">
-        <f t="array" ref="N10">IF(SUM(COUNTIF(M10,Feiertage!$B$2:$B$13)),"F",M10)</f>
+        <f t="array" ref="N10">IF(SUM(COUNTIF(M10,Feiertage!$C$2:$C$13)),"F",M10)</f>
         <v>45845</v>
       </c>
       <c r="O10" s="37">
@@ -9837,7 +9955,7 @@
         <v>45876</v>
       </c>
       <c r="P10" s="38" cm="1">
-        <f t="array" ref="P10">IF(SUM(COUNTIF(O10,Feiertage!$B$2:$B$13)),"F",O10)</f>
+        <f t="array" ref="P10">IF(SUM(COUNTIF(O10,Feiertage!$C$2:$C$13)),"F",O10)</f>
         <v>45876</v>
       </c>
       <c r="Q10" s="37">
@@ -9845,7 +9963,7 @@
         <v>45907</v>
       </c>
       <c r="R10" s="38" cm="1">
-        <f t="array" ref="R10">IF(SUM(COUNTIF(Q10,Feiertage!$B$2:$B$13)),"F",Q10)</f>
+        <f t="array" ref="R10">IF(SUM(COUNTIF(Q10,Feiertage!$C$2:$C$13)),"F",Q10)</f>
         <v>45907</v>
       </c>
       <c r="S10" s="37">
@@ -9853,7 +9971,7 @@
         <v>45937</v>
       </c>
       <c r="T10" s="38" cm="1">
-        <f t="array" ref="T10">IF(SUM(COUNTIF(S10,Feiertage!$B$2:$B$13)),"F",S10)</f>
+        <f t="array" ref="T10">IF(SUM(COUNTIF(S10,Feiertage!$C$2:$C$13)),"F",S10)</f>
         <v>45937</v>
       </c>
       <c r="U10" s="37">
@@ -9861,7 +9979,7 @@
         <v>45968</v>
       </c>
       <c r="V10" s="38" cm="1">
-        <f t="array" ref="V10">IF(SUM(COUNTIF(U10,Feiertage!$B$2:$B$13)),"F",U10)</f>
+        <f t="array" ref="V10">IF(SUM(COUNTIF(U10,Feiertage!$C$2:$C$13)),"F",U10)</f>
         <v>45968</v>
       </c>
       <c r="W10" s="39">
@@ -9869,7 +9987,7 @@
         <v>45998</v>
       </c>
       <c r="X10" s="38" cm="1">
-        <f t="array" ref="X10">IF(SUM(COUNTIF(W10,Feiertage!$B$2:$B$13)),"F",W10)</f>
+        <f t="array" ref="X10">IF(SUM(COUNTIF(W10,Feiertage!$C$2:$C$13)),"F",W10)</f>
         <v>45998</v>
       </c>
     </row>
@@ -9879,7 +9997,7 @@
         <v>45665</v>
       </c>
       <c r="B11" s="38" cm="1">
-        <f t="array" ref="B11">IF(SUM(COUNTIF(A11,Feiertage!$B$2:$B$13)),"F",A11)</f>
+        <f t="array" ref="B11">IF(SUM(COUNTIF(A11,Feiertage!$C$2:$C$13)),"F",A11)</f>
         <v>45665</v>
       </c>
       <c r="C11" s="37">
@@ -9887,7 +10005,7 @@
         <v>45696</v>
       </c>
       <c r="D11" s="38" cm="1">
-        <f t="array" ref="D11">IF(SUM(COUNTIF(C11,Feiertage!$B$2:$B$13)),"F",C11)</f>
+        <f t="array" ref="D11">IF(SUM(COUNTIF(C11,Feiertage!$C$2:$C$13)),"F",C11)</f>
         <v>45696</v>
       </c>
       <c r="E11" s="37">
@@ -9895,7 +10013,7 @@
         <v>45724</v>
       </c>
       <c r="F11" s="38" cm="1">
-        <f t="array" ref="F11">IF(SUM(COUNTIF(E11,Feiertage!$B$2:$B$13)),"F",E11)</f>
+        <f t="array" ref="F11">IF(SUM(COUNTIF(E11,Feiertage!$C$2:$C$13)),"F",E11)</f>
         <v>45724</v>
       </c>
       <c r="G11" s="37">
@@ -9903,7 +10021,7 @@
         <v>45755</v>
       </c>
       <c r="H11" s="38" cm="1">
-        <f t="array" ref="H11">IF(SUM(COUNTIF(G11,Feiertage!$B$2:$B$13)),"F",G11)</f>
+        <f t="array" ref="H11">IF(SUM(COUNTIF(G11,Feiertage!$C$2:$C$13)),"F",G11)</f>
         <v>45755</v>
       </c>
       <c r="I11" s="37">
@@ -9911,7 +10029,7 @@
         <v>45785</v>
       </c>
       <c r="J11" s="38" cm="1">
-        <f t="array" ref="J11">IF(SUM(COUNTIF(I11,Feiertage!$B$2:$B$13)),"F",I11)</f>
+        <f t="array" ref="J11">IF(SUM(COUNTIF(I11,Feiertage!$C$2:$C$13)),"F",I11)</f>
         <v>45785</v>
       </c>
       <c r="K11" s="37">
@@ -9919,7 +10037,7 @@
         <v>45816</v>
       </c>
       <c r="L11" s="38" cm="1">
-        <f t="array" ref="L11">IF(SUM(COUNTIF(K11,Feiertage!$B$2:$B$13)),"F",K11)</f>
+        <f t="array" ref="L11">IF(SUM(COUNTIF(K11,Feiertage!$C$2:$C$13)),"F",K11)</f>
         <v>45816</v>
       </c>
       <c r="M11" s="37">
@@ -9927,7 +10045,7 @@
         <v>45846</v>
       </c>
       <c r="N11" s="38" cm="1">
-        <f t="array" ref="N11">IF(SUM(COUNTIF(M11,Feiertage!$B$2:$B$13)),"F",M11)</f>
+        <f t="array" ref="N11">IF(SUM(COUNTIF(M11,Feiertage!$C$2:$C$13)),"F",M11)</f>
         <v>45846</v>
       </c>
       <c r="O11" s="37">
@@ -9935,7 +10053,7 @@
         <v>45877</v>
       </c>
       <c r="P11" s="38" cm="1">
-        <f t="array" ref="P11">IF(SUM(COUNTIF(O11,Feiertage!$B$2:$B$13)),"F",O11)</f>
+        <f t="array" ref="P11">IF(SUM(COUNTIF(O11,Feiertage!$C$2:$C$13)),"F",O11)</f>
         <v>45877</v>
       </c>
       <c r="Q11" s="37">
@@ -9943,7 +10061,7 @@
         <v>45908</v>
       </c>
       <c r="R11" s="38" cm="1">
-        <f t="array" ref="R11">IF(SUM(COUNTIF(Q11,Feiertage!$B$2:$B$13)),"F",Q11)</f>
+        <f t="array" ref="R11">IF(SUM(COUNTIF(Q11,Feiertage!$C$2:$C$13)),"F",Q11)</f>
         <v>45908</v>
       </c>
       <c r="S11" s="37">
@@ -9951,7 +10069,7 @@
         <v>45938</v>
       </c>
       <c r="T11" s="38" cm="1">
-        <f t="array" ref="T11">IF(SUM(COUNTIF(S11,Feiertage!$B$2:$B$13)),"F",S11)</f>
+        <f t="array" ref="T11">IF(SUM(COUNTIF(S11,Feiertage!$C$2:$C$13)),"F",S11)</f>
         <v>45938</v>
       </c>
       <c r="U11" s="37">
@@ -9959,7 +10077,7 @@
         <v>45969</v>
       </c>
       <c r="V11" s="38" cm="1">
-        <f t="array" ref="V11">IF(SUM(COUNTIF(U11,Feiertage!$B$2:$B$13)),"F",U11)</f>
+        <f t="array" ref="V11">IF(SUM(COUNTIF(U11,Feiertage!$C$2:$C$13)),"F",U11)</f>
         <v>45969</v>
       </c>
       <c r="W11" s="39">
@@ -9967,7 +10085,7 @@
         <v>45999</v>
       </c>
       <c r="X11" s="38" cm="1">
-        <f t="array" ref="X11">IF(SUM(COUNTIF(W11,Feiertage!$B$2:$B$13)),"F",W11)</f>
+        <f t="array" ref="X11">IF(SUM(COUNTIF(W11,Feiertage!$C$2:$C$13)),"F",W11)</f>
         <v>45999</v>
       </c>
     </row>
@@ -9977,7 +10095,7 @@
         <v>45666</v>
       </c>
       <c r="B12" s="38" cm="1">
-        <f t="array" ref="B12">IF(SUM(COUNTIF(A12,Feiertage!$B$2:$B$13)),"F",A12)</f>
+        <f t="array" ref="B12">IF(SUM(COUNTIF(A12,Feiertage!$C$2:$C$13)),"F",A12)</f>
         <v>45666</v>
       </c>
       <c r="C12" s="37">
@@ -9985,7 +10103,7 @@
         <v>45697</v>
       </c>
       <c r="D12" s="38" cm="1">
-        <f t="array" ref="D12">IF(SUM(COUNTIF(C12,Feiertage!$B$2:$B$13)),"F",C12)</f>
+        <f t="array" ref="D12">IF(SUM(COUNTIF(C12,Feiertage!$C$2:$C$13)),"F",C12)</f>
         <v>45697</v>
       </c>
       <c r="E12" s="37">
@@ -9993,7 +10111,7 @@
         <v>45725</v>
       </c>
       <c r="F12" s="38" cm="1">
-        <f t="array" ref="F12">IF(SUM(COUNTIF(E12,Feiertage!$B$2:$B$13)),"F",E12)</f>
+        <f t="array" ref="F12">IF(SUM(COUNTIF(E12,Feiertage!$C$2:$C$13)),"F",E12)</f>
         <v>45725</v>
       </c>
       <c r="G12" s="37">
@@ -10001,7 +10119,7 @@
         <v>45756</v>
       </c>
       <c r="H12" s="38" cm="1">
-        <f t="array" ref="H12">IF(SUM(COUNTIF(G12,Feiertage!$B$2:$B$13)),"F",G12)</f>
+        <f t="array" ref="H12">IF(SUM(COUNTIF(G12,Feiertage!$C$2:$C$13)),"F",G12)</f>
         <v>45756</v>
       </c>
       <c r="I12" s="37">
@@ -10009,23 +10127,23 @@
         <v>45786</v>
       </c>
       <c r="J12" s="38" cm="1">
-        <f t="array" ref="J12">IF(SUM(COUNTIF(I12,Feiertage!$B$2:$B$13)),"F",I12)</f>
+        <f t="array" ref="J12">IF(SUM(COUNTIF(I12,Feiertage!$C$2:$C$13)),"F",I12)</f>
         <v>45786</v>
       </c>
       <c r="K12" s="37">
         <f t="shared" si="2"/>
         <v>45817</v>
       </c>
-      <c r="L12" s="38" cm="1">
-        <f t="array" ref="L12">IF(SUM(COUNTIF(K12,Feiertage!$B$2:$B$13)),"F",K12)</f>
-        <v>45817</v>
+      <c r="L12" s="38" t="str" cm="1">
+        <f t="array" ref="L12">IF(SUM(COUNTIF(K12,Feiertage!$C$2:$C$13)),"F",K12)</f>
+        <v>F</v>
       </c>
       <c r="M12" s="37">
         <f t="shared" si="4"/>
         <v>45847</v>
       </c>
       <c r="N12" s="38" cm="1">
-        <f t="array" ref="N12">IF(SUM(COUNTIF(M12,Feiertage!$B$2:$B$13)),"F",M12)</f>
+        <f t="array" ref="N12">IF(SUM(COUNTIF(M12,Feiertage!$C$2:$C$13)),"F",M12)</f>
         <v>45847</v>
       </c>
       <c r="O12" s="37">
@@ -10033,7 +10151,7 @@
         <v>45878</v>
       </c>
       <c r="P12" s="38" cm="1">
-        <f t="array" ref="P12">IF(SUM(COUNTIF(O12,Feiertage!$B$2:$B$13)),"F",O12)</f>
+        <f t="array" ref="P12">IF(SUM(COUNTIF(O12,Feiertage!$C$2:$C$13)),"F",O12)</f>
         <v>45878</v>
       </c>
       <c r="Q12" s="37">
@@ -10041,7 +10159,7 @@
         <v>45909</v>
       </c>
       <c r="R12" s="38" cm="1">
-        <f t="array" ref="R12">IF(SUM(COUNTIF(Q12,Feiertage!$B$2:$B$13)),"F",Q12)</f>
+        <f t="array" ref="R12">IF(SUM(COUNTIF(Q12,Feiertage!$C$2:$C$13)),"F",Q12)</f>
         <v>45909</v>
       </c>
       <c r="S12" s="37">
@@ -10049,7 +10167,7 @@
         <v>45939</v>
       </c>
       <c r="T12" s="38" cm="1">
-        <f t="array" ref="T12">IF(SUM(COUNTIF(S12,Feiertage!$B$2:$B$13)),"F",S12)</f>
+        <f t="array" ref="T12">IF(SUM(COUNTIF(S12,Feiertage!$C$2:$C$13)),"F",S12)</f>
         <v>45939</v>
       </c>
       <c r="U12" s="37">
@@ -10057,7 +10175,7 @@
         <v>45970</v>
       </c>
       <c r="V12" s="38" cm="1">
-        <f t="array" ref="V12">IF(SUM(COUNTIF(U12,Feiertage!$B$2:$B$13)),"F",U12)</f>
+        <f t="array" ref="V12">IF(SUM(COUNTIF(U12,Feiertage!$C$2:$C$13)),"F",U12)</f>
         <v>45970</v>
       </c>
       <c r="W12" s="39">
@@ -10065,7 +10183,7 @@
         <v>46000</v>
       </c>
       <c r="X12" s="38" cm="1">
-        <f t="array" ref="X12">IF(SUM(COUNTIF(W12,Feiertage!$B$2:$B$13)),"F",W12)</f>
+        <f t="array" ref="X12">IF(SUM(COUNTIF(W12,Feiertage!$C$2:$C$13)),"F",W12)</f>
         <v>46000</v>
       </c>
     </row>
@@ -10075,7 +10193,7 @@
         <v>45667</v>
       </c>
       <c r="B13" s="38" cm="1">
-        <f t="array" ref="B13">IF(SUM(COUNTIF(A13,Feiertage!$B$2:$B$13)),"F",A13)</f>
+        <f t="array" ref="B13">IF(SUM(COUNTIF(A13,Feiertage!$C$2:$C$13)),"F",A13)</f>
         <v>45667</v>
       </c>
       <c r="C13" s="37">
@@ -10083,7 +10201,7 @@
         <v>45698</v>
       </c>
       <c r="D13" s="38" cm="1">
-        <f t="array" ref="D13">IF(SUM(COUNTIF(C13,Feiertage!$B$2:$B$13)),"F",C13)</f>
+        <f t="array" ref="D13">IF(SUM(COUNTIF(C13,Feiertage!$C$2:$C$13)),"F",C13)</f>
         <v>45698</v>
       </c>
       <c r="E13" s="37">
@@ -10091,7 +10209,7 @@
         <v>45726</v>
       </c>
       <c r="F13" s="38" cm="1">
-        <f t="array" ref="F13">IF(SUM(COUNTIF(E13,Feiertage!$B$2:$B$13)),"F",E13)</f>
+        <f t="array" ref="F13">IF(SUM(COUNTIF(E13,Feiertage!$C$2:$C$13)),"F",E13)</f>
         <v>45726</v>
       </c>
       <c r="G13" s="37">
@@ -10099,7 +10217,7 @@
         <v>45757</v>
       </c>
       <c r="H13" s="38" cm="1">
-        <f t="array" ref="H13">IF(SUM(COUNTIF(G13,Feiertage!$B$2:$B$13)),"F",G13)</f>
+        <f t="array" ref="H13">IF(SUM(COUNTIF(G13,Feiertage!$C$2:$C$13)),"F",G13)</f>
         <v>45757</v>
       </c>
       <c r="I13" s="37">
@@ -10107,7 +10225,7 @@
         <v>45787</v>
       </c>
       <c r="J13" s="38" cm="1">
-        <f t="array" ref="J13">IF(SUM(COUNTIF(I13,Feiertage!$B$2:$B$13)),"F",I13)</f>
+        <f t="array" ref="J13">IF(SUM(COUNTIF(I13,Feiertage!$C$2:$C$13)),"F",I13)</f>
         <v>45787</v>
       </c>
       <c r="K13" s="37">
@@ -10115,7 +10233,7 @@
         <v>45818</v>
       </c>
       <c r="L13" s="38" cm="1">
-        <f t="array" ref="L13">IF(SUM(COUNTIF(K13,Feiertage!$B$2:$B$13)),"F",K13)</f>
+        <f t="array" ref="L13">IF(SUM(COUNTIF(K13,Feiertage!$C$2:$C$13)),"F",K13)</f>
         <v>45818</v>
       </c>
       <c r="M13" s="37">
@@ -10123,7 +10241,7 @@
         <v>45848</v>
       </c>
       <c r="N13" s="38" cm="1">
-        <f t="array" ref="N13">IF(SUM(COUNTIF(M13,Feiertage!$B$2:$B$13)),"F",M13)</f>
+        <f t="array" ref="N13">IF(SUM(COUNTIF(M13,Feiertage!$C$2:$C$13)),"F",M13)</f>
         <v>45848</v>
       </c>
       <c r="O13" s="37">
@@ -10131,7 +10249,7 @@
         <v>45879</v>
       </c>
       <c r="P13" s="38" cm="1">
-        <f t="array" ref="P13">IF(SUM(COUNTIF(O13,Feiertage!$B$2:$B$13)),"F",O13)</f>
+        <f t="array" ref="P13">IF(SUM(COUNTIF(O13,Feiertage!$C$2:$C$13)),"F",O13)</f>
         <v>45879</v>
       </c>
       <c r="Q13" s="37">
@@ -10139,7 +10257,7 @@
         <v>45910</v>
       </c>
       <c r="R13" s="38" cm="1">
-        <f t="array" ref="R13">IF(SUM(COUNTIF(Q13,Feiertage!$B$2:$B$13)),"F",Q13)</f>
+        <f t="array" ref="R13">IF(SUM(COUNTIF(Q13,Feiertage!$C$2:$C$13)),"F",Q13)</f>
         <v>45910</v>
       </c>
       <c r="S13" s="37">
@@ -10147,7 +10265,7 @@
         <v>45940</v>
       </c>
       <c r="T13" s="38" cm="1">
-        <f t="array" ref="T13">IF(SUM(COUNTIF(S13,Feiertage!$B$2:$B$13)),"F",S13)</f>
+        <f t="array" ref="T13">IF(SUM(COUNTIF(S13,Feiertage!$C$2:$C$13)),"F",S13)</f>
         <v>45940</v>
       </c>
       <c r="U13" s="37">
@@ -10155,7 +10273,7 @@
         <v>45971</v>
       </c>
       <c r="V13" s="38" cm="1">
-        <f t="array" ref="V13">IF(SUM(COUNTIF(U13,Feiertage!$B$2:$B$13)),"F",U13)</f>
+        <f t="array" ref="V13">IF(SUM(COUNTIF(U13,Feiertage!$C$2:$C$13)),"F",U13)</f>
         <v>45971</v>
       </c>
       <c r="W13" s="39">
@@ -10163,7 +10281,7 @@
         <v>46001</v>
       </c>
       <c r="X13" s="38" cm="1">
-        <f t="array" ref="X13">IF(SUM(COUNTIF(W13,Feiertage!$B$2:$B$13)),"F",W13)</f>
+        <f t="array" ref="X13">IF(SUM(COUNTIF(W13,Feiertage!$C$2:$C$13)),"F",W13)</f>
         <v>46001</v>
       </c>
     </row>
@@ -10173,7 +10291,7 @@
         <v>45668</v>
       </c>
       <c r="B14" s="38" cm="1">
-        <f t="array" ref="B14">IF(SUM(COUNTIF(A14,Feiertage!$B$2:$B$13)),"F",A14)</f>
+        <f t="array" ref="B14">IF(SUM(COUNTIF(A14,Feiertage!$C$2:$C$13)),"F",A14)</f>
         <v>45668</v>
       </c>
       <c r="C14" s="37">
@@ -10181,7 +10299,7 @@
         <v>45699</v>
       </c>
       <c r="D14" s="38" cm="1">
-        <f t="array" ref="D14">IF(SUM(COUNTIF(C14,Feiertage!$B$2:$B$13)),"F",C14)</f>
+        <f t="array" ref="D14">IF(SUM(COUNTIF(C14,Feiertage!$C$2:$C$13)),"F",C14)</f>
         <v>45699</v>
       </c>
       <c r="E14" s="37">
@@ -10189,7 +10307,7 @@
         <v>45727</v>
       </c>
       <c r="F14" s="38" cm="1">
-        <f t="array" ref="F14">IF(SUM(COUNTIF(E14,Feiertage!$B$2:$B$13)),"F",E14)</f>
+        <f t="array" ref="F14">IF(SUM(COUNTIF(E14,Feiertage!$C$2:$C$13)),"F",E14)</f>
         <v>45727</v>
       </c>
       <c r="G14" s="37">
@@ -10197,7 +10315,7 @@
         <v>45758</v>
       </c>
       <c r="H14" s="38" cm="1">
-        <f t="array" ref="H14">IF(SUM(COUNTIF(G14,Feiertage!$B$2:$B$13)),"F",G14)</f>
+        <f t="array" ref="H14">IF(SUM(COUNTIF(G14,Feiertage!$C$2:$C$13)),"F",G14)</f>
         <v>45758</v>
       </c>
       <c r="I14" s="37">
@@ -10205,7 +10323,7 @@
         <v>45788</v>
       </c>
       <c r="J14" s="38" cm="1">
-        <f t="array" ref="J14">IF(SUM(COUNTIF(I14,Feiertage!$B$2:$B$13)),"F",I14)</f>
+        <f t="array" ref="J14">IF(SUM(COUNTIF(I14,Feiertage!$C$2:$C$13)),"F",I14)</f>
         <v>45788</v>
       </c>
       <c r="K14" s="37">
@@ -10213,7 +10331,7 @@
         <v>45819</v>
       </c>
       <c r="L14" s="38" cm="1">
-        <f t="array" ref="L14">IF(SUM(COUNTIF(K14,Feiertage!$B$2:$B$13)),"F",K14)</f>
+        <f t="array" ref="L14">IF(SUM(COUNTIF(K14,Feiertage!$C$2:$C$13)),"F",K14)</f>
         <v>45819</v>
       </c>
       <c r="M14" s="37">
@@ -10221,7 +10339,7 @@
         <v>45849</v>
       </c>
       <c r="N14" s="38" cm="1">
-        <f t="array" ref="N14">IF(SUM(COUNTIF(M14,Feiertage!$B$2:$B$13)),"F",M14)</f>
+        <f t="array" ref="N14">IF(SUM(COUNTIF(M14,Feiertage!$C$2:$C$13)),"F",M14)</f>
         <v>45849</v>
       </c>
       <c r="O14" s="37">
@@ -10229,7 +10347,7 @@
         <v>45880</v>
       </c>
       <c r="P14" s="38" cm="1">
-        <f t="array" ref="P14">IF(SUM(COUNTIF(O14,Feiertage!$B$2:$B$13)),"F",O14)</f>
+        <f t="array" ref="P14">IF(SUM(COUNTIF(O14,Feiertage!$C$2:$C$13)),"F",O14)</f>
         <v>45880</v>
       </c>
       <c r="Q14" s="37">
@@ -10237,7 +10355,7 @@
         <v>45911</v>
       </c>
       <c r="R14" s="38" cm="1">
-        <f t="array" ref="R14">IF(SUM(COUNTIF(Q14,Feiertage!$B$2:$B$13)),"F",Q14)</f>
+        <f t="array" ref="R14">IF(SUM(COUNTIF(Q14,Feiertage!$C$2:$C$13)),"F",Q14)</f>
         <v>45911</v>
       </c>
       <c r="S14" s="37">
@@ -10245,7 +10363,7 @@
         <v>45941</v>
       </c>
       <c r="T14" s="38" cm="1">
-        <f t="array" ref="T14">IF(SUM(COUNTIF(S14,Feiertage!$B$2:$B$13)),"F",S14)</f>
+        <f t="array" ref="T14">IF(SUM(COUNTIF(S14,Feiertage!$C$2:$C$13)),"F",S14)</f>
         <v>45941</v>
       </c>
       <c r="U14" s="37">
@@ -10253,7 +10371,7 @@
         <v>45972</v>
       </c>
       <c r="V14" s="38" cm="1">
-        <f t="array" ref="V14">IF(SUM(COUNTIF(U14,Feiertage!$B$2:$B$13)),"F",U14)</f>
+        <f t="array" ref="V14">IF(SUM(COUNTIF(U14,Feiertage!$C$2:$C$13)),"F",U14)</f>
         <v>45972</v>
       </c>
       <c r="W14" s="39">
@@ -10261,7 +10379,7 @@
         <v>46002</v>
       </c>
       <c r="X14" s="38" cm="1">
-        <f t="array" ref="X14">IF(SUM(COUNTIF(W14,Feiertage!$B$2:$B$13)),"F",W14)</f>
+        <f t="array" ref="X14">IF(SUM(COUNTIF(W14,Feiertage!$C$2:$C$13)),"F",W14)</f>
         <v>46002</v>
       </c>
     </row>
@@ -10271,7 +10389,7 @@
         <v>45669</v>
       </c>
       <c r="B15" s="38" cm="1">
-        <f t="array" ref="B15">IF(SUM(COUNTIF(A15,Feiertage!$B$2:$B$13)),"F",A15)</f>
+        <f t="array" ref="B15">IF(SUM(COUNTIF(A15,Feiertage!$C$2:$C$13)),"F",A15)</f>
         <v>45669</v>
       </c>
       <c r="C15" s="37">
@@ -10279,7 +10397,7 @@
         <v>45700</v>
       </c>
       <c r="D15" s="38" cm="1">
-        <f t="array" ref="D15">IF(SUM(COUNTIF(C15,Feiertage!$B$2:$B$13)),"F",C15)</f>
+        <f t="array" ref="D15">IF(SUM(COUNTIF(C15,Feiertage!$C$2:$C$13)),"F",C15)</f>
         <v>45700</v>
       </c>
       <c r="E15" s="37">
@@ -10287,7 +10405,7 @@
         <v>45728</v>
       </c>
       <c r="F15" s="38" cm="1">
-        <f t="array" ref="F15">IF(SUM(COUNTIF(E15,Feiertage!$B$2:$B$13)),"F",E15)</f>
+        <f t="array" ref="F15">IF(SUM(COUNTIF(E15,Feiertage!$C$2:$C$13)),"F",E15)</f>
         <v>45728</v>
       </c>
       <c r="G15" s="37">
@@ -10295,7 +10413,7 @@
         <v>45759</v>
       </c>
       <c r="H15" s="38" cm="1">
-        <f t="array" ref="H15">IF(SUM(COUNTIF(G15,Feiertage!$B$2:$B$13)),"F",G15)</f>
+        <f t="array" ref="H15">IF(SUM(COUNTIF(G15,Feiertage!$C$2:$C$13)),"F",G15)</f>
         <v>45759</v>
       </c>
       <c r="I15" s="37">
@@ -10303,7 +10421,7 @@
         <v>45789</v>
       </c>
       <c r="J15" s="38" cm="1">
-        <f t="array" ref="J15">IF(SUM(COUNTIF(I15,Feiertage!$B$2:$B$13)),"F",I15)</f>
+        <f t="array" ref="J15">IF(SUM(COUNTIF(I15,Feiertage!$C$2:$C$13)),"F",I15)</f>
         <v>45789</v>
       </c>
       <c r="K15" s="37">
@@ -10311,7 +10429,7 @@
         <v>45820</v>
       </c>
       <c r="L15" s="38" cm="1">
-        <f t="array" ref="L15">IF(SUM(COUNTIF(K15,Feiertage!$B$2:$B$13)),"F",K15)</f>
+        <f t="array" ref="L15">IF(SUM(COUNTIF(K15,Feiertage!$C$2:$C$13)),"F",K15)</f>
         <v>45820</v>
       </c>
       <c r="M15" s="37">
@@ -10319,7 +10437,7 @@
         <v>45850</v>
       </c>
       <c r="N15" s="38" cm="1">
-        <f t="array" ref="N15">IF(SUM(COUNTIF(M15,Feiertage!$B$2:$B$13)),"F",M15)</f>
+        <f t="array" ref="N15">IF(SUM(COUNTIF(M15,Feiertage!$C$2:$C$13)),"F",M15)</f>
         <v>45850</v>
       </c>
       <c r="O15" s="37">
@@ -10327,7 +10445,7 @@
         <v>45881</v>
       </c>
       <c r="P15" s="38" cm="1">
-        <f t="array" ref="P15">IF(SUM(COUNTIF(O15,Feiertage!$B$2:$B$13)),"F",O15)</f>
+        <f t="array" ref="P15">IF(SUM(COUNTIF(O15,Feiertage!$C$2:$C$13)),"F",O15)</f>
         <v>45881</v>
       </c>
       <c r="Q15" s="37">
@@ -10335,7 +10453,7 @@
         <v>45912</v>
       </c>
       <c r="R15" s="38" cm="1">
-        <f t="array" ref="R15">IF(SUM(COUNTIF(Q15,Feiertage!$B$2:$B$13)),"F",Q15)</f>
+        <f t="array" ref="R15">IF(SUM(COUNTIF(Q15,Feiertage!$C$2:$C$13)),"F",Q15)</f>
         <v>45912</v>
       </c>
       <c r="S15" s="37">
@@ -10343,7 +10461,7 @@
         <v>45942</v>
       </c>
       <c r="T15" s="38" cm="1">
-        <f t="array" ref="T15">IF(SUM(COUNTIF(S15,Feiertage!$B$2:$B$13)),"F",S15)</f>
+        <f t="array" ref="T15">IF(SUM(COUNTIF(S15,Feiertage!$C$2:$C$13)),"F",S15)</f>
         <v>45942</v>
       </c>
       <c r="U15" s="37">
@@ -10351,7 +10469,7 @@
         <v>45973</v>
       </c>
       <c r="V15" s="38" cm="1">
-        <f t="array" ref="V15">IF(SUM(COUNTIF(U15,Feiertage!$B$2:$B$13)),"F",U15)</f>
+        <f t="array" ref="V15">IF(SUM(COUNTIF(U15,Feiertage!$C$2:$C$13)),"F",U15)</f>
         <v>45973</v>
       </c>
       <c r="W15" s="39">
@@ -10359,7 +10477,7 @@
         <v>46003</v>
       </c>
       <c r="X15" s="38" cm="1">
-        <f t="array" ref="X15">IF(SUM(COUNTIF(W15,Feiertage!$B$2:$B$13)),"F",W15)</f>
+        <f t="array" ref="X15">IF(SUM(COUNTIF(W15,Feiertage!$C$2:$C$13)),"F",W15)</f>
         <v>46003</v>
       </c>
     </row>
@@ -10369,7 +10487,7 @@
         <v>45670</v>
       </c>
       <c r="B16" s="38" cm="1">
-        <f t="array" ref="B16">IF(SUM(COUNTIF(A16,Feiertage!$B$2:$B$13)),"F",A16)</f>
+        <f t="array" ref="B16">IF(SUM(COUNTIF(A16,Feiertage!$C$2:$C$13)),"F",A16)</f>
         <v>45670</v>
       </c>
       <c r="C16" s="37">
@@ -10377,7 +10495,7 @@
         <v>45701</v>
       </c>
       <c r="D16" s="38" cm="1">
-        <f t="array" ref="D16">IF(SUM(COUNTIF(C16,Feiertage!$B$2:$B$13)),"F",C16)</f>
+        <f t="array" ref="D16">IF(SUM(COUNTIF(C16,Feiertage!$C$2:$C$13)),"F",C16)</f>
         <v>45701</v>
       </c>
       <c r="E16" s="37">
@@ -10385,7 +10503,7 @@
         <v>45729</v>
       </c>
       <c r="F16" s="38" cm="1">
-        <f t="array" ref="F16">IF(SUM(COUNTIF(E16,Feiertage!$B$2:$B$13)),"F",E16)</f>
+        <f t="array" ref="F16">IF(SUM(COUNTIF(E16,Feiertage!$C$2:$C$13)),"F",E16)</f>
         <v>45729</v>
       </c>
       <c r="G16" s="37">
@@ -10393,7 +10511,7 @@
         <v>45760</v>
       </c>
       <c r="H16" s="38" cm="1">
-        <f t="array" ref="H16">IF(SUM(COUNTIF(G16,Feiertage!$B$2:$B$13)),"F",G16)</f>
+        <f t="array" ref="H16">IF(SUM(COUNTIF(G16,Feiertage!$C$2:$C$13)),"F",G16)</f>
         <v>45760</v>
       </c>
       <c r="I16" s="37">
@@ -10401,7 +10519,7 @@
         <v>45790</v>
       </c>
       <c r="J16" s="38" cm="1">
-        <f t="array" ref="J16">IF(SUM(COUNTIF(I16,Feiertage!$B$2:$B$13)),"F",I16)</f>
+        <f t="array" ref="J16">IF(SUM(COUNTIF(I16,Feiertage!$C$2:$C$13)),"F",I16)</f>
         <v>45790</v>
       </c>
       <c r="K16" s="37">
@@ -10409,7 +10527,7 @@
         <v>45821</v>
       </c>
       <c r="L16" s="38" cm="1">
-        <f t="array" ref="L16">IF(SUM(COUNTIF(K16,Feiertage!$B$2:$B$13)),"F",K16)</f>
+        <f t="array" ref="L16">IF(SUM(COUNTIF(K16,Feiertage!$C$2:$C$13)),"F",K16)</f>
         <v>45821</v>
       </c>
       <c r="M16" s="37">
@@ -10417,7 +10535,7 @@
         <v>45851</v>
       </c>
       <c r="N16" s="38" cm="1">
-        <f t="array" ref="N16">IF(SUM(COUNTIF(M16,Feiertage!$B$2:$B$13)),"F",M16)</f>
+        <f t="array" ref="N16">IF(SUM(COUNTIF(M16,Feiertage!$C$2:$C$13)),"F",M16)</f>
         <v>45851</v>
       </c>
       <c r="O16" s="37">
@@ -10425,7 +10543,7 @@
         <v>45882</v>
       </c>
       <c r="P16" s="38" cm="1">
-        <f t="array" ref="P16">IF(SUM(COUNTIF(O16,Feiertage!$B$2:$B$13)),"F",O16)</f>
+        <f t="array" ref="P16">IF(SUM(COUNTIF(O16,Feiertage!$C$2:$C$13)),"F",O16)</f>
         <v>45882</v>
       </c>
       <c r="Q16" s="37">
@@ -10433,7 +10551,7 @@
         <v>45913</v>
       </c>
       <c r="R16" s="38" cm="1">
-        <f t="array" ref="R16">IF(SUM(COUNTIF(Q16,Feiertage!$B$2:$B$13)),"F",Q16)</f>
+        <f t="array" ref="R16">IF(SUM(COUNTIF(Q16,Feiertage!$C$2:$C$13)),"F",Q16)</f>
         <v>45913</v>
       </c>
       <c r="S16" s="37">
@@ -10441,7 +10559,7 @@
         <v>45943</v>
       </c>
       <c r="T16" s="38" cm="1">
-        <f t="array" ref="T16">IF(SUM(COUNTIF(S16,Feiertage!$B$2:$B$13)),"F",S16)</f>
+        <f t="array" ref="T16">IF(SUM(COUNTIF(S16,Feiertage!$C$2:$C$13)),"F",S16)</f>
         <v>45943</v>
       </c>
       <c r="U16" s="37">
@@ -10449,7 +10567,7 @@
         <v>45974</v>
       </c>
       <c r="V16" s="38" cm="1">
-        <f t="array" ref="V16">IF(SUM(COUNTIF(U16,Feiertage!$B$2:$B$13)),"F",U16)</f>
+        <f t="array" ref="V16">IF(SUM(COUNTIF(U16,Feiertage!$C$2:$C$13)),"F",U16)</f>
         <v>45974</v>
       </c>
       <c r="W16" s="39">
@@ -10457,7 +10575,7 @@
         <v>46004</v>
       </c>
       <c r="X16" s="38" cm="1">
-        <f t="array" ref="X16">IF(SUM(COUNTIF(W16,Feiertage!$B$2:$B$13)),"F",W16)</f>
+        <f t="array" ref="X16">IF(SUM(COUNTIF(W16,Feiertage!$C$2:$C$13)),"F",W16)</f>
         <v>46004</v>
       </c>
     </row>
@@ -10467,7 +10585,7 @@
         <v>45671</v>
       </c>
       <c r="B17" s="38" cm="1">
-        <f t="array" ref="B17">IF(SUM(COUNTIF(A17,Feiertage!$B$2:$B$13)),"F",A17)</f>
+        <f t="array" ref="B17">IF(SUM(COUNTIF(A17,Feiertage!$C$2:$C$13)),"F",A17)</f>
         <v>45671</v>
       </c>
       <c r="C17" s="37">
@@ -10475,7 +10593,7 @@
         <v>45702</v>
       </c>
       <c r="D17" s="38" cm="1">
-        <f t="array" ref="D17">IF(SUM(COUNTIF(C17,Feiertage!$B$2:$B$13)),"F",C17)</f>
+        <f t="array" ref="D17">IF(SUM(COUNTIF(C17,Feiertage!$C$2:$C$13)),"F",C17)</f>
         <v>45702</v>
       </c>
       <c r="E17" s="37">
@@ -10483,7 +10601,7 @@
         <v>45730</v>
       </c>
       <c r="F17" s="38" cm="1">
-        <f t="array" ref="F17">IF(SUM(COUNTIF(E17,Feiertage!$B$2:$B$13)),"F",E17)</f>
+        <f t="array" ref="F17">IF(SUM(COUNTIF(E17,Feiertage!$C$2:$C$13)),"F",E17)</f>
         <v>45730</v>
       </c>
       <c r="G17" s="37">
@@ -10491,7 +10609,7 @@
         <v>45761</v>
       </c>
       <c r="H17" s="38" cm="1">
-        <f t="array" ref="H17">IF(SUM(COUNTIF(G17,Feiertage!$B$2:$B$13)),"F",G17)</f>
+        <f t="array" ref="H17">IF(SUM(COUNTIF(G17,Feiertage!$C$2:$C$13)),"F",G17)</f>
         <v>45761</v>
       </c>
       <c r="I17" s="37">
@@ -10499,7 +10617,7 @@
         <v>45791</v>
       </c>
       <c r="J17" s="38" cm="1">
-        <f t="array" ref="J17">IF(SUM(COUNTIF(I17,Feiertage!$B$2:$B$13)),"F",I17)</f>
+        <f t="array" ref="J17">IF(SUM(COUNTIF(I17,Feiertage!$C$2:$C$13)),"F",I17)</f>
         <v>45791</v>
       </c>
       <c r="K17" s="37">
@@ -10507,7 +10625,7 @@
         <v>45822</v>
       </c>
       <c r="L17" s="38" cm="1">
-        <f t="array" ref="L17">IF(SUM(COUNTIF(K17,Feiertage!$B$2:$B$13)),"F",K17)</f>
+        <f t="array" ref="L17">IF(SUM(COUNTIF(K17,Feiertage!$C$2:$C$13)),"F",K17)</f>
         <v>45822</v>
       </c>
       <c r="M17" s="37">
@@ -10515,7 +10633,7 @@
         <v>45852</v>
       </c>
       <c r="N17" s="38" cm="1">
-        <f t="array" ref="N17">IF(SUM(COUNTIF(M17,Feiertage!$B$2:$B$13)),"F",M17)</f>
+        <f t="array" ref="N17">IF(SUM(COUNTIF(M17,Feiertage!$C$2:$C$13)),"F",M17)</f>
         <v>45852</v>
       </c>
       <c r="O17" s="37">
@@ -10523,7 +10641,7 @@
         <v>45883</v>
       </c>
       <c r="P17" s="38" cm="1">
-        <f t="array" ref="P17">IF(SUM(COUNTIF(O17,Feiertage!$B$2:$B$13)),"F",O17)</f>
+        <f t="array" ref="P17">IF(SUM(COUNTIF(O17,Feiertage!$C$2:$C$13)),"F",O17)</f>
         <v>45883</v>
       </c>
       <c r="Q17" s="37">
@@ -10531,7 +10649,7 @@
         <v>45914</v>
       </c>
       <c r="R17" s="38" cm="1">
-        <f t="array" ref="R17">IF(SUM(COUNTIF(Q17,Feiertage!$B$2:$B$13)),"F",Q17)</f>
+        <f t="array" ref="R17">IF(SUM(COUNTIF(Q17,Feiertage!$C$2:$C$13)),"F",Q17)</f>
         <v>45914</v>
       </c>
       <c r="S17" s="37">
@@ -10539,7 +10657,7 @@
         <v>45944</v>
       </c>
       <c r="T17" s="38" cm="1">
-        <f t="array" ref="T17">IF(SUM(COUNTIF(S17,Feiertage!$B$2:$B$13)),"F",S17)</f>
+        <f t="array" ref="T17">IF(SUM(COUNTIF(S17,Feiertage!$C$2:$C$13)),"F",S17)</f>
         <v>45944</v>
       </c>
       <c r="U17" s="37">
@@ -10547,7 +10665,7 @@
         <v>45975</v>
       </c>
       <c r="V17" s="38" cm="1">
-        <f t="array" ref="V17">IF(SUM(COUNTIF(U17,Feiertage!$B$2:$B$13)),"F",U17)</f>
+        <f t="array" ref="V17">IF(SUM(COUNTIF(U17,Feiertage!$C$2:$C$13)),"F",U17)</f>
         <v>45975</v>
       </c>
       <c r="W17" s="39">
@@ -10555,7 +10673,7 @@
         <v>46005</v>
       </c>
       <c r="X17" s="38" cm="1">
-        <f t="array" ref="X17">IF(SUM(COUNTIF(W17,Feiertage!$B$2:$B$13)),"F",W17)</f>
+        <f t="array" ref="X17">IF(SUM(COUNTIF(W17,Feiertage!$C$2:$C$13)),"F",W17)</f>
         <v>46005</v>
       </c>
     </row>
@@ -10565,7 +10683,7 @@
         <v>45672</v>
       </c>
       <c r="B18" s="38" cm="1">
-        <f t="array" ref="B18">IF(SUM(COUNTIF(A18,Feiertage!$B$2:$B$13)),"F",A18)</f>
+        <f t="array" ref="B18">IF(SUM(COUNTIF(A18,Feiertage!$C$2:$C$13)),"F",A18)</f>
         <v>45672</v>
       </c>
       <c r="C18" s="37">
@@ -10573,7 +10691,7 @@
         <v>45703</v>
       </c>
       <c r="D18" s="38" cm="1">
-        <f t="array" ref="D18">IF(SUM(COUNTIF(C18,Feiertage!$B$2:$B$13)),"F",C18)</f>
+        <f t="array" ref="D18">IF(SUM(COUNTIF(C18,Feiertage!$C$2:$C$13)),"F",C18)</f>
         <v>45703</v>
       </c>
       <c r="E18" s="37">
@@ -10581,7 +10699,7 @@
         <v>45731</v>
       </c>
       <c r="F18" s="38" cm="1">
-        <f t="array" ref="F18">IF(SUM(COUNTIF(E18,Feiertage!$B$2:$B$13)),"F",E18)</f>
+        <f t="array" ref="F18">IF(SUM(COUNTIF(E18,Feiertage!$C$2:$C$13)),"F",E18)</f>
         <v>45731</v>
       </c>
       <c r="G18" s="37">
@@ -10589,7 +10707,7 @@
         <v>45762</v>
       </c>
       <c r="H18" s="38" cm="1">
-        <f t="array" ref="H18">IF(SUM(COUNTIF(G18,Feiertage!$B$2:$B$13)),"F",G18)</f>
+        <f t="array" ref="H18">IF(SUM(COUNTIF(G18,Feiertage!$C$2:$C$13)),"F",G18)</f>
         <v>45762</v>
       </c>
       <c r="I18" s="37">
@@ -10597,7 +10715,7 @@
         <v>45792</v>
       </c>
       <c r="J18" s="38" cm="1">
-        <f t="array" ref="J18">IF(SUM(COUNTIF(I18,Feiertage!$B$2:$B$13)),"F",I18)</f>
+        <f t="array" ref="J18">IF(SUM(COUNTIF(I18,Feiertage!$C$2:$C$13)),"F",I18)</f>
         <v>45792</v>
       </c>
       <c r="K18" s="37">
@@ -10605,7 +10723,7 @@
         <v>45823</v>
       </c>
       <c r="L18" s="38" cm="1">
-        <f t="array" ref="L18">IF(SUM(COUNTIF(K18,Feiertage!$B$2:$B$13)),"F",K18)</f>
+        <f t="array" ref="L18">IF(SUM(COUNTIF(K18,Feiertage!$C$2:$C$13)),"F",K18)</f>
         <v>45823</v>
       </c>
       <c r="M18" s="37">
@@ -10613,7 +10731,7 @@
         <v>45853</v>
       </c>
       <c r="N18" s="38" cm="1">
-        <f t="array" ref="N18">IF(SUM(COUNTIF(M18,Feiertage!$B$2:$B$13)),"F",M18)</f>
+        <f t="array" ref="N18">IF(SUM(COUNTIF(M18,Feiertage!$C$2:$C$13)),"F",M18)</f>
         <v>45853</v>
       </c>
       <c r="O18" s="37">
@@ -10621,7 +10739,7 @@
         <v>45884</v>
       </c>
       <c r="P18" s="38" cm="1">
-        <f t="array" ref="P18">IF(SUM(COUNTIF(O18,Feiertage!$B$2:$B$13)),"F",O18)</f>
+        <f t="array" ref="P18">IF(SUM(COUNTIF(O18,Feiertage!$C$2:$C$13)),"F",O18)</f>
         <v>45884</v>
       </c>
       <c r="Q18" s="37">
@@ -10629,7 +10747,7 @@
         <v>45915</v>
       </c>
       <c r="R18" s="38" cm="1">
-        <f t="array" ref="R18">IF(SUM(COUNTIF(Q18,Feiertage!$B$2:$B$13)),"F",Q18)</f>
+        <f t="array" ref="R18">IF(SUM(COUNTIF(Q18,Feiertage!$C$2:$C$13)),"F",Q18)</f>
         <v>45915</v>
       </c>
       <c r="S18" s="37">
@@ -10637,7 +10755,7 @@
         <v>45945</v>
       </c>
       <c r="T18" s="38" cm="1">
-        <f t="array" ref="T18">IF(SUM(COUNTIF(S18,Feiertage!$B$2:$B$13)),"F",S18)</f>
+        <f t="array" ref="T18">IF(SUM(COUNTIF(S18,Feiertage!$C$2:$C$13)),"F",S18)</f>
         <v>45945</v>
       </c>
       <c r="U18" s="37">
@@ -10645,7 +10763,7 @@
         <v>45976</v>
       </c>
       <c r="V18" s="38" cm="1">
-        <f t="array" ref="V18">IF(SUM(COUNTIF(U18,Feiertage!$B$2:$B$13)),"F",U18)</f>
+        <f t="array" ref="V18">IF(SUM(COUNTIF(U18,Feiertage!$C$2:$C$13)),"F",U18)</f>
         <v>45976</v>
       </c>
       <c r="W18" s="39">
@@ -10653,7 +10771,7 @@
         <v>46006</v>
       </c>
       <c r="X18" s="38" cm="1">
-        <f t="array" ref="X18">IF(SUM(COUNTIF(W18,Feiertage!$B$2:$B$13)),"F",W18)</f>
+        <f t="array" ref="X18">IF(SUM(COUNTIF(W18,Feiertage!$C$2:$C$13)),"F",W18)</f>
         <v>46006</v>
       </c>
     </row>
@@ -10663,7 +10781,7 @@
         <v>45673</v>
       </c>
       <c r="B19" s="38" cm="1">
-        <f t="array" ref="B19">IF(SUM(COUNTIF(A19,Feiertage!$B$2:$B$13)),"F",A19)</f>
+        <f t="array" ref="B19">IF(SUM(COUNTIF(A19,Feiertage!$C$2:$C$13)),"F",A19)</f>
         <v>45673</v>
       </c>
       <c r="C19" s="37">
@@ -10671,7 +10789,7 @@
         <v>45704</v>
       </c>
       <c r="D19" s="38" cm="1">
-        <f t="array" ref="D19">IF(SUM(COUNTIF(C19,Feiertage!$B$2:$B$13)),"F",C19)</f>
+        <f t="array" ref="D19">IF(SUM(COUNTIF(C19,Feiertage!$C$2:$C$13)),"F",C19)</f>
         <v>45704</v>
       </c>
       <c r="E19" s="37">
@@ -10679,7 +10797,7 @@
         <v>45732</v>
       </c>
       <c r="F19" s="38" cm="1">
-        <f t="array" ref="F19">IF(SUM(COUNTIF(E19,Feiertage!$B$2:$B$13)),"F",E19)</f>
+        <f t="array" ref="F19">IF(SUM(COUNTIF(E19,Feiertage!$C$2:$C$13)),"F",E19)</f>
         <v>45732</v>
       </c>
       <c r="G19" s="37">
@@ -10687,7 +10805,7 @@
         <v>45763</v>
       </c>
       <c r="H19" s="38" cm="1">
-        <f t="array" ref="H19">IF(SUM(COUNTIF(G19,Feiertage!$B$2:$B$13)),"F",G19)</f>
+        <f t="array" ref="H19">IF(SUM(COUNTIF(G19,Feiertage!$C$2:$C$13)),"F",G19)</f>
         <v>45763</v>
       </c>
       <c r="I19" s="37">
@@ -10695,7 +10813,7 @@
         <v>45793</v>
       </c>
       <c r="J19" s="38" cm="1">
-        <f t="array" ref="J19">IF(SUM(COUNTIF(I19,Feiertage!$B$2:$B$13)),"F",I19)</f>
+        <f t="array" ref="J19">IF(SUM(COUNTIF(I19,Feiertage!$C$2:$C$13)),"F",I19)</f>
         <v>45793</v>
       </c>
       <c r="K19" s="37">
@@ -10703,7 +10821,7 @@
         <v>45824</v>
       </c>
       <c r="L19" s="38" cm="1">
-        <f t="array" ref="L19">IF(SUM(COUNTIF(K19,Feiertage!$B$2:$B$13)),"F",K19)</f>
+        <f t="array" ref="L19">IF(SUM(COUNTIF(K19,Feiertage!$C$2:$C$13)),"F",K19)</f>
         <v>45824</v>
       </c>
       <c r="M19" s="37">
@@ -10711,7 +10829,7 @@
         <v>45854</v>
       </c>
       <c r="N19" s="38" cm="1">
-        <f t="array" ref="N19">IF(SUM(COUNTIF(M19,Feiertage!$B$2:$B$13)),"F",M19)</f>
+        <f t="array" ref="N19">IF(SUM(COUNTIF(M19,Feiertage!$C$2:$C$13)),"F",M19)</f>
         <v>45854</v>
       </c>
       <c r="O19" s="37">
@@ -10719,7 +10837,7 @@
         <v>45885</v>
       </c>
       <c r="P19" s="38" cm="1">
-        <f t="array" ref="P19">IF(SUM(COUNTIF(O19,Feiertage!$B$2:$B$13)),"F",O19)</f>
+        <f t="array" ref="P19">IF(SUM(COUNTIF(O19,Feiertage!$C$2:$C$13)),"F",O19)</f>
         <v>45885</v>
       </c>
       <c r="Q19" s="37">
@@ -10727,7 +10845,7 @@
         <v>45916</v>
       </c>
       <c r="R19" s="38" cm="1">
-        <f t="array" ref="R19">IF(SUM(COUNTIF(Q19,Feiertage!$B$2:$B$13)),"F",Q19)</f>
+        <f t="array" ref="R19">IF(SUM(COUNTIF(Q19,Feiertage!$C$2:$C$13)),"F",Q19)</f>
         <v>45916</v>
       </c>
       <c r="S19" s="37">
@@ -10735,7 +10853,7 @@
         <v>45946</v>
       </c>
       <c r="T19" s="38" cm="1">
-        <f t="array" ref="T19">IF(SUM(COUNTIF(S19,Feiertage!$B$2:$B$13)),"F",S19)</f>
+        <f t="array" ref="T19">IF(SUM(COUNTIF(S19,Feiertage!$C$2:$C$13)),"F",S19)</f>
         <v>45946</v>
       </c>
       <c r="U19" s="37">
@@ -10743,7 +10861,7 @@
         <v>45977</v>
       </c>
       <c r="V19" s="38" cm="1">
-        <f t="array" ref="V19">IF(SUM(COUNTIF(U19,Feiertage!$B$2:$B$13)),"F",U19)</f>
+        <f t="array" ref="V19">IF(SUM(COUNTIF(U19,Feiertage!$C$2:$C$13)),"F",U19)</f>
         <v>45977</v>
       </c>
       <c r="W19" s="39">
@@ -10751,7 +10869,7 @@
         <v>46007</v>
       </c>
       <c r="X19" s="38" cm="1">
-        <f t="array" ref="X19">IF(SUM(COUNTIF(W19,Feiertage!$B$2:$B$13)),"F",W19)</f>
+        <f t="array" ref="X19">IF(SUM(COUNTIF(W19,Feiertage!$C$2:$C$13)),"F",W19)</f>
         <v>46007</v>
       </c>
     </row>
@@ -10761,7 +10879,7 @@
         <v>45674</v>
       </c>
       <c r="B20" s="38" cm="1">
-        <f t="array" ref="B20">IF(SUM(COUNTIF(A20,Feiertage!$B$2:$B$13)),"F",A20)</f>
+        <f t="array" ref="B20">IF(SUM(COUNTIF(A20,Feiertage!$C$2:$C$13)),"F",A20)</f>
         <v>45674</v>
       </c>
       <c r="C20" s="37">
@@ -10769,7 +10887,7 @@
         <v>45705</v>
       </c>
       <c r="D20" s="38" cm="1">
-        <f t="array" ref="D20">IF(SUM(COUNTIF(C20,Feiertage!$B$2:$B$13)),"F",C20)</f>
+        <f t="array" ref="D20">IF(SUM(COUNTIF(C20,Feiertage!$C$2:$C$13)),"F",C20)</f>
         <v>45705</v>
       </c>
       <c r="E20" s="37">
@@ -10777,7 +10895,7 @@
         <v>45733</v>
       </c>
       <c r="F20" s="38" cm="1">
-        <f t="array" ref="F20">IF(SUM(COUNTIF(E20,Feiertage!$B$2:$B$13)),"F",E20)</f>
+        <f t="array" ref="F20">IF(SUM(COUNTIF(E20,Feiertage!$C$2:$C$13)),"F",E20)</f>
         <v>45733</v>
       </c>
       <c r="G20" s="37">
@@ -10785,7 +10903,7 @@
         <v>45764</v>
       </c>
       <c r="H20" s="38" cm="1">
-        <f t="array" ref="H20">IF(SUM(COUNTIF(G20,Feiertage!$B$2:$B$13)),"F",G20)</f>
+        <f t="array" ref="H20">IF(SUM(COUNTIF(G20,Feiertage!$C$2:$C$13)),"F",G20)</f>
         <v>45764</v>
       </c>
       <c r="I20" s="37">
@@ -10793,7 +10911,7 @@
         <v>45794</v>
       </c>
       <c r="J20" s="38" cm="1">
-        <f t="array" ref="J20">IF(SUM(COUNTIF(I20,Feiertage!$B$2:$B$13)),"F",I20)</f>
+        <f t="array" ref="J20">IF(SUM(COUNTIF(I20,Feiertage!$C$2:$C$13)),"F",I20)</f>
         <v>45794</v>
       </c>
       <c r="K20" s="37">
@@ -10801,7 +10919,7 @@
         <v>45825</v>
       </c>
       <c r="L20" s="38" cm="1">
-        <f t="array" ref="L20">IF(SUM(COUNTIF(K20,Feiertage!$B$2:$B$13)),"F",K20)</f>
+        <f t="array" ref="L20">IF(SUM(COUNTIF(K20,Feiertage!$C$2:$C$13)),"F",K20)</f>
         <v>45825</v>
       </c>
       <c r="M20" s="37">
@@ -10809,7 +10927,7 @@
         <v>45855</v>
       </c>
       <c r="N20" s="38" cm="1">
-        <f t="array" ref="N20">IF(SUM(COUNTIF(M20,Feiertage!$B$2:$B$13)),"F",M20)</f>
+        <f t="array" ref="N20">IF(SUM(COUNTIF(M20,Feiertage!$C$2:$C$13)),"F",M20)</f>
         <v>45855</v>
       </c>
       <c r="O20" s="37">
@@ -10817,7 +10935,7 @@
         <v>45886</v>
       </c>
       <c r="P20" s="38" cm="1">
-        <f t="array" ref="P20">IF(SUM(COUNTIF(O20,Feiertage!$B$2:$B$13)),"F",O20)</f>
+        <f t="array" ref="P20">IF(SUM(COUNTIF(O20,Feiertage!$C$2:$C$13)),"F",O20)</f>
         <v>45886</v>
       </c>
       <c r="Q20" s="37">
@@ -10825,7 +10943,7 @@
         <v>45917</v>
       </c>
       <c r="R20" s="38" cm="1">
-        <f t="array" ref="R20">IF(SUM(COUNTIF(Q20,Feiertage!$B$2:$B$13)),"F",Q20)</f>
+        <f t="array" ref="R20">IF(SUM(COUNTIF(Q20,Feiertage!$C$2:$C$13)),"F",Q20)</f>
         <v>45917</v>
       </c>
       <c r="S20" s="37">
@@ -10833,7 +10951,7 @@
         <v>45947</v>
       </c>
       <c r="T20" s="38" cm="1">
-        <f t="array" ref="T20">IF(SUM(COUNTIF(S20,Feiertage!$B$2:$B$13)),"F",S20)</f>
+        <f t="array" ref="T20">IF(SUM(COUNTIF(S20,Feiertage!$C$2:$C$13)),"F",S20)</f>
         <v>45947</v>
       </c>
       <c r="U20" s="37">
@@ -10841,7 +10959,7 @@
         <v>45978</v>
       </c>
       <c r="V20" s="38" cm="1">
-        <f t="array" ref="V20">IF(SUM(COUNTIF(U20,Feiertage!$B$2:$B$13)),"F",U20)</f>
+        <f t="array" ref="V20">IF(SUM(COUNTIF(U20,Feiertage!$C$2:$C$13)),"F",U20)</f>
         <v>45978</v>
       </c>
       <c r="W20" s="39">
@@ -10849,7 +10967,7 @@
         <v>46008</v>
       </c>
       <c r="X20" s="38" cm="1">
-        <f t="array" ref="X20">IF(SUM(COUNTIF(W20,Feiertage!$B$2:$B$13)),"F",W20)</f>
+        <f t="array" ref="X20">IF(SUM(COUNTIF(W20,Feiertage!$C$2:$C$13)),"F",W20)</f>
         <v>46008</v>
       </c>
     </row>
@@ -10859,7 +10977,7 @@
         <v>45675</v>
       </c>
       <c r="B21" s="38" cm="1">
-        <f t="array" ref="B21">IF(SUM(COUNTIF(A21,Feiertage!$B$2:$B$13)),"F",A21)</f>
+        <f t="array" ref="B21">IF(SUM(COUNTIF(A21,Feiertage!$C$2:$C$13)),"F",A21)</f>
         <v>45675</v>
       </c>
       <c r="C21" s="37">
@@ -10867,7 +10985,7 @@
         <v>45706</v>
       </c>
       <c r="D21" s="38" cm="1">
-        <f t="array" ref="D21">IF(SUM(COUNTIF(C21,Feiertage!$B$2:$B$13)),"F",C21)</f>
+        <f t="array" ref="D21">IF(SUM(COUNTIF(C21,Feiertage!$C$2:$C$13)),"F",C21)</f>
         <v>45706</v>
       </c>
       <c r="E21" s="37">
@@ -10875,23 +10993,23 @@
         <v>45734</v>
       </c>
       <c r="F21" s="38" cm="1">
-        <f t="array" ref="F21">IF(SUM(COUNTIF(E21,Feiertage!$B$2:$B$13)),"F",E21)</f>
+        <f t="array" ref="F21">IF(SUM(COUNTIF(E21,Feiertage!$C$2:$C$13)),"F",E21)</f>
         <v>45734</v>
       </c>
       <c r="G21" s="37">
         <f t="shared" ref="G21:G34" si="12">IFERROR(IF(MONTH(G20+1)=MONTH(G$4),G20+1,""),"")</f>
         <v>45765</v>
       </c>
-      <c r="H21" s="38" cm="1">
-        <f t="array" ref="H21">IF(SUM(COUNTIF(G21,Feiertage!$B$2:$B$13)),"F",G21)</f>
-        <v>45765</v>
+      <c r="H21" s="38" t="str" cm="1">
+        <f t="array" ref="H21">IF(SUM(COUNTIF(G21,Feiertage!$C$2:$C$13)),"F",G21)</f>
+        <v>F</v>
       </c>
       <c r="I21" s="37">
         <f t="shared" ref="I21:I34" si="13">IFERROR(IF(MONTH(I20+1)=MONTH(I$4),I20+1,""),"")</f>
         <v>45795</v>
       </c>
       <c r="J21" s="38" cm="1">
-        <f t="array" ref="J21">IF(SUM(COUNTIF(I21,Feiertage!$B$2:$B$13)),"F",I21)</f>
+        <f t="array" ref="J21">IF(SUM(COUNTIF(I21,Feiertage!$C$2:$C$13)),"F",I21)</f>
         <v>45795</v>
       </c>
       <c r="K21" s="37">
@@ -10899,7 +11017,7 @@
         <v>45826</v>
       </c>
       <c r="L21" s="38" cm="1">
-        <f t="array" ref="L21">IF(SUM(COUNTIF(K21,Feiertage!$B$2:$B$13)),"F",K21)</f>
+        <f t="array" ref="L21">IF(SUM(COUNTIF(K21,Feiertage!$C$2:$C$13)),"F",K21)</f>
         <v>45826</v>
       </c>
       <c r="M21" s="37">
@@ -10907,7 +11025,7 @@
         <v>45856</v>
       </c>
       <c r="N21" s="38" cm="1">
-        <f t="array" ref="N21">IF(SUM(COUNTIF(M21,Feiertage!$B$2:$B$13)),"F",M21)</f>
+        <f t="array" ref="N21">IF(SUM(COUNTIF(M21,Feiertage!$C$2:$C$13)),"F",M21)</f>
         <v>45856</v>
       </c>
       <c r="O21" s="37">
@@ -10915,7 +11033,7 @@
         <v>45887</v>
       </c>
       <c r="P21" s="38" cm="1">
-        <f t="array" ref="P21">IF(SUM(COUNTIF(O21,Feiertage!$B$2:$B$13)),"F",O21)</f>
+        <f t="array" ref="P21">IF(SUM(COUNTIF(O21,Feiertage!$C$2:$C$13)),"F",O21)</f>
         <v>45887</v>
       </c>
       <c r="Q21" s="37">
@@ -10923,7 +11041,7 @@
         <v>45918</v>
       </c>
       <c r="R21" s="38" cm="1">
-        <f t="array" ref="R21">IF(SUM(COUNTIF(Q21,Feiertage!$B$2:$B$13)),"F",Q21)</f>
+        <f t="array" ref="R21">IF(SUM(COUNTIF(Q21,Feiertage!$C$2:$C$13)),"F",Q21)</f>
         <v>45918</v>
       </c>
       <c r="S21" s="37">
@@ -10931,7 +11049,7 @@
         <v>45948</v>
       </c>
       <c r="T21" s="38" cm="1">
-        <f t="array" ref="T21">IF(SUM(COUNTIF(S21,Feiertage!$B$2:$B$13)),"F",S21)</f>
+        <f t="array" ref="T21">IF(SUM(COUNTIF(S21,Feiertage!$C$2:$C$13)),"F",S21)</f>
         <v>45948</v>
       </c>
       <c r="U21" s="37">
@@ -10939,7 +11057,7 @@
         <v>45979</v>
       </c>
       <c r="V21" s="38" cm="1">
-        <f t="array" ref="V21">IF(SUM(COUNTIF(U21,Feiertage!$B$2:$B$13)),"F",U21)</f>
+        <f t="array" ref="V21">IF(SUM(COUNTIF(U21,Feiertage!$C$2:$C$13)),"F",U21)</f>
         <v>45979</v>
       </c>
       <c r="W21" s="39">
@@ -10947,7 +11065,7 @@
         <v>46009</v>
       </c>
       <c r="X21" s="38" cm="1">
-        <f t="array" ref="X21">IF(SUM(COUNTIF(W21,Feiertage!$B$2:$B$13)),"F",W21)</f>
+        <f t="array" ref="X21">IF(SUM(COUNTIF(W21,Feiertage!$C$2:$C$13)),"F",W21)</f>
         <v>46009</v>
       </c>
     </row>
@@ -10957,7 +11075,7 @@
         <v>45676</v>
       </c>
       <c r="B22" s="38" cm="1">
-        <f t="array" ref="B22">IF(SUM(COUNTIF(A22,Feiertage!$B$2:$B$13)),"F",A22)</f>
+        <f t="array" ref="B22">IF(SUM(COUNTIF(A22,Feiertage!$C$2:$C$13)),"F",A22)</f>
         <v>45676</v>
       </c>
       <c r="C22" s="37">
@@ -10965,7 +11083,7 @@
         <v>45707</v>
       </c>
       <c r="D22" s="38" cm="1">
-        <f t="array" ref="D22">IF(SUM(COUNTIF(C22,Feiertage!$B$2:$B$13)),"F",C22)</f>
+        <f t="array" ref="D22">IF(SUM(COUNTIF(C22,Feiertage!$C$2:$C$13)),"F",C22)</f>
         <v>45707</v>
       </c>
       <c r="E22" s="37">
@@ -10973,7 +11091,7 @@
         <v>45735</v>
       </c>
       <c r="F22" s="38" cm="1">
-        <f t="array" ref="F22">IF(SUM(COUNTIF(E22,Feiertage!$B$2:$B$13)),"F",E22)</f>
+        <f t="array" ref="F22">IF(SUM(COUNTIF(E22,Feiertage!$C$2:$C$13)),"F",E22)</f>
         <v>45735</v>
       </c>
       <c r="G22" s="37">
@@ -10981,7 +11099,7 @@
         <v>45766</v>
       </c>
       <c r="H22" s="38" cm="1">
-        <f t="array" ref="H22">IF(SUM(COUNTIF(G22,Feiertage!$B$2:$B$13)),"F",G22)</f>
+        <f t="array" ref="H22">IF(SUM(COUNTIF(G22,Feiertage!$C$2:$C$13)),"F",G22)</f>
         <v>45766</v>
       </c>
       <c r="I22" s="37">
@@ -10989,23 +11107,23 @@
         <v>45796</v>
       </c>
       <c r="J22" s="38" cm="1">
-        <f t="array" ref="J22">IF(SUM(COUNTIF(I22,Feiertage!$B$2:$B$13)),"F",I22)</f>
+        <f t="array" ref="J22">IF(SUM(COUNTIF(I22,Feiertage!$C$2:$C$13)),"F",I22)</f>
         <v>45796</v>
       </c>
       <c r="K22" s="37">
         <f t="shared" si="14"/>
         <v>45827</v>
       </c>
-      <c r="L22" s="38" cm="1">
-        <f t="array" ref="L22">IF(SUM(COUNTIF(K22,Feiertage!$B$2:$B$13)),"F",K22)</f>
-        <v>45827</v>
+      <c r="L22" s="38" t="str" cm="1">
+        <f t="array" ref="L22">IF(SUM(COUNTIF(K22,Feiertage!$C$2:$C$13)),"F",K22)</f>
+        <v>F</v>
       </c>
       <c r="M22" s="37">
         <f t="shared" si="4"/>
         <v>45857</v>
       </c>
       <c r="N22" s="38" cm="1">
-        <f t="array" ref="N22">IF(SUM(COUNTIF(M22,Feiertage!$B$2:$B$13)),"F",M22)</f>
+        <f t="array" ref="N22">IF(SUM(COUNTIF(M22,Feiertage!$C$2:$C$13)),"F",M22)</f>
         <v>45857</v>
       </c>
       <c r="O22" s="37">
@@ -11013,7 +11131,7 @@
         <v>45888</v>
       </c>
       <c r="P22" s="38" cm="1">
-        <f t="array" ref="P22">IF(SUM(COUNTIF(O22,Feiertage!$B$2:$B$13)),"F",O22)</f>
+        <f t="array" ref="P22">IF(SUM(COUNTIF(O22,Feiertage!$C$2:$C$13)),"F",O22)</f>
         <v>45888</v>
       </c>
       <c r="Q22" s="37">
@@ -11021,7 +11139,7 @@
         <v>45919</v>
       </c>
       <c r="R22" s="38" cm="1">
-        <f t="array" ref="R22">IF(SUM(COUNTIF(Q22,Feiertage!$B$2:$B$13)),"F",Q22)</f>
+        <f t="array" ref="R22">IF(SUM(COUNTIF(Q22,Feiertage!$C$2:$C$13)),"F",Q22)</f>
         <v>45919</v>
       </c>
       <c r="S22" s="37">
@@ -11029,7 +11147,7 @@
         <v>45949</v>
       </c>
       <c r="T22" s="38" cm="1">
-        <f t="array" ref="T22">IF(SUM(COUNTIF(S22,Feiertage!$B$2:$B$13)),"F",S22)</f>
+        <f t="array" ref="T22">IF(SUM(COUNTIF(S22,Feiertage!$C$2:$C$13)),"F",S22)</f>
         <v>45949</v>
       </c>
       <c r="U22" s="37">
@@ -11037,7 +11155,7 @@
         <v>45980</v>
       </c>
       <c r="V22" s="38" cm="1">
-        <f t="array" ref="V22">IF(SUM(COUNTIF(U22,Feiertage!$B$2:$B$13)),"F",U22)</f>
+        <f t="array" ref="V22">IF(SUM(COUNTIF(U22,Feiertage!$C$2:$C$13)),"F",U22)</f>
         <v>45980</v>
       </c>
       <c r="W22" s="39">
@@ -11045,7 +11163,7 @@
         <v>46010</v>
       </c>
       <c r="X22" s="38" cm="1">
-        <f t="array" ref="X22">IF(SUM(COUNTIF(W22,Feiertage!$B$2:$B$13)),"F",W22)</f>
+        <f t="array" ref="X22">IF(SUM(COUNTIF(W22,Feiertage!$C$2:$C$13)),"F",W22)</f>
         <v>46010</v>
       </c>
     </row>
@@ -11055,7 +11173,7 @@
         <v>45677</v>
       </c>
       <c r="B23" s="38" cm="1">
-        <f t="array" ref="B23">IF(SUM(COUNTIF(A23,Feiertage!$B$2:$B$13)),"F",A23)</f>
+        <f t="array" ref="B23">IF(SUM(COUNTIF(A23,Feiertage!$C$2:$C$13)),"F",A23)</f>
         <v>45677</v>
       </c>
       <c r="C23" s="37">
@@ -11063,7 +11181,7 @@
         <v>45708</v>
       </c>
       <c r="D23" s="38" cm="1">
-        <f t="array" ref="D23">IF(SUM(COUNTIF(C23,Feiertage!$B$2:$B$13)),"F",C23)</f>
+        <f t="array" ref="D23">IF(SUM(COUNTIF(C23,Feiertage!$C$2:$C$13)),"F",C23)</f>
         <v>45708</v>
       </c>
       <c r="E23" s="37">
@@ -11071,7 +11189,7 @@
         <v>45736</v>
       </c>
       <c r="F23" s="38" cm="1">
-        <f t="array" ref="F23">IF(SUM(COUNTIF(E23,Feiertage!$B$2:$B$13)),"F",E23)</f>
+        <f t="array" ref="F23">IF(SUM(COUNTIF(E23,Feiertage!$C$2:$C$13)),"F",E23)</f>
         <v>45736</v>
       </c>
       <c r="G23" s="37">
@@ -11079,7 +11197,7 @@
         <v>45767</v>
       </c>
       <c r="H23" s="38" cm="1">
-        <f t="array" ref="H23">IF(SUM(COUNTIF(G23,Feiertage!$B$2:$B$13)),"F",G23)</f>
+        <f t="array" ref="H23">IF(SUM(COUNTIF(G23,Feiertage!$C$2:$C$13)),"F",G23)</f>
         <v>45767</v>
       </c>
       <c r="I23" s="37">
@@ -11087,7 +11205,7 @@
         <v>45797</v>
       </c>
       <c r="J23" s="38" cm="1">
-        <f t="array" ref="J23">IF(SUM(COUNTIF(I23,Feiertage!$B$2:$B$13)),"F",I23)</f>
+        <f t="array" ref="J23">IF(SUM(COUNTIF(I23,Feiertage!$C$2:$C$13)),"F",I23)</f>
         <v>45797</v>
       </c>
       <c r="K23" s="37">
@@ -11095,7 +11213,7 @@
         <v>45828</v>
       </c>
       <c r="L23" s="38" cm="1">
-        <f t="array" ref="L23">IF(SUM(COUNTIF(K23,Feiertage!$B$2:$B$13)),"F",K23)</f>
+        <f t="array" ref="L23">IF(SUM(COUNTIF(K23,Feiertage!$C$2:$C$13)),"F",K23)</f>
         <v>45828</v>
       </c>
       <c r="M23" s="37">
@@ -11103,7 +11221,7 @@
         <v>45858</v>
       </c>
       <c r="N23" s="38" cm="1">
-        <f t="array" ref="N23">IF(SUM(COUNTIF(M23,Feiertage!$B$2:$B$13)),"F",M23)</f>
+        <f t="array" ref="N23">IF(SUM(COUNTIF(M23,Feiertage!$C$2:$C$13)),"F",M23)</f>
         <v>45858</v>
       </c>
       <c r="O23" s="37">
@@ -11111,7 +11229,7 @@
         <v>45889</v>
       </c>
       <c r="P23" s="38" cm="1">
-        <f t="array" ref="P23">IF(SUM(COUNTIF(O23,Feiertage!$B$2:$B$13)),"F",O23)</f>
+        <f t="array" ref="P23">IF(SUM(COUNTIF(O23,Feiertage!$C$2:$C$13)),"F",O23)</f>
         <v>45889</v>
       </c>
       <c r="Q23" s="37">
@@ -11119,7 +11237,7 @@
         <v>45920</v>
       </c>
       <c r="R23" s="38" cm="1">
-        <f t="array" ref="R23">IF(SUM(COUNTIF(Q23,Feiertage!$B$2:$B$13)),"F",Q23)</f>
+        <f t="array" ref="R23">IF(SUM(COUNTIF(Q23,Feiertage!$C$2:$C$13)),"F",Q23)</f>
         <v>45920</v>
       </c>
       <c r="S23" s="37">
@@ -11127,7 +11245,7 @@
         <v>45950</v>
       </c>
       <c r="T23" s="38" cm="1">
-        <f t="array" ref="T23">IF(SUM(COUNTIF(S23,Feiertage!$B$2:$B$13)),"F",S23)</f>
+        <f t="array" ref="T23">IF(SUM(COUNTIF(S23,Feiertage!$C$2:$C$13)),"F",S23)</f>
         <v>45950</v>
       </c>
       <c r="U23" s="37">
@@ -11135,7 +11253,7 @@
         <v>45981</v>
       </c>
       <c r="V23" s="38" cm="1">
-        <f t="array" ref="V23">IF(SUM(COUNTIF(U23,Feiertage!$B$2:$B$13)),"F",U23)</f>
+        <f t="array" ref="V23">IF(SUM(COUNTIF(U23,Feiertage!$C$2:$C$13)),"F",U23)</f>
         <v>45981</v>
       </c>
       <c r="W23" s="39">
@@ -11143,7 +11261,7 @@
         <v>46011</v>
       </c>
       <c r="X23" s="38" cm="1">
-        <f t="array" ref="X23">IF(SUM(COUNTIF(W23,Feiertage!$B$2:$B$13)),"F",W23)</f>
+        <f t="array" ref="X23">IF(SUM(COUNTIF(W23,Feiertage!$C$2:$C$13)),"F",W23)</f>
         <v>46011</v>
       </c>
     </row>
@@ -11153,7 +11271,7 @@
         <v>45678</v>
       </c>
       <c r="B24" s="38" cm="1">
-        <f t="array" ref="B24">IF(SUM(COUNTIF(A24,Feiertage!$B$2:$B$13)),"F",A24)</f>
+        <f t="array" ref="B24">IF(SUM(COUNTIF(A24,Feiertage!$C$2:$C$13)),"F",A24)</f>
         <v>45678</v>
       </c>
       <c r="C24" s="37">
@@ -11161,7 +11279,7 @@
         <v>45709</v>
       </c>
       <c r="D24" s="38" cm="1">
-        <f t="array" ref="D24">IF(SUM(COUNTIF(C24,Feiertage!$B$2:$B$13)),"F",C24)</f>
+        <f t="array" ref="D24">IF(SUM(COUNTIF(C24,Feiertage!$C$2:$C$13)),"F",C24)</f>
         <v>45709</v>
       </c>
       <c r="E24" s="37">
@@ -11169,23 +11287,23 @@
         <v>45737</v>
       </c>
       <c r="F24" s="38" cm="1">
-        <f t="array" ref="F24">IF(SUM(COUNTIF(E24,Feiertage!$B$2:$B$13)),"F",E24)</f>
+        <f t="array" ref="F24">IF(SUM(COUNTIF(E24,Feiertage!$C$2:$C$13)),"F",E24)</f>
         <v>45737</v>
       </c>
       <c r="G24" s="37">
         <f t="shared" si="12"/>
         <v>45768</v>
       </c>
-      <c r="H24" s="38" cm="1">
-        <f t="array" ref="H24">IF(SUM(COUNTIF(G24,Feiertage!$B$2:$B$13)),"F",G24)</f>
-        <v>45768</v>
+      <c r="H24" s="38" t="str" cm="1">
+        <f t="array" ref="H24">IF(SUM(COUNTIF(G24,Feiertage!$C$2:$C$13)),"F",G24)</f>
+        <v>F</v>
       </c>
       <c r="I24" s="37">
         <f t="shared" si="13"/>
         <v>45798</v>
       </c>
       <c r="J24" s="38" cm="1">
-        <f t="array" ref="J24">IF(SUM(COUNTIF(I24,Feiertage!$B$2:$B$13)),"F",I24)</f>
+        <f t="array" ref="J24">IF(SUM(COUNTIF(I24,Feiertage!$C$2:$C$13)),"F",I24)</f>
         <v>45798</v>
       </c>
       <c r="K24" s="37">
@@ -11193,7 +11311,7 @@
         <v>45829</v>
       </c>
       <c r="L24" s="38" cm="1">
-        <f t="array" ref="L24">IF(SUM(COUNTIF(K24,Feiertage!$B$2:$B$13)),"F",K24)</f>
+        <f t="array" ref="L24">IF(SUM(COUNTIF(K24,Feiertage!$C$2:$C$13)),"F",K24)</f>
         <v>45829</v>
       </c>
       <c r="M24" s="37">
@@ -11201,7 +11319,7 @@
         <v>45859</v>
       </c>
       <c r="N24" s="38" cm="1">
-        <f t="array" ref="N24">IF(SUM(COUNTIF(M24,Feiertage!$B$2:$B$13)),"F",M24)</f>
+        <f t="array" ref="N24">IF(SUM(COUNTIF(M24,Feiertage!$C$2:$C$13)),"F",M24)</f>
         <v>45859</v>
       </c>
       <c r="O24" s="37">
@@ -11209,7 +11327,7 @@
         <v>45890</v>
       </c>
       <c r="P24" s="38" cm="1">
-        <f t="array" ref="P24">IF(SUM(COUNTIF(O24,Feiertage!$B$2:$B$13)),"F",O24)</f>
+        <f t="array" ref="P24">IF(SUM(COUNTIF(O24,Feiertage!$C$2:$C$13)),"F",O24)</f>
         <v>45890</v>
       </c>
       <c r="Q24" s="37">
@@ -11217,7 +11335,7 @@
         <v>45921</v>
       </c>
       <c r="R24" s="38" cm="1">
-        <f t="array" ref="R24">IF(SUM(COUNTIF(Q24,Feiertage!$B$2:$B$13)),"F",Q24)</f>
+        <f t="array" ref="R24">IF(SUM(COUNTIF(Q24,Feiertage!$C$2:$C$13)),"F",Q24)</f>
         <v>45921</v>
       </c>
       <c r="S24" s="37">
@@ -11225,7 +11343,7 @@
         <v>45951</v>
       </c>
       <c r="T24" s="38" cm="1">
-        <f t="array" ref="T24">IF(SUM(COUNTIF(S24,Feiertage!$B$2:$B$13)),"F",S24)</f>
+        <f t="array" ref="T24">IF(SUM(COUNTIF(S24,Feiertage!$C$2:$C$13)),"F",S24)</f>
         <v>45951</v>
       </c>
       <c r="U24" s="37">
@@ -11233,7 +11351,7 @@
         <v>45982</v>
       </c>
       <c r="V24" s="38" cm="1">
-        <f t="array" ref="V24">IF(SUM(COUNTIF(U24,Feiertage!$B$2:$B$13)),"F",U24)</f>
+        <f t="array" ref="V24">IF(SUM(COUNTIF(U24,Feiertage!$C$2:$C$13)),"F",U24)</f>
         <v>45982</v>
       </c>
       <c r="W24" s="39">
@@ -11241,7 +11359,7 @@
         <v>46012</v>
       </c>
       <c r="X24" s="38" cm="1">
-        <f t="array" ref="X24">IF(SUM(COUNTIF(W24,Feiertage!$B$2:$B$13)),"F",W24)</f>
+        <f t="array" ref="X24">IF(SUM(COUNTIF(W24,Feiertage!$C$2:$C$13)),"F",W24)</f>
         <v>46012</v>
       </c>
     </row>
@@ -11251,7 +11369,7 @@
         <v>45679</v>
       </c>
       <c r="B25" s="38" cm="1">
-        <f t="array" ref="B25">IF(SUM(COUNTIF(A25,Feiertage!$B$2:$B$13)),"F",A25)</f>
+        <f t="array" ref="B25">IF(SUM(COUNTIF(A25,Feiertage!$C$2:$C$13)),"F",A25)</f>
         <v>45679</v>
       </c>
       <c r="C25" s="37">
@@ -11259,7 +11377,7 @@
         <v>45710</v>
       </c>
       <c r="D25" s="38" cm="1">
-        <f t="array" ref="D25">IF(SUM(COUNTIF(C25,Feiertage!$B$2:$B$13)),"F",C25)</f>
+        <f t="array" ref="D25">IF(SUM(COUNTIF(C25,Feiertage!$C$2:$C$13)),"F",C25)</f>
         <v>45710</v>
       </c>
       <c r="E25" s="37">
@@ -11267,7 +11385,7 @@
         <v>45738</v>
       </c>
       <c r="F25" s="38" cm="1">
-        <f t="array" ref="F25">IF(SUM(COUNTIF(E25,Feiertage!$B$2:$B$13)),"F",E25)</f>
+        <f t="array" ref="F25">IF(SUM(COUNTIF(E25,Feiertage!$C$2:$C$13)),"F",E25)</f>
         <v>45738</v>
       </c>
       <c r="G25" s="37">
@@ -11275,7 +11393,7 @@
         <v>45769</v>
       </c>
       <c r="H25" s="38" cm="1">
-        <f t="array" ref="H25">IF(SUM(COUNTIF(G25,Feiertage!$B$2:$B$13)),"F",G25)</f>
+        <f t="array" ref="H25">IF(SUM(COUNTIF(G25,Feiertage!$C$2:$C$13)),"F",G25)</f>
         <v>45769</v>
       </c>
       <c r="I25" s="37">
@@ -11283,7 +11401,7 @@
         <v>45799</v>
       </c>
       <c r="J25" s="38" cm="1">
-        <f t="array" ref="J25">IF(SUM(COUNTIF(I25,Feiertage!$B$2:$B$13)),"F",I25)</f>
+        <f t="array" ref="J25">IF(SUM(COUNTIF(I25,Feiertage!$C$2:$C$13)),"F",I25)</f>
         <v>45799</v>
       </c>
       <c r="K25" s="37">
@@ -11291,7 +11409,7 @@
         <v>45830</v>
       </c>
       <c r="L25" s="38" cm="1">
-        <f t="array" ref="L25">IF(SUM(COUNTIF(K25,Feiertage!$B$2:$B$13)),"F",K25)</f>
+        <f t="array" ref="L25">IF(SUM(COUNTIF(K25,Feiertage!$C$2:$C$13)),"F",K25)</f>
         <v>45830</v>
       </c>
       <c r="M25" s="37">
@@ -11299,7 +11417,7 @@
         <v>45860</v>
       </c>
       <c r="N25" s="38" cm="1">
-        <f t="array" ref="N25">IF(SUM(COUNTIF(M25,Feiertage!$B$2:$B$13)),"F",M25)</f>
+        <f t="array" ref="N25">IF(SUM(COUNTIF(M25,Feiertage!$C$2:$C$13)),"F",M25)</f>
         <v>45860</v>
       </c>
       <c r="O25" s="37">
@@ -11307,7 +11425,7 @@
         <v>45891</v>
       </c>
       <c r="P25" s="38" cm="1">
-        <f t="array" ref="P25">IF(SUM(COUNTIF(O25,Feiertage!$B$2:$B$13)),"F",O25)</f>
+        <f t="array" ref="P25">IF(SUM(COUNTIF(O25,Feiertage!$C$2:$C$13)),"F",O25)</f>
         <v>45891</v>
       </c>
       <c r="Q25" s="37">
@@ -11315,7 +11433,7 @@
         <v>45922</v>
       </c>
       <c r="R25" s="38" cm="1">
-        <f t="array" ref="R25">IF(SUM(COUNTIF(Q25,Feiertage!$B$2:$B$13)),"F",Q25)</f>
+        <f t="array" ref="R25">IF(SUM(COUNTIF(Q25,Feiertage!$C$2:$C$13)),"F",Q25)</f>
         <v>45922</v>
       </c>
       <c r="S25" s="37">
@@ -11323,7 +11441,7 @@
         <v>45952</v>
       </c>
       <c r="T25" s="38" cm="1">
-        <f t="array" ref="T25">IF(SUM(COUNTIF(S25,Feiertage!$B$2:$B$13)),"F",S25)</f>
+        <f t="array" ref="T25">IF(SUM(COUNTIF(S25,Feiertage!$C$2:$C$13)),"F",S25)</f>
         <v>45952</v>
       </c>
       <c r="U25" s="37">
@@ -11331,7 +11449,7 @@
         <v>45983</v>
       </c>
       <c r="V25" s="38" cm="1">
-        <f t="array" ref="V25">IF(SUM(COUNTIF(U25,Feiertage!$B$2:$B$13)),"F",U25)</f>
+        <f t="array" ref="V25">IF(SUM(COUNTIF(U25,Feiertage!$C$2:$C$13)),"F",U25)</f>
         <v>45983</v>
       </c>
       <c r="W25" s="39">
@@ -11339,7 +11457,7 @@
         <v>46013</v>
       </c>
       <c r="X25" s="38" cm="1">
-        <f t="array" ref="X25">IF(SUM(COUNTIF(W25,Feiertage!$B$2:$B$13)),"F",W25)</f>
+        <f t="array" ref="X25">IF(SUM(COUNTIF(W25,Feiertage!$C$2:$C$13)),"F",W25)</f>
         <v>46013</v>
       </c>
     </row>
@@ -11349,7 +11467,7 @@
         <v>45680</v>
       </c>
       <c r="B26" s="38" cm="1">
-        <f t="array" ref="B26">IF(SUM(COUNTIF(A26,Feiertage!$B$2:$B$13)),"F",A26)</f>
+        <f t="array" ref="B26">IF(SUM(COUNTIF(A26,Feiertage!$C$2:$C$13)),"F",A26)</f>
         <v>45680</v>
       </c>
       <c r="C26" s="37">
@@ -11357,7 +11475,7 @@
         <v>45711</v>
       </c>
       <c r="D26" s="38" cm="1">
-        <f t="array" ref="D26">IF(SUM(COUNTIF(C26,Feiertage!$B$2:$B$13)),"F",C26)</f>
+        <f t="array" ref="D26">IF(SUM(COUNTIF(C26,Feiertage!$C$2:$C$13)),"F",C26)</f>
         <v>45711</v>
       </c>
       <c r="E26" s="37">
@@ -11365,7 +11483,7 @@
         <v>45739</v>
       </c>
       <c r="F26" s="38" cm="1">
-        <f t="array" ref="F26">IF(SUM(COUNTIF(E26,Feiertage!$B$2:$B$13)),"F",E26)</f>
+        <f t="array" ref="F26">IF(SUM(COUNTIF(E26,Feiertage!$C$2:$C$13)),"F",E26)</f>
         <v>45739</v>
       </c>
       <c r="G26" s="37">
@@ -11373,7 +11491,7 @@
         <v>45770</v>
       </c>
       <c r="H26" s="38" cm="1">
-        <f t="array" ref="H26">IF(SUM(COUNTIF(G26,Feiertage!$B$2:$B$13)),"F",G26)</f>
+        <f t="array" ref="H26">IF(SUM(COUNTIF(G26,Feiertage!$C$2:$C$13)),"F",G26)</f>
         <v>45770</v>
       </c>
       <c r="I26" s="37">
@@ -11381,7 +11499,7 @@
         <v>45800</v>
       </c>
       <c r="J26" s="38" cm="1">
-        <f t="array" ref="J26">IF(SUM(COUNTIF(I26,Feiertage!$B$2:$B$13)),"F",I26)</f>
+        <f t="array" ref="J26">IF(SUM(COUNTIF(I26,Feiertage!$C$2:$C$13)),"F",I26)</f>
         <v>45800</v>
       </c>
       <c r="K26" s="37">
@@ -11389,7 +11507,7 @@
         <v>45831</v>
       </c>
       <c r="L26" s="38" cm="1">
-        <f t="array" ref="L26">IF(SUM(COUNTIF(K26,Feiertage!$B$2:$B$13)),"F",K26)</f>
+        <f t="array" ref="L26">IF(SUM(COUNTIF(K26,Feiertage!$C$2:$C$13)),"F",K26)</f>
         <v>45831</v>
       </c>
       <c r="M26" s="37">
@@ -11397,7 +11515,7 @@
         <v>45861</v>
       </c>
       <c r="N26" s="38" cm="1">
-        <f t="array" ref="N26">IF(SUM(COUNTIF(M26,Feiertage!$B$2:$B$13)),"F",M26)</f>
+        <f t="array" ref="N26">IF(SUM(COUNTIF(M26,Feiertage!$C$2:$C$13)),"F",M26)</f>
         <v>45861</v>
       </c>
       <c r="O26" s="37">
@@ -11405,7 +11523,7 @@
         <v>45892</v>
       </c>
       <c r="P26" s="38" cm="1">
-        <f t="array" ref="P26">IF(SUM(COUNTIF(O26,Feiertage!$B$2:$B$13)),"F",O26)</f>
+        <f t="array" ref="P26">IF(SUM(COUNTIF(O26,Feiertage!$C$2:$C$13)),"F",O26)</f>
         <v>45892</v>
       </c>
       <c r="Q26" s="37">
@@ -11413,7 +11531,7 @@
         <v>45923</v>
       </c>
       <c r="R26" s="38" cm="1">
-        <f t="array" ref="R26">IF(SUM(COUNTIF(Q26,Feiertage!$B$2:$B$13)),"F",Q26)</f>
+        <f t="array" ref="R26">IF(SUM(COUNTIF(Q26,Feiertage!$C$2:$C$13)),"F",Q26)</f>
         <v>45923</v>
       </c>
       <c r="S26" s="37">
@@ -11421,7 +11539,7 @@
         <v>45953</v>
       </c>
       <c r="T26" s="38" cm="1">
-        <f t="array" ref="T26">IF(SUM(COUNTIF(S26,Feiertage!$B$2:$B$13)),"F",S26)</f>
+        <f t="array" ref="T26">IF(SUM(COUNTIF(S26,Feiertage!$C$2:$C$13)),"F",S26)</f>
         <v>45953</v>
       </c>
       <c r="U26" s="37">
@@ -11429,7 +11547,7 @@
         <v>45984</v>
       </c>
       <c r="V26" s="38" cm="1">
-        <f t="array" ref="V26">IF(SUM(COUNTIF(U26,Feiertage!$B$2:$B$13)),"F",U26)</f>
+        <f t="array" ref="V26">IF(SUM(COUNTIF(U26,Feiertage!$C$2:$C$13)),"F",U26)</f>
         <v>45984</v>
       </c>
       <c r="W26" s="39">
@@ -11437,7 +11555,7 @@
         <v>46014</v>
       </c>
       <c r="X26" s="38" cm="1">
-        <f t="array" ref="X26">IF(SUM(COUNTIF(W26,Feiertage!$B$2:$B$13)),"F",W26)</f>
+        <f t="array" ref="X26">IF(SUM(COUNTIF(W26,Feiertage!$C$2:$C$13)),"F",W26)</f>
         <v>46014</v>
       </c>
     </row>
@@ -11447,7 +11565,7 @@
         <v>45681</v>
       </c>
       <c r="B27" s="38" cm="1">
-        <f t="array" ref="B27">IF(SUM(COUNTIF(A27,Feiertage!$B$2:$B$13)),"F",A27)</f>
+        <f t="array" ref="B27">IF(SUM(COUNTIF(A27,Feiertage!$C$2:$C$13)),"F",A27)</f>
         <v>45681</v>
       </c>
       <c r="C27" s="37">
@@ -11455,7 +11573,7 @@
         <v>45712</v>
       </c>
       <c r="D27" s="38" cm="1">
-        <f t="array" ref="D27">IF(SUM(COUNTIF(C27,Feiertage!$B$2:$B$13)),"F",C27)</f>
+        <f t="array" ref="D27">IF(SUM(COUNTIF(C27,Feiertage!$C$2:$C$13)),"F",C27)</f>
         <v>45712</v>
       </c>
       <c r="E27" s="37">
@@ -11463,7 +11581,7 @@
         <v>45740</v>
       </c>
       <c r="F27" s="38" cm="1">
-        <f t="array" ref="F27">IF(SUM(COUNTIF(E27,Feiertage!$B$2:$B$13)),"F",E27)</f>
+        <f t="array" ref="F27">IF(SUM(COUNTIF(E27,Feiertage!$C$2:$C$13)),"F",E27)</f>
         <v>45740</v>
       </c>
       <c r="G27" s="37">
@@ -11471,7 +11589,7 @@
         <v>45771</v>
       </c>
       <c r="H27" s="38" cm="1">
-        <f t="array" ref="H27">IF(SUM(COUNTIF(G27,Feiertage!$B$2:$B$13)),"F",G27)</f>
+        <f t="array" ref="H27">IF(SUM(COUNTIF(G27,Feiertage!$C$2:$C$13)),"F",G27)</f>
         <v>45771</v>
       </c>
       <c r="I27" s="37">
@@ -11479,7 +11597,7 @@
         <v>45801</v>
       </c>
       <c r="J27" s="38" cm="1">
-        <f t="array" ref="J27">IF(SUM(COUNTIF(I27,Feiertage!$B$2:$B$13)),"F",I27)</f>
+        <f t="array" ref="J27">IF(SUM(COUNTIF(I27,Feiertage!$C$2:$C$13)),"F",I27)</f>
         <v>45801</v>
       </c>
       <c r="K27" s="37">
@@ -11487,7 +11605,7 @@
         <v>45832</v>
       </c>
       <c r="L27" s="38" cm="1">
-        <f t="array" ref="L27">IF(SUM(COUNTIF(K27,Feiertage!$B$2:$B$13)),"F",K27)</f>
+        <f t="array" ref="L27">IF(SUM(COUNTIF(K27,Feiertage!$C$2:$C$13)),"F",K27)</f>
         <v>45832</v>
       </c>
       <c r="M27" s="37">
@@ -11495,7 +11613,7 @@
         <v>45862</v>
       </c>
       <c r="N27" s="38" cm="1">
-        <f t="array" ref="N27">IF(SUM(COUNTIF(M27,Feiertage!$B$2:$B$13)),"F",M27)</f>
+        <f t="array" ref="N27">IF(SUM(COUNTIF(M27,Feiertage!$C$2:$C$13)),"F",M27)</f>
         <v>45862</v>
       </c>
       <c r="O27" s="37">
@@ -11503,7 +11621,7 @@
         <v>45893</v>
       </c>
       <c r="P27" s="38" cm="1">
-        <f t="array" ref="P27">IF(SUM(COUNTIF(O27,Feiertage!$B$2:$B$13)),"F",O27)</f>
+        <f t="array" ref="P27">IF(SUM(COUNTIF(O27,Feiertage!$C$2:$C$13)),"F",O27)</f>
         <v>45893</v>
       </c>
       <c r="Q27" s="37">
@@ -11511,7 +11629,7 @@
         <v>45924</v>
       </c>
       <c r="R27" s="38" cm="1">
-        <f t="array" ref="R27">IF(SUM(COUNTIF(Q27,Feiertage!$B$2:$B$13)),"F",Q27)</f>
+        <f t="array" ref="R27">IF(SUM(COUNTIF(Q27,Feiertage!$C$2:$C$13)),"F",Q27)</f>
         <v>45924</v>
       </c>
       <c r="S27" s="37">
@@ -11519,7 +11637,7 @@
         <v>45954</v>
       </c>
       <c r="T27" s="38" cm="1">
-        <f t="array" ref="T27">IF(SUM(COUNTIF(S27,Feiertage!$B$2:$B$13)),"F",S27)</f>
+        <f t="array" ref="T27">IF(SUM(COUNTIF(S27,Feiertage!$C$2:$C$13)),"F",S27)</f>
         <v>45954</v>
       </c>
       <c r="U27" s="37">
@@ -11527,7 +11645,7 @@
         <v>45985</v>
       </c>
       <c r="V27" s="38" cm="1">
-        <f t="array" ref="V27">IF(SUM(COUNTIF(U27,Feiertage!$B$2:$B$13)),"F",U27)</f>
+        <f t="array" ref="V27">IF(SUM(COUNTIF(U27,Feiertage!$C$2:$C$13)),"F",U27)</f>
         <v>45985</v>
       </c>
       <c r="W27" s="39">
@@ -11535,7 +11653,7 @@
         <v>46015</v>
       </c>
       <c r="X27" s="38" cm="1">
-        <f t="array" ref="X27">IF(SUM(COUNTIF(W27,Feiertage!$B$2:$B$13)),"F",W27)</f>
+        <f t="array" ref="X27">IF(SUM(COUNTIF(W27,Feiertage!$C$2:$C$13)),"F",W27)</f>
         <v>46015</v>
       </c>
     </row>
@@ -11545,7 +11663,7 @@
         <v>45682</v>
       </c>
       <c r="B28" s="38" cm="1">
-        <f t="array" ref="B28">IF(SUM(COUNTIF(A28,Feiertage!$B$2:$B$13)),"F",A28)</f>
+        <f t="array" ref="B28">IF(SUM(COUNTIF(A28,Feiertage!$C$2:$C$13)),"F",A28)</f>
         <v>45682</v>
       </c>
       <c r="C28" s="37">
@@ -11553,7 +11671,7 @@
         <v>45713</v>
       </c>
       <c r="D28" s="38" cm="1">
-        <f t="array" ref="D28">IF(SUM(COUNTIF(C28,Feiertage!$B$2:$B$13)),"F",C28)</f>
+        <f t="array" ref="D28">IF(SUM(COUNTIF(C28,Feiertage!$C$2:$C$13)),"F",C28)</f>
         <v>45713</v>
       </c>
       <c r="E28" s="37">
@@ -11561,7 +11679,7 @@
         <v>45741</v>
       </c>
       <c r="F28" s="38" cm="1">
-        <f t="array" ref="F28">IF(SUM(COUNTIF(E28,Feiertage!$B$2:$B$13)),"F",E28)</f>
+        <f t="array" ref="F28">IF(SUM(COUNTIF(E28,Feiertage!$C$2:$C$13)),"F",E28)</f>
         <v>45741</v>
       </c>
       <c r="G28" s="37">
@@ -11569,7 +11687,7 @@
         <v>45772</v>
       </c>
       <c r="H28" s="38" cm="1">
-        <f t="array" ref="H28">IF(SUM(COUNTIF(G28,Feiertage!$B$2:$B$13)),"F",G28)</f>
+        <f t="array" ref="H28">IF(SUM(COUNTIF(G28,Feiertage!$C$2:$C$13)),"F",G28)</f>
         <v>45772</v>
       </c>
       <c r="I28" s="37">
@@ -11577,7 +11695,7 @@
         <v>45802</v>
       </c>
       <c r="J28" s="38" cm="1">
-        <f t="array" ref="J28">IF(SUM(COUNTIF(I28,Feiertage!$B$2:$B$13)),"F",I28)</f>
+        <f t="array" ref="J28">IF(SUM(COUNTIF(I28,Feiertage!$C$2:$C$13)),"F",I28)</f>
         <v>45802</v>
       </c>
       <c r="K28" s="37">
@@ -11585,7 +11703,7 @@
         <v>45833</v>
       </c>
       <c r="L28" s="38" cm="1">
-        <f t="array" ref="L28">IF(SUM(COUNTIF(K28,Feiertage!$B$2:$B$13)),"F",K28)</f>
+        <f t="array" ref="L28">IF(SUM(COUNTIF(K28,Feiertage!$C$2:$C$13)),"F",K28)</f>
         <v>45833</v>
       </c>
       <c r="M28" s="37">
@@ -11593,7 +11711,7 @@
         <v>45863</v>
       </c>
       <c r="N28" s="38" cm="1">
-        <f t="array" ref="N28">IF(SUM(COUNTIF(M28,Feiertage!$B$2:$B$13)),"F",M28)</f>
+        <f t="array" ref="N28">IF(SUM(COUNTIF(M28,Feiertage!$C$2:$C$13)),"F",M28)</f>
         <v>45863</v>
       </c>
       <c r="O28" s="37">
@@ -11601,7 +11719,7 @@
         <v>45894</v>
       </c>
       <c r="P28" s="38" cm="1">
-        <f t="array" ref="P28">IF(SUM(COUNTIF(O28,Feiertage!$B$2:$B$13)),"F",O28)</f>
+        <f t="array" ref="P28">IF(SUM(COUNTIF(O28,Feiertage!$C$2:$C$13)),"F",O28)</f>
         <v>45894</v>
       </c>
       <c r="Q28" s="37">
@@ -11609,7 +11727,7 @@
         <v>45925</v>
       </c>
       <c r="R28" s="38" cm="1">
-        <f t="array" ref="R28">IF(SUM(COUNTIF(Q28,Feiertage!$B$2:$B$13)),"F",Q28)</f>
+        <f t="array" ref="R28">IF(SUM(COUNTIF(Q28,Feiertage!$C$2:$C$13)),"F",Q28)</f>
         <v>45925</v>
       </c>
       <c r="S28" s="37">
@@ -11617,7 +11735,7 @@
         <v>45955</v>
       </c>
       <c r="T28" s="38" cm="1">
-        <f t="array" ref="T28">IF(SUM(COUNTIF(S28,Feiertage!$B$2:$B$13)),"F",S28)</f>
+        <f t="array" ref="T28">IF(SUM(COUNTIF(S28,Feiertage!$C$2:$C$13)),"F",S28)</f>
         <v>45955</v>
       </c>
       <c r="U28" s="37">
@@ -11625,16 +11743,16 @@
         <v>45986</v>
       </c>
       <c r="V28" s="38" cm="1">
-        <f t="array" ref="V28">IF(SUM(COUNTIF(U28,Feiertage!$B$2:$B$13)),"F",U28)</f>
+        <f t="array" ref="V28">IF(SUM(COUNTIF(U28,Feiertage!$C$2:$C$13)),"F",U28)</f>
         <v>45986</v>
       </c>
       <c r="W28" s="39">
         <f t="shared" si="8"/>
         <v>46016</v>
       </c>
-      <c r="X28" s="38" cm="1">
-        <f t="array" ref="X28">IF(SUM(COUNTIF(W28,Feiertage!$B$2:$B$13)),"F",W28)</f>
-        <v>46016</v>
+      <c r="X28" s="38" t="str" cm="1">
+        <f t="array" ref="X28">IF(SUM(COUNTIF(W28,Feiertage!$C$2:$C$13)),"F",W28)</f>
+        <v>F</v>
       </c>
     </row>
     <row r="29" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
@@ -11643,7 +11761,7 @@
         <v>45683</v>
       </c>
       <c r="B29" s="38" cm="1">
-        <f t="array" ref="B29">IF(SUM(COUNTIF(A29,Feiertage!$B$2:$B$13)),"F",A29)</f>
+        <f t="array" ref="B29">IF(SUM(COUNTIF(A29,Feiertage!$C$2:$C$13)),"F",A29)</f>
         <v>45683</v>
       </c>
       <c r="C29" s="37">
@@ -11651,7 +11769,7 @@
         <v>45714</v>
       </c>
       <c r="D29" s="38" cm="1">
-        <f t="array" ref="D29">IF(SUM(COUNTIF(C29,Feiertage!$B$2:$B$13)),"F",C29)</f>
+        <f t="array" ref="D29">IF(SUM(COUNTIF(C29,Feiertage!$C$2:$C$13)),"F",C29)</f>
         <v>45714</v>
       </c>
       <c r="E29" s="37">
@@ -11659,7 +11777,7 @@
         <v>45742</v>
       </c>
       <c r="F29" s="38" cm="1">
-        <f t="array" ref="F29">IF(SUM(COUNTIF(E29,Feiertage!$B$2:$B$13)),"F",E29)</f>
+        <f t="array" ref="F29">IF(SUM(COUNTIF(E29,Feiertage!$C$2:$C$13)),"F",E29)</f>
         <v>45742</v>
       </c>
       <c r="G29" s="37">
@@ -11667,7 +11785,7 @@
         <v>45773</v>
       </c>
       <c r="H29" s="38" cm="1">
-        <f t="array" ref="H29">IF(SUM(COUNTIF(G29,Feiertage!$B$2:$B$13)),"F",G29)</f>
+        <f t="array" ref="H29">IF(SUM(COUNTIF(G29,Feiertage!$C$2:$C$13)),"F",G29)</f>
         <v>45773</v>
       </c>
       <c r="I29" s="37">
@@ -11675,7 +11793,7 @@
         <v>45803</v>
       </c>
       <c r="J29" s="38" cm="1">
-        <f t="array" ref="J29">IF(SUM(COUNTIF(I29,Feiertage!$B$2:$B$13)),"F",I29)</f>
+        <f t="array" ref="J29">IF(SUM(COUNTIF(I29,Feiertage!$C$2:$C$13)),"F",I29)</f>
         <v>45803</v>
       </c>
       <c r="K29" s="37">
@@ -11683,7 +11801,7 @@
         <v>45834</v>
       </c>
       <c r="L29" s="38" cm="1">
-        <f t="array" ref="L29">IF(SUM(COUNTIF(K29,Feiertage!$B$2:$B$13)),"F",K29)</f>
+        <f t="array" ref="L29">IF(SUM(COUNTIF(K29,Feiertage!$C$2:$C$13)),"F",K29)</f>
         <v>45834</v>
       </c>
       <c r="M29" s="37">
@@ -11691,7 +11809,7 @@
         <v>45864</v>
       </c>
       <c r="N29" s="38" cm="1">
-        <f t="array" ref="N29">IF(SUM(COUNTIF(M29,Feiertage!$B$2:$B$13)),"F",M29)</f>
+        <f t="array" ref="N29">IF(SUM(COUNTIF(M29,Feiertage!$C$2:$C$13)),"F",M29)</f>
         <v>45864</v>
       </c>
       <c r="O29" s="37">
@@ -11699,7 +11817,7 @@
         <v>45895</v>
       </c>
       <c r="P29" s="38" cm="1">
-        <f t="array" ref="P29">IF(SUM(COUNTIF(O29,Feiertage!$B$2:$B$13)),"F",O29)</f>
+        <f t="array" ref="P29">IF(SUM(COUNTIF(O29,Feiertage!$C$2:$C$13)),"F",O29)</f>
         <v>45895</v>
       </c>
       <c r="Q29" s="37">
@@ -11707,7 +11825,7 @@
         <v>45926</v>
       </c>
       <c r="R29" s="38" cm="1">
-        <f t="array" ref="R29">IF(SUM(COUNTIF(Q29,Feiertage!$B$2:$B$13)),"F",Q29)</f>
+        <f t="array" ref="R29">IF(SUM(COUNTIF(Q29,Feiertage!$C$2:$C$13)),"F",Q29)</f>
         <v>45926</v>
       </c>
       <c r="S29" s="37">
@@ -11715,7 +11833,7 @@
         <v>45956</v>
       </c>
       <c r="T29" s="38" cm="1">
-        <f t="array" ref="T29">IF(SUM(COUNTIF(S29,Feiertage!$B$2:$B$13)),"F",S29)</f>
+        <f t="array" ref="T29">IF(SUM(COUNTIF(S29,Feiertage!$C$2:$C$13)),"F",S29)</f>
         <v>45956</v>
       </c>
       <c r="U29" s="37">
@@ -11723,16 +11841,16 @@
         <v>45987</v>
       </c>
       <c r="V29" s="38" cm="1">
-        <f t="array" ref="V29">IF(SUM(COUNTIF(U29,Feiertage!$B$2:$B$13)),"F",U29)</f>
+        <f t="array" ref="V29">IF(SUM(COUNTIF(U29,Feiertage!$C$2:$C$13)),"F",U29)</f>
         <v>45987</v>
       </c>
       <c r="W29" s="39">
         <f t="shared" si="8"/>
         <v>46017</v>
       </c>
-      <c r="X29" s="38" cm="1">
-        <f t="array" ref="X29">IF(SUM(COUNTIF(W29,Feiertage!$B$2:$B$13)),"F",W29)</f>
-        <v>46017</v>
+      <c r="X29" s="38" t="str" cm="1">
+        <f t="array" ref="X29">IF(SUM(COUNTIF(W29,Feiertage!$C$2:$C$13)),"F",W29)</f>
+        <v>F</v>
       </c>
     </row>
     <row r="30" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
@@ -11741,7 +11859,7 @@
         <v>45684</v>
       </c>
       <c r="B30" s="38" cm="1">
-        <f t="array" ref="B30">IF(SUM(COUNTIF(A30,Feiertage!$B$2:$B$13)),"F",A30)</f>
+        <f t="array" ref="B30">IF(SUM(COUNTIF(A30,Feiertage!$C$2:$C$13)),"F",A30)</f>
         <v>45684</v>
       </c>
       <c r="C30" s="37">
@@ -11749,7 +11867,7 @@
         <v>45715</v>
       </c>
       <c r="D30" s="38" cm="1">
-        <f t="array" ref="D30">IF(SUM(COUNTIF(C30,Feiertage!$B$2:$B$13)),"F",C30)</f>
+        <f t="array" ref="D30">IF(SUM(COUNTIF(C30,Feiertage!$C$2:$C$13)),"F",C30)</f>
         <v>45715</v>
       </c>
       <c r="E30" s="37">
@@ -11757,7 +11875,7 @@
         <v>45743</v>
       </c>
       <c r="F30" s="38" cm="1">
-        <f t="array" ref="F30">IF(SUM(COUNTIF(E30,Feiertage!$B$2:$B$13)),"F",E30)</f>
+        <f t="array" ref="F30">IF(SUM(COUNTIF(E30,Feiertage!$C$2:$C$13)),"F",E30)</f>
         <v>45743</v>
       </c>
       <c r="G30" s="37">
@@ -11765,7 +11883,7 @@
         <v>45774</v>
       </c>
       <c r="H30" s="38" cm="1">
-        <f t="array" ref="H30">IF(SUM(COUNTIF(G30,Feiertage!$B$2:$B$13)),"F",G30)</f>
+        <f t="array" ref="H30">IF(SUM(COUNTIF(G30,Feiertage!$C$2:$C$13)),"F",G30)</f>
         <v>45774</v>
       </c>
       <c r="I30" s="37">
@@ -11773,7 +11891,7 @@
         <v>45804</v>
       </c>
       <c r="J30" s="38" cm="1">
-        <f t="array" ref="J30">IF(SUM(COUNTIF(I30,Feiertage!$B$2:$B$13)),"F",I30)</f>
+        <f t="array" ref="J30">IF(SUM(COUNTIF(I30,Feiertage!$C$2:$C$13)),"F",I30)</f>
         <v>45804</v>
       </c>
       <c r="K30" s="37">
@@ -11781,7 +11899,7 @@
         <v>45835</v>
       </c>
       <c r="L30" s="38" cm="1">
-        <f t="array" ref="L30">IF(SUM(COUNTIF(K30,Feiertage!$B$2:$B$13)),"F",K30)</f>
+        <f t="array" ref="L30">IF(SUM(COUNTIF(K30,Feiertage!$C$2:$C$13)),"F",K30)</f>
         <v>45835</v>
       </c>
       <c r="M30" s="37">
@@ -11789,7 +11907,7 @@
         <v>45865</v>
       </c>
       <c r="N30" s="38" cm="1">
-        <f t="array" ref="N30">IF(SUM(COUNTIF(M30,Feiertage!$B$2:$B$13)),"F",M30)</f>
+        <f t="array" ref="N30">IF(SUM(COUNTIF(M30,Feiertage!$C$2:$C$13)),"F",M30)</f>
         <v>45865</v>
       </c>
       <c r="O30" s="37">
@@ -11797,7 +11915,7 @@
         <v>45896</v>
       </c>
       <c r="P30" s="38" cm="1">
-        <f t="array" ref="P30">IF(SUM(COUNTIF(O30,Feiertage!$B$2:$B$13)),"F",O30)</f>
+        <f t="array" ref="P30">IF(SUM(COUNTIF(O30,Feiertage!$C$2:$C$13)),"F",O30)</f>
         <v>45896</v>
       </c>
       <c r="Q30" s="37">
@@ -11805,7 +11923,7 @@
         <v>45927</v>
       </c>
       <c r="R30" s="38" cm="1">
-        <f t="array" ref="R30">IF(SUM(COUNTIF(Q30,Feiertage!$B$2:$B$13)),"F",Q30)</f>
+        <f t="array" ref="R30">IF(SUM(COUNTIF(Q30,Feiertage!$C$2:$C$13)),"F",Q30)</f>
         <v>45927</v>
       </c>
       <c r="S30" s="37">
@@ -11813,7 +11931,7 @@
         <v>45957</v>
       </c>
       <c r="T30" s="38" cm="1">
-        <f t="array" ref="T30">IF(SUM(COUNTIF(S30,Feiertage!$B$2:$B$13)),"F",S30)</f>
+        <f t="array" ref="T30">IF(SUM(COUNTIF(S30,Feiertage!$C$2:$C$13)),"F",S30)</f>
         <v>45957</v>
       </c>
       <c r="U30" s="37">
@@ -11821,7 +11939,7 @@
         <v>45988</v>
       </c>
       <c r="V30" s="38" cm="1">
-        <f t="array" ref="V30">IF(SUM(COUNTIF(U30,Feiertage!$B$2:$B$13)),"F",U30)</f>
+        <f t="array" ref="V30">IF(SUM(COUNTIF(U30,Feiertage!$C$2:$C$13)),"F",U30)</f>
         <v>45988</v>
       </c>
       <c r="W30" s="39">
@@ -11829,7 +11947,7 @@
         <v>46018</v>
       </c>
       <c r="X30" s="38" cm="1">
-        <f t="array" ref="X30">IF(SUM(COUNTIF(W30,Feiertage!$B$2:$B$13)),"F",W30)</f>
+        <f t="array" ref="X30">IF(SUM(COUNTIF(W30,Feiertage!$C$2:$C$13)),"F",W30)</f>
         <v>46018</v>
       </c>
     </row>
@@ -11839,7 +11957,7 @@
         <v>45685</v>
       </c>
       <c r="B31" s="38" cm="1">
-        <f t="array" ref="B31">IF(SUM(COUNTIF(A31,Feiertage!$B$2:$B$13)),"F",A31)</f>
+        <f t="array" ref="B31">IF(SUM(COUNTIF(A31,Feiertage!$C$2:$C$13)),"F",A31)</f>
         <v>45685</v>
       </c>
       <c r="C31" s="37">
@@ -11847,7 +11965,7 @@
         <v>45716</v>
       </c>
       <c r="D31" s="38" cm="1">
-        <f t="array" ref="D31">IF(SUM(COUNTIF(C31,Feiertage!$B$2:$B$13)),"F",C31)</f>
+        <f t="array" ref="D31">IF(SUM(COUNTIF(C31,Feiertage!$C$2:$C$13)),"F",C31)</f>
         <v>45716</v>
       </c>
       <c r="E31" s="37">
@@ -11855,7 +11973,7 @@
         <v>45744</v>
       </c>
       <c r="F31" s="38" cm="1">
-        <f t="array" ref="F31">IF(SUM(COUNTIF(E31,Feiertage!$B$2:$B$13)),"F",E31)</f>
+        <f t="array" ref="F31">IF(SUM(COUNTIF(E31,Feiertage!$C$2:$C$13)),"F",E31)</f>
         <v>45744</v>
       </c>
       <c r="G31" s="37">
@@ -11863,7 +11981,7 @@
         <v>45775</v>
       </c>
       <c r="H31" s="38" cm="1">
-        <f t="array" ref="H31">IF(SUM(COUNTIF(G31,Feiertage!$B$2:$B$13)),"F",G31)</f>
+        <f t="array" ref="H31">IF(SUM(COUNTIF(G31,Feiertage!$C$2:$C$13)),"F",G31)</f>
         <v>45775</v>
       </c>
       <c r="I31" s="37">
@@ -11871,7 +11989,7 @@
         <v>45805</v>
       </c>
       <c r="J31" s="38" cm="1">
-        <f t="array" ref="J31">IF(SUM(COUNTIF(I31,Feiertage!$B$2:$B$13)),"F",I31)</f>
+        <f t="array" ref="J31">IF(SUM(COUNTIF(I31,Feiertage!$C$2:$C$13)),"F",I31)</f>
         <v>45805</v>
       </c>
       <c r="K31" s="37">
@@ -11879,7 +11997,7 @@
         <v>45836</v>
       </c>
       <c r="L31" s="38" cm="1">
-        <f t="array" ref="L31">IF(SUM(COUNTIF(K31,Feiertage!$B$2:$B$13)),"F",K31)</f>
+        <f t="array" ref="L31">IF(SUM(COUNTIF(K31,Feiertage!$C$2:$C$13)),"F",K31)</f>
         <v>45836</v>
       </c>
       <c r="M31" s="37">
@@ -11887,7 +12005,7 @@
         <v>45866</v>
       </c>
       <c r="N31" s="38" cm="1">
-        <f t="array" ref="N31">IF(SUM(COUNTIF(M31,Feiertage!$B$2:$B$13)),"F",M31)</f>
+        <f t="array" ref="N31">IF(SUM(COUNTIF(M31,Feiertage!$C$2:$C$13)),"F",M31)</f>
         <v>45866</v>
       </c>
       <c r="O31" s="37">
@@ -11895,7 +12013,7 @@
         <v>45897</v>
       </c>
       <c r="P31" s="38" cm="1">
-        <f t="array" ref="P31">IF(SUM(COUNTIF(O31,Feiertage!$B$2:$B$13)),"F",O31)</f>
+        <f t="array" ref="P31">IF(SUM(COUNTIF(O31,Feiertage!$C$2:$C$13)),"F",O31)</f>
         <v>45897</v>
       </c>
       <c r="Q31" s="37">
@@ -11903,7 +12021,7 @@
         <v>45928</v>
       </c>
       <c r="R31" s="38" cm="1">
-        <f t="array" ref="R31">IF(SUM(COUNTIF(Q31,Feiertage!$B$2:$B$13)),"F",Q31)</f>
+        <f t="array" ref="R31">IF(SUM(COUNTIF(Q31,Feiertage!$C$2:$C$13)),"F",Q31)</f>
         <v>45928</v>
       </c>
       <c r="S31" s="37">
@@ -11911,7 +12029,7 @@
         <v>45958</v>
       </c>
       <c r="T31" s="38" cm="1">
-        <f t="array" ref="T31">IF(SUM(COUNTIF(S31,Feiertage!$B$2:$B$13)),"F",S31)</f>
+        <f t="array" ref="T31">IF(SUM(COUNTIF(S31,Feiertage!$C$2:$C$13)),"F",S31)</f>
         <v>45958</v>
       </c>
       <c r="U31" s="37">
@@ -11919,7 +12037,7 @@
         <v>45989</v>
       </c>
       <c r="V31" s="38" cm="1">
-        <f t="array" ref="V31">IF(SUM(COUNTIF(U31,Feiertage!$B$2:$B$13)),"F",U31)</f>
+        <f t="array" ref="V31">IF(SUM(COUNTIF(U31,Feiertage!$C$2:$C$13)),"F",U31)</f>
         <v>45989</v>
       </c>
       <c r="W31" s="39">
@@ -11927,7 +12045,7 @@
         <v>46019</v>
       </c>
       <c r="X31" s="38" cm="1">
-        <f t="array" ref="X31">IF(SUM(COUNTIF(W31,Feiertage!$B$2:$B$13)),"F",W31)</f>
+        <f t="array" ref="X31">IF(SUM(COUNTIF(W31,Feiertage!$C$2:$C$13)),"F",W31)</f>
         <v>46019</v>
       </c>
     </row>
@@ -11937,7 +12055,7 @@
         <v>45686</v>
       </c>
       <c r="B32" s="38" cm="1">
-        <f t="array" ref="B32">IF(SUM(COUNTIF(A32,Feiertage!$B$2:$B$13)),"F",A32)</f>
+        <f t="array" ref="B32">IF(SUM(COUNTIF(A32,Feiertage!$C$2:$C$13)),"F",A32)</f>
         <v>45686</v>
       </c>
       <c r="C32" s="37" t="str">
@@ -11953,7 +12071,7 @@
         <v>45745</v>
       </c>
       <c r="F32" s="38" cm="1">
-        <f t="array" ref="F32">IF(SUM(COUNTIF(E32,Feiertage!$B$2:$B$13)),"F",E32)</f>
+        <f t="array" ref="F32">IF(SUM(COUNTIF(E32,Feiertage!$C$2:$C$13)),"F",E32)</f>
         <v>45745</v>
       </c>
       <c r="G32" s="37">
@@ -11961,23 +12079,23 @@
         <v>45776</v>
       </c>
       <c r="H32" s="38" cm="1">
-        <f t="array" ref="H32">IF(SUM(COUNTIF(G32,Feiertage!$B$2:$B$13)),"F",G32)</f>
+        <f t="array" ref="H32">IF(SUM(COUNTIF(G32,Feiertage!$C$2:$C$13)),"F",G32)</f>
         <v>45776</v>
       </c>
       <c r="I32" s="37">
         <f t="shared" si="13"/>
         <v>45806</v>
       </c>
-      <c r="J32" s="38" cm="1">
-        <f t="array" ref="J32">IF(SUM(COUNTIF(I32,Feiertage!$B$2:$B$13)),"F",I32)</f>
-        <v>45806</v>
+      <c r="J32" s="38" t="str" cm="1">
+        <f t="array" ref="J32">IF(SUM(COUNTIF(I32,Feiertage!$C$2:$C$13)),"F",I32)</f>
+        <v>F</v>
       </c>
       <c r="K32" s="37">
         <f t="shared" si="14"/>
         <v>45837</v>
       </c>
       <c r="L32" s="38" cm="1">
-        <f t="array" ref="L32">IF(SUM(COUNTIF(K32,Feiertage!$B$2:$B$13)),"F",K32)</f>
+        <f t="array" ref="L32">IF(SUM(COUNTIF(K32,Feiertage!$C$2:$C$13)),"F",K32)</f>
         <v>45837</v>
       </c>
       <c r="M32" s="37">
@@ -11985,7 +12103,7 @@
         <v>45867</v>
       </c>
       <c r="N32" s="38" cm="1">
-        <f t="array" ref="N32">IF(SUM(COUNTIF(M32,Feiertage!$B$2:$B$13)),"F",M32)</f>
+        <f t="array" ref="N32">IF(SUM(COUNTIF(M32,Feiertage!$C$2:$C$13)),"F",M32)</f>
         <v>45867</v>
       </c>
       <c r="O32" s="37">
@@ -11993,7 +12111,7 @@
         <v>45898</v>
       </c>
       <c r="P32" s="38" cm="1">
-        <f t="array" ref="P32">IF(SUM(COUNTIF(O32,Feiertage!$B$2:$B$13)),"F",O32)</f>
+        <f t="array" ref="P32">IF(SUM(COUNTIF(O32,Feiertage!$C$2:$C$13)),"F",O32)</f>
         <v>45898</v>
       </c>
       <c r="Q32" s="37">
@@ -12001,7 +12119,7 @@
         <v>45929</v>
       </c>
       <c r="R32" s="38" cm="1">
-        <f t="array" ref="R32">IF(SUM(COUNTIF(Q32,Feiertage!$B$2:$B$13)),"F",Q32)</f>
+        <f t="array" ref="R32">IF(SUM(COUNTIF(Q32,Feiertage!$C$2:$C$13)),"F",Q32)</f>
         <v>45929</v>
       </c>
       <c r="S32" s="37">
@@ -12009,7 +12127,7 @@
         <v>45959</v>
       </c>
       <c r="T32" s="38" cm="1">
-        <f t="array" ref="T32">IF(SUM(COUNTIF(S32,Feiertage!$B$2:$B$13)),"F",S32)</f>
+        <f t="array" ref="T32">IF(SUM(COUNTIF(S32,Feiertage!$C$2:$C$13)),"F",S32)</f>
         <v>45959</v>
       </c>
       <c r="U32" s="37">
@@ -12017,7 +12135,7 @@
         <v>45990</v>
       </c>
       <c r="V32" s="38" cm="1">
-        <f t="array" ref="V32">IF(SUM(COUNTIF(U32,Feiertage!$B$2:$B$13)),"F",U32)</f>
+        <f t="array" ref="V32">IF(SUM(COUNTIF(U32,Feiertage!$C$2:$C$13)),"F",U32)</f>
         <v>45990</v>
       </c>
       <c r="W32" s="39">
@@ -12025,7 +12143,7 @@
         <v>46020</v>
       </c>
       <c r="X32" s="38" cm="1">
-        <f t="array" ref="X32">IF(SUM(COUNTIF(W32,Feiertage!$B$2:$B$13)),"F",W32)</f>
+        <f t="array" ref="X32">IF(SUM(COUNTIF(W32,Feiertage!$C$2:$C$13)),"F",W32)</f>
         <v>46020</v>
       </c>
     </row>
@@ -12035,7 +12153,7 @@
         <v>45687</v>
       </c>
       <c r="B33" s="38" cm="1">
-        <f t="array" ref="B33">IF(SUM(COUNTIF(A33,Feiertage!$B$2:$B$13)),"F",A33)</f>
+        <f t="array" ref="B33">IF(SUM(COUNTIF(A33,Feiertage!$C$2:$C$13)),"F",A33)</f>
         <v>45687</v>
       </c>
       <c r="C33" s="37" t="str">
@@ -12051,7 +12169,7 @@
         <v>45746</v>
       </c>
       <c r="F33" s="38" cm="1">
-        <f t="array" ref="F33">IF(SUM(COUNTIF(E33,Feiertage!$B$2:$B$13)),"F",E33)</f>
+        <f t="array" ref="F33">IF(SUM(COUNTIF(E33,Feiertage!$C$2:$C$13)),"F",E33)</f>
         <v>45746</v>
       </c>
       <c r="G33" s="37">
@@ -12059,7 +12177,7 @@
         <v>45777</v>
       </c>
       <c r="H33" s="38" cm="1">
-        <f t="array" ref="H33">IF(SUM(COUNTIF(G33,Feiertage!$B$2:$B$13)),"F",G33)</f>
+        <f t="array" ref="H33">IF(SUM(COUNTIF(G33,Feiertage!$C$2:$C$13)),"F",G33)</f>
         <v>45777</v>
       </c>
       <c r="I33" s="37">
@@ -12067,7 +12185,7 @@
         <v>45807</v>
       </c>
       <c r="J33" s="38" cm="1">
-        <f t="array" ref="J33">IF(SUM(COUNTIF(I33,Feiertage!$B$2:$B$13)),"F",I33)</f>
+        <f t="array" ref="J33">IF(SUM(COUNTIF(I33,Feiertage!$C$2:$C$13)),"F",I33)</f>
         <v>45807</v>
       </c>
       <c r="K33" s="37">
@@ -12075,7 +12193,7 @@
         <v>45838</v>
       </c>
       <c r="L33" s="38" cm="1">
-        <f t="array" ref="L33">IF(SUM(COUNTIF(K33,Feiertage!$B$2:$B$13)),"F",K33)</f>
+        <f t="array" ref="L33">IF(SUM(COUNTIF(K33,Feiertage!$C$2:$C$13)),"F",K33)</f>
         <v>45838</v>
       </c>
       <c r="M33" s="37">
@@ -12083,7 +12201,7 @@
         <v>45868</v>
       </c>
       <c r="N33" s="38" cm="1">
-        <f t="array" ref="N33">IF(SUM(COUNTIF(M33,Feiertage!$B$2:$B$13)),"F",M33)</f>
+        <f t="array" ref="N33">IF(SUM(COUNTIF(M33,Feiertage!$C$2:$C$13)),"F",M33)</f>
         <v>45868</v>
       </c>
       <c r="O33" s="37">
@@ -12091,7 +12209,7 @@
         <v>45899</v>
       </c>
       <c r="P33" s="38" cm="1">
-        <f t="array" ref="P33">IF(SUM(COUNTIF(O33,Feiertage!$B$2:$B$13)),"F",O33)</f>
+        <f t="array" ref="P33">IF(SUM(COUNTIF(O33,Feiertage!$C$2:$C$13)),"F",O33)</f>
         <v>45899</v>
       </c>
       <c r="Q33" s="37">
@@ -12099,7 +12217,7 @@
         <v>45930</v>
       </c>
       <c r="R33" s="38" cm="1">
-        <f t="array" ref="R33">IF(SUM(COUNTIF(Q33,Feiertage!$B$2:$B$13)),"F",Q33)</f>
+        <f t="array" ref="R33">IF(SUM(COUNTIF(Q33,Feiertage!$C$2:$C$13)),"F",Q33)</f>
         <v>45930</v>
       </c>
       <c r="S33" s="37">
@@ -12107,7 +12225,7 @@
         <v>45960</v>
       </c>
       <c r="T33" s="38" cm="1">
-        <f t="array" ref="T33">IF(SUM(COUNTIF(S33,Feiertage!$B$2:$B$13)),"F",S33)</f>
+        <f t="array" ref="T33">IF(SUM(COUNTIF(S33,Feiertage!$C$2:$C$13)),"F",S33)</f>
         <v>45960</v>
       </c>
       <c r="U33" s="37">
@@ -12115,7 +12233,7 @@
         <v>45991</v>
       </c>
       <c r="V33" s="38" cm="1">
-        <f t="array" ref="V33">IF(SUM(COUNTIF(U33,Feiertage!$B$2:$B$13)),"F",U33)</f>
+        <f t="array" ref="V33">IF(SUM(COUNTIF(U33,Feiertage!$C$2:$C$13)),"F",U33)</f>
         <v>45991</v>
       </c>
       <c r="W33" s="39">
@@ -12123,7 +12241,7 @@
         <v>46021</v>
       </c>
       <c r="X33" s="38" cm="1">
-        <f t="array" ref="X33">IF(SUM(COUNTIF(W33,Feiertage!$B$2:$B$13)),"F",W33)</f>
+        <f t="array" ref="X33">IF(SUM(COUNTIF(W33,Feiertage!$C$2:$C$13)),"F",W33)</f>
         <v>46021</v>
       </c>
     </row>
@@ -12133,7 +12251,7 @@
         <v>45688</v>
       </c>
       <c r="B34" s="41" cm="1">
-        <f t="array" ref="B34">IF(SUM(COUNTIF(A34,Feiertage!$B$2:$B$13)),"F",A34)</f>
+        <f t="array" ref="B34">IF(SUM(COUNTIF(A34,Feiertage!$C$2:$C$13)),"F",A34)</f>
         <v>45688</v>
       </c>
       <c r="C34" s="40" t="str">
@@ -12149,7 +12267,7 @@
         <v>45747</v>
       </c>
       <c r="F34" s="41" cm="1">
-        <f t="array" ref="F34">IF(SUM(COUNTIF(E34,Feiertage!$B$2:$B$13)),"F",E34)</f>
+        <f t="array" ref="F34">IF(SUM(COUNTIF(E34,Feiertage!$C$2:$C$13)),"F",E34)</f>
         <v>45747</v>
       </c>
       <c r="G34" s="40" t="str">
@@ -12165,7 +12283,7 @@
         <v>45808</v>
       </c>
       <c r="J34" s="41" cm="1">
-        <f t="array" ref="J34">IF(SUM(COUNTIF(I34,Feiertage!$B$2:$B$13)),"F",I34)</f>
+        <f t="array" ref="J34">IF(SUM(COUNTIF(I34,Feiertage!$C$2:$C$13)),"F",I34)</f>
         <v>45808</v>
       </c>
       <c r="K34" s="40" t="str">
@@ -12181,7 +12299,7 @@
         <v>45869</v>
       </c>
       <c r="N34" s="41" cm="1">
-        <f t="array" ref="N34">IF(SUM(COUNTIF(M34,Feiertage!$B$2:$B$13)),"F",M34)</f>
+        <f t="array" ref="N34">IF(SUM(COUNTIF(M34,Feiertage!$C$2:$C$13)),"F",M34)</f>
         <v>45869</v>
       </c>
       <c r="O34" s="40">
@@ -12189,7 +12307,7 @@
         <v>45900</v>
       </c>
       <c r="P34" s="41" cm="1">
-        <f t="array" ref="P34">IF(SUM(COUNTIF(O34,Feiertage!$B$2:$B$13)),"F",O34)</f>
+        <f t="array" ref="P34">IF(SUM(COUNTIF(O34,Feiertage!$C$2:$C$13)),"F",O34)</f>
         <v>45900</v>
       </c>
       <c r="Q34" s="40" t="str">
@@ -12205,7 +12323,7 @@
         <v>45961</v>
       </c>
       <c r="T34" s="41" cm="1">
-        <f t="array" ref="T34">IF(SUM(COUNTIF(S34,Feiertage!$B$2:$B$13)),"F",S34)</f>
+        <f t="array" ref="T34">IF(SUM(COUNTIF(S34,Feiertage!$C$2:$C$13)),"F",S34)</f>
         <v>45961</v>
       </c>
       <c r="U34" s="40" t="str">
@@ -12221,7 +12339,7 @@
         <v>46022</v>
       </c>
       <c r="X34" s="41" cm="1">
-        <f t="array" ref="X34">IF(SUM(COUNTIF(W34,Feiertage!$B$2:$B$13)),"F",W34)</f>
+        <f t="array" ref="X34">IF(SUM(COUNTIF(W34,Feiertage!$C$2:$C$13)),"F",W34)</f>
         <v>46022</v>
       </c>
     </row>
@@ -12249,16 +12367,16 @@
     <mergeCell ref="I3:J3"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:X34">
-    <cfRule type="expression" dxfId="26" priority="1">
+    <cfRule type="expression" dxfId="20" priority="1">
       <formula>TODAY()=A4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>OR(A4="F",B4="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="3">
+    <cfRule type="expression" dxfId="18" priority="3">
       <formula>OR(A4="U",B4="U")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="7">
+    <cfRule type="expression" dxfId="17" priority="7">
       <formula>WEEKDAY(A4,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12309,10 +12427,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B68FDFFE-8976-4E81-A21C-ABA53AB9029E}">
   <sheetPr codeName="Tabelle4"/>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12320,111 +12438,150 @@
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2023</v>
       </c>
       <c r="B1">
         <v>2024</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44927</v>
       </c>
       <c r="B2" s="1">
         <v>45292</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="1">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44932</v>
       </c>
       <c r="B3" s="1">
         <v>45297</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="1">
+        <v>45663</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45023</v>
       </c>
       <c r="B4" s="1">
         <v>45380</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="1">
+        <v>45765</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45026</v>
       </c>
       <c r="B5" s="1">
         <v>45383</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="1">
+        <v>45768</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45047</v>
       </c>
       <c r="B6" s="1">
         <v>45413</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="1">
+        <v>45778</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45064</v>
       </c>
       <c r="B7" s="1">
         <v>45421</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="1">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45075</v>
       </c>
       <c r="B8" s="1">
         <v>45432</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="1">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45085</v>
       </c>
       <c r="B9" s="1">
         <v>45442</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="1">
+        <v>45827</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45202</v>
       </c>
       <c r="B10" s="1">
         <v>45568</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" s="1">
+        <v>45933</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45231</v>
       </c>
       <c r="B11" s="1">
         <v>45597</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="1">
+        <v>45962</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45285</v>
       </c>
       <c r="B12" s="1">
         <v>45651</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="1">
+        <v>46016</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45286</v>
       </c>
       <c r="B13" s="1">
         <v>45652</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
+        <v>46017</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
     </row>
     <row r="17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Studiumplan.xlsx
+++ b/Studiumplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00_Programme_RB\DHBW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1540C6C4-FE0C-406B-804B-118DC84F16CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54434944-122F-437B-94A3-200236A36409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2055" windowWidth="29040" windowHeight="17790" tabRatio="579" activeTab="2" xr2:uid="{8D6EA8FC-9557-4CD3-9C64-AEC02D041DCB}"/>
+    <workbookView xWindow="915" yWindow="2760" windowWidth="22980" windowHeight="15555" tabRatio="579" activeTab="3" xr2:uid="{8D6EA8FC-9557-4CD3-9C64-AEC02D041DCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Modulliste" sheetId="3" r:id="rId1"/>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="104">
   <si>
     <t>Modulname</t>
   </si>
@@ -191,9 +191,6 @@
   </si>
   <si>
     <t>Klausur</t>
-  </si>
-  <si>
-    <t>Prof.Dr. Dietmar Schorr</t>
   </si>
   <si>
     <t>Maschinelles Lernen und Computational Intelligence</t>
@@ -409,7 +406,19 @@
     <t>Heute</t>
   </si>
   <si>
-    <t>??????????????????????</t>
+    <t>Drahtlose Kommunikationstechnik</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>T3M20503</t>
+  </si>
+  <si>
+    <t>Karlsruhe</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Dietmar Schorr</t>
   </si>
 </sst>
 </file>
@@ -420,7 +429,7 @@
     <numFmt numFmtId="164" formatCode="d/m;@"/>
     <numFmt numFmtId="165" formatCode="ddd/"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -499,12 +508,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="14">
@@ -913,18 +916,6 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -949,60 +940,490 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="49">
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
       <fill>
-        <patternFill>
-          <bgColor theme="7"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
       <fill>
-        <patternFill>
-          <bgColor theme="7"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
       <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1153,473 +1574,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1668,25 +1622,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4F3B1065-317B-4BEC-B040-1C2152005517}" name="Modulliste" displayName="Modulliste" ref="A1:M21" totalsRowCount="1" headerRowDxfId="55" dataDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4F3B1065-317B-4BEC-B040-1C2152005517}" name="Modulliste" displayName="Modulliste" ref="A1:M21" totalsRowCount="1" headerRowDxfId="48" dataDxfId="47">
   <autoFilter ref="A1:M20" xr:uid="{4F3B1065-317B-4BEC-B040-1C2152005517}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M20">
     <sortCondition ref="G1:G20"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="12" xr3:uid="{2C8AA6B6-31D0-4DF0-9DA9-0D8B08088E24}" name="Modulname" totalsRowLabel="Abschlussnote" dataDxfId="53" totalsRowDxfId="52"/>
-    <tableColumn id="1" xr3:uid="{FF50EF13-B9B2-42C9-A37F-07237C42C851}" name="Bereich" dataDxfId="51" totalsRowDxfId="50"/>
-    <tableColumn id="10" xr3:uid="{DE1BE470-5B26-4F88-8799-243B2BE03172}" name="Semester" dataDxfId="49" totalsRowDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{E64020FC-6A5D-4A49-BCE1-C2569FF59159}" name="Schlüssel" dataDxfId="47" totalsRowDxfId="46"/>
-    <tableColumn id="4" xr3:uid="{8470E22C-4CE1-4553-8671-9BF5989AAE65}" name="Prüfungsart" dataDxfId="45" totalsRowDxfId="44"/>
-    <tableColumn id="5" xr3:uid="{CF2D34DC-4E44-45F0-B25E-0FFB229BA18E}" name="LP" dataDxfId="43" totalsRowDxfId="42"/>
-    <tableColumn id="6" xr3:uid="{80506F77-5504-411A-B364-0B22CC53A582}" name="Termin 1" dataDxfId="41" totalsRowDxfId="40"/>
-    <tableColumn id="7" xr3:uid="{C9413F7D-7FA1-417F-B220-3B19C8279173}" name="Ort 1" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="8" xr3:uid="{A89D3283-E2AE-4360-9A93-F5F27682296D}" name="Termin 2" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="9" xr3:uid="{DDE1A5EF-F94C-417A-95CA-A29D4C689B48}" name="Ort 2" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{A92B3274-FA6A-4C49-87BB-1CF1BAC29EAB}" name="Prüfungstermin" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="11" xr3:uid="{F6C0E347-9701-496F-8B92-1BFEDFF8D817}" name="MODULVERANTWORTUNG" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="14" xr3:uid="{A9A48352-3929-4E88-AACC-E1A6F11D63E3}" name="Note" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="28">
+    <tableColumn id="12" xr3:uid="{2C8AA6B6-31D0-4DF0-9DA9-0D8B08088E24}" name="Modulname" totalsRowLabel="Abschlussnote" dataDxfId="25" totalsRowDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{FF50EF13-B9B2-42C9-A37F-07237C42C851}" name="Bereich" dataDxfId="24" totalsRowDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{DE1BE470-5B26-4F88-8799-243B2BE03172}" name="Semester" dataDxfId="23" totalsRowDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{E64020FC-6A5D-4A49-BCE1-C2569FF59159}" name="Schlüssel" dataDxfId="22" totalsRowDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{8470E22C-4CE1-4553-8671-9BF5989AAE65}" name="Prüfungsart" dataDxfId="21" totalsRowDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{CF2D34DC-4E44-45F0-B25E-0FFB229BA18E}" name="LP" dataDxfId="20" totalsRowDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{80506F77-5504-411A-B364-0B22CC53A582}" name="Termin 1" dataDxfId="19" totalsRowDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{C9413F7D-7FA1-417F-B220-3B19C8279173}" name="Ort 1" dataDxfId="18" totalsRowDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{A89D3283-E2AE-4360-9A93-F5F27682296D}" name="Termin 2" dataDxfId="17" totalsRowDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{DDE1A5EF-F94C-417A-95CA-A29D4C689B48}" name="Ort 2" dataDxfId="16" totalsRowDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{A92B3274-FA6A-4C49-87BB-1CF1BAC29EAB}" name="Prüfungstermin" dataDxfId="15" totalsRowDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{F6C0E347-9701-496F-8B92-1BFEDFF8D817}" name="MODULVERANTWORTUNG" dataDxfId="14" totalsRowDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{A9A48352-3929-4E88-AACC-E1A6F11D63E3}" name="Note" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="0">
       <totalsRowFormula array="1">SUMPRODUCT(IF(Modulliste[Note]&lt;&gt;"", Modulliste[Note]), Modulliste[LP]) / SUM(IF(Modulliste[Note]&lt;&gt;"", Modulliste[LP]))</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -2014,8 +1968,8 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A25" sqref="A25"/>
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2184,13 +2138,13 @@
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="M4" s="25"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>14</v>
@@ -2199,10 +2153,10 @@
         <v>15</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="F5" s="7">
         <v>5</v>
@@ -2223,22 +2177,22 @@
         <v>45229</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M5" s="25"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>27</v>
@@ -2260,22 +2214,22 @@
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M6" s="25"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="C7" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>38</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>39</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>27</v>
@@ -2297,22 +2251,22 @@
       </c>
       <c r="K7" s="17"/>
       <c r="L7" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="26"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>22</v>
@@ -2324,35 +2278,35 @@
         <v>45320</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I8" s="23">
         <v>45358</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M8" s="25"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C9" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="14" t="s">
+      <c r="E9" s="14" t="s">
         <v>47</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>48</v>
       </c>
       <c r="F9" s="14">
         <v>5</v>
@@ -2361,7 +2315,7 @@
         <v>45323</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I9" s="15">
         <v>45355</v>
@@ -2371,25 +2325,25 @@
       </c>
       <c r="K9" s="14"/>
       <c r="L9" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M9" s="27"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="C10" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="D10" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="E10" s="19" t="s">
         <v>52</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>53</v>
       </c>
       <c r="F10" s="19">
         <v>5</v>
@@ -2398,7 +2352,7 @@
         <v>45393</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I10" s="20">
         <v>45425</v>
@@ -2408,25 +2362,25 @@
       </c>
       <c r="K10" s="19"/>
       <c r="L10" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M10" s="28"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="17" t="s">
+      <c r="E11" s="16" t="s">
         <v>57</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>58</v>
       </c>
       <c r="F11" s="17">
         <v>5</v>
@@ -2445,22 +2399,22 @@
       </c>
       <c r="K11" s="17"/>
       <c r="L11" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M11" s="26"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="17" t="s">
         <v>59</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>60</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>27</v>
@@ -2482,25 +2436,25 @@
       </c>
       <c r="K12" s="17"/>
       <c r="L12" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M12" s="26"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="19" t="s">
+      <c r="E13" s="19" t="s">
         <v>66</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>67</v>
       </c>
       <c r="F13" s="19">
         <v>5</v>
@@ -2509,35 +2463,35 @@
         <v>45488</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I13" s="20">
         <v>45547</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K13" s="19"/>
       <c r="L13" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M13" s="28"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="14" t="s">
+      <c r="D14" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>71</v>
-      </c>
       <c r="E14" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F14" s="14">
         <v>5</v>
@@ -2556,25 +2510,25 @@
       </c>
       <c r="K14" s="14"/>
       <c r="L14" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M14" s="27"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="19" t="s">
+      <c r="D15" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="E15" s="19" t="s">
         <v>76</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>77</v>
       </c>
       <c r="F15" s="19">
         <v>5</v>
@@ -2583,35 +2537,35 @@
         <v>45782</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I15" s="20">
         <v>45813</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K15" s="19"/>
       <c r="L15" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M15" s="28"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="14" t="s">
+      <c r="E16" s="14" t="s">
         <v>63</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>64</v>
       </c>
       <c r="F16" s="14">
         <v>5</v>
@@ -2630,36 +2584,56 @@
       </c>
       <c r="K16" s="14"/>
       <c r="L16" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M16" s="27"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="21"/>
+      <c r="C17" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="21">
+        <v>5</v>
+      </c>
+      <c r="G17" s="22">
+        <v>45670</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I17" s="22">
+        <v>45701</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>102</v>
+      </c>
       <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
+      <c r="L17" s="21" t="s">
+        <v>54</v>
+      </c>
       <c r="M17" s="29"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -2676,13 +2650,13 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -2701,13 +2675,13 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
@@ -2726,7 +2700,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="52" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
@@ -2811,67 +2785,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="58">
+      <c r="A1" s="66">
         <v>2023</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
       <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="65"/>
+      <c r="C3" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="56" t="s">
+      <c r="D3" s="65"/>
+      <c r="E3" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="56" t="s">
+      <c r="F3" s="65"/>
+      <c r="G3" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="56" t="s">
+      <c r="H3" s="65"/>
+      <c r="I3" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="H3" s="57"/>
-      <c r="I3" s="56" t="s">
+      <c r="J3" s="65"/>
+      <c r="K3" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="J3" s="57"/>
-      <c r="K3" s="56" t="s">
+      <c r="L3" s="65"/>
+      <c r="M3" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="L3" s="57"/>
-      <c r="M3" s="56" t="s">
+      <c r="N3" s="65"/>
+      <c r="O3" s="33" t="s">
         <v>86</v>
-      </c>
-      <c r="N3" s="57"/>
-      <c r="O3" s="33" t="s">
-        <v>87</v>
       </c>
       <c r="P3" s="43"/>
       <c r="Q3" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R3" s="43"/>
       <c r="S3" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T3" s="43"/>
       <c r="U3" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V3" s="43"/>
       <c r="W3" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X3" s="43"/>
       <c r="AC3" s="44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2972,7 +2946,7 @@
         <v>45261</v>
       </c>
       <c r="AC4" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
@@ -3013,7 +2987,7 @@
         <v>45048</v>
       </c>
       <c r="J5" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K5" s="37">
         <f t="shared" si="0"/>
@@ -3052,7 +3026,7 @@
         <v>45201</v>
       </c>
       <c r="T5" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U5" s="37">
         <f t="shared" si="0"/>
@@ -3071,14 +3045,14 @@
         <v>45262</v>
       </c>
       <c r="Z5" s="46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AA5" s="47">
         <f>COUNTIF(A4:X34,"U")</f>
         <v>30</v>
       </c>
       <c r="AC5" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3111,14 +3085,14 @@
         <v>45019</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I6" s="37">
         <f t="shared" si="0"/>
         <v>45049</v>
       </c>
       <c r="J6" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K6" s="37">
         <f t="shared" si="0"/>
@@ -3177,7 +3151,7 @@
         <v>45263</v>
       </c>
       <c r="Z6" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AA6" s="49">
         <f>30-AA5</f>
@@ -3217,14 +3191,14 @@
         <v>45020</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I7" s="37">
         <f t="shared" si="0"/>
         <v>45050</v>
       </c>
       <c r="J7" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K7" s="37">
         <f t="shared" si="0"/>
@@ -3263,7 +3237,7 @@
         <v>45203</v>
       </c>
       <c r="T7" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U7" s="37">
         <f t="shared" si="0"/>
@@ -3282,7 +3256,7 @@
         <v>45264</v>
       </c>
       <c r="AC7" s="45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
@@ -3315,14 +3289,14 @@
         <v>45021</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I8" s="37">
         <f t="shared" si="0"/>
         <v>45051</v>
       </c>
       <c r="J8" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K8" s="37">
         <f t="shared" si="0"/>
@@ -3361,7 +3335,7 @@
         <v>45204</v>
       </c>
       <c r="T8" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U8" s="37">
         <f t="shared" si="0"/>
@@ -3380,7 +3354,7 @@
         <v>45265</v>
       </c>
       <c r="AC8" s="53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
@@ -3413,7 +3387,7 @@
         <v>45022</v>
       </c>
       <c r="H9" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I9" s="37">
         <f t="shared" si="0"/>
@@ -3460,7 +3434,7 @@
         <v>45205</v>
       </c>
       <c r="T9" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U9" s="37">
         <f t="shared" si="0"/>
@@ -3525,7 +3499,7 @@
         <v>45084</v>
       </c>
       <c r="L10" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M10" s="37">
         <f t="shared" si="0"/>
@@ -3540,7 +3514,7 @@
         <v>45145</v>
       </c>
       <c r="P10" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q10" s="37">
         <f t="shared" si="0"/>
@@ -3637,7 +3611,7 @@
         <v>45146</v>
       </c>
       <c r="P11" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q11" s="37">
         <f t="shared" si="0"/>
@@ -3718,7 +3692,7 @@
         <v>45086</v>
       </c>
       <c r="L12" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M12" s="37">
         <f t="shared" si="0"/>
@@ -3733,7 +3707,7 @@
         <v>45147</v>
       </c>
       <c r="P12" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q12" s="37">
         <f t="shared" si="0"/>
@@ -3830,7 +3804,7 @@
         <v>45148</v>
       </c>
       <c r="P13" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q13" s="37">
         <f t="shared" si="0"/>
@@ -3927,7 +3901,7 @@
         <v>45149</v>
       </c>
       <c r="P14" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="37">
         <f t="shared" si="0"/>
@@ -4220,14 +4194,14 @@
         <v>45152</v>
       </c>
       <c r="P17" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q17" s="37">
         <f t="shared" si="0"/>
         <v>45183</v>
       </c>
       <c r="R17" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S17" s="37">
         <f t="shared" si="0"/>
@@ -4316,14 +4290,14 @@
         <v>45153</v>
       </c>
       <c r="P18" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q18" s="37">
         <f t="shared" si="0"/>
         <v>45184</v>
       </c>
       <c r="R18" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S18" s="37">
         <f t="shared" si="0"/>
@@ -4412,7 +4386,7 @@
         <v>45154</v>
       </c>
       <c r="P19" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q19" s="37">
         <f t="shared" si="0"/>
@@ -4509,7 +4483,7 @@
         <v>45155</v>
       </c>
       <c r="P20" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q20" s="37">
         <f t="shared" si="0"/>
@@ -4606,7 +4580,7 @@
         <v>45156</v>
       </c>
       <c r="P21" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q21" s="37">
         <f t="shared" ref="Q21:Q34" si="9">IFERROR(IF(MONTH(Q20+1)=MONTH(Q$4),Q20+1,""),"")</f>
@@ -4679,7 +4653,7 @@
         <v>45065</v>
       </c>
       <c r="J22" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K22" s="37">
         <f t="shared" si="6"/>
@@ -5518,7 +5492,7 @@
         <v>45287</v>
       </c>
       <c r="X30" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
@@ -5615,7 +5589,7 @@
         <v>45288</v>
       </c>
       <c r="X31" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
@@ -5712,7 +5686,7 @@
         <v>45289</v>
       </c>
       <c r="X32" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
@@ -5936,16 +5910,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A4:X34">
-    <cfRule type="expression" dxfId="27" priority="2">
+    <cfRule type="expression" dxfId="46" priority="2">
       <formula>OR(A4="F",B4="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="3">
+    <cfRule type="expression" dxfId="45" priority="3">
       <formula>OR(A4="U",B4="U")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="10">
+    <cfRule type="expression" dxfId="44" priority="10">
       <formula>WEEKDAY(A4,2)&gt;5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="1">
+    <cfRule type="expression" dxfId="43" priority="1">
       <formula>TODAY()=A4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6001,7 +5975,7 @@
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1:AC37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -6014,67 +5988,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="58">
+      <c r="A1" s="66">
         <v>2024</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
       <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="65"/>
+      <c r="C3" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="56" t="s">
+      <c r="D3" s="65"/>
+      <c r="E3" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="56" t="s">
+      <c r="F3" s="65"/>
+      <c r="G3" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="56" t="s">
+      <c r="H3" s="65"/>
+      <c r="I3" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="H3" s="57"/>
-      <c r="I3" s="56" t="s">
+      <c r="J3" s="65"/>
+      <c r="K3" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="J3" s="57"/>
-      <c r="K3" s="56" t="s">
+      <c r="L3" s="65"/>
+      <c r="M3" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="L3" s="57"/>
-      <c r="M3" s="56" t="s">
+      <c r="N3" s="65"/>
+      <c r="O3" s="33" t="s">
         <v>86</v>
-      </c>
-      <c r="N3" s="57"/>
-      <c r="O3" s="33" t="s">
-        <v>87</v>
       </c>
       <c r="P3" s="43"/>
       <c r="Q3" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R3" s="43"/>
       <c r="S3" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T3" s="43"/>
       <c r="U3" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V3" s="43"/>
       <c r="W3" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X3" s="43"/>
       <c r="AC3" s="44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6155,7 +6129,7 @@
         <v>45566</v>
       </c>
       <c r="T4" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U4" s="34">
         <f>DATE($A$1,11,1)</f>
@@ -6174,7 +6148,7 @@
         <v>45627</v>
       </c>
       <c r="AC4" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
@@ -6183,7 +6157,7 @@
         <v>45293</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" s="37">
         <f t="shared" ref="C5:C20" si="0">IFERROR(IF(MONTH(C4+1)=MONTH(C$4),C4+1,""),"")</f>
@@ -6214,7 +6188,7 @@
         <v>45414</v>
       </c>
       <c r="J5" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K5" s="37">
         <f t="shared" si="3"/>
@@ -6253,7 +6227,7 @@
         <v>45567</v>
       </c>
       <c r="T5" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U5" s="37">
         <f t="shared" si="7"/>
@@ -6272,14 +6246,14 @@
         <v>45628</v>
       </c>
       <c r="Z5" s="46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AA5" s="47">
         <f>COUNTIF(A4:X34,"U")</f>
         <v>30</v>
       </c>
       <c r="AC5" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6288,7 +6262,7 @@
         <v>45294</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="37">
         <f t="shared" si="0"/>
@@ -6319,7 +6293,7 @@
         <v>45415</v>
       </c>
       <c r="J6" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K6" s="37">
         <f t="shared" si="2"/>
@@ -6378,7 +6352,7 @@
         <v>45629</v>
       </c>
       <c r="Z6" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AA6" s="49">
         <f>30-AA5</f>
@@ -6394,7 +6368,7 @@
         <v>45295</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" s="37">
         <f t="shared" si="0"/>
@@ -6465,7 +6439,7 @@
         <v>45569</v>
       </c>
       <c r="T7" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U7" s="37">
         <f t="shared" si="7"/>
@@ -6484,7 +6458,7 @@
         <v>45630</v>
       </c>
       <c r="AC7" s="45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
@@ -6493,7 +6467,7 @@
         <v>45296</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" s="37">
         <f t="shared" si="0"/>
@@ -6548,7 +6522,7 @@
         <v>45509</v>
       </c>
       <c r="P8" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q8" s="37">
         <f t="shared" si="6"/>
@@ -6583,7 +6557,7 @@
         <v>45631</v>
       </c>
       <c r="AC8" s="53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
@@ -6648,7 +6622,7 @@
         <v>45510</v>
       </c>
       <c r="P9" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q9" s="37">
         <f t="shared" si="6"/>
@@ -6745,7 +6719,7 @@
         <v>45511</v>
       </c>
       <c r="P10" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q10" s="37">
         <f t="shared" si="5"/>
@@ -6842,7 +6816,7 @@
         <v>45512</v>
       </c>
       <c r="P11" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q11" s="37">
         <f t="shared" si="5"/>
@@ -6939,7 +6913,7 @@
         <v>45513</v>
       </c>
       <c r="P12" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q12" s="37">
         <f t="shared" si="5"/>
@@ -7232,7 +7206,7 @@
         <v>45516</v>
       </c>
       <c r="P15" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q15" s="37">
         <f t="shared" si="5"/>
@@ -7329,7 +7303,7 @@
         <v>45517</v>
       </c>
       <c r="P16" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="37">
         <f t="shared" si="5"/>
@@ -7426,7 +7400,7 @@
         <v>45518</v>
       </c>
       <c r="P17" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q17" s="37">
         <f t="shared" si="5"/>
@@ -7523,7 +7497,7 @@
         <v>45519</v>
       </c>
       <c r="P18" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q18" s="37">
         <f t="shared" si="5"/>
@@ -7620,7 +7594,7 @@
         <v>45520</v>
       </c>
       <c r="P19" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q19" s="37">
         <f t="shared" si="5"/>
@@ -7766,19 +7740,19 @@
         <f t="shared" ref="C21:C34" si="12">IFERROR(IF(MONTH(C20+1)=MONTH(C$4),C20+1,""),"")</f>
         <v>45340</v>
       </c>
-      <c r="D21" s="61" cm="1">
+      <c r="D21" s="57" cm="1">
         <f t="array" ref="D21">IF(SUM(COUNTIF(C21,Feiertage!$B$2:$B$13)),"F",C21)</f>
         <v>45340</v>
       </c>
-      <c r="E21" s="62">
+      <c r="E21" s="58">
         <f t="shared" ref="E21:E34" si="13">IFERROR(IF(MONTH(E20+1)=MONTH(E$4),E20+1,""),"")</f>
         <v>45369</v>
       </c>
-      <c r="F21" s="63" cm="1">
+      <c r="F21" s="59" cm="1">
         <f t="array" ref="F21">IF(SUM(COUNTIF(E21,Feiertage!$B$2:$B$13)),"F",E21)</f>
         <v>45369</v>
       </c>
-      <c r="G21" s="60">
+      <c r="G21" s="56">
         <f t="shared" ref="G21:G34" si="14">IFERROR(IF(MONTH(G20+1)=MONTH(G$4),G20+1,""),"")</f>
         <v>45400</v>
       </c>
@@ -7864,19 +7838,19 @@
         <f t="shared" si="12"/>
         <v>45341</v>
       </c>
-      <c r="D22" s="61" cm="1">
+      <c r="D22" s="57" cm="1">
         <f t="array" ref="D22">IF(SUM(COUNTIF(C22,Feiertage!$B$2:$B$13)),"F",C22)</f>
         <v>45341</v>
       </c>
-      <c r="E22" s="64">
+      <c r="E22" s="60">
         <f t="shared" si="13"/>
         <v>45370</v>
       </c>
-      <c r="F22" s="65" cm="1">
+      <c r="F22" s="61" cm="1">
         <f t="array" ref="F22">IF(SUM(COUNTIF(E22,Feiertage!$B$2:$B$13)),"F",E22)</f>
         <v>45370</v>
       </c>
-      <c r="G22" s="60">
+      <c r="G22" s="56">
         <f t="shared" si="14"/>
         <v>45401</v>
       </c>
@@ -7962,19 +7936,19 @@
         <f t="shared" si="12"/>
         <v>45342</v>
       </c>
-      <c r="D23" s="61" cm="1">
+      <c r="D23" s="57" cm="1">
         <f t="array" ref="D23">IF(SUM(COUNTIF(C23,Feiertage!$B$2:$B$13)),"F",C23)</f>
         <v>45342</v>
       </c>
-      <c r="E23" s="64">
+      <c r="E23" s="60">
         <f t="shared" si="13"/>
         <v>45371</v>
       </c>
-      <c r="F23" s="65" cm="1">
+      <c r="F23" s="61" cm="1">
         <f t="array" ref="F23">IF(SUM(COUNTIF(E23,Feiertage!$B$2:$B$13)),"F",E23)</f>
         <v>45371</v>
       </c>
-      <c r="G23" s="60">
+      <c r="G23" s="56">
         <f t="shared" si="14"/>
         <v>45402</v>
       </c>
@@ -8060,19 +8034,19 @@
         <f t="shared" si="12"/>
         <v>45343</v>
       </c>
-      <c r="D24" s="61" cm="1">
+      <c r="D24" s="57" cm="1">
         <f t="array" ref="D24">IF(SUM(COUNTIF(C24,Feiertage!$B$2:$B$13)),"F",C24)</f>
         <v>45343</v>
       </c>
-      <c r="E24" s="64">
+      <c r="E24" s="60">
         <f t="shared" si="13"/>
         <v>45372</v>
       </c>
-      <c r="F24" s="65" cm="1">
+      <c r="F24" s="61" cm="1">
         <f t="array" ref="F24">IF(SUM(COUNTIF(E24,Feiertage!$B$2:$B$13)),"F",E24)</f>
         <v>45372</v>
       </c>
-      <c r="G24" s="60">
+      <c r="G24" s="56">
         <f t="shared" si="14"/>
         <v>45403</v>
       </c>
@@ -8158,19 +8132,19 @@
         <f t="shared" si="12"/>
         <v>45344</v>
       </c>
-      <c r="D25" s="61" cm="1">
+      <c r="D25" s="57" cm="1">
         <f t="array" ref="D25">IF(SUM(COUNTIF(C25,Feiertage!$B$2:$B$13)),"F",C25)</f>
         <v>45344</v>
       </c>
-      <c r="E25" s="66">
+      <c r="E25" s="62">
         <f t="shared" si="13"/>
         <v>45373</v>
       </c>
-      <c r="F25" s="67" cm="1">
+      <c r="F25" s="63" cm="1">
         <f t="array" ref="F25">IF(SUM(COUNTIF(E25,Feiertage!$B$2:$B$13)),"F",E25)</f>
         <v>45373</v>
       </c>
-      <c r="G25" s="60">
+      <c r="G25" s="56">
         <f t="shared" si="14"/>
         <v>45404</v>
       </c>
@@ -8304,19 +8278,19 @@
         <f t="shared" si="18"/>
         <v>45527</v>
       </c>
-      <c r="P26" s="61" cm="1">
+      <c r="P26" s="57" cm="1">
         <f t="array" ref="P26">IF(SUM(COUNTIF(O26,Feiertage!$B$2:$B$13)),"F",O26)</f>
         <v>45527</v>
       </c>
-      <c r="Q26" s="62">
+      <c r="Q26" s="58">
         <f t="shared" si="19"/>
         <v>45558</v>
       </c>
-      <c r="R26" s="63" cm="1">
+      <c r="R26" s="59" cm="1">
         <f t="array" ref="R26">IF(SUM(COUNTIF(Q26,Feiertage!$B$2:$B$13)),"F",Q26)</f>
         <v>45558</v>
       </c>
-      <c r="S26" s="60">
+      <c r="S26" s="56">
         <f t="shared" si="20"/>
         <v>45588</v>
       </c>
@@ -8337,7 +8311,7 @@
         <v>45649</v>
       </c>
       <c r="X26" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:24" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -8377,19 +8351,19 @@
         <f t="shared" si="15"/>
         <v>45436</v>
       </c>
-      <c r="J27" s="61" cm="1">
+      <c r="J27" s="57" cm="1">
         <f t="array" ref="J27">IF(SUM(COUNTIF(I27,Feiertage!$B$2:$B$13)),"F",I27)</f>
         <v>45436</v>
       </c>
-      <c r="K27" s="62">
+      <c r="K27" s="58">
         <f t="shared" si="16"/>
         <v>45467</v>
       </c>
-      <c r="L27" s="63" cm="1">
+      <c r="L27" s="59" cm="1">
         <f t="array" ref="L27">IF(SUM(COUNTIF(K27,Feiertage!$B$2:$B$13)),"F",K27)</f>
         <v>45467</v>
       </c>
-      <c r="M27" s="60">
+      <c r="M27" s="56">
         <f t="shared" si="17"/>
         <v>45497</v>
       </c>
@@ -8401,19 +8375,19 @@
         <f t="shared" si="18"/>
         <v>45528</v>
       </c>
-      <c r="P27" s="61" cm="1">
+      <c r="P27" s="57" cm="1">
         <f t="array" ref="P27">IF(SUM(COUNTIF(O27,Feiertage!$B$2:$B$13)),"F",O27)</f>
         <v>45528</v>
       </c>
-      <c r="Q27" s="64">
+      <c r="Q27" s="60">
         <f t="shared" si="19"/>
         <v>45559</v>
       </c>
-      <c r="R27" s="65" cm="1">
+      <c r="R27" s="61" cm="1">
         <f t="array" ref="R27">IF(SUM(COUNTIF(Q27,Feiertage!$B$2:$B$13)),"F",Q27)</f>
         <v>45559</v>
       </c>
-      <c r="S27" s="60">
+      <c r="S27" s="56">
         <f t="shared" si="20"/>
         <v>45589</v>
       </c>
@@ -8434,7 +8408,7 @@
         <v>45650</v>
       </c>
       <c r="X27" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
@@ -8459,7 +8433,7 @@
         <v>45376</v>
       </c>
       <c r="F28" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G28" s="37">
         <f t="shared" si="14"/>
@@ -8473,19 +8447,19 @@
         <f t="shared" si="15"/>
         <v>45437</v>
       </c>
-      <c r="J28" s="61" cm="1">
+      <c r="J28" s="57" cm="1">
         <f t="array" ref="J28">IF(SUM(COUNTIF(I28,Feiertage!$B$2:$B$13)),"F",I28)</f>
         <v>45437</v>
       </c>
-      <c r="K28" s="64">
+      <c r="K28" s="60">
         <f t="shared" si="16"/>
         <v>45468</v>
       </c>
-      <c r="L28" s="65" cm="1">
+      <c r="L28" s="61" cm="1">
         <f t="array" ref="L28">IF(SUM(COUNTIF(K28,Feiertage!$B$2:$B$13)),"F",K28)</f>
         <v>45468</v>
       </c>
-      <c r="M28" s="60">
+      <c r="M28" s="56">
         <f t="shared" si="17"/>
         <v>45498</v>
       </c>
@@ -8497,19 +8471,19 @@
         <f t="shared" si="18"/>
         <v>45529</v>
       </c>
-      <c r="P28" s="61" cm="1">
+      <c r="P28" s="57" cm="1">
         <f t="array" ref="P28">IF(SUM(COUNTIF(O28,Feiertage!$B$2:$B$13)),"F",O28)</f>
         <v>45529</v>
       </c>
-      <c r="Q28" s="64">
+      <c r="Q28" s="60">
         <f t="shared" si="19"/>
         <v>45560</v>
       </c>
-      <c r="R28" s="65" cm="1">
+      <c r="R28" s="61" cm="1">
         <f t="array" ref="R28">IF(SUM(COUNTIF(Q28,Feiertage!$B$2:$B$13)),"F",Q28)</f>
         <v>45560</v>
       </c>
-      <c r="S28" s="60">
+      <c r="S28" s="56">
         <f t="shared" si="20"/>
         <v>45590</v>
       </c>
@@ -8556,7 +8530,7 @@
         <v>45377</v>
       </c>
       <c r="F29" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G29" s="37">
         <f t="shared" si="14"/>
@@ -8570,19 +8544,19 @@
         <f t="shared" si="15"/>
         <v>45438</v>
       </c>
-      <c r="J29" s="61" cm="1">
+      <c r="J29" s="57" cm="1">
         <f t="array" ref="J29">IF(SUM(COUNTIF(I29,Feiertage!$B$2:$B$13)),"F",I29)</f>
         <v>45438</v>
       </c>
-      <c r="K29" s="64">
+      <c r="K29" s="60">
         <f t="shared" si="16"/>
         <v>45469</v>
       </c>
-      <c r="L29" s="65" cm="1">
+      <c r="L29" s="61" cm="1">
         <f t="array" ref="L29">IF(SUM(COUNTIF(K29,Feiertage!$B$2:$B$13)),"F",K29)</f>
         <v>45469</v>
       </c>
-      <c r="M29" s="60">
+      <c r="M29" s="56">
         <f t="shared" si="17"/>
         <v>45499</v>
       </c>
@@ -8594,19 +8568,19 @@
         <f t="shared" si="18"/>
         <v>45530</v>
       </c>
-      <c r="P29" s="61" cm="1">
+      <c r="P29" s="57" cm="1">
         <f t="array" ref="P29">IF(SUM(COUNTIF(O29,Feiertage!$B$2:$B$13)),"F",O29)</f>
         <v>45530</v>
       </c>
-      <c r="Q29" s="64">
+      <c r="Q29" s="60">
         <f t="shared" si="19"/>
         <v>45561</v>
       </c>
-      <c r="R29" s="65" cm="1">
+      <c r="R29" s="61" cm="1">
         <f t="array" ref="R29">IF(SUM(COUNTIF(Q29,Feiertage!$B$2:$B$13)),"F",Q29)</f>
         <v>45561</v>
       </c>
-      <c r="S29" s="60">
+      <c r="S29" s="56">
         <f t="shared" si="20"/>
         <v>45591</v>
       </c>
@@ -8653,7 +8627,7 @@
         <v>45378</v>
       </c>
       <c r="F30" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G30" s="37">
         <f t="shared" si="14"/>
@@ -8667,19 +8641,19 @@
         <f t="shared" si="15"/>
         <v>45439</v>
       </c>
-      <c r="J30" s="61" cm="1">
+      <c r="J30" s="57" cm="1">
         <f t="array" ref="J30">IF(SUM(COUNTIF(I30,Feiertage!$B$2:$B$13)),"F",I30)</f>
         <v>45439</v>
       </c>
-      <c r="K30" s="64">
+      <c r="K30" s="60">
         <f t="shared" si="16"/>
         <v>45470</v>
       </c>
-      <c r="L30" s="65" cm="1">
+      <c r="L30" s="61" cm="1">
         <f t="array" ref="L30">IF(SUM(COUNTIF(K30,Feiertage!$B$2:$B$13)),"F",K30)</f>
         <v>45470</v>
       </c>
-      <c r="M30" s="60">
+      <c r="M30" s="56">
         <f t="shared" si="17"/>
         <v>45500</v>
       </c>
@@ -8691,19 +8665,19 @@
         <f t="shared" si="18"/>
         <v>45531</v>
       </c>
-      <c r="P30" s="61" cm="1">
+      <c r="P30" s="57" cm="1">
         <f t="array" ref="P30">IF(SUM(COUNTIF(O30,Feiertage!$B$2:$B$13)),"F",O30)</f>
         <v>45531</v>
       </c>
-      <c r="Q30" s="64">
+      <c r="Q30" s="60">
         <f t="shared" si="19"/>
         <v>45562</v>
       </c>
-      <c r="R30" s="65" cm="1">
+      <c r="R30" s="61" cm="1">
         <f t="array" ref="R30">IF(SUM(COUNTIF(Q30,Feiertage!$B$2:$B$13)),"F",Q30)</f>
         <v>45562</v>
       </c>
-      <c r="S30" s="60">
+      <c r="S30" s="56">
         <f t="shared" si="20"/>
         <v>45592</v>
       </c>
@@ -8724,7 +8698,7 @@
         <v>45653</v>
       </c>
       <c r="X30" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8749,7 +8723,7 @@
         <v>45379</v>
       </c>
       <c r="F31" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G31" s="37">
         <f t="shared" si="14"/>
@@ -8763,19 +8737,19 @@
         <f t="shared" si="15"/>
         <v>45440</v>
       </c>
-      <c r="J31" s="61" cm="1">
+      <c r="J31" s="57" cm="1">
         <f t="array" ref="J31">IF(SUM(COUNTIF(I31,Feiertage!$B$2:$B$13)),"F",I31)</f>
         <v>45440</v>
       </c>
-      <c r="K31" s="64">
+      <c r="K31" s="60">
         <f t="shared" si="16"/>
         <v>45471</v>
       </c>
-      <c r="L31" s="65" cm="1">
+      <c r="L31" s="61" cm="1">
         <f t="array" ref="L31">IF(SUM(COUNTIF(K31,Feiertage!$B$2:$B$13)),"F",K31)</f>
         <v>45471</v>
       </c>
-      <c r="M31" s="60">
+      <c r="M31" s="56">
         <f t="shared" si="17"/>
         <v>45501</v>
       </c>
@@ -8787,19 +8761,19 @@
         <f t="shared" si="18"/>
         <v>45532</v>
       </c>
-      <c r="P31" s="61" cm="1">
+      <c r="P31" s="57" cm="1">
         <f t="array" ref="P31">IF(SUM(COUNTIF(O31,Feiertage!$B$2:$B$13)),"F",O31)</f>
         <v>45532</v>
       </c>
-      <c r="Q31" s="66">
+      <c r="Q31" s="62">
         <f t="shared" si="19"/>
         <v>45563</v>
       </c>
-      <c r="R31" s="67" cm="1">
+      <c r="R31" s="63" cm="1">
         <f t="array" ref="R31">IF(SUM(COUNTIF(Q31,Feiertage!$B$2:$B$13)),"F",Q31)</f>
         <v>45563</v>
       </c>
-      <c r="S31" s="60">
+      <c r="S31" s="56">
         <f t="shared" si="20"/>
         <v>45593</v>
       </c>
@@ -8854,25 +8828,25 @@
         <v>45411</v>
       </c>
       <c r="H32" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I32" s="37">
         <f t="shared" si="15"/>
         <v>45441</v>
       </c>
-      <c r="J32" s="61" cm="1">
+      <c r="J32" s="57" cm="1">
         <f t="array" ref="J32">IF(SUM(COUNTIF(I32,Feiertage!$B$2:$B$13)),"F",I32)</f>
         <v>45441</v>
       </c>
-      <c r="K32" s="66">
+      <c r="K32" s="62">
         <f t="shared" si="16"/>
         <v>45472</v>
       </c>
-      <c r="L32" s="67" cm="1">
+      <c r="L32" s="63" cm="1">
         <f t="array" ref="L32">IF(SUM(COUNTIF(K32,Feiertage!$B$2:$B$13)),"F",K32)</f>
         <v>45472</v>
       </c>
-      <c r="M32" s="60">
+      <c r="M32" s="56">
         <f t="shared" si="17"/>
         <v>45502</v>
       </c>
@@ -8951,7 +8925,7 @@
         <v>45412</v>
       </c>
       <c r="H33" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I33" s="37">
         <f t="shared" si="15"/>
@@ -9014,7 +8988,7 @@
         <v>45656</v>
       </c>
       <c r="X33" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9111,7 +9085,7 @@
         <v>45657</v>
       </c>
       <c r="X34" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
@@ -9138,16 +9112,16 @@
     <mergeCell ref="I3:J3"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:X34">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="39" priority="1">
       <formula>TODAY()=A4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="38" priority="2">
       <formula>OR(A4="F",B4="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="37" priority="3">
       <formula>OR(A4="U",B4="U")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="7">
+    <cfRule type="expression" dxfId="36" priority="7">
       <formula>WEEKDAY(A4,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9200,8 +9174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83829C3-FDA6-4397-84AA-B678000B47C9}">
   <dimension ref="A1:AC37"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z27" sqref="Z27"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9213,67 +9187,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="58">
+      <c r="A1" s="66">
         <v>2025</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
       <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="65"/>
+      <c r="C3" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="56" t="s">
+      <c r="D3" s="65"/>
+      <c r="E3" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="56" t="s">
+      <c r="F3" s="65"/>
+      <c r="G3" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="56" t="s">
+      <c r="H3" s="65"/>
+      <c r="I3" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="H3" s="57"/>
-      <c r="I3" s="56" t="s">
+      <c r="J3" s="65"/>
+      <c r="K3" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="J3" s="57"/>
-      <c r="K3" s="56" t="s">
+      <c r="L3" s="65"/>
+      <c r="M3" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="L3" s="57"/>
-      <c r="M3" s="56" t="s">
+      <c r="N3" s="65"/>
+      <c r="O3" s="54" t="s">
         <v>86</v>
-      </c>
-      <c r="N3" s="57"/>
-      <c r="O3" s="54" t="s">
-        <v>87</v>
       </c>
       <c r="P3" s="55"/>
       <c r="Q3" s="54" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R3" s="55"/>
       <c r="S3" s="54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T3" s="55"/>
       <c r="U3" s="54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V3" s="55"/>
       <c r="W3" s="54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X3" s="55"/>
       <c r="AC3" s="44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9374,7 +9348,7 @@
         <v>45992</v>
       </c>
       <c r="AC4" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
@@ -9475,14 +9449,14 @@
         <v>45993</v>
       </c>
       <c r="Z5" s="46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AA5" s="47">
         <f>COUNTIF(A4:X34,"U")</f>
         <v>0</v>
       </c>
       <c r="AC5" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9583,7 +9557,7 @@
         <v>45994</v>
       </c>
       <c r="Z6" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AA6" s="49">
         <f>30-AA5</f>
@@ -9691,7 +9665,7 @@
         <v>45995</v>
       </c>
       <c r="AC7" s="45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
@@ -9792,7 +9766,7 @@
         <v>45996</v>
       </c>
       <c r="AC8" s="53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
@@ -12367,16 +12341,16 @@
     <mergeCell ref="I3:J3"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:X34">
-    <cfRule type="expression" dxfId="20" priority="1">
+    <cfRule type="expression" dxfId="32" priority="1">
       <formula>TODAY()=A4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="2">
+    <cfRule type="expression" dxfId="31" priority="2">
       <formula>OR(A4="F",B4="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="3">
+    <cfRule type="expression" dxfId="30" priority="3">
       <formula>OR(A4="U",B4="U")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="7">
+    <cfRule type="expression" dxfId="29" priority="7">
       <formula>WEEKDAY(A4,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Studiumplan.xlsx
+++ b/Studiumplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00_Programme_RB\DHBW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54434944-122F-437B-94A3-200236A36409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF29BE38-2D8F-44A2-82DB-F8E8A4D84EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="2760" windowWidth="22980" windowHeight="15555" tabRatio="579" activeTab="3" xr2:uid="{8D6EA8FC-9557-4CD3-9C64-AEC02D041DCB}"/>
+    <workbookView xWindow="2775" yWindow="2430" windowWidth="21600" windowHeight="14580" tabRatio="579" activeTab="2" xr2:uid="{8D6EA8FC-9557-4CD3-9C64-AEC02D041DCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Modulliste" sheetId="3" r:id="rId1"/>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="105">
   <si>
     <t>Modulname</t>
   </si>
@@ -420,6 +420,9 @@
   <si>
     <t>Prof. Dr. Dietmar Schorr</t>
   </si>
+  <si>
+    <t>Porsche</t>
+  </si>
 </sst>
 </file>
 
@@ -429,7 +432,7 @@
     <numFmt numFmtId="164" formatCode="d/m;@"/>
     <numFmt numFmtId="165" formatCode="ddd/"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,8 +512,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -586,6 +595,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,7 +786,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -952,479 +967,19 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="9" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="49">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1574,6 +1129,473 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1628,19 +1650,19 @@
     <sortCondition ref="G1:G20"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="12" xr3:uid="{2C8AA6B6-31D0-4DF0-9DA9-0D8B08088E24}" name="Modulname" totalsRowLabel="Abschlussnote" dataDxfId="25" totalsRowDxfId="12"/>
-    <tableColumn id="1" xr3:uid="{FF50EF13-B9B2-42C9-A37F-07237C42C851}" name="Bereich" dataDxfId="24" totalsRowDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{DE1BE470-5B26-4F88-8799-243B2BE03172}" name="Semester" dataDxfId="23" totalsRowDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{E64020FC-6A5D-4A49-BCE1-C2569FF59159}" name="Schlüssel" dataDxfId="22" totalsRowDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{8470E22C-4CE1-4553-8671-9BF5989AAE65}" name="Prüfungsart" dataDxfId="21" totalsRowDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{CF2D34DC-4E44-45F0-B25E-0FFB229BA18E}" name="LP" dataDxfId="20" totalsRowDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{80506F77-5504-411A-B364-0B22CC53A582}" name="Termin 1" dataDxfId="19" totalsRowDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{C9413F7D-7FA1-417F-B220-3B19C8279173}" name="Ort 1" dataDxfId="18" totalsRowDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{A89D3283-E2AE-4360-9A93-F5F27682296D}" name="Termin 2" dataDxfId="17" totalsRowDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{DDE1A5EF-F94C-417A-95CA-A29D4C689B48}" name="Ort 2" dataDxfId="16" totalsRowDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{A92B3274-FA6A-4C49-87BB-1CF1BAC29EAB}" name="Prüfungstermin" dataDxfId="15" totalsRowDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{F6C0E347-9701-496F-8B92-1BFEDFF8D817}" name="MODULVERANTWORTUNG" dataDxfId="14" totalsRowDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{A9A48352-3929-4E88-AACC-E1A6F11D63E3}" name="Note" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="0">
+    <tableColumn id="12" xr3:uid="{2C8AA6B6-31D0-4DF0-9DA9-0D8B08088E24}" name="Modulname" totalsRowLabel="Abschlussnote" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="1" xr3:uid="{FF50EF13-B9B2-42C9-A37F-07237C42C851}" name="Bereich" dataDxfId="44" totalsRowDxfId="43"/>
+    <tableColumn id="10" xr3:uid="{DE1BE470-5B26-4F88-8799-243B2BE03172}" name="Semester" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{E64020FC-6A5D-4A49-BCE1-C2569FF59159}" name="Schlüssel" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{8470E22C-4CE1-4553-8671-9BF5989AAE65}" name="Prüfungsart" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{CF2D34DC-4E44-45F0-B25E-0FFB229BA18E}" name="LP" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{80506F77-5504-411A-B364-0B22CC53A582}" name="Termin 1" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{C9413F7D-7FA1-417F-B220-3B19C8279173}" name="Ort 1" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{A89D3283-E2AE-4360-9A93-F5F27682296D}" name="Termin 2" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="9" xr3:uid="{DDE1A5EF-F94C-417A-95CA-A29D4C689B48}" name="Ort 2" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{A92B3274-FA6A-4C49-87BB-1CF1BAC29EAB}" name="Prüfungstermin" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="11" xr3:uid="{F6C0E347-9701-496F-8B92-1BFEDFF8D817}" name="MODULVERANTWORTUNG" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="14" xr3:uid="{A9A48352-3929-4E88-AACC-E1A6F11D63E3}" name="Note" totalsRowFunction="custom" dataDxfId="22" totalsRowDxfId="21">
       <totalsRowFormula array="1">SUMPRODUCT(IF(Modulliste[Note]&lt;&gt;"", Modulliste[Note]), Modulliste[LP]) / SUM(IF(Modulliste[Note]&lt;&gt;"", Modulliste[LP]))</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -5910,16 +5932,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A4:X34">
-    <cfRule type="expression" dxfId="46" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>OR(A4="F",B4="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="3">
+    <cfRule type="expression" dxfId="19" priority="3">
       <formula>OR(A4="U",B4="U")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="10">
+    <cfRule type="expression" dxfId="18" priority="10">
       <formula>WEEKDAY(A4,2)&gt;5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>TODAY()=A4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5975,8 +5997,8 @@
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1:AC37"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6585,11 +6607,11 @@
         <f t="array" ref="F9">IF(SUM(COUNTIF(E9,Feiertage!$B$2:$B$13)),"F",E9)</f>
         <v>45357</v>
       </c>
-      <c r="G9" s="37">
+      <c r="G9" s="69">
         <f t="shared" si="2"/>
         <v>45388</v>
       </c>
-      <c r="H9" s="38" cm="1">
+      <c r="H9" s="70" cm="1">
         <f t="array" ref="H9">IF(SUM(COUNTIF(G9,Feiertage!$B$2:$B$13)),"F",G9)</f>
         <v>45388</v>
       </c>
@@ -6655,6 +6677,9 @@
       <c r="X9" s="38" cm="1">
         <f t="array" ref="X9">IF(SUM(COUNTIF(W9,Feiertage!$B$2:$B$13)),"F",W9)</f>
         <v>45632</v>
+      </c>
+      <c r="AC9" s="68" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
@@ -9112,16 +9137,16 @@
     <mergeCell ref="I3:J3"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:X34">
-    <cfRule type="expression" dxfId="39" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>TODAY()=A4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>OR(A4="F",B4="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="3">
+    <cfRule type="expression" dxfId="11" priority="3">
       <formula>OR(A4="U",B4="U")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="7">
+    <cfRule type="expression" dxfId="10" priority="7">
       <formula>WEEKDAY(A4,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9174,7 +9199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83829C3-FDA6-4397-84AA-B678000B47C9}">
   <dimension ref="A1:AC37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
@@ -12341,16 +12366,16 @@
     <mergeCell ref="I3:J3"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:X34">
-    <cfRule type="expression" dxfId="32" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>TODAY()=A4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>OR(A4="F",B4="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>OR(A4="U",B4="U")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="7">
+    <cfRule type="expression" dxfId="3" priority="7">
       <formula>WEEKDAY(A4,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Studiumplan.xlsx
+++ b/Studiumplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00_Programme_RB\DHBW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF29BE38-2D8F-44A2-82DB-F8E8A4D84EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73F6458-6C59-4647-9C7B-13B8658ED797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2775" yWindow="2430" windowWidth="21600" windowHeight="14580" tabRatio="579" activeTab="2" xr2:uid="{8D6EA8FC-9557-4CD3-9C64-AEC02D041DCB}"/>
+    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="17670" tabRatio="579" activeTab="2" xr2:uid="{8D6EA8FC-9557-4CD3-9C64-AEC02D041DCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Modulliste" sheetId="3" r:id="rId1"/>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="107">
   <si>
     <t>Modulname</t>
   </si>
@@ -423,6 +423,12 @@
   <si>
     <t>Porsche</t>
   </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
 </sst>
 </file>
 
@@ -519,7 +525,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -604,8 +610,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -781,12 +793,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -955,6 +1029,10 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="9" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -967,11 +1045,40 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="9" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="15" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1991,7 +2098,7 @@
   <sheetViews>
     <sheetView zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
       <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I18" sqref="I18"/>
+      <selection pane="topRight" activeCell="I10" sqref="I10:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2795,7 +2902,7 @@
   <dimension ref="A1:AC37"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X17" sqref="X17"/>
+      <selection activeCell="AC9" sqref="AC9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2807,45 +2914,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="66">
+      <c r="A1" s="68">
         <v>2023</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
       <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="64" t="s">
+      <c r="B3" s="67"/>
+      <c r="C3" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="64" t="s">
+      <c r="D3" s="67"/>
+      <c r="E3" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="64" t="s">
+      <c r="F3" s="67"/>
+      <c r="G3" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="65"/>
-      <c r="I3" s="64" t="s">
+      <c r="H3" s="67"/>
+      <c r="I3" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="J3" s="65"/>
-      <c r="K3" s="64" t="s">
+      <c r="J3" s="67"/>
+      <c r="K3" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="L3" s="65"/>
-      <c r="M3" s="64" t="s">
+      <c r="L3" s="67"/>
+      <c r="M3" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="N3" s="65"/>
+      <c r="N3" s="67"/>
       <c r="O3" s="33" t="s">
         <v>86</v>
       </c>
@@ -3008,8 +3115,9 @@
         <f t="shared" si="0"/>
         <v>45048</v>
       </c>
-      <c r="J5" s="38" t="s">
-        <v>93</v>
+      <c r="J5" s="38" cm="1">
+        <f t="array" ref="J5">IF(SUM(COUNTIF(I5,Feiertage!$A$2:$A$13)),"F",I5)</f>
+        <v>45048</v>
       </c>
       <c r="K5" s="37">
         <f t="shared" si="0"/>
@@ -3071,7 +3179,7 @@
       </c>
       <c r="AA5" s="47">
         <f>COUNTIF(A4:X34,"U")</f>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AC5" s="30" t="s">
         <v>95</v>
@@ -3113,8 +3221,9 @@
         <f t="shared" si="0"/>
         <v>45049</v>
       </c>
-      <c r="J6" s="38" t="s">
-        <v>93</v>
+      <c r="J6" s="38" cm="1">
+        <f t="array" ref="J6">IF(SUM(COUNTIF(I6,Feiertage!$A$2:$A$13)),"F",I6)</f>
+        <v>45049</v>
       </c>
       <c r="K6" s="37">
         <f t="shared" si="0"/>
@@ -3177,13 +3286,13 @@
       </c>
       <c r="AA6" s="49">
         <f>30-AA5</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC6" s="31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="37">
         <f t="shared" ref="A7:A31" si="1">IFERROR(IF(MONTH(A6+1)=MONTH(A$4),A6+1,""),"")</f>
         <v>44930</v>
@@ -3219,8 +3328,9 @@
         <f t="shared" si="0"/>
         <v>45050</v>
       </c>
-      <c r="J7" s="38" t="s">
-        <v>93</v>
+      <c r="J7" s="38" cm="1">
+        <f t="array" ref="J7">IF(SUM(COUNTIF(I7,Feiertage!$A$2:$A$13)),"F",I7)</f>
+        <v>45050</v>
       </c>
       <c r="K7" s="37">
         <f t="shared" si="0"/>
@@ -3317,8 +3427,9 @@
         <f t="shared" si="0"/>
         <v>45051</v>
       </c>
-      <c r="J8" s="38" t="s">
-        <v>93</v>
+      <c r="J8" s="35" cm="1">
+        <f t="array" ref="J8">IF(SUM(COUNTIF(I8,Feiertage!$A$2:$A$13)),"F",I8)</f>
+        <v>45051</v>
       </c>
       <c r="K8" s="37">
         <f t="shared" si="0"/>
@@ -5998,7 +6109,7 @@
   <dimension ref="A1:AC37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="AB20" sqref="AB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6010,45 +6121,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="66">
+      <c r="A1" s="68">
         <v>2024</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
       <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="64" t="s">
+      <c r="B3" s="67"/>
+      <c r="C3" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="64" t="s">
+      <c r="D3" s="67"/>
+      <c r="E3" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="64" t="s">
+      <c r="F3" s="67"/>
+      <c r="G3" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="65"/>
-      <c r="I3" s="64" t="s">
+      <c r="H3" s="67"/>
+      <c r="I3" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="J3" s="65"/>
-      <c r="K3" s="64" t="s">
+      <c r="J3" s="67"/>
+      <c r="K3" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="L3" s="65"/>
-      <c r="M3" s="64" t="s">
+      <c r="L3" s="67"/>
+      <c r="M3" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="N3" s="65"/>
+      <c r="N3" s="67"/>
       <c r="O3" s="33" t="s">
         <v>86</v>
       </c>
@@ -6118,9 +6229,8 @@
         <f>DATE($A$1,6,1)</f>
         <v>45444</v>
       </c>
-      <c r="L4" s="35" cm="1">
-        <f t="array" ref="L4">IF(SUM(COUNTIF(K4,Feiertage!$B$2:$B$13)),"F",K4)</f>
-        <v>45444</v>
+      <c r="L4" s="73" t="s">
+        <v>105</v>
       </c>
       <c r="M4" s="34">
         <f>DATE($A$1,7,1)</f>
@@ -6150,8 +6260,9 @@
         <f>DATE($A$1,10,1)</f>
         <v>45566</v>
       </c>
-      <c r="T4" s="35" t="s">
-        <v>93</v>
+      <c r="T4" s="35" cm="1">
+        <f t="array" ref="T4">IF(SUM(COUNTIF(S4,Feiertage!$B$2:$B$13)),"F",S4)</f>
+        <v>45566</v>
       </c>
       <c r="U4" s="34">
         <f>DATE($A$1,11,1)</f>
@@ -6209,8 +6320,9 @@
         <f t="shared" ref="I5:K5" si="3">IFERROR(IF(MONTH(I4+1)=MONTH(I$4),I4+1,""),"")</f>
         <v>45414</v>
       </c>
-      <c r="J5" s="38" t="s">
-        <v>93</v>
+      <c r="J5" s="38" cm="1">
+        <f t="array" ref="J5">IF(SUM(COUNTIF(I5,Feiertage!$B$2:$B$13)),"F",I5)</f>
+        <v>45414</v>
       </c>
       <c r="K5" s="37">
         <f t="shared" si="3"/>
@@ -6232,9 +6344,8 @@
         <f t="shared" ref="O5:S20" si="5">IFERROR(IF(MONTH(O4+1)=MONTH(O$4),O4+1,""),"")</f>
         <v>45506</v>
       </c>
-      <c r="P5" s="38" cm="1">
-        <f t="array" ref="P5">IF(SUM(COUNTIF(O5,Feiertage!$B$2:$B$13)),"F",O5)</f>
-        <v>45506</v>
+      <c r="P5" s="70" t="s">
+        <v>105</v>
       </c>
       <c r="Q5" s="37">
         <f t="shared" ref="Q5:Q9" si="6">IFERROR(IF(MONTH(Q4+1)=MONTH(Q$4),Q4+1,""),"")</f>
@@ -6248,8 +6359,9 @@
         <f t="shared" ref="S5:U20" si="7">IFERROR(IF(MONTH(S4+1)=MONTH(S$4),S4+1,""),"")</f>
         <v>45567</v>
       </c>
-      <c r="T5" s="38" t="s">
-        <v>93</v>
+      <c r="T5" s="38" cm="1">
+        <f t="array" ref="T5">IF(SUM(COUNTIF(S5,Feiertage!$B$2:$B$13)),"F",S5)</f>
+        <v>45567</v>
       </c>
       <c r="U5" s="37">
         <f t="shared" si="7"/>
@@ -6272,7 +6384,7 @@
       </c>
       <c r="AA5" s="47">
         <f>COUNTIF(A4:X34,"U")</f>
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="AC5" s="30" t="s">
         <v>95</v>
@@ -6314,8 +6426,8 @@
         <f t="shared" si="2"/>
         <v>45415</v>
       </c>
-      <c r="J6" s="38" t="s">
-        <v>93</v>
+      <c r="J6" s="70" t="s">
+        <v>105</v>
       </c>
       <c r="K6" s="37">
         <f t="shared" si="2"/>
@@ -6337,9 +6449,8 @@
         <f t="shared" si="5"/>
         <v>45507</v>
       </c>
-      <c r="P6" s="38" cm="1">
-        <f t="array" ref="P6">IF(SUM(COUNTIF(O6,Feiertage!$B$2:$B$13)),"F",O6)</f>
-        <v>45507</v>
+      <c r="P6" s="70" t="s">
+        <v>105</v>
       </c>
       <c r="Q6" s="37">
         <f t="shared" si="6"/>
@@ -6378,7 +6489,7 @@
       </c>
       <c r="AA6" s="49">
         <f>30-AA5</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC6" s="31" t="s">
         <v>27</v>
@@ -6420,9 +6531,8 @@
         <f t="shared" si="2"/>
         <v>45416</v>
       </c>
-      <c r="J7" s="38" cm="1">
-        <f t="array" ref="J7">IF(SUM(COUNTIF(I7,Feiertage!$B$2:$B$13)),"F",I7)</f>
-        <v>45416</v>
+      <c r="J7" s="70" t="s">
+        <v>105</v>
       </c>
       <c r="K7" s="37">
         <f t="shared" si="2"/>
@@ -6460,8 +6570,9 @@
         <f t="shared" si="7"/>
         <v>45569</v>
       </c>
-      <c r="T7" s="38" t="s">
-        <v>93</v>
+      <c r="T7" s="38" cm="1">
+        <f t="array" ref="T7">IF(SUM(COUNTIF(S7,Feiertage!$B$2:$B$13)),"F",S7)</f>
+        <v>45569</v>
       </c>
       <c r="U7" s="37">
         <f t="shared" si="7"/>
@@ -6511,9 +6622,8 @@
         <f t="shared" si="2"/>
         <v>45387</v>
       </c>
-      <c r="H8" s="38" cm="1">
-        <f t="array" ref="H8">IF(SUM(COUNTIF(G8,Feiertage!$B$2:$B$13)),"F",G8)</f>
-        <v>45387</v>
+      <c r="H8" s="70" t="s">
+        <v>105</v>
       </c>
       <c r="I8" s="37">
         <f t="shared" si="2"/>
@@ -6535,16 +6645,16 @@
         <f t="shared" si="4"/>
         <v>45478</v>
       </c>
-      <c r="N8" s="38" cm="1">
-        <f t="array" ref="N8">IF(SUM(COUNTIF(M8,Feiertage!$B$2:$B$13)),"F",M8)</f>
-        <v>45478</v>
+      <c r="N8" s="70" t="s">
+        <v>105</v>
       </c>
       <c r="O8" s="37">
         <f t="shared" si="5"/>
         <v>45509</v>
       </c>
-      <c r="P8" s="38" t="s">
-        <v>93</v>
+      <c r="P8" s="38" cm="1">
+        <f t="array" ref="P8">IF(SUM(COUNTIF(O8,Feiertage!$B$2:$B$13)),"F",O8)</f>
+        <v>45509</v>
       </c>
       <c r="Q8" s="37">
         <f t="shared" si="6"/>
@@ -6607,13 +6717,12 @@
         <f t="array" ref="F9">IF(SUM(COUNTIF(E9,Feiertage!$B$2:$B$13)),"F",E9)</f>
         <v>45357</v>
       </c>
-      <c r="G9" s="69">
+      <c r="G9" s="65">
         <f t="shared" si="2"/>
         <v>45388</v>
       </c>
-      <c r="H9" s="70" cm="1">
-        <f t="array" ref="H9">IF(SUM(COUNTIF(G9,Feiertage!$B$2:$B$13)),"F",G9)</f>
-        <v>45388</v>
+      <c r="H9" s="70" t="s">
+        <v>105</v>
       </c>
       <c r="I9" s="37">
         <f t="shared" si="2"/>
@@ -6635,16 +6744,16 @@
         <f t="shared" si="4"/>
         <v>45479</v>
       </c>
-      <c r="N9" s="38" cm="1">
-        <f t="array" ref="N9">IF(SUM(COUNTIF(M9,Feiertage!$B$2:$B$13)),"F",M9)</f>
-        <v>45479</v>
+      <c r="N9" s="70" t="s">
+        <v>105</v>
       </c>
       <c r="O9" s="37">
         <f t="shared" si="5"/>
         <v>45510</v>
       </c>
-      <c r="P9" s="38" t="s">
-        <v>93</v>
+      <c r="P9" s="38" cm="1">
+        <f t="array" ref="P9">IF(SUM(COUNTIF(O9,Feiertage!$B$2:$B$13)),"F",O9)</f>
+        <v>45510</v>
       </c>
       <c r="Q9" s="37">
         <f t="shared" si="6"/>
@@ -6678,7 +6787,7 @@
         <f t="array" ref="X9">IF(SUM(COUNTIF(W9,Feiertage!$B$2:$B$13)),"F",W9)</f>
         <v>45632</v>
       </c>
-      <c r="AC9" s="68" t="s">
+      <c r="AC9" s="64" t="s">
         <v>104</v>
       </c>
     </row>
@@ -6727,9 +6836,8 @@
         <f t="shared" si="2"/>
         <v>45450</v>
       </c>
-      <c r="L10" s="38" cm="1">
-        <f t="array" ref="L10">IF(SUM(COUNTIF(K10,Feiertage!$B$2:$B$13)),"F",K10)</f>
-        <v>45450</v>
+      <c r="L10" s="70" t="s">
+        <v>105</v>
       </c>
       <c r="M10" s="37">
         <f t="shared" si="2"/>
@@ -6743,8 +6851,9 @@
         <f t="shared" si="5"/>
         <v>45511</v>
       </c>
-      <c r="P10" s="38" t="s">
-        <v>93</v>
+      <c r="P10" s="38" cm="1">
+        <f t="array" ref="P10">IF(SUM(COUNTIF(O10,Feiertage!$B$2:$B$13)),"F",O10)</f>
+        <v>45511</v>
       </c>
       <c r="Q10" s="37">
         <f t="shared" si="5"/>
@@ -6824,9 +6933,8 @@
         <f t="shared" si="2"/>
         <v>45451</v>
       </c>
-      <c r="L11" s="38" cm="1">
-        <f t="array" ref="L11">IF(SUM(COUNTIF(K11,Feiertage!$B$2:$B$13)),"F",K11)</f>
-        <v>45451</v>
+      <c r="L11" s="70" t="s">
+        <v>105</v>
       </c>
       <c r="M11" s="37">
         <f t="shared" si="2"/>
@@ -6840,8 +6948,9 @@
         <f t="shared" si="5"/>
         <v>45512</v>
       </c>
-      <c r="P11" s="38" t="s">
-        <v>93</v>
+      <c r="P11" s="38" cm="1">
+        <f t="array" ref="P11">IF(SUM(COUNTIF(O11,Feiertage!$B$2:$B$13)),"F",O11)</f>
+        <v>45512</v>
       </c>
       <c r="Q11" s="37">
         <f t="shared" si="5"/>
@@ -6937,8 +7046,8 @@
         <f t="shared" si="5"/>
         <v>45513</v>
       </c>
-      <c r="P12" s="38" t="s">
-        <v>93</v>
+      <c r="P12" s="70" t="s">
+        <v>105</v>
       </c>
       <c r="Q12" s="37">
         <f t="shared" si="5"/>
@@ -7010,9 +7119,8 @@
         <f t="shared" si="2"/>
         <v>45422</v>
       </c>
-      <c r="J13" s="38" cm="1">
-        <f t="array" ref="J13">IF(SUM(COUNTIF(I13,Feiertage!$B$2:$B$13)),"F",I13)</f>
-        <v>45422</v>
+      <c r="J13" s="70" t="s">
+        <v>105</v>
       </c>
       <c r="K13" s="37">
         <f t="shared" si="2"/>
@@ -7034,9 +7142,8 @@
         <f t="shared" si="5"/>
         <v>45514</v>
       </c>
-      <c r="P13" s="38" cm="1">
-        <f t="array" ref="P13">IF(SUM(COUNTIF(O13,Feiertage!$B$2:$B$13)),"F",O13)</f>
-        <v>45514</v>
+      <c r="P13" s="70" t="s">
+        <v>106</v>
       </c>
       <c r="Q13" s="37">
         <f t="shared" si="5"/>
@@ -7100,17 +7207,15 @@
         <f t="shared" si="2"/>
         <v>45393</v>
       </c>
-      <c r="H14" s="38" cm="1">
-        <f t="array" ref="H14">IF(SUM(COUNTIF(G14,Feiertage!$B$2:$B$13)),"F",G14)</f>
-        <v>45393</v>
+      <c r="H14" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="I14" s="37">
         <f t="shared" si="2"/>
         <v>45423</v>
       </c>
-      <c r="J14" s="38" cm="1">
-        <f t="array" ref="J14">IF(SUM(COUNTIF(I14,Feiertage!$B$2:$B$13)),"F",I14)</f>
-        <v>45423</v>
+      <c r="J14" s="70" t="s">
+        <v>105</v>
       </c>
       <c r="K14" s="37">
         <f t="shared" si="2"/>
@@ -7198,9 +7303,8 @@
         <f t="shared" si="2"/>
         <v>45394</v>
       </c>
-      <c r="H15" s="38" cm="1">
-        <f t="array" ref="H15">IF(SUM(COUNTIF(G15,Feiertage!$B$2:$B$13)),"F",G15)</f>
-        <v>45394</v>
+      <c r="H15" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="I15" s="37">
         <f t="shared" si="2"/>
@@ -7230,8 +7334,9 @@
         <f t="shared" si="5"/>
         <v>45516</v>
       </c>
-      <c r="P15" s="38" t="s">
-        <v>93</v>
+      <c r="P15" s="38" cm="1">
+        <f t="array" ref="P15">IF(SUM(COUNTIF(O15,Feiertage!$B$2:$B$13)),"F",O15)</f>
+        <v>45516</v>
       </c>
       <c r="Q15" s="37">
         <f t="shared" si="5"/>
@@ -7327,8 +7432,9 @@
         <f t="shared" si="5"/>
         <v>45517</v>
       </c>
-      <c r="P16" s="38" t="s">
-        <v>93</v>
+      <c r="P16" s="38" cm="1">
+        <f t="array" ref="P16">IF(SUM(COUNTIF(O16,Feiertage!$B$2:$B$13)),"F",O16)</f>
+        <v>45517</v>
       </c>
       <c r="Q16" s="37">
         <f t="shared" si="5"/>
@@ -7408,9 +7514,8 @@
         <f t="shared" si="2"/>
         <v>45457</v>
       </c>
-      <c r="L17" s="38" cm="1">
-        <f t="array" ref="L17">IF(SUM(COUNTIF(K17,Feiertage!$B$2:$B$13)),"F",K17)</f>
-        <v>45457</v>
+      <c r="L17" s="70" t="s">
+        <v>105</v>
       </c>
       <c r="M17" s="37">
         <f t="shared" si="2"/>
@@ -7424,8 +7529,9 @@
         <f t="shared" si="5"/>
         <v>45518</v>
       </c>
-      <c r="P17" s="38" t="s">
-        <v>93</v>
+      <c r="P17" s="38" cm="1">
+        <f t="array" ref="P17">IF(SUM(COUNTIF(O17,Feiertage!$B$2:$B$13)),"F",O17)</f>
+        <v>45518</v>
       </c>
       <c r="Q17" s="37">
         <f t="shared" si="5"/>
@@ -7505,9 +7611,8 @@
         <f t="shared" si="2"/>
         <v>45458</v>
       </c>
-      <c r="L18" s="38" cm="1">
-        <f t="array" ref="L18">IF(SUM(COUNTIF(K18,Feiertage!$B$2:$B$13)),"F",K18)</f>
-        <v>45458</v>
+      <c r="L18" s="70" t="s">
+        <v>105</v>
       </c>
       <c r="M18" s="37">
         <f t="shared" si="2"/>
@@ -7521,8 +7626,9 @@
         <f t="shared" si="5"/>
         <v>45519</v>
       </c>
-      <c r="P18" s="38" t="s">
-        <v>93</v>
+      <c r="P18" s="38" cm="1">
+        <f t="array" ref="P18">IF(SUM(COUNTIF(O18,Feiertage!$B$2:$B$13)),"F",O18)</f>
+        <v>45519</v>
       </c>
       <c r="Q18" s="37">
         <f t="shared" si="5"/>
@@ -7618,8 +7724,8 @@
         <f t="shared" si="5"/>
         <v>45520</v>
       </c>
-      <c r="P19" s="38" t="s">
-        <v>93</v>
+      <c r="P19" s="70" t="s">
+        <v>105</v>
       </c>
       <c r="Q19" s="37">
         <f t="shared" si="5"/>
@@ -7691,9 +7797,8 @@
         <f t="shared" si="2"/>
         <v>45429</v>
       </c>
-      <c r="J20" s="38" cm="1">
-        <f t="array" ref="J20">IF(SUM(COUNTIF(I20,Feiertage!$B$2:$B$13)),"F",I20)</f>
-        <v>45429</v>
+      <c r="J20" s="70" t="s">
+        <v>105</v>
       </c>
       <c r="K20" s="37">
         <f t="shared" si="2"/>
@@ -7715,9 +7820,8 @@
         <f t="shared" si="5"/>
         <v>45521</v>
       </c>
-      <c r="P20" s="38" cm="1">
-        <f t="array" ref="P20">IF(SUM(COUNTIF(O20,Feiertage!$B$2:$B$13)),"F",O20)</f>
-        <v>45521</v>
+      <c r="P20" s="70" t="s">
+        <v>105</v>
       </c>
       <c r="Q20" s="37">
         <f t="shared" si="5"/>
@@ -7781,17 +7885,15 @@
         <f t="shared" ref="G21:G34" si="14">IFERROR(IF(MONTH(G20+1)=MONTH(G$4),G20+1,""),"")</f>
         <v>45400</v>
       </c>
-      <c r="H21" s="38" cm="1">
-        <f t="array" ref="H21">IF(SUM(COUNTIF(G21,Feiertage!$B$2:$B$13)),"F",G21)</f>
-        <v>45400</v>
+      <c r="H21" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="I21" s="37">
         <f t="shared" ref="I21:I34" si="15">IFERROR(IF(MONTH(I20+1)=MONTH(I$4),I20+1,""),"")</f>
         <v>45430</v>
       </c>
-      <c r="J21" s="38" cm="1">
-        <f t="array" ref="J21">IF(SUM(COUNTIF(I21,Feiertage!$B$2:$B$13)),"F",I21)</f>
-        <v>45430</v>
+      <c r="J21" s="70" t="s">
+        <v>105</v>
       </c>
       <c r="K21" s="37">
         <f t="shared" ref="K21:K34" si="16">IFERROR(IF(MONTH(K20+1)=MONTH(K$4),K20+1,""),"")</f>
@@ -7879,9 +7981,8 @@
         <f t="shared" si="14"/>
         <v>45401</v>
       </c>
-      <c r="H22" s="38" cm="1">
-        <f t="array" ref="H22">IF(SUM(COUNTIF(G22,Feiertage!$B$2:$B$13)),"F",G22)</f>
-        <v>45401</v>
+      <c r="H22" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="I22" s="37">
         <f t="shared" si="15"/>
@@ -7903,9 +8004,8 @@
         <f t="shared" si="17"/>
         <v>45492</v>
       </c>
-      <c r="N22" s="38" cm="1">
-        <f t="array" ref="N22">IF(SUM(COUNTIF(M22,Feiertage!$B$2:$B$13)),"F",M22)</f>
-        <v>45492</v>
+      <c r="N22" s="70" t="s">
+        <v>105</v>
       </c>
       <c r="O22" s="37">
         <f t="shared" si="18"/>
@@ -8001,9 +8101,8 @@
         <f t="shared" si="17"/>
         <v>45493</v>
       </c>
-      <c r="N23" s="38" cm="1">
-        <f t="array" ref="N23">IF(SUM(COUNTIF(M23,Feiertage!$B$2:$B$13)),"F",M23)</f>
-        <v>45493</v>
+      <c r="N23" s="70" t="s">
+        <v>105</v>
       </c>
       <c r="O23" s="37">
         <f t="shared" si="18"/>
@@ -8091,9 +8190,8 @@
         <f t="shared" si="16"/>
         <v>45464</v>
       </c>
-      <c r="L24" s="38" cm="1">
-        <f t="array" ref="L24">IF(SUM(COUNTIF(K24,Feiertage!$B$2:$B$13)),"F",K24)</f>
-        <v>45464</v>
+      <c r="L24" s="70" t="s">
+        <v>105</v>
       </c>
       <c r="M24" s="37">
         <f t="shared" si="17"/>
@@ -8189,9 +8287,8 @@
         <f t="shared" si="16"/>
         <v>45465</v>
       </c>
-      <c r="L25" s="38" cm="1">
-        <f t="array" ref="L25">IF(SUM(COUNTIF(K25,Feiertage!$B$2:$B$13)),"F",K25)</f>
-        <v>45465</v>
+      <c r="L25" s="70" t="s">
+        <v>105</v>
       </c>
       <c r="M25" s="37">
         <f t="shared" si="17"/>
@@ -8303,15 +8400,14 @@
         <f t="shared" si="18"/>
         <v>45527</v>
       </c>
-      <c r="P26" s="57" cm="1">
-        <f t="array" ref="P26">IF(SUM(COUNTIF(O26,Feiertage!$B$2:$B$13)),"F",O26)</f>
-        <v>45527</v>
-      </c>
-      <c r="Q26" s="58">
+      <c r="P26" s="71" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q26" s="76">
         <f t="shared" si="19"/>
         <v>45558</v>
       </c>
-      <c r="R26" s="59" cm="1">
+      <c r="R26" s="77" cm="1">
         <f t="array" ref="R26">IF(SUM(COUNTIF(Q26,Feiertage!$B$2:$B$13)),"F",Q26)</f>
         <v>45558</v>
       </c>
@@ -8376,9 +8472,8 @@
         <f t="shared" si="15"/>
         <v>45436</v>
       </c>
-      <c r="J27" s="57" cm="1">
-        <f t="array" ref="J27">IF(SUM(COUNTIF(I27,Feiertage!$B$2:$B$13)),"F",I27)</f>
-        <v>45436</v>
+      <c r="J27" s="71" t="s">
+        <v>105</v>
       </c>
       <c r="K27" s="58">
         <f t="shared" si="16"/>
@@ -8400,15 +8495,14 @@
         <f t="shared" si="18"/>
         <v>45528</v>
       </c>
-      <c r="P27" s="57" cm="1">
-        <f t="array" ref="P27">IF(SUM(COUNTIF(O27,Feiertage!$B$2:$B$13)),"F",O27)</f>
-        <v>45528</v>
-      </c>
-      <c r="Q27" s="60">
+      <c r="P27" s="71" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q27" s="78">
         <f t="shared" si="19"/>
         <v>45559</v>
       </c>
-      <c r="R27" s="61" cm="1">
+      <c r="R27" s="79" cm="1">
         <f t="array" ref="R27">IF(SUM(COUNTIF(Q27,Feiertage!$B$2:$B$13)),"F",Q27)</f>
         <v>45559</v>
       </c>
@@ -8472,9 +8566,8 @@
         <f t="shared" si="15"/>
         <v>45437</v>
       </c>
-      <c r="J28" s="57" cm="1">
-        <f t="array" ref="J28">IF(SUM(COUNTIF(I28,Feiertage!$B$2:$B$13)),"F",I28)</f>
-        <v>45437</v>
+      <c r="J28" s="71" t="s">
+        <v>105</v>
       </c>
       <c r="K28" s="60">
         <f t="shared" si="16"/>
@@ -8500,11 +8593,11 @@
         <f t="array" ref="P28">IF(SUM(COUNTIF(O28,Feiertage!$B$2:$B$13)),"F",O28)</f>
         <v>45529</v>
       </c>
-      <c r="Q28" s="60">
+      <c r="Q28" s="78">
         <f t="shared" si="19"/>
         <v>45560</v>
       </c>
-      <c r="R28" s="61" cm="1">
+      <c r="R28" s="79" cm="1">
         <f t="array" ref="R28">IF(SUM(COUNTIF(Q28,Feiertage!$B$2:$B$13)),"F",Q28)</f>
         <v>45560</v>
       </c>
@@ -8561,9 +8654,8 @@
         <f t="shared" si="14"/>
         <v>45408</v>
       </c>
-      <c r="H29" s="38" cm="1">
-        <f t="array" ref="H29">IF(SUM(COUNTIF(G29,Feiertage!$B$2:$B$13)),"F",G29)</f>
-        <v>45408</v>
+      <c r="H29" s="70" t="s">
+        <v>105</v>
       </c>
       <c r="I29" s="37">
         <f t="shared" si="15"/>
@@ -8585,9 +8677,8 @@
         <f t="shared" si="17"/>
         <v>45499</v>
       </c>
-      <c r="N29" s="38" cm="1">
-        <f t="array" ref="N29">IF(SUM(COUNTIF(M29,Feiertage!$B$2:$B$13)),"F",M29)</f>
-        <v>45499</v>
+      <c r="N29" s="70" t="s">
+        <v>105</v>
       </c>
       <c r="O29" s="37">
         <f t="shared" si="18"/>
@@ -8597,11 +8688,11 @@
         <f t="array" ref="P29">IF(SUM(COUNTIF(O29,Feiertage!$B$2:$B$13)),"F",O29)</f>
         <v>45530</v>
       </c>
-      <c r="Q29" s="60">
+      <c r="Q29" s="78">
         <f t="shared" si="19"/>
         <v>45561</v>
       </c>
-      <c r="R29" s="61" cm="1">
+      <c r="R29" s="79" cm="1">
         <f t="array" ref="R29">IF(SUM(COUNTIF(Q29,Feiertage!$B$2:$B$13)),"F",Q29)</f>
         <v>45561</v>
       </c>
@@ -8658,9 +8749,8 @@
         <f t="shared" si="14"/>
         <v>45409</v>
       </c>
-      <c r="H30" s="38" cm="1">
-        <f t="array" ref="H30">IF(SUM(COUNTIF(G30,Feiertage!$B$2:$B$13)),"F",G30)</f>
-        <v>45409</v>
+      <c r="H30" s="70" t="s">
+        <v>105</v>
       </c>
       <c r="I30" s="37">
         <f t="shared" si="15"/>
@@ -8682,9 +8772,8 @@
         <f t="shared" si="17"/>
         <v>45500</v>
       </c>
-      <c r="N30" s="38" cm="1">
-        <f t="array" ref="N30">IF(SUM(COUNTIF(M30,Feiertage!$B$2:$B$13)),"F",M30)</f>
-        <v>45500</v>
+      <c r="N30" s="70" t="s">
+        <v>105</v>
       </c>
       <c r="O30" s="37">
         <f t="shared" si="18"/>
@@ -8694,11 +8783,11 @@
         <f t="array" ref="P30">IF(SUM(COUNTIF(O30,Feiertage!$B$2:$B$13)),"F",O30)</f>
         <v>45531</v>
       </c>
-      <c r="Q30" s="60">
+      <c r="Q30" s="78">
         <f t="shared" si="19"/>
         <v>45562</v>
       </c>
-      <c r="R30" s="61" cm="1">
+      <c r="R30" s="79" cm="1">
         <f t="array" ref="R30">IF(SUM(COUNTIF(Q30,Feiertage!$B$2:$B$13)),"F",Q30)</f>
         <v>45562</v>
       </c>
@@ -8770,9 +8859,8 @@
         <f t="shared" si="16"/>
         <v>45471</v>
       </c>
-      <c r="L31" s="61" cm="1">
-        <f t="array" ref="L31">IF(SUM(COUNTIF(K31,Feiertage!$B$2:$B$13)),"F",K31)</f>
-        <v>45471</v>
+      <c r="L31" s="74" t="s">
+        <v>105</v>
       </c>
       <c r="M31" s="56">
         <f t="shared" si="17"/>
@@ -8790,11 +8878,11 @@
         <f t="array" ref="P31">IF(SUM(COUNTIF(O31,Feiertage!$B$2:$B$13)),"F",O31)</f>
         <v>45532</v>
       </c>
-      <c r="Q31" s="62">
+      <c r="Q31" s="80">
         <f t="shared" si="19"/>
         <v>45563</v>
       </c>
-      <c r="R31" s="63" cm="1">
+      <c r="R31" s="81" cm="1">
         <f t="array" ref="R31">IF(SUM(COUNTIF(Q31,Feiertage!$B$2:$B$13)),"F",Q31)</f>
         <v>45563</v>
       </c>
@@ -8823,7 +8911,7 @@
         <v>45654</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="37">
         <f>IFERROR(IF(MONTH(A31+1)=MONTH(A$4),A31+1,""),"")</f>
         <v>45320</v>
@@ -8852,8 +8940,9 @@
         <f t="shared" si="14"/>
         <v>45411</v>
       </c>
-      <c r="H32" s="38" t="s">
-        <v>93</v>
+      <c r="H32" s="38" cm="1">
+        <f t="array" ref="H32">IF(SUM(COUNTIF(G32,Feiertage!$B$2:$B$13)),"F",G32)</f>
+        <v>45411</v>
       </c>
       <c r="I32" s="37">
         <f t="shared" si="15"/>
@@ -8867,9 +8956,8 @@
         <f t="shared" si="16"/>
         <v>45472</v>
       </c>
-      <c r="L32" s="63" cm="1">
-        <f t="array" ref="L32">IF(SUM(COUNTIF(K32,Feiertage!$B$2:$B$13)),"F",K32)</f>
-        <v>45472</v>
+      <c r="L32" s="75" t="s">
+        <v>105</v>
       </c>
       <c r="M32" s="56">
         <f t="shared" si="17"/>
@@ -8949,8 +9037,9 @@
         <f t="shared" si="14"/>
         <v>45412</v>
       </c>
-      <c r="H33" s="38" t="s">
-        <v>93</v>
+      <c r="H33" s="38" cm="1">
+        <f t="array" ref="H33">IF(SUM(COUNTIF(G33,Feiertage!$B$2:$B$13)),"F",G33)</f>
+        <v>45412</v>
       </c>
       <c r="I33" s="37">
         <f t="shared" si="15"/>
@@ -8980,9 +9069,8 @@
         <f t="shared" si="18"/>
         <v>45534</v>
       </c>
-      <c r="P33" s="38" cm="1">
-        <f t="array" ref="P33">IF(SUM(COUNTIF(O33,Feiertage!$B$2:$B$13)),"F",O33)</f>
-        <v>45534</v>
+      <c r="P33" s="70" t="s">
+        <v>105</v>
       </c>
       <c r="Q33" s="37">
         <f t="shared" si="19"/>
@@ -9053,9 +9141,8 @@
         <f t="shared" si="15"/>
         <v>45443</v>
       </c>
-      <c r="J34" s="41" cm="1">
-        <f t="array" ref="J34">IF(SUM(COUNTIF(I34,Feiertage!$B$2:$B$13)),"F",I34)</f>
-        <v>45443</v>
+      <c r="J34" s="72" t="s">
+        <v>105</v>
       </c>
       <c r="K34" s="40" t="str">
         <f t="shared" si="16"/>
@@ -9077,9 +9164,8 @@
         <f t="shared" si="18"/>
         <v>45535</v>
       </c>
-      <c r="P34" s="41" cm="1">
-        <f t="array" ref="P34">IF(SUM(COUNTIF(O34,Feiertage!$B$2:$B$13)),"F",O34)</f>
-        <v>45535</v>
+      <c r="P34" s="72" t="s">
+        <v>105</v>
       </c>
       <c r="Q34" s="40" t="str">
         <f t="shared" si="19"/>
@@ -9137,16 +9223,16 @@
     <mergeCell ref="I3:J3"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:X34">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>TODAY()=A4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>OR(A4="F",B4="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>OR(A4="U",B4="U")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="7">
+    <cfRule type="expression" dxfId="3" priority="7">
       <formula>WEEKDAY(A4,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9199,7 +9285,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83829C3-FDA6-4397-84AA-B678000B47C9}">
   <dimension ref="A1:AC37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
@@ -9212,45 +9298,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="66">
+      <c r="A1" s="68">
         <v>2025</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
       <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="64" t="s">
+      <c r="B3" s="67"/>
+      <c r="C3" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="64" t="s">
+      <c r="D3" s="67"/>
+      <c r="E3" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="64" t="s">
+      <c r="F3" s="67"/>
+      <c r="G3" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="65"/>
-      <c r="I3" s="64" t="s">
+      <c r="H3" s="67"/>
+      <c r="I3" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="J3" s="65"/>
-      <c r="K3" s="64" t="s">
+      <c r="J3" s="67"/>
+      <c r="K3" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="L3" s="65"/>
-      <c r="M3" s="64" t="s">
+      <c r="L3" s="67"/>
+      <c r="M3" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="N3" s="65"/>
+      <c r="N3" s="67"/>
       <c r="O3" s="54" t="s">
         <v>86</v>
       </c>
@@ -12366,16 +12452,16 @@
     <mergeCell ref="I3:J3"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:X34">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>TODAY()=A4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>OR(A4="F",B4="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="11" priority="3">
       <formula>OR(A4="U",B4="U")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="7">
+    <cfRule type="expression" dxfId="10" priority="7">
       <formula>WEEKDAY(A4,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Studiumplan.xlsx
+++ b/Studiumplan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00_Programme_RB\DHBW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73F6458-6C59-4647-9C7B-13B8658ED797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08E1988-540C-41E8-8601-F7FA9A444D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="17670" tabRatio="579" activeTab="2" xr2:uid="{8D6EA8FC-9557-4CD3-9C64-AEC02D041DCB}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="579" xr2:uid="{8D6EA8FC-9557-4CD3-9C64-AEC02D041DCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Modulliste" sheetId="3" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <author>tc={7AC76FD3-20F0-409E-BCFB-1F3017857D85}</author>
   </authors>
   <commentList>
-    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{D625988B-FD12-438F-B6F9-40477B429413}">
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{D625988B-FD12-438F-B6F9-40477B429413}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -54,7 +54,7 @@
     wird selten angeboten</t>
       </text>
     </comment>
-    <comment ref="A15" authorId="1" shapeId="0" xr:uid="{7AC76FD3-20F0-409E-BCFB-1F3017857D85}">
+    <comment ref="A11" authorId="1" shapeId="0" xr:uid="{7AC76FD3-20F0-409E-BCFB-1F3017857D85}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -438,7 +438,7 @@
     <numFmt numFmtId="164" formatCode="d/m;@"/>
     <numFmt numFmtId="165" formatCode="ddd/"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -523,6 +523,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="16">
@@ -860,7 +868,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1033,18 +1041,6 @@
     <xf numFmtId="164" fontId="9" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="9" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1080,6 +1076,33 @@
     </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1754,7 +1777,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4F3B1065-317B-4BEC-B040-1C2152005517}" name="Modulliste" displayName="Modulliste" ref="A1:M21" totalsRowCount="1" headerRowDxfId="48" dataDxfId="47">
   <autoFilter ref="A1:M20" xr:uid="{4F3B1065-317B-4BEC-B040-1C2152005517}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M20">
-    <sortCondition ref="G1:G20"/>
+    <sortCondition ref="B1:B20"/>
   </sortState>
   <tableColumns count="13">
     <tableColumn id="12" xr3:uid="{2C8AA6B6-31D0-4DF0-9DA9-0D8B08088E24}" name="Modulname" totalsRowLabel="Abschlussnote" dataDxfId="46" totalsRowDxfId="45"/>
@@ -2074,10 +2097,10 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A10" dT="2023-04-18T07:11:20.76" personId="{00CAF5A1-3185-49EF-893A-254A033DD426}" id="{D625988B-FD12-438F-B6F9-40477B429413}">
+  <threadedComment ref="A9" dT="2023-04-18T07:11:20.76" personId="{00CAF5A1-3185-49EF-893A-254A033DD426}" id="{D625988B-FD12-438F-B6F9-40477B429413}">
     <text>wird selten angeboten</text>
   </threadedComment>
-  <threadedComment ref="A15" dT="2023-04-18T07:11:30.60" personId="{00CAF5A1-3185-49EF-893A-254A033DD426}" id="{7AC76FD3-20F0-409E-BCFB-1F3017857D85}">
+  <threadedComment ref="A11" dT="2023-04-18T07:11:30.60" personId="{00CAF5A1-3185-49EF-893A-254A033DD426}" id="{7AC76FD3-20F0-409E-BCFB-1F3017857D85}">
     <text>neues Modul</text>
   </threadedComment>
 </ThreadedComments>
@@ -2096,9 +2119,9 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I10" sqref="I10:I11"/>
+    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2161,306 +2184,266 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="7">
+      <c r="A2" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="21">
         <v>5</v>
       </c>
-      <c r="G2" s="23">
-        <v>45029</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="23">
-        <v>45061</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="25"/>
+      <c r="G2" s="22">
+        <v>45670</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="22">
+        <v>45701</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="29"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="7">
+      <c r="A3" s="84" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="17">
         <v>5</v>
       </c>
-      <c r="G3" s="23">
-        <v>45036</v>
-      </c>
-      <c r="H3" s="7" t="s">
+      <c r="G3" s="18">
+        <v>45299</v>
+      </c>
+      <c r="H3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="23">
-        <v>45068</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="25"/>
+      <c r="I3" s="18">
+        <v>45330</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="26"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="A4" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="17">
+        <v>5</v>
+      </c>
+      <c r="G4" s="18">
+        <v>45400</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="18">
+        <v>45439</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="26"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F5" s="17">
         <v>5</v>
       </c>
-      <c r="G4" s="23">
-        <v>45043</v>
-      </c>
-      <c r="H4" s="7" t="s">
+      <c r="G5" s="18">
+        <v>45481</v>
+      </c>
+      <c r="H5" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="23">
-        <v>45082</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="I5" s="18">
+        <v>45540</v>
+      </c>
+      <c r="J5" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="M4" s="25"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="7">
+      <c r="K5" s="17"/>
+      <c r="L5" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" s="26"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17">
         <v>5</v>
       </c>
-      <c r="G5" s="23">
-        <v>45120</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="23">
-        <v>45180</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="23">
-        <v>45229</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="25"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="7">
-        <v>5</v>
-      </c>
-      <c r="G6" s="23">
-        <v>45218</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="23">
-        <v>45250</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" s="25"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="26"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>27</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
       <c r="F7" s="17">
+        <v>10</v>
+      </c>
+      <c r="G7" s="18">
+        <v>45444</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="26"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17">
+        <v>25</v>
+      </c>
+      <c r="G8" s="18">
+        <v>45658</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="26"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="19">
         <v>5</v>
       </c>
-      <c r="G7" s="18">
-        <v>45299</v>
-      </c>
-      <c r="H7" s="17" t="s">
+      <c r="G9" s="20">
+        <v>45393</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="20">
+        <v>45425</v>
+      </c>
+      <c r="J9" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="18">
-        <v>45330</v>
-      </c>
-      <c r="J7" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7" s="26"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="7">
-        <v>5</v>
-      </c>
-      <c r="G8" s="23">
-        <v>45320</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="23">
-        <v>45358</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M8" s="25"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="14">
-        <v>5</v>
-      </c>
-      <c r="G9" s="15">
-        <v>45323</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="15">
-        <v>45355</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" s="27"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9" s="28"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>49</v>
@@ -2469,363 +2452,403 @@
         <v>50</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="F10" s="19">
         <v>5</v>
       </c>
       <c r="G10" s="20">
-        <v>45393</v>
+        <v>45488</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="I10" s="20">
-        <v>45425</v>
+        <v>45547</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="K10" s="19"/>
       <c r="L10" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M10" s="28"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="19">
+        <v>5</v>
+      </c>
+      <c r="G11" s="20">
+        <v>45782</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="20">
+        <v>45813</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M11" s="28"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="14">
+        <v>5</v>
+      </c>
+      <c r="G12" s="15">
+        <v>45323</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="15">
+        <v>45355</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="27"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="14">
+        <v>5</v>
+      </c>
+      <c r="G13" s="15">
+        <v>45691</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="15">
+        <v>45729</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="M10" s="28"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="17">
-        <v>5</v>
-      </c>
-      <c r="G11" s="18">
-        <v>45400</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="18">
-        <v>45439</v>
-      </c>
-      <c r="J11" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="M11" s="26"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="17">
-        <v>5</v>
-      </c>
-      <c r="G12" s="18">
-        <v>45481</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="18">
-        <v>45540</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="M12" s="26"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="19">
-        <v>5</v>
-      </c>
-      <c r="G13" s="20">
-        <v>45488</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="20">
-        <v>45547</v>
-      </c>
-      <c r="J13" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="M13" s="28"/>
+      <c r="M13" s="27"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="F14" s="14">
         <v>5</v>
       </c>
       <c r="G14" s="15">
-        <v>45691</v>
+        <v>45848</v>
       </c>
       <c r="H14" s="14" t="s">
         <v>23</v>
       </c>
       <c r="I14" s="15">
-        <v>45729</v>
+        <v>45901</v>
       </c>
       <c r="J14" s="14" t="s">
         <v>23</v>
       </c>
       <c r="K14" s="14"/>
       <c r="L14" s="14" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="M14" s="27"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" s="19">
+    <row r="15" spans="1:13" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="82" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="7">
         <v>5</v>
       </c>
-      <c r="G15" s="20">
-        <v>45782</v>
-      </c>
-      <c r="H15" s="19" t="s">
+      <c r="G15" s="23">
+        <v>45029</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="23">
+        <v>45061</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="25"/>
+    </row>
+    <row r="16" spans="1:13" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="82" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="7">
+        <v>5</v>
+      </c>
+      <c r="G16" s="23">
+        <v>45036</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="23">
+        <v>45068</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16" s="25"/>
+    </row>
+    <row r="17" spans="1:13" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="7">
+        <v>5</v>
+      </c>
+      <c r="G17" s="23">
+        <v>45043</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="23">
+        <v>45082</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M17" s="25"/>
+    </row>
+    <row r="18" spans="1:13" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="82" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7">
+        <v>5</v>
+      </c>
+      <c r="G18" s="23">
+        <v>45120</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="23">
+        <v>45180</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="23">
+        <v>45229</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="25"/>
+    </row>
+    <row r="19" spans="1:13" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="7">
+        <v>5</v>
+      </c>
+      <c r="G19" s="23">
+        <v>45218</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="23">
+        <v>45250</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19" s="25"/>
+    </row>
+    <row r="20" spans="1:13" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="7">
+        <v>5</v>
+      </c>
+      <c r="G20" s="23">
+        <v>45320</v>
+      </c>
+      <c r="H20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I15" s="20">
-        <v>45813</v>
-      </c>
-      <c r="J15" s="19" t="s">
+      <c r="I20" s="23">
+        <v>45358</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="M15" s="28"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="14">
-        <v>5</v>
-      </c>
-      <c r="G16" s="15">
-        <v>45848</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="15">
-        <v>45901</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="M16" s="27"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="21">
-        <v>5</v>
-      </c>
-      <c r="G17" s="22">
-        <v>45670</v>
-      </c>
-      <c r="H17" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="I17" s="22">
-        <v>45701</v>
-      </c>
-      <c r="J17" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="M17" s="29"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17">
-        <v>5</v>
-      </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="26"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17">
-        <v>10</v>
-      </c>
-      <c r="G19" s="18">
-        <v>45444</v>
-      </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="26"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17">
-        <v>25</v>
-      </c>
-      <c r="G20" s="18">
-        <v>45658</v>
-      </c>
-      <c r="H20" s="17"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="26"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M20" s="25"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="52" t="s">
@@ -2914,45 +2937,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="68">
+      <c r="A1" s="80">
         <v>2023</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
       <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="66" t="s">
+      <c r="B3" s="79"/>
+      <c r="C3" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="66" t="s">
+      <c r="D3" s="79"/>
+      <c r="E3" s="78" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="66" t="s">
+      <c r="F3" s="79"/>
+      <c r="G3" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="67"/>
-      <c r="I3" s="66" t="s">
+      <c r="H3" s="79"/>
+      <c r="I3" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="J3" s="67"/>
-      <c r="K3" s="66" t="s">
+      <c r="J3" s="79"/>
+      <c r="K3" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="L3" s="67"/>
-      <c r="M3" s="66" t="s">
+      <c r="L3" s="79"/>
+      <c r="M3" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="N3" s="67"/>
+      <c r="N3" s="79"/>
       <c r="O3" s="33" t="s">
         <v>86</v>
       </c>
@@ -6108,8 +6131,8 @@
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1:AC37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB20" sqref="AB20"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6121,45 +6144,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="68">
+      <c r="A1" s="80">
         <v>2024</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
       <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="66" t="s">
+      <c r="B3" s="79"/>
+      <c r="C3" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="66" t="s">
+      <c r="D3" s="79"/>
+      <c r="E3" s="78" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="66" t="s">
+      <c r="F3" s="79"/>
+      <c r="G3" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="67"/>
-      <c r="I3" s="66" t="s">
+      <c r="H3" s="79"/>
+      <c r="I3" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="J3" s="67"/>
-      <c r="K3" s="66" t="s">
+      <c r="J3" s="79"/>
+      <c r="K3" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="L3" s="67"/>
-      <c r="M3" s="66" t="s">
+      <c r="L3" s="79"/>
+      <c r="M3" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="N3" s="67"/>
+      <c r="N3" s="79"/>
       <c r="O3" s="33" t="s">
         <v>86</v>
       </c>
@@ -6229,7 +6252,7 @@
         <f>DATE($A$1,6,1)</f>
         <v>45444</v>
       </c>
-      <c r="L4" s="73" t="s">
+      <c r="L4" s="69" t="s">
         <v>105</v>
       </c>
       <c r="M4" s="34">
@@ -6344,7 +6367,7 @@
         <f t="shared" ref="O5:S20" si="5">IFERROR(IF(MONTH(O4+1)=MONTH(O$4),O4+1,""),"")</f>
         <v>45506</v>
       </c>
-      <c r="P5" s="70" t="s">
+      <c r="P5" s="66" t="s">
         <v>105</v>
       </c>
       <c r="Q5" s="37">
@@ -6426,7 +6449,7 @@
         <f t="shared" si="2"/>
         <v>45415</v>
       </c>
-      <c r="J6" s="70" t="s">
+      <c r="J6" s="66" t="s">
         <v>105</v>
       </c>
       <c r="K6" s="37">
@@ -6449,7 +6472,7 @@
         <f t="shared" si="5"/>
         <v>45507</v>
       </c>
-      <c r="P6" s="70" t="s">
+      <c r="P6" s="66" t="s">
         <v>105</v>
       </c>
       <c r="Q6" s="37">
@@ -6531,7 +6554,7 @@
         <f t="shared" si="2"/>
         <v>45416</v>
       </c>
-      <c r="J7" s="70" t="s">
+      <c r="J7" s="66" t="s">
         <v>105</v>
       </c>
       <c r="K7" s="37">
@@ -6622,7 +6645,7 @@
         <f t="shared" si="2"/>
         <v>45387</v>
       </c>
-      <c r="H8" s="70" t="s">
+      <c r="H8" s="66" t="s">
         <v>105</v>
       </c>
       <c r="I8" s="37">
@@ -6645,7 +6668,7 @@
         <f t="shared" si="4"/>
         <v>45478</v>
       </c>
-      <c r="N8" s="70" t="s">
+      <c r="N8" s="66" t="s">
         <v>105</v>
       </c>
       <c r="O8" s="37">
@@ -6721,7 +6744,7 @@
         <f t="shared" si="2"/>
         <v>45388</v>
       </c>
-      <c r="H9" s="70" t="s">
+      <c r="H9" s="66" t="s">
         <v>105</v>
       </c>
       <c r="I9" s="37">
@@ -6744,7 +6767,7 @@
         <f t="shared" si="4"/>
         <v>45479</v>
       </c>
-      <c r="N9" s="70" t="s">
+      <c r="N9" s="66" t="s">
         <v>105</v>
       </c>
       <c r="O9" s="37">
@@ -6836,7 +6859,7 @@
         <f t="shared" si="2"/>
         <v>45450</v>
       </c>
-      <c r="L10" s="70" t="s">
+      <c r="L10" s="66" t="s">
         <v>105</v>
       </c>
       <c r="M10" s="37">
@@ -6933,7 +6956,7 @@
         <f t="shared" si="2"/>
         <v>45451</v>
       </c>
-      <c r="L11" s="70" t="s">
+      <c r="L11" s="66" t="s">
         <v>105</v>
       </c>
       <c r="M11" s="37">
@@ -7046,7 +7069,7 @@
         <f t="shared" si="5"/>
         <v>45513</v>
       </c>
-      <c r="P12" s="70" t="s">
+      <c r="P12" s="66" t="s">
         <v>105</v>
       </c>
       <c r="Q12" s="37">
@@ -7119,7 +7142,7 @@
         <f t="shared" si="2"/>
         <v>45422</v>
       </c>
-      <c r="J13" s="70" t="s">
+      <c r="J13" s="66" t="s">
         <v>105</v>
       </c>
       <c r="K13" s="37">
@@ -7142,7 +7165,7 @@
         <f t="shared" si="5"/>
         <v>45514</v>
       </c>
-      <c r="P13" s="70" t="s">
+      <c r="P13" s="66" t="s">
         <v>106</v>
       </c>
       <c r="Q13" s="37">
@@ -7214,7 +7237,7 @@
         <f t="shared" si="2"/>
         <v>45423</v>
       </c>
-      <c r="J14" s="70" t="s">
+      <c r="J14" s="66" t="s">
         <v>105</v>
       </c>
       <c r="K14" s="37">
@@ -7514,7 +7537,7 @@
         <f t="shared" si="2"/>
         <v>45457</v>
       </c>
-      <c r="L17" s="70" t="s">
+      <c r="L17" s="66" t="s">
         <v>105</v>
       </c>
       <c r="M17" s="37">
@@ -7611,7 +7634,7 @@
         <f t="shared" si="2"/>
         <v>45458</v>
       </c>
-      <c r="L18" s="70" t="s">
+      <c r="L18" s="66" t="s">
         <v>105</v>
       </c>
       <c r="M18" s="37">
@@ -7724,7 +7747,7 @@
         <f t="shared" si="5"/>
         <v>45520</v>
       </c>
-      <c r="P19" s="70" t="s">
+      <c r="P19" s="66" t="s">
         <v>105</v>
       </c>
       <c r="Q19" s="37">
@@ -7797,7 +7820,7 @@
         <f t="shared" si="2"/>
         <v>45429</v>
       </c>
-      <c r="J20" s="70" t="s">
+      <c r="J20" s="66" t="s">
         <v>105</v>
       </c>
       <c r="K20" s="37">
@@ -7820,7 +7843,7 @@
         <f t="shared" si="5"/>
         <v>45521</v>
       </c>
-      <c r="P20" s="70" t="s">
+      <c r="P20" s="66" t="s">
         <v>105</v>
       </c>
       <c r="Q20" s="37">
@@ -7892,7 +7915,7 @@
         <f t="shared" ref="I21:I34" si="15">IFERROR(IF(MONTH(I20+1)=MONTH(I$4),I20+1,""),"")</f>
         <v>45430</v>
       </c>
-      <c r="J21" s="70" t="s">
+      <c r="J21" s="66" t="s">
         <v>105</v>
       </c>
       <c r="K21" s="37">
@@ -8004,7 +8027,7 @@
         <f t="shared" si="17"/>
         <v>45492</v>
       </c>
-      <c r="N22" s="70" t="s">
+      <c r="N22" s="66" t="s">
         <v>105</v>
       </c>
       <c r="O22" s="37">
@@ -8101,7 +8124,7 @@
         <f t="shared" si="17"/>
         <v>45493</v>
       </c>
-      <c r="N23" s="70" t="s">
+      <c r="N23" s="66" t="s">
         <v>105</v>
       </c>
       <c r="O23" s="37">
@@ -8190,7 +8213,7 @@
         <f t="shared" si="16"/>
         <v>45464</v>
       </c>
-      <c r="L24" s="70" t="s">
+      <c r="L24" s="66" t="s">
         <v>105</v>
       </c>
       <c r="M24" s="37">
@@ -8287,7 +8310,7 @@
         <f t="shared" si="16"/>
         <v>45465</v>
       </c>
-      <c r="L25" s="70" t="s">
+      <c r="L25" s="66" t="s">
         <v>105</v>
       </c>
       <c r="M25" s="37">
@@ -8400,14 +8423,14 @@
         <f t="shared" si="18"/>
         <v>45527</v>
       </c>
-      <c r="P26" s="71" t="s">
+      <c r="P26" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="Q26" s="76">
+      <c r="Q26" s="72">
         <f t="shared" si="19"/>
         <v>45558</v>
       </c>
-      <c r="R26" s="77" cm="1">
+      <c r="R26" s="73" cm="1">
         <f t="array" ref="R26">IF(SUM(COUNTIF(Q26,Feiertage!$B$2:$B$13)),"F",Q26)</f>
         <v>45558</v>
       </c>
@@ -8472,7 +8495,7 @@
         <f t="shared" si="15"/>
         <v>45436</v>
       </c>
-      <c r="J27" s="71" t="s">
+      <c r="J27" s="67" t="s">
         <v>105</v>
       </c>
       <c r="K27" s="58">
@@ -8495,14 +8518,14 @@
         <f t="shared" si="18"/>
         <v>45528</v>
       </c>
-      <c r="P27" s="71" t="s">
+      <c r="P27" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="Q27" s="78">
+      <c r="Q27" s="74">
         <f t="shared" si="19"/>
         <v>45559</v>
       </c>
-      <c r="R27" s="79" cm="1">
+      <c r="R27" s="75" cm="1">
         <f t="array" ref="R27">IF(SUM(COUNTIF(Q27,Feiertage!$B$2:$B$13)),"F",Q27)</f>
         <v>45559</v>
       </c>
@@ -8566,7 +8589,7 @@
         <f t="shared" si="15"/>
         <v>45437</v>
       </c>
-      <c r="J28" s="71" t="s">
+      <c r="J28" s="67" t="s">
         <v>105</v>
       </c>
       <c r="K28" s="60">
@@ -8593,11 +8616,11 @@
         <f t="array" ref="P28">IF(SUM(COUNTIF(O28,Feiertage!$B$2:$B$13)),"F",O28)</f>
         <v>45529</v>
       </c>
-      <c r="Q28" s="78">
+      <c r="Q28" s="74">
         <f t="shared" si="19"/>
         <v>45560</v>
       </c>
-      <c r="R28" s="79" cm="1">
+      <c r="R28" s="75" cm="1">
         <f t="array" ref="R28">IF(SUM(COUNTIF(Q28,Feiertage!$B$2:$B$13)),"F",Q28)</f>
         <v>45560</v>
       </c>
@@ -8654,7 +8677,7 @@
         <f t="shared" si="14"/>
         <v>45408</v>
       </c>
-      <c r="H29" s="70" t="s">
+      <c r="H29" s="66" t="s">
         <v>105</v>
       </c>
       <c r="I29" s="37">
@@ -8677,7 +8700,7 @@
         <f t="shared" si="17"/>
         <v>45499</v>
       </c>
-      <c r="N29" s="70" t="s">
+      <c r="N29" s="66" t="s">
         <v>105</v>
       </c>
       <c r="O29" s="37">
@@ -8688,11 +8711,11 @@
         <f t="array" ref="P29">IF(SUM(COUNTIF(O29,Feiertage!$B$2:$B$13)),"F",O29)</f>
         <v>45530</v>
       </c>
-      <c r="Q29" s="78">
+      <c r="Q29" s="74">
         <f t="shared" si="19"/>
         <v>45561</v>
       </c>
-      <c r="R29" s="79" cm="1">
+      <c r="R29" s="75" cm="1">
         <f t="array" ref="R29">IF(SUM(COUNTIF(Q29,Feiertage!$B$2:$B$13)),"F",Q29)</f>
         <v>45561</v>
       </c>
@@ -8749,7 +8772,7 @@
         <f t="shared" si="14"/>
         <v>45409</v>
       </c>
-      <c r="H30" s="70" t="s">
+      <c r="H30" s="66" t="s">
         <v>105</v>
       </c>
       <c r="I30" s="37">
@@ -8772,7 +8795,7 @@
         <f t="shared" si="17"/>
         <v>45500</v>
       </c>
-      <c r="N30" s="70" t="s">
+      <c r="N30" s="66" t="s">
         <v>105</v>
       </c>
       <c r="O30" s="37">
@@ -8783,11 +8806,11 @@
         <f t="array" ref="P30">IF(SUM(COUNTIF(O30,Feiertage!$B$2:$B$13)),"F",O30)</f>
         <v>45531</v>
       </c>
-      <c r="Q30" s="78">
+      <c r="Q30" s="74">
         <f t="shared" si="19"/>
         <v>45562</v>
       </c>
-      <c r="R30" s="79" cm="1">
+      <c r="R30" s="75" cm="1">
         <f t="array" ref="R30">IF(SUM(COUNTIF(Q30,Feiertage!$B$2:$B$13)),"F",Q30)</f>
         <v>45562</v>
       </c>
@@ -8859,7 +8882,7 @@
         <f t="shared" si="16"/>
         <v>45471</v>
       </c>
-      <c r="L31" s="74" t="s">
+      <c r="L31" s="70" t="s">
         <v>105</v>
       </c>
       <c r="M31" s="56">
@@ -8878,11 +8901,11 @@
         <f t="array" ref="P31">IF(SUM(COUNTIF(O31,Feiertage!$B$2:$B$13)),"F",O31)</f>
         <v>45532</v>
       </c>
-      <c r="Q31" s="80">
+      <c r="Q31" s="76">
         <f t="shared" si="19"/>
         <v>45563</v>
       </c>
-      <c r="R31" s="81" cm="1">
+      <c r="R31" s="77" cm="1">
         <f t="array" ref="R31">IF(SUM(COUNTIF(Q31,Feiertage!$B$2:$B$13)),"F",Q31)</f>
         <v>45563</v>
       </c>
@@ -8956,7 +8979,7 @@
         <f t="shared" si="16"/>
         <v>45472</v>
       </c>
-      <c r="L32" s="75" t="s">
+      <c r="L32" s="71" t="s">
         <v>105</v>
       </c>
       <c r="M32" s="56">
@@ -9069,7 +9092,7 @@
         <f t="shared" si="18"/>
         <v>45534</v>
       </c>
-      <c r="P33" s="70" t="s">
+      <c r="P33" s="66" t="s">
         <v>105</v>
       </c>
       <c r="Q33" s="37">
@@ -9141,7 +9164,7 @@
         <f t="shared" si="15"/>
         <v>45443</v>
       </c>
-      <c r="J34" s="72" t="s">
+      <c r="J34" s="68" t="s">
         <v>105</v>
       </c>
       <c r="K34" s="40" t="str">
@@ -9164,7 +9187,7 @@
         <f t="shared" si="18"/>
         <v>45535</v>
       </c>
-      <c r="P34" s="72" t="s">
+      <c r="P34" s="68" t="s">
         <v>105</v>
       </c>
       <c r="Q34" s="40" t="str">
@@ -9223,16 +9246,16 @@
     <mergeCell ref="I3:J3"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:X34">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>TODAY()=A4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>OR(A4="F",B4="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="11" priority="3">
       <formula>OR(A4="U",B4="U")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="7">
+    <cfRule type="expression" dxfId="10" priority="7">
       <formula>WEEKDAY(A4,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9286,7 +9309,7 @@
   <dimension ref="A1:AC37"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z15" sqref="Z15"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9298,45 +9321,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="68">
+      <c r="A1" s="80">
         <v>2025</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
       <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="66" t="s">
+      <c r="B3" s="79"/>
+      <c r="C3" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="66" t="s">
+      <c r="D3" s="79"/>
+      <c r="E3" s="78" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="66" t="s">
+      <c r="F3" s="79"/>
+      <c r="G3" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="67"/>
-      <c r="I3" s="66" t="s">
+      <c r="H3" s="79"/>
+      <c r="I3" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="J3" s="67"/>
-      <c r="K3" s="66" t="s">
+      <c r="J3" s="79"/>
+      <c r="K3" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="L3" s="67"/>
-      <c r="M3" s="66" t="s">
+      <c r="L3" s="79"/>
+      <c r="M3" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="N3" s="67"/>
+      <c r="N3" s="79"/>
       <c r="O3" s="54" t="s">
         <v>86</v>
       </c>
@@ -12452,16 +12475,16 @@
     <mergeCell ref="I3:J3"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:X34">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>TODAY()=A4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>OR(A4="F",B4="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>OR(A4="U",B4="U")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="7">
+    <cfRule type="expression" dxfId="3" priority="7">
       <formula>WEEKDAY(A4,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Studiumplan.xlsx
+++ b/Studiumplan.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
+  <workbookPr showObjects="none" codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00_Programme_RB\DHBW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08E1988-540C-41E8-8601-F7FA9A444D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C016C7E5-58CA-49AE-A73E-9DDC004F3A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="579" xr2:uid="{8D6EA8FC-9557-4CD3-9C64-AEC02D041DCB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="579" xr2:uid="{8D6EA8FC-9557-4CD3-9C64-AEC02D041DCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Modulliste" sheetId="3" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <author>tc={7AC76FD3-20F0-409E-BCFB-1F3017857D85}</author>
   </authors>
   <commentList>
-    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{D625988B-FD12-438F-B6F9-40477B429413}">
+    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{D625988B-FD12-438F-B6F9-40477B429413}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -54,7 +54,7 @@
     wird selten angeboten</t>
       </text>
     </comment>
-    <comment ref="A11" authorId="1" shapeId="0" xr:uid="{7AC76FD3-20F0-409E-BCFB-1F3017857D85}">
+    <comment ref="A19" authorId="1" shapeId="0" xr:uid="{7AC76FD3-20F0-409E-BCFB-1F3017857D85}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="106">
   <si>
     <t>Modulname</t>
   </si>
@@ -137,9 +137,6 @@
   </si>
   <si>
     <t>Ort 2</t>
-  </si>
-  <si>
-    <t>Prüfungstermin</t>
   </si>
   <si>
     <t>MODULVERANTWORTUNG</t>
@@ -1077,18 +1074,6 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1104,12 +1089,258 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="49">
+  <dxfs count="47">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1134,28 +1365,21 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor theme="7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF7030A0"/>
+          <bgColor theme="7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1211,21 +1435,21 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
+          <bgColor rgb="FF7030A0"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1258,23 +1482,11 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1293,17 +1505,84 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <name val="Calibri Light"/>
         <family val="2"/>
         <scheme val="major"/>
@@ -1326,69 +1605,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1400,225 +1616,6 @@
         <scheme val="major"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1642,25 +1639,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1675,31 +1653,6 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1774,25 +1727,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4F3B1065-317B-4BEC-B040-1C2152005517}" name="Modulliste" displayName="Modulliste" ref="A1:M21" totalsRowCount="1" headerRowDxfId="48" dataDxfId="47">
-  <autoFilter ref="A1:M20" xr:uid="{4F3B1065-317B-4BEC-B040-1C2152005517}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M20">
-    <sortCondition ref="B1:B20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4F3B1065-317B-4BEC-B040-1C2152005517}" name="Modulliste" displayName="Modulliste" ref="A1:L21" totalsRowCount="1" headerRowDxfId="46" dataDxfId="45">
+  <autoFilter ref="A1:L20" xr:uid="{4F3B1065-317B-4BEC-B040-1C2152005517}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L20">
+    <sortCondition ref="C1:C20"/>
   </sortState>
-  <tableColumns count="13">
-    <tableColumn id="12" xr3:uid="{2C8AA6B6-31D0-4DF0-9DA9-0D8B08088E24}" name="Modulname" totalsRowLabel="Abschlussnote" dataDxfId="46" totalsRowDxfId="45"/>
-    <tableColumn id="1" xr3:uid="{FF50EF13-B9B2-42C9-A37F-07237C42C851}" name="Bereich" dataDxfId="44" totalsRowDxfId="43"/>
-    <tableColumn id="10" xr3:uid="{DE1BE470-5B26-4F88-8799-243B2BE03172}" name="Semester" dataDxfId="42" totalsRowDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{E64020FC-6A5D-4A49-BCE1-C2569FF59159}" name="Schlüssel" dataDxfId="40" totalsRowDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{8470E22C-4CE1-4553-8671-9BF5989AAE65}" name="Prüfungsart" dataDxfId="38" totalsRowDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{CF2D34DC-4E44-45F0-B25E-0FFB229BA18E}" name="LP" dataDxfId="36" totalsRowDxfId="35"/>
-    <tableColumn id="6" xr3:uid="{80506F77-5504-411A-B364-0B22CC53A582}" name="Termin 1" dataDxfId="34" totalsRowDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{C9413F7D-7FA1-417F-B220-3B19C8279173}" name="Ort 1" dataDxfId="32" totalsRowDxfId="31"/>
-    <tableColumn id="8" xr3:uid="{A89D3283-E2AE-4360-9A93-F5F27682296D}" name="Termin 2" dataDxfId="30" totalsRowDxfId="29"/>
-    <tableColumn id="9" xr3:uid="{DDE1A5EF-F94C-417A-95CA-A29D4C689B48}" name="Ort 2" dataDxfId="28" totalsRowDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{A92B3274-FA6A-4C49-87BB-1CF1BAC29EAB}" name="Prüfungstermin" dataDxfId="26" totalsRowDxfId="25"/>
-    <tableColumn id="11" xr3:uid="{F6C0E347-9701-496F-8B92-1BFEDFF8D817}" name="MODULVERANTWORTUNG" dataDxfId="24" totalsRowDxfId="23"/>
-    <tableColumn id="14" xr3:uid="{A9A48352-3929-4E88-AACC-E1A6F11D63E3}" name="Note" totalsRowFunction="custom" dataDxfId="22" totalsRowDxfId="21">
+  <tableColumns count="12">
+    <tableColumn id="12" xr3:uid="{2C8AA6B6-31D0-4DF0-9DA9-0D8B08088E24}" name="Modulname" totalsRowLabel="Abschlussnote" dataDxfId="44" totalsRowDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{FF50EF13-B9B2-42C9-A37F-07237C42C851}" name="Bereich" dataDxfId="43" totalsRowDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{DE1BE470-5B26-4F88-8799-243B2BE03172}" name="Semester" dataDxfId="42" totalsRowDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{E64020FC-6A5D-4A49-BCE1-C2569FF59159}" name="Schlüssel" dataDxfId="41" totalsRowDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{8470E22C-4CE1-4553-8671-9BF5989AAE65}" name="Prüfungsart" dataDxfId="40" totalsRowDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{CF2D34DC-4E44-45F0-B25E-0FFB229BA18E}" name="LP" dataDxfId="39" totalsRowDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{80506F77-5504-411A-B364-0B22CC53A582}" name="Termin 1" dataDxfId="38" totalsRowDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{C9413F7D-7FA1-417F-B220-3B19C8279173}" name="Ort 1" dataDxfId="37" totalsRowDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{A89D3283-E2AE-4360-9A93-F5F27682296D}" name="Termin 2" dataDxfId="36" totalsRowDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{DDE1A5EF-F94C-417A-95CA-A29D4C689B48}" name="Ort 2" dataDxfId="35" totalsRowDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{F6C0E347-9701-496F-8B92-1BFEDFF8D817}" name="MODULVERANTWORTUNG" dataDxfId="34" totalsRowDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{A9A48352-3929-4E88-AACC-E1A6F11D63E3}" name="Note" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="0">
       <totalsRowFormula array="1">SUMPRODUCT(IF(Modulliste[Note]&lt;&gt;"", Modulliste[Note]), Modulliste[LP]) / SUM(IF(Modulliste[Note]&lt;&gt;"", Modulliste[LP]))</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -2097,10 +2049,10 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A9" dT="2023-04-18T07:11:20.76" personId="{00CAF5A1-3185-49EF-893A-254A033DD426}" id="{D625988B-FD12-438F-B6F9-40477B429413}">
+  <threadedComment ref="A12" dT="2023-04-18T07:11:20.76" personId="{00CAF5A1-3185-49EF-893A-254A033DD426}" id="{D625988B-FD12-438F-B6F9-40477B429413}">
     <text>wird selten angeboten</text>
   </threadedComment>
-  <threadedComment ref="A11" dT="2023-04-18T07:11:30.60" personId="{00CAF5A1-3185-49EF-893A-254A033DD426}" id="{7AC76FD3-20F0-409E-BCFB-1F3017857D85}">
+  <threadedComment ref="A19" dT="2023-04-18T07:11:30.60" personId="{00CAF5A1-3185-49EF-893A-254A033DD426}" id="{7AC76FD3-20F0-409E-BCFB-1F3017857D85}">
     <text>neues Modul</text>
   </threadedComment>
 </ThreadedComments>
@@ -2117,11 +2069,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F70D999F-AAA9-4A38-8F55-9E1C84DAB455}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E10" sqref="E10"/>
+      <selection pane="topRight" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2136,13 +2088,12 @@
     <col min="8" max="8" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.28515625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="29.7109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="24"/>
-    <col min="14" max="16384" width="11.42578125" style="2"/>
+    <col min="11" max="11" width="29.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="24"/>
+    <col min="13" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2176,683 +2127,659 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="24" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="78" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" s="21" t="s">
+      <c r="B2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="7">
+        <v>5</v>
+      </c>
+      <c r="G2" s="23">
+        <v>45029</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="23">
+        <v>45061</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="25"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="7">
+        <v>5</v>
+      </c>
+      <c r="G3" s="23">
+        <v>45036</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="23">
+        <v>45068</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="25"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="7">
+        <v>5</v>
+      </c>
+      <c r="G4" s="23">
+        <v>45043</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="23">
+        <v>45082</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L4" s="25"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="21">
+      <c r="B5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="7">
         <v>5</v>
       </c>
-      <c r="G2" s="22">
-        <v>45670</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="I2" s="22">
-        <v>45701</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="M2" s="29"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
+      <c r="G5" s="23">
+        <v>45120</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="23">
+        <v>45180</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="25"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C6" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="17">
-        <v>5</v>
-      </c>
-      <c r="G3" s="18">
-        <v>45299</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="18">
-        <v>45330</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" s="26"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="17">
-        <v>5</v>
-      </c>
-      <c r="G4" s="18">
-        <v>45400</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="18">
-        <v>45439</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="M4" s="26"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="17">
-        <v>5</v>
-      </c>
-      <c r="G5" s="18">
-        <v>45481</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="18">
-        <v>45540</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="M5" s="26"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
+      <c r="E6" s="16" t="s">
+        <v>26</v>
+      </c>
       <c r="F6" s="17">
         <v>5</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="26"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="G6" s="18">
+        <v>45299</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="18">
+        <v>45330</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="26">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="14">
+        <v>5</v>
+      </c>
+      <c r="G7" s="15">
+        <v>45323</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="15">
+        <v>45355</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="27">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="7">
+        <v>5</v>
+      </c>
+      <c r="G8" s="23">
+        <v>45218</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="23">
+        <v>45250</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="25"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="7">
+        <v>5</v>
+      </c>
+      <c r="G9" s="23">
+        <v>45320</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="23">
+        <v>45358</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" s="25"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="17">
+        <v>5</v>
+      </c>
+      <c r="G10" s="18">
+        <v>45400</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="18">
+        <v>45439</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="26"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="17">
+        <v>5</v>
+      </c>
+      <c r="G11" s="18">
+        <v>45481</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="18">
+        <v>45502</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" s="26"/>
+    </row>
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="19">
+        <v>5</v>
+      </c>
+      <c r="G12" s="20">
+        <v>45393</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="20">
+        <v>45425</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" s="28"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="19">
+        <v>5</v>
+      </c>
+      <c r="G13" s="20">
+        <v>45488</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="20">
+        <v>45547</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" s="28"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="21">
+        <v>5</v>
+      </c>
+      <c r="G14" s="22">
+        <v>45670</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="I14" s="22">
+        <v>45701</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="L14" s="29"/>
+    </row>
+    <row r="15" spans="1:12" s="81" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17">
+        <v>5</v>
+      </c>
+      <c r="G15" s="18"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="26"/>
+    </row>
+    <row r="16" spans="1:12" s="81" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17">
+        <v>10</v>
+      </c>
+      <c r="G16" s="18"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="26"/>
+    </row>
+    <row r="17" spans="1:12" s="81" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="14">
+        <v>5</v>
+      </c>
+      <c r="G17" s="15">
+        <v>45691</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="15">
+        <v>45729</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L17" s="27"/>
+    </row>
+    <row r="18" spans="1:12" s="81" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17">
+        <v>25</v>
+      </c>
+      <c r="G18" s="18"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="26"/>
+    </row>
+    <row r="19" spans="1:12" s="81" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17">
-        <v>10</v>
-      </c>
-      <c r="G7" s="18">
-        <v>45444</v>
-      </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="26"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="B19" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="19">
+        <v>5</v>
+      </c>
+      <c r="G19" s="20">
+        <v>45782</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="20">
+        <v>45813</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="L19" s="28"/>
+    </row>
+    <row r="20" spans="1:12" s="81" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="14">
+        <v>5</v>
+      </c>
+      <c r="G20" s="15">
+        <v>45848</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="15">
+        <v>45901</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" s="27"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="52" t="s">
         <v>77</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17">
-        <v>25</v>
-      </c>
-      <c r="G8" s="18">
-        <v>45658</v>
-      </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="26"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="19">
-        <v>5</v>
-      </c>
-      <c r="G9" s="20">
-        <v>45393</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="20">
-        <v>45425</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="M9" s="28"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="19">
-        <v>5</v>
-      </c>
-      <c r="G10" s="20">
-        <v>45488</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="20">
-        <v>45547</v>
-      </c>
-      <c r="J10" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="M10" s="28"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="19">
-        <v>5</v>
-      </c>
-      <c r="G11" s="20">
-        <v>45782</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="20">
-        <v>45813</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="M11" s="28"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="83" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="14">
-        <v>5</v>
-      </c>
-      <c r="G12" s="15">
-        <v>45323</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="15">
-        <v>45355</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="M12" s="27"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="14">
-        <v>5</v>
-      </c>
-      <c r="G13" s="15">
-        <v>45691</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="15">
-        <v>45729</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="M13" s="27"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="14">
-        <v>5</v>
-      </c>
-      <c r="G14" s="15">
-        <v>45848</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="15">
-        <v>45901</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="M14" s="27"/>
-    </row>
-    <row r="15" spans="1:13" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="82" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="7">
-        <v>5</v>
-      </c>
-      <c r="G15" s="23">
-        <v>45029</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="23">
-        <v>45061</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M15" s="25"/>
-    </row>
-    <row r="16" spans="1:13" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="82" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="7">
-        <v>5</v>
-      </c>
-      <c r="G16" s="23">
-        <v>45036</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="23">
-        <v>45068</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M16" s="25"/>
-    </row>
-    <row r="17" spans="1:13" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="82" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="7">
-        <v>5</v>
-      </c>
-      <c r="G17" s="23">
-        <v>45043</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" s="23">
-        <v>45082</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="M17" s="25"/>
-    </row>
-    <row r="18" spans="1:13" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7">
-        <v>5</v>
-      </c>
-      <c r="G18" s="23">
-        <v>45120</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="23">
-        <v>45180</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" s="23">
-        <v>45229</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M18" s="25"/>
-    </row>
-    <row r="19" spans="1:13" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="82" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="7">
-        <v>5</v>
-      </c>
-      <c r="G19" s="23">
-        <v>45218</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19" s="23">
-        <v>45250</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M19" s="25"/>
-    </row>
-    <row r="20" spans="1:13" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="7">
-        <v>5</v>
-      </c>
-      <c r="G20" s="23">
-        <v>45320</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I20" s="23">
-        <v>45358</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M20" s="25"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="52" t="s">
-        <v>78</v>
       </c>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
@@ -2864,49 +2791,46 @@
       <c r="I21" s="50"/>
       <c r="J21" s="50"/>
       <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50" t="e" cm="1">
-        <f t="array" ref="M21">SUMPRODUCT(IF(Modulliste[Note]&lt;&gt;"", Modulliste[Note]), Modulliste[LP]) / SUM(IF(Modulliste[Note]&lt;&gt;"", Modulliste[LP]))</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L21" s="50" cm="1">
+        <f t="array" ref="L21">SUMPRODUCT(IF(Modulliste[Note]&lt;&gt;"", Modulliste[Note]), Modulliste[LP]) / SUM(IF(Modulliste[Note]&lt;&gt;"", Modulliste[LP]))</f>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="E25"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="E26"/>
       <c r="G26" s="12"/>
       <c r="H26" s="5"/>
       <c r="I26" s="12"/>
       <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="E27"/>
       <c r="G27" s="12"/>
       <c r="I27" s="12"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="E28"/>
       <c r="H28" s="5"/>
       <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2937,67 +2861,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="80">
+      <c r="A1" s="85">
         <v>2023</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
       <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="84"/>
+      <c r="C3" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="78" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="79"/>
-      <c r="E3" s="78" t="s">
+      <c r="F3" s="84"/>
+      <c r="G3" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="79"/>
-      <c r="G3" s="78" t="s">
+      <c r="H3" s="84"/>
+      <c r="I3" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="79"/>
-      <c r="I3" s="78" t="s">
+      <c r="J3" s="84"/>
+      <c r="K3" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="J3" s="79"/>
-      <c r="K3" s="78" t="s">
+      <c r="L3" s="84"/>
+      <c r="M3" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="L3" s="79"/>
-      <c r="M3" s="78" t="s">
+      <c r="N3" s="84"/>
+      <c r="O3" s="33" t="s">
         <v>85</v>
-      </c>
-      <c r="N3" s="79"/>
-      <c r="O3" s="33" t="s">
-        <v>86</v>
       </c>
       <c r="P3" s="43"/>
       <c r="Q3" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R3" s="43"/>
       <c r="S3" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T3" s="43"/>
       <c r="U3" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V3" s="43"/>
       <c r="W3" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="X3" s="43"/>
       <c r="AC3" s="44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3098,7 +3022,7 @@
         <v>45261</v>
       </c>
       <c r="AC4" s="32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
@@ -3179,7 +3103,7 @@
         <v>45201</v>
       </c>
       <c r="T5" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U5" s="37">
         <f t="shared" si="0"/>
@@ -3198,14 +3122,14 @@
         <v>45262</v>
       </c>
       <c r="Z5" s="46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA5" s="47">
         <f>COUNTIF(A4:X34,"U")</f>
         <v>26</v>
       </c>
       <c r="AC5" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3238,7 +3162,7 @@
         <v>45019</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I6" s="37">
         <f t="shared" si="0"/>
@@ -3305,14 +3229,14 @@
         <v>45263</v>
       </c>
       <c r="Z6" s="48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AA6" s="49">
         <f>30-AA5</f>
         <v>4</v>
       </c>
       <c r="AC6" s="31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3345,7 +3269,7 @@
         <v>45020</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I7" s="37">
         <f t="shared" si="0"/>
@@ -3392,7 +3316,7 @@
         <v>45203</v>
       </c>
       <c r="T7" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U7" s="37">
         <f t="shared" si="0"/>
@@ -3411,7 +3335,7 @@
         <v>45264</v>
       </c>
       <c r="AC7" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
@@ -3444,7 +3368,7 @@
         <v>45021</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I8" s="37">
         <f t="shared" si="0"/>
@@ -3491,7 +3415,7 @@
         <v>45204</v>
       </c>
       <c r="T8" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U8" s="37">
         <f t="shared" si="0"/>
@@ -3510,7 +3434,7 @@
         <v>45265</v>
       </c>
       <c r="AC8" s="53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
@@ -3543,7 +3467,7 @@
         <v>45022</v>
       </c>
       <c r="H9" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I9" s="37">
         <f t="shared" si="0"/>
@@ -3590,7 +3514,7 @@
         <v>45205</v>
       </c>
       <c r="T9" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U9" s="37">
         <f t="shared" si="0"/>
@@ -3655,7 +3579,7 @@
         <v>45084</v>
       </c>
       <c r="L10" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M10" s="37">
         <f t="shared" si="0"/>
@@ -3670,7 +3594,7 @@
         <v>45145</v>
       </c>
       <c r="P10" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q10" s="37">
         <f t="shared" si="0"/>
@@ -3767,7 +3691,7 @@
         <v>45146</v>
       </c>
       <c r="P11" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q11" s="37">
         <f t="shared" si="0"/>
@@ -3848,7 +3772,7 @@
         <v>45086</v>
       </c>
       <c r="L12" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M12" s="37">
         <f t="shared" si="0"/>
@@ -3863,7 +3787,7 @@
         <v>45147</v>
       </c>
       <c r="P12" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q12" s="37">
         <f t="shared" si="0"/>
@@ -3960,7 +3884,7 @@
         <v>45148</v>
       </c>
       <c r="P13" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q13" s="37">
         <f t="shared" si="0"/>
@@ -4057,7 +3981,7 @@
         <v>45149</v>
       </c>
       <c r="P14" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q14" s="37">
         <f t="shared" si="0"/>
@@ -4350,14 +4274,14 @@
         <v>45152</v>
       </c>
       <c r="P17" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q17" s="37">
         <f t="shared" si="0"/>
         <v>45183</v>
       </c>
       <c r="R17" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S17" s="37">
         <f t="shared" si="0"/>
@@ -4446,14 +4370,14 @@
         <v>45153</v>
       </c>
       <c r="P18" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q18" s="37">
         <f t="shared" si="0"/>
         <v>45184</v>
       </c>
       <c r="R18" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S18" s="37">
         <f t="shared" si="0"/>
@@ -4542,7 +4466,7 @@
         <v>45154</v>
       </c>
       <c r="P19" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q19" s="37">
         <f t="shared" si="0"/>
@@ -4639,7 +4563,7 @@
         <v>45155</v>
       </c>
       <c r="P20" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q20" s="37">
         <f t="shared" si="0"/>
@@ -4736,7 +4660,7 @@
         <v>45156</v>
       </c>
       <c r="P21" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q21" s="37">
         <f t="shared" ref="Q21:Q34" si="9">IFERROR(IF(MONTH(Q20+1)=MONTH(Q$4),Q20+1,""),"")</f>
@@ -4809,7 +4733,7 @@
         <v>45065</v>
       </c>
       <c r="J22" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K22" s="37">
         <f t="shared" si="6"/>
@@ -5648,7 +5572,7 @@
         <v>45287</v>
       </c>
       <c r="X30" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
@@ -5745,7 +5669,7 @@
         <v>45288</v>
       </c>
       <c r="X31" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
@@ -5842,7 +5766,7 @@
         <v>45289</v>
       </c>
       <c r="X32" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
@@ -6066,17 +5990,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A4:X34">
-    <cfRule type="expression" dxfId="20" priority="2">
+    <cfRule type="expression" dxfId="32" priority="1">
+      <formula>TODAY()=A4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="2">
       <formula>OR(A4="F",B4="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="3">
+    <cfRule type="expression" dxfId="30" priority="3">
       <formula>OR(A4="U",B4="U")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="10">
+    <cfRule type="expression" dxfId="29" priority="10">
       <formula>WEEKDAY(A4,2)&gt;5</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="1">
-      <formula>TODAY()=A4</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -6088,8 +6012,8 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="4" id="{2384E0C4-B432-4A69-9F1C-5FF116CB2572}">
-            <xm:f>AND(NOT(A4=""),OR(COUNTIF(Modulliste!$K$2:$K$19,A4)&gt;0))</xm:f>
+          <x14:cfRule type="expression" priority="11" id="{2384E0C4-B432-4A69-9F1C-5FF116CB2572}">
+            <xm:f>AND(NOT(A4=""),OR(COUNTIF(Modulliste!#REF!,A4)&gt;0))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -6098,7 +6022,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="5" id="{01E0AAD0-3179-4A4C-A3F5-F297F1811797}">
+          <x14:cfRule type="expression" priority="12" id="{01E0AAD0-3179-4A4C-A3F5-F297F1811797}">
             <xm:f>AND(NOT(A4=""),OR(COUNTIF(Modulliste!$I$2:$I$19,A4)&gt;0,COUNTIF(Modulliste!$I$2:$I$19,A4-1)&gt;0,COUNTIF(Modulliste!$I$2:$I$19,A4-2)&gt;0))</xm:f>
             <x14:dxf>
               <fill>
@@ -6108,7 +6032,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="6" id="{732B42F6-81A6-4A60-8F1F-AD58B9AE4C14}">
+          <x14:cfRule type="expression" priority="13" id="{732B42F6-81A6-4A60-8F1F-AD58B9AE4C14}">
             <xm:f>AND(NOT(A4=""),OR(COUNTIF(Modulliste!$G$2:$G$19,A4)&gt;0,COUNTIF(Modulliste!$G$2:$G$19,A4-1)&gt;0,COUNTIF(Modulliste!$G$2:$G$19,A4-2)&gt;0))</xm:f>
             <x14:dxf>
               <fill>
@@ -6132,7 +6056,7 @@
   <dimension ref="A1:AC37"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6144,67 +6068,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="80">
+      <c r="A1" s="85">
         <v>2024</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
       <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="84"/>
+      <c r="C3" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="78" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="79"/>
-      <c r="E3" s="78" t="s">
+      <c r="F3" s="84"/>
+      <c r="G3" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="79"/>
-      <c r="G3" s="78" t="s">
+      <c r="H3" s="84"/>
+      <c r="I3" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="79"/>
-      <c r="I3" s="78" t="s">
+      <c r="J3" s="84"/>
+      <c r="K3" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="J3" s="79"/>
-      <c r="K3" s="78" t="s">
+      <c r="L3" s="84"/>
+      <c r="M3" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="L3" s="79"/>
-      <c r="M3" s="78" t="s">
+      <c r="N3" s="84"/>
+      <c r="O3" s="33" t="s">
         <v>85</v>
-      </c>
-      <c r="N3" s="79"/>
-      <c r="O3" s="33" t="s">
-        <v>86</v>
       </c>
       <c r="P3" s="43"/>
       <c r="Q3" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R3" s="43"/>
       <c r="S3" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T3" s="43"/>
       <c r="U3" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V3" s="43"/>
       <c r="W3" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="X3" s="43"/>
       <c r="AC3" s="44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6253,7 +6177,7 @@
         <v>45444</v>
       </c>
       <c r="L4" s="69" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M4" s="34">
         <f>DATE($A$1,7,1)</f>
@@ -6304,7 +6228,7 @@
         <v>45627</v>
       </c>
       <c r="AC4" s="32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
@@ -6313,7 +6237,7 @@
         <v>45293</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" s="37">
         <f t="shared" ref="C5:C20" si="0">IFERROR(IF(MONTH(C4+1)=MONTH(C$4),C4+1,""),"")</f>
@@ -6368,7 +6292,7 @@
         <v>45506</v>
       </c>
       <c r="P5" s="66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q5" s="37">
         <f t="shared" ref="Q5:Q9" si="6">IFERROR(IF(MONTH(Q4+1)=MONTH(Q$4),Q4+1,""),"")</f>
@@ -6403,14 +6327,14 @@
         <v>45628</v>
       </c>
       <c r="Z5" s="46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA5" s="47">
         <f>COUNTIF(A4:X34,"U")</f>
         <v>17</v>
       </c>
       <c r="AC5" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6419,7 +6343,7 @@
         <v>45294</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" s="37">
         <f t="shared" si="0"/>
@@ -6450,7 +6374,7 @@
         <v>45415</v>
       </c>
       <c r="J6" s="66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K6" s="37">
         <f t="shared" si="2"/>
@@ -6473,7 +6397,7 @@
         <v>45507</v>
       </c>
       <c r="P6" s="66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q6" s="37">
         <f t="shared" si="6"/>
@@ -6508,14 +6432,14 @@
         <v>45629</v>
       </c>
       <c r="Z6" s="48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AA6" s="49">
         <f>30-AA5</f>
         <v>13</v>
       </c>
       <c r="AC6" s="31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
@@ -6524,7 +6448,7 @@
         <v>45295</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" s="37">
         <f t="shared" si="0"/>
@@ -6555,7 +6479,7 @@
         <v>45416</v>
       </c>
       <c r="J7" s="66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K7" s="37">
         <f t="shared" si="2"/>
@@ -6614,7 +6538,7 @@
         <v>45630</v>
       </c>
       <c r="AC7" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
@@ -6623,7 +6547,7 @@
         <v>45296</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" s="37">
         <f t="shared" si="0"/>
@@ -6646,7 +6570,7 @@
         <v>45387</v>
       </c>
       <c r="H8" s="66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I8" s="37">
         <f t="shared" si="2"/>
@@ -6669,7 +6593,7 @@
         <v>45478</v>
       </c>
       <c r="N8" s="66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O8" s="37">
         <f t="shared" si="5"/>
@@ -6712,7 +6636,7 @@
         <v>45631</v>
       </c>
       <c r="AC8" s="53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
@@ -6745,7 +6669,7 @@
         <v>45388</v>
       </c>
       <c r="H9" s="66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I9" s="37">
         <f t="shared" si="2"/>
@@ -6768,7 +6692,7 @@
         <v>45479</v>
       </c>
       <c r="N9" s="66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O9" s="37">
         <f t="shared" si="5"/>
@@ -6811,7 +6735,7 @@
         <v>45632</v>
       </c>
       <c r="AC9" s="64" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
@@ -6860,7 +6784,7 @@
         <v>45450</v>
       </c>
       <c r="L10" s="66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M10" s="37">
         <f t="shared" si="2"/>
@@ -6957,7 +6881,7 @@
         <v>45451</v>
       </c>
       <c r="L11" s="66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M11" s="37">
         <f t="shared" si="2"/>
@@ -7070,7 +6994,7 @@
         <v>45513</v>
       </c>
       <c r="P12" s="66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q12" s="37">
         <f t="shared" si="5"/>
@@ -7143,7 +7067,7 @@
         <v>45422</v>
       </c>
       <c r="J13" s="66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K13" s="37">
         <f t="shared" si="2"/>
@@ -7166,7 +7090,7 @@
         <v>45514</v>
       </c>
       <c r="P13" s="66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q13" s="37">
         <f t="shared" si="5"/>
@@ -7231,14 +7155,14 @@
         <v>45393</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I14" s="37">
         <f t="shared" si="2"/>
         <v>45423</v>
       </c>
       <c r="J14" s="66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K14" s="37">
         <f t="shared" si="2"/>
@@ -7327,7 +7251,7 @@
         <v>45394</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I15" s="37">
         <f t="shared" si="2"/>
@@ -7538,7 +7462,7 @@
         <v>45457</v>
       </c>
       <c r="L17" s="66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M17" s="37">
         <f t="shared" si="2"/>
@@ -7635,7 +7559,7 @@
         <v>45458</v>
       </c>
       <c r="L18" s="66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M18" s="37">
         <f t="shared" si="2"/>
@@ -7748,7 +7672,7 @@
         <v>45520</v>
       </c>
       <c r="P19" s="66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q19" s="37">
         <f t="shared" si="5"/>
@@ -7821,7 +7745,7 @@
         <v>45429</v>
       </c>
       <c r="J20" s="66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K20" s="37">
         <f t="shared" si="2"/>
@@ -7844,7 +7768,7 @@
         <v>45521</v>
       </c>
       <c r="P20" s="66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q20" s="37">
         <f t="shared" si="5"/>
@@ -7909,14 +7833,14 @@
         <v>45400</v>
       </c>
       <c r="H21" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I21" s="37">
         <f t="shared" ref="I21:I34" si="15">IFERROR(IF(MONTH(I20+1)=MONTH(I$4),I20+1,""),"")</f>
         <v>45430</v>
       </c>
       <c r="J21" s="66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K21" s="37">
         <f t="shared" ref="K21:K34" si="16">IFERROR(IF(MONTH(K20+1)=MONTH(K$4),K20+1,""),"")</f>
@@ -8005,7 +7929,7 @@
         <v>45401</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I22" s="37">
         <f t="shared" si="15"/>
@@ -8028,7 +7952,7 @@
         <v>45492</v>
       </c>
       <c r="N22" s="66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O22" s="37">
         <f t="shared" si="18"/>
@@ -8125,7 +8049,7 @@
         <v>45493</v>
       </c>
       <c r="N23" s="66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O23" s="37">
         <f t="shared" si="18"/>
@@ -8214,7 +8138,7 @@
         <v>45464</v>
       </c>
       <c r="L24" s="66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M24" s="37">
         <f t="shared" si="17"/>
@@ -8311,7 +8235,7 @@
         <v>45465</v>
       </c>
       <c r="L25" s="66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M25" s="37">
         <f t="shared" si="17"/>
@@ -8424,7 +8348,7 @@
         <v>45527</v>
       </c>
       <c r="P26" s="67" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q26" s="72">
         <f t="shared" si="19"/>
@@ -8455,7 +8379,7 @@
         <v>45649</v>
       </c>
       <c r="X26" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:24" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -8496,7 +8420,7 @@
         <v>45436</v>
       </c>
       <c r="J27" s="67" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K27" s="58">
         <f t="shared" si="16"/>
@@ -8519,7 +8443,7 @@
         <v>45528</v>
       </c>
       <c r="P27" s="67" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q27" s="74">
         <f t="shared" si="19"/>
@@ -8550,7 +8474,7 @@
         <v>45650</v>
       </c>
       <c r="X27" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
@@ -8575,7 +8499,7 @@
         <v>45376</v>
       </c>
       <c r="F28" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G28" s="37">
         <f t="shared" si="14"/>
@@ -8590,7 +8514,7 @@
         <v>45437</v>
       </c>
       <c r="J28" s="67" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K28" s="60">
         <f t="shared" si="16"/>
@@ -8671,14 +8595,14 @@
         <v>45377</v>
       </c>
       <c r="F29" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G29" s="37">
         <f t="shared" si="14"/>
         <v>45408</v>
       </c>
       <c r="H29" s="66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I29" s="37">
         <f t="shared" si="15"/>
@@ -8701,7 +8625,7 @@
         <v>45499</v>
       </c>
       <c r="N29" s="66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O29" s="37">
         <f t="shared" si="18"/>
@@ -8766,14 +8690,14 @@
         <v>45378</v>
       </c>
       <c r="F30" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G30" s="37">
         <f t="shared" si="14"/>
         <v>45409</v>
       </c>
       <c r="H30" s="66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I30" s="37">
         <f t="shared" si="15"/>
@@ -8796,7 +8720,7 @@
         <v>45500</v>
       </c>
       <c r="N30" s="66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O30" s="37">
         <f t="shared" si="18"/>
@@ -8835,7 +8759,7 @@
         <v>45653</v>
       </c>
       <c r="X30" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8860,7 +8784,7 @@
         <v>45379</v>
       </c>
       <c r="F31" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G31" s="37">
         <f t="shared" si="14"/>
@@ -8883,7 +8807,7 @@
         <v>45471</v>
       </c>
       <c r="L31" s="70" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M31" s="56">
         <f t="shared" si="17"/>
@@ -8980,7 +8904,7 @@
         <v>45472</v>
       </c>
       <c r="L32" s="71" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M32" s="56">
         <f t="shared" si="17"/>
@@ -9093,7 +9017,7 @@
         <v>45534</v>
       </c>
       <c r="P33" s="66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q33" s="37">
         <f t="shared" si="19"/>
@@ -9124,7 +9048,7 @@
         <v>45656</v>
       </c>
       <c r="X33" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9165,7 +9089,7 @@
         <v>45443</v>
       </c>
       <c r="J34" s="68" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K34" s="40" t="str">
         <f t="shared" si="16"/>
@@ -9188,7 +9112,7 @@
         <v>45535</v>
       </c>
       <c r="P34" s="68" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q34" s="40" t="str">
         <f t="shared" si="19"/>
@@ -9219,7 +9143,7 @@
         <v>45657</v>
       </c>
       <c r="X34" s="41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
@@ -9246,16 +9170,16 @@
     <mergeCell ref="I3:J3"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:X34">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="28" priority="1">
       <formula>TODAY()=A4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="27" priority="2">
       <formula>OR(A4="F",B4="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="26" priority="3">
       <formula>OR(A4="U",B4="U")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="7">
+    <cfRule type="expression" dxfId="25" priority="7">
       <formula>WEEKDAY(A4,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9266,8 +9190,8 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="4" id="{73078553-1D85-4963-A890-B3A458106B65}">
-            <xm:f>AND(NOT(A4=""),OR(COUNTIF(Modulliste!$K$2:$K$19,A4)&gt;0))</xm:f>
+          <x14:cfRule type="expression" priority="14" id="{73078553-1D85-4963-A890-B3A458106B65}">
+            <xm:f>AND(NOT(A4=""),OR(COUNTIF(Modulliste!#REF!,A4)&gt;0))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -9276,7 +9200,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="5" id="{E702FC86-B431-4ADF-BD9A-51202BB2BBFC}">
+          <x14:cfRule type="expression" priority="15" id="{E702FC86-B431-4ADF-BD9A-51202BB2BBFC}">
             <xm:f>AND(NOT(A4=""),OR(COUNTIF(Modulliste!$I$2:$I$19,A4)&gt;0,COUNTIF(Modulliste!$I$2:$I$19,A4-1)&gt;0,COUNTIF(Modulliste!$I$2:$I$19,A4-2)&gt;0))</xm:f>
             <x14:dxf>
               <fill>
@@ -9286,7 +9210,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="6" id="{4B6781FC-2909-4FB0-B0A0-88C81246C83A}">
+          <x14:cfRule type="expression" priority="16" id="{4B6781FC-2909-4FB0-B0A0-88C81246C83A}">
             <xm:f>AND(NOT(A4=""),OR(COUNTIF(Modulliste!$G$2:$G$19,A4)&gt;0,COUNTIF(Modulliste!$G$2:$G$19,A4-1)&gt;0,COUNTIF(Modulliste!$G$2:$G$19,A4-2)&gt;0))</xm:f>
             <x14:dxf>
               <fill>
@@ -9321,67 +9245,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="80">
+      <c r="A1" s="85">
         <v>2025</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
       <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="84"/>
+      <c r="C3" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="78" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="79"/>
-      <c r="E3" s="78" t="s">
+      <c r="F3" s="84"/>
+      <c r="G3" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="79"/>
-      <c r="G3" s="78" t="s">
+      <c r="H3" s="84"/>
+      <c r="I3" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="79"/>
-      <c r="I3" s="78" t="s">
+      <c r="J3" s="84"/>
+      <c r="K3" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="J3" s="79"/>
-      <c r="K3" s="78" t="s">
+      <c r="L3" s="84"/>
+      <c r="M3" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="L3" s="79"/>
-      <c r="M3" s="78" t="s">
+      <c r="N3" s="84"/>
+      <c r="O3" s="54" t="s">
         <v>85</v>
-      </c>
-      <c r="N3" s="79"/>
-      <c r="O3" s="54" t="s">
-        <v>86</v>
       </c>
       <c r="P3" s="55"/>
       <c r="Q3" s="54" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R3" s="55"/>
       <c r="S3" s="54" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T3" s="55"/>
       <c r="U3" s="54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V3" s="55"/>
       <c r="W3" s="54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="X3" s="55"/>
       <c r="AC3" s="44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9482,7 +9406,7 @@
         <v>45992</v>
       </c>
       <c r="AC4" s="32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
@@ -9583,14 +9507,14 @@
         <v>45993</v>
       </c>
       <c r="Z5" s="46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA5" s="47">
         <f>COUNTIF(A4:X34,"U")</f>
         <v>0</v>
       </c>
       <c r="AC5" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9691,14 +9615,14 @@
         <v>45994</v>
       </c>
       <c r="Z6" s="48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AA6" s="49">
         <f>30-AA5</f>
         <v>30</v>
       </c>
       <c r="AC6" s="31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
@@ -9799,7 +9723,7 @@
         <v>45995</v>
       </c>
       <c r="AC7" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
@@ -9900,7 +9824,7 @@
         <v>45996</v>
       </c>
       <c r="AC8" s="53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
@@ -12475,16 +12399,16 @@
     <mergeCell ref="I3:J3"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:X34">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="24" priority="1">
       <formula>TODAY()=A4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="23" priority="2">
       <formula>OR(A4="F",B4="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="22" priority="3">
       <formula>OR(A4="U",B4="U")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="7">
+    <cfRule type="expression" dxfId="21" priority="7">
       <formula>WEEKDAY(A4,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12494,8 +12418,8 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="4" id="{D835A6D3-5669-4DDA-85F0-3476276045A2}">
-            <xm:f>AND(NOT(A4=""),OR(COUNTIF(Modulliste!$K$2:$K$20,A4)&gt;0))</xm:f>
+          <x14:cfRule type="expression" priority="17" id="{D835A6D3-5669-4DDA-85F0-3476276045A2}">
+            <xm:f>AND(NOT(A4=""),OR(COUNTIF(Modulliste!#REF!,A4)&gt;0))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -12504,7 +12428,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="5" id="{1B902BD7-7D62-48F7-9850-BE4C0D74B7B2}">
+          <x14:cfRule type="expression" priority="18" id="{1B902BD7-7D62-48F7-9850-BE4C0D74B7B2}">
             <xm:f>AND(NOT(A4=""),OR(COUNTIF(Modulliste!$I$2:$I$20,A4)&gt;0,COUNTIF(Modulliste!$I$2:$I$20,A4-1)&gt;0,COUNTIF(Modulliste!$I$2:$I$20,A4-2)&gt;0))</xm:f>
             <x14:dxf>
               <fill>
@@ -12514,7 +12438,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="6" id="{2762ECD2-9773-449F-9D06-621A561034D1}">
+          <x14:cfRule type="expression" priority="19" id="{2762ECD2-9773-449F-9D06-621A561034D1}">
             <xm:f>AND(NOT(A4=""),OR(COUNTIF(Modulliste!$G$2:$G$20,A4)&gt;0,COUNTIF(Modulliste!$G$2:$G$20,A4-1)&gt;0,COUNTIF(Modulliste!$G$2:$G$20,A4-2)&gt;0))</xm:f>
             <x14:dxf>
               <fill>

--- a/Studiumplan.xlsx
+++ b/Studiumplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00_Programme_RB\DHBW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C016C7E5-58CA-49AE-A73E-9DDC004F3A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11D95F4-FCCA-4B78-8A33-52DD62A5FA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="579" xr2:uid="{8D6EA8FC-9557-4CD3-9C64-AEC02D041DCB}"/>
   </bookViews>
@@ -403,16 +403,7 @@
     <t>Heute</t>
   </si>
   <si>
-    <t>Drahtlose Kommunikationstechnik</t>
-  </si>
-  <si>
     <t>F</t>
-  </si>
-  <si>
-    <t>T3M20503</t>
-  </si>
-  <si>
-    <t>Karlsruhe</t>
   </si>
   <si>
     <t>Prof. Dr. Dietmar Schorr</t>
@@ -425,6 +416,15 @@
   </si>
   <si>
     <t>P</t>
+  </si>
+  <si>
+    <t>Mobile Computing</t>
+  </si>
+  <si>
+    <t>T3M40401  </t>
+  </si>
+  <si>
+    <t>Prof. Dr.-Ing. Kai Becher</t>
   </si>
 </sst>
 </file>
@@ -1342,153 +1342,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1678,6 +1531,153 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1733,18 +1733,18 @@
     <sortCondition ref="C1:C20"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="12" xr3:uid="{2C8AA6B6-31D0-4DF0-9DA9-0D8B08088E24}" name="Modulname" totalsRowLabel="Abschlussnote" dataDxfId="44" totalsRowDxfId="11"/>
-    <tableColumn id="1" xr3:uid="{FF50EF13-B9B2-42C9-A37F-07237C42C851}" name="Bereich" dataDxfId="43" totalsRowDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{DE1BE470-5B26-4F88-8799-243B2BE03172}" name="Semester" dataDxfId="42" totalsRowDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{E64020FC-6A5D-4A49-BCE1-C2569FF59159}" name="Schlüssel" dataDxfId="41" totalsRowDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{8470E22C-4CE1-4553-8671-9BF5989AAE65}" name="Prüfungsart" dataDxfId="40" totalsRowDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{CF2D34DC-4E44-45F0-B25E-0FFB229BA18E}" name="LP" dataDxfId="39" totalsRowDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{80506F77-5504-411A-B364-0B22CC53A582}" name="Termin 1" dataDxfId="38" totalsRowDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{C9413F7D-7FA1-417F-B220-3B19C8279173}" name="Ort 1" dataDxfId="37" totalsRowDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{A89D3283-E2AE-4360-9A93-F5F27682296D}" name="Termin 2" dataDxfId="36" totalsRowDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{DDE1A5EF-F94C-417A-95CA-A29D4C689B48}" name="Ort 2" dataDxfId="35" totalsRowDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{F6C0E347-9701-496F-8B92-1BFEDFF8D817}" name="MODULVERANTWORTUNG" dataDxfId="34" totalsRowDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{A9A48352-3929-4E88-AACC-E1A6F11D63E3}" name="Note" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="0">
+    <tableColumn id="12" xr3:uid="{2C8AA6B6-31D0-4DF0-9DA9-0D8B08088E24}" name="Modulname" totalsRowLabel="Abschlussnote" dataDxfId="23" totalsRowDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{FF50EF13-B9B2-42C9-A37F-07237C42C851}" name="Bereich" dataDxfId="22" totalsRowDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{DE1BE470-5B26-4F88-8799-243B2BE03172}" name="Semester" dataDxfId="21" totalsRowDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{E64020FC-6A5D-4A49-BCE1-C2569FF59159}" name="Schlüssel" dataDxfId="20" totalsRowDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{8470E22C-4CE1-4553-8671-9BF5989AAE65}" name="Prüfungsart" dataDxfId="19" totalsRowDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{CF2D34DC-4E44-45F0-B25E-0FFB229BA18E}" name="LP" dataDxfId="18" totalsRowDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{80506F77-5504-411A-B364-0B22CC53A582}" name="Termin 1" dataDxfId="17" totalsRowDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{C9413F7D-7FA1-417F-B220-3B19C8279173}" name="Ort 1" dataDxfId="16" totalsRowDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{A89D3283-E2AE-4360-9A93-F5F27682296D}" name="Termin 2" dataDxfId="15" totalsRowDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{DDE1A5EF-F94C-417A-95CA-A29D4C689B48}" name="Ort 2" dataDxfId="14" totalsRowDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{F6C0E347-9701-496F-8B92-1BFEDFF8D817}" name="MODULVERANTWORTUNG" dataDxfId="13" totalsRowDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{A9A48352-3929-4E88-AACC-E1A6F11D63E3}" name="Note" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="0">
       <totalsRowFormula array="1">SUMPRODUCT(IF(Modulliste[Note]&lt;&gt;"", Modulliste[Note]), Modulliste[LP]) / SUM(IF(Modulliste[Note]&lt;&gt;"", Modulliste[LP]))</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -2073,7 +2073,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L10" sqref="L10"/>
+      <selection pane="topRight" activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2235,7 +2235,7 @@
         <v>22</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L4" s="25"/>
     </row>
@@ -2457,7 +2457,9 @@
       <c r="K10" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="L10" s="26"/>
+      <c r="L10" s="26">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="80" t="s">
@@ -2493,9 +2495,11 @@
       <c r="K11" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="L11" s="26"/>
-    </row>
-    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="L11" s="26">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="82" t="s">
         <v>47</v>
       </c>
@@ -2529,7 +2533,9 @@
       <c r="K12" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="L12" s="28"/>
+      <c r="L12" s="28">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
@@ -2565,43 +2571,47 @@
       <c r="K13" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="L13" s="28"/>
+      <c r="L13" s="28">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>98</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>99</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>68</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="F14" s="21">
         <v>5</v>
       </c>
       <c r="G14" s="22">
-        <v>45670</v>
+        <v>45600</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="I14" s="22">
-        <v>45701</v>
+        <v>45631</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="L14" s="29"/>
+        <v>105</v>
+      </c>
+      <c r="L14" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:12" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
@@ -2645,7 +2655,9 @@
       <c r="I16" s="18"/>
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
-      <c r="L16" s="26"/>
+      <c r="L16" s="26">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="17" spans="1:12" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
@@ -2681,7 +2693,9 @@
       <c r="K17" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="L17" s="27"/>
+      <c r="L17" s="27">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="18" spans="1:12" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
@@ -2703,7 +2717,9 @@
       <c r="I18" s="18"/>
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
-      <c r="L18" s="26"/>
+      <c r="L18" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:12" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
@@ -2739,7 +2755,9 @@
       <c r="K19" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="L19" s="28"/>
+      <c r="L19" s="28">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:12" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
@@ -2775,7 +2793,9 @@
       <c r="K20" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="L20" s="27"/>
+      <c r="L20" s="27">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="52" t="s">
@@ -2793,7 +2813,7 @@
       <c r="K21" s="50"/>
       <c r="L21" s="50" cm="1">
         <f t="array" ref="L21">SUMPRODUCT(IF(Modulliste[Note]&lt;&gt;"", Modulliste[Note]), Modulliste[LP]) / SUM(IF(Modulliste[Note]&lt;&gt;"", Modulliste[LP]))</f>
-        <v>2.1</v>
+        <v>1.3764705882352941</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -5990,16 +6010,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A4:X34">
-    <cfRule type="expression" dxfId="32" priority="1">
+    <cfRule type="expression" dxfId="44" priority="1">
       <formula>TODAY()=A4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="2">
+    <cfRule type="expression" dxfId="43" priority="2">
       <formula>OR(A4="F",B4="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="3">
+    <cfRule type="expression" dxfId="42" priority="3">
       <formula>OR(A4="U",B4="U")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="10">
+    <cfRule type="expression" dxfId="41" priority="10">
       <formula>WEEKDAY(A4,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6177,7 +6197,7 @@
         <v>45444</v>
       </c>
       <c r="L4" s="69" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M4" s="34">
         <f>DATE($A$1,7,1)</f>
@@ -6292,7 +6312,7 @@
         <v>45506</v>
       </c>
       <c r="P5" s="66" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q5" s="37">
         <f t="shared" ref="Q5:Q9" si="6">IFERROR(IF(MONTH(Q4+1)=MONTH(Q$4),Q4+1,""),"")</f>
@@ -6374,7 +6394,7 @@
         <v>45415</v>
       </c>
       <c r="J6" s="66" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K6" s="37">
         <f t="shared" si="2"/>
@@ -6397,7 +6417,7 @@
         <v>45507</v>
       </c>
       <c r="P6" s="66" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q6" s="37">
         <f t="shared" si="6"/>
@@ -6479,7 +6499,7 @@
         <v>45416</v>
       </c>
       <c r="J7" s="66" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K7" s="37">
         <f t="shared" si="2"/>
@@ -6570,7 +6590,7 @@
         <v>45387</v>
       </c>
       <c r="H8" s="66" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I8" s="37">
         <f t="shared" si="2"/>
@@ -6593,7 +6613,7 @@
         <v>45478</v>
       </c>
       <c r="N8" s="66" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O8" s="37">
         <f t="shared" si="5"/>
@@ -6669,7 +6689,7 @@
         <v>45388</v>
       </c>
       <c r="H9" s="66" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I9" s="37">
         <f t="shared" si="2"/>
@@ -6692,7 +6712,7 @@
         <v>45479</v>
       </c>
       <c r="N9" s="66" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O9" s="37">
         <f t="shared" si="5"/>
@@ -6735,7 +6755,7 @@
         <v>45632</v>
       </c>
       <c r="AC9" s="64" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
@@ -6784,7 +6804,7 @@
         <v>45450</v>
       </c>
       <c r="L10" s="66" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M10" s="37">
         <f t="shared" si="2"/>
@@ -6881,7 +6901,7 @@
         <v>45451</v>
       </c>
       <c r="L11" s="66" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M11" s="37">
         <f t="shared" si="2"/>
@@ -6994,7 +7014,7 @@
         <v>45513</v>
       </c>
       <c r="P12" s="66" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q12" s="37">
         <f t="shared" si="5"/>
@@ -7067,7 +7087,7 @@
         <v>45422</v>
       </c>
       <c r="J13" s="66" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K13" s="37">
         <f t="shared" si="2"/>
@@ -7090,7 +7110,7 @@
         <v>45514</v>
       </c>
       <c r="P13" s="66" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Q13" s="37">
         <f t="shared" si="5"/>
@@ -7162,7 +7182,7 @@
         <v>45423</v>
       </c>
       <c r="J14" s="66" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K14" s="37">
         <f t="shared" si="2"/>
@@ -7462,7 +7482,7 @@
         <v>45457</v>
       </c>
       <c r="L17" s="66" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M17" s="37">
         <f t="shared" si="2"/>
@@ -7559,7 +7579,7 @@
         <v>45458</v>
       </c>
       <c r="L18" s="66" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M18" s="37">
         <f t="shared" si="2"/>
@@ -7672,7 +7692,7 @@
         <v>45520</v>
       </c>
       <c r="P19" s="66" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q19" s="37">
         <f t="shared" si="5"/>
@@ -7745,7 +7765,7 @@
         <v>45429</v>
       </c>
       <c r="J20" s="66" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K20" s="37">
         <f t="shared" si="2"/>
@@ -7768,7 +7788,7 @@
         <v>45521</v>
       </c>
       <c r="P20" s="66" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q20" s="37">
         <f t="shared" si="5"/>
@@ -7840,7 +7860,7 @@
         <v>45430</v>
       </c>
       <c r="J21" s="66" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K21" s="37">
         <f t="shared" ref="K21:K34" si="16">IFERROR(IF(MONTH(K20+1)=MONTH(K$4),K20+1,""),"")</f>
@@ -7952,7 +7972,7 @@
         <v>45492</v>
       </c>
       <c r="N22" s="66" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O22" s="37">
         <f t="shared" si="18"/>
@@ -8049,7 +8069,7 @@
         <v>45493</v>
       </c>
       <c r="N23" s="66" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O23" s="37">
         <f t="shared" si="18"/>
@@ -8138,7 +8158,7 @@
         <v>45464</v>
       </c>
       <c r="L24" s="66" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M24" s="37">
         <f t="shared" si="17"/>
@@ -8235,7 +8255,7 @@
         <v>45465</v>
       </c>
       <c r="L25" s="66" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M25" s="37">
         <f t="shared" si="17"/>
@@ -8348,7 +8368,7 @@
         <v>45527</v>
       </c>
       <c r="P26" s="67" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q26" s="72">
         <f t="shared" si="19"/>
@@ -8420,7 +8440,7 @@
         <v>45436</v>
       </c>
       <c r="J27" s="67" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K27" s="58">
         <f t="shared" si="16"/>
@@ -8443,7 +8463,7 @@
         <v>45528</v>
       </c>
       <c r="P27" s="67" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q27" s="74">
         <f t="shared" si="19"/>
@@ -8514,7 +8534,7 @@
         <v>45437</v>
       </c>
       <c r="J28" s="67" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K28" s="60">
         <f t="shared" si="16"/>
@@ -8602,7 +8622,7 @@
         <v>45408</v>
       </c>
       <c r="H29" s="66" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I29" s="37">
         <f t="shared" si="15"/>
@@ -8625,7 +8645,7 @@
         <v>45499</v>
       </c>
       <c r="N29" s="66" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O29" s="37">
         <f t="shared" si="18"/>
@@ -8697,7 +8717,7 @@
         <v>45409</v>
       </c>
       <c r="H30" s="66" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I30" s="37">
         <f t="shared" si="15"/>
@@ -8720,7 +8740,7 @@
         <v>45500</v>
       </c>
       <c r="N30" s="66" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O30" s="37">
         <f t="shared" si="18"/>
@@ -8807,7 +8827,7 @@
         <v>45471</v>
       </c>
       <c r="L31" s="70" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M31" s="56">
         <f t="shared" si="17"/>
@@ -8904,7 +8924,7 @@
         <v>45472</v>
       </c>
       <c r="L32" s="71" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M32" s="56">
         <f t="shared" si="17"/>
@@ -9017,7 +9037,7 @@
         <v>45534</v>
       </c>
       <c r="P33" s="66" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q33" s="37">
         <f t="shared" si="19"/>
@@ -9089,7 +9109,7 @@
         <v>45443</v>
       </c>
       <c r="J34" s="68" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K34" s="40" t="str">
         <f t="shared" si="16"/>
@@ -9112,7 +9132,7 @@
         <v>45535</v>
       </c>
       <c r="P34" s="68" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q34" s="40" t="str">
         <f t="shared" si="19"/>
@@ -9170,16 +9190,16 @@
     <mergeCell ref="I3:J3"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:X34">
-    <cfRule type="expression" dxfId="28" priority="1">
+    <cfRule type="expression" dxfId="37" priority="1">
       <formula>TODAY()=A4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="2">
+    <cfRule type="expression" dxfId="36" priority="2">
       <formula>OR(A4="F",B4="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="3">
+    <cfRule type="expression" dxfId="35" priority="3">
       <formula>OR(A4="U",B4="U")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="7">
+    <cfRule type="expression" dxfId="34" priority="7">
       <formula>WEEKDAY(A4,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12399,16 +12419,16 @@
     <mergeCell ref="I3:J3"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:X34">
-    <cfRule type="expression" dxfId="24" priority="1">
+    <cfRule type="expression" dxfId="30" priority="1">
       <formula>TODAY()=A4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="2">
+    <cfRule type="expression" dxfId="29" priority="2">
       <formula>OR(A4="F",B4="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="3">
+    <cfRule type="expression" dxfId="28" priority="3">
       <formula>OR(A4="U",B4="U")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="7">
+    <cfRule type="expression" dxfId="27" priority="7">
       <formula>WEEKDAY(A4,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Studiumplan.xlsx
+++ b/Studiumplan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr showObjects="none" codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00_Programme_RB\DHBW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11D95F4-FCCA-4B78-8A33-52DD62A5FA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1597C562-BE2B-4650-BADA-966B3D7F8696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="579" xr2:uid="{8D6EA8FC-9557-4CD3-9C64-AEC02D041DCB}"/>
   </bookViews>
@@ -1342,6 +1342,153 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1531,153 +1678,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1733,18 +1733,18 @@
     <sortCondition ref="C1:C20"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="12" xr3:uid="{2C8AA6B6-31D0-4DF0-9DA9-0D8B08088E24}" name="Modulname" totalsRowLabel="Abschlussnote" dataDxfId="23" totalsRowDxfId="11"/>
-    <tableColumn id="1" xr3:uid="{FF50EF13-B9B2-42C9-A37F-07237C42C851}" name="Bereich" dataDxfId="22" totalsRowDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{DE1BE470-5B26-4F88-8799-243B2BE03172}" name="Semester" dataDxfId="21" totalsRowDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{E64020FC-6A5D-4A49-BCE1-C2569FF59159}" name="Schlüssel" dataDxfId="20" totalsRowDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{8470E22C-4CE1-4553-8671-9BF5989AAE65}" name="Prüfungsart" dataDxfId="19" totalsRowDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{CF2D34DC-4E44-45F0-B25E-0FFB229BA18E}" name="LP" dataDxfId="18" totalsRowDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{80506F77-5504-411A-B364-0B22CC53A582}" name="Termin 1" dataDxfId="17" totalsRowDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{C9413F7D-7FA1-417F-B220-3B19C8279173}" name="Ort 1" dataDxfId="16" totalsRowDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{A89D3283-E2AE-4360-9A93-F5F27682296D}" name="Termin 2" dataDxfId="15" totalsRowDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{DDE1A5EF-F94C-417A-95CA-A29D4C689B48}" name="Ort 2" dataDxfId="14" totalsRowDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{F6C0E347-9701-496F-8B92-1BFEDFF8D817}" name="MODULVERANTWORTUNG" dataDxfId="13" totalsRowDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{A9A48352-3929-4E88-AACC-E1A6F11D63E3}" name="Note" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="0">
+    <tableColumn id="12" xr3:uid="{2C8AA6B6-31D0-4DF0-9DA9-0D8B08088E24}" name="Modulname" totalsRowLabel="Abschlussnote" dataDxfId="44" totalsRowDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{FF50EF13-B9B2-42C9-A37F-07237C42C851}" name="Bereich" dataDxfId="43" totalsRowDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{DE1BE470-5B26-4F88-8799-243B2BE03172}" name="Semester" dataDxfId="42" totalsRowDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{E64020FC-6A5D-4A49-BCE1-C2569FF59159}" name="Schlüssel" dataDxfId="41" totalsRowDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{8470E22C-4CE1-4553-8671-9BF5989AAE65}" name="Prüfungsart" dataDxfId="40" totalsRowDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{CF2D34DC-4E44-45F0-B25E-0FFB229BA18E}" name="LP" dataDxfId="39" totalsRowDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{80506F77-5504-411A-B364-0B22CC53A582}" name="Termin 1" dataDxfId="38" totalsRowDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{C9413F7D-7FA1-417F-B220-3B19C8279173}" name="Ort 1" dataDxfId="37" totalsRowDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{A89D3283-E2AE-4360-9A93-F5F27682296D}" name="Termin 2" dataDxfId="36" totalsRowDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{DDE1A5EF-F94C-417A-95CA-A29D4C689B48}" name="Ort 2" dataDxfId="35" totalsRowDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{F6C0E347-9701-496F-8B92-1BFEDFF8D817}" name="MODULVERANTWORTUNG" dataDxfId="34" totalsRowDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{A9A48352-3929-4E88-AACC-E1A6F11D63E3}" name="Note" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="0">
       <totalsRowFormula array="1">SUMPRODUCT(IF(Modulliste[Note]&lt;&gt;"", Modulliste[Note]), Modulliste[LP]) / SUM(IF(Modulliste[Note]&lt;&gt;"", Modulliste[LP]))</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -2073,7 +2073,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L21" sqref="L21"/>
+      <selection pane="topRight" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2458,7 +2458,7 @@
         <v>53</v>
       </c>
       <c r="L10" s="26">
-        <v>2.5</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -2495,9 +2495,7 @@
       <c r="K11" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="L11" s="26">
-        <v>1.2</v>
-      </c>
+      <c r="L11" s="26"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="82" t="s">
@@ -2534,11 +2532,11 @@
         <v>53</v>
       </c>
       <c r="L12" s="28">
-        <v>1.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="82" t="s">
         <v>63</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -2571,9 +2569,7 @@
       <c r="K13" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="L13" s="28">
-        <v>1.4</v>
-      </c>
+      <c r="L13" s="28"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
@@ -2609,9 +2605,7 @@
       <c r="K14" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="L14" s="29">
-        <v>1</v>
-      </c>
+      <c r="L14" s="29"/>
     </row>
     <row r="15" spans="1:12" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
@@ -2655,9 +2649,7 @@
       <c r="I16" s="18"/>
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
-      <c r="L16" s="26">
-        <v>1.3</v>
-      </c>
+      <c r="L16" s="26"/>
     </row>
     <row r="17" spans="1:12" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
@@ -2693,9 +2685,7 @@
       <c r="K17" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="L17" s="27">
-        <v>1.4</v>
-      </c>
+      <c r="L17" s="27"/>
     </row>
     <row r="18" spans="1:12" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
@@ -2717,9 +2707,7 @@
       <c r="I18" s="18"/>
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
-      <c r="L18" s="26">
-        <v>1</v>
-      </c>
+      <c r="L18" s="26"/>
     </row>
     <row r="19" spans="1:12" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
@@ -2755,9 +2743,7 @@
       <c r="K19" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="L19" s="28">
-        <v>1</v>
-      </c>
+      <c r="L19" s="28"/>
     </row>
     <row r="20" spans="1:12" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
@@ -2793,9 +2779,7 @@
       <c r="K20" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="L20" s="27">
-        <v>1.4</v>
-      </c>
+      <c r="L20" s="27"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="52" t="s">
@@ -2813,7 +2797,7 @@
       <c r="K21" s="50"/>
       <c r="L21" s="50" cm="1">
         <f t="array" ref="L21">SUMPRODUCT(IF(Modulliste[Note]&lt;&gt;"", Modulliste[Note]), Modulliste[LP]) / SUM(IF(Modulliste[Note]&lt;&gt;"", Modulliste[LP]))</f>
-        <v>1.3764705882352941</v>
+        <v>1.825</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -6010,16 +5994,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A4:X34">
-    <cfRule type="expression" dxfId="44" priority="1">
+    <cfRule type="expression" dxfId="32" priority="1">
       <formula>TODAY()=A4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="2">
+    <cfRule type="expression" dxfId="31" priority="2">
       <formula>OR(A4="F",B4="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="3">
+    <cfRule type="expression" dxfId="30" priority="3">
       <formula>OR(A4="U",B4="U")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="10">
+    <cfRule type="expression" dxfId="29" priority="10">
       <formula>WEEKDAY(A4,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9190,16 +9174,16 @@
     <mergeCell ref="I3:J3"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:X34">
-    <cfRule type="expression" dxfId="37" priority="1">
+    <cfRule type="expression" dxfId="25" priority="1">
       <formula>TODAY()=A4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="2">
+    <cfRule type="expression" dxfId="24" priority="2">
       <formula>OR(A4="F",B4="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="3">
+    <cfRule type="expression" dxfId="23" priority="3">
       <formula>OR(A4="U",B4="U")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="7">
+    <cfRule type="expression" dxfId="22" priority="7">
       <formula>WEEKDAY(A4,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12419,16 +12403,16 @@
     <mergeCell ref="I3:J3"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:X34">
-    <cfRule type="expression" dxfId="30" priority="1">
+    <cfRule type="expression" dxfId="18" priority="1">
       <formula>TODAY()=A4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="2">
+    <cfRule type="expression" dxfId="17" priority="2">
       <formula>OR(A4="F",B4="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="3">
+    <cfRule type="expression" dxfId="16" priority="3">
       <formula>OR(A4="U",B4="U")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="7">
+    <cfRule type="expression" dxfId="15" priority="7">
       <formula>WEEKDAY(A4,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
